--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>EMPRD</t>
   </si>
@@ -449,30 +449,30 @@
     <t>CANTONEIRA DE ALUMINIO</t>
   </si>
   <si>
+    <t>O.01.0115</t>
+  </si>
+  <si>
+    <t>CHAPA PLASTIFICADO 14 MM - 2,20 X 1,10 M</t>
+  </si>
+  <si>
+    <t>E.02.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
+  </si>
+  <si>
+    <t>00000000009021</t>
+  </si>
+  <si>
+    <t>AKEMI REPRESENTANTE</t>
+  </si>
+  <si>
     <t>P2.01.0023</t>
   </si>
   <si>
     <t>BARRA CHATA DE ALUMINIO</t>
   </si>
   <si>
-    <t>O.01.0115</t>
-  </si>
-  <si>
-    <t>CHAPA PLASTIFICADO 14 MM - 2,20 X 1,10 M</t>
-  </si>
-  <si>
-    <t>E.02.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
-  </si>
-  <si>
-    <t>00000000009021</t>
-  </si>
-  <si>
-    <t>AKEMI REPRESENTANTE</t>
-  </si>
-  <si>
     <t>SAMAUMA EVENTOS LTDA</t>
   </si>
   <si>
@@ -656,12 +656,138 @@
     <t>IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
   </si>
   <si>
+    <t>S.08.0410</t>
+  </si>
+  <si>
+    <t>TINTA IMPERMEABILIZANTE ICOPER 20KG</t>
+  </si>
+  <si>
+    <t>00000000000552</t>
+  </si>
+  <si>
+    <t>ISOCOM</t>
+  </si>
+  <si>
+    <t>E.04.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA PROFISSIONAL DE AÇO  8 M X 26 MM</t>
+  </si>
+  <si>
+    <t>E.04.0780</t>
+  </si>
+  <si>
+    <t>LINHA DE NAYLON PARA PEDREIRO</t>
+  </si>
+  <si>
+    <t>E.04.0002</t>
+  </si>
+  <si>
+    <t>BALDE METÁLICO REFORÇADO - 12 L</t>
+  </si>
+  <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PLÁSTICO - 12 L</t>
+  </si>
+  <si>
+    <t>E.04.0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCO DE ESPUMA  OU CAMURÇA</t>
+  </si>
+  <si>
+    <t>R.02.0115</t>
+  </si>
+  <si>
+    <t>TINTA SPRAY</t>
+  </si>
+  <si>
+    <t>W.03.0052</t>
+  </si>
+  <si>
+    <t>ESPUMA EXPANSIVA DE PU 500ML</t>
+  </si>
+  <si>
+    <t>00000000008820</t>
+  </si>
+  <si>
+    <t>NOVA FASE</t>
+  </si>
+  <si>
+    <t>E.04.0737</t>
+  </si>
+  <si>
+    <t>DISCO PARA CORTE DE FERRO DE 7''</t>
+  </si>
+  <si>
+    <t>E.04.1801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTEIRO  400MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>E.04.1851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALHADEIRA  400MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>R.02.0061</t>
+  </si>
+  <si>
+    <t>ROLO DE ESPUMA - 15 CM COM CABO</t>
+  </si>
+  <si>
+    <t>00000000008674</t>
+  </si>
+  <si>
+    <t>REI DAS TINTAS</t>
+  </si>
+  <si>
+    <t>R.02.0062</t>
+  </si>
+  <si>
+    <t>ROLO DE ESPUMA - 9 CM COM CABO</t>
+  </si>
+  <si>
+    <t>S.08.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 1000/TOP IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
+    <t>00000000007398</t>
+  </si>
+  <si>
+    <t>IMPERNORTE</t>
+  </si>
+  <si>
+    <t>S.08.0203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 7000 - FIBRAS  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
+    <t>M.09.0001</t>
+  </si>
+  <si>
+    <t>ARAME GALVANIZADO NØ 12</t>
+  </si>
+  <si>
     <t>L.01.0054</t>
   </si>
   <si>
     <t xml:space="preserve">TIJOLO  CERÂMICA BAIANO 14 X 19 X 29</t>
   </si>
   <si>
+    <t>00000000009072</t>
+  </si>
+  <si>
+    <t>PORTO VELHO</t>
+  </si>
+  <si>
     <t>L.01.0058</t>
   </si>
   <si>
@@ -674,129 +800,27 @@
     <t>BARRA CHATA DE AÇO INOX</t>
   </si>
   <si>
-    <t>S.08.0410</t>
-  </si>
-  <si>
-    <t>TINTA IMPERMEABILIZANTE ICOPER 20KG</t>
-  </si>
-  <si>
-    <t>00000000000552</t>
-  </si>
-  <si>
-    <t>ISOCOM</t>
-  </si>
-  <si>
-    <t>E.04.0170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA PROFISSIONAL DE AÇO  8 M X 26 MM</t>
-  </si>
-  <si>
-    <t>E.04.0780</t>
-  </si>
-  <si>
-    <t>LINHA DE NAYLON PARA PEDREIRO</t>
-  </si>
-  <si>
-    <t>E.04.0002</t>
-  </si>
-  <si>
-    <t>BALDE METÁLICO REFORÇADO - 12 L</t>
-  </si>
-  <si>
-    <t>E.04.0003</t>
-  </si>
-  <si>
-    <t>BALDE PLÁSTICO - 12 L</t>
-  </si>
-  <si>
-    <t>E.04.0269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO DE ESPUMA  OU CAMURÇA</t>
-  </si>
-  <si>
-    <t>R.02.0115</t>
-  </si>
-  <si>
-    <t>TINTA SPRAY</t>
-  </si>
-  <si>
-    <t>W.03.0052</t>
-  </si>
-  <si>
-    <t>ESPUMA EXPANSIVA DE PU 500ML</t>
-  </si>
-  <si>
-    <t>00000000008820</t>
-  </si>
-  <si>
-    <t>NOVA FASE</t>
-  </si>
-  <si>
-    <t>E.04.0737</t>
-  </si>
-  <si>
-    <t>DISCO PARA CORTE DE FERRO DE 7''</t>
-  </si>
-  <si>
-    <t>E.04.1801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTEIRO  400MM SDS PLUS</t>
-  </si>
-  <si>
-    <t>E.04.1851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALHADEIRA  400MM SDS PLUS</t>
-  </si>
-  <si>
-    <t>R.02.0061</t>
-  </si>
-  <si>
-    <t>ROLO DE ESPUMA - 15 CM COM CABO</t>
-  </si>
-  <si>
-    <t>00000000008674</t>
-  </si>
-  <si>
-    <t>REI DAS TINTAS</t>
-  </si>
-  <si>
-    <t>R.02.0062</t>
-  </si>
-  <si>
-    <t>ROLO DE ESPUMA - 9 CM COM CABO</t>
-  </si>
-  <si>
-    <t>S.08.0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPLUS 1000/TOP IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
-  </si>
-  <si>
-    <t>00000000007398</t>
-  </si>
-  <si>
-    <t>IMPERNORTE</t>
-  </si>
-  <si>
-    <t>S.08.0203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPLUS 7000 - FIBRAS  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
-  </si>
-  <si>
-    <t>M.09.0001</t>
-  </si>
-  <si>
-    <t>ARAME GALVANIZADO NØ 12</t>
-  </si>
-  <si>
     <t>SUN MORITZ ADMINISTRADORA</t>
   </si>
   <si>
+    <t>E.04.0280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 4 CM</t>
+  </si>
+  <si>
+    <t>E.04.0282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 8 CM</t>
+  </si>
+  <si>
+    <t>J.02.0813</t>
+  </si>
+  <si>
+    <t>ARGAMASSA ACIII</t>
+  </si>
+  <si>
     <t>C.04.0151</t>
   </si>
   <si>
@@ -815,22 +839,31 @@
     <t>RODO DE 40CM -</t>
   </si>
   <si>
-    <t>E.04.0280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 4 CM</t>
-  </si>
-  <si>
-    <t>E.04.0282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 8 CM</t>
-  </si>
-  <si>
-    <t>J.02.0813</t>
-  </si>
-  <si>
-    <t>ARGAMASSA ACIII</t>
+    <t>MARIA ANGÉLICA A. MONTEIRO DA COSTA</t>
+  </si>
+  <si>
+    <t>H.14.0015</t>
+  </si>
+  <si>
+    <t>ESCORAS METÁLICAS - ALUGUEL</t>
+  </si>
+  <si>
+    <t>J.02.0001</t>
+  </si>
+  <si>
+    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
+  </si>
+  <si>
+    <t>J.05.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMENTO   PORTLAND DE ALTA RESISTENCIA  INICIAL  CP V  ARI SACO COM 50KG</t>
+  </si>
+  <si>
+    <t>00000000010143</t>
+  </si>
+  <si>
+    <t>VOTORANTIM CIMENTO</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1162,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1138,7 +1171,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.71428571428571" customWidth="1" style="1"/>
-    <col min="2" max="2" width="34.4285714285714" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.5714285714286" customWidth="1" style="1"/>
     <col min="3" max="3" width="11.1428571428571" customWidth="1" style="1"/>
     <col min="4" max="4" width="10" customWidth="1" style="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1" style="1"/>
@@ -3082,8 +3115,12 @@
       <c r="E42" s="3">
         <v>45917.4160380208</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="2">
+        <v>79527</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45917</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>145</v>
       </c>
@@ -3091,19 +3128,23 @@
         <v>146</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="K42" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="43">
       <c r="A43" s="2">
@@ -3122,7 +3163,7 @@
         <v>45917.4160380208</v>
       </c>
       <c r="F43" s="2">
-        <v>79527</v>
+        <v>79528</v>
       </c>
       <c r="G43" s="3">
         <v>45917</v>
@@ -3134,22 +3175,22 @@
         <v>148</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="K43" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L43" s="4">
-        <v>110</v>
+        <v>765</v>
       </c>
       <c r="M43" s="4">
-        <v>110</v>
+        <v>7650</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="44">
@@ -3169,34 +3210,34 @@
         <v>45917.4160380208</v>
       </c>
       <c r="F44" s="2">
-        <v>79528</v>
+        <v>79560</v>
       </c>
       <c r="G44" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K44" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4">
-        <v>765</v>
+        <v>78</v>
       </c>
       <c r="M44" s="4">
-        <v>7650</v>
+        <v>78</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="45">
@@ -3216,34 +3257,34 @@
         <v>45917.4160380208</v>
       </c>
       <c r="F45" s="2">
-        <v>79560</v>
+        <v>79567</v>
       </c>
       <c r="G45" s="3">
         <v>45918</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="K45" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L45" s="4">
-        <v>78</v>
+        <v>3.72</v>
       </c>
       <c r="M45" s="4">
-        <v>78</v>
+        <v>148.8</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="46">
@@ -3262,28 +3303,36 @@
       <c r="E46" s="3">
         <v>45917.4170690278</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="2">
+        <v>79517</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45917</v>
+      </c>
       <c r="H46" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="K46" s="4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L46" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+        <v>900</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="47">
       <c r="A47" s="2">
@@ -3308,10 +3357,10 @@
         <v>45917</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>156</v>
@@ -3320,10 +3369,10 @@
         <v>3</v>
       </c>
       <c r="L47" s="4">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="M47" s="4">
-        <v>900</v>
+        <v>522</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>157</v>
@@ -3349,34 +3398,34 @@
         <v>45917.4170690278</v>
       </c>
       <c r="F48" s="2">
-        <v>79517</v>
+        <v>79518</v>
       </c>
       <c r="G48" s="3">
         <v>45917</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="K48" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L48" s="4">
-        <v>174</v>
+        <v>13.5</v>
       </c>
       <c r="M48" s="4">
-        <v>522</v>
+        <v>27</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="49">
@@ -3402,22 +3451,22 @@
         <v>45917</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K49" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L49" s="4">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="M49" s="4">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>161</v>
@@ -3443,34 +3492,34 @@
         <v>45917.4170690278</v>
       </c>
       <c r="F50" s="2">
-        <v>79518</v>
+        <v>79519</v>
       </c>
       <c r="G50" s="3">
         <v>45917</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K50" s="4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="L50" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M50" s="4">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="51">
@@ -3490,34 +3539,34 @@
         <v>45917.4170690278</v>
       </c>
       <c r="F51" s="2">
-        <v>79519</v>
+        <v>79526</v>
       </c>
       <c r="G51" s="3">
         <v>45917</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K51" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L51" s="4">
-        <v>3.5</v>
+        <v>90</v>
       </c>
       <c r="M51" s="4">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="52">
@@ -3537,34 +3586,34 @@
         <v>45917.4170690278</v>
       </c>
       <c r="F52" s="2">
-        <v>79526</v>
+        <v>79570</v>
       </c>
       <c r="G52" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="K52" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L52" s="4">
-        <v>90</v>
+        <v>13.5</v>
       </c>
       <c r="M52" s="4">
-        <v>1800</v>
+        <v>243</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="53">
@@ -4554,28 +4603,36 @@
       <c r="E74" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="2">
+        <v>79537</v>
+      </c>
+      <c r="G74" s="3">
+        <v>45917</v>
+      </c>
       <c r="H74" s="1" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K74" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L74" s="4">
-        <v>9.06</v>
+        <v>952</v>
       </c>
       <c r="M74" s="4">
-        <v>135.9</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+        <v>952</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="75">
       <c r="A75" s="2">
@@ -4593,28 +4650,36 @@
       <c r="E75" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="2">
+        <v>79544</v>
+      </c>
+      <c r="G75" s="3">
+        <v>45917</v>
+      </c>
       <c r="H75" s="1" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K75" s="4">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="L75" s="4">
-        <v>0</v>
+        <v>57.54</v>
       </c>
       <c r="M75" s="4">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+        <v>402.78</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="76">
       <c r="A76" s="2">
@@ -4632,28 +4697,36 @@
       <c r="E76" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="2">
+        <v>79544</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45917</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L76" s="4">
-        <v>12.09</v>
+        <v>6.52</v>
       </c>
       <c r="M76" s="4">
-        <v>120.9</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+        <v>130.4</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="77">
       <c r="A77" s="2">
@@ -4671,28 +4744,36 @@
       <c r="E77" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="2">
+        <v>79544</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45917</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K77" s="4">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="L77" s="4">
-        <v>0</v>
+        <v>19.85</v>
       </c>
       <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+        <v>297.75</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="78">
       <c r="A78" s="2">
@@ -4710,28 +4791,36 @@
       <c r="E78" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="2">
+        <v>79544</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45917</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>8.2</v>
       </c>
       <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="79">
       <c r="A79" s="2">
@@ -4749,28 +4838,36 @@
       <c r="E79" s="3">
         <v>45917.4457125463</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="2">
+        <v>79544</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45917</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>218</v>
+        <v>67</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>219</v>
+        <v>68</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K79" s="4">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="80">
       <c r="A80" s="2">
@@ -4789,34 +4886,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F80" s="2">
-        <v>79537</v>
+        <v>79544</v>
       </c>
       <c r="G80" s="3">
         <v>45917</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L80" s="4">
-        <v>952</v>
+        <v>6</v>
       </c>
       <c r="M80" s="4">
-        <v>952</v>
+        <v>120</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>223</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="81">
@@ -4842,22 +4939,22 @@
         <v>45917</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K81" s="4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L81" s="4">
-        <v>57.54</v>
+        <v>21.11</v>
       </c>
       <c r="M81" s="4">
-        <v>402.78</v>
+        <v>316.65</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>63</v>
@@ -4889,10 +4986,10 @@
         <v>45917</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
@@ -4901,10 +4998,10 @@
         <v>20</v>
       </c>
       <c r="L82" s="4">
-        <v>6.52</v>
+        <v>20.76</v>
       </c>
       <c r="M82" s="4">
-        <v>130.4</v>
+        <v>415.2</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>63</v>
@@ -4936,22 +5033,22 @@
         <v>45917</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K83" s="4">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L83" s="4">
-        <v>19.85</v>
+        <v>17.5</v>
       </c>
       <c r="M83" s="4">
-        <v>297.75</v>
+        <v>420</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>63</v>
@@ -4983,22 +5080,22 @@
         <v>45917</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K84" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L84" s="4">
-        <v>8.2</v>
+        <v>45</v>
       </c>
       <c r="M84" s="4">
-        <v>82</v>
+        <v>675</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>63</v>
@@ -5030,22 +5127,22 @@
         <v>45917</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K85" s="4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L85" s="4">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M85" s="4">
-        <v>90</v>
+        <v>1100</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>63</v>
@@ -5071,34 +5168,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F86" s="2">
-        <v>79544</v>
+        <v>79545</v>
       </c>
       <c r="G86" s="3">
         <v>45917</v>
       </c>
       <c r="H86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K86" s="4">
+        <v>100</v>
+      </c>
+      <c r="L86" s="4">
+        <v>5.11</v>
+      </c>
+      <c r="M86" s="4">
+        <v>511</v>
+      </c>
+      <c r="N86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K86" s="4">
-        <v>20</v>
-      </c>
-      <c r="L86" s="4">
-        <v>6</v>
-      </c>
-      <c r="M86" s="4">
-        <v>120</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
@@ -5118,10 +5215,10 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F87" s="2">
-        <v>79544</v>
+        <v>79551</v>
       </c>
       <c r="G87" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>234</v>
@@ -5136,16 +5233,16 @@
         <v>15</v>
       </c>
       <c r="L87" s="4">
-        <v>21.11</v>
+        <v>14.9</v>
       </c>
       <c r="M87" s="4">
-        <v>316.65</v>
+        <v>223.5</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5165,34 +5262,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F88" s="2">
-        <v>79544</v>
+        <v>79551</v>
       </c>
       <c r="G88" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K88" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L88" s="4">
-        <v>20.76</v>
+        <v>3.3</v>
       </c>
       <c r="M88" s="4">
-        <v>415.2</v>
+        <v>330</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="89">
@@ -5212,34 +5309,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F89" s="2">
-        <v>79544</v>
+        <v>79551</v>
       </c>
       <c r="G89" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K89" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L89" s="4">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="M89" s="4">
-        <v>675</v>
+        <v>1290</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="90">
@@ -5259,34 +5356,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F90" s="2">
-        <v>79544</v>
+        <v>79551</v>
       </c>
       <c r="G90" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K90" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L90" s="4">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="M90" s="4">
-        <v>1100</v>
+        <v>1290</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="91">
@@ -5306,34 +5403,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F91" s="2">
-        <v>79544</v>
+        <v>79552</v>
       </c>
       <c r="G91" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K91" s="4">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L91" s="4">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="M91" s="4">
-        <v>420</v>
+        <v>142.5</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>63</v>
+        <v>242</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="92">
@@ -5353,34 +5450,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F92" s="2">
-        <v>79545</v>
+        <v>79552</v>
       </c>
       <c r="G92" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K92" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L92" s="4">
-        <v>5.11</v>
+        <v>6.2</v>
       </c>
       <c r="M92" s="4">
-        <v>511</v>
+        <v>62</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="93">
@@ -5400,34 +5497,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F93" s="2">
-        <v>79551</v>
+        <v>79555</v>
       </c>
       <c r="G93" s="3">
         <v>45918</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="K93" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L93" s="4">
-        <v>14.9</v>
+        <v>56</v>
       </c>
       <c r="M93" s="4">
-        <v>223.5</v>
+        <v>1680</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="94">
@@ -5447,34 +5544,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F94" s="2">
-        <v>79551</v>
+        <v>79555</v>
       </c>
       <c r="G94" s="3">
         <v>45918</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="K94" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L94" s="4">
-        <v>3.3</v>
+        <v>209</v>
       </c>
       <c r="M94" s="4">
-        <v>330</v>
+        <v>4180</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>75</v>
+        <v>249</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="95">
@@ -5494,34 +5591,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F95" s="2">
-        <v>79551</v>
+        <v>79557</v>
       </c>
       <c r="G95" s="3">
         <v>45918</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K95" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L95" s="4">
-        <v>129</v>
+        <v>17.2</v>
       </c>
       <c r="M95" s="4">
-        <v>1290</v>
+        <v>688</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5541,34 +5638,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F96" s="2">
-        <v>79551</v>
+        <v>79557</v>
       </c>
       <c r="G96" s="3">
         <v>45918</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K96" s="4">
         <v>10</v>
       </c>
       <c r="L96" s="4">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M96" s="4">
-        <v>1290</v>
+        <v>280</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="97">
@@ -5588,34 +5685,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F97" s="2">
-        <v>79552</v>
+        <v>79557</v>
       </c>
       <c r="G97" s="3">
         <v>45918</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="K97" s="4">
+        <v>40</v>
+      </c>
+      <c r="L97" s="4">
         <v>15</v>
       </c>
-      <c r="L97" s="4">
-        <v>9.5</v>
-      </c>
       <c r="M97" s="4">
-        <v>142.5</v>
+        <v>600</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="98">
@@ -5635,34 +5732,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F98" s="2">
-        <v>79552</v>
+        <v>79564</v>
       </c>
       <c r="G98" s="3">
         <v>45918</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K98" s="4">
-        <v>10</v>
+        <v>960</v>
       </c>
       <c r="L98" s="4">
-        <v>6.2</v>
+        <v>2.252</v>
       </c>
       <c r="M98" s="4">
-        <v>62</v>
+        <v>2161.92</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="99">
@@ -5682,34 +5779,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F99" s="2">
-        <v>79555</v>
+        <v>79564</v>
       </c>
       <c r="G99" s="3">
         <v>45918</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="K99" s="4">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="L99" s="4">
-        <v>56</v>
+        <v>1.482</v>
       </c>
       <c r="M99" s="4">
-        <v>1680</v>
+        <v>426.816</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -5729,34 +5826,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F100" s="2">
-        <v>79555</v>
+        <v>79565</v>
       </c>
       <c r="G100" s="3">
         <v>45918</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="K100" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L100" s="4">
-        <v>209</v>
+        <v>13.5</v>
       </c>
       <c r="M100" s="4">
-        <v>4180</v>
+        <v>202.5</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -5776,34 +5873,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F101" s="2">
-        <v>79557</v>
+        <v>79565</v>
       </c>
       <c r="G101" s="3">
         <v>45918</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K101" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L101" s="4">
-        <v>17.2</v>
+        <v>4.5</v>
       </c>
       <c r="M101" s="4">
-        <v>688</v>
+        <v>450</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="102">
@@ -5823,34 +5920,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F102" s="2">
-        <v>79557</v>
+        <v>79565</v>
       </c>
       <c r="G102" s="3">
         <v>45918</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K102" s="4">
         <v>10</v>
       </c>
       <c r="L102" s="4">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="M102" s="4">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="103">
@@ -5870,34 +5967,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F103" s="2">
-        <v>79557</v>
+        <v>79566</v>
       </c>
       <c r="G103" s="3">
         <v>45918</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K103" s="4">
         <v>40</v>
       </c>
       <c r="L103" s="4">
-        <v>15</v>
+        <v>129.3</v>
       </c>
       <c r="M103" s="4">
-        <v>600</v>
+        <v>5172</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -5905,7 +6002,7 @@
         <v>2407</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
@@ -5916,35 +6013,43 @@
       <c r="E104" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="2">
+        <v>79568</v>
+      </c>
+      <c r="G104" s="3">
+        <v>45918</v>
+      </c>
       <c r="H104" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K104" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L104" s="4">
-        <v>0</v>
+        <v>11.9</v>
       </c>
       <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
       <c r="A105" s="2">
         <v>2407</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
@@ -5955,35 +6060,43 @@
       <c r="E105" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="2">
+        <v>79568</v>
+      </c>
+      <c r="G105" s="3">
+        <v>45918</v>
+      </c>
       <c r="H105" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K105" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L105" s="4">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
+        <v>101.4</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
       <c r="A106" s="2">
         <v>2407</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
@@ -5994,35 +6107,43 @@
       <c r="E106" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="2">
+        <v>79568</v>
+      </c>
+      <c r="G106" s="3">
+        <v>45918</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K106" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L106" s="4">
-        <v>0</v>
+        <v>63.9</v>
       </c>
       <c r="M106" s="4">
-        <v>0</v>
-      </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
+        <v>319.5</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
       <c r="A107" s="2">
         <v>2407</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
@@ -6033,35 +6154,43 @@
       <c r="E107" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="F107" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G107" s="3">
+        <v>45918</v>
+      </c>
       <c r="H107" s="1" t="s">
-        <v>265</v>
+        <v>163</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K107" s="4">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="L107" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
       <c r="A108" s="2">
         <v>2407</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -6072,35 +6201,43 @@
       <c r="E108" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G108" s="3">
+        <v>45918</v>
+      </c>
       <c r="H108" s="1" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K108" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L108" s="4">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
+        <v>69.9</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
       <c r="A109" s="2">
         <v>2407</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -6111,35 +6248,43 @@
       <c r="E109" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G109" s="3">
+        <v>45918</v>
+      </c>
       <c r="H109" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K109" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L109" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
       <c r="A110" s="2">
         <v>2407</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
@@ -6150,13 +6295,17 @@
       <c r="E110" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G110" s="3">
+        <v>45918</v>
+      </c>
       <c r="H110" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6165,20 +6314,24 @@
         <v>6</v>
       </c>
       <c r="L110" s="4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
       <c r="A111" s="2">
         <v>2407</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
@@ -6189,28 +6342,263 @@
       <c r="E111" s="3">
         <v>45917.7111264468</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="F111" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G111" s="3">
+        <v>45918</v>
+      </c>
       <c r="H111" s="1" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="J111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="4">
+        <v>2</v>
+      </c>
+      <c r="L111" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="M111" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="112">
+      <c r="A112" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="2">
+        <v>22</v>
+      </c>
+      <c r="E112" s="3">
+        <v>45918.5912934375</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="113">
+      <c r="A113" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="2">
+        <v>22</v>
+      </c>
+      <c r="E113" s="3">
+        <v>45918.5912934375</v>
+      </c>
+      <c r="F113" s="2">
+        <v>79572</v>
+      </c>
+      <c r="G113" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K111" s="4">
-        <v>5</v>
-      </c>
-      <c r="L111" s="4">
+      <c r="K113" s="4">
+        <v>80</v>
+      </c>
+      <c r="L113" s="4">
         <v>0</v>
       </c>
-      <c r="M111" s="4">
+      <c r="M113" s="4">
         <v>0</v>
       </c>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
+      <c r="N113" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="114">
+      <c r="A114" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="2">
+        <v>22</v>
+      </c>
+      <c r="E114" s="3">
+        <v>45918.5912934375</v>
+      </c>
+      <c r="F114" s="2">
+        <v>79572</v>
+      </c>
+      <c r="G114" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="4">
+        <v>100</v>
+      </c>
+      <c r="L114" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M114" s="4">
+        <v>350</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="115">
+      <c r="A115" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="2">
+        <v>22</v>
+      </c>
+      <c r="E115" s="3">
+        <v>45918.5912934375</v>
+      </c>
+      <c r="F115" s="2">
+        <v>79572</v>
+      </c>
+      <c r="G115" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K115" s="4">
+        <v>10</v>
+      </c>
+      <c r="L115" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="M115" s="4">
+        <v>355</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="116">
+      <c r="A116" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="2">
+        <v>25</v>
+      </c>
+      <c r="E116" s="3">
+        <v>45918.5919609259</v>
+      </c>
+      <c r="F116" s="2">
+        <v>79571</v>
+      </c>
+      <c r="G116" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L116" s="4">
+        <v>35.56</v>
+      </c>
+      <c r="M116" s="4">
+        <v>35560</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>EMPRD</t>
   </si>
@@ -842,18 +842,18 @@
     <t>MARIA ANGÉLICA A. MONTEIRO DA COSTA</t>
   </si>
   <si>
+    <t>J.02.0001</t>
+  </si>
+  <si>
+    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
+  </si>
+  <si>
     <t>H.14.0015</t>
   </si>
   <si>
     <t>ESCORAS METÁLICAS - ALUGUEL</t>
   </si>
   <si>
-    <t>J.02.0001</t>
-  </si>
-  <si>
-    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
-  </si>
-  <si>
     <t>J.05.0011</t>
   </si>
   <si>
@@ -864,6 +864,48 @@
   </si>
   <si>
     <t>VOTORANTIM CIMENTO</t>
+  </si>
+  <si>
+    <t>E.01.0009</t>
+  </si>
+  <si>
+    <t>ASPIRADOR DE PÓ TURBO</t>
+  </si>
+  <si>
+    <t>O.01.0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 4"</t>
+  </si>
+  <si>
+    <t>O.01.0106</t>
+  </si>
+  <si>
+    <t>PONTALETE DE CEDRINHO - 3 X 3" - 2ª IND</t>
+  </si>
+  <si>
+    <t>H.11.0033</t>
+  </si>
+  <si>
+    <t>AÇO CA50 8,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>C.02.0001</t>
+  </si>
+  <si>
+    <t>SACO DE RAFIA</t>
+  </si>
+  <si>
+    <t>L.01.0022</t>
+  </si>
+  <si>
+    <t>TIJOLO CERÂMICO FURADO - 09 X 19 X 29</t>
+  </si>
+  <si>
+    <t>L.01.0021</t>
+  </si>
+  <si>
+    <t>TIJOLO CERÂMICO FURADO - 09 X 19 X 19</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1204,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -5938,10 +5980,10 @@
         <v>10</v>
       </c>
       <c r="L102" s="4">
-        <v>13.5</v>
+        <v>14.92</v>
       </c>
       <c r="M102" s="4">
-        <v>135</v>
+        <v>149.2</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>161</v>
@@ -6389,8 +6431,12 @@
       <c r="E112" s="3">
         <v>45918.5912934375</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="2">
+        <v>79572</v>
+      </c>
+      <c r="G112" s="3">
+        <v>45918</v>
+      </c>
       <c r="H112" s="1" t="s">
         <v>276</v>
       </c>
@@ -6398,19 +6444,23 @@
         <v>277</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="K112" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="L112" s="4">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
+        <v>2760</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
       <c r="A113" s="2">
@@ -6435,22 +6485,22 @@
         <v>45918</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>278</v>
+        <v>165</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K113" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L113" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M113" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>167</v>
@@ -6482,22 +6532,22 @@
         <v>45918</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K114" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L114" s="4">
-        <v>3.5</v>
+        <v>35.5</v>
       </c>
       <c r="M114" s="4">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>167</v>
@@ -6523,34 +6573,34 @@
         <v>45918.5912934375</v>
       </c>
       <c r="F115" s="2">
-        <v>79572</v>
+        <v>79573</v>
       </c>
       <c r="G115" s="3">
         <v>45918</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>39</v>
+        <v>278</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="K115" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L115" s="4">
-        <v>35.5</v>
+        <v>120</v>
       </c>
       <c r="M115" s="4">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
@@ -6598,6 +6648,350 @@
       </c>
       <c r="O116" s="1" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="117">
+      <c r="A117" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="2">
+        <v>238</v>
+      </c>
+      <c r="E117" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="118">
+      <c r="A118" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="2">
+        <v>238</v>
+      </c>
+      <c r="E118" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K118" s="4">
+        <v>90</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="119">
+      <c r="A119" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="2">
+        <v>238</v>
+      </c>
+      <c r="E119" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K119" s="4">
+        <v>60</v>
+      </c>
+      <c r="L119" s="4">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="120">
+      <c r="A120" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="2">
+        <v>238</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F120" s="2">
+        <v>79575</v>
+      </c>
+      <c r="G120" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="4">
+        <v>12</v>
+      </c>
+      <c r="L120" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="M120" s="4">
+        <v>597.6</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="121">
+      <c r="A121" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="2">
+        <v>238</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79576</v>
+      </c>
+      <c r="G121" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="4">
+        <v>200</v>
+      </c>
+      <c r="L121" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="M121" s="4">
+        <v>376</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="122">
+      <c r="A122" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="2">
+        <v>238</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F122" s="2">
+        <v>79576</v>
+      </c>
+      <c r="G122" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="4">
+        <v>30</v>
+      </c>
+      <c r="L122" s="4">
+        <v>90.74</v>
+      </c>
+      <c r="M122" s="4">
+        <v>2722.2</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="123">
+      <c r="A123" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="2">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45918.7390190625</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="4">
+        <v>900</v>
+      </c>
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
+        <v>0</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="124">
+      <c r="A124" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="2">
+        <v>10</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45918.7390190625</v>
+      </c>
+      <c r="F124" s="2">
+        <v>79577</v>
+      </c>
+      <c r="G124" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="4">
+        <v>150</v>
+      </c>
+      <c r="L124" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="M124" s="4">
+        <v>202.5</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>EMPRD</t>
   </si>
@@ -140,7 +140,7 @@
     <t>E.03.0151</t>
   </si>
   <si>
-    <t xml:space="preserve">BOTA DE SEGURANÇA VULCABRAS EM COURO COM SOLADO EM PU VULCAFLEX  MARLUVAS</t>
+    <t>BOTA DE SEGURANÇA VULCABRAS EM COURO COM SOLADO EM PU VULCAFLEX</t>
   </si>
   <si>
     <t>PAR</t>
@@ -188,12 +188,75 @@
     <t xml:space="preserve"> CIVIL MAQ</t>
   </si>
   <si>
+    <t>IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>U.01.0003</t>
+  </si>
+  <si>
+    <t>ASSENTO PARA BACIA SANITÁRIA REF. AP 81 LINHA MONTE CARLO DECA</t>
+  </si>
+  <si>
+    <t>00000000000059</t>
+  </si>
+  <si>
+    <t>BRAZ 66</t>
+  </si>
+  <si>
+    <t>U.02.0640</t>
+  </si>
+  <si>
+    <t>DECANEL - DECA AV 90</t>
+  </si>
+  <si>
+    <t>U.02.0722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA DE ESCOAMENTO  CLICK CLACK  1 1/4''</t>
+  </si>
+  <si>
+    <t>U.02.0495</t>
+  </si>
+  <si>
+    <t>MISTURADOR LAVATÓRIO DE MESA REF. 1877 C64 DUNA CLÁSSICA DECA</t>
+  </si>
+  <si>
+    <t>U.02.3611</t>
+  </si>
+  <si>
+    <t>CONJUNTO DE FIXAÇÃO PARA BACIA E BIDÊ - SP 13 - DECA</t>
+  </si>
+  <si>
+    <t>U.02.3542</t>
+  </si>
+  <si>
+    <t>VÁLVULA PARA MICTÓRIO FECHAMENTO AUTOMÁTICO - 2573 C - DECAMATIC ECO - DECA</t>
+  </si>
+  <si>
+    <t>U.02.3623</t>
+  </si>
+  <si>
+    <t>VÁLVULA DE ESCOAMENTO COZINHA - 1623 C - DECA</t>
+  </si>
+  <si>
+    <t>U.02.3616</t>
+  </si>
+  <si>
+    <t>TUBO DE LIGAÇÃO PARA BACIA - 1968 C - DECA</t>
+  </si>
+  <si>
+    <t>U.02.3619</t>
+  </si>
+  <si>
+    <t>VÁLVULA DE ESCOAMENTO PARA LAVATÓRIO, CUBA E BIDÊ - 1602 C PLA - DECA</t>
+  </si>
+  <si>
     <t>MARCO AURÉLIO SIMÃO FREIRE</t>
   </si>
   <si>
-    <t>RJ</t>
-  </si>
-  <si>
     <t>E.02.0040</t>
   </si>
   <si>
@@ -653,9 +716,6 @@
     <t>CHAPA DE COMPENSADO NAVAL 20 MM -</t>
   </si>
   <si>
-    <t>IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
-  </si>
-  <si>
     <t>S.08.0410</t>
   </si>
   <si>
@@ -866,12 +926,45 @@
     <t>VOTORANTIM CIMENTO</t>
   </si>
   <si>
+    <t>GARANTIA DE OBRAS</t>
+  </si>
+  <si>
+    <t>K.02.2299</t>
+  </si>
+  <si>
+    <t>BOMBA SUBMERSA</t>
+  </si>
+  <si>
+    <t>00000000007321</t>
+  </si>
+  <si>
+    <t>TRENAMAR</t>
+  </si>
+  <si>
+    <t>H.11.0033</t>
+  </si>
+  <si>
+    <t>AÇO CA50 8,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>C.02.0001</t>
+  </si>
+  <si>
+    <t>SACO DE RAFIA</t>
+  </si>
+  <si>
     <t>E.01.0009</t>
   </si>
   <si>
     <t>ASPIRADOR DE PÓ TURBO</t>
   </si>
   <si>
+    <t>00000000001425</t>
+  </si>
+  <si>
+    <t>METRO SHOPPING</t>
+  </si>
+  <si>
     <t>O.01.0110</t>
   </si>
   <si>
@@ -884,16 +977,16 @@
     <t>PONTALETE DE CEDRINHO - 3 X 3" - 2ª IND</t>
   </si>
   <si>
-    <t>H.11.0033</t>
-  </si>
-  <si>
-    <t>AÇO CA50 8,0 MM - VARA</t>
-  </si>
-  <si>
-    <t>C.02.0001</t>
-  </si>
-  <si>
-    <t>SACO DE RAFIA</t>
+    <t>00000000000315</t>
+  </si>
+  <si>
+    <t>CRUZADA</t>
+  </si>
+  <si>
+    <t>L.01.0021</t>
+  </si>
+  <si>
+    <t>TIJOLO CERÂMICO FURADO - 09 X 19 X 19</t>
   </si>
   <si>
     <t>L.01.0022</t>
@@ -902,10 +995,172 @@
     <t>TIJOLO CERÂMICO FURADO - 09 X 19 X 29</t>
   </si>
   <si>
-    <t>L.01.0021</t>
-  </si>
-  <si>
-    <t>TIJOLO CERÂMICO FURADO - 09 X 19 X 19</t>
+    <t>ROBERTO KLABIN MARTINS XAVIER</t>
+  </si>
+  <si>
+    <t>E.02.0026</t>
+  </si>
+  <si>
+    <t>LONA PLASTICA</t>
+  </si>
+  <si>
+    <t>E.03.0102</t>
+  </si>
+  <si>
+    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF2 SUPER SAFETY</t>
+  </si>
+  <si>
+    <t>E.03.0162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA ERGÔNOMICA ABDOMINAL  PROTETOR LOMBAR</t>
+  </si>
+  <si>
+    <t>E.04.0580</t>
+  </si>
+  <si>
+    <t>CAIXA PLASTICA PARA ARGAMASSA DE PVC 40 L</t>
+  </si>
+  <si>
+    <t>E.04.0582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA PLASTICA PARA ARGAMASSA DE PVC -  450L</t>
+  </si>
+  <si>
+    <t>E.04.0583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA PLASTICA PARA ARGAMASSA  DE PVC - 160L</t>
+  </si>
+  <si>
+    <t>J.10.0012</t>
+  </si>
+  <si>
+    <t>SUPER GRAUTE QUARTZOLIT</t>
+  </si>
+  <si>
+    <t>SC25</t>
+  </si>
+  <si>
+    <t>J.02.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTOMASSA  MASSA PRONTO MULTIUSO SC  5OK</t>
+  </si>
+  <si>
+    <t>O.01.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  3" X 3"</t>
+  </si>
+  <si>
+    <t>U.02.1215</t>
+  </si>
+  <si>
+    <t>CHUVEIRO ELÉTRICO</t>
+  </si>
+  <si>
+    <t>W.06.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA PVA  X 0 35  PULVITEC C/ 50KG</t>
+  </si>
+  <si>
+    <t>W.07.0001</t>
+  </si>
+  <si>
+    <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - SIKADUR 31 - 1 KG</t>
+  </si>
+  <si>
+    <t>KAENA PARTICIPAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>C.04.0001</t>
+  </si>
+  <si>
+    <t>ÁGUA SANITÁRIA 1 LT</t>
+  </si>
+  <si>
+    <t>C.04.0012</t>
+  </si>
+  <si>
+    <t>PANO MULTIUSO</t>
+  </si>
+  <si>
+    <t>U.01.2252</t>
+  </si>
+  <si>
+    <t>COLUNA PARA LAVATORIO</t>
+  </si>
+  <si>
+    <t>JOÃO CARLOS BEHISNELIAN</t>
+  </si>
+  <si>
+    <t>E.02.0043</t>
+  </si>
+  <si>
+    <t>LONA LOCOMOTIVA LEVE- 100% IMPERMEAVEL 10,0 X 8,0M, CONFECCIONADA COM TECIDO DE POLIETILENO DE ALTA DENSIDADE, COM ADITIVOS ANTI-UV</t>
+  </si>
+  <si>
+    <t>E.04.0892</t>
+  </si>
+  <si>
+    <t>DISCO DE CORTE AÇO INOX 4 1/2''</t>
+  </si>
+  <si>
+    <t>E.04.0844</t>
+  </si>
+  <si>
+    <t>DISCO DE CORTE DIAMANTADO CONTÍNUO 110MMX20MM PORCELANATO - ÚMIDO B-22919</t>
+  </si>
+  <si>
+    <t>E.04.0825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO DE CORTE DIAMANTADO SEGMENTADO 105MMX20MM CONCRETO  - SECO/ÚMIDO A-88814</t>
+  </si>
+  <si>
+    <t>K.01.0271</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 3 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>K.02.1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA PVC SOLDAVEL  ( MARRON ) 20MM</t>
+  </si>
+  <si>
+    <t>K.02.1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOELHO PVC SOLDÁVEL (MARRON )  20MM X90º</t>
+  </si>
+  <si>
+    <t>K.02.1380</t>
+  </si>
+  <si>
+    <t>JOELHO PVC SOLDÁVEL E COM BUCHA DE LATÃO ( AZUL ) 90° 20MMX1/2</t>
+  </si>
+  <si>
+    <t>K.02.1428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA PVC SOLDAVEL  C/ ROSCA  ( MARRON LR ) 25MM X 3/4</t>
+  </si>
+  <si>
+    <t>K.02.1299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO PVC SOLDÁVEL DE 20MM  ( MARRON ) C/ 6M</t>
+  </si>
+  <si>
+    <t>W.06.1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO ESTRIUTURAL BASE EPÓXI ALTA FLUIDEZ  COMPOUND ADESIVO  GEL 1KG  ( A+B)</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1459,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1220,7 +1475,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="85.7142857142857" customWidth="1" style="1"/>
+    <col min="9" max="9" width="139.571428571429" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="9.57142857142857" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -1882,7 +2137,7 @@
     </row>
     <row ht="12.75" customHeight="1" r="15">
       <c r="A15" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -1891,16 +2146,16 @@
         <v>59</v>
       </c>
       <c r="D15" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E15" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F15" s="2">
-        <v>79492</v>
+        <v>79594</v>
       </c>
       <c r="G15" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>60</v>
@@ -1909,27 +2164,27 @@
         <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1564.59</v>
+      </c>
+      <c r="M15" s="4">
+        <v>4693.77</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
-        <v>270</v>
-      </c>
-      <c r="M15" s="4">
-        <v>270</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="16">
       <c r="A16" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
@@ -1938,45 +2193,45 @@
         <v>59</v>
       </c>
       <c r="D16" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E16" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F16" s="2">
-        <v>79492</v>
+        <v>79594</v>
       </c>
       <c r="G16" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="M16" s="4">
+        <v>107.7</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>115</v>
-      </c>
-      <c r="M16" s="4">
-        <v>575</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="17">
       <c r="A17" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
@@ -1985,45 +2240,45 @@
         <v>59</v>
       </c>
       <c r="D17" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E17" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F17" s="2">
-        <v>79492</v>
+        <v>79594</v>
       </c>
       <c r="G17" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L17" s="4">
-        <v>15</v>
+        <v>160.49</v>
       </c>
       <c r="M17" s="4">
-        <v>225</v>
+        <v>320.98</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="18">
       <c r="A18" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -2032,45 +2287,45 @@
         <v>59</v>
       </c>
       <c r="D18" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E18" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F18" s="2">
-        <v>79492</v>
+        <v>79594</v>
       </c>
       <c r="G18" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K18" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L18" s="4">
-        <v>44</v>
+        <v>2648.22</v>
       </c>
       <c r="M18" s="4">
-        <v>88</v>
+        <v>21185.76</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="19">
       <c r="A19" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
@@ -2079,45 +2334,45 @@
         <v>59</v>
       </c>
       <c r="D19" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E19" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F19" s="2">
-        <v>79493</v>
+        <v>79594</v>
       </c>
       <c r="G19" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K19" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L19" s="4">
-        <v>3.9</v>
+        <v>39.95</v>
       </c>
       <c r="M19" s="4">
-        <v>78</v>
+        <v>119.85</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="20">
       <c r="A20" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
@@ -2126,45 +2381,45 @@
         <v>59</v>
       </c>
       <c r="D20" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E20" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F20" s="2">
-        <v>79493</v>
+        <v>79594</v>
       </c>
       <c r="G20" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L20" s="4">
-        <v>3.3</v>
+        <v>1584.98</v>
       </c>
       <c r="M20" s="4">
-        <v>49.5</v>
+        <v>3169.96</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="21">
       <c r="A21" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
@@ -2173,45 +2428,45 @@
         <v>59</v>
       </c>
       <c r="D21" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E21" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F21" s="2">
-        <v>79497</v>
+        <v>79594</v>
       </c>
       <c r="G21" s="3">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K21" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L21" s="4">
-        <v>14.4</v>
+        <v>196.51</v>
       </c>
       <c r="M21" s="4">
-        <v>86.4</v>
+        <v>982.55</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="22">
       <c r="A22" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
@@ -2220,45 +2475,45 @@
         <v>59</v>
       </c>
       <c r="D22" s="2">
+        <v>236</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45915.6089237269</v>
+      </c>
+      <c r="F22" s="2">
+        <v>79594</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="3">
-        <v>45915.6537763889</v>
-      </c>
-      <c r="F22" s="2">
-        <v>79497</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45915</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K22" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L22" s="4">
-        <v>9.2</v>
+        <v>188.31</v>
       </c>
       <c r="M22" s="4">
-        <v>82.8</v>
+        <v>941.55</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="23">
       <c r="A23" s="2">
-        <v>2316</v>
+        <v>2212</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>58</v>
@@ -2267,40 +2522,40 @@
         <v>59</v>
       </c>
       <c r="D23" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E23" s="3">
-        <v>45915.6537763889</v>
+        <v>45915.6089237269</v>
       </c>
       <c r="F23" s="2">
-        <v>79514</v>
+        <v>79594</v>
       </c>
       <c r="G23" s="3">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L23" s="4">
-        <v>17.2</v>
+        <v>43.67</v>
       </c>
       <c r="M23" s="4">
-        <v>344</v>
+        <v>262.02</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="24">
@@ -2308,7 +2563,7 @@
         <v>2316</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>59</v>
@@ -2320,34 +2575,34 @@
         <v>45915.6537763889</v>
       </c>
       <c r="F24" s="2">
-        <v>79514</v>
+        <v>79492</v>
       </c>
       <c r="G24" s="3">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>17.2</v>
+        <v>270</v>
       </c>
       <c r="M24" s="4">
-        <v>17.2</v>
+        <v>270</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="25">
@@ -2355,7 +2610,7 @@
         <v>2316</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>59</v>
@@ -2367,34 +2622,34 @@
         <v>45915.6537763889</v>
       </c>
       <c r="F25" s="2">
-        <v>79514</v>
+        <v>79492</v>
       </c>
       <c r="G25" s="3">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="K25" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <v>78.8</v>
+        <v>115</v>
       </c>
       <c r="M25" s="4">
-        <v>157.6</v>
+        <v>575</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="26">
@@ -2402,7 +2657,7 @@
         <v>2316</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>59</v>
@@ -2414,1273 +2669,1277 @@
         <v>45915.6537763889</v>
       </c>
       <c r="F26" s="2">
-        <v>79514</v>
+        <v>79492</v>
       </c>
       <c r="G26" s="3">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="K26" s="4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L26" s="4">
-        <v>143.33</v>
+        <v>15</v>
       </c>
       <c r="M26" s="4">
-        <v>1289.97</v>
+        <v>225</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="27">
       <c r="A27" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3">
-        <v>45916.468513669</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F27" s="2">
-        <v>79523</v>
+        <v>79492</v>
       </c>
       <c r="G27" s="3">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K27" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="4">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M27" s="4">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="28">
       <c r="A28" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2">
+        <v>77</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45915.6537763889</v>
+      </c>
+      <c r="F28" s="2">
+        <v>79493</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45915</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="4">
+        <v>20</v>
+      </c>
+      <c r="L28" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M28" s="4">
+        <v>78</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
-        <v>45916.468513669</v>
-      </c>
-      <c r="F28" s="2">
-        <v>79523</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45917</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4">
-        <v>55</v>
-      </c>
-      <c r="M28" s="4">
-        <v>110</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="29">
       <c r="A29" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45915.6537763889</v>
+      </c>
+      <c r="F29" s="2">
+        <v>79493</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45915</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="4">
+        <v>15</v>
+      </c>
+      <c r="L29" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M29" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>45916.468513669</v>
-      </c>
-      <c r="F29" s="2">
-        <v>79524</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45917</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="4">
-        <v>150</v>
-      </c>
-      <c r="L29" s="4">
-        <v>7.89</v>
-      </c>
-      <c r="M29" s="4">
-        <v>1183.5</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="30">
       <c r="A30" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E30" s="3">
-        <v>45916.468513669</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F30" s="2">
-        <v>79524</v>
+        <v>79497</v>
       </c>
       <c r="G30" s="3">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K30" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L30" s="4">
-        <v>19.2</v>
+        <v>14.4</v>
       </c>
       <c r="M30" s="4">
-        <v>192</v>
+        <v>86.4</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="31">
       <c r="A31" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E31" s="3">
-        <v>45916.468513669</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F31" s="2">
-        <v>79524</v>
+        <v>79497</v>
       </c>
       <c r="G31" s="3">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K31" s="4">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L31" s="4">
-        <v>6.25</v>
+        <v>9.2</v>
       </c>
       <c r="M31" s="4">
-        <v>187.5</v>
+        <v>82.8</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="32">
       <c r="A32" s="2">
-        <v>2511</v>
+        <v>2316</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3">
-        <v>45916.468513669</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F32" s="2">
-        <v>79525</v>
+        <v>79514</v>
       </c>
       <c r="G32" s="3">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="4">
+        <v>20</v>
+      </c>
+      <c r="L32" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="M32" s="4">
+        <v>344</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="4">
-        <v>10</v>
-      </c>
-      <c r="L32" s="4">
-        <v>31.9</v>
-      </c>
-      <c r="M32" s="4">
-        <v>319</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="33">
       <c r="A33" s="2">
-        <v>2505</v>
+        <v>2316</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D33" s="2">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E33" s="3">
-        <v>45916.4696689236</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F33" s="2">
-        <v>79504</v>
+        <v>79514</v>
       </c>
       <c r="G33" s="3">
         <v>45916</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="K33" s="4">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="L33" s="4">
-        <v>170</v>
+        <v>17.2</v>
       </c>
       <c r="M33" s="4">
-        <v>7140</v>
+        <v>17.2</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="34">
       <c r="A34" s="2">
-        <v>2505</v>
+        <v>2316</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3">
-        <v>45916.4696689236</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F34" s="2">
-        <v>79505</v>
+        <v>79514</v>
       </c>
       <c r="G34" s="3">
         <v>45916</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="4">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L34" s="4">
-        <v>0.52187</v>
+        <v>78.8</v>
       </c>
       <c r="M34" s="4">
-        <v>521.87</v>
+        <v>157.6</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="35">
       <c r="A35" s="2">
-        <v>2505</v>
+        <v>2316</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3">
-        <v>45916.4696689236</v>
+        <v>45915.6537763889</v>
       </c>
       <c r="F35" s="2">
-        <v>79506</v>
+        <v>79514</v>
       </c>
       <c r="G35" s="3">
         <v>45916</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="K35" s="4">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="L35" s="4">
-        <v>2.325</v>
+        <v>143.33</v>
       </c>
       <c r="M35" s="4">
-        <v>83.7</v>
+        <v>1289.97</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="36">
       <c r="A36" s="2">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45916.4696689236</v>
+        <v>45916.468513669</v>
       </c>
       <c r="F36" s="2">
-        <v>79506</v>
+        <v>79523</v>
       </c>
       <c r="G36" s="3">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="K36" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
-        <v>2.8</v>
+        <v>75</v>
       </c>
       <c r="M36" s="4">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="37">
       <c r="A37" s="2">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45916.4696689236</v>
+        <v>45916.468513669</v>
       </c>
       <c r="F37" s="2">
-        <v>79506</v>
+        <v>79523</v>
       </c>
       <c r="G37" s="3">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K37" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L37" s="4">
-        <v>15.8</v>
+        <v>55</v>
       </c>
       <c r="M37" s="4">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="38">
       <c r="A38" s="2">
-        <v>2505</v>
+        <v>2511</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45916.4696689236</v>
+        <v>45916.468513669</v>
       </c>
       <c r="F38" s="2">
-        <v>79507</v>
+        <v>79524</v>
       </c>
       <c r="G38" s="3">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L38" s="4">
-        <v>1008</v>
+        <v>7.89</v>
       </c>
       <c r="M38" s="4">
-        <v>1008</v>
+        <v>1183.5</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="39">
       <c r="A39" s="2">
-        <v>9991</v>
+        <v>2511</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45916.6350944097</v>
+        <v>45916.468513669</v>
       </c>
       <c r="F39" s="2">
-        <v>79510</v>
+        <v>79524</v>
       </c>
       <c r="G39" s="3">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L39" s="4">
-        <v>450</v>
+        <v>19.2</v>
       </c>
       <c r="M39" s="4">
-        <v>1350</v>
+        <v>192</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="40">
       <c r="A40" s="2">
-        <v>9991</v>
+        <v>2511</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45916.6350944097</v>
+        <v>45916.468513669</v>
       </c>
       <c r="F40" s="2">
-        <v>79511</v>
+        <v>79524</v>
       </c>
       <c r="G40" s="3">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="K40" s="4">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L40" s="4">
-        <v>96</v>
+        <v>6.25</v>
       </c>
       <c r="M40" s="4">
-        <v>8640</v>
+        <v>187.5</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="41">
       <c r="A41" s="2">
-        <v>2409</v>
+        <v>2511</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45917.4160380208</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>45916.468513669</v>
+      </c>
+      <c r="F41" s="2">
+        <v>79525</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45917</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K41" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L41" s="4">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="42">
       <c r="A42" s="2">
-        <v>2409</v>
+        <v>2505</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3">
-        <v>45917.4160380208</v>
+        <v>45916.4696689236</v>
       </c>
       <c r="F42" s="2">
-        <v>79527</v>
+        <v>79504</v>
       </c>
       <c r="G42" s="3">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="L42" s="4">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="M42" s="4">
-        <v>110</v>
+        <v>7140</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="43">
       <c r="A43" s="2">
-        <v>2409</v>
+        <v>2505</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45916.4696689236</v>
+      </c>
+      <c r="F43" s="2">
+        <v>79505</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45916</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.52187</v>
+      </c>
+      <c r="M43" s="4">
+        <v>521.87</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2">
-        <v>64</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45917.4160380208</v>
-      </c>
-      <c r="F43" s="2">
-        <v>79528</v>
-      </c>
-      <c r="G43" s="3">
-        <v>45917</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="4">
-        <v>10</v>
-      </c>
-      <c r="L43" s="4">
-        <v>765</v>
-      </c>
-      <c r="M43" s="4">
-        <v>7650</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="O43" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="44">
       <c r="A44" s="2">
-        <v>2409</v>
+        <v>2505</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3">
-        <v>45917.4160380208</v>
+        <v>45916.4696689236</v>
       </c>
       <c r="F44" s="2">
-        <v>79560</v>
+        <v>79506</v>
       </c>
       <c r="G44" s="3">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K44" s="4">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="L44" s="4">
-        <v>78</v>
+        <v>2.325</v>
       </c>
       <c r="M44" s="4">
-        <v>78</v>
+        <v>83.7</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="45">
       <c r="A45" s="2">
-        <v>2409</v>
+        <v>2505</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="E45" s="3">
-        <v>45917.4160380208</v>
+        <v>45916.4696689236</v>
       </c>
       <c r="F45" s="2">
-        <v>79567</v>
+        <v>79506</v>
       </c>
       <c r="G45" s="3">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="K45" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L45" s="4">
-        <v>3.72</v>
+        <v>2.8</v>
       </c>
       <c r="M45" s="4">
-        <v>148.8</v>
+        <v>28</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="46">
       <c r="A46" s="2">
-        <v>2510</v>
+        <v>2505</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E46" s="3">
-        <v>45917.4170690278</v>
+        <v>45916.4696689236</v>
       </c>
       <c r="F46" s="2">
-        <v>79517</v>
+        <v>79506</v>
       </c>
       <c r="G46" s="3">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="K46" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L46" s="4">
-        <v>300</v>
+        <v>15.8</v>
       </c>
       <c r="M46" s="4">
-        <v>900</v>
+        <v>158</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="47">
       <c r="A47" s="2">
-        <v>2510</v>
+        <v>2505</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45916.4696689236</v>
+      </c>
+      <c r="F47" s="2">
+        <v>79507</v>
+      </c>
+      <c r="G47" s="3">
+        <v>45916</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="4">
+        <v>1008</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1008</v>
+      </c>
+      <c r="N47" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="2">
-        <v>9</v>
-      </c>
-      <c r="E47" s="3">
-        <v>45917.4170690278</v>
-      </c>
-      <c r="F47" s="2">
-        <v>79517</v>
-      </c>
-      <c r="G47" s="3">
-        <v>45917</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3</v>
-      </c>
-      <c r="L47" s="4">
-        <v>174</v>
-      </c>
-      <c r="M47" s="4">
-        <v>522</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="O47" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="48">
       <c r="A48" s="2">
-        <v>2510</v>
+        <v>9991</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E48" s="3">
-        <v>45917.4170690278</v>
+        <v>45916.6350944097</v>
       </c>
       <c r="F48" s="2">
-        <v>79518</v>
+        <v>79510</v>
       </c>
       <c r="G48" s="3">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K48" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48" s="4">
-        <v>13.5</v>
+        <v>450</v>
       </c>
       <c r="M48" s="4">
-        <v>27</v>
+        <v>1350</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="49">
       <c r="A49" s="2">
-        <v>2510</v>
+        <v>9991</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3">
-        <v>45917.4170690278</v>
+        <v>45916.6350944097</v>
       </c>
       <c r="F49" s="2">
-        <v>79518</v>
+        <v>79511</v>
       </c>
       <c r="G49" s="3">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="K49" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L49" s="4">
-        <v>4.5</v>
+        <v>96</v>
       </c>
       <c r="M49" s="4">
-        <v>135</v>
+        <v>8640</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="50">
       <c r="A50" s="2">
-        <v>2510</v>
+        <v>2409</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="2">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3">
-        <v>45917.4170690278</v>
-      </c>
-      <c r="F50" s="2">
-        <v>79519</v>
-      </c>
-      <c r="G50" s="3">
-        <v>45917</v>
-      </c>
+        <v>45917.4160380208</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="K50" s="4">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="L50" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4">
-        <v>700</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="51">
       <c r="A51" s="2">
-        <v>2510</v>
+        <v>2409</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="2">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3">
-        <v>45917.4170690278</v>
+        <v>45917.4160380208</v>
       </c>
       <c r="F51" s="2">
-        <v>79526</v>
+        <v>79527</v>
       </c>
       <c r="G51" s="3">
         <v>45917</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="K51" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L51" s="4">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="M51" s="4">
-        <v>1800</v>
+        <v>110</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="52">
       <c r="A52" s="2">
-        <v>2510</v>
+        <v>2409</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="2">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3">
-        <v>45917.4170690278</v>
+        <v>45917.4160380208</v>
       </c>
       <c r="F52" s="2">
-        <v>79570</v>
+        <v>79528</v>
       </c>
       <c r="G52" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K52" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L52" s="4">
-        <v>13.5</v>
+        <v>765</v>
       </c>
       <c r="M52" s="4">
-        <v>243</v>
+        <v>7650</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="53">
       <c r="A53" s="2">
-        <v>2506</v>
+        <v>2409</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E53" s="3">
-        <v>45917.4428266898</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+        <v>45917.4160380208</v>
+      </c>
+      <c r="F53" s="2">
+        <v>79560</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45918</v>
+      </c>
       <c r="H53" s="1" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
@@ -3689,221 +3948,233 @@
         <v>1</v>
       </c>
       <c r="L53" s="4">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="54">
       <c r="A54" s="2">
-        <v>2506</v>
+        <v>2409</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E54" s="3">
-        <v>45917.4428266898</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+        <v>45917.4160380208</v>
+      </c>
+      <c r="F54" s="2">
+        <v>79567</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45918</v>
+      </c>
       <c r="H54" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K54" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L54" s="4">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="M54" s="4">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+        <v>148.8</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="55">
       <c r="A55" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F55" s="2">
-        <v>79541</v>
+        <v>79517</v>
       </c>
       <c r="G55" s="3">
         <v>45917</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="K55" s="4">
         <v>3</v>
       </c>
       <c r="L55" s="4">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="M55" s="4">
-        <v>135</v>
+        <v>900</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="56">
       <c r="A56" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E56" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F56" s="2">
-        <v>79541</v>
+        <v>79517</v>
       </c>
       <c r="G56" s="3">
         <v>45917</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="K56" s="4">
         <v>3</v>
       </c>
       <c r="L56" s="4">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="M56" s="4">
-        <v>132</v>
+        <v>522</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="57">
       <c r="A57" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F57" s="2">
-        <v>79542</v>
+        <v>79518</v>
       </c>
       <c r="G57" s="3">
         <v>45917</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K57" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L57" s="4">
-        <v>17.2</v>
+        <v>13.5</v>
       </c>
       <c r="M57" s="4">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="58">
       <c r="A58" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E58" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F58" s="2">
-        <v>79542</v>
+        <v>79518</v>
       </c>
       <c r="G58" s="3">
         <v>45917</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>19</v>
@@ -3912,157 +4183,157 @@
         <v>30</v>
       </c>
       <c r="L58" s="4">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M58" s="4">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="59">
       <c r="A59" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F59" s="2">
-        <v>79542</v>
+        <v>79519</v>
       </c>
       <c r="G59" s="3">
         <v>45917</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K59" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L59" s="4">
-        <v>110</v>
+        <v>3.5</v>
       </c>
       <c r="M59" s="4">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="60">
       <c r="A60" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E60" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F60" s="2">
-        <v>79542</v>
+        <v>79526</v>
       </c>
       <c r="G60" s="3">
         <v>45917</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K60" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L60" s="4">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M60" s="4">
-        <v>210</v>
+        <v>1800</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="61">
       <c r="A61" s="2">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E61" s="3">
-        <v>45917.4428266898</v>
+        <v>45917.4170690278</v>
       </c>
       <c r="F61" s="2">
-        <v>79542</v>
+        <v>79570</v>
       </c>
       <c r="G61" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="K61" s="4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L61" s="4">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="M61" s="4">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="62">
@@ -4070,7 +4341,7 @@
         <v>2506</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>59</v>
@@ -4081,43 +4352,35 @@
       <c r="E62" s="3">
         <v>45917.4428266898</v>
       </c>
-      <c r="F62" s="2">
-        <v>79542</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45917</v>
-      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K62" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L62" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M62" s="4">
-        <v>150</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="63">
       <c r="A63" s="2">
         <v>2506</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>59</v>
@@ -4128,43 +4391,35 @@
       <c r="E63" s="3">
         <v>45917.4428266898</v>
       </c>
-      <c r="F63" s="2">
-        <v>79542</v>
-      </c>
-      <c r="G63" s="3">
-        <v>45917</v>
-      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="K63" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63" s="4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M63" s="4">
-        <v>114</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="64">
       <c r="A64" s="2">
         <v>2506</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>59</v>
@@ -4176,34 +4431,34 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F64" s="2">
-        <v>79543</v>
+        <v>79541</v>
       </c>
       <c r="G64" s="3">
         <v>45917</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K64" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L64" s="4">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M64" s="4">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="65">
@@ -4211,7 +4466,7 @@
         <v>2506</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>59</v>
@@ -4223,34 +4478,34 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F65" s="2">
-        <v>79543</v>
+        <v>79541</v>
       </c>
       <c r="G65" s="3">
         <v>45917</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="K65" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L65" s="4">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M65" s="4">
-        <v>660</v>
+        <v>132</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>194</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="66">
@@ -4258,7 +4513,7 @@
         <v>2506</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>59</v>
@@ -4270,34 +4525,34 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F66" s="2">
-        <v>79547</v>
+        <v>79542</v>
       </c>
       <c r="G66" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K66" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L66" s="4">
-        <v>89</v>
+        <v>17.2</v>
       </c>
       <c r="M66" s="4">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="67">
@@ -4305,7 +4560,7 @@
         <v>2506</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>59</v>
@@ -4317,34 +4572,34 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F67" s="2">
-        <v>79547</v>
+        <v>79542</v>
       </c>
       <c r="G67" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K67" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L67" s="4">
-        <v>69</v>
+        <v>3.3</v>
       </c>
       <c r="M67" s="4">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="68">
@@ -4352,7 +4607,7 @@
         <v>2506</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>59</v>
@@ -4364,10 +4619,10 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F68" s="2">
-        <v>79547</v>
+        <v>79542</v>
       </c>
       <c r="G68" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>201</v>
@@ -4379,19 +4634,19 @@
         <v>19</v>
       </c>
       <c r="K68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="4">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="M68" s="4">
-        <v>258</v>
+        <v>110</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="69">
@@ -4399,7 +4654,7 @@
         <v>2506</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>59</v>
@@ -4411,10 +4666,10 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F69" s="2">
-        <v>79547</v>
+        <v>79542</v>
       </c>
       <c r="G69" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>203</v>
@@ -4423,22 +4678,22 @@
         <v>204</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K69" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L69" s="4">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="M69" s="4">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="70">
@@ -4446,7 +4701,7 @@
         <v>2506</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>59</v>
@@ -4458,10 +4713,10 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F70" s="2">
-        <v>79547</v>
+        <v>79542</v>
       </c>
       <c r="G70" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>205</v>
@@ -4470,22 +4725,22 @@
         <v>206</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K70" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L70" s="4">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="M70" s="4">
-        <v>498</v>
+        <v>90</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="71">
@@ -4493,7 +4748,7 @@
         <v>2506</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>59</v>
@@ -4505,10 +4760,10 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F71" s="2">
-        <v>79548</v>
+        <v>79542</v>
       </c>
       <c r="G71" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>207</v>
@@ -4517,22 +4772,22 @@
         <v>208</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K71" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L71" s="4">
-        <v>1190</v>
+        <v>15</v>
       </c>
       <c r="M71" s="4">
-        <v>1190</v>
+        <v>150</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="72">
@@ -4540,7 +4795,7 @@
         <v>2506</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>59</v>
@@ -4552,10 +4807,10 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F72" s="2">
-        <v>79550</v>
+        <v>79542</v>
       </c>
       <c r="G72" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>209</v>
@@ -4564,22 +4819,22 @@
         <v>210</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="K72" s="4">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="L72" s="4">
-        <v>14.4</v>
+        <v>38</v>
       </c>
       <c r="M72" s="4">
-        <v>1440</v>
+        <v>114</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="73">
@@ -4587,7 +4842,7 @@
         <v>2506</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>59</v>
@@ -4599,104 +4854,104 @@
         <v>45917.4428266898</v>
       </c>
       <c r="F73" s="2">
-        <v>79550</v>
+        <v>79543</v>
       </c>
       <c r="G73" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L73" s="4">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="M73" s="4">
-        <v>4485</v>
+        <v>140</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="74">
       <c r="A74" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D74" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E74" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F74" s="2">
-        <v>79537</v>
+        <v>79543</v>
       </c>
       <c r="G74" s="3">
         <v>45917</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K74" s="4">
+        <v>6</v>
+      </c>
+      <c r="L74" s="4">
+        <v>110</v>
+      </c>
+      <c r="M74" s="4">
+        <v>660</v>
+      </c>
+      <c r="N74" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1</v>
-      </c>
-      <c r="L74" s="4">
-        <v>952</v>
-      </c>
-      <c r="M74" s="4">
-        <v>952</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="75">
       <c r="A75" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D75" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E75" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F75" s="2">
-        <v>79544</v>
+        <v>79547</v>
       </c>
       <c r="G75" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>218</v>
@@ -4708,42 +4963,42 @@
         <v>19</v>
       </c>
       <c r="K75" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L75" s="4">
-        <v>57.54</v>
+        <v>89</v>
       </c>
       <c r="M75" s="4">
-        <v>402.78</v>
+        <v>178</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="76">
       <c r="A76" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E76" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F76" s="2">
-        <v>79544</v>
+        <v>79547</v>
       </c>
       <c r="G76" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>220</v>
@@ -4755,42 +5010,42 @@
         <v>19</v>
       </c>
       <c r="K76" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L76" s="4">
-        <v>6.52</v>
+        <v>69</v>
       </c>
       <c r="M76" s="4">
-        <v>130.4</v>
+        <v>138</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="77">
       <c r="A77" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E77" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F77" s="2">
-        <v>79544</v>
+        <v>79547</v>
       </c>
       <c r="G77" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>222</v>
@@ -4802,42 +5057,42 @@
         <v>19</v>
       </c>
       <c r="K77" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L77" s="4">
-        <v>19.85</v>
+        <v>129</v>
       </c>
       <c r="M77" s="4">
-        <v>297.75</v>
+        <v>258</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="78">
       <c r="A78" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E78" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F78" s="2">
-        <v>79544</v>
+        <v>79547</v>
       </c>
       <c r="G78" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>224</v>
@@ -4849,207 +5104,207 @@
         <v>19</v>
       </c>
       <c r="K78" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L78" s="4">
-        <v>8.2</v>
+        <v>189</v>
       </c>
       <c r="M78" s="4">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="79">
       <c r="A79" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E79" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F79" s="2">
-        <v>79544</v>
+        <v>79547</v>
       </c>
       <c r="G79" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K79" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L79" s="4">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="M79" s="4">
-        <v>90</v>
+        <v>498</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="80">
       <c r="A80" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E80" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F80" s="2">
-        <v>79544</v>
+        <v>79548</v>
       </c>
       <c r="G80" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L80" s="4">
-        <v>6</v>
+        <v>1190</v>
       </c>
       <c r="M80" s="4">
-        <v>120</v>
+        <v>1190</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="81">
       <c r="A81" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D81" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E81" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F81" s="2">
-        <v>79544</v>
+        <v>79550</v>
       </c>
       <c r="G81" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K81" s="4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L81" s="4">
-        <v>21.11</v>
+        <v>14.4</v>
       </c>
       <c r="M81" s="4">
-        <v>316.65</v>
+        <v>1440</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="82">
       <c r="A82" s="2">
-        <v>2212</v>
+        <v>2506</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D82" s="2">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="E82" s="3">
-        <v>45917.4457125463</v>
+        <v>45917.4428266898</v>
       </c>
       <c r="F82" s="2">
-        <v>79544</v>
+        <v>79550</v>
       </c>
       <c r="G82" s="3">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K82" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L82" s="4">
-        <v>20.76</v>
+        <v>299</v>
       </c>
       <c r="M82" s="4">
-        <v>415.2</v>
+        <v>4485</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="83">
@@ -5057,7 +5312,7 @@
         <v>2212</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>59</v>
@@ -5069,34 +5324,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F83" s="2">
-        <v>79544</v>
+        <v>79537</v>
       </c>
       <c r="G83" s="3">
         <v>45917</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K83" s="4">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L83" s="4">
-        <v>17.5</v>
+        <v>952</v>
       </c>
       <c r="M83" s="4">
-        <v>420</v>
+        <v>952</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="84">
@@ -5104,7 +5359,7 @@
         <v>2212</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>59</v>
@@ -5122,28 +5377,28 @@
         <v>45917</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>176</v>
+        <v>238</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K84" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L84" s="4">
-        <v>45</v>
+        <v>57.54</v>
       </c>
       <c r="M84" s="4">
-        <v>675</v>
+        <v>402.78</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
@@ -5151,7 +5406,7 @@
         <v>2212</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>59</v>
@@ -5169,28 +5424,28 @@
         <v>45917</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K85" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L85" s="4">
-        <v>44</v>
+        <v>6.52</v>
       </c>
       <c r="M85" s="4">
-        <v>1100</v>
+        <v>130.4</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
@@ -5198,7 +5453,7 @@
         <v>2212</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>59</v>
@@ -5210,34 +5465,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F86" s="2">
-        <v>79545</v>
+        <v>79544</v>
       </c>
       <c r="G86" s="3">
         <v>45917</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K86" s="4">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="L86" s="4">
-        <v>5.11</v>
+        <v>19.85</v>
       </c>
       <c r="M86" s="4">
-        <v>511</v>
+        <v>297.75</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
@@ -5245,7 +5500,7 @@
         <v>2212</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>59</v>
@@ -5257,34 +5512,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F87" s="2">
-        <v>79551</v>
+        <v>79544</v>
       </c>
       <c r="G87" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K87" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L87" s="4">
-        <v>14.9</v>
+        <v>8.2</v>
       </c>
       <c r="M87" s="4">
-        <v>223.5</v>
+        <v>82</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5292,7 +5547,7 @@
         <v>2212</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>59</v>
@@ -5304,34 +5559,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F88" s="2">
-        <v>79551</v>
+        <v>79544</v>
       </c>
       <c r="G88" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K88" s="4">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L88" s="4">
-        <v>3.3</v>
+        <v>15</v>
       </c>
       <c r="M88" s="4">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="89">
@@ -5339,7 +5594,7 @@
         <v>2212</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>59</v>
@@ -5351,34 +5606,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F89" s="2">
-        <v>79551</v>
+        <v>79544</v>
       </c>
       <c r="G89" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K89" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L89" s="4">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="M89" s="4">
-        <v>1290</v>
+        <v>120</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="90">
@@ -5386,7 +5641,7 @@
         <v>2212</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>59</v>
@@ -5398,34 +5653,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F90" s="2">
-        <v>79551</v>
+        <v>79544</v>
       </c>
       <c r="G90" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K90" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L90" s="4">
-        <v>129</v>
+        <v>21.11</v>
       </c>
       <c r="M90" s="4">
-        <v>1290</v>
+        <v>316.65</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="91">
@@ -5433,7 +5688,7 @@
         <v>2212</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>59</v>
@@ -5445,34 +5700,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F91" s="2">
-        <v>79552</v>
+        <v>79544</v>
       </c>
       <c r="G91" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K91" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L91" s="4">
-        <v>9.5</v>
+        <v>20.76</v>
       </c>
       <c r="M91" s="4">
-        <v>142.5</v>
+        <v>415.2</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="92">
@@ -5480,7 +5735,7 @@
         <v>2212</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>59</v>
@@ -5492,34 +5747,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F92" s="2">
-        <v>79552</v>
+        <v>79544</v>
       </c>
       <c r="G92" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K92" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L92" s="4">
-        <v>6.2</v>
+        <v>45</v>
       </c>
       <c r="M92" s="4">
-        <v>62</v>
+        <v>675</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="93">
@@ -5527,7 +5782,7 @@
         <v>2212</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>59</v>
@@ -5539,34 +5794,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F93" s="2">
-        <v>79555</v>
+        <v>79544</v>
       </c>
       <c r="G93" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="K93" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L93" s="4">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M93" s="4">
-        <v>1680</v>
+        <v>1100</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="94">
@@ -5574,7 +5829,7 @@
         <v>2212</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>59</v>
@@ -5586,10 +5841,10 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F94" s="2">
-        <v>79555</v>
+        <v>79544</v>
       </c>
       <c r="G94" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>250</v>
@@ -5598,22 +5853,22 @@
         <v>251</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="K94" s="4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L94" s="4">
-        <v>209</v>
+        <v>17.5</v>
       </c>
       <c r="M94" s="4">
-        <v>4180</v>
+        <v>420</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>249</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="95">
@@ -5621,7 +5876,7 @@
         <v>2212</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>59</v>
@@ -5633,34 +5888,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F95" s="2">
-        <v>79557</v>
+        <v>79545</v>
       </c>
       <c r="G95" s="3">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="K95" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L95" s="4">
-        <v>17.2</v>
+        <v>5.11</v>
       </c>
       <c r="M95" s="4">
-        <v>688</v>
+        <v>511</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5668,7 +5923,7 @@
         <v>2212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>59</v>
@@ -5680,34 +5935,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F96" s="2">
-        <v>79557</v>
+        <v>79551</v>
       </c>
       <c r="G96" s="3">
         <v>45918</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K96" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L96" s="4">
-        <v>28</v>
+        <v>14.9</v>
       </c>
       <c r="M96" s="4">
-        <v>280</v>
+        <v>223.5</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="97">
@@ -5715,7 +5970,7 @@
         <v>2212</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>59</v>
@@ -5727,34 +5982,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F97" s="2">
-        <v>79557</v>
+        <v>79551</v>
       </c>
       <c r="G97" s="3">
         <v>45918</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K97" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L97" s="4">
-        <v>15</v>
+        <v>3.3</v>
       </c>
       <c r="M97" s="4">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="98">
@@ -5762,7 +6017,7 @@
         <v>2212</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>59</v>
@@ -5774,34 +6029,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F98" s="2">
-        <v>79564</v>
+        <v>79551</v>
       </c>
       <c r="G98" s="3">
         <v>45918</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K98" s="4">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="L98" s="4">
-        <v>2.252</v>
+        <v>129</v>
       </c>
       <c r="M98" s="4">
-        <v>2161.92</v>
+        <v>1290</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="99">
@@ -5809,7 +6064,7 @@
         <v>2212</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>59</v>
@@ -5821,7 +6076,7 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F99" s="2">
-        <v>79564</v>
+        <v>79551</v>
       </c>
       <c r="G99" s="3">
         <v>45918</v>
@@ -5836,19 +6091,19 @@
         <v>19</v>
       </c>
       <c r="K99" s="4">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="L99" s="4">
-        <v>1.482</v>
+        <v>129</v>
       </c>
       <c r="M99" s="4">
-        <v>426.816</v>
+        <v>1290</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -5856,7 +6111,7 @@
         <v>2212</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>59</v>
@@ -5868,16 +6123,16 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F100" s="2">
-        <v>79565</v>
+        <v>79552</v>
       </c>
       <c r="G100" s="3">
         <v>45918</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>19</v>
@@ -5886,16 +6141,16 @@
         <v>15</v>
       </c>
       <c r="L100" s="4">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="M100" s="4">
-        <v>202.5</v>
+        <v>142.5</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -5903,7 +6158,7 @@
         <v>2212</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>59</v>
@@ -5915,34 +6170,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F101" s="2">
-        <v>79565</v>
+        <v>79552</v>
       </c>
       <c r="G101" s="3">
         <v>45918</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K101" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L101" s="4">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="M101" s="4">
-        <v>450</v>
+        <v>62</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="102">
@@ -5950,7 +6205,7 @@
         <v>2212</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>59</v>
@@ -5962,34 +6217,34 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F102" s="2">
-        <v>79565</v>
+        <v>79555</v>
       </c>
       <c r="G102" s="3">
         <v>45918</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>28</v>
+        <v>266</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>29</v>
+        <v>267</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="K102" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L102" s="4">
-        <v>14.92</v>
+        <v>56</v>
       </c>
       <c r="M102" s="4">
-        <v>149.2</v>
+        <v>1680</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>162</v>
+        <v>269</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="103">
@@ -5997,7 +6252,7 @@
         <v>2212</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>59</v>
@@ -6009,383 +6264,383 @@
         <v>45917.4457125463</v>
       </c>
       <c r="F103" s="2">
-        <v>79566</v>
+        <v>79555</v>
       </c>
       <c r="G103" s="3">
         <v>45918</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="K103" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L103" s="4">
-        <v>129.3</v>
+        <v>209</v>
       </c>
       <c r="M103" s="4">
-        <v>5172</v>
+        <v>4180</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
       <c r="A104" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D104" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E104" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F104" s="2">
-        <v>79568</v>
+        <v>79557</v>
       </c>
       <c r="G104" s="3">
         <v>45918</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K104" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L104" s="4">
-        <v>11.9</v>
+        <v>17.2</v>
       </c>
       <c r="M104" s="4">
-        <v>11.9</v>
+        <v>688</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
       <c r="A105" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D105" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E105" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F105" s="2">
-        <v>79568</v>
+        <v>79557</v>
       </c>
       <c r="G105" s="3">
         <v>45918</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K105" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L105" s="4">
-        <v>16.9</v>
+        <v>28</v>
       </c>
       <c r="M105" s="4">
-        <v>101.4</v>
+        <v>280</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
       <c r="A106" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D106" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E106" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F106" s="2">
-        <v>79568</v>
+        <v>79557</v>
       </c>
       <c r="G106" s="3">
         <v>45918</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K106" s="4">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L106" s="4">
-        <v>63.9</v>
+        <v>15</v>
       </c>
       <c r="M106" s="4">
-        <v>319.5</v>
+        <v>600</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
       <c r="A107" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D107" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E107" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F107" s="2">
-        <v>79569</v>
+        <v>79564</v>
       </c>
       <c r="G107" s="3">
         <v>45918</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K107" s="4">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="L107" s="4">
-        <v>4.5</v>
+        <v>2.252</v>
       </c>
       <c r="M107" s="4">
-        <v>450</v>
+        <v>2161.92</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
       <c r="A108" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D108" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E108" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F108" s="2">
-        <v>79569</v>
+        <v>79564</v>
       </c>
       <c r="G108" s="3">
         <v>45918</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K108" s="4">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="L108" s="4">
-        <v>6.99</v>
+        <v>1.482</v>
       </c>
       <c r="M108" s="4">
-        <v>69.9</v>
+        <v>426.816</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
       <c r="A109" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D109" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E109" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F109" s="2">
-        <v>79569</v>
+        <v>79565</v>
       </c>
       <c r="G109" s="3">
         <v>45918</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K109" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L109" s="4">
-        <v>68</v>
+        <v>13.5</v>
       </c>
       <c r="M109" s="4">
-        <v>204</v>
+        <v>202.5</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
       <c r="A110" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D110" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E110" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F110" s="2">
-        <v>79569</v>
+        <v>79565</v>
       </c>
       <c r="G110" s="3">
         <v>45918</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K110" s="4">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="L110" s="4">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="M110" s="4">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
       <c r="A111" s="2">
-        <v>2407</v>
+        <v>2212</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>262</v>
+        <v>58</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D111" s="2">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="E111" s="3">
-        <v>45917.7111264468</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F111" s="2">
-        <v>79569</v>
+        <v>79565</v>
       </c>
       <c r="G111" s="3">
         <v>45918</v>
@@ -6400,599 +6655,2583 @@
         <v>19</v>
       </c>
       <c r="K111" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L111" s="4">
-        <v>24.9</v>
+        <v>14.92</v>
       </c>
       <c r="M111" s="4">
-        <v>49.8</v>
+        <v>149.2</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="112">
       <c r="A112" s="2">
-        <v>2504</v>
+        <v>2212</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D112" s="2">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="E112" s="3">
-        <v>45918.5912934375</v>
+        <v>45917.4457125463</v>
       </c>
       <c r="F112" s="2">
-        <v>79572</v>
+        <v>79566</v>
       </c>
       <c r="G112" s="3">
         <v>45918</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K112" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L112" s="4">
-        <v>34.5</v>
+        <v>129.3</v>
       </c>
       <c r="M112" s="4">
-        <v>2760</v>
+        <v>5172</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
       <c r="A113" s="2">
-        <v>2504</v>
+        <v>2407</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E113" s="3">
-        <v>45918.5912934375</v>
+        <v>45917.7111264468</v>
       </c>
       <c r="F113" s="2">
-        <v>79572</v>
+        <v>79568</v>
       </c>
       <c r="G113" s="3">
         <v>45918</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K113" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L113" s="4">
-        <v>3.5</v>
+        <v>11.9</v>
       </c>
       <c r="M113" s="4">
-        <v>350</v>
+        <v>11.9</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
       <c r="A114" s="2">
-        <v>2504</v>
+        <v>2407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E114" s="3">
-        <v>45918.5912934375</v>
+        <v>45917.7111264468</v>
       </c>
       <c r="F114" s="2">
-        <v>79572</v>
+        <v>79568</v>
       </c>
       <c r="G114" s="3">
         <v>45918</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K114" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L114" s="4">
-        <v>35.5</v>
+        <v>16.9</v>
       </c>
       <c r="M114" s="4">
-        <v>355</v>
+        <v>101.4</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
       <c r="A115" s="2">
-        <v>2504</v>
+        <v>2407</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E115" s="3">
-        <v>45918.5912934375</v>
+        <v>45917.7111264468</v>
       </c>
       <c r="F115" s="2">
-        <v>79573</v>
+        <v>79568</v>
       </c>
       <c r="G115" s="3">
         <v>45918</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="K115" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L115" s="4">
-        <v>120</v>
+        <v>63.9</v>
       </c>
       <c r="M115" s="4">
-        <v>240</v>
+        <v>319.5</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
       <c r="A116" s="2">
-        <v>2505</v>
+        <v>2407</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D116" s="2">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E116" s="3">
-        <v>45918.5919609259</v>
+        <v>45917.7111264468</v>
       </c>
       <c r="F116" s="2">
-        <v>79571</v>
+        <v>79569</v>
       </c>
       <c r="G116" s="3">
         <v>45918</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>280</v>
+        <v>184</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="K116" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="L116" s="4">
-        <v>35.56</v>
+        <v>4.5</v>
       </c>
       <c r="M116" s="4">
-        <v>35560</v>
+        <v>450</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="117">
       <c r="A117" s="2">
-        <v>2212</v>
+        <v>2407</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="E117" s="3">
-        <v>45918.7132868287</v>
-      </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+        <v>45917.7111264468</v>
+      </c>
+      <c r="F117" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G117" s="3">
+        <v>45918</v>
+      </c>
       <c r="H117" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K117" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L117" s="4">
-        <v>0</v>
+        <v>6.99</v>
       </c>
       <c r="M117" s="4">
-        <v>0</v>
-      </c>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
+        <v>69.9</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="118">
       <c r="A118" s="2">
-        <v>2212</v>
+        <v>2407</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="E118" s="3">
-        <v>45918.7132868287</v>
-      </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+        <v>45917.7111264468</v>
+      </c>
+      <c r="F118" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G118" s="3">
+        <v>45918</v>
+      </c>
       <c r="H118" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K118" s="4">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="L118" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M118" s="4">
-        <v>0</v>
-      </c>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="119">
       <c r="A119" s="2">
-        <v>2212</v>
+        <v>2407</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="E119" s="3">
-        <v>45918.7132868287</v>
-      </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+        <v>45917.7111264468</v>
+      </c>
+      <c r="F119" s="2">
+        <v>79569</v>
+      </c>
+      <c r="G119" s="3">
+        <v>45918</v>
+      </c>
       <c r="H119" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="K119" s="4">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="L119" s="4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M119" s="4">
-        <v>0</v>
-      </c>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
       <c r="A120" s="2">
-        <v>2212</v>
+        <v>2407</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="E120" s="3">
-        <v>45918.7132868287</v>
+        <v>45917.7111264468</v>
       </c>
       <c r="F120" s="2">
-        <v>79575</v>
+        <v>79569</v>
       </c>
       <c r="G120" s="3">
         <v>45918</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K120" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L120" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="M120" s="4">
         <v>49.8</v>
       </c>
-      <c r="M120" s="4">
-        <v>597.6</v>
-      </c>
       <c r="N120" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="121">
       <c r="A121" s="2">
-        <v>2212</v>
+        <v>2504</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D121" s="2">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E121" s="3">
-        <v>45918.7132868287</v>
+        <v>45918.5912934375</v>
       </c>
       <c r="F121" s="2">
-        <v>79576</v>
+        <v>79572</v>
       </c>
       <c r="G121" s="3">
         <v>45918</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K121" s="4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L121" s="4">
-        <v>1.88</v>
+        <v>34.5</v>
       </c>
       <c r="M121" s="4">
-        <v>376</v>
+        <v>2760</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="122">
       <c r="A122" s="2">
-        <v>2212</v>
+        <v>2504</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D122" s="2">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E122" s="3">
-        <v>45918.7132868287</v>
+        <v>45918.5912934375</v>
       </c>
       <c r="F122" s="2">
-        <v>79576</v>
+        <v>79572</v>
       </c>
       <c r="G122" s="3">
         <v>45918</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K122" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="L122" s="4">
-        <v>90.74</v>
+        <v>3.5</v>
       </c>
       <c r="M122" s="4">
-        <v>2722.2</v>
+        <v>350</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="123">
       <c r="A123" s="2">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D123" s="2">
+        <v>22</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45918.5912934375</v>
+      </c>
+      <c r="F123" s="2">
+        <v>79572</v>
+      </c>
+      <c r="G123" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123" s="4">
         <v>10</v>
       </c>
-      <c r="E123" s="3">
-        <v>45918.7390190625</v>
-      </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" s="4">
-        <v>900</v>
-      </c>
       <c r="L123" s="4">
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="M123" s="4">
-        <v>0</v>
-      </c>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
+        <v>355</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="124">
       <c r="A124" s="2">
-        <v>2510</v>
+        <v>2504</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D124" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E124" s="3">
-        <v>45918.7390190625</v>
+        <v>45918.5912934375</v>
       </c>
       <c r="F124" s="2">
-        <v>79577</v>
+        <v>79573</v>
       </c>
       <c r="G124" s="3">
         <v>45918</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="K124" s="4">
+        <v>2</v>
+      </c>
+      <c r="L124" s="4">
+        <v>120</v>
+      </c>
+      <c r="M124" s="4">
+        <v>240</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="125">
+      <c r="A125" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="2">
+        <v>25</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45918.5919609259</v>
+      </c>
+      <c r="F125" s="2">
+        <v>79571</v>
+      </c>
+      <c r="G125" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L125" s="4">
+        <v>35.56</v>
+      </c>
+      <c r="M125" s="4">
+        <v>35560</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="126">
+      <c r="A126" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="2">
+        <v>380</v>
+      </c>
+      <c r="E126" s="3">
+        <v>45918.6748511111</v>
+      </c>
+      <c r="F126" s="2">
+        <v>79597</v>
+      </c>
+      <c r="G126" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="4">
+        <v>1</v>
+      </c>
+      <c r="L126" s="4">
+        <v>284.9</v>
+      </c>
+      <c r="M126" s="4">
+        <v>284.9</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="127">
+      <c r="A127" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="2">
+        <v>238</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F127" s="2">
+        <v>79575</v>
+      </c>
+      <c r="G127" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="4">
+        <v>12</v>
+      </c>
+      <c r="L127" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="M127" s="4">
+        <v>597.6</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="128">
+      <c r="A128" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="2">
+        <v>238</v>
+      </c>
+      <c r="E128" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F128" s="2">
+        <v>79576</v>
+      </c>
+      <c r="G128" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="4">
+        <v>200</v>
+      </c>
+      <c r="L128" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="M128" s="4">
+        <v>376</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="129">
+      <c r="A129" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="2">
+        <v>238</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F129" s="2">
+        <v>79586</v>
+      </c>
+      <c r="G129" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="4">
+        <v>1</v>
+      </c>
+      <c r="L129" s="4">
+        <v>659</v>
+      </c>
+      <c r="M129" s="4">
+        <v>659</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="130">
+      <c r="A130" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="2">
+        <v>238</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F130" s="2">
+        <v>79587</v>
+      </c>
+      <c r="G130" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K130" s="4">
+        <v>90</v>
+      </c>
+      <c r="L130" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="M130" s="4">
+        <v>342</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="131">
+      <c r="A131" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="2">
+        <v>238</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F131" s="2">
+        <v>79587</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K131" s="4">
+        <v>60</v>
+      </c>
+      <c r="L131" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="M131" s="4">
+        <v>864</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="132">
+      <c r="A132" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="2">
+        <v>238</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45918.7132868287</v>
+      </c>
+      <c r="F132" s="2">
+        <v>79593</v>
+      </c>
+      <c r="G132" s="3">
+        <v>45919</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" s="4">
+        <v>30</v>
+      </c>
+      <c r="L132" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="M132" s="4">
+        <v>2544</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="133">
+      <c r="A133" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="2">
+        <v>10</v>
+      </c>
+      <c r="E133" s="3">
+        <v>45918.7390190625</v>
+      </c>
+      <c r="F133" s="2">
+        <v>79577</v>
+      </c>
+      <c r="G133" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="4">
         <v>150</v>
       </c>
-      <c r="L124" s="4">
+      <c r="L133" s="4">
         <v>1.35</v>
       </c>
-      <c r="M124" s="4">
+      <c r="M133" s="4">
         <v>202.5</v>
       </c>
-      <c r="N124" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="N133" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="134">
+      <c r="A134" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="2">
+        <v>10</v>
+      </c>
+      <c r="E134" s="3">
+        <v>45918.7390190625</v>
+      </c>
+      <c r="F134" s="2">
+        <v>79577</v>
+      </c>
+      <c r="G134" s="3">
+        <v>45918</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1300</v>
+      </c>
+      <c r="L134" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="M134" s="4">
+        <v>2587</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="135">
+      <c r="A135" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="4">
+        <v>2</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="136">
+      <c r="A136" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="4">
+        <v>200</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="137">
+      <c r="A137" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="4">
+        <v>7</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="138">
+      <c r="A138" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="4">
+        <v>3</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="139">
+      <c r="A139" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1</v>
+      </c>
+      <c r="L139" s="4">
+        <v>0</v>
+      </c>
+      <c r="M139" s="4">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="140">
+      <c r="A140" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2</v>
+      </c>
+      <c r="E140" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1</v>
+      </c>
+      <c r="L140" s="4">
+        <v>0</v>
+      </c>
+      <c r="M140" s="4">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="141">
+      <c r="A141" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K141" s="4">
+        <v>5</v>
+      </c>
+      <c r="L141" s="4">
+        <v>0</v>
+      </c>
+      <c r="M141" s="4">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="142">
+      <c r="A142" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K142" s="4">
+        <v>10</v>
+      </c>
+      <c r="L142" s="4">
+        <v>0</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="143">
+      <c r="A143" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K143" s="4">
+        <v>60</v>
+      </c>
+      <c r="L143" s="4">
+        <v>0</v>
+      </c>
+      <c r="M143" s="4">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="144">
+      <c r="A144" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+      <c r="E144" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K144" s="4">
+        <v>10</v>
+      </c>
+      <c r="L144" s="4">
+        <v>0</v>
+      </c>
+      <c r="M144" s="4">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="145">
+      <c r="A145" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2</v>
+      </c>
+      <c r="E145" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K145" s="4">
+        <v>50</v>
+      </c>
+      <c r="L145" s="4">
+        <v>0</v>
+      </c>
+      <c r="M145" s="4">
+        <v>0</v>
+      </c>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="146">
+      <c r="A146" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="4">
+        <v>200</v>
+      </c>
+      <c r="L146" s="4">
+        <v>0</v>
+      </c>
+      <c r="M146" s="4">
+        <v>0</v>
+      </c>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="147">
+      <c r="A147" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2</v>
+      </c>
+      <c r="E147" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L147" s="4">
+        <v>0</v>
+      </c>
+      <c r="M147" s="4">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="148">
+      <c r="A148" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2</v>
+      </c>
+      <c r="E148" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K148" s="4">
+        <v>75</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0</v>
+      </c>
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="149">
+      <c r="A149" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
+      <c r="E149" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="150">
+      <c r="A150" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2</v>
+      </c>
+      <c r="E150" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="4">
+        <v>2</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0</v>
+      </c>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="151">
+      <c r="A151" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2</v>
+      </c>
+      <c r="E151" s="3">
+        <v>45919.5110425694</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="4">
+        <v>6</v>
+      </c>
+      <c r="L151" s="4">
+        <v>0</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="152">
+      <c r="A152" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="2">
+        <v>38</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="4">
+        <v>8</v>
+      </c>
+      <c r="L152" s="4">
+        <v>0</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="153">
+      <c r="A153" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="2">
+        <v>38</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="4">
+        <v>8</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="154">
+      <c r="A154" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2">
+        <v>38</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="4">
+        <v>10</v>
+      </c>
+      <c r="L154" s="4">
+        <v>0</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="155">
+      <c r="A155" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="2">
+        <v>38</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="4">
+        <v>20</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="156">
+      <c r="A156" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="2">
+        <v>38</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="157">
+      <c r="A157" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="2">
+        <v>38</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45919.5134178935</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="158">
+      <c r="A158" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="2">
+        <v>61</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="4">
+        <v>300</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="159">
+      <c r="A159" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="2">
+        <v>61</v>
+      </c>
+      <c r="E159" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="4">
+        <v>30</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="160">
+      <c r="A160" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2">
+        <v>61</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>0</v>
+      </c>
+      <c r="M160" s="4">
+        <v>0</v>
+      </c>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="161">
+      <c r="A161" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="2">
+        <v>61</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="4">
+        <v>20</v>
+      </c>
+      <c r="L161" s="4">
+        <v>0</v>
+      </c>
+      <c r="M161" s="4">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="162">
+      <c r="A162" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2">
+        <v>61</v>
+      </c>
+      <c r="E162" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="4">
+        <v>3</v>
+      </c>
+      <c r="L162" s="4">
+        <v>0</v>
+      </c>
+      <c r="M162" s="4">
+        <v>0</v>
+      </c>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="163">
+      <c r="A163" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2">
+        <v>61</v>
+      </c>
+      <c r="E163" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" s="4">
+        <v>3</v>
+      </c>
+      <c r="L163" s="4">
+        <v>0</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0</v>
+      </c>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="164">
+      <c r="A164" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2">
+        <v>61</v>
+      </c>
+      <c r="E164" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K164" s="4">
+        <v>10</v>
+      </c>
+      <c r="L164" s="4">
+        <v>0</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="165">
+      <c r="A165" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2">
+        <v>61</v>
+      </c>
+      <c r="E165" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K165" s="4">
+        <v>100</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="166">
+      <c r="A166" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="2">
+        <v>61</v>
+      </c>
+      <c r="E166" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K166" s="4">
+        <v>20</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0</v>
+      </c>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="167">
+      <c r="A167" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2">
+        <v>61</v>
+      </c>
+      <c r="E167" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="4">
+        <v>5</v>
+      </c>
+      <c r="L167" s="4">
+        <v>0</v>
+      </c>
+      <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="168">
+      <c r="A168" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2">
+        <v>61</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" s="4">
+        <v>6</v>
+      </c>
+      <c r="L168" s="4">
+        <v>0</v>
+      </c>
+      <c r="M168" s="4">
+        <v>0</v>
+      </c>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="169">
+      <c r="A169" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="2">
+        <v>61</v>
+      </c>
+      <c r="E169" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" s="4">
+        <v>1</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="170">
+      <c r="A170" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="2">
+        <v>61</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="171">
+      <c r="A171" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2">
+        <v>61</v>
+      </c>
+      <c r="E171" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="4">
+        <v>5</v>
+      </c>
+      <c r="L171" s="4">
+        <v>0</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="172">
+      <c r="A172" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2">
+        <v>61</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45919.514491088</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K172" s="4">
+        <v>20</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -1079,18 +1079,18 @@
     <t>FERNANDO VASCONCELLOS</t>
   </si>
   <si>
+    <t>E.04.0282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 8 CM</t>
+  </si>
+  <si>
     <t>E.04.0281</t>
   </si>
   <si>
     <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 6 CM</t>
   </si>
   <si>
-    <t>E.04.0282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 8 CM</t>
-  </si>
-  <si>
     <t>E.04.1235</t>
   </si>
   <si>
@@ -1109,31 +1109,31 @@
     <t>GUMOS REVESTIMENTOS</t>
   </si>
   <si>
+    <t>P2.02.0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATERIAL PARA  ESQUADRIAS DE ALUMÍNIO ED -</t>
+  </si>
+  <si>
+    <t>00000000010170</t>
+  </si>
+  <si>
+    <t>PRODEC</t>
+  </si>
+  <si>
+    <t>N.05.0011</t>
+  </si>
+  <si>
+    <t>PASTILHA ATLAS</t>
+  </si>
+  <si>
+    <t>00000000000687</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
     <t>MARIA BELTRÃO SALDANHA COELHO</t>
-  </si>
-  <si>
-    <t>P2.02.0037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL PARA  ESQUADRIAS DE ALUMÍNIO ED -</t>
-  </si>
-  <si>
-    <t>00000000010170</t>
-  </si>
-  <si>
-    <t>PRODEC</t>
-  </si>
-  <si>
-    <t>N.05.0011</t>
-  </si>
-  <si>
-    <t>PASTILHA ATLAS</t>
-  </si>
-  <si>
-    <t>00000000000687</t>
-  </si>
-  <si>
-    <t>ATLAS</t>
   </si>
   <si>
     <t>C.04.0046</t>
@@ -1468,7 +1468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -8771,8 +8771,12 @@
       <c r="E156" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="F156" s="2">
+        <v>79760</v>
+      </c>
+      <c r="G156" s="3">
+        <v>45926</v>
+      </c>
       <c r="H156" s="1" t="s">
         <v>51</v>
       </c>
@@ -8786,13 +8790,17 @@
         <v>2</v>
       </c>
       <c r="L156" s="4">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="M156" s="4">
-        <v>0</v>
-      </c>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+        <v>610</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="157">
       <c r="A157" s="2">
@@ -8810,8 +8818,12 @@
       <c r="E157" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="F157" s="2">
+        <v>79760</v>
+      </c>
+      <c r="G157" s="3">
+        <v>45926</v>
+      </c>
       <c r="H157" s="1" t="s">
         <v>56</v>
       </c>
@@ -8825,13 +8837,17 @@
         <v>5</v>
       </c>
       <c r="L157" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M157" s="4">
-        <v>0</v>
-      </c>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="158">
       <c r="A158" s="2">
@@ -8849,28 +8865,36 @@
       <c r="E158" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F158" s="2">
+        <v>79760</v>
+      </c>
+      <c r="G158" s="3">
+        <v>45926</v>
+      </c>
       <c r="H158" s="1" t="s">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K158" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L158" s="4">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="M158" s="4">
-        <v>0</v>
-      </c>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
+        <v>16.9</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="159">
       <c r="A159" s="2">
@@ -8888,28 +8912,36 @@
       <c r="E159" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="F159" s="2">
+        <v>79761</v>
+      </c>
+      <c r="G159" s="3">
+        <v>45926</v>
+      </c>
       <c r="H159" s="1" t="s">
-        <v>355</v>
+        <v>69</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>356</v>
+        <v>70</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K159" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L159" s="4">
-        <v>0</v>
+        <v>23.43</v>
       </c>
       <c r="M159" s="4">
-        <v>0</v>
-      </c>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
+        <v>702.9</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="160">
       <c r="A160" s="2">
@@ -8927,8 +8959,12 @@
       <c r="E160" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="F160" s="2">
+        <v>79761</v>
+      </c>
+      <c r="G160" s="3">
+        <v>45926</v>
+      </c>
       <c r="H160" s="1" t="s">
         <v>357</v>
       </c>
@@ -8942,13 +8978,17 @@
         <v>1</v>
       </c>
       <c r="L160" s="4">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="M160" s="4">
-        <v>0</v>
-      </c>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="161">
       <c r="A161" s="2">
@@ -8966,8 +9006,12 @@
       <c r="E161" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="F161" s="2">
+        <v>79761</v>
+      </c>
+      <c r="G161" s="3">
+        <v>45926</v>
+      </c>
       <c r="H161" s="1" t="s">
         <v>359</v>
       </c>
@@ -8981,13 +9025,17 @@
         <v>1</v>
       </c>
       <c r="L161" s="4">
-        <v>0</v>
+        <v>20.88</v>
       </c>
       <c r="M161" s="4">
-        <v>0</v>
-      </c>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
+        <v>20.88</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="162">
       <c r="A162" s="2">
@@ -9005,8 +9053,12 @@
       <c r="E162" s="3">
         <v>45924.6790827662</v>
       </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="F162" s="2">
+        <v>79761</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45926</v>
+      </c>
       <c r="H162" s="1" t="s">
         <v>123</v>
       </c>
@@ -9020,13 +9072,17 @@
         <v>12</v>
       </c>
       <c r="L162" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M162" s="4">
-        <v>0</v>
-      </c>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
+        <v>166.8</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="163">
       <c r="A163" s="2">
@@ -9077,27 +9133,31 @@
     </row>
     <row ht="12.75" customHeight="1" r="164">
       <c r="A164" s="2">
-        <v>2409</v>
+        <v>9992</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>365</v>
+        <v>15</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D164" s="2">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="E164" s="3">
-        <v>45925.4503638889</v>
-      </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+        <v>45925.7222727546</v>
+      </c>
+      <c r="F164" s="2">
+        <v>79708</v>
+      </c>
+      <c r="G164" s="3">
+        <v>45925</v>
+      </c>
       <c r="H164" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I164" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>43</v>
@@ -9106,106 +9166,110 @@
         <v>1</v>
       </c>
       <c r="L164" s="4">
-        <v>17670.44</v>
+        <v>17110.56</v>
       </c>
       <c r="M164" s="4">
-        <v>17670.44</v>
-      </c>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
+        <v>17110.56</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
       <c r="A165" s="2">
-        <v>9992</v>
+        <v>2212</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="2">
-        <v>383</v>
+        <v>245</v>
       </c>
       <c r="E165" s="3">
-        <v>45925.7222727546</v>
+        <v>45926.5254958565</v>
       </c>
       <c r="F165" s="2">
-        <v>79708</v>
+        <v>79748</v>
       </c>
       <c r="G165" s="3">
-        <v>45925</v>
+        <v>45926</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>43</v>
+        <v>345</v>
       </c>
       <c r="K165" s="4">
-        <v>1</v>
+        <v>7.05</v>
       </c>
       <c r="L165" s="4">
-        <v>17110.56</v>
+        <v>120</v>
       </c>
       <c r="M165" s="4">
-        <v>17110.56</v>
+        <v>846</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
       <c r="A166" s="2">
-        <v>2212</v>
+        <v>2409</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>33</v>
+        <v>373</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="E166" s="3">
-        <v>45926.5254958565</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F166" s="2">
-        <v>79748</v>
+        <v>79752</v>
       </c>
       <c r="G166" s="3">
         <v>45926</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>345</v>
+        <v>62</v>
       </c>
       <c r="K166" s="4">
-        <v>7.05</v>
+        <v>20</v>
       </c>
       <c r="L166" s="4">
-        <v>120</v>
+        <v>34.5</v>
       </c>
       <c r="M166" s="4">
-        <v>846</v>
+        <v>690</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="167">
@@ -9213,7 +9277,7 @@
         <v>2409</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>16</v>
@@ -9225,34 +9289,34 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F167" s="2">
-        <v>79752</v>
+        <v>79753</v>
       </c>
       <c r="G167" s="3">
         <v>45926</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K167" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L167" s="4">
-        <v>34.5</v>
+        <v>4.5</v>
       </c>
       <c r="M167" s="4">
-        <v>690</v>
+        <v>225</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
@@ -9260,7 +9324,7 @@
         <v>2409</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>16</v>
@@ -9278,22 +9342,22 @@
         <v>45926</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K168" s="4">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L168" s="4">
-        <v>4.5</v>
+        <v>13.49</v>
       </c>
       <c r="M168" s="4">
-        <v>225</v>
+        <v>80.94</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>54</v>
@@ -9307,7 +9371,7 @@
         <v>2409</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>16</v>
@@ -9325,22 +9389,22 @@
         <v>45926</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K169" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L169" s="4">
-        <v>13.49</v>
+        <v>47</v>
       </c>
       <c r="M169" s="4">
-        <v>80.94</v>
+        <v>141</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>54</v>
@@ -9354,7 +9418,7 @@
         <v>2409</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>16</v>
@@ -9366,34 +9430,34 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F170" s="2">
-        <v>79753</v>
+        <v>79754</v>
       </c>
       <c r="G170" s="3">
         <v>45926</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>374</v>
+        <v>147</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="K170" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L170" s="4">
-        <v>47</v>
+        <v>3.9</v>
       </c>
       <c r="M170" s="4">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
@@ -9401,7 +9465,7 @@
         <v>2409</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>16</v>
@@ -9419,22 +9483,22 @@
         <v>45926</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>148</v>
+        <v>377</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="K171" s="4">
         <v>30</v>
       </c>
       <c r="L171" s="4">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="M171" s="4">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>107</v>
@@ -9448,7 +9512,7 @@
         <v>2409</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>16</v>
@@ -9466,22 +9530,22 @@
         <v>45926</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K172" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L172" s="4">
-        <v>2.9</v>
+        <v>13.9</v>
       </c>
       <c r="M172" s="4">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>107</v>
@@ -9495,7 +9559,7 @@
         <v>2409</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>16</v>
@@ -9507,34 +9571,34 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F173" s="2">
-        <v>79754</v>
+        <v>79755</v>
       </c>
       <c r="G173" s="3">
         <v>45926</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K173" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L173" s="4">
-        <v>13.9</v>
+        <v>84.8</v>
       </c>
       <c r="M173" s="4">
-        <v>139</v>
+        <v>508.8</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
@@ -9542,7 +9606,7 @@
         <v>2409</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>16</v>
@@ -9554,81 +9618,81 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F174" s="2">
-        <v>79755</v>
+        <v>79758</v>
       </c>
       <c r="G174" s="3">
         <v>45926</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K174" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L174" s="4">
-        <v>84.8</v>
+        <v>65</v>
       </c>
       <c r="M174" s="4">
-        <v>508.8</v>
+        <v>130</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>27</v>
+        <v>382</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>28</v>
+        <v>383</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
       <c r="A175" s="2">
-        <v>2409</v>
+        <v>2504</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>365</v>
+        <v>86</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E175" s="3">
-        <v>45926.6614493519</v>
+        <v>45926.6629431944</v>
       </c>
       <c r="F175" s="2">
-        <v>79758</v>
+        <v>79750</v>
       </c>
       <c r="G175" s="3">
         <v>45926</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="K175" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L175" s="4">
-        <v>65</v>
+        <v>4.5</v>
       </c>
       <c r="M175" s="4">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>383</v>
+        <v>64</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
@@ -9654,22 +9718,22 @@
         <v>45926</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>385</v>
+        <v>61</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K176" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L176" s="4">
-        <v>4.5</v>
+        <v>34.5</v>
       </c>
       <c r="M176" s="4">
-        <v>135</v>
+        <v>2070</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>63</v>
@@ -9701,22 +9765,22 @@
         <v>45926</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K177" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L177" s="4">
-        <v>34.5</v>
+        <v>3.5</v>
       </c>
       <c r="M177" s="4">
-        <v>2070</v>
+        <v>350</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>63</v>
@@ -9748,22 +9812,22 @@
         <v>45926</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K178" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L178" s="4">
-        <v>3.5</v>
+        <v>35.5</v>
       </c>
       <c r="M178" s="4">
-        <v>350</v>
+        <v>710</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>63</v>
@@ -9789,80 +9853,33 @@
         <v>45926.6629431944</v>
       </c>
       <c r="F179" s="2">
-        <v>79750</v>
+        <v>79751</v>
       </c>
       <c r="G179" s="3">
         <v>45926</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K179" s="4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L179" s="4">
-        <v>35.5</v>
+        <v>29.9</v>
       </c>
       <c r="M179" s="4">
-        <v>710</v>
+        <v>209.3</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="180">
-      <c r="A180" s="2">
-        <v>2504</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="2">
-        <v>24</v>
-      </c>
-      <c r="E180" s="3">
-        <v>45926.6629431944</v>
-      </c>
-      <c r="F180" s="2">
-        <v>79751</v>
-      </c>
-      <c r="G180" s="3">
-        <v>45926</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K180" s="4">
-        <v>7</v>
-      </c>
-      <c r="L180" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="M180" s="4">
-        <v>209.3</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O180" s="1" t="s">
         <v>68</v>
       </c>
     </row>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1127,12 +1127,45 @@
     <t xml:space="preserve"> MATERIAL PARA  ESQUADRIAS DE ALUMÍNIO ED -</t>
   </si>
   <si>
+    <t>00000000010206</t>
+  </si>
+  <si>
+    <t>TERA METAIS</t>
+  </si>
+  <si>
     <t>00000000010170</t>
   </si>
   <si>
     <t>PRODEC</t>
   </si>
   <si>
+    <t>JOÃO CARLOS BEHISNELIAN</t>
+  </si>
+  <si>
+    <t>H.11.0230</t>
+  </si>
+  <si>
+    <t>TELA ELETROSOLDADA GALVANIZADA E SEMI RIGIDA 25 X 25 MM X 1,24MM MED 25 M X 0,50M</t>
+  </si>
+  <si>
+    <t>J.05.0002</t>
+  </si>
+  <si>
+    <t>CIMENTO CP II - E-32 - 25 KG</t>
+  </si>
+  <si>
+    <t>P2.01.0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFIL  DE ALUMINIO U</t>
+  </si>
+  <si>
+    <t>00000000007677</t>
+  </si>
+  <si>
+    <t>CANTO METAL</t>
+  </si>
+  <si>
     <t>N.05.0011</t>
   </si>
   <si>
@@ -1218,6 +1251,168 @@
   </si>
   <si>
     <t xml:space="preserve">PRUMO METÁLICO PARA PEDREIRO  DE CENTRO- Nº5 - 900 G</t>
+  </si>
+  <si>
+    <t>RAFAEL CURSINO DE MOURA LEVY</t>
+  </si>
+  <si>
+    <t>E.06.0050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAXA   ( 1 L )</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>J.08.0002</t>
+  </si>
+  <si>
+    <t>GESSO - 40 KG</t>
+  </si>
+  <si>
+    <t>C.02.0001</t>
+  </si>
+  <si>
+    <t>SACO DE RAFIA</t>
+  </si>
+  <si>
+    <t>C.04.0025</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 300 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>E.03.0251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA DE CHUVA TREVIRA  COM FORRO MANGA COMPRIDA  M</t>
+  </si>
+  <si>
+    <t>E.03.0132</t>
+  </si>
+  <si>
+    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 16 DECIBÉIS</t>
+  </si>
+  <si>
+    <t>E.04.0376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  6MM X 160MM</t>
+  </si>
+  <si>
+    <t>E.04.0379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  8MM X 160MM</t>
+  </si>
+  <si>
+    <t>E.06.0007</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE WD40</t>
+  </si>
+  <si>
+    <t>E.04.1800</t>
+  </si>
+  <si>
+    <t>PONTEIRO 14 X 250MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>E.04.1850</t>
+  </si>
+  <si>
+    <t>TALHADEIRA 14 X 250MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>00000000008820</t>
+  </si>
+  <si>
+    <t>NOVA FASE</t>
+  </si>
+  <si>
+    <t>DÉBITO ADMINISTRAÇÃO (OBRAS)</t>
+  </si>
+  <si>
+    <t>15.02.1002</t>
+  </si>
+  <si>
+    <t>PASTILHA</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>00000000007848</t>
+  </si>
+  <si>
+    <t>PASTILHAS ATLAS</t>
+  </si>
+  <si>
+    <t>E.01.0011</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO DE EQUIPAMENTOS (VERBA)</t>
+  </si>
+  <si>
+    <t>00000000001312</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>00000000010208</t>
+  </si>
+  <si>
+    <t>ALUMINORTE</t>
+  </si>
+  <si>
+    <t>I.02.0111</t>
+  </si>
+  <si>
+    <t>BLOCO DE CONCRETO VEDAÇÃO 14 X 19 X 39</t>
+  </si>
+  <si>
+    <t>L.01.0035</t>
+  </si>
+  <si>
+    <t>TIJOLO DE BARRO</t>
+  </si>
+  <si>
+    <t>K.07.0703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLETOR DE LED  IP 65</t>
+  </si>
+  <si>
+    <t>C.04.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO DE RAFIA  50 L</t>
+  </si>
+  <si>
+    <t>C.05.0150</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA '' DUREX ''</t>
+  </si>
+  <si>
+    <t>E.04.0378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  8MM X 110MM</t>
+  </si>
+  <si>
+    <t>O.01.0051</t>
+  </si>
+  <si>
+    <t>CHAPA DE MADEIRITE RESINADA - 14MM - UNIDADE</t>
+  </si>
+  <si>
+    <t>U.02.2009</t>
+  </si>
+  <si>
+    <t>DUCHA KOHLER</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1711,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O188"/>
+  <dimension ref="A1:O238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1532,7 +1727,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="84.1428571428571" customWidth="1" style="1"/>
+    <col min="9" max="9" width="84.5714285714286" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="9.57142857142857" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -9284,16 +9479,16 @@
         <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E166" s="3">
-        <v>45925.7222727546</v>
+        <v>45925.6124631829</v>
       </c>
       <c r="F166" s="2">
-        <v>79708</v>
+        <v>79809</v>
       </c>
       <c r="G166" s="3">
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>369</v>
@@ -9308,10 +9503,10 @@
         <v>1</v>
       </c>
       <c r="L166" s="4">
-        <v>17110.56</v>
+        <v>751.33</v>
       </c>
       <c r="M166" s="4">
-        <v>17110.56</v>
+        <v>751.33</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>371</v>
@@ -9322,304 +9517,304 @@
     </row>
     <row ht="12.75" customHeight="1" r="167">
       <c r="A167" s="2">
-        <v>2212</v>
+        <v>9992</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>245</v>
+        <v>383</v>
       </c>
       <c r="E167" s="3">
-        <v>45926.5254958565</v>
+        <v>45925.7222727546</v>
       </c>
       <c r="F167" s="2">
-        <v>79748</v>
+        <v>79708</v>
       </c>
       <c r="G167" s="3">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="H167" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1</v>
+      </c>
+      <c r="L167" s="4">
+        <v>17110.56</v>
+      </c>
+      <c r="M167" s="4">
+        <v>17110.56</v>
+      </c>
+      <c r="N167" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="O167" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K167" s="4">
-        <v>7</v>
-      </c>
-      <c r="L167" s="4">
-        <v>114</v>
-      </c>
-      <c r="M167" s="4">
-        <v>798</v>
-      </c>
-      <c r="N167" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O167" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
       <c r="A168" s="2">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D168" s="2">
+        <v>62</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45925.7552456366</v>
+      </c>
+      <c r="F168" s="2">
+        <v>79779</v>
+      </c>
+      <c r="G168" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I168" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="2">
-        <v>68</v>
-      </c>
-      <c r="E168" s="3">
-        <v>45926.6614493519</v>
-      </c>
-      <c r="F168" s="2">
-        <v>79753</v>
-      </c>
-      <c r="G168" s="3">
-        <v>45926</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J168" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K168" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L168" s="4">
-        <v>4.5</v>
+        <v>220</v>
       </c>
       <c r="M168" s="4">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="169">
       <c r="A169" s="2">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D169" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E169" s="3">
-        <v>45926.6614493519</v>
+        <v>45925.7552456366</v>
       </c>
       <c r="F169" s="2">
-        <v>79758</v>
+        <v>79777</v>
       </c>
       <c r="G169" s="3">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>379</v>
+        <v>153</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K169" s="4">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="L169" s="4">
-        <v>65</v>
+        <v>5.8</v>
       </c>
       <c r="M169" s="4">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>381</v>
+        <v>151</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="170">
       <c r="A170" s="2">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D170" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E170" s="3">
-        <v>45926.6614493519</v>
+        <v>45925.7552456366</v>
       </c>
       <c r="F170" s="2">
-        <v>79753</v>
+        <v>79777</v>
       </c>
       <c r="G170" s="3">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>331</v>
+        <v>154</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K170" s="4">
-        <v>6</v>
+        <v>700</v>
       </c>
       <c r="L170" s="4">
-        <v>13.49</v>
+        <v>5.8</v>
       </c>
       <c r="M170" s="4">
-        <v>80.94</v>
+        <v>4060</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
       <c r="A171" s="2">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D171" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E171" s="3">
-        <v>45926.6614493519</v>
+        <v>45925.7552456366</v>
       </c>
       <c r="F171" s="2">
-        <v>79753</v>
+        <v>79777</v>
       </c>
       <c r="G171" s="3">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K171" s="4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="L171" s="4">
-        <v>47</v>
+        <v>34.75</v>
       </c>
       <c r="M171" s="4">
-        <v>141</v>
+        <v>3475</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="172">
       <c r="A172" s="2">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D172" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E172" s="3">
-        <v>45926.6614493519</v>
+        <v>45925.7552456366</v>
       </c>
       <c r="F172" s="2">
-        <v>79754</v>
+        <v>79788</v>
       </c>
       <c r="G172" s="3">
-        <v>45926</v>
+        <v>45931</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>128</v>
+        <v>380</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K172" s="4">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L172" s="4">
-        <v>3.9</v>
+        <v>26.794</v>
       </c>
       <c r="M172" s="4">
-        <v>117</v>
+        <v>455.498</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>95</v>
+        <v>382</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>96</v>
+        <v>383</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="173">
       <c r="A173" s="2">
-        <v>2409</v>
+        <v>2212</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>377</v>
+        <v>33</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="2">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="E173" s="3">
-        <v>45926.6614493519</v>
+        <v>45926.5254958565</v>
       </c>
       <c r="F173" s="2">
-        <v>79754</v>
+        <v>79748</v>
       </c>
       <c r="G173" s="3">
         <v>45926</v>
@@ -9631,22 +9826,22 @@
         <v>385</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="K173" s="4">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L173" s="4">
-        <v>2.9</v>
+        <v>114</v>
       </c>
       <c r="M173" s="4">
-        <v>87</v>
+        <v>798</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>95</v>
+        <v>386</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>96</v>
+        <v>387</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
@@ -9654,7 +9849,7 @@
         <v>2409</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>16</v>
@@ -9666,34 +9861,34 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F174" s="2">
-        <v>79754</v>
+        <v>79753</v>
       </c>
       <c r="G174" s="3">
         <v>45926</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>387</v>
+        <v>120</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K174" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L174" s="4">
-        <v>13.9</v>
+        <v>4.5</v>
       </c>
       <c r="M174" s="4">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
@@ -9701,7 +9896,7 @@
         <v>2409</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>16</v>
@@ -9713,34 +9908,34 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F175" s="2">
-        <v>79752</v>
+        <v>79758</v>
       </c>
       <c r="G175" s="3">
         <v>45926</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K175" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L175" s="4">
-        <v>34.5</v>
+        <v>65</v>
       </c>
       <c r="M175" s="4">
-        <v>690</v>
+        <v>130</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>78</v>
+        <v>392</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
@@ -9748,7 +9943,7 @@
         <v>2409</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>16</v>
@@ -9760,16 +9955,16 @@
         <v>45926.6614493519</v>
       </c>
       <c r="F176" s="2">
-        <v>79755</v>
+        <v>79753</v>
       </c>
       <c r="G176" s="3">
         <v>45926</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>32</v>
+        <v>332</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>19</v>
@@ -9778,533 +9973,533 @@
         <v>6</v>
       </c>
       <c r="L176" s="4">
-        <v>84.8</v>
+        <v>13.49</v>
       </c>
       <c r="M176" s="4">
-        <v>508.8</v>
+        <v>80.94</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="177">
       <c r="A177" s="2">
-        <v>2504</v>
+        <v>2409</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E177" s="3">
-        <v>45926.6629431944</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F177" s="2">
-        <v>79750</v>
+        <v>79753</v>
       </c>
       <c r="G177" s="3">
         <v>45926</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K177" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L177" s="4">
-        <v>4.5</v>
+        <v>47</v>
       </c>
       <c r="M177" s="4">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="178">
       <c r="A178" s="2">
-        <v>2504</v>
+        <v>2409</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D178" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E178" s="3">
-        <v>45926.6629431944</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F178" s="2">
-        <v>79750</v>
+        <v>79754</v>
       </c>
       <c r="G178" s="3">
         <v>45926</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="K178" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L178" s="4">
-        <v>34.5</v>
+        <v>3.9</v>
       </c>
       <c r="M178" s="4">
-        <v>2070</v>
+        <v>117</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="179">
       <c r="A179" s="2">
-        <v>2504</v>
+        <v>2409</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E179" s="3">
-        <v>45926.6629431944</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F179" s="2">
-        <v>79750</v>
+        <v>79754</v>
       </c>
       <c r="G179" s="3">
         <v>45926</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>154</v>
+        <v>395</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>155</v>
+        <v>396</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K179" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L179" s="4">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M179" s="4">
-        <v>350</v>
+        <v>87</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="180">
       <c r="A180" s="2">
-        <v>2504</v>
+        <v>2409</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D180" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E180" s="3">
-        <v>45926.6629431944</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F180" s="2">
-        <v>79750</v>
+        <v>79754</v>
       </c>
       <c r="G180" s="3">
         <v>45926</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>192</v>
+        <v>397</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="K180" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L180" s="4">
-        <v>35.5</v>
+        <v>13.9</v>
       </c>
       <c r="M180" s="4">
-        <v>710</v>
+        <v>139</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="181">
       <c r="A181" s="2">
-        <v>2504</v>
+        <v>2409</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E181" s="3">
-        <v>45926.6629431944</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F181" s="2">
-        <v>79751</v>
+        <v>79752</v>
       </c>
       <c r="G181" s="3">
         <v>45926</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="K181" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L181" s="4">
-        <v>39.9</v>
+        <v>34.5</v>
       </c>
       <c r="M181" s="4">
-        <v>279.3</v>
+        <v>690</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="182">
       <c r="A182" s="2">
-        <v>2505</v>
+        <v>2409</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D182" s="2">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E182" s="3">
-        <v>45930.4140861921</v>
+        <v>45926.6614493519</v>
       </c>
       <c r="F182" s="2">
-        <v>79776</v>
+        <v>79755</v>
       </c>
       <c r="G182" s="3">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>390</v>
+        <v>31</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>391</v>
+        <v>32</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K182" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L182" s="4">
-        <v>9.6</v>
+        <v>84.8</v>
       </c>
       <c r="M182" s="4">
-        <v>48</v>
+        <v>508.8</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="183">
       <c r="A183" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2">
+        <v>24</v>
+      </c>
+      <c r="E183" s="3">
+        <v>45926.6629431944</v>
+      </c>
+      <c r="F183" s="2">
+        <v>79750</v>
+      </c>
+      <c r="G183" s="3">
+        <v>45926</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J183" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D183" s="2">
-        <v>27</v>
-      </c>
-      <c r="E183" s="3">
-        <v>45930.4140861921</v>
-      </c>
-      <c r="F183" s="2">
-        <v>79776</v>
-      </c>
-      <c r="G183" s="3">
-        <v>45930</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K183" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L183" s="4">
-        <v>58.9</v>
+        <v>4.5</v>
       </c>
       <c r="M183" s="4">
-        <v>589</v>
+        <v>135</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="184">
       <c r="A184" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="2">
+        <v>24</v>
+      </c>
+      <c r="E184" s="3">
+        <v>45926.6629431944</v>
+      </c>
+      <c r="F184" s="2">
+        <v>79750</v>
+      </c>
+      <c r="G184" s="3">
+        <v>45926</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J184" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D184" s="2">
-        <v>27</v>
-      </c>
-      <c r="E184" s="3">
-        <v>45930.4140861921</v>
-      </c>
-      <c r="F184" s="2">
-        <v>79776</v>
-      </c>
-      <c r="G184" s="3">
-        <v>45930</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K184" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L184" s="4">
-        <v>27.5</v>
+        <v>34.5</v>
       </c>
       <c r="M184" s="4">
-        <v>27.5</v>
+        <v>2070</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="185">
       <c r="A185" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2">
+        <v>24</v>
+      </c>
+      <c r="E185" s="3">
+        <v>45926.6629431944</v>
+      </c>
+      <c r="F185" s="2">
+        <v>79750</v>
+      </c>
+      <c r="G185" s="3">
+        <v>45926</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J185" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D185" s="2">
-        <v>27</v>
-      </c>
-      <c r="E185" s="3">
-        <v>45930.4140861921</v>
-      </c>
-      <c r="F185" s="2">
-        <v>79776</v>
-      </c>
-      <c r="G185" s="3">
-        <v>45930</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K185" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L185" s="4">
-        <v>77.9</v>
+        <v>3.5</v>
       </c>
       <c r="M185" s="4">
-        <v>155.8</v>
+        <v>350</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="186">
       <c r="A186" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="2">
+        <v>24</v>
+      </c>
+      <c r="E186" s="3">
+        <v>45926.6629431944</v>
+      </c>
+      <c r="F186" s="2">
+        <v>79750</v>
+      </c>
+      <c r="G186" s="3">
+        <v>45926</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J186" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D186" s="2">
-        <v>27</v>
-      </c>
-      <c r="E186" s="3">
-        <v>45930.4140861921</v>
-      </c>
-      <c r="F186" s="2">
-        <v>79776</v>
-      </c>
-      <c r="G186" s="3">
-        <v>45930</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K186" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L186" s="4">
-        <v>849.9</v>
+        <v>35.5</v>
       </c>
       <c r="M186" s="4">
-        <v>849.9</v>
+        <v>710</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="187">
       <c r="A187" s="2">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="D187" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E187" s="3">
-        <v>45930.4140861921</v>
+        <v>45926.6629431944</v>
       </c>
       <c r="F187" s="2">
-        <v>79776</v>
+        <v>79751</v>
       </c>
       <c r="G187" s="3">
-        <v>45930</v>
+        <v>45926</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="K187" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L187" s="4">
-        <v>0.85</v>
+        <v>39.9</v>
       </c>
       <c r="M187" s="4">
-        <v>1.7</v>
+        <v>279.3</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="188">
@@ -10323,28 +10518,2306 @@
       <c r="E188" s="3">
         <v>45930.4140861921</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G188" s="3">
+        <v>45930</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K188" s="4">
+        <v>5</v>
+      </c>
+      <c r="L188" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="M188" s="4">
+        <v>48</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="189">
+      <c r="A189" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D189" s="2">
+        <v>27</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F189" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G189" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="4">
+        <v>10</v>
+      </c>
+      <c r="L189" s="4">
+        <v>58.9</v>
+      </c>
+      <c r="M189" s="4">
+        <v>589</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="190">
+      <c r="A190" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D190" s="2">
+        <v>27</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F190" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G190" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="4">
         <v>1</v>
       </c>
-      <c r="L188" s="4">
+      <c r="L190" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="M190" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="191">
+      <c r="A191" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D191" s="2">
+        <v>27</v>
+      </c>
+      <c r="E191" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F191" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G191" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="4">
+        <v>2</v>
+      </c>
+      <c r="L191" s="4">
+        <v>77.9</v>
+      </c>
+      <c r="M191" s="4">
+        <v>155.8</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="192">
+      <c r="A192" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D192" s="2">
+        <v>27</v>
+      </c>
+      <c r="E192" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F192" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G192" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1</v>
+      </c>
+      <c r="L192" s="4">
+        <v>849.9</v>
+      </c>
+      <c r="M192" s="4">
+        <v>849.9</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="193">
+      <c r="A193" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D193" s="2">
+        <v>27</v>
+      </c>
+      <c r="E193" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F193" s="2">
+        <v>79776</v>
+      </c>
+      <c r="G193" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K193" s="4">
+        <v>2</v>
+      </c>
+      <c r="L193" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M193" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="194">
+      <c r="A194" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D194" s="2">
+        <v>27</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45930.4140861921</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="4">
+        <v>1</v>
+      </c>
+      <c r="L194" s="4">
         <v>0</v>
       </c>
-      <c r="M188" s="4">
+      <c r="M194" s="4">
         <v>0</v>
       </c>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="195">
+      <c r="A195" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="2">
+        <v>8</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45930.7150589583</v>
+      </c>
+      <c r="F195" s="2">
+        <v>79780</v>
+      </c>
+      <c r="G195" s="3">
+        <v>45930</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K195" s="4">
+        <v>1</v>
+      </c>
+      <c r="L195" s="4">
+        <v>350</v>
+      </c>
+      <c r="M195" s="4">
+        <v>350</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="196">
+      <c r="A196" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="2">
+        <v>18</v>
+      </c>
+      <c r="E196" s="3">
+        <v>45931.4129141782</v>
+      </c>
+      <c r="F196" s="2">
+        <v>79781</v>
+      </c>
+      <c r="G196" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K196" s="4">
+        <v>4</v>
+      </c>
+      <c r="L196" s="4">
+        <v>35.2</v>
+      </c>
+      <c r="M196" s="4">
+        <v>140.8</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="197">
+      <c r="A197" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="2">
+        <v>18</v>
+      </c>
+      <c r="E197" s="3">
+        <v>45931.4129141782</v>
+      </c>
+      <c r="F197" s="2">
+        <v>79781</v>
+      </c>
+      <c r="G197" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K197" s="4">
+        <v>2</v>
+      </c>
+      <c r="L197" s="4">
+        <v>45</v>
+      </c>
+      <c r="M197" s="4">
+        <v>90</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="198">
+      <c r="A198" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="2">
+        <v>246</v>
+      </c>
+      <c r="E198" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F198" s="2">
+        <v>79792</v>
+      </c>
+      <c r="G198" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" s="4">
+        <v>200</v>
+      </c>
+      <c r="L198" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="M198" s="4">
+        <v>376</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="199">
+      <c r="A199" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="2">
+        <v>246</v>
+      </c>
+      <c r="E199" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F199" s="2">
+        <v>79792</v>
+      </c>
+      <c r="G199" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" s="4">
+        <v>6</v>
+      </c>
+      <c r="L199" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="M199" s="4">
+        <v>54.36</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="200">
+      <c r="A200" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="2">
+        <v>246</v>
+      </c>
+      <c r="E200" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F200" s="2">
+        <v>79792</v>
+      </c>
+      <c r="G200" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="4">
+        <v>2</v>
+      </c>
+      <c r="L200" s="4">
+        <v>144</v>
+      </c>
+      <c r="M200" s="4">
+        <v>288</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="201">
+      <c r="A201" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="2">
+        <v>246</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F201" s="2">
+        <v>79790</v>
+      </c>
+      <c r="G201" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="4">
+        <v>40</v>
+      </c>
+      <c r="L201" s="4">
+        <v>16</v>
+      </c>
+      <c r="M201" s="4">
+        <v>640</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="202">
+      <c r="A202" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="2">
+        <v>246</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F202" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G202" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K202" s="4">
+        <v>50</v>
+      </c>
+      <c r="L202" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M202" s="4">
+        <v>195</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="203">
+      <c r="A203" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="2">
+        <v>246</v>
+      </c>
+      <c r="E203" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F203" s="2">
+        <v>79793</v>
+      </c>
+      <c r="G203" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K203" s="4">
+        <v>3</v>
+      </c>
+      <c r="L203" s="4">
+        <v>75</v>
+      </c>
+      <c r="M203" s="4">
+        <v>225</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="204">
+      <c r="A204" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="2">
+        <v>246</v>
+      </c>
+      <c r="E204" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F204" s="2">
+        <v>79793</v>
+      </c>
+      <c r="G204" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K204" s="4">
+        <v>3</v>
+      </c>
+      <c r="L204" s="4">
+        <v>75</v>
+      </c>
+      <c r="M204" s="4">
+        <v>225</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="205">
+      <c r="A205" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="2">
+        <v>246</v>
+      </c>
+      <c r="E205" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F205" s="2">
+        <v>79793</v>
+      </c>
+      <c r="G205" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K205" s="4">
+        <v>3</v>
+      </c>
+      <c r="L205" s="4">
+        <v>75</v>
+      </c>
+      <c r="M205" s="4">
+        <v>225</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="206">
+      <c r="A206" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="2">
+        <v>246</v>
+      </c>
+      <c r="E206" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F206" s="2">
+        <v>79793</v>
+      </c>
+      <c r="G206" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K206" s="4">
+        <v>3</v>
+      </c>
+      <c r="L206" s="4">
+        <v>75</v>
+      </c>
+      <c r="M206" s="4">
+        <v>225</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="207">
+      <c r="A207" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="2">
+        <v>246</v>
+      </c>
+      <c r="E207" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F207" s="2">
+        <v>79793</v>
+      </c>
+      <c r="G207" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K207" s="4">
+        <v>3</v>
+      </c>
+      <c r="L207" s="4">
+        <v>75</v>
+      </c>
+      <c r="M207" s="4">
+        <v>225</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="208">
+      <c r="A208" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="2">
+        <v>246</v>
+      </c>
+      <c r="E208" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F208" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G208" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" s="4">
+        <v>30</v>
+      </c>
+      <c r="L208" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="M208" s="4">
+        <v>1197</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="209">
+      <c r="A209" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="2">
+        <v>246</v>
+      </c>
+      <c r="E209" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F209" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G209" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="4">
+        <v>50</v>
+      </c>
+      <c r="L209" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M209" s="4">
+        <v>75</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="210">
+      <c r="A210" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="2">
+        <v>246</v>
+      </c>
+      <c r="E210" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F210" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G210" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="4">
+        <v>50</v>
+      </c>
+      <c r="L210" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="M210" s="4">
+        <v>695</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="211">
+      <c r="A211" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="2">
+        <v>246</v>
+      </c>
+      <c r="E211" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F211" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G211" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="4">
+        <v>10</v>
+      </c>
+      <c r="L211" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="M211" s="4">
+        <v>199</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="212">
+      <c r="A212" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="2">
+        <v>246</v>
+      </c>
+      <c r="E212" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F212" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G212" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="4">
+        <v>10</v>
+      </c>
+      <c r="L212" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="M212" s="4">
+        <v>299</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="213">
+      <c r="A213" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="2">
+        <v>246</v>
+      </c>
+      <c r="E213" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F213" s="2">
+        <v>79792</v>
+      </c>
+      <c r="G213" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" s="4">
+        <v>5</v>
+      </c>
+      <c r="L213" s="4">
+        <v>44.13</v>
+      </c>
+      <c r="M213" s="4">
+        <v>220.65</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="214">
+      <c r="A214" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="2">
+        <v>246</v>
+      </c>
+      <c r="E214" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F214" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G214" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="4">
+        <v>10</v>
+      </c>
+      <c r="L214" s="4">
+        <v>149</v>
+      </c>
+      <c r="M214" s="4">
+        <v>1490</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="215">
+      <c r="A215" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="2">
+        <v>246</v>
+      </c>
+      <c r="E215" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F215" s="2">
+        <v>79791</v>
+      </c>
+      <c r="G215" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="4">
+        <v>10</v>
+      </c>
+      <c r="L215" s="4">
+        <v>149</v>
+      </c>
+      <c r="M215" s="4">
+        <v>1490</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="216">
+      <c r="A216" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="2">
+        <v>246</v>
+      </c>
+      <c r="E216" s="3">
+        <v>45931.6450435995</v>
+      </c>
+      <c r="F216" s="2">
+        <v>79795</v>
+      </c>
+      <c r="G216" s="3">
+        <v>45931</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K216" s="4">
+        <v>5</v>
+      </c>
+      <c r="L216" s="4">
+        <v>22.76</v>
+      </c>
+      <c r="M216" s="4">
+        <v>113.8</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="217">
+      <c r="A217" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="2">
+        <v>52</v>
+      </c>
+      <c r="E217" s="3">
+        <v>45931.6811043287</v>
+      </c>
+      <c r="F217" s="2">
+        <v>79807</v>
+      </c>
+      <c r="G217" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K217" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="L217" s="4">
+        <v>159.08</v>
+      </c>
+      <c r="M217" s="4">
+        <v>1794.4224</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="218">
+      <c r="A218" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="2">
+        <v>52</v>
+      </c>
+      <c r="E218" s="3">
+        <v>45931.6811043287</v>
+      </c>
+      <c r="F218" s="2">
+        <v>79807</v>
+      </c>
+      <c r="G218" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K218" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="L218" s="4">
+        <v>159.08</v>
+      </c>
+      <c r="M218" s="4">
+        <v>31850.9976</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="219">
+      <c r="A219" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" s="2">
+        <v>18</v>
+      </c>
+      <c r="E219" s="3">
+        <v>45931.6987851852</v>
+      </c>
+      <c r="F219" s="2">
+        <v>79810</v>
+      </c>
+      <c r="G219" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K219" s="4">
+        <v>3</v>
+      </c>
+      <c r="L219" s="4">
+        <v>1</v>
+      </c>
+      <c r="M219" s="4">
+        <v>3</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="220">
+      <c r="A220" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="2">
+        <v>385</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45932.4065562847</v>
+      </c>
+      <c r="F220" s="2">
+        <v>79808</v>
+      </c>
+      <c r="G220" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K220" s="4">
+        <v>1</v>
+      </c>
+      <c r="L220" s="4">
+        <v>2806.99</v>
+      </c>
+      <c r="M220" s="4">
+        <v>2806.99</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="221">
+      <c r="A221" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D221" s="2">
+        <v>63</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F221" s="2">
+        <v>79816</v>
+      </c>
+      <c r="G221" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="4">
+        <v>30</v>
+      </c>
+      <c r="L221" s="4">
+        <v>23.43</v>
+      </c>
+      <c r="M221" s="4">
+        <v>702.9</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="222">
+      <c r="A222" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D222" s="2">
+        <v>63</v>
+      </c>
+      <c r="E222" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F222" s="2">
+        <v>79816</v>
+      </c>
+      <c r="G222" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K222" s="4">
+        <v>1</v>
+      </c>
+      <c r="L222" s="4">
+        <v>83.99</v>
+      </c>
+      <c r="M222" s="4">
+        <v>83.99</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="223">
+      <c r="A223" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D223" s="2">
+        <v>63</v>
+      </c>
+      <c r="E223" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F223" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G223" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K223" s="4">
+        <v>10</v>
+      </c>
+      <c r="L223" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="M223" s="4">
+        <v>24</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="224">
+      <c r="A224" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D224" s="2">
+        <v>63</v>
+      </c>
+      <c r="E224" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F224" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G224" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="4">
+        <v>150</v>
+      </c>
+      <c r="L224" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M224" s="4">
+        <v>720</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="225">
+      <c r="A225" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D225" s="2">
+        <v>63</v>
+      </c>
+      <c r="E225" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F225" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G225" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" s="4">
+        <v>200</v>
+      </c>
+      <c r="L225" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M225" s="4">
+        <v>150</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="226">
+      <c r="A226" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D226" s="2">
+        <v>63</v>
+      </c>
+      <c r="E226" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F226" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G226" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="4">
+        <v>1</v>
+      </c>
+      <c r="L226" s="4">
+        <v>249</v>
+      </c>
+      <c r="M226" s="4">
+        <v>249</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="227">
+      <c r="A227" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D227" s="2">
+        <v>63</v>
+      </c>
+      <c r="E227" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K227" s="4">
+        <v>1</v>
+      </c>
+      <c r="L227" s="4">
+        <v>0</v>
+      </c>
+      <c r="M227" s="4">
+        <v>0</v>
+      </c>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="228">
+      <c r="A228" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D228" s="2">
+        <v>63</v>
+      </c>
+      <c r="E228" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K228" s="4">
+        <v>4</v>
+      </c>
+      <c r="L228" s="4">
+        <v>0</v>
+      </c>
+      <c r="M228" s="4">
+        <v>0</v>
+      </c>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="229">
+      <c r="A229" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" s="2">
+        <v>63</v>
+      </c>
+      <c r="E229" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1</v>
+      </c>
+      <c r="L229" s="4">
+        <v>0</v>
+      </c>
+      <c r="M229" s="4">
+        <v>0</v>
+      </c>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="230">
+      <c r="A230" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D230" s="2">
+        <v>63</v>
+      </c>
+      <c r="E230" s="3">
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="4">
+        <v>5</v>
+      </c>
+      <c r="L230" s="4">
+        <v>0</v>
+      </c>
+      <c r="M230" s="4">
+        <v>0</v>
+      </c>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="231">
+      <c r="A231" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="2">
+        <v>70</v>
+      </c>
+      <c r="E231" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F231" s="2">
+        <v>79814</v>
+      </c>
+      <c r="G231" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K231" s="4">
+        <v>3</v>
+      </c>
+      <c r="L231" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="M231" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="232">
+      <c r="A232" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="2">
+        <v>70</v>
+      </c>
+      <c r="E232" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F232" s="2">
+        <v>79814</v>
+      </c>
+      <c r="G232" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" s="4">
+        <v>10</v>
+      </c>
+      <c r="L232" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="M232" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="233">
+      <c r="A233" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="2">
+        <v>70</v>
+      </c>
+      <c r="E233" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F233" s="2">
+        <v>79814</v>
+      </c>
+      <c r="G233" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="4">
+        <v>12</v>
+      </c>
+      <c r="L233" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="M233" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="234">
+      <c r="A234" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="2">
+        <v>70</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="4">
+        <v>200</v>
+      </c>
+      <c r="L234" s="4">
+        <v>0</v>
+      </c>
+      <c r="M234" s="4">
+        <v>0</v>
+      </c>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="235">
+      <c r="A235" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="2">
+        <v>70</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="4">
+        <v>10</v>
+      </c>
+      <c r="L235" s="4">
+        <v>0</v>
+      </c>
+      <c r="M235" s="4">
+        <v>0</v>
+      </c>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="236">
+      <c r="A236" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="2">
+        <v>70</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="4">
+        <v>4</v>
+      </c>
+      <c r="L236" s="4">
+        <v>0</v>
+      </c>
+      <c r="M236" s="4">
+        <v>0</v>
+      </c>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="237">
+      <c r="A237" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="2">
+        <v>70</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="4">
+        <v>9</v>
+      </c>
+      <c r="L237" s="4">
+        <v>0</v>
+      </c>
+      <c r="M237" s="4">
+        <v>0</v>
+      </c>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="238">
+      <c r="A238" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="2">
+        <v>70</v>
+      </c>
+      <c r="E238" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K238" s="4">
+        <v>4</v>
+      </c>
+      <c r="L238" s="4">
+        <v>0</v>
+      </c>
+      <c r="M238" s="4">
+        <v>0</v>
+      </c>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>EMPRD</t>
   </si>
@@ -305,300 +305,246 @@
     <t>TANITEL</t>
   </si>
   <si>
-    <t>1807 PARTICIPAÇÕES LTDA</t>
+    <t>DÉBITO ADMINISTRAÇÃO (OBRAS)</t>
+  </si>
+  <si>
+    <t>15.02.1002</t>
+  </si>
+  <si>
+    <t>PASTILHA</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>00000000007848</t>
+  </si>
+  <si>
+    <t>PASTILHAS ATLAS</t>
+  </si>
+  <si>
+    <t>E.01.0011</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO DE EQUIPAMENTOS (VERBA)</t>
+  </si>
+  <si>
+    <t>00000000001312</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>GABRIEL ACURCIO V. S. DE CARVALHO</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>C.04.0142</t>
-  </si>
-  <si>
-    <t>PAPEL TOALHA - FOLHA DUPLA ( ESCRITORIO OBRA )</t>
+    <t>E.04.0654</t>
+  </si>
+  <si>
+    <t>SERRA MÁRMORE</t>
+  </si>
+  <si>
+    <t>00000000008882</t>
+  </si>
+  <si>
+    <t>GALPÃO DAS FERRAMENT</t>
+  </si>
+  <si>
+    <t>P2.02.0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATERIAL PARA  ESQUADRIAS DE ALUMÍNIO ED -</t>
+  </si>
+  <si>
+    <t>00000000010208</t>
+  </si>
+  <si>
+    <t>ALUMINORTE</t>
+  </si>
+  <si>
+    <t>JOÃO CARLOS BEHISNELIAN</t>
+  </si>
+  <si>
+    <t>E.02.0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONA PLÁSTICA  TRANSPARENTE  - 4 X 100 M</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>00000000009733</t>
+  </si>
+  <si>
+    <t>CASA PEDROSO2648864-</t>
+  </si>
+  <si>
+    <t>E.02.0050</t>
+  </si>
+  <si>
+    <t>PAPELÃO CORRUGADO</t>
+  </si>
+  <si>
+    <t>E.02.0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA CREPE LARANJA 45 MM X  50M</t>
+  </si>
+  <si>
+    <t>00000000009338</t>
+  </si>
+  <si>
+    <t>JNA COMERCIAL</t>
+  </si>
+  <si>
+    <t>E.04.1170</t>
+  </si>
+  <si>
+    <t>LÁPIS PARA CARPINTEIRO IRWIN</t>
+  </si>
+  <si>
+    <t>00000000007747</t>
+  </si>
+  <si>
+    <t>ATLANTA</t>
+  </si>
+  <si>
+    <t>I.02.0111</t>
+  </si>
+  <si>
+    <t>BLOCO DE CONCRETO VEDAÇÃO 14 X 19 X 39</t>
+  </si>
+  <si>
+    <t>K.07.0703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLETOR DE LED  IP 65</t>
+  </si>
+  <si>
+    <t>00000000009700</t>
+  </si>
+  <si>
+    <t>RDW</t>
+  </si>
+  <si>
+    <t>K.07.0114</t>
+  </si>
+  <si>
+    <t>LÂMPADA DE LED</t>
+  </si>
+  <si>
+    <t>L.01.0035</t>
+  </si>
+  <si>
+    <t>TIJOLO DE BARRO</t>
+  </si>
+  <si>
+    <t>S.08.0601</t>
+  </si>
+  <si>
+    <t>BIANCO - ADESIVO DE ALTO DESEMPENHO PARA ARGAMASSAS E CHAPISCO - BALDE 18KG</t>
+  </si>
+  <si>
+    <t>KAENA PARTICIPAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>C.04.0010</t>
+  </si>
+  <si>
+    <t>PANO DE CHÃO GRANDE</t>
+  </si>
+  <si>
+    <t>00000000007786</t>
+  </si>
+  <si>
+    <t>VILE EMBALAGENS</t>
+  </si>
+  <si>
+    <t>C.04.0140</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIÊNICO ( OBRA ) FARDO C/ 64 RL</t>
+  </si>
+  <si>
+    <t>C.04.0151</t>
+  </si>
+  <si>
+    <t>VEJA MULTIUSO - 500 ML</t>
+  </si>
+  <si>
+    <t>C.04.0024</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 200 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>C.04.0026</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 20 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>E.01.0069</t>
+  </si>
+  <si>
+    <t>REFIL PARA ASPIRADOR DE PÓ ( SACO )C/3UNID</t>
+  </si>
+  <si>
+    <t>SUN MORITZ ADMINISTRADORA</t>
+  </si>
+  <si>
+    <t>C.04.0046</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PÊLO ANIMAL 30 CM</t>
+  </si>
+  <si>
+    <t>E.03.0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
+  </si>
+  <si>
+    <t>E.04.0405</t>
+  </si>
+  <si>
+    <t>ESTILETE AUTOMÁTICO EMBORRACHADO 8 LÂMINAS - 18MM</t>
+  </si>
+  <si>
+    <t>MARIA BELTRÃO SALDANHA COELHO</t>
+  </si>
+  <si>
+    <t>C.04.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO DE RAFIA  50 L</t>
+  </si>
+  <si>
+    <t>C.05.0150</t>
+  </si>
+  <si>
+    <t>FITA ADESIVA '' DUREX ''</t>
+  </si>
+  <si>
+    <t>E.04.0410</t>
+  </si>
+  <si>
+    <t>LÂMINAS PARA REPOSIÇÃO DE ESTILETE - 18 MM - CX C/ 10</t>
   </si>
   <si>
     <t>CX</t>
   </si>
   <si>
-    <t>C.04.0026</t>
-  </si>
-  <si>
-    <t>SACO PLÁSTICO P/ LIXO - 20 L C/ 100 UN REFORÇADO</t>
-  </si>
-  <si>
-    <t>C.05.0292</t>
-  </si>
-  <si>
-    <t>CAFETEIRA ELÉTRICA 127V</t>
-  </si>
-  <si>
-    <t>E.02.0050</t>
-  </si>
-  <si>
-    <t>PAPELÃO CORRUGADO</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>E.02.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
-  </si>
-  <si>
-    <t>E.04.0780</t>
-  </si>
-  <si>
-    <t>LINHA DE NAYLON PARA PEDREIRO 100M</t>
-  </si>
-  <si>
-    <t>E.04.0582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA PLASTICA PARA ARGAMASSA DE PVC -  450L</t>
-  </si>
-  <si>
-    <t>E.04.0164</t>
-  </si>
-  <si>
-    <t>ESQUADRO PROFISSIONAL - 14''</t>
-  </si>
-  <si>
-    <t>U.02.7201</t>
-  </si>
-  <si>
-    <t>DISPENSADOR DE PAPEL TOALHA</t>
-  </si>
-  <si>
-    <t>W.01.0045</t>
-  </si>
-  <si>
-    <t>PREGO DE AÇO COM CABEÇA 17 X 27</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>DÉBITO ADMINISTRAÇÃO (OBRAS)</t>
-  </si>
-  <si>
-    <t>15.02.1002</t>
-  </si>
-  <si>
-    <t>PASTILHA</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>00000000007848</t>
-  </si>
-  <si>
-    <t>PASTILHAS ATLAS</t>
-  </si>
-  <si>
-    <t>E.01.0011</t>
-  </si>
-  <si>
-    <t>MANUTENÇÃO DE EQUIPAMENTOS (VERBA)</t>
-  </si>
-  <si>
-    <t>00000000001312</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>GABRIEL ACURCIO V. S. DE CARVALHO</t>
-  </si>
-  <si>
-    <t>E.04.0654</t>
-  </si>
-  <si>
-    <t>SERRA MÁRMORE</t>
-  </si>
-  <si>
-    <t>00000000008882</t>
-  </si>
-  <si>
-    <t>GALPÃO DAS FERRAMENT</t>
-  </si>
-  <si>
-    <t>P2.02.0037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATERIAL PARA  ESQUADRIAS DE ALUMÍNIO ED -</t>
-  </si>
-  <si>
-    <t>00000000010208</t>
-  </si>
-  <si>
-    <t>ALUMINORTE</t>
-  </si>
-  <si>
-    <t>JOÃO CARLOS BEHISNELIAN</t>
-  </si>
-  <si>
-    <t>E.02.0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONA PLÁSTICA  TRANSPARENTE  - 4 X 100 M</t>
-  </si>
-  <si>
-    <t>00000000009733</t>
-  </si>
-  <si>
-    <t>CASA PEDROSO2648864-</t>
-  </si>
-  <si>
-    <t>E.02.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA CREPE LARANJA 45 MM X  50M</t>
-  </si>
-  <si>
-    <t>00000000009338</t>
-  </si>
-  <si>
-    <t>JNA COMERCIAL</t>
-  </si>
-  <si>
-    <t>E.04.1170</t>
-  </si>
-  <si>
-    <t>LÁPIS PARA CARPINTEIRO IRWIN</t>
-  </si>
-  <si>
-    <t>00000000007747</t>
-  </si>
-  <si>
-    <t>ATLANTA</t>
-  </si>
-  <si>
-    <t>I.02.0111</t>
-  </si>
-  <si>
-    <t>BLOCO DE CONCRETO VEDAÇÃO 14 X 19 X 39</t>
-  </si>
-  <si>
-    <t>K.07.0703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR DE LED  IP 65</t>
-  </si>
-  <si>
-    <t>00000000009700</t>
-  </si>
-  <si>
-    <t>RDW</t>
-  </si>
-  <si>
-    <t>K.07.0114</t>
-  </si>
-  <si>
-    <t>LÂMPADA DE LED</t>
-  </si>
-  <si>
-    <t>L.01.0035</t>
-  </si>
-  <si>
-    <t>TIJOLO DE BARRO</t>
-  </si>
-  <si>
-    <t>S.08.0601</t>
-  </si>
-  <si>
-    <t>BIANCO - ADESIVO DE ALTO DESEMPENHO PARA ARGAMASSAS E CHAPISCO - BALDE 18KG</t>
-  </si>
-  <si>
-    <t>KAENA PARTICIPAÇÕES LTDA</t>
-  </si>
-  <si>
-    <t>C.04.0010</t>
-  </si>
-  <si>
-    <t>PANO DE CHÃO GRANDE</t>
-  </si>
-  <si>
-    <t>00000000007786</t>
-  </si>
-  <si>
-    <t>VILE EMBALAGENS</t>
-  </si>
-  <si>
-    <t>C.04.0140</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIÊNICO ( OBRA ) FARDO C/ 64 RL</t>
-  </si>
-  <si>
-    <t>C.04.0151</t>
-  </si>
-  <si>
-    <t>VEJA MULTIUSO - 500 ML</t>
-  </si>
-  <si>
-    <t>C.04.0024</t>
-  </si>
-  <si>
-    <t>SACO PLÁSTICO P/ LIXO - 200 L C/ 100 UN REFORÇADO</t>
-  </si>
-  <si>
-    <t>E.01.0069</t>
-  </si>
-  <si>
-    <t>REFIL PARA ASPIRADOR DE PÓ ( SACO )C/3UNID</t>
-  </si>
-  <si>
-    <t>SUN MORITZ ADMINISTRADORA</t>
-  </si>
-  <si>
-    <t>C.04.0046</t>
-  </si>
-  <si>
-    <t>VASSOURA DE PÊLO ANIMAL 30 CM</t>
-  </si>
-  <si>
-    <t>E.03.0150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
-  </si>
-  <si>
-    <t>E.04.0405</t>
-  </si>
-  <si>
-    <t>ESTILETE AUTOMÁTICO EMBORRACHADO 8 LÂMINAS - 18MM</t>
-  </si>
-  <si>
-    <t>MARIA BELTRÃO SALDANHA COELHO</t>
-  </si>
-  <si>
-    <t>E.04.0410</t>
-  </si>
-  <si>
-    <t>LÂMINAS PARA REPOSIÇÃO DE ESTILETE - 18 MM - CX C/ 10</t>
-  </si>
-  <si>
     <t>E.04.0718</t>
   </si>
   <si>
     <t>DISCO DE CORTE PARA FERRO 4/12''</t>
   </si>
   <si>
-    <t>C.04.0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO DE RAFIA  50 L</t>
-  </si>
-  <si>
-    <t>C.05.0150</t>
-  </si>
-  <si>
-    <t>FITA ADESIVA '' DUREX ''</t>
-  </si>
-  <si>
     <t>E.04.0378</t>
   </si>
   <si>
@@ -611,6 +557,12 @@
     <t>CHAPA DE MADEIRITE RESINADA - 14MM - UNIDADE</t>
   </si>
   <si>
+    <t>00000000009484</t>
+  </si>
+  <si>
+    <t>KALUTA</t>
+  </si>
+  <si>
     <t>U.02.2009</t>
   </si>
   <si>
@@ -644,12 +596,6 @@
     <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF1</t>
   </si>
   <si>
-    <t>00000000008758</t>
-  </si>
-  <si>
-    <t>H DE ELEN</t>
-  </si>
-  <si>
     <t>E.03.0523</t>
   </si>
   <si>
@@ -665,6 +611,18 @@
     <t>PERFETCY ANDAIMES</t>
   </si>
   <si>
+    <t>E.03.0125</t>
+  </si>
+  <si>
+    <t>OCULOS DE SEGURANÇA DE SOBREPOR PARA USO COM OCULOS CORRETIVOS.</t>
+  </si>
+  <si>
+    <t>E.03.0037</t>
+  </si>
+  <si>
+    <t>LUVA DE LÁTEX - NEOPRENE</t>
+  </si>
+  <si>
     <t>E.O4.1243</t>
   </si>
   <si>
@@ -683,6 +641,21 @@
     <t>RODIZIO PARA ANDAIME TUBULAR</t>
   </si>
   <si>
+    <t>F.04.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELETE ROMPEDOR 5KG COM  FERRAMENTAS ( PONTEIRO OU TALHADEIRA )</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>00000000008708</t>
+  </si>
+  <si>
+    <t>GADE</t>
+  </si>
+  <si>
     <t>F.05.0011</t>
   </si>
   <si>
@@ -717,27 +690,6 @@
   </si>
   <si>
     <t>CIMENTO CP II - E-32 - 50 KG</t>
-  </si>
-  <si>
-    <t>E.03.0125</t>
-  </si>
-  <si>
-    <t>OCULOS DE SEGURANÇA DE SOBREPOR PARA USO COM OCULOS CORRETIVOS.</t>
-  </si>
-  <si>
-    <t>E.03.0037</t>
-  </si>
-  <si>
-    <t>LUVA DE LÁTEX - NEOPRENE</t>
-  </si>
-  <si>
-    <t>F.04.0200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELETE ROMPEDOR 5KG COM  FERRAMENTAS ( PONTEIRO OU TALHADEIRA )</t>
-  </si>
-  <si>
-    <t>DIA</t>
   </si>
   <si>
     <t>L.01.0050</t>
@@ -1060,7 +1012,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -2537,840 +2489,936 @@
     </row>
     <row ht="12.75" customHeight="1" r="32">
       <c r="A32" s="2">
-        <v>2511</v>
+        <v>9991</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <v>52</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45931.6811043287</v>
+      </c>
+      <c r="F32" s="2">
+        <v>79807</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="2">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="L32" s="4">
+        <v>159.08</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1794.4224</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K32" s="4">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="33">
       <c r="A33" s="2">
-        <v>2511</v>
+        <v>9991</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2">
+        <v>52</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45931.6811043287</v>
+      </c>
+      <c r="F33" s="2">
+        <v>79807</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45932</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="2">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="4">
+        <v>200.22</v>
+      </c>
+      <c r="L33" s="4">
+        <v>159.08</v>
+      </c>
+      <c r="M33" s="4">
+        <v>31850.9976</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="34">
       <c r="A34" s="2">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E34" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+        <v>45931.6987851852</v>
+      </c>
+      <c r="F34" s="2">
+        <v>79810</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45932</v>
+      </c>
       <c r="H34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>120</v>
+      </c>
+      <c r="M34" s="4">
+        <v>360</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="35">
       <c r="A35" s="2">
-        <v>2511</v>
+        <v>2412</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+        <v>45931.6992763542</v>
+      </c>
+      <c r="F35" s="2">
+        <v>79838</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45933</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K35" s="4">
         <v>1</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+        <v>3300</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="36">
       <c r="A36" s="2">
-        <v>2511</v>
+        <v>9992</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
-        <v>5</v>
+        <v>385</v>
       </c>
       <c r="E36" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+        <v>45932.4065562847</v>
+      </c>
+      <c r="F36" s="2">
+        <v>79808</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45932</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="K36" s="4">
         <v>1</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>2806.99</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+        <v>2806.99</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="37">
       <c r="A37" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E37" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F37" s="2">
+        <v>79818</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45932</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K37" s="4">
         <v>1</v>
       </c>
       <c r="L37" s="4">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="M37" s="4">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="38">
       <c r="A38" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E38" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F38" s="2">
+        <v>79818</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45932</v>
+      </c>
       <c r="H38" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K38" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M38" s="4">
-        <v>0</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="39">
       <c r="A39" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E39" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F39" s="2">
+        <v>79816</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45932</v>
+      </c>
       <c r="H39" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L39" s="4">
-        <v>0</v>
+        <v>23.43</v>
       </c>
       <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+        <v>702.9</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="40">
       <c r="A40" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F40" s="2">
+        <v>79816</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45932</v>
+      </c>
       <c r="H40" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K40" s="4">
         <v>1</v>
       </c>
       <c r="L40" s="4">
-        <v>0</v>
+        <v>83.99</v>
       </c>
       <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+        <v>83.99</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="41">
       <c r="A41" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F41" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45932</v>
+      </c>
       <c r="H41" s="1" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K41" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L41" s="4">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="42">
       <c r="A42" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F42" s="2">
+        <v>79815</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45932</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K42" s="4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L42" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+        <v>720</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="43">
       <c r="A43" s="2">
-        <v>2511</v>
+        <v>2411</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E43" s="3">
-        <v>45931.6482390509</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+        <v>45932.5328178935</v>
+      </c>
+      <c r="F43" s="2">
+        <v>79826</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45933</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="K43" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4">
-        <v>0</v>
+        <v>342.93</v>
       </c>
       <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+        <v>342.93</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="44">
       <c r="A44" s="2">
-        <v>9991</v>
+        <v>2411</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E44" s="3">
-        <v>45931.6811043287</v>
+        <v>45932.5328178935</v>
       </c>
       <c r="F44" s="2">
-        <v>79807</v>
+        <v>79826</v>
       </c>
       <c r="G44" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="K44" s="4">
-        <v>11.28</v>
+        <v>5</v>
       </c>
       <c r="L44" s="4">
-        <v>159.08</v>
+        <v>33.424</v>
       </c>
       <c r="M44" s="4">
-        <v>1794.4224</v>
+        <v>167.12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="45">
       <c r="A45" s="2">
-        <v>9991</v>
+        <v>2411</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E45" s="3">
-        <v>45931.6811043287</v>
+        <v>45932.5328178935</v>
       </c>
       <c r="F45" s="2">
-        <v>79807</v>
+        <v>79815</v>
       </c>
       <c r="G45" s="3">
         <v>45932</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="K45" s="4">
-        <v>200.22</v>
+        <v>200</v>
       </c>
       <c r="L45" s="4">
-        <v>159.08</v>
+        <v>0.75</v>
       </c>
       <c r="M45" s="4">
-        <v>31850.9976</v>
+        <v>150</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="46">
       <c r="A46" s="2">
-        <v>2507</v>
+        <v>2411</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D46" s="2">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E46" s="3">
-        <v>45931.6987851852</v>
+        <v>45932.5328178935</v>
       </c>
       <c r="F46" s="2">
-        <v>79810</v>
+        <v>79815</v>
       </c>
       <c r="G46" s="3">
         <v>45932</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K46" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="M46" s="4">
-        <v>360</v>
+        <v>249</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="47">
       <c r="A47" s="2">
-        <v>2412</v>
+        <v>2503</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="3">
-        <v>45931.6992763542</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F47" s="2">
-        <v>79838</v>
+        <v>79837</v>
       </c>
       <c r="G47" s="3">
         <v>45933</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K47" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L47" s="4">
-        <v>3300</v>
+        <v>4.5</v>
       </c>
       <c r="M47" s="4">
-        <v>3300</v>
+        <v>135</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="48">
       <c r="A48" s="2">
-        <v>9992</v>
+        <v>2503</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2">
-        <v>385</v>
+        <v>40</v>
       </c>
       <c r="E48" s="3">
-        <v>45932.4065562847</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F48" s="2">
-        <v>79808</v>
+        <v>79837</v>
       </c>
       <c r="G48" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K48" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="4">
-        <v>2806.99</v>
+        <v>65</v>
       </c>
       <c r="M48" s="4">
-        <v>2806.99</v>
+        <v>130</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="49">
       <c r="A49" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D49" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E49" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F49" s="2">
-        <v>79818</v>
+        <v>79837</v>
       </c>
       <c r="G49" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K49" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L49" s="4">
-        <v>305</v>
+        <v>6.99</v>
       </c>
       <c r="M49" s="4">
-        <v>305</v>
+        <v>69.9</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="50">
       <c r="A50" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F50" s="2">
-        <v>79818</v>
+        <v>79837</v>
       </c>
       <c r="G50" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K50" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L50" s="4">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="M50" s="4">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="51">
       <c r="A51" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D51" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E51" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F51" s="2">
-        <v>79816</v>
+        <v>79837</v>
       </c>
       <c r="G51" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K51" s="4">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L51" s="4">
-        <v>23.43</v>
+        <v>68</v>
       </c>
       <c r="M51" s="4">
-        <v>702.9</v>
+        <v>408</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>148</v>
@@ -3381,915 +3429,907 @@
     </row>
     <row ht="12.75" customHeight="1" r="52">
       <c r="A52" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D52" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E52" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F52" s="2">
-        <v>79816</v>
+        <v>79835</v>
       </c>
       <c r="G52" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="K52" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L52" s="4">
-        <v>83.99</v>
+        <v>45</v>
       </c>
       <c r="M52" s="4">
-        <v>83.99</v>
+        <v>225</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="53">
       <c r="A53" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D53" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E53" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F53" s="2">
-        <v>79815</v>
+        <v>79835</v>
       </c>
       <c r="G53" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K53" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L53" s="4">
-        <v>2.4</v>
+        <v>45</v>
       </c>
       <c r="M53" s="4">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="54">
       <c r="A54" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D54" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E54" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F54" s="2">
-        <v>79815</v>
+        <v>79820</v>
       </c>
       <c r="G54" s="3">
         <v>45932</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K54" s="4">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="L54" s="4">
-        <v>4.8</v>
+        <v>305</v>
       </c>
       <c r="M54" s="4">
-        <v>720</v>
+        <v>610</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="55">
       <c r="A55" s="2">
-        <v>2411</v>
+        <v>2503</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D55" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E55" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5459907755</v>
       </c>
       <c r="F55" s="2">
-        <v>79826</v>
+        <v>79820</v>
       </c>
       <c r="G55" s="3">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K55" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L55" s="4">
-        <v>342.93</v>
+        <v>90</v>
       </c>
       <c r="M55" s="4">
-        <v>342.93</v>
+        <v>450</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="56">
       <c r="A56" s="2">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E56" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F56" s="2">
-        <v>79826</v>
+        <v>79834</v>
       </c>
       <c r="G56" s="3">
         <v>45933</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K56" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L56" s="4">
-        <v>33.424</v>
+        <v>46.9</v>
       </c>
       <c r="M56" s="4">
-        <v>167.12</v>
+        <v>187.6</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="57">
       <c r="A57" s="2">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D57" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E57" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F57" s="2">
-        <v>79815</v>
+        <v>79821</v>
       </c>
       <c r="G57" s="3">
         <v>45932</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K57" s="4">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="L57" s="4">
-        <v>0.75</v>
+        <v>305</v>
       </c>
       <c r="M57" s="4">
-        <v>150</v>
+        <v>610</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="58">
       <c r="A58" s="2">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D58" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E58" s="3">
-        <v>45932.5328178935</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F58" s="2">
-        <v>79815</v>
+        <v>79821</v>
       </c>
       <c r="G58" s="3">
         <v>45932</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K58" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L58" s="4">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="M58" s="4">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="59">
       <c r="A59" s="2">
-        <v>2503</v>
+        <v>2407</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D59" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E59" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F59" s="2">
-        <v>79837</v>
+        <v>79833</v>
       </c>
       <c r="G59" s="3">
         <v>45933</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K59" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L59" s="4">
-        <v>4.5</v>
+        <v>23.43</v>
       </c>
       <c r="M59" s="4">
-        <v>135</v>
+        <v>468.6</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="60">
       <c r="A60" s="2">
-        <v>2503</v>
+        <v>2407</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D60" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E60" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F60" s="2">
-        <v>79837</v>
+        <v>79833</v>
       </c>
       <c r="G60" s="3">
         <v>45933</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K60" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60" s="4">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="M60" s="4">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="61">
       <c r="A61" s="2">
-        <v>2503</v>
+        <v>2407</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D61" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E61" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.5477484954</v>
       </c>
       <c r="F61" s="2">
-        <v>79837</v>
+        <v>79833</v>
       </c>
       <c r="G61" s="3">
         <v>45933</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K61" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L61" s="4">
-        <v>6.99</v>
+        <v>11.04</v>
       </c>
       <c r="M61" s="4">
-        <v>69.9</v>
+        <v>44.16</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="62">
       <c r="A62" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E62" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F62" s="2">
-        <v>79837</v>
+        <v>79814</v>
       </c>
       <c r="G62" s="3">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K62" s="4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L62" s="4">
-        <v>68</v>
+        <v>2.2</v>
       </c>
       <c r="M62" s="4">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="63">
       <c r="A63" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D63" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E63" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F63" s="2">
-        <v>79837</v>
+        <v>79863</v>
       </c>
       <c r="G63" s="3">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K63" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L63" s="4">
-        <v>68</v>
+        <v>7.8</v>
       </c>
       <c r="M63" s="4">
-        <v>408</v>
+        <v>117</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="64">
       <c r="A64" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D64" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E64" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F64" s="2">
-        <v>79835</v>
+        <v>79814</v>
       </c>
       <c r="G64" s="3">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="K64" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L64" s="4">
-        <v>45</v>
+        <v>5.9</v>
       </c>
       <c r="M64" s="4">
-        <v>225</v>
+        <v>17.7</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="65">
       <c r="A65" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D65" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E65" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F65" s="2">
-        <v>79835</v>
+        <v>79814</v>
       </c>
       <c r="G65" s="3">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K65" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L65" s="4">
-        <v>45</v>
+        <v>2.75</v>
       </c>
       <c r="M65" s="4">
-        <v>225</v>
+        <v>27.5</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="66">
       <c r="A66" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D66" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E66" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F66" s="2">
-        <v>79820</v>
+        <v>79863</v>
       </c>
       <c r="G66" s="3">
-        <v>45932</v>
+        <v>45936</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K66" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L66" s="4">
-        <v>305</v>
+        <v>9.5</v>
       </c>
       <c r="M66" s="4">
-        <v>610</v>
+        <v>38</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="67">
       <c r="A67" s="2">
-        <v>2503</v>
+        <v>2409</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D67" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E67" s="3">
-        <v>45932.5459907755</v>
+        <v>45932.6667390741</v>
       </c>
       <c r="F67" s="2">
-        <v>79820</v>
+        <v>79814</v>
       </c>
       <c r="G67" s="3">
         <v>45932</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K67" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L67" s="4">
-        <v>90</v>
+        <v>1.8</v>
       </c>
       <c r="M67" s="4">
-        <v>450</v>
+        <v>21.6</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="68">
       <c r="A68" s="2">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="2">
+        <v>70</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F68" s="2">
+        <v>79861</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45936</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="2">
-        <v>72</v>
-      </c>
-      <c r="E68" s="3">
-        <v>45932.5477484954</v>
-      </c>
-      <c r="F68" s="2">
-        <v>79834</v>
-      </c>
-      <c r="G68" s="3">
-        <v>45933</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K68" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L68" s="4">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="M68" s="4">
-        <v>188</v>
+        <v>990</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="69">
       <c r="A69" s="2">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D69" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E69" s="3">
-        <v>45932.5477484954</v>
-      </c>
-      <c r="F69" s="2">
-        <v>79821</v>
-      </c>
-      <c r="G69" s="3">
-        <v>45932</v>
-      </c>
+        <v>45932.6667390741</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K69" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L69" s="4">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="M69" s="4">
-        <v>610</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="70">
       <c r="A70" s="2">
-        <v>2407</v>
+        <v>2316</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D70" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E70" s="3">
-        <v>45932.5477484954</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F70" s="2">
-        <v>79821</v>
+        <v>79841</v>
       </c>
       <c r="G70" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="K70" s="4">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L70" s="4">
-        <v>90</v>
+        <v>2.2</v>
       </c>
       <c r="M70" s="4">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="71">
       <c r="A71" s="2">
-        <v>2407</v>
+        <v>2316</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D71" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E71" s="3">
-        <v>45932.5477484954</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F71" s="2">
-        <v>79833</v>
+        <v>79841</v>
       </c>
       <c r="G71" s="3">
         <v>45933</v>
@@ -4304,154 +4344,154 @@
         <v>19</v>
       </c>
       <c r="K71" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L71" s="4">
-        <v>23.43</v>
+        <v>4.5</v>
       </c>
       <c r="M71" s="4">
-        <v>468.6</v>
+        <v>225</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="72">
       <c r="A72" s="2">
-        <v>2407</v>
+        <v>2316</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D72" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E72" s="3">
-        <v>45932.5477484954</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F72" s="2">
-        <v>79833</v>
+        <v>79843</v>
       </c>
       <c r="G72" s="3">
         <v>45933</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
       </c>
       <c r="L72" s="4">
-        <v>219</v>
+        <v>65.6</v>
       </c>
       <c r="M72" s="4">
-        <v>219</v>
+        <v>65.6</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="73">
       <c r="A73" s="2">
-        <v>2407</v>
+        <v>2316</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E73" s="3">
-        <v>45932.5477484954</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F73" s="2">
-        <v>79833</v>
+        <v>79843</v>
       </c>
       <c r="G73" s="3">
         <v>45933</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K73" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L73" s="4">
-        <v>11.04</v>
+        <v>147.9</v>
       </c>
       <c r="M73" s="4">
-        <v>44.16</v>
+        <v>295.8</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="74">
       <c r="A74" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D74" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E74" s="3">
-        <v>45932.6667390741</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F74" s="2">
-        <v>79814</v>
+        <v>79841</v>
       </c>
       <c r="G74" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="K74" s="4">
         <v>3</v>
       </c>
       <c r="L74" s="4">
-        <v>5.9</v>
+        <v>270</v>
       </c>
       <c r="M74" s="4">
-        <v>17.7</v>
+        <v>810</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>58</v>
@@ -4462,43 +4502,43 @@
     </row>
     <row ht="12.75" customHeight="1" r="75">
       <c r="A75" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E75" s="3">
-        <v>45932.6667390741</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F75" s="2">
-        <v>79814</v>
+        <v>79841</v>
       </c>
       <c r="G75" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="J75" s="1" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="K75" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L75" s="4">
-        <v>2.75</v>
+        <v>180</v>
       </c>
       <c r="M75" s="4">
-        <v>27.5</v>
+        <v>540</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>58</v>
@@ -4509,43 +4549,43 @@
     </row>
     <row ht="12.75" customHeight="1" r="76">
       <c r="A76" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D76" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E76" s="3">
-        <v>45932.6667390741</v>
+        <v>45933.5989965394</v>
       </c>
       <c r="F76" s="2">
-        <v>79814</v>
+        <v>79841</v>
       </c>
       <c r="G76" s="3">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K76" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L76" s="4">
-        <v>1.8</v>
+        <v>115</v>
       </c>
       <c r="M76" s="4">
-        <v>21.6</v>
+        <v>575</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>58</v>
@@ -4556,205 +4596,245 @@
     </row>
     <row ht="12.75" customHeight="1" r="77">
       <c r="A77" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E77" s="3">
-        <v>45932.6667390741</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+        <v>45933.5989965394</v>
+      </c>
+      <c r="F77" s="2">
+        <v>79846</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45933</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K77" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L77" s="4">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+        <v>516</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="78">
       <c r="A78" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D78" s="2">
+        <v>78</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45933.5989965394</v>
+      </c>
+      <c r="F78" s="2">
+        <v>79844</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45933</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E78" s="3">
-        <v>45932.6667390741</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K78" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="79">
       <c r="A79" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D79" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E79" s="3">
-        <v>45932.6667390741</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+        <v>45933.5989965394</v>
+      </c>
+      <c r="F79" s="2">
+        <v>79844</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45933</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="K79" s="4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="80">
       <c r="A80" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D80" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E80" s="3">
-        <v>45932.6667390741</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+        <v>45933.5989965394</v>
+      </c>
+      <c r="F80" s="2">
+        <v>79844</v>
+      </c>
+      <c r="G80" s="3">
+        <v>45933</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K80" s="4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L80" s="4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="81">
       <c r="A81" s="2">
-        <v>2409</v>
+        <v>2316</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D81" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E81" s="3">
-        <v>45932.6667390741</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+        <v>45933.5989965394</v>
+      </c>
+      <c r="F81" s="2">
+        <v>79855</v>
+      </c>
+      <c r="G81" s="3">
+        <v>45935</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="K81" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L81" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="82">
       <c r="A82" s="2">
         <v>2316</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>36</v>
@@ -4766,34 +4846,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F82" s="2">
-        <v>79841</v>
+        <v>79844</v>
       </c>
       <c r="G82" s="3">
         <v>45933</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K82" s="4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L82" s="4">
-        <v>2.2</v>
+        <v>24.9</v>
       </c>
       <c r="M82" s="4">
-        <v>440</v>
+        <v>747</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="83">
@@ -4801,7 +4881,7 @@
         <v>2316</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>36</v>
@@ -4813,34 +4893,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F83" s="2">
-        <v>79841</v>
+        <v>79844</v>
       </c>
       <c r="G83" s="3">
         <v>45933</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="K83" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L83" s="4">
-        <v>4.5</v>
+        <v>14.9</v>
       </c>
       <c r="M83" s="4">
-        <v>225</v>
+        <v>447</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="84">
@@ -4848,7 +4928,7 @@
         <v>2316</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>36</v>
@@ -4860,34 +4940,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F84" s="2">
-        <v>79843</v>
+        <v>79855</v>
       </c>
       <c r="G84" s="3">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="K84" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="4">
-        <v>65.6</v>
+        <v>300</v>
       </c>
       <c r="M84" s="4">
-        <v>65.6</v>
+        <v>600</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
@@ -4895,7 +4975,7 @@
         <v>2316</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>36</v>
@@ -4907,34 +4987,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F85" s="2">
-        <v>79843</v>
+        <v>79855</v>
       </c>
       <c r="G85" s="3">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="K85" s="4">
         <v>2</v>
       </c>
       <c r="L85" s="4">
-        <v>101.31</v>
+        <v>236.8</v>
       </c>
       <c r="M85" s="4">
-        <v>202.62</v>
+        <v>473.6</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
@@ -4942,7 +5022,7 @@
         <v>2316</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>36</v>
@@ -4954,34 +5034,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F86" s="2">
-        <v>79841</v>
+        <v>79855</v>
       </c>
       <c r="G86" s="3">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="K86" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L86" s="4">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="M86" s="4">
-        <v>810</v>
+        <v>296</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
@@ -4989,7 +5069,7 @@
         <v>2316</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>36</v>
@@ -5001,34 +5081,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F87" s="2">
-        <v>79841</v>
+        <v>79860</v>
       </c>
       <c r="G87" s="3">
-        <v>45933</v>
+        <v>45936</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="K87" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L87" s="4">
-        <v>180</v>
+        <v>16.333</v>
       </c>
       <c r="M87" s="4">
-        <v>540</v>
+        <v>489.99</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5036,7 +5116,7 @@
         <v>2316</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>36</v>
@@ -5048,34 +5128,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F88" s="2">
-        <v>79841</v>
+        <v>79855</v>
       </c>
       <c r="G88" s="3">
-        <v>45933</v>
+        <v>45935</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="K88" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L88" s="4">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="M88" s="4">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="89">
@@ -5083,7 +5163,7 @@
         <v>2316</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>36</v>
@@ -5095,34 +5175,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F89" s="2">
-        <v>79846</v>
+        <v>79842</v>
       </c>
       <c r="G89" s="3">
         <v>45933</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K89" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L89" s="4">
-        <v>16</v>
+        <v>35.8</v>
       </c>
       <c r="M89" s="4">
-        <v>480</v>
+        <v>1790</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="90">
@@ -5130,7 +5210,7 @@
         <v>2316</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>36</v>
@@ -5142,34 +5222,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F90" s="2">
-        <v>79844</v>
+        <v>79840</v>
       </c>
       <c r="G90" s="3">
         <v>45933</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K90" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L90" s="4">
-        <v>3.9</v>
+        <v>49.2</v>
       </c>
       <c r="M90" s="4">
-        <v>195</v>
+        <v>492</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="91">
@@ -5177,7 +5257,7 @@
         <v>2316</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>36</v>
@@ -5189,34 +5269,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F91" s="2">
-        <v>79845</v>
+        <v>79842</v>
       </c>
       <c r="G91" s="3">
         <v>45933</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K91" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L91" s="4">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M91" s="4">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="92">
@@ -5224,7 +5304,7 @@
         <v>2316</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>36</v>
@@ -5236,34 +5316,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F92" s="2">
-        <v>79855</v>
+        <v>79842</v>
       </c>
       <c r="G92" s="3">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="K92" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L92" s="4">
-        <v>300</v>
+        <v>34.5</v>
       </c>
       <c r="M92" s="4">
-        <v>600</v>
+        <v>517.5</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="93">
@@ -5271,7 +5351,7 @@
         <v>2316</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>36</v>
@@ -5283,34 +5363,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F93" s="2">
-        <v>79855</v>
+        <v>79846</v>
       </c>
       <c r="G93" s="3">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="K93" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="L93" s="4">
-        <v>300</v>
+        <v>1.45</v>
       </c>
       <c r="M93" s="4">
-        <v>600</v>
+        <v>72.5</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="94">
@@ -5318,7 +5398,7 @@
         <v>2316</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>36</v>
@@ -5330,34 +5410,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F94" s="2">
-        <v>79855</v>
+        <v>79846</v>
       </c>
       <c r="G94" s="3">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="K94" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L94" s="4">
-        <v>236.8</v>
+        <v>7</v>
       </c>
       <c r="M94" s="4">
-        <v>473.6</v>
+        <v>700</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="95">
@@ -5365,7 +5445,7 @@
         <v>2316</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>36</v>
@@ -5377,34 +5457,34 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F95" s="2">
-        <v>79855</v>
+        <v>79846</v>
       </c>
       <c r="G95" s="3">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="K95" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" s="4">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="M95" s="4">
-        <v>296</v>
+        <v>390</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5412,7 +5492,7 @@
         <v>2316</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>36</v>
@@ -5424,535 +5504,35 @@
         <v>45933.5989965394</v>
       </c>
       <c r="F96" s="2">
-        <v>79855</v>
+        <v>79840</v>
       </c>
       <c r="G96" s="3">
-        <v>45935</v>
+        <v>45933</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="K96" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L96" s="4">
-        <v>40</v>
+        <v>84.8</v>
       </c>
       <c r="M96" s="4">
-        <v>80</v>
+        <v>1017.6</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="97">
-      <c r="A97" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="2">
-        <v>78</v>
-      </c>
-      <c r="E97" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F97" s="2">
-        <v>79842</v>
-      </c>
-      <c r="G97" s="3">
-        <v>45933</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" s="4">
-        <v>50</v>
-      </c>
-      <c r="L97" s="4">
-        <v>33.5</v>
-      </c>
-      <c r="M97" s="4">
-        <v>1675</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="98">
-      <c r="A98" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="2">
-        <v>78</v>
-      </c>
-      <c r="E98" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F98" s="2">
-        <v>79840</v>
-      </c>
-      <c r="G98" s="3">
-        <v>45933</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" s="4">
-        <v>10</v>
-      </c>
-      <c r="L98" s="4">
-        <v>49.2</v>
-      </c>
-      <c r="M98" s="4">
-        <v>492</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O98" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="99">
-      <c r="A99" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="2">
-        <v>78</v>
-      </c>
-      <c r="E99" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F99" s="2">
-        <v>79842</v>
-      </c>
-      <c r="G99" s="3">
-        <v>45933</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="4">
-        <v>50</v>
-      </c>
-      <c r="L99" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M99" s="4">
-        <v>175</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="100">
-      <c r="A100" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="2">
-        <v>78</v>
-      </c>
-      <c r="E100" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F100" s="2">
-        <v>79842</v>
-      </c>
-      <c r="G100" s="3">
-        <v>45933</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="4">
-        <v>15</v>
-      </c>
-      <c r="L100" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="M100" s="4">
-        <v>517.5</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1" r="101">
-      <c r="A101" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="2">
-        <v>78</v>
-      </c>
-      <c r="E101" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K101" s="4">
-        <v>20</v>
-      </c>
-      <c r="L101" s="4">
-        <v>0</v>
-      </c>
-      <c r="M101" s="4">
-        <v>0</v>
-      </c>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="102">
-      <c r="A102" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="2">
-        <v>78</v>
-      </c>
-      <c r="E102" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K102" s="4">
-        <v>30</v>
-      </c>
-      <c r="L102" s="4">
-        <v>0</v>
-      </c>
-      <c r="M102" s="4">
-        <v>0</v>
-      </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="103">
-      <c r="A103" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" s="2">
-        <v>78</v>
-      </c>
-      <c r="E103" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K103" s="4">
-        <v>30</v>
-      </c>
-      <c r="L103" s="4">
-        <v>0</v>
-      </c>
-      <c r="M103" s="4">
-        <v>0</v>
-      </c>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="104">
-      <c r="A104" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="2">
-        <v>78</v>
-      </c>
-      <c r="E104" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K104" s="4">
-        <v>30</v>
-      </c>
-      <c r="L104" s="4">
-        <v>0</v>
-      </c>
-      <c r="M104" s="4">
-        <v>0</v>
-      </c>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="105">
-      <c r="A105" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D105" s="2">
-        <v>78</v>
-      </c>
-      <c r="E105" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K105" s="4">
-        <v>50</v>
-      </c>
-      <c r="L105" s="4">
-        <v>0</v>
-      </c>
-      <c r="M105" s="4">
-        <v>0</v>
-      </c>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="106">
-      <c r="A106" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="2">
-        <v>78</v>
-      </c>
-      <c r="E106" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K106" s="4">
-        <v>100</v>
-      </c>
-      <c r="L106" s="4">
-        <v>0</v>
-      </c>
-      <c r="M106" s="4">
-        <v>0</v>
-      </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="107">
-      <c r="A107" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D107" s="2">
-        <v>78</v>
-      </c>
-      <c r="E107" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-    </row>
-    <row ht="12.75" customHeight="1" r="108">
-      <c r="A108" s="2">
-        <v>2316</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="2">
-        <v>78</v>
-      </c>
-      <c r="E108" s="3">
-        <v>45933.5989965394</v>
-      </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K108" s="4">
-        <v>12</v>
-      </c>
-      <c r="L108" s="4">
-        <v>90.74</v>
-      </c>
-      <c r="M108" s="4">
-        <v>1088.88</v>
-      </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
   <si>
     <t>EMPRD</t>
   </si>
@@ -714,6 +714,402 @@
   </si>
   <si>
     <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - FLUIDO - SIKADUR 32 - 1 KG</t>
+  </si>
+  <si>
+    <t>LUIZ ALBERTO HESS BORGES</t>
+  </si>
+  <si>
+    <t>E.04.0381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  10MM X 160MM</t>
+  </si>
+  <si>
+    <t>E.04.0384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  12MM X 160MM</t>
+  </si>
+  <si>
+    <t>H.17.0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA GEOTÊXTIL CC 10  ( BIDIM  2,10 X 3,00  ) ( CURA DE CONCRETO )</t>
+  </si>
+  <si>
+    <t>M²</t>
+  </si>
+  <si>
+    <t>J.01.0016</t>
+  </si>
+  <si>
+    <t>PEDRA BRITADA Nº 1 - SACO GRANDE 20 KG</t>
+  </si>
+  <si>
+    <t>L.01.0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCO CELULAR P/ ALVENARIA,  60 X 30 X 10 CM</t>
+  </si>
+  <si>
+    <t>W.06.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO ESTRUTURAL BASE EPÓXI MÉDIA FLUIDEZ  COMPOUND ADESIVO  1KG   ( A+B)</t>
+  </si>
+  <si>
+    <t>J.02.0812</t>
+  </si>
+  <si>
+    <t>ARGAMASSA</t>
+  </si>
+  <si>
+    <t>P2.01.0023</t>
+  </si>
+  <si>
+    <t>BARRA CHATA DE ALUMINIO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>E.04.0892</t>
+  </si>
+  <si>
+    <t>DISCO DE CORTE AÇO INOX 4 1/2''</t>
+  </si>
+  <si>
+    <t>E.04.0716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO DE CORTE DIAMANTADO PARA PORCELANATO  CONTINUO ( 4 1/2'' )</t>
+  </si>
+  <si>
+    <t>O.01.0112</t>
+  </si>
+  <si>
+    <t>CHAPA PLASTIFICADO 10 MM - 2,20 X 1,10 M</t>
+  </si>
+  <si>
+    <t>E.01.0014</t>
+  </si>
+  <si>
+    <t>LAVADORA DE ALTA PRESSÃO</t>
+  </si>
+  <si>
+    <t>E.01.0005</t>
+  </si>
+  <si>
+    <t>CHAVE BOTOEIRA</t>
+  </si>
+  <si>
+    <t>00000000000587</t>
+  </si>
+  <si>
+    <t>PC 2000</t>
+  </si>
+  <si>
+    <t>E.04.0470</t>
+  </si>
+  <si>
+    <t>CHAVE DE FENDA - DIAM: 1/4'' - COMP: 225 MM</t>
+  </si>
+  <si>
+    <t>E.04.0281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 6 CM</t>
+  </si>
+  <si>
+    <t>E.04.0284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPÁTULA DE AÇO LISA  - 12 CM</t>
+  </si>
+  <si>
+    <t>E.04.0705</t>
+  </si>
+  <si>
+    <t>CÂMARA DE AR P/CARRINHO DE MÃO</t>
+  </si>
+  <si>
+    <t>E.04.0246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEMPENADEIRA LISA AÇO  - 28 X 13 CM</t>
+  </si>
+  <si>
+    <t>E.04.1804</t>
+  </si>
+  <si>
+    <t>PONTEIRO 20 X 250MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>E.04.1854</t>
+  </si>
+  <si>
+    <t>TALHADEIRA 20 X 250MM SDS PLUS</t>
+  </si>
+  <si>
+    <t>K.01.0267</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 2 X 4 MM²</t>
+  </si>
+  <si>
+    <t>K.01.1200</t>
+  </si>
+  <si>
+    <t>BOCAL DE LOUÇA E.27</t>
+  </si>
+  <si>
+    <t>M.09.0004</t>
+  </si>
+  <si>
+    <t>ARAME GALVANIZADO NØ 18</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>O.01.0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 10"</t>
+  </si>
+  <si>
+    <t>O.01.0142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 12"</t>
+  </si>
+  <si>
+    <t>O.01.0115</t>
+  </si>
+  <si>
+    <t>CHAPA PLASTIFICADO 14 MM - 2,20 X 1,10 M</t>
+  </si>
+  <si>
+    <t>R.02.0022</t>
+  </si>
+  <si>
+    <t>TINTA ACRILICA LATA DE 18L</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>00000000008674</t>
+  </si>
+  <si>
+    <t>REI DAS TINTAS</t>
+  </si>
+  <si>
+    <t>R.02.0115</t>
+  </si>
+  <si>
+    <t>TINTA SPRAY</t>
+  </si>
+  <si>
+    <t>R.02.0069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLO DE LÃ DE CARNEIRO CAMISA ALTA   23 CM - COM CABO</t>
+  </si>
+  <si>
+    <t>W.01.0006</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 27</t>
+  </si>
+  <si>
+    <t>Z.01.0084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPAÇADOR CIRCULAR UNIVERSAL MOD S40 - 4,2MMÀ 12,5 MM COBRIMENTO  40,0 MM</t>
+  </si>
+  <si>
+    <t>MILH</t>
+  </si>
+  <si>
+    <t>00000000001930</t>
+  </si>
+  <si>
+    <t>COPLÁS</t>
+  </si>
+  <si>
+    <t>H.15.0050</t>
+  </si>
+  <si>
+    <t>MANTA GEOTÊXTIL ( BIDIM )</t>
+  </si>
+  <si>
+    <t>00000000001195</t>
+  </si>
+  <si>
+    <t>GEOMAKS</t>
+  </si>
+  <si>
+    <t>E.02.0213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROMAPISO 2MM X 600MM X50M  PROMAFLEX</t>
+  </si>
+  <si>
+    <t>00000000006868</t>
+  </si>
+  <si>
+    <t>PROMAFLEX FILME PVC</t>
+  </si>
+  <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PVC PARA OBRA</t>
+  </si>
+  <si>
+    <t>F.04.0206</t>
+  </si>
+  <si>
+    <t>MARTELETE ROMPEDOR 20KG</t>
+  </si>
+  <si>
+    <t>00000000007636</t>
+  </si>
+  <si>
+    <t>ABRIL LOC</t>
+  </si>
+  <si>
+    <t>K.05.0668</t>
+  </si>
+  <si>
+    <t>VÁLVULA PARA GAS DE EMBUTIR GÁS BOX EMMETI COD 22031010</t>
+  </si>
+  <si>
+    <t>00000000008721</t>
+  </si>
+  <si>
+    <t>HIDRALUZ</t>
+  </si>
+  <si>
+    <t>K.08.0906</t>
+  </si>
+  <si>
+    <t>TOMADA PIAL AQUATIC 2P+T 10 A 250V NBR 14136 REF. 064218</t>
+  </si>
+  <si>
+    <t>00000000008293</t>
+  </si>
+  <si>
+    <t>TEMPLO COMERCIO</t>
+  </si>
+  <si>
+    <t>K.02.3581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP  PVC P/ ESG. SÉRIE R DN 75MM TIGRE</t>
+  </si>
+  <si>
+    <t>U.03.4000</t>
+  </si>
+  <si>
+    <t>CANTONEIRA EM AÇO INOX DE ABAS IGUAIS</t>
+  </si>
+  <si>
+    <t>C.04.0043</t>
+  </si>
+  <si>
+    <t>RODO DE 60CM -</t>
+  </si>
+  <si>
+    <t>E.02.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
+  </si>
+  <si>
+    <t>E.04.0271</t>
+  </si>
+  <si>
+    <t>ESPÁTULA PLÁSTICA LISA - 6 CM</t>
+  </si>
+  <si>
+    <t>J.06.0011</t>
+  </si>
+  <si>
+    <t>REJUNTE ACRILICO</t>
+  </si>
+  <si>
+    <t>M.09.0023</t>
+  </si>
+  <si>
+    <t>ARAME RECOZIDO FIO DUPLO TRANÇADO NØ 18</t>
+  </si>
+  <si>
+    <t>S.04.0060</t>
+  </si>
+  <si>
+    <t>REMOVEDOR FAÍSCA</t>
+  </si>
+  <si>
+    <t>S.08.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 1000/TOP IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
+    <t>W.07.0001</t>
+  </si>
+  <si>
+    <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - SIKADUR 31 - 1 KG</t>
+  </si>
+  <si>
+    <t>MARIA ANGÉLICA A. MONTEIRO DA COSTA</t>
+  </si>
+  <si>
+    <t>C.04.0002</t>
+  </si>
+  <si>
+    <t>ÁLCOOL 1 LT 92º</t>
+  </si>
+  <si>
+    <t>C.04.0022</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 60 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>C.04.0156</t>
+  </si>
+  <si>
+    <t>CLORO 5 L</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>E.02.0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONA TERREIRO PRETA  8 X 100M</t>
+  </si>
+  <si>
+    <t>E.03.0120</t>
+  </si>
+  <si>
+    <t>ÓCULOS DE SEGURANÇA ( TIPO PANDA)</t>
+  </si>
+  <si>
+    <t>E.03.0102</t>
+  </si>
+  <si>
+    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF2</t>
+  </si>
+  <si>
+    <t>P2.01.0022</t>
+  </si>
+  <si>
+    <t>CANTONEIRA DE ALUMINIO</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1021,7 +1417,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.4285714285714" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.71428571428571" customWidth="1" style="1"/>
-    <col min="2" max="2" width="36.1428571428571" customWidth="1" style="1"/>
+    <col min="2" max="2" width="38.5714285714286" customWidth="1" style="1"/>
     <col min="3" max="3" width="11.1428571428571" customWidth="1" style="1"/>
     <col min="4" max="4" width="10" customWidth="1" style="1"/>
     <col min="5" max="5" width="10.5714285714286" customWidth="1" style="1"/>
@@ -1352,13 +1748,13 @@
         <v>32</v>
       </c>
       <c r="K7" s="4">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="L7" s="4">
         <v>0.85</v>
       </c>
       <c r="M7" s="4">
-        <v>1.7</v>
+        <v>170</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>20</v>
@@ -5533,6 +5929,3466 @@
       <c r="O96" s="1" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="97">
+      <c r="A97" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="2">
+        <v>48</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F97" s="2">
+        <v>79877</v>
+      </c>
+      <c r="G97" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="4">
+        <v>30</v>
+      </c>
+      <c r="L97" s="4">
+        <v>23.43</v>
+      </c>
+      <c r="M97" s="4">
+        <v>702.9</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="98">
+      <c r="A98" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" s="2">
+        <v>48</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F98" s="2">
+        <v>79881</v>
+      </c>
+      <c r="G98" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="4">
+        <v>2</v>
+      </c>
+      <c r="L98" s="4">
+        <v>90</v>
+      </c>
+      <c r="M98" s="4">
+        <v>180</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="99">
+      <c r="A99" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" s="2">
+        <v>48</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F99" s="2">
+        <v>79878</v>
+      </c>
+      <c r="G99" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" s="4">
+        <v>2</v>
+      </c>
+      <c r="L99" s="4">
+        <v>20.36</v>
+      </c>
+      <c r="M99" s="4">
+        <v>40.72</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="100">
+      <c r="A100" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="2">
+        <v>48</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F100" s="2">
+        <v>79878</v>
+      </c>
+      <c r="G100" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="4">
+        <v>2</v>
+      </c>
+      <c r="L100" s="4">
+        <v>15.79</v>
+      </c>
+      <c r="M100" s="4">
+        <v>31.58</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="101">
+      <c r="A101" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="2">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F101" s="2">
+        <v>79878</v>
+      </c>
+      <c r="G101" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K101" s="4">
+        <v>230</v>
+      </c>
+      <c r="L101" s="4">
+        <v>3.196</v>
+      </c>
+      <c r="M101" s="4">
+        <v>735.08</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="102">
+      <c r="A102" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="2">
+        <v>48</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F102" s="2">
+        <v>79881</v>
+      </c>
+      <c r="G102" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K102" s="4">
+        <v>500</v>
+      </c>
+      <c r="L102" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M102" s="4">
+        <v>2900</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="103">
+      <c r="A103" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="2">
+        <v>48</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F103" s="2">
+        <v>79881</v>
+      </c>
+      <c r="G103" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K103" s="4">
+        <v>500</v>
+      </c>
+      <c r="L103" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M103" s="4">
+        <v>2900</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="104">
+      <c r="A104" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" s="2">
+        <v>48</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F104" s="2">
+        <v>79881</v>
+      </c>
+      <c r="G104" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="4">
+        <v>200</v>
+      </c>
+      <c r="L104" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="M104" s="4">
+        <v>7980</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="105">
+      <c r="A105" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="2">
+        <v>48</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F105" s="2">
+        <v>79878</v>
+      </c>
+      <c r="G105" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="4">
+        <v>30</v>
+      </c>
+      <c r="L105" s="4">
+        <v>17.28</v>
+      </c>
+      <c r="M105" s="4">
+        <v>518.4</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="106">
+      <c r="A106" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" s="2">
+        <v>48</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F106" s="2">
+        <v>79878</v>
+      </c>
+      <c r="G106" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="4">
+        <v>6</v>
+      </c>
+      <c r="L106" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="M106" s="4">
+        <v>239.4</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="107">
+      <c r="A107" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="2">
+        <v>48</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="4">
+        <v>300</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="108">
+      <c r="A108" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="2">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3">
+        <v>45936.6138447917</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K108" s="4">
+        <v>50</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="109">
+      <c r="A109" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="2">
+        <v>79</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45937.5216886343</v>
+      </c>
+      <c r="F109" s="2">
+        <v>79870</v>
+      </c>
+      <c r="G109" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="4">
+        <v>10</v>
+      </c>
+      <c r="L109" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M109" s="4">
+        <v>35</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="110">
+      <c r="A110" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" s="2">
+        <v>79</v>
+      </c>
+      <c r="E110" s="3">
+        <v>45937.5216886343</v>
+      </c>
+      <c r="F110" s="2">
+        <v>79870</v>
+      </c>
+      <c r="G110" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="4">
+        <v>5</v>
+      </c>
+      <c r="L110" s="4">
+        <v>35</v>
+      </c>
+      <c r="M110" s="4">
+        <v>175</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="111">
+      <c r="A111" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" s="2">
+        <v>79</v>
+      </c>
+      <c r="E111" s="3">
+        <v>45937.5216886343</v>
+      </c>
+      <c r="F111" s="2">
+        <v>79872</v>
+      </c>
+      <c r="G111" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="4">
+        <v>20</v>
+      </c>
+      <c r="L111" s="4">
+        <v>85</v>
+      </c>
+      <c r="M111" s="4">
+        <v>1700</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="112">
+      <c r="A112" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2">
+        <v>28</v>
+      </c>
+      <c r="E112" s="3">
+        <v>45937.6429754861</v>
+      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="113">
+      <c r="A113" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="2">
+        <v>19</v>
+      </c>
+      <c r="E113" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F113" s="2">
+        <v>79889</v>
+      </c>
+      <c r="G113" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1</v>
+      </c>
+      <c r="L113" s="4">
+        <v>196</v>
+      </c>
+      <c r="M113" s="4">
+        <v>196</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="114">
+      <c r="A114" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" s="2">
+        <v>19</v>
+      </c>
+      <c r="E114" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F114" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G114" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="4">
+        <v>2</v>
+      </c>
+      <c r="L114" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="M114" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="115">
+      <c r="A115" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" s="2">
+        <v>19</v>
+      </c>
+      <c r="E115" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F115" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G115" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" s="4">
+        <v>4</v>
+      </c>
+      <c r="L115" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="M115" s="4">
+        <v>66</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="116">
+      <c r="A116" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="2">
+        <v>19</v>
+      </c>
+      <c r="E116" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F116" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G116" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="4">
+        <v>2</v>
+      </c>
+      <c r="L116" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="M116" s="4">
+        <v>50.2</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="117">
+      <c r="A117" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="2">
+        <v>19</v>
+      </c>
+      <c r="E117" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F117" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G117" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="4">
+        <v>6</v>
+      </c>
+      <c r="L117" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="M117" s="4">
+        <v>81</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="118">
+      <c r="A118" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="2">
+        <v>19</v>
+      </c>
+      <c r="E118" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F118" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G118" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="4">
+        <v>2</v>
+      </c>
+      <c r="L118" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="M118" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="119">
+      <c r="A119" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="2">
+        <v>19</v>
+      </c>
+      <c r="E119" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F119" s="2">
+        <v>79883</v>
+      </c>
+      <c r="G119" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" s="4">
+        <v>4</v>
+      </c>
+      <c r="L119" s="4">
+        <v>149</v>
+      </c>
+      <c r="M119" s="4">
+        <v>596</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="120">
+      <c r="A120" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="2">
+        <v>19</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F120" s="2">
+        <v>79883</v>
+      </c>
+      <c r="G120" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="4">
+        <v>4</v>
+      </c>
+      <c r="L120" s="4">
+        <v>149</v>
+      </c>
+      <c r="M120" s="4">
+        <v>596</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="121">
+      <c r="A121" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="2">
+        <v>19</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79889</v>
+      </c>
+      <c r="G121" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K121" s="4">
+        <v>100</v>
+      </c>
+      <c r="L121" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="M121" s="4">
+        <v>1720</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="122">
+      <c r="A122" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="2">
+        <v>19</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F122" s="2">
+        <v>79889</v>
+      </c>
+      <c r="G122" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="4">
+        <v>10</v>
+      </c>
+      <c r="L122" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="M122" s="4">
+        <v>299</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="123">
+      <c r="A123" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="2">
+        <v>19</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F123" s="2">
+        <v>79889</v>
+      </c>
+      <c r="G123" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="4">
+        <v>10</v>
+      </c>
+      <c r="L123" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M123" s="4">
+        <v>39</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="124">
+      <c r="A124" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" s="2">
+        <v>19</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F124" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G124" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K124" s="4">
+        <v>20</v>
+      </c>
+      <c r="L124" s="4">
+        <v>37</v>
+      </c>
+      <c r="M124" s="4">
+        <v>740</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="125">
+      <c r="A125" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="2">
+        <v>19</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F125" s="2">
+        <v>79884</v>
+      </c>
+      <c r="G125" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K125" s="4">
+        <v>30</v>
+      </c>
+      <c r="L125" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="M125" s="4">
+        <v>414</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="126">
+      <c r="A126" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="2">
+        <v>19</v>
+      </c>
+      <c r="E126" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F126" s="2">
+        <v>79884</v>
+      </c>
+      <c r="G126" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K126" s="4">
+        <v>48</v>
+      </c>
+      <c r="L126" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="M126" s="4">
+        <v>696</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="127">
+      <c r="A127" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="2">
+        <v>19</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F127" s="2">
+        <v>79884</v>
+      </c>
+      <c r="G127" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K127" s="4">
+        <v>12</v>
+      </c>
+      <c r="L127" s="4">
+        <v>110</v>
+      </c>
+      <c r="M127" s="4">
+        <v>1320</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="128">
+      <c r="A128" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="2">
+        <v>19</v>
+      </c>
+      <c r="E128" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F128" s="2">
+        <v>79890</v>
+      </c>
+      <c r="G128" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K128" s="4">
+        <v>1</v>
+      </c>
+      <c r="L128" s="4">
+        <v>530</v>
+      </c>
+      <c r="M128" s="4">
+        <v>530</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="129">
+      <c r="A129" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="2">
+        <v>19</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F129" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G129" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="4">
+        <v>6</v>
+      </c>
+      <c r="L129" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="M129" s="4">
+        <v>99</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="130">
+      <c r="A130" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" s="2">
+        <v>19</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F130" s="2">
+        <v>79890</v>
+      </c>
+      <c r="G130" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" s="4">
+        <v>2</v>
+      </c>
+      <c r="L130" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="M130" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="131">
+      <c r="A131" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" s="2">
+        <v>19</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F131" s="2">
+        <v>79888</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K131" s="4">
+        <v>10</v>
+      </c>
+      <c r="L131" s="4">
+        <v>17</v>
+      </c>
+      <c r="M131" s="4">
+        <v>170</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="132">
+      <c r="A132" s="2">
+        <v>2506</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" s="2">
+        <v>19</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45937.6434364699</v>
+      </c>
+      <c r="F132" s="2">
+        <v>79894</v>
+      </c>
+      <c r="G132" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4">
+        <v>1750</v>
+      </c>
+      <c r="M132" s="4">
+        <v>1750</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="133">
+      <c r="A133" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" s="2">
+        <v>71</v>
+      </c>
+      <c r="E133" s="3">
+        <v>45937.646931169</v>
+      </c>
+      <c r="F133" s="2">
+        <v>79879</v>
+      </c>
+      <c r="G133" s="3">
+        <v>45937</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K133" s="4">
+        <v>230</v>
+      </c>
+      <c r="L133" s="4">
+        <v>5.96</v>
+      </c>
+      <c r="M133" s="4">
+        <v>1370.8</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="134">
+      <c r="A134" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D134" s="2">
+        <v>64</v>
+      </c>
+      <c r="E134" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F134" s="2">
+        <v>79882</v>
+      </c>
+      <c r="G134" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="4">
+        <v>30</v>
+      </c>
+      <c r="L134" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M134" s="4">
+        <v>135</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="135">
+      <c r="A135" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="2">
+        <v>64</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F135" s="2">
+        <v>79891</v>
+      </c>
+      <c r="G135" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K135" s="4">
+        <v>4</v>
+      </c>
+      <c r="L135" s="4">
+        <v>300</v>
+      </c>
+      <c r="M135" s="4">
+        <v>1200</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="136">
+      <c r="A136" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D136" s="2">
+        <v>64</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F136" s="2">
+        <v>79897</v>
+      </c>
+      <c r="G136" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="4">
+        <v>4</v>
+      </c>
+      <c r="L136" s="4">
+        <v>90</v>
+      </c>
+      <c r="M136" s="4">
+        <v>360</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="137">
+      <c r="A137" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D137" s="2">
+        <v>64</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F137" s="2">
+        <v>79897</v>
+      </c>
+      <c r="G137" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="4">
+        <v>4</v>
+      </c>
+      <c r="L137" s="4">
+        <v>14.04</v>
+      </c>
+      <c r="M137" s="4">
+        <v>56.16</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="138">
+      <c r="A138" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" s="2">
+        <v>64</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F138" s="2">
+        <v>79898</v>
+      </c>
+      <c r="G138" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K138" s="4">
+        <v>30</v>
+      </c>
+      <c r="L138" s="4">
+        <v>46.6667</v>
+      </c>
+      <c r="M138" s="4">
+        <v>1400.001</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="139">
+      <c r="A139" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D139" s="2">
+        <v>64</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F139" s="2">
+        <v>79896</v>
+      </c>
+      <c r="G139" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="4">
+        <v>1</v>
+      </c>
+      <c r="L139" s="4">
+        <v>529.69</v>
+      </c>
+      <c r="M139" s="4">
+        <v>529.69</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="140">
+      <c r="A140" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" s="2">
+        <v>64</v>
+      </c>
+      <c r="E140" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F140" s="2">
+        <v>79892</v>
+      </c>
+      <c r="G140" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="4">
+        <v>2</v>
+      </c>
+      <c r="L140" s="4">
+        <v>123.5</v>
+      </c>
+      <c r="M140" s="4">
+        <v>247</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="141">
+      <c r="A141" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" s="2">
+        <v>64</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F141" s="2">
+        <v>79896</v>
+      </c>
+      <c r="G141" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="4">
+        <v>5</v>
+      </c>
+      <c r="L141" s="4">
+        <v>10.17</v>
+      </c>
+      <c r="M141" s="4">
+        <v>50.85</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="142">
+      <c r="A142" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" s="2">
+        <v>64</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45937.7469882176</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="4">
+        <v>2</v>
+      </c>
+      <c r="L142" s="4">
+        <v>0</v>
+      </c>
+      <c r="M142" s="4">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="143">
+      <c r="A143" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="2">
+        <v>248</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F143" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" s="4">
+        <v>100</v>
+      </c>
+      <c r="L143" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M143" s="4">
+        <v>450</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="144">
+      <c r="A144" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="2">
+        <v>248</v>
+      </c>
+      <c r="E144" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F144" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G144" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K144" s="4">
+        <v>5</v>
+      </c>
+      <c r="L144" s="4">
+        <v>270</v>
+      </c>
+      <c r="M144" s="4">
+        <v>1350</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="145">
+      <c r="A145" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" s="2">
+        <v>248</v>
+      </c>
+      <c r="E145" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F145" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G145" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K145" s="4">
+        <v>10</v>
+      </c>
+      <c r="L145" s="4">
+        <v>115</v>
+      </c>
+      <c r="M145" s="4">
+        <v>1150</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="146">
+      <c r="A146" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" s="2">
+        <v>248</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F146" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="4">
+        <v>30</v>
+      </c>
+      <c r="L146" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="M146" s="4">
+        <v>525</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="147">
+      <c r="A147" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" s="2">
+        <v>248</v>
+      </c>
+      <c r="E147" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F147" s="2">
+        <v>79905</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="4">
+        <v>30</v>
+      </c>
+      <c r="L147" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="M147" s="4">
+        <v>594</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="148">
+      <c r="A148" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" s="2">
+        <v>248</v>
+      </c>
+      <c r="E148" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="4">
+        <v>5</v>
+      </c>
+      <c r="L148" s="4">
+        <v>0</v>
+      </c>
+      <c r="M148" s="4">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="149">
+      <c r="A149" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" s="2">
+        <v>248</v>
+      </c>
+      <c r="E149" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K149" s="4">
+        <v>10</v>
+      </c>
+      <c r="L149" s="4">
+        <v>0</v>
+      </c>
+      <c r="M149" s="4">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="150">
+      <c r="A150" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" s="2">
+        <v>248</v>
+      </c>
+      <c r="E150" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="4">
+        <v>20</v>
+      </c>
+      <c r="L150" s="4">
+        <v>0</v>
+      </c>
+      <c r="M150" s="4">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="151">
+      <c r="A151" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" s="2">
+        <v>248</v>
+      </c>
+      <c r="E151" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K151" s="4">
+        <v>40</v>
+      </c>
+      <c r="L151" s="4">
+        <v>0</v>
+      </c>
+      <c r="M151" s="4">
+        <v>0</v>
+      </c>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="152">
+      <c r="A152" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D152" s="2">
+        <v>248</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K152" s="4">
+        <v>5</v>
+      </c>
+      <c r="L152" s="4">
+        <v>0</v>
+      </c>
+      <c r="M152" s="4">
+        <v>0</v>
+      </c>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="153">
+      <c r="A153" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" s="2">
+        <v>248</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1</v>
+      </c>
+      <c r="L153" s="4">
+        <v>0</v>
+      </c>
+      <c r="M153" s="4">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="154">
+      <c r="A154" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D154" s="2">
+        <v>248</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="4">
+        <v>20</v>
+      </c>
+      <c r="L154" s="4">
+        <v>0</v>
+      </c>
+      <c r="M154" s="4">
+        <v>0</v>
+      </c>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="155">
+      <c r="A155" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="2">
+        <v>248</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K155" s="4">
+        <v>10</v>
+      </c>
+      <c r="L155" s="4">
+        <v>0</v>
+      </c>
+      <c r="M155" s="4">
+        <v>0</v>
+      </c>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="156">
+      <c r="A156" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D156" s="2">
+        <v>248</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45938.6713930787</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="4">
+        <v>30</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="157">
+      <c r="A157" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" s="2">
+        <v>25</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F157" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G157" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="4">
+        <v>2</v>
+      </c>
+      <c r="L157" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="M157" s="4">
+        <v>25</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="158">
+      <c r="A158" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D158" s="2">
+        <v>25</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F158" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G158" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="4">
+        <v>15</v>
+      </c>
+      <c r="L158" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M158" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="159">
+      <c r="A159" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="2">
+        <v>25</v>
+      </c>
+      <c r="E159" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F159" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G159" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="4">
+        <v>5</v>
+      </c>
+      <c r="L159" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="M159" s="4">
+        <v>67.45</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="160">
+      <c r="A160" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D160" s="2">
+        <v>25</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F160" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G160" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>28.02</v>
+      </c>
+      <c r="M160" s="4">
+        <v>28.02</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="161">
+      <c r="A161" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" s="2">
+        <v>25</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F161" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G161" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1</v>
+      </c>
+      <c r="L161" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="M161" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="162">
+      <c r="A162" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" s="2">
+        <v>25</v>
+      </c>
+      <c r="E162" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F162" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K162" s="4">
+        <v>2</v>
+      </c>
+      <c r="L162" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="M162" s="4">
+        <v>26.2</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="163">
+      <c r="A163" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" s="2">
+        <v>25</v>
+      </c>
+      <c r="E163" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F163" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G163" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1</v>
+      </c>
+      <c r="L163" s="4">
+        <v>175</v>
+      </c>
+      <c r="M163" s="4">
+        <v>175</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="164">
+      <c r="A164" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D164" s="2">
+        <v>25</v>
+      </c>
+      <c r="E164" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F164" s="2">
+        <v>79909</v>
+      </c>
+      <c r="G164" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" s="4">
+        <v>10</v>
+      </c>
+      <c r="L164" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="M164" s="4">
+        <v>199</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="165">
+      <c r="A165" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D165" s="2">
+        <v>25</v>
+      </c>
+      <c r="E165" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F165" s="2">
+        <v>79909</v>
+      </c>
+      <c r="G165" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K165" s="4">
+        <v>15</v>
+      </c>
+      <c r="L165" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M165" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="166">
+      <c r="A166" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" s="2">
+        <v>25</v>
+      </c>
+      <c r="E166" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F166" s="2">
+        <v>79909</v>
+      </c>
+      <c r="G166" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K166" s="4">
+        <v>15</v>
+      </c>
+      <c r="L166" s="4">
+        <v>3</v>
+      </c>
+      <c r="M166" s="4">
+        <v>45</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="167">
+      <c r="A167" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D167" s="2">
+        <v>25</v>
+      </c>
+      <c r="E167" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F167" s="2">
+        <v>79906</v>
+      </c>
+      <c r="G167" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="4">
+        <v>5</v>
+      </c>
+      <c r="L167" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="M167" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="168">
+      <c r="A168" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" s="2">
+        <v>25</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F168" s="2">
+        <v>79907</v>
+      </c>
+      <c r="G168" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K168" s="4">
+        <v>50</v>
+      </c>
+      <c r="L168" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="M168" s="4">
+        <v>1725</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="169">
+      <c r="A169" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D169" s="2">
+        <v>25</v>
+      </c>
+      <c r="E169" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F169" s="2">
+        <v>79907</v>
+      </c>
+      <c r="G169" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K169" s="4">
+        <v>150</v>
+      </c>
+      <c r="L169" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M169" s="4">
+        <v>525</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="170">
+      <c r="A170" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D170" s="2">
+        <v>25</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F170" s="2">
+        <v>79907</v>
+      </c>
+      <c r="G170" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K170" s="4">
+        <v>15</v>
+      </c>
+      <c r="L170" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="M170" s="4">
+        <v>532.5</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="171">
+      <c r="A171" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D171" s="2">
+        <v>25</v>
+      </c>
+      <c r="E171" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F171" s="2">
+        <v>79908</v>
+      </c>
+      <c r="G171" s="3">
+        <v>45938</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="4">
+        <v>5</v>
+      </c>
+      <c r="L171" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="M171" s="4">
+        <v>424</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="172">
+      <c r="A172" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D172" s="2">
+        <v>25</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45938.6740349306</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K172" s="4">
+        <v>18</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>EMPRD</t>
   </si>
@@ -927,6 +927,450 @@
   </si>
   <si>
     <t>VEDAZ</t>
+  </si>
+  <si>
+    <t>KAENA PARTICIPAÇÕES LTDA - II</t>
+  </si>
+  <si>
+    <t>C.04.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO DE RAFIA  50 L</t>
+  </si>
+  <si>
+    <t>C.04.0140</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIÊNICO ( OBRA ) FARDO C/ 64 RL</t>
+  </si>
+  <si>
+    <t>C.04.0041</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PÊLO ANIMAL 40 CM</t>
+  </si>
+  <si>
+    <t>C.04.0151</t>
+  </si>
+  <si>
+    <t>VEJA MULTIUSO - 500 ML</t>
+  </si>
+  <si>
+    <t>C.04.0037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASSOURA DE PIAÇAVA  42 FUROS GARI  45CM</t>
+  </si>
+  <si>
+    <t>C.04.0137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETERGENTE  5 LTS</t>
+  </si>
+  <si>
+    <t>C.04.0038</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIAÇAVA Nº 3 CHAPA</t>
+  </si>
+  <si>
+    <t>E.01.0022</t>
+  </si>
+  <si>
+    <t>ASPIRADOR DE PÓ TURBO</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>E.01.0069</t>
+  </si>
+  <si>
+    <t>REFIL PARA ASPIRADOR DE PÓ ( SACO )C/3UNID</t>
+  </si>
+  <si>
+    <t>E.04.0500</t>
+  </si>
+  <si>
+    <t>CHAVE PHILLIPS - DIAM: 3/16'' - COMP: 210 MM</t>
+  </si>
+  <si>
+    <t>E.04.0600</t>
+  </si>
+  <si>
+    <t>CARRINHO DE MÃO REFORÇADO PNEU CÂMARA TRAMONTINA</t>
+  </si>
+  <si>
+    <t>E.04.0440</t>
+  </si>
+  <si>
+    <t>ALICATE BOMBA D'ÁGUA - DIAM: 9'' - COMP: 233 MM</t>
+  </si>
+  <si>
+    <t>E.04.0260</t>
+  </si>
+  <si>
+    <t>DESEMPENADEIRA DE PVC - 27 X 14 CM</t>
+  </si>
+  <si>
+    <t>E.04.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA PROFISSIONAL DE AÇO  8 M X 26 MM</t>
+  </si>
+  <si>
+    <t>E.04.0770</t>
+  </si>
+  <si>
+    <t>PÁ DE BICO</t>
+  </si>
+  <si>
+    <t>E.04.0680</t>
+  </si>
+  <si>
+    <t>PÁ QUADRADA C/ CABO - Nº 4</t>
+  </si>
+  <si>
+    <t>E.04.0780</t>
+  </si>
+  <si>
+    <t>LINHA DE NAYLON PARA PEDREIRO 100M</t>
+  </si>
+  <si>
+    <t>E.04.0011</t>
+  </si>
+  <si>
+    <t>TALHADEIRA FORJADA EM AÇO REDONDO - 3/4 X 12''</t>
+  </si>
+  <si>
+    <t>E.04.0002</t>
+  </si>
+  <si>
+    <t>BALDE METÁLICO REFORÇADO - 12 L</t>
+  </si>
+  <si>
+    <t>E.04.0122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUMO METÁLICO PARA PEDREIRO  DE FACE- Nº5 - 900 G</t>
+  </si>
+  <si>
+    <t>E.04.0462</t>
+  </si>
+  <si>
+    <t>CHAVE DE FENDA - DIAM: 1/8'' - COMP: 170 MM</t>
+  </si>
+  <si>
+    <t>E.04.0072</t>
+  </si>
+  <si>
+    <t>MARTELO DE UNHA PROFISSIONAL - 29 MM</t>
+  </si>
+  <si>
+    <t>E.04.0113</t>
+  </si>
+  <si>
+    <t>COLHER DE PEDREIRO - 8''</t>
+  </si>
+  <si>
+    <t>E.04.0433</t>
+  </si>
+  <si>
+    <t>ALICATE UNIVERSAL - DIAM: 8'' - COMP: 210 MM</t>
+  </si>
+  <si>
+    <t>E.04.0504</t>
+  </si>
+  <si>
+    <t>CHAVE PHILLIPS - DIAM: 1/4'' - COMP: 250 MM</t>
+  </si>
+  <si>
+    <t>E.04.0654</t>
+  </si>
+  <si>
+    <t>SERRA MÁRMORE</t>
+  </si>
+  <si>
+    <t>E.04.0164</t>
+  </si>
+  <si>
+    <t>ESQUADRO PROFISSIONAL - 14''</t>
+  </si>
+  <si>
+    <t>E.04.0525</t>
+  </si>
+  <si>
+    <t>ARCO DE SERRA REGULÁVEL - 12''</t>
+  </si>
+  <si>
+    <t>E.04.0135</t>
+  </si>
+  <si>
+    <t>NÍVEL DE ALUMÍNIO - 48''</t>
+  </si>
+  <si>
+    <t>E.04.0095</t>
+  </si>
+  <si>
+    <t>MARRETA OITAVADA - 500 G</t>
+  </si>
+  <si>
+    <t>E.04.0046</t>
+  </si>
+  <si>
+    <t>PONTEIRO FORJADO EM AÇO REDONDO - 10''</t>
+  </si>
+  <si>
+    <t>E.04.0466</t>
+  </si>
+  <si>
+    <t>CHAVE DE FENDA - DIAM: 3/16'' - COMP: 185 MM</t>
+  </si>
+  <si>
+    <t>E.04.0096</t>
+  </si>
+  <si>
+    <t>MARRETA OITAVADA - 1000 G</t>
+  </si>
+  <si>
+    <t>E.04.0129</t>
+  </si>
+  <si>
+    <t>NÍVEL DE ALUMÍNIO - 16''</t>
+  </si>
+  <si>
+    <t>E.04.0469</t>
+  </si>
+  <si>
+    <t>CHAVE DE FENDA - DIAM: 1/4'' - COMP: 200 MM</t>
+  </si>
+  <si>
+    <t>E.04.1750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE  HALLEN</t>
+  </si>
+  <si>
+    <t>F.01.0011</t>
+  </si>
+  <si>
+    <t>ESCADA 6 DEGRAUS</t>
+  </si>
+  <si>
+    <t>J.05.0010</t>
+  </si>
+  <si>
+    <t>CIMENTO CP III SACO DE 50KG</t>
+  </si>
+  <si>
+    <t>C.05.0210</t>
+  </si>
+  <si>
+    <t>CADEIRA PVC</t>
+  </si>
+  <si>
+    <t>E.03.0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
+  </si>
+  <si>
+    <t>E.03.0101</t>
+  </si>
+  <si>
+    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF1</t>
+  </si>
+  <si>
+    <t>E.03.0022</t>
+  </si>
+  <si>
+    <t>LUVA DE NITRILON - GLADIADOR</t>
+  </si>
+  <si>
+    <t>E.03.0132</t>
+  </si>
+  <si>
+    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 16 DECIBÉIS</t>
+  </si>
+  <si>
+    <t>E.03.0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACETE MSA  MODELO  V-GARD  COM CANEIRA CATRACA BRANCO</t>
+  </si>
+  <si>
+    <t>E.03.0125</t>
+  </si>
+  <si>
+    <t>OCULOS DE SEGURANÇA DE SOBREPOR PARA USO COM OCULOS CORRETIVOS.</t>
+  </si>
+  <si>
+    <t>E.03.0047</t>
+  </si>
+  <si>
+    <t>LUVA PVC</t>
+  </si>
+  <si>
+    <t>E.03.0119</t>
+  </si>
+  <si>
+    <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
+  </si>
+  <si>
+    <t>E.04.0635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENXADA COM CABO   2 1/2''</t>
+  </si>
+  <si>
+    <t>E.04.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESQUADRO PROFISSIONAL DE ALUMINIO SOLDADO 1,00  X  1,20M</t>
+  </si>
+  <si>
+    <t>E.04.0777</t>
+  </si>
+  <si>
+    <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
+  </si>
+  <si>
+    <t>G.03.0002</t>
+  </si>
+  <si>
+    <t>CAÇAMBA - UNIDADE</t>
+  </si>
+  <si>
+    <t>K.01.0271</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 3 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>K.01.0025</t>
+  </si>
+  <si>
+    <t>FITA ISOLANTE - 19 MM X 20 M</t>
+  </si>
+  <si>
+    <t>K.01.0266</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 2 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>K.03.0301</t>
+  </si>
+  <si>
+    <t>REGUA DE TOMADA</t>
+  </si>
+  <si>
+    <t>K.01.1480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   10 A 2 P ( MACHO )</t>
+  </si>
+  <si>
+    <t>R.02.0090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLO DE LÃ DE CARNEIRO ANTI RESPINGO   23CM</t>
+  </si>
+  <si>
+    <t>R.02.0071</t>
+  </si>
+  <si>
+    <t>ROLO DE LÃ DE CARNEIRO - 15 CM - COMPLETO</t>
+  </si>
+  <si>
+    <t>W.01.0011</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/CABEÇA 18 X 27</t>
+  </si>
+  <si>
+    <t>W.01.0044</t>
+  </si>
+  <si>
+    <t>PREGO DE AÇO COM CABEÇA 17 X 21</t>
+  </si>
+  <si>
+    <t>W.01.0005</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
+  </si>
+  <si>
+    <t>E.04.0098</t>
+  </si>
+  <si>
+    <t>MARRETA OITAVADA - 2000 G</t>
+  </si>
+  <si>
+    <t>FERNANDO VASCONCELLOS</t>
+  </si>
+  <si>
+    <t>C.04.0136</t>
+  </si>
+  <si>
+    <t>ESPONJA DE LIMPEZA</t>
+  </si>
+  <si>
+    <t>00000000009713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P&amp;G  PEDRO</t>
+  </si>
+  <si>
+    <t>E.02.0052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA DE PAPELÃO   30 X 30  X5.0MM</t>
+  </si>
+  <si>
+    <t>E.02.0025</t>
+  </si>
+  <si>
+    <t>PLÁSTICO BOLHA - 1,30 X 100 M</t>
+  </si>
+  <si>
+    <t>E.05.0002</t>
+  </si>
+  <si>
+    <t>SAPATILHA CIRURGICA ( PANTUFA )</t>
+  </si>
+  <si>
+    <t>1807 PARTICIPAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>D.04.0010</t>
+  </si>
+  <si>
+    <t>PLACA DE OBRA COM LOGO OSBORNE MEDINDO 2,00 X 1,00</t>
+  </si>
+  <si>
+    <t>00000000008050</t>
+  </si>
+  <si>
+    <t>VISUAL ARTES</t>
+  </si>
+  <si>
+    <t>K.02.0999</t>
+  </si>
+  <si>
+    <t>TORNEIRA DE PVC</t>
+  </si>
+  <si>
+    <t>U.02.0556</t>
+  </si>
+  <si>
+    <t>TANQUE SIMPLES RETANGULAR PLÁSTICO</t>
+  </si>
+  <si>
+    <t>U.02.0708</t>
+  </si>
+  <si>
+    <t>SIFÃO PARA TANQUE EM PVC</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1669,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -6796,6 +7240,4121 @@
         <v>304</v>
       </c>
     </row>
+    <row ht="12.75" customHeight="1" r="120">
+      <c r="A120" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F120" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G120" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" s="4">
+        <v>4</v>
+      </c>
+      <c r="L120" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="M120" s="4">
+        <v>54</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="121">
+      <c r="A121" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F121" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G121" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="4">
+        <v>50</v>
+      </c>
+      <c r="L121" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M121" s="4">
+        <v>225</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="122">
+      <c r="A122" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F122" s="2">
+        <v>79979</v>
+      </c>
+      <c r="G122" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" s="4">
+        <v>500</v>
+      </c>
+      <c r="L122" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M122" s="4">
+        <v>1250</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="123">
+      <c r="A123" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F123" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G123" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="4">
+        <v>1</v>
+      </c>
+      <c r="L123" s="4">
+        <v>65</v>
+      </c>
+      <c r="M123" s="4">
+        <v>65</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="124">
+      <c r="A124" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F124" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G124" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="4">
+        <v>2</v>
+      </c>
+      <c r="L124" s="4">
+        <v>61.9</v>
+      </c>
+      <c r="M124" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="125">
+      <c r="A125" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F125" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G125" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" s="4">
+        <v>6</v>
+      </c>
+      <c r="L125" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="M125" s="4">
+        <v>41.94</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="126">
+      <c r="A126" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F126" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G126" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" s="4">
+        <v>2</v>
+      </c>
+      <c r="L126" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="M126" s="4">
+        <v>87</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="127">
+      <c r="A127" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F127" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G127" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1</v>
+      </c>
+      <c r="L127" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="M127" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="128">
+      <c r="A128" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F128" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G128" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" s="4">
+        <v>2</v>
+      </c>
+      <c r="L128" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="M128" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="129">
+      <c r="A129" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F129" s="2">
+        <v>79980</v>
+      </c>
+      <c r="G129" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" s="4">
+        <v>3</v>
+      </c>
+      <c r="L129" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="M129" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="130">
+      <c r="A130" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F130" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G130" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1</v>
+      </c>
+      <c r="L130" s="4">
+        <v>858.92</v>
+      </c>
+      <c r="M130" s="4">
+        <v>858.92</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="131">
+      <c r="A131" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F131" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1</v>
+      </c>
+      <c r="L131" s="4">
+        <v>40</v>
+      </c>
+      <c r="M131" s="4">
+        <v>40</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="132">
+      <c r="A132" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F132" s="2">
+        <v>79979</v>
+      </c>
+      <c r="G132" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1</v>
+      </c>
+      <c r="L132" s="4">
+        <v>305</v>
+      </c>
+      <c r="M132" s="4">
+        <v>305</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="133">
+      <c r="A133" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F133" s="2">
+        <v>79979</v>
+      </c>
+      <c r="G133" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="4">
+        <v>6</v>
+      </c>
+      <c r="L133" s="4">
+        <v>90</v>
+      </c>
+      <c r="M133" s="4">
+        <v>540</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="134">
+      <c r="A134" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F134" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G134" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1</v>
+      </c>
+      <c r="L134" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="M134" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="135">
+      <c r="A135" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F135" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G135" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" s="4">
+        <v>2</v>
+      </c>
+      <c r="L135" s="4">
+        <v>299</v>
+      </c>
+      <c r="M135" s="4">
+        <v>598</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="136">
+      <c r="A136" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F136" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G136" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" s="4">
+        <v>1</v>
+      </c>
+      <c r="L136" s="4">
+        <v>27</v>
+      </c>
+      <c r="M136" s="4">
+        <v>27</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="137">
+      <c r="A137" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F137" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G137" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="4">
+        <v>3</v>
+      </c>
+      <c r="L137" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="M137" s="4">
+        <v>32.7</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="138">
+      <c r="A138" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F138" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G138" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="4">
+        <v>4</v>
+      </c>
+      <c r="L138" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="M138" s="4">
+        <v>131.6</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="139">
+      <c r="A139" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F139" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G139" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="4">
+        <v>2</v>
+      </c>
+      <c r="L139" s="4">
+        <v>42</v>
+      </c>
+      <c r="M139" s="4">
+        <v>84</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="140">
+      <c r="A140" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F140" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G140" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="4">
+        <v>2</v>
+      </c>
+      <c r="L140" s="4">
+        <v>45</v>
+      </c>
+      <c r="M140" s="4">
+        <v>90</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="141">
+      <c r="A141" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F141" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G141" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="4">
+        <v>4</v>
+      </c>
+      <c r="L141" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M141" s="4">
+        <v>22</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="142">
+      <c r="A142" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F142" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G142" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="4">
+        <v>2</v>
+      </c>
+      <c r="L142" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="M142" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="143">
+      <c r="A143" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="2">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F143" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" s="4">
+        <v>5</v>
+      </c>
+      <c r="L143" s="4">
+        <v>22</v>
+      </c>
+      <c r="M143" s="4">
+        <v>110</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="144">
+      <c r="A144" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F144" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G144" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" s="4">
+        <v>3</v>
+      </c>
+      <c r="L144" s="4">
+        <v>50</v>
+      </c>
+      <c r="M144" s="4">
+        <v>150</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="145">
+      <c r="A145" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F145" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G145" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1</v>
+      </c>
+      <c r="L145" s="4">
+        <v>8</v>
+      </c>
+      <c r="M145" s="4">
+        <v>8</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="146">
+      <c r="A146" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F146" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="4">
+        <v>2</v>
+      </c>
+      <c r="L146" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="M146" s="4">
+        <v>51.8</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="147">
+      <c r="A147" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F147" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="4">
+        <v>3</v>
+      </c>
+      <c r="L147" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="M147" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="148">
+      <c r="A148" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F148" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G148" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="4">
+        <v>2</v>
+      </c>
+      <c r="L148" s="4">
+        <v>44</v>
+      </c>
+      <c r="M148" s="4">
+        <v>88</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="149">
+      <c r="A149" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F149" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G149" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1</v>
+      </c>
+      <c r="L149" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="M149" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="150">
+      <c r="A150" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F150" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G150" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1</v>
+      </c>
+      <c r="L150" s="4">
+        <v>3300</v>
+      </c>
+      <c r="M150" s="4">
+        <v>3300</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="151">
+      <c r="A151" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+      <c r="E151" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F151" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G151" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="4">
+        <v>3</v>
+      </c>
+      <c r="L151" s="4">
+        <v>15</v>
+      </c>
+      <c r="M151" s="4">
+        <v>45</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="152">
+      <c r="A152" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F152" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G152" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="4">
+        <v>1</v>
+      </c>
+      <c r="L152" s="4">
+        <v>49</v>
+      </c>
+      <c r="M152" s="4">
+        <v>49</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="153">
+      <c r="A153" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F153" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G153" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="4">
+        <v>1</v>
+      </c>
+      <c r="L153" s="4">
+        <v>63</v>
+      </c>
+      <c r="M153" s="4">
+        <v>63</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="154">
+      <c r="A154" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F154" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G154" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="4">
+        <v>3</v>
+      </c>
+      <c r="L154" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="M154" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="155">
+      <c r="A155" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F155" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G155" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="4">
+        <v>2</v>
+      </c>
+      <c r="L155" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="M155" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="156">
+      <c r="A156" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F156" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G156" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" s="4">
+        <v>10</v>
+      </c>
+      <c r="L156" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="M156" s="4">
+        <v>79</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="157">
+      <c r="A157" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F157" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G157" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1</v>
+      </c>
+      <c r="L157" s="4">
+        <v>7</v>
+      </c>
+      <c r="M157" s="4">
+        <v>7</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="158">
+      <c r="A158" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F158" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G158" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1</v>
+      </c>
+      <c r="L158" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="M158" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="159">
+      <c r="A159" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F159" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G159" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1</v>
+      </c>
+      <c r="L159" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="M159" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="160">
+      <c r="A160" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F160" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G160" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1</v>
+      </c>
+      <c r="L160" s="4">
+        <v>8</v>
+      </c>
+      <c r="M160" s="4">
+        <v>8</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="161">
+      <c r="A161" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F161" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G161" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1</v>
+      </c>
+      <c r="L161" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="M161" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="162">
+      <c r="A162" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F162" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="4">
+        <v>2</v>
+      </c>
+      <c r="L162" s="4">
+        <v>275</v>
+      </c>
+      <c r="M162" s="4">
+        <v>550</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="163">
+      <c r="A163" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+      <c r="E163" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F163" s="2">
+        <v>79979</v>
+      </c>
+      <c r="G163" s="3">
+        <v>45943</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163" s="4">
+        <v>8</v>
+      </c>
+      <c r="L163" s="4">
+        <v>38</v>
+      </c>
+      <c r="M163" s="4">
+        <v>304</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="164">
+      <c r="A164" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+      <c r="E164" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="4">
+        <v>12</v>
+      </c>
+      <c r="L164" s="4">
+        <v>0</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="165">
+      <c r="A165" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="4">
+        <v>12</v>
+      </c>
+      <c r="L165" s="4">
+        <v>0</v>
+      </c>
+      <c r="M165" s="4">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="166">
+      <c r="A166" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+      <c r="E166" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1</v>
+      </c>
+      <c r="L166" s="4">
+        <v>0</v>
+      </c>
+      <c r="M166" s="4">
+        <v>0</v>
+      </c>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="167">
+      <c r="A167" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1</v>
+      </c>
+      <c r="L167" s="4">
+        <v>0</v>
+      </c>
+      <c r="M167" s="4">
+        <v>0</v>
+      </c>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="168">
+      <c r="A168" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K168" s="4">
+        <v>2</v>
+      </c>
+      <c r="L168" s="4">
+        <v>0</v>
+      </c>
+      <c r="M168" s="4">
+        <v>0</v>
+      </c>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="169">
+      <c r="A169" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K169" s="4">
+        <v>12</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="170">
+      <c r="A170" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K170" s="4">
+        <v>30</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="171">
+      <c r="A171" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+      <c r="E171" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K171" s="4">
+        <v>8</v>
+      </c>
+      <c r="L171" s="4">
+        <v>0</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="172">
+      <c r="A172" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K172" s="4">
+        <v>20</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="173">
+      <c r="A173" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+      <c r="E173" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="4">
+        <v>4</v>
+      </c>
+      <c r="L173" s="4">
+        <v>0</v>
+      </c>
+      <c r="M173" s="4">
+        <v>0</v>
+      </c>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="174">
+      <c r="A174" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1</v>
+      </c>
+      <c r="E174" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="4">
+        <v>6</v>
+      </c>
+      <c r="L174" s="4">
+        <v>0</v>
+      </c>
+      <c r="M174" s="4">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="175">
+      <c r="A175" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
+      <c r="E175" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="4">
+        <v>5</v>
+      </c>
+      <c r="L175" s="4">
+        <v>0</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0</v>
+      </c>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="176">
+      <c r="A176" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+      <c r="E176" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K176" s="4">
+        <v>10</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="177">
+      <c r="A177" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+      <c r="E177" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" s="4">
+        <v>12</v>
+      </c>
+      <c r="L177" s="4">
+        <v>0</v>
+      </c>
+      <c r="M177" s="4">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="178">
+      <c r="A178" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K178" s="4">
+        <v>3</v>
+      </c>
+      <c r="L178" s="4">
+        <v>0</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="179">
+      <c r="A179" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="2">
+        <v>1</v>
+      </c>
+      <c r="E179" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1</v>
+      </c>
+      <c r="L179" s="4">
+        <v>0</v>
+      </c>
+      <c r="M179" s="4">
+        <v>0</v>
+      </c>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="180">
+      <c r="A180" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+      <c r="E180" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="4">
+        <v>3</v>
+      </c>
+      <c r="L180" s="4">
+        <v>0</v>
+      </c>
+      <c r="M180" s="4">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="181">
+      <c r="A181" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+      <c r="E181" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="4">
+        <v>40</v>
+      </c>
+      <c r="L181" s="4">
+        <v>0</v>
+      </c>
+      <c r="M181" s="4">
+        <v>0</v>
+      </c>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="182">
+      <c r="A182" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E182" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K182" s="4">
+        <v>100</v>
+      </c>
+      <c r="L182" s="4">
+        <v>0</v>
+      </c>
+      <c r="M182" s="4">
+        <v>0</v>
+      </c>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="183">
+      <c r="A183" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E183" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="4">
+        <v>5</v>
+      </c>
+      <c r="L183" s="4">
+        <v>0</v>
+      </c>
+      <c r="M183" s="4">
+        <v>0</v>
+      </c>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="184">
+      <c r="A184" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
+      <c r="E184" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K184" s="4">
+        <v>100</v>
+      </c>
+      <c r="L184" s="4">
+        <v>0</v>
+      </c>
+      <c r="M184" s="4">
+        <v>0</v>
+      </c>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="185">
+      <c r="A185" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="4">
+        <v>4</v>
+      </c>
+      <c r="L185" s="4">
+        <v>0</v>
+      </c>
+      <c r="M185" s="4">
+        <v>0</v>
+      </c>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="186">
+      <c r="A186" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
+      <c r="E186" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="4">
+        <v>6</v>
+      </c>
+      <c r="L186" s="4">
+        <v>0</v>
+      </c>
+      <c r="M186" s="4">
+        <v>0</v>
+      </c>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="187">
+      <c r="A187" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="2">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187" s="4">
+        <v>60</v>
+      </c>
+      <c r="L187" s="4">
+        <v>0</v>
+      </c>
+      <c r="M187" s="4">
+        <v>0</v>
+      </c>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="188">
+      <c r="A188" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="2">
+        <v>1</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" s="4">
+        <v>5</v>
+      </c>
+      <c r="L188" s="4">
+        <v>0</v>
+      </c>
+      <c r="M188" s="4">
+        <v>0</v>
+      </c>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="189">
+      <c r="A189" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="2">
+        <v>1</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="4">
+        <v>2</v>
+      </c>
+      <c r="L189" s="4">
+        <v>0</v>
+      </c>
+      <c r="M189" s="4">
+        <v>0</v>
+      </c>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="190">
+      <c r="A190" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="2">
+        <v>1</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="4">
+        <v>1</v>
+      </c>
+      <c r="L190" s="4">
+        <v>0</v>
+      </c>
+      <c r="M190" s="4">
+        <v>0</v>
+      </c>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="191">
+      <c r="A191" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+      <c r="E191" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K191" s="4">
+        <v>1</v>
+      </c>
+      <c r="L191" s="4">
+        <v>0</v>
+      </c>
+      <c r="M191" s="4">
+        <v>0</v>
+      </c>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="192">
+      <c r="A192" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="2">
+        <v>1</v>
+      </c>
+      <c r="E192" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K192" s="4">
+        <v>4</v>
+      </c>
+      <c r="L192" s="4">
+        <v>0</v>
+      </c>
+      <c r="M192" s="4">
+        <v>0</v>
+      </c>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="193">
+      <c r="A193" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+      <c r="E193" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K193" s="4">
+        <v>2</v>
+      </c>
+      <c r="L193" s="4">
+        <v>0</v>
+      </c>
+      <c r="M193" s="4">
+        <v>0</v>
+      </c>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="194">
+      <c r="A194" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K194" s="4">
+        <v>5</v>
+      </c>
+      <c r="L194" s="4">
+        <v>0</v>
+      </c>
+      <c r="M194" s="4">
+        <v>0</v>
+      </c>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="195">
+      <c r="A195" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="2">
+        <v>1</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45940.7400723843</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="4">
+        <v>10</v>
+      </c>
+      <c r="L195" s="4">
+        <v>0</v>
+      </c>
+      <c r="M195" s="4">
+        <v>0</v>
+      </c>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="196">
+      <c r="A196" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D196" s="2">
+        <v>26</v>
+      </c>
+      <c r="E196" s="3">
+        <v>45944.4988090856</v>
+      </c>
+      <c r="F196" s="2">
+        <v>79990</v>
+      </c>
+      <c r="G196" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K196" s="4">
+        <v>2</v>
+      </c>
+      <c r="L196" s="4">
+        <v>57.05</v>
+      </c>
+      <c r="M196" s="4">
+        <v>114.1</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="197">
+      <c r="A197" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D197" s="2">
+        <v>26</v>
+      </c>
+      <c r="E197" s="3">
+        <v>45944.4988090856</v>
+      </c>
+      <c r="F197" s="2">
+        <v>79989</v>
+      </c>
+      <c r="G197" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K197" s="4">
+        <v>60</v>
+      </c>
+      <c r="L197" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M197" s="4">
+        <v>210</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="198">
+      <c r="A198" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D198" s="2">
+        <v>26</v>
+      </c>
+      <c r="E198" s="3">
+        <v>45944.4988090856</v>
+      </c>
+      <c r="F198" s="2">
+        <v>79989</v>
+      </c>
+      <c r="G198" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K198" s="4">
+        <v>10</v>
+      </c>
+      <c r="L198" s="4">
+        <v>36.8</v>
+      </c>
+      <c r="M198" s="4">
+        <v>368</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="199">
+      <c r="A199" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D199" s="2">
+        <v>26</v>
+      </c>
+      <c r="E199" s="3">
+        <v>45944.4988090856</v>
+      </c>
+      <c r="F199" s="2">
+        <v>79989</v>
+      </c>
+      <c r="G199" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" s="4">
+        <v>200</v>
+      </c>
+      <c r="L199" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="M199" s="4">
+        <v>270</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="200">
+      <c r="A200" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D200" s="2">
+        <v>26</v>
+      </c>
+      <c r="E200" s="3">
+        <v>45944.4988090856</v>
+      </c>
+      <c r="F200" s="2">
+        <v>79990</v>
+      </c>
+      <c r="G200" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1</v>
+      </c>
+      <c r="L200" s="4">
+        <v>390</v>
+      </c>
+      <c r="M200" s="4">
+        <v>390</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="201">
+      <c r="A201" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="2">
+        <v>36</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F201" s="2">
+        <v>79992</v>
+      </c>
+      <c r="G201" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="4">
+        <v>3</v>
+      </c>
+      <c r="L201" s="4">
+        <v>61.9</v>
+      </c>
+      <c r="M201" s="4">
+        <v>185.7</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="202">
+      <c r="A202" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="2">
+        <v>36</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F202" s="2">
+        <v>79992</v>
+      </c>
+      <c r="G202" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K202" s="4">
+        <v>10</v>
+      </c>
+      <c r="L202" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="M202" s="4">
+        <v>17.9</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="203">
+      <c r="A203" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" s="2">
+        <v>36</v>
+      </c>
+      <c r="E203" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F203" s="2">
+        <v>79994</v>
+      </c>
+      <c r="G203" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1</v>
+      </c>
+      <c r="L203" s="4">
+        <v>305</v>
+      </c>
+      <c r="M203" s="4">
+        <v>305</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="204">
+      <c r="A204" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="2">
+        <v>36</v>
+      </c>
+      <c r="E204" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F204" s="2">
+        <v>79994</v>
+      </c>
+      <c r="G204" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K204" s="4">
+        <v>50</v>
+      </c>
+      <c r="L204" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="M204" s="4">
+        <v>273.5</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="205">
+      <c r="A205" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="2">
+        <v>36</v>
+      </c>
+      <c r="E205" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F205" s="2">
+        <v>79995</v>
+      </c>
+      <c r="G205" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K205" s="4">
+        <v>2</v>
+      </c>
+      <c r="L205" s="4">
+        <v>83</v>
+      </c>
+      <c r="M205" s="4">
+        <v>166</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="206">
+      <c r="A206" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="2">
+        <v>36</v>
+      </c>
+      <c r="E206" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F206" s="2">
+        <v>79993</v>
+      </c>
+      <c r="G206" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K206" s="4">
+        <v>10</v>
+      </c>
+      <c r="L206" s="4">
+        <v>90</v>
+      </c>
+      <c r="M206" s="4">
+        <v>900</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="207">
+      <c r="A207" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" s="2">
+        <v>36</v>
+      </c>
+      <c r="E207" s="3">
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F207" s="2">
+        <v>79991</v>
+      </c>
+      <c r="G207" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K207" s="4">
+        <v>3</v>
+      </c>
+      <c r="L207" s="4">
+        <v>16.666</v>
+      </c>
+      <c r="M207" s="4">
+        <v>49.998</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="208">
+      <c r="A208" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" s="2">
+        <v>6</v>
+      </c>
+      <c r="E208" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F208" s="2">
+        <v>79998</v>
+      </c>
+      <c r="G208" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1</v>
+      </c>
+      <c r="L208" s="4">
+        <v>860</v>
+      </c>
+      <c r="M208" s="4">
+        <v>860</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="209">
+      <c r="A209" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="2">
+        <v>6</v>
+      </c>
+      <c r="E209" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F209" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G209" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="4">
+        <v>2</v>
+      </c>
+      <c r="L209" s="4">
+        <v>90</v>
+      </c>
+      <c r="M209" s="4">
+        <v>180</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="210">
+      <c r="A210" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" s="2">
+        <v>6</v>
+      </c>
+      <c r="E210" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F210" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G210" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="4">
+        <v>1</v>
+      </c>
+      <c r="L210" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="M210" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="211">
+      <c r="A211" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" s="2">
+        <v>6</v>
+      </c>
+      <c r="E211" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F211" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G211" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="4">
+        <v>1</v>
+      </c>
+      <c r="L211" s="4">
+        <v>173.9</v>
+      </c>
+      <c r="M211" s="4">
+        <v>173.9</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="212">
+      <c r="A212" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" s="2">
+        <v>6</v>
+      </c>
+      <c r="E212" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F212" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G212" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="4">
+        <v>1</v>
+      </c>
+      <c r="L212" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="M212" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>
   <pageSetup orientation="portrait" pageOrder="downThenOver" paperSize="9" fitToWidth="0" fitToHeight="0"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
   <si>
     <t>EMPRD</t>
   </si>
@@ -500,6 +500,12 @@
     <t>PRENDEDOR DE PORTA</t>
   </si>
   <si>
+    <t>00000000008969</t>
+  </si>
+  <si>
+    <t>CCR -</t>
+  </si>
+  <si>
     <t>P1.02.0049</t>
   </si>
   <si>
@@ -974,6 +980,18 @@
     <t>VASSOURA DE PIAÇAVA Nº 3 CHAPA</t>
   </si>
   <si>
+    <t>C.05.0210</t>
+  </si>
+  <si>
+    <t>CADEIRA PVC</t>
+  </si>
+  <si>
+    <t>00000000008862</t>
+  </si>
+  <si>
+    <t>GUAIRA REAL</t>
+  </si>
+  <si>
     <t>E.01.0022</t>
   </si>
   <si>
@@ -989,6 +1007,12 @@
     <t>REFIL PARA ASPIRADOR DE PÓ ( SACO )C/3UNID</t>
   </si>
   <si>
+    <t>E.03.0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
+  </si>
+  <si>
     <t>E.04.0500</t>
   </si>
   <si>
@@ -1109,6 +1133,12 @@
     <t>NÍVEL DE ALUMÍNIO - 48''</t>
   </si>
   <si>
+    <t>E.04.0635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENXADA COM CABO   2 1/2''</t>
+  </si>
+  <si>
     <t>E.04.0095</t>
   </si>
   <si>
@@ -1157,22 +1187,52 @@
     <t>ESCADA 6 DEGRAUS</t>
   </si>
   <si>
+    <t>G.03.0002</t>
+  </si>
+  <si>
+    <t>CAÇAMBA - UNIDADE</t>
+  </si>
+  <si>
+    <t>00000000009010</t>
+  </si>
+  <si>
+    <t>CAÇAMBA ARANEGA</t>
+  </si>
+  <si>
     <t>J.05.0010</t>
   </si>
   <si>
     <t>CIMENTO CP III SACO DE 50KG</t>
   </si>
   <si>
-    <t>C.05.0210</t>
-  </si>
-  <si>
-    <t>CADEIRA PVC</t>
-  </si>
-  <si>
-    <t>E.03.0150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
+    <t>00000000008356</t>
+  </si>
+  <si>
+    <t>PALMAPLASTIC</t>
+  </si>
+  <si>
+    <t>R.02.0071</t>
+  </si>
+  <si>
+    <t>ROLO DE LÃ DE CARNEIRO - 15 CM - COMPLETO</t>
+  </si>
+  <si>
+    <t>W.01.0011</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/CABEÇA 18 X 27</t>
+  </si>
+  <si>
+    <t>W.01.0044</t>
+  </si>
+  <si>
+    <t>PREGO DE AÇO COM CABEÇA 17 X 21</t>
+  </si>
+  <si>
+    <t>W.01.0005</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
   </si>
   <si>
     <t>E.03.0101</t>
@@ -1217,12 +1277,6 @@
     <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
   </si>
   <si>
-    <t>E.04.0635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENXADA COM CABO   2 1/2''</t>
-  </si>
-  <si>
     <t>E.04.0167</t>
   </si>
   <si>
@@ -1235,12 +1289,6 @@
     <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
   </si>
   <si>
-    <t>G.03.0002</t>
-  </si>
-  <si>
-    <t>CAÇAMBA - UNIDADE</t>
-  </si>
-  <si>
     <t>K.01.0271</t>
   </si>
   <si>
@@ -1277,30 +1325,6 @@
     <t xml:space="preserve">ROLO DE LÃ DE CARNEIRO ANTI RESPINGO   23CM</t>
   </si>
   <si>
-    <t>R.02.0071</t>
-  </si>
-  <si>
-    <t>ROLO DE LÃ DE CARNEIRO - 15 CM - COMPLETO</t>
-  </si>
-  <si>
-    <t>W.01.0011</t>
-  </si>
-  <si>
-    <t>PREGO COMUM C/CABEÇA 18 X 27</t>
-  </si>
-  <si>
-    <t>W.01.0044</t>
-  </si>
-  <si>
-    <t>PREGO DE AÇO COM CABEÇA 17 X 21</t>
-  </si>
-  <si>
-    <t>W.01.0005</t>
-  </si>
-  <si>
-    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
-  </si>
-  <si>
     <t>E.04.0098</t>
   </si>
   <si>
@@ -1371,6 +1395,102 @@
   </si>
   <si>
     <t>SIFÃO PARA TANQUE EM PVC</t>
+  </si>
+  <si>
+    <t>MARCO FREIRE (ÁREA EXTERNA)</t>
+  </si>
+  <si>
+    <t>N.04.0001</t>
+  </si>
+  <si>
+    <t>CERÂMICA PORTOBELLO</t>
+  </si>
+  <si>
+    <t>00000000001012</t>
+  </si>
+  <si>
+    <t>TELHA NORTE</t>
+  </si>
+  <si>
+    <t>00000000007832</t>
+  </si>
+  <si>
+    <t>KLONEX</t>
+  </si>
+  <si>
+    <t>C.04.0142</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA - FOLHA DUPLA ( ESCRITORIO OBRA )</t>
+  </si>
+  <si>
+    <t>C.04.0023</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 100 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>E.04.0124</t>
+  </si>
+  <si>
+    <t>PRUMO METÁLICO PARA PEDREIRO DE CENTRO - Nº4 - 700 G</t>
+  </si>
+  <si>
+    <t>M.05.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELHA METÁLICA TRAPEZOIDAL COM PINTURA  EM DUAS FACES</t>
+  </si>
+  <si>
+    <t>K.07.0539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÂMPADA  -</t>
+  </si>
+  <si>
+    <t>K.01.1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROLONGADOR PROFISSIONAL PADRÃO BRASILEIRO REFORÇADO  20A  2 P + T  ( FEMEA ) REF 6158 77</t>
+  </si>
+  <si>
+    <t>K.01.1483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   20 A  2 P + T  ( MACHO )</t>
+  </si>
+  <si>
+    <t>SUN MORITZ ADMINISTRADORA</t>
+  </si>
+  <si>
+    <t>C.04.0095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PÁ PARA LIXO  PEQUENA</t>
+  </si>
+  <si>
+    <t>E.04.0410</t>
+  </si>
+  <si>
+    <t>LÂMINAS PARA REPOSIÇÃO DE ESTILETE - 18 MM - CX C/ 10</t>
+  </si>
+  <si>
+    <t>E.04.0173</t>
+  </si>
+  <si>
+    <t>NÍVEL A LASER</t>
+  </si>
+  <si>
+    <t>F.01.0014</t>
+  </si>
+  <si>
+    <t>ESCADA 7 DEGRAUS</t>
+  </si>
+  <si>
+    <t>RAFAEL CONTI FACCHINI</t>
+  </si>
+  <si>
+    <t>E.01.0009</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1789,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:O235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1685,7 +1805,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="86.1428571428571" customWidth="1" style="1"/>
+    <col min="9" max="9" width="94.5714285714286" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="9.57142857142857" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -3904,8 +4024,12 @@
       <c r="E48" s="3">
         <v>45938.480453287</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="2">
+        <v>80012</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45945</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>160</v>
       </c>
@@ -3919,13 +4043,17 @@
         <v>8</v>
       </c>
       <c r="L48" s="4">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="M48" s="4">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>2496</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="49">
       <c r="A49" s="2">
@@ -3943,28 +4071,36 @@
       <c r="E49" s="3">
         <v>45938.480453287</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="2">
+        <v>80012</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45945</v>
+      </c>
       <c r="H49" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+      <c r="L49" s="4">
+        <v>280.28</v>
+      </c>
+      <c r="M49" s="4">
+        <v>280.28</v>
+      </c>
+      <c r="N49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1</v>
-      </c>
-      <c r="L49" s="4">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="50">
       <c r="A50" s="2">
@@ -3985,10 +4121,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -4010,7 +4146,7 @@
         <v>9991</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>54</v>
@@ -4028,10 +4164,10 @@
         <v>45939</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>99</v>
@@ -4057,7 +4193,7 @@
         <v>9991</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>54</v>
@@ -4075,10 +4211,10 @@
         <v>45939</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>19</v>
@@ -4093,10 +4229,10 @@
         <v>150</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="53">
@@ -4104,7 +4240,7 @@
         <v>9991</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
@@ -4122,10 +4258,10 @@
         <v>45939</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>106</v>
@@ -4151,7 +4287,7 @@
         <v>9991</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>54</v>
@@ -4169,10 +4305,10 @@
         <v>45939</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>99</v>
@@ -4198,7 +4334,7 @@
         <v>9991</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>54</v>
@@ -4216,13 +4352,13 @@
         <v>45939</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K55" s="4">
         <v>15</v>
@@ -4245,7 +4381,7 @@
         <v>9991</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>54</v>
@@ -4263,10 +4399,10 @@
         <v>45939</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>106</v>
@@ -4281,10 +4417,10 @@
         <v>1120</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="57">
@@ -4292,7 +4428,7 @@
         <v>2510</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>54</v>
@@ -4310,10 +4446,10 @@
         <v>45939</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>37</v>
@@ -4328,10 +4464,10 @@
         <v>156</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="58">
@@ -4339,7 +4475,7 @@
         <v>2510</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>54</v>
@@ -4375,10 +4511,10 @@
         <v>294.4</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="59">
@@ -4386,7 +4522,7 @@
         <v>2510</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>54</v>
@@ -4404,10 +4540,10 @@
         <v>45939</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>19</v>
@@ -4422,10 +4558,10 @@
         <v>135</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="60">
@@ -4433,7 +4569,7 @@
         <v>2510</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
@@ -4451,10 +4587,10 @@
         <v>45939</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>19</v>
@@ -4469,10 +4605,10 @@
         <v>597</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="61">
@@ -4480,7 +4616,7 @@
         <v>2510</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>54</v>
@@ -4498,10 +4634,10 @@
         <v>45939</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>19</v>
@@ -4516,10 +4652,10 @@
         <v>390</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="62">
@@ -4592,10 +4728,10 @@
         <v>45939</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>19</v>
@@ -4639,10 +4775,10 @@
         <v>45938</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>135</v>
@@ -4686,10 +4822,10 @@
         <v>45938</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>135</v>
@@ -4780,10 +4916,10 @@
         <v>45939</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>135</v>
@@ -4798,10 +4934,10 @@
         <v>7650.1</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="68">
@@ -4827,10 +4963,10 @@
         <v>45939</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>19</v>
@@ -4874,10 +5010,10 @@
         <v>45938</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>19</v>
@@ -4921,10 +5057,10 @@
         <v>45939</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>99</v>
@@ -4968,10 +5104,10 @@
         <v>45939</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>99</v>
@@ -5062,10 +5198,10 @@
         <v>45939</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>19</v>
@@ -5109,13 +5245,13 @@
         <v>45939</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K74" s="4">
         <v>10</v>
@@ -5127,10 +5263,10 @@
         <v>560</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="75">
@@ -5152,10 +5288,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>19</v>
@@ -5177,7 +5313,7 @@
         <v>2504</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>54</v>
@@ -5195,10 +5331,10 @@
         <v>45938</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>19</v>
@@ -5224,7 +5360,7 @@
         <v>2504</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>54</v>
@@ -5271,7 +5407,7 @@
         <v>2504</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>54</v>
@@ -5289,10 +5425,10 @@
         <v>45938</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>19</v>
@@ -5318,7 +5454,7 @@
         <v>2504</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>54</v>
@@ -5336,10 +5472,10 @@
         <v>45938</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>19</v>
@@ -5365,7 +5501,7 @@
         <v>2504</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>54</v>
@@ -5383,10 +5519,10 @@
         <v>45938</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
@@ -5412,7 +5548,7 @@
         <v>2504</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>54</v>
@@ -5430,13 +5566,13 @@
         <v>45938</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K81" s="4">
         <v>2</v>
@@ -5459,7 +5595,7 @@
         <v>2504</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>54</v>
@@ -5477,10 +5613,10 @@
         <v>45938</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>135</v>
@@ -5506,7 +5642,7 @@
         <v>2504</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>54</v>
@@ -5524,13 +5660,13 @@
         <v>45938</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K83" s="4">
         <v>10</v>
@@ -5542,10 +5678,10 @@
         <v>199</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="84">
@@ -5553,7 +5689,7 @@
         <v>2504</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>54</v>
@@ -5571,13 +5707,13 @@
         <v>45938</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K84" s="4">
         <v>15</v>
@@ -5589,10 +5725,10 @@
         <v>58.5</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
@@ -5600,7 +5736,7 @@
         <v>2504</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>54</v>
@@ -5618,10 +5754,10 @@
         <v>45938</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>19</v>
@@ -5636,10 +5772,10 @@
         <v>45</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
@@ -5647,7 +5783,7 @@
         <v>2504</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>54</v>
@@ -5665,10 +5801,10 @@
         <v>45938</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>19</v>
@@ -5694,7 +5830,7 @@
         <v>2504</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>54</v>
@@ -5712,10 +5848,10 @@
         <v>45938</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>37</v>
@@ -5730,10 +5866,10 @@
         <v>1725</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5741,7 +5877,7 @@
         <v>2504</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>54</v>
@@ -5777,10 +5913,10 @@
         <v>525</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="89">
@@ -5788,7 +5924,7 @@
         <v>2504</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>54</v>
@@ -5824,10 +5960,10 @@
         <v>532.5</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="90">
@@ -5835,7 +5971,7 @@
         <v>2504</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>54</v>
@@ -5853,10 +5989,10 @@
         <v>45938</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>19</v>
@@ -5882,7 +6018,7 @@
         <v>2504</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>54</v>
@@ -5900,10 +6036,10 @@
         <v>45939</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>48</v>
@@ -5947,10 +6083,10 @@
         <v>45939</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>19</v>
@@ -5965,10 +6101,10 @@
         <v>49</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="93">
@@ -5994,10 +6130,10 @@
         <v>45939</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>19</v>
@@ -6012,10 +6148,10 @@
         <v>384.65</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="94">
@@ -6041,13 +6177,13 @@
         <v>45939</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K94" s="4">
         <v>1</v>
@@ -6059,10 +6195,10 @@
         <v>59.9</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="95">
@@ -6088,13 +6224,13 @@
         <v>45939</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K95" s="4">
         <v>30</v>
@@ -6106,10 +6242,10 @@
         <v>64.5</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -6135,10 +6271,10 @@
         <v>45939</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -6153,10 +6289,10 @@
         <v>49</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="97">
@@ -6182,10 +6318,10 @@
         <v>45939</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>19</v>
@@ -6200,10 +6336,10 @@
         <v>17</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="98">
@@ -6229,13 +6365,13 @@
         <v>45939</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K98" s="4">
         <v>30</v>
@@ -6247,10 +6383,10 @@
         <v>5100</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="99">
@@ -6276,10 +6412,10 @@
         <v>45939</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>19</v>
@@ -6294,10 +6430,10 @@
         <v>259.9</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -6323,10 +6459,10 @@
         <v>45939</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>48</v>
@@ -6341,10 +6477,10 @@
         <v>13.9</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -6370,10 +6506,10 @@
         <v>45939</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>48</v>
@@ -6388,10 +6524,10 @@
         <v>144</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="102">
@@ -6417,10 +6553,10 @@
         <v>45939</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>48</v>
@@ -6435,10 +6571,10 @@
         <v>1350</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="103">
@@ -6464,10 +6600,10 @@
         <v>45939</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>19</v>
@@ -6482,10 +6618,10 @@
         <v>7.04</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -6511,10 +6647,10 @@
         <v>45939</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>19</v>
@@ -6529,10 +6665,10 @@
         <v>11.02</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
@@ -6558,10 +6694,10 @@
         <v>45939</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>19</v>
@@ -6576,10 +6712,10 @@
         <v>115</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
@@ -6605,10 +6741,10 @@
         <v>45939</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>19</v>
@@ -6652,10 +6788,10 @@
         <v>45940</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>19</v>
@@ -6699,10 +6835,10 @@
         <v>45940</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
@@ -6717,10 +6853,10 @@
         <v>15.3</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
@@ -6764,10 +6900,10 @@
         <v>13.6</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
@@ -6793,10 +6929,10 @@
         <v>45940</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6811,10 +6947,10 @@
         <v>260</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
@@ -6840,10 +6976,10 @@
         <v>45940</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>19</v>
@@ -6887,10 +7023,10 @@
         <v>45940</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>19</v>
@@ -6952,10 +7088,10 @@
         <v>70</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
@@ -6999,10 +7135,10 @@
         <v>184</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
@@ -7075,10 +7211,10 @@
         <v>45940</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>19</v>
@@ -7104,7 +7240,7 @@
         <v>2503</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>16</v>
@@ -7151,7 +7287,7 @@
         <v>2503</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>16</v>
@@ -7169,10 +7305,10 @@
         <v>45940</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>19</v>
@@ -7198,7 +7334,7 @@
         <v>2503</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>16</v>
@@ -7216,10 +7352,10 @@
         <v>45940</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>19</v>
@@ -7234,10 +7370,10 @@
         <v>490</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
@@ -7245,7 +7381,7 @@
         <v>2513</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>16</v>
@@ -7263,10 +7399,10 @@
         <v>45943</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>19</v>
@@ -7292,7 +7428,7 @@
         <v>2513</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
@@ -7339,7 +7475,7 @@
         <v>2513</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>16</v>
@@ -7357,10 +7493,10 @@
         <v>45943</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>19</v>
@@ -7386,7 +7522,7 @@
         <v>2513</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>16</v>
@@ -7404,10 +7540,10 @@
         <v>45943</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>19</v>
@@ -7433,7 +7569,7 @@
         <v>2513</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -7451,10 +7587,10 @@
         <v>45943</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>19</v>
@@ -7480,7 +7616,7 @@
         <v>2513</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>16</v>
@@ -7498,10 +7634,10 @@
         <v>45943</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>19</v>
@@ -7527,7 +7663,7 @@
         <v>2513</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -7545,10 +7681,10 @@
         <v>45943</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>19</v>
@@ -7574,7 +7710,7 @@
         <v>2513</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -7592,10 +7728,10 @@
         <v>45943</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>19</v>
@@ -7604,10 +7740,10 @@
         <v>1</v>
       </c>
       <c r="L127" s="4">
-        <v>42.5</v>
+        <v>16.5</v>
       </c>
       <c r="M127" s="4">
-        <v>42.5</v>
+        <v>16.5</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>131</v>
@@ -7621,7 +7757,7 @@
         <v>2513</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7639,10 +7775,10 @@
         <v>45943</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>19</v>
@@ -7668,7 +7804,7 @@
         <v>2513</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -7686,10 +7822,10 @@
         <v>45943</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>19</v>
@@ -7698,10 +7834,10 @@
         <v>3</v>
       </c>
       <c r="L129" s="4">
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="M129" s="4">
-        <v>58.5</v>
+        <v>70.5</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>131</v>
@@ -7715,7 +7851,7 @@
         <v>2513</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -7727,34 +7863,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F130" s="2">
-        <v>79988</v>
+        <v>80024</v>
       </c>
       <c r="G130" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>322</v>
+        <v>19</v>
       </c>
       <c r="K130" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L130" s="4">
-        <v>858.92</v>
+        <v>52.5</v>
       </c>
       <c r="M130" s="4">
-        <v>858.92</v>
+        <v>630</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="131">
@@ -7762,7 +7898,7 @@
         <v>2513</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
@@ -7780,22 +7916,22 @@
         <v>45944</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" s="4">
-        <v>40</v>
+        <v>858.92</v>
       </c>
       <c r="M131" s="4">
-        <v>40</v>
+        <v>858.92</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>157</v>
@@ -7809,7 +7945,7 @@
         <v>2513</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>16</v>
@@ -7821,34 +7957,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F132" s="2">
-        <v>79979</v>
+        <v>79988</v>
       </c>
       <c r="G132" s="3">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>194</v>
+        <v>330</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="K132" s="4">
         <v>1</v>
       </c>
       <c r="L132" s="4">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="M132" s="4">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="133">
@@ -7856,7 +7992,7 @@
         <v>2513</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>16</v>
@@ -7874,22 +8010,22 @@
         <v>45943</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K133" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L133" s="4">
-        <v>90</v>
+        <v>305</v>
       </c>
       <c r="M133" s="4">
-        <v>540</v>
+        <v>305</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>24</v>
@@ -7903,7 +8039,7 @@
         <v>2513</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>16</v>
@@ -7915,34 +8051,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F134" s="2">
-        <v>79988</v>
+        <v>79979</v>
       </c>
       <c r="G134" s="3">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>326</v>
+        <v>23</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K134" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L134" s="4">
-        <v>7.9</v>
+        <v>90</v>
       </c>
       <c r="M134" s="4">
-        <v>7.9</v>
+        <v>540</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="135">
@@ -7950,7 +8086,7 @@
         <v>2513</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>16</v>
@@ -7962,28 +8098,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F135" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G135" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K135" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135" s="4">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="M135" s="4">
-        <v>598</v>
+        <v>220</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>157</v>
@@ -7997,7 +8133,7 @@
         <v>2513</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -8009,28 +8145,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F136" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G136" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
       </c>
       <c r="L136" s="4">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="M136" s="4">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>157</v>
@@ -8044,7 +8180,7 @@
         <v>2513</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>16</v>
@@ -8056,10 +8192,10 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F137" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G137" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>331</v>
@@ -8068,16 +8204,16 @@
         <v>332</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K137" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L137" s="4">
-        <v>10.9</v>
+        <v>220</v>
       </c>
       <c r="M137" s="4">
-        <v>32.7</v>
+        <v>440</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>157</v>
@@ -8091,7 +8227,7 @@
         <v>2513</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>16</v>
@@ -8118,13 +8254,13 @@
         <v>19</v>
       </c>
       <c r="K138" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L138" s="4">
-        <v>32.9</v>
+        <v>7.9</v>
       </c>
       <c r="M138" s="4">
-        <v>131.6</v>
+        <v>7.9</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>157</v>
@@ -8138,7 +8274,7 @@
         <v>2513</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>16</v>
@@ -8168,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="L139" s="4">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="M139" s="4">
-        <v>84</v>
+        <v>598</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>157</v>
@@ -8185,7 +8321,7 @@
         <v>2513</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
@@ -8212,13 +8348,13 @@
         <v>19</v>
       </c>
       <c r="K140" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L140" s="4">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M140" s="4">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>157</v>
@@ -8232,7 +8368,7 @@
         <v>2513</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>16</v>
@@ -8259,13 +8395,13 @@
         <v>19</v>
       </c>
       <c r="K141" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L141" s="4">
-        <v>5.5</v>
+        <v>10.9</v>
       </c>
       <c r="M141" s="4">
-        <v>22</v>
+        <v>32.7</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>157</v>
@@ -8279,7 +8415,7 @@
         <v>2513</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -8306,13 +8442,13 @@
         <v>19</v>
       </c>
       <c r="K142" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L142" s="4">
-        <v>12.9</v>
+        <v>32.9</v>
       </c>
       <c r="M142" s="4">
-        <v>25.8</v>
+        <v>131.6</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>157</v>
@@ -8326,7 +8462,7 @@
         <v>2513</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>16</v>
@@ -8353,13 +8489,13 @@
         <v>19</v>
       </c>
       <c r="K143" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L143" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M143" s="4">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>157</v>
@@ -8373,7 +8509,7 @@
         <v>2513</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>16</v>
@@ -8400,13 +8536,13 @@
         <v>19</v>
       </c>
       <c r="K144" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L144" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M144" s="4">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>157</v>
@@ -8420,7 +8556,7 @@
         <v>2513</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>16</v>
@@ -8447,13 +8583,13 @@
         <v>19</v>
       </c>
       <c r="K145" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L145" s="4">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M145" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>157</v>
@@ -8467,7 +8603,7 @@
         <v>2513</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -8497,10 +8633,10 @@
         <v>2</v>
       </c>
       <c r="L146" s="4">
-        <v>25.9</v>
+        <v>12.9</v>
       </c>
       <c r="M146" s="4">
-        <v>51.8</v>
+        <v>25.8</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>157</v>
@@ -8514,7 +8650,7 @@
         <v>2513</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>16</v>
@@ -8541,13 +8677,13 @@
         <v>19</v>
       </c>
       <c r="K147" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L147" s="4">
-        <v>15.9</v>
+        <v>22</v>
       </c>
       <c r="M147" s="4">
-        <v>47.7</v>
+        <v>110</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>157</v>
@@ -8561,7 +8697,7 @@
         <v>2513</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -8588,13 +8724,13 @@
         <v>19</v>
       </c>
       <c r="K148" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L148" s="4">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M148" s="4">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>157</v>
@@ -8608,7 +8744,7 @@
         <v>2513</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
@@ -8638,10 +8774,10 @@
         <v>1</v>
       </c>
       <c r="L149" s="4">
-        <v>10.9</v>
+        <v>8</v>
       </c>
       <c r="M149" s="4">
-        <v>10.9</v>
+        <v>8</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>157</v>
@@ -8655,7 +8791,7 @@
         <v>2513</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -8682,13 +8818,13 @@
         <v>19</v>
       </c>
       <c r="K150" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" s="4">
-        <v>3300</v>
+        <v>25.9</v>
       </c>
       <c r="M150" s="4">
-        <v>3300</v>
+        <v>51.8</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>157</v>
@@ -8702,7 +8838,7 @@
         <v>2513</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -8732,10 +8868,10 @@
         <v>3</v>
       </c>
       <c r="L151" s="4">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="M151" s="4">
-        <v>45</v>
+        <v>47.7</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>157</v>
@@ -8749,7 +8885,7 @@
         <v>2513</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>16</v>
@@ -8776,13 +8912,13 @@
         <v>19</v>
       </c>
       <c r="K152" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L152" s="4">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M152" s="4">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>157</v>
@@ -8796,7 +8932,7 @@
         <v>2513</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>16</v>
@@ -8826,10 +8962,10 @@
         <v>1</v>
       </c>
       <c r="L153" s="4">
-        <v>63</v>
+        <v>10.9</v>
       </c>
       <c r="M153" s="4">
-        <v>63</v>
+        <v>10.9</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>157</v>
@@ -8843,7 +8979,7 @@
         <v>2513</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>16</v>
@@ -8870,13 +9006,13 @@
         <v>19</v>
       </c>
       <c r="K154" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L154" s="4">
-        <v>15.9</v>
+        <v>3300</v>
       </c>
       <c r="M154" s="4">
-        <v>47.7</v>
+        <v>3300</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>157</v>
@@ -8890,7 +9026,7 @@
         <v>2513</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>16</v>
@@ -8917,13 +9053,13 @@
         <v>19</v>
       </c>
       <c r="K155" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L155" s="4">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="M155" s="4">
-        <v>25.8</v>
+        <v>45</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>157</v>
@@ -8937,7 +9073,7 @@
         <v>2513</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>16</v>
@@ -8955,22 +9091,22 @@
         <v>45944</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K156" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L156" s="4">
-        <v>7.9</v>
+        <v>49</v>
       </c>
       <c r="M156" s="4">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>157</v>
@@ -8984,7 +9120,7 @@
         <v>2513</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>16</v>
@@ -9002,10 +9138,10 @@
         <v>45944</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>19</v>
@@ -9014,10 +9150,10 @@
         <v>1</v>
       </c>
       <c r="L157" s="4">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="M157" s="4">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>157</v>
@@ -9031,7 +9167,7 @@
         <v>2513</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>16</v>
@@ -9043,28 +9179,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F158" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G158" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K158" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L158" s="4">
-        <v>25.9</v>
+        <v>45.95</v>
       </c>
       <c r="M158" s="4">
-        <v>25.9</v>
+        <v>137.85</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>157</v>
@@ -9078,7 +9214,7 @@
         <v>2513</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>16</v>
@@ -9096,22 +9232,22 @@
         <v>45944</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K159" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L159" s="4">
-        <v>19.9</v>
+        <v>15.9</v>
       </c>
       <c r="M159" s="4">
-        <v>19.9</v>
+        <v>47.7</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>157</v>
@@ -9125,7 +9261,7 @@
         <v>2513</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>16</v>
@@ -9143,22 +9279,22 @@
         <v>45944</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K160" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L160" s="4">
-        <v>8</v>
+        <v>12.9</v>
       </c>
       <c r="M160" s="4">
-        <v>8</v>
+        <v>25.8</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>157</v>
@@ -9172,7 +9308,7 @@
         <v>2513</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>16</v>
@@ -9190,22 +9326,22 @@
         <v>45944</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>378</v>
+        <v>295</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K161" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L161" s="4">
-        <v>52.9</v>
+        <v>7.9</v>
       </c>
       <c r="M161" s="4">
-        <v>52.9</v>
+        <v>79</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>157</v>
@@ -9219,7 +9355,7 @@
         <v>2513</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>16</v>
@@ -9246,13 +9382,13 @@
         <v>19</v>
       </c>
       <c r="K162" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L162" s="4">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="M162" s="4">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>157</v>
@@ -9266,7 +9402,7 @@
         <v>2513</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>16</v>
@@ -9278,10 +9414,10 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F163" s="2">
-        <v>79979</v>
+        <v>79988</v>
       </c>
       <c r="G163" s="3">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>381</v>
@@ -9290,22 +9426,22 @@
         <v>382</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K163" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L163" s="4">
-        <v>38</v>
+        <v>25.9</v>
       </c>
       <c r="M163" s="4">
-        <v>304</v>
+        <v>25.9</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="164">
@@ -9313,7 +9449,7 @@
         <v>2513</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>16</v>
@@ -9324,8 +9460,12 @@
       <c r="E164" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
+      <c r="F164" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G164" s="3">
+        <v>45944</v>
+      </c>
       <c r="H164" s="1" t="s">
         <v>383</v>
       </c>
@@ -9336,23 +9476,27 @@
         <v>19</v>
       </c>
       <c r="K164" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L164" s="4">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="M164" s="4">
-        <v>0</v>
-      </c>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
+        <v>19.9</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
       <c r="A165" s="2">
         <v>2513</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>16</v>
@@ -9363,35 +9507,43 @@
       <c r="E165" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
+      <c r="F165" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G165" s="3">
+        <v>45944</v>
+      </c>
       <c r="H165" s="1" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K165" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L165" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M165" s="4">
-        <v>0</v>
-      </c>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
       <c r="A166" s="2">
         <v>2513</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>16</v>
@@ -9402,35 +9554,43 @@
       <c r="E166" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
+      <c r="F166" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G166" s="3">
+        <v>45944</v>
+      </c>
       <c r="H166" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="K166" s="4">
         <v>1</v>
       </c>
       <c r="L166" s="4">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="M166" s="4">
-        <v>0</v>
-      </c>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
+        <v>52.9</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="167">
       <c r="A167" s="2">
         <v>2513</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>16</v>
@@ -9441,35 +9601,43 @@
       <c r="E167" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
+      <c r="F167" s="2">
+        <v>79988</v>
+      </c>
+      <c r="G167" s="3">
+        <v>45944</v>
+      </c>
       <c r="H167" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="K167" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L167" s="4">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="M167" s="4">
-        <v>0</v>
-      </c>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
       <c r="A168" s="2">
         <v>2513</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>16</v>
@@ -9480,35 +9648,43 @@
       <c r="E168" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
+      <c r="F168" s="2">
+        <v>80019</v>
+      </c>
+      <c r="G168" s="3">
+        <v>45946</v>
+      </c>
       <c r="H168" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="K168" s="4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L168" s="4">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M168" s="4">
-        <v>0</v>
-      </c>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
+        <v>15600</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="169">
       <c r="A169" s="2">
         <v>2513</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>16</v>
@@ -9519,35 +9695,43 @@
       <c r="E169" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="F169" s="2">
+        <v>79979</v>
+      </c>
+      <c r="G169" s="3">
+        <v>45943</v>
+      </c>
       <c r="H169" s="1" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="K169" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L169" s="4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M169" s="4">
-        <v>0</v>
-      </c>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="170">
       <c r="A170" s="2">
         <v>2513</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>16</v>
@@ -9558,35 +9742,43 @@
       <c r="E170" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="F170" s="2">
+        <v>80020</v>
+      </c>
+      <c r="G170" s="3">
+        <v>45946</v>
+      </c>
       <c r="H170" s="1" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="K170" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L170" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M170" s="4">
-        <v>0</v>
-      </c>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
+        <v>960</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
       <c r="A171" s="2">
         <v>2513</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>16</v>
@@ -9597,35 +9789,43 @@
       <c r="E171" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+      <c r="F171" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G171" s="3">
+        <v>45946</v>
+      </c>
       <c r="H171" s="1" t="s">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>390</v>
+        <v>279</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="K171" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L171" s="4">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M171" s="4">
-        <v>0</v>
-      </c>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="172">
       <c r="A172" s="2">
         <v>2513</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>16</v>
@@ -9636,35 +9836,43 @@
       <c r="E172" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="F172" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G172" s="3">
+        <v>45946</v>
+      </c>
       <c r="H172" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K172" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L172" s="4">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="M172" s="4">
-        <v>0</v>
-      </c>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
+        <v>29.82</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="173">
       <c r="A173" s="2">
         <v>2513</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>16</v>
@@ -9675,35 +9883,43 @@
       <c r="E173" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="F173" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G173" s="3">
+        <v>45946</v>
+      </c>
       <c r="H173" s="1" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="K173" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L173" s="4">
-        <v>0</v>
+        <v>669.9</v>
       </c>
       <c r="M173" s="4">
-        <v>0</v>
-      </c>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
+        <v>669.9</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
       <c r="A174" s="2">
         <v>2513</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>16</v>
@@ -9714,35 +9930,43 @@
       <c r="E174" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="F174" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G174" s="3">
+        <v>45946</v>
+      </c>
       <c r="H174" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K174" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L174" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M174" s="4">
-        <v>0</v>
-      </c>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
       <c r="A175" s="2">
         <v>2513</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>16</v>
@@ -9753,35 +9977,43 @@
       <c r="E175" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="F175" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G175" s="3">
+        <v>45946</v>
+      </c>
       <c r="H175" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K175" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L175" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M175" s="4">
-        <v>0</v>
-      </c>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
       <c r="A176" s="2">
         <v>2513</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>16</v>
@@ -9792,35 +10024,43 @@
       <c r="E176" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="F176" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G176" s="3">
+        <v>45946</v>
+      </c>
       <c r="H176" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="K176" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L176" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M176" s="4">
-        <v>0</v>
-      </c>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="177">
       <c r="A177" s="2">
         <v>2513</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>16</v>
@@ -9834,10 +10074,10 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>399</v>
+        <v>288</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>400</v>
+        <v>289</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>19</v>
@@ -9859,7 +10099,7 @@
         <v>2513</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>16</v>
@@ -9873,16 +10113,16 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K178" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L178" s="4">
         <v>0</v>
@@ -9898,7 +10138,7 @@
         <v>2513</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>16</v>
@@ -9912,16 +10152,16 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K179" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L179" s="4">
         <v>0</v>
@@ -9937,7 +10177,7 @@
         <v>2513</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>16</v>
@@ -9951,16 +10191,16 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K180" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L180" s="4">
         <v>0</v>
@@ -9976,7 +10216,7 @@
         <v>2513</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>16</v>
@@ -9990,16 +10230,16 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K181" s="4">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L181" s="4">
         <v>0</v>
@@ -10015,7 +10255,7 @@
         <v>2513</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>16</v>
@@ -10029,16 +10269,16 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K182" s="4">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L182" s="4">
         <v>0</v>
@@ -10054,7 +10294,7 @@
         <v>2513</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>16</v>
@@ -10068,16 +10308,16 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K183" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L183" s="4">
         <v>0</v>
@@ -10093,7 +10333,7 @@
         <v>2513</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>16</v>
@@ -10107,16 +10347,16 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K184" s="4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L184" s="4">
         <v>0</v>
@@ -10132,7 +10372,7 @@
         <v>2513</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>16</v>
@@ -10146,16 +10386,16 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K185" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L185" s="4">
         <v>0</v>
@@ -10171,7 +10411,7 @@
         <v>2513</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>16</v>
@@ -10185,16 +10425,16 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K186" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L186" s="4">
         <v>0</v>
@@ -10210,7 +10450,7 @@
         <v>2513</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>16</v>
@@ -10224,16 +10464,16 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>103</v>
+        <v>422</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K187" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L187" s="4">
         <v>0</v>
@@ -10249,7 +10489,7 @@
         <v>2513</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>16</v>
@@ -10263,16 +10503,16 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>276</v>
+        <v>423</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K188" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L188" s="4">
         <v>0</v>
@@ -10288,7 +10528,7 @@
         <v>2513</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>16</v>
@@ -10302,16 +10542,16 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K189" s="4">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L189" s="4">
         <v>0</v>
@@ -10327,7 +10567,7 @@
         <v>2513</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>16</v>
@@ -10341,16 +10581,16 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K190" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L190" s="4">
         <v>0</v>
@@ -10366,7 +10606,7 @@
         <v>2513</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>16</v>
@@ -10380,16 +10620,16 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>107</v>
+        <v>429</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>108</v>
+        <v>430</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="K191" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L191" s="4">
         <v>0</v>
@@ -10405,7 +10645,7 @@
         <v>2513</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
@@ -10419,13 +10659,13 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K192" s="4">
         <v>4</v>
@@ -10444,7 +10684,7 @@
         <v>2513</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>16</v>
@@ -10458,16 +10698,16 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K193" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L193" s="4">
         <v>0</v>
@@ -10483,7 +10723,7 @@
         <v>2513</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>16</v>
@@ -10497,16 +10737,16 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K194" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L194" s="4">
         <v>0</v>
@@ -10522,7 +10762,7 @@
         <v>2513</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>16</v>
@@ -10536,10 +10776,10 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>19</v>
@@ -10561,7 +10801,7 @@
         <v>2504</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>54</v>
@@ -10579,10 +10819,10 @@
         <v>45944</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>19</v>
@@ -10597,10 +10837,10 @@
         <v>114.1</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="197">
@@ -10608,7 +10848,7 @@
         <v>2504</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>54</v>
@@ -10644,10 +10884,10 @@
         <v>210</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="198">
@@ -10655,7 +10895,7 @@
         <v>2504</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>54</v>
@@ -10691,10 +10931,10 @@
         <v>368</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="199">
@@ -10702,7 +10942,7 @@
         <v>2504</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>54</v>
@@ -10720,10 +10960,10 @@
         <v>45944</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>19</v>
@@ -10738,10 +10978,10 @@
         <v>270</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="200">
@@ -10749,7 +10989,7 @@
         <v>2504</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>54</v>
@@ -10767,10 +11007,10 @@
         <v>45944</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>19</v>
@@ -10785,10 +11025,10 @@
         <v>390</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="201">
@@ -10796,7 +11036,7 @@
         <v>2413</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>16</v>
@@ -10814,10 +11054,10 @@
         <v>45944</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>19</v>
@@ -10843,7 +11083,7 @@
         <v>2413</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>16</v>
@@ -10861,10 +11101,10 @@
         <v>45944</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>19</v>
@@ -10890,7 +11130,7 @@
         <v>2413</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>16</v>
@@ -10908,10 +11148,10 @@
         <v>45944</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>135</v>
@@ -10926,10 +11166,10 @@
         <v>305</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="204">
@@ -10937,7 +11177,7 @@
         <v>2413</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>16</v>
@@ -10955,10 +11195,10 @@
         <v>45944</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>19</v>
@@ -10973,10 +11213,10 @@
         <v>273.5</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="205">
@@ -10984,7 +11224,7 @@
         <v>2413</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>16</v>
@@ -11002,10 +11242,10 @@
         <v>45944</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>135</v>
@@ -11031,7 +11271,7 @@
         <v>2413</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>16</v>
@@ -11078,7 +11318,7 @@
         <v>2413</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>16</v>
@@ -11096,10 +11336,10 @@
         <v>45944</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>19</v>
@@ -11125,7 +11365,7 @@
         <v>2511</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>16</v>
@@ -11143,10 +11383,10 @@
         <v>45944</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>19</v>
@@ -11161,10 +11401,10 @@
         <v>860</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="209">
@@ -11172,7 +11412,7 @@
         <v>2511</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>16</v>
@@ -11219,7 +11459,7 @@
         <v>2511</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>16</v>
@@ -11237,10 +11477,10 @@
         <v>45944</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>19</v>
@@ -11266,7 +11506,7 @@
         <v>2511</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>16</v>
@@ -11284,10 +11524,10 @@
         <v>45944</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>19</v>
@@ -11313,7 +11553,7 @@
         <v>2511</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>16</v>
@@ -11331,10 +11571,10 @@
         <v>45944</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>19</v>
@@ -11354,6 +11594,1031 @@
       <c r="O212" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="213">
+      <c r="A213" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E213" s="3">
+        <v>45945.4349250579</v>
+      </c>
+      <c r="F213" s="2">
+        <v>80016</v>
+      </c>
+      <c r="G213" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K213" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="L213" s="4">
+        <v>139.9</v>
+      </c>
+      <c r="M213" s="4">
+        <v>9443.25</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="214">
+      <c r="A214" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214" s="2">
+        <v>19</v>
+      </c>
+      <c r="E214" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F214" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G214" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1</v>
+      </c>
+      <c r="L214" s="4">
+        <v>65</v>
+      </c>
+      <c r="M214" s="4">
+        <v>65</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="215">
+      <c r="A215" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215" s="2">
+        <v>19</v>
+      </c>
+      <c r="E215" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F215" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G215" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1</v>
+      </c>
+      <c r="L215" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="M215" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="216">
+      <c r="A216" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" s="2">
+        <v>19</v>
+      </c>
+      <c r="E216" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F216" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G216" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K216" s="4">
+        <v>3</v>
+      </c>
+      <c r="L216" s="4">
+        <v>39.46</v>
+      </c>
+      <c r="M216" s="4">
+        <v>118.38</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="217">
+      <c r="A217" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217" s="2">
+        <v>19</v>
+      </c>
+      <c r="E217" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F217" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G217" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1</v>
+      </c>
+      <c r="L217" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="M217" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="218">
+      <c r="A218" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="2">
+        <v>19</v>
+      </c>
+      <c r="E218" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F218" s="2">
+        <v>80025</v>
+      </c>
+      <c r="G218" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K218" s="4">
+        <v>5</v>
+      </c>
+      <c r="L218" s="4">
+        <v>38.8</v>
+      </c>
+      <c r="M218" s="4">
+        <v>194</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="219">
+      <c r="A219" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D219" s="2">
+        <v>19</v>
+      </c>
+      <c r="E219" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F219" s="2">
+        <v>80025</v>
+      </c>
+      <c r="G219" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K219" s="4">
+        <v>9</v>
+      </c>
+      <c r="L219" s="4">
+        <v>180</v>
+      </c>
+      <c r="M219" s="4">
+        <v>1620</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="220">
+      <c r="A220" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D220" s="2">
+        <v>19</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="4">
+        <v>4</v>
+      </c>
+      <c r="L220" s="4">
+        <v>0</v>
+      </c>
+      <c r="M220" s="4">
+        <v>0</v>
+      </c>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="221">
+      <c r="A221" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D221" s="2">
+        <v>19</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="4">
+        <v>6</v>
+      </c>
+      <c r="L221" s="4">
+        <v>0</v>
+      </c>
+      <c r="M221" s="4">
+        <v>0</v>
+      </c>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="222">
+      <c r="A222" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D222" s="2">
+        <v>19</v>
+      </c>
+      <c r="E222" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K222" s="4">
+        <v>4</v>
+      </c>
+      <c r="L222" s="4">
+        <v>0</v>
+      </c>
+      <c r="M222" s="4">
+        <v>0</v>
+      </c>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="223">
+      <c r="A223" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="2">
+        <v>73</v>
+      </c>
+      <c r="E223" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F223" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G223" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K223" s="4">
+        <v>3</v>
+      </c>
+      <c r="L223" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="M223" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="224">
+      <c r="A224" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="2">
+        <v>73</v>
+      </c>
+      <c r="E224" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F224" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G224" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="4">
+        <v>6</v>
+      </c>
+      <c r="L224" s="4">
+        <v>16.9</v>
+      </c>
+      <c r="M224" s="4">
+        <v>101.4</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="225">
+      <c r="A225" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="2">
+        <v>73</v>
+      </c>
+      <c r="E225" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F225" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G225" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K225" s="4">
+        <v>1</v>
+      </c>
+      <c r="L225" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="M225" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="226">
+      <c r="A226" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" s="2">
+        <v>73</v>
+      </c>
+      <c r="E226" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F226" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G226" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="4">
+        <v>4</v>
+      </c>
+      <c r="L226" s="4">
+        <v>10</v>
+      </c>
+      <c r="M226" s="4">
+        <v>40</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="227">
+      <c r="A227" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="2">
+        <v>73</v>
+      </c>
+      <c r="E227" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F227" s="2">
+        <v>80017</v>
+      </c>
+      <c r="G227" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K227" s="4">
+        <v>7</v>
+      </c>
+      <c r="L227" s="4">
+        <v>90</v>
+      </c>
+      <c r="M227" s="4">
+        <v>630</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="228">
+      <c r="A228" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="2">
+        <v>73</v>
+      </c>
+      <c r="E228" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F228" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G228" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K228" s="4">
+        <v>3</v>
+      </c>
+      <c r="L228" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="M228" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="229">
+      <c r="A229" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="2">
+        <v>73</v>
+      </c>
+      <c r="E229" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F229" s="2">
+        <v>80030</v>
+      </c>
+      <c r="G229" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K229" s="4">
+        <v>1</v>
+      </c>
+      <c r="L229" s="4">
+        <v>1207.85</v>
+      </c>
+      <c r="M229" s="4">
+        <v>1207.85</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="230">
+      <c r="A230" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="2">
+        <v>73</v>
+      </c>
+      <c r="E230" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F230" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G230" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="4">
+        <v>2</v>
+      </c>
+      <c r="L230" s="4">
+        <v>504.9</v>
+      </c>
+      <c r="M230" s="4">
+        <v>1009.8</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="231">
+      <c r="A231" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="2">
+        <v>73</v>
+      </c>
+      <c r="E231" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F231" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G231" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1</v>
+      </c>
+      <c r="L231" s="4">
+        <v>669.9</v>
+      </c>
+      <c r="M231" s="4">
+        <v>669.9</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="232">
+      <c r="A232" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D232" s="2">
+        <v>13</v>
+      </c>
+      <c r="E232" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K232" s="4">
+        <v>4</v>
+      </c>
+      <c r="L232" s="4">
+        <v>0</v>
+      </c>
+      <c r="M232" s="4">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="233">
+      <c r="A233" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D233" s="2">
+        <v>13</v>
+      </c>
+      <c r="E233" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K233" s="4">
+        <v>100</v>
+      </c>
+      <c r="L233" s="4">
+        <v>0</v>
+      </c>
+      <c r="M233" s="4">
+        <v>0</v>
+      </c>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="234">
+      <c r="A234" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D234" s="2">
+        <v>13</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="4">
+        <v>250</v>
+      </c>
+      <c r="L234" s="4">
+        <v>0</v>
+      </c>
+      <c r="M234" s="4">
+        <v>0</v>
+      </c>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="235">
+      <c r="A235" s="2">
+        <v>2306</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="2">
+        <v>29</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45946.4975969444</v>
+      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="4">
+        <v>1</v>
+      </c>
+      <c r="L235" s="4">
+        <v>0</v>
+      </c>
+      <c r="M235" s="4">
+        <v>0</v>
+      </c>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="599">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1163,6 +1163,18 @@
     <t>MARRETA OITAVADA - 1000 G</t>
   </si>
   <si>
+    <t>E.04.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESQUADRO PROFISSIONAL DE ALUMINIO SOLDADO 1,00  X  1,20M</t>
+  </si>
+  <si>
+    <t>E.04.0777</t>
+  </si>
+  <si>
+    <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
+  </si>
+  <si>
     <t>E.04.0129</t>
   </si>
   <si>
@@ -1205,6 +1217,36 @@
     <t>CIMENTO CP III SACO DE 50KG</t>
   </si>
   <si>
+    <t>K.01.0271</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 3 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>00000000009700</t>
+  </si>
+  <si>
+    <t>RDW</t>
+  </si>
+  <si>
+    <t>K.01.0025</t>
+  </si>
+  <si>
+    <t>FITA ISOLANTE - 19 MM X 20 M</t>
+  </si>
+  <si>
+    <t>K.01.0266</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 2 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>K.01.1480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   10 A 2 P ( MACHO )</t>
+  </si>
+  <si>
     <t>00000000008356</t>
   </si>
   <si>
@@ -1277,54 +1319,87 @@
     <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
   </si>
   <si>
-    <t>E.04.0167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESQUADRO PROFISSIONAL DE ALUMINIO SOLDADO 1,00  X  1,20M</t>
-  </si>
-  <si>
-    <t>E.04.0777</t>
-  </si>
-  <si>
-    <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
-  </si>
-  <si>
-    <t>K.01.0271</t>
-  </si>
-  <si>
-    <t>CABO FLEXÍVEL PP - 750 V - 3 X 2,5 MM²</t>
-  </si>
-  <si>
-    <t>K.01.0025</t>
-  </si>
-  <si>
-    <t>FITA ISOLANTE - 19 MM X 20 M</t>
-  </si>
-  <si>
-    <t>K.01.0266</t>
-  </si>
-  <si>
-    <t>CABO FLEXÍVEL PP - 750 V - 2 X 2,5 MM²</t>
-  </si>
-  <si>
     <t>K.03.0301</t>
   </si>
   <si>
     <t>REGUA DE TOMADA</t>
   </si>
   <si>
-    <t>K.01.1480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   10 A 2 P ( MACHO )</t>
-  </si>
-  <si>
     <t>R.02.0090</t>
   </si>
   <si>
     <t xml:space="preserve">ROLO DE LÃ DE CARNEIRO ANTI RESPINGO   23CM</t>
   </si>
   <si>
+    <t>ROBERTO KLABIN MARTINS XAVIER</t>
+  </si>
+  <si>
+    <t>C.02.0001</t>
+  </si>
+  <si>
+    <t>SACO DE RAFIA</t>
+  </si>
+  <si>
+    <t>E.02.0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILME DE POLIETILENO  ADESIVADO SEM COLA REMOVIVEL  PROTEÇÃO DE CAIXILHO  PROCAIXILHO 200MM/100M =20M² PROMAFLEX</t>
+  </si>
+  <si>
+    <t>E.04.0606</t>
+  </si>
+  <si>
+    <t>BOMBA PARA ENCHER PNEU DE CARRINHO DE MAO</t>
+  </si>
+  <si>
+    <t>K.01.1481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   10 A  2 P + T  ( MACHO )</t>
+  </si>
+  <si>
+    <t>L.01.0030</t>
+  </si>
+  <si>
+    <t>TIJOLO MACIÇO</t>
+  </si>
+  <si>
+    <t>M.09.0001</t>
+  </si>
+  <si>
+    <t>ARAME GALVANIZADO NØ 12</t>
+  </si>
+  <si>
+    <t>O.01.0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE  3 X 3"</t>
+  </si>
+  <si>
+    <t>O.01.0102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 6"</t>
+  </si>
+  <si>
+    <t>W.02.0001</t>
+  </si>
+  <si>
+    <t>BUCHA FIX. NYLON S-8</t>
+  </si>
+  <si>
+    <t>W.03.0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXAÇÃO À POLVORA DE BAIXA VELOCIDADE AÇÃO INDIRETA PINO LISO 1/4''X25MM  PXI 1425 ANCÔRA</t>
+  </si>
+  <si>
+    <t>W.03.0001</t>
+  </si>
+  <si>
+    <t>FINCA PINO CURTO C-22</t>
+  </si>
+  <si>
     <t>E.04.0098</t>
   </si>
   <si>
@@ -1364,6 +1439,60 @@
     <t>SAPATILHA CIRURGICA ( PANTUFA )</t>
   </si>
   <si>
+    <t>E.01.0039</t>
+  </si>
+  <si>
+    <t>ESCADA DE ALUMINIO COM 4 DEGRUAS</t>
+  </si>
+  <si>
+    <t>E.04.0721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO DE CORTE DIAMANTADO PARA CONCRETO   ( 4 1/2'' )</t>
+  </si>
+  <si>
+    <t>E.04.0749</t>
+  </si>
+  <si>
+    <t>PARAFUSADEIRA</t>
+  </si>
+  <si>
+    <t>S.10.0064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU 40 FLEX ADESIVO DE POLIURETANO DE CURA RAPIDA  TUBO 310ML CINZA</t>
+  </si>
+  <si>
+    <t>U.02.0100</t>
+  </si>
+  <si>
+    <t>TORNEIRA PARA JARDIM</t>
+  </si>
+  <si>
+    <t>W.01.0047</t>
+  </si>
+  <si>
+    <t>PREGO DE AÇO COM CABEÇA 18 X 27</t>
+  </si>
+  <si>
+    <t>W.03.0052</t>
+  </si>
+  <si>
+    <t>ESPUMA EXPANSIVA DE PU 500ML</t>
+  </si>
+  <si>
+    <t>P2.01.0024</t>
+  </si>
+  <si>
+    <t>BARRA CHATA DE AÇO INOX</t>
+  </si>
+  <si>
+    <t>P3.02.172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALO HEMISFÉRICO ( ABACAXI  ) - 150MM -</t>
+  </si>
+  <si>
     <t>1807 PARTICIPAÇÕES LTDA</t>
   </si>
   <si>
@@ -1397,6 +1526,24 @@
     <t>SIFÃO PARA TANQUE EM PVC</t>
   </si>
   <si>
+    <t>K.08.1264</t>
+  </si>
+  <si>
+    <t>MODULO INTERRUPTOR PARALELO PARAFUSO REF: 663001- PIAL NEREYA</t>
+  </si>
+  <si>
+    <t>K.08.1326</t>
+  </si>
+  <si>
+    <t>MODULO SOLUÇÃO ESTANQUE PLACA IP 44 REF. 663292 - PIAL NEREYA</t>
+  </si>
+  <si>
+    <t>K.08.1266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO CEGO  REF: 663296- PIAL NEREYA</t>
+  </si>
+  <si>
     <t>MARCO FREIRE (ÁREA EXTERNA)</t>
   </si>
   <si>
@@ -1436,30 +1583,30 @@
     <t>PRUMO METÁLICO PARA PEDREIRO DE CENTRO - Nº4 - 700 G</t>
   </si>
   <si>
+    <t>K.07.0539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÂMPADA  -</t>
+  </si>
+  <si>
+    <t>K.01.1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROLONGADOR PROFISSIONAL PADRÃO BRASILEIRO REFORÇADO  20A  2 P + T  ( FEMEA ) REF 6158 77</t>
+  </si>
+  <si>
+    <t>K.01.1483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   20 A  2 P + T  ( MACHO )</t>
+  </si>
+  <si>
     <t>M.05.0200</t>
   </si>
   <si>
     <t xml:space="preserve">TELHA METÁLICA TRAPEZOIDAL COM PINTURA  EM DUAS FACES</t>
   </si>
   <si>
-    <t>K.07.0539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÂMPADA  -</t>
-  </si>
-  <si>
-    <t>K.01.1532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROLONGADOR PROFISSIONAL PADRÃO BRASILEIRO REFORÇADO  20A  2 P + T  ( FEMEA ) REF 6158 77</t>
-  </si>
-  <si>
-    <t>K.01.1483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   20 A  2 P + T  ( MACHO )</t>
-  </si>
-  <si>
     <t>SUN MORITZ ADMINISTRADORA</t>
   </si>
   <si>
@@ -1491,6 +1638,177 @@
   </si>
   <si>
     <t>E.01.0009</t>
+  </si>
+  <si>
+    <t>E.03.0153</t>
+  </si>
+  <si>
+    <t>BOTA DE PVC - CANO LONGO</t>
+  </si>
+  <si>
+    <t>E.06.0004</t>
+  </si>
+  <si>
+    <t>COMBUSTÍVEL DIESEL - LITRO</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>J.05.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMENTO   PORTLAND DE ALTA RESISTENCIA  INICIAL  CP V  ARI SACO COM 50KG</t>
+  </si>
+  <si>
+    <t>K.01.0702</t>
+  </si>
+  <si>
+    <t>CAIXA PARA ATERRAMENTO INPS AVS 252X230</t>
+  </si>
+  <si>
+    <t>K.01.2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO FLEXÍVEL  C5 HEPR / ST2    0,6/1KV 16MM</t>
+  </si>
+  <si>
+    <t>K.01.3072</t>
+  </si>
+  <si>
+    <t>TERMINAL PRE ISOLADO OLHAL DE 10MM</t>
+  </si>
+  <si>
+    <t>K.01.3073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL PRE ISOLADO OLHAL  16MM</t>
+  </si>
+  <si>
+    <t>K.08.4062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DRIVER</t>
+  </si>
+  <si>
+    <t>R.02.0062</t>
+  </si>
+  <si>
+    <t>ROLO DE ESPUMA - 9 CM COM CABO</t>
+  </si>
+  <si>
+    <t>J.02.0602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA QUALIMASSA USO EXTERNA  50KG</t>
+  </si>
+  <si>
+    <t>K.01.0270</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 3 X 1,5 MM²</t>
+  </si>
+  <si>
+    <t>O.01.0165</t>
+  </si>
+  <si>
+    <t>CHAPA DE EUCATEX</t>
+  </si>
+  <si>
+    <t>S.10.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELANTE DE SILICONE 310 ML  - CURA NEUTRA</t>
+  </si>
+  <si>
+    <t>U.02.0653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROLONGADOR METAL</t>
+  </si>
+  <si>
+    <t>U.02.1411</t>
+  </si>
+  <si>
+    <t>SALVA REGISTRO DOCOL DE 3/4''</t>
+  </si>
+  <si>
+    <t>13.01.0544</t>
+  </si>
+  <si>
+    <t>IMPERMEABILIZANTE MSET TOP</t>
+  </si>
+  <si>
+    <t>13.01.0546</t>
+  </si>
+  <si>
+    <t>IMPERMEABILIZANTE</t>
+  </si>
+  <si>
+    <t>J.02.0027</t>
+  </si>
+  <si>
+    <t>ARGAMASSA COLANTE PASTILHA PORCELANA - 20KG - COR</t>
+  </si>
+  <si>
+    <t>S.08.0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
+    <t>C.04.0025</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 300 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>E.02.0071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA DE POLIETILENO DE 1'' GRAMATURA SUPERIOR A 120GM/M3   TR 350 -   C/50M</t>
+  </si>
+  <si>
+    <t>E.03.0523</t>
+  </si>
+  <si>
+    <t>PISO METÁLICO PARA ANDAIME</t>
+  </si>
+  <si>
+    <t>E.03.0037</t>
+  </si>
+  <si>
+    <t>LUVA DE LÁTEX - NEOPRENE</t>
+  </si>
+  <si>
+    <t>E.O4.1243</t>
+  </si>
+  <si>
+    <t>GUARDA CORPO PARA ANDAIME TUBULAR 1,5 SEM PORTA COM RODAPÉ</t>
+  </si>
+  <si>
+    <t>F.02.0004</t>
+  </si>
+  <si>
+    <t>ANDAIME TUBULAR 1 X 1,5 -</t>
+  </si>
+  <si>
+    <t>F.02.0009</t>
+  </si>
+  <si>
+    <t>RODIZIO PARA ANDAIME TUBULAR</t>
+  </si>
+  <si>
+    <t>F.04.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELETE ROMPEDOR 5KG COM  FERRAMENTAS ( PONTEIRO OU TALHADEIRA )</t>
+  </si>
+  <si>
+    <t>F.05.0011</t>
+  </si>
+  <si>
+    <t>DIAGONAL PARA ANDAIME</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +2107,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O235"/>
+  <dimension ref="A1:O331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1805,7 +2123,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="94.5714285714286" customWidth="1" style="1"/>
+    <col min="9" max="9" width="121.428571428571" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="9.57142857142857" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -9461,10 +9779,10 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F164" s="2">
-        <v>79988</v>
+        <v>80037</v>
       </c>
       <c r="G164" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>383</v>
@@ -9479,16 +9797,16 @@
         <v>1</v>
       </c>
       <c r="L164" s="4">
-        <v>19.9</v>
+        <v>120</v>
       </c>
       <c r="M164" s="4">
-        <v>19.9</v>
+        <v>120</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
@@ -9508,10 +9826,10 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F165" s="2">
-        <v>79988</v>
+        <v>80037</v>
       </c>
       <c r="G165" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>385</v>
@@ -9523,19 +9841,19 @@
         <v>19</v>
       </c>
       <c r="K165" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L165" s="4">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="M165" s="4">
-        <v>8</v>
+        <v>279</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
@@ -9573,10 +9891,10 @@
         <v>1</v>
       </c>
       <c r="L166" s="4">
-        <v>52.9</v>
+        <v>19.9</v>
       </c>
       <c r="M166" s="4">
-        <v>52.9</v>
+        <v>19.9</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>157</v>
@@ -9617,13 +9935,13 @@
         <v>19</v>
       </c>
       <c r="K167" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L167" s="4">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="M167" s="4">
-        <v>550</v>
+        <v>8</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>157</v>
@@ -9649,10 +9967,10 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F168" s="2">
-        <v>80019</v>
+        <v>79988</v>
       </c>
       <c r="G168" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>391</v>
@@ -9664,19 +9982,19 @@
         <v>19</v>
       </c>
       <c r="K168" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L168" s="4">
-        <v>390</v>
+        <v>52.9</v>
       </c>
       <c r="M168" s="4">
-        <v>15600</v>
+        <v>52.9</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>393</v>
+        <v>157</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>394</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="169">
@@ -9696,34 +10014,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F169" s="2">
-        <v>79979</v>
+        <v>79988</v>
       </c>
       <c r="G169" s="3">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K169" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L169" s="4">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="M169" s="4">
-        <v>304</v>
+        <v>550</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="170">
@@ -9743,28 +10061,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F170" s="2">
-        <v>80020</v>
+        <v>80019</v>
       </c>
       <c r="G170" s="3">
         <v>45946</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K170" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L170" s="4">
-        <v>16</v>
+        <v>390</v>
       </c>
       <c r="M170" s="4">
-        <v>960</v>
+        <v>15600</v>
       </c>
       <c r="N170" s="1" t="s">
         <v>397</v>
@@ -9790,34 +10108,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F171" s="2">
-        <v>80033</v>
+        <v>79979</v>
       </c>
       <c r="G171" s="3">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K171" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L171" s="4">
-        <v>2.42</v>
+        <v>38</v>
       </c>
       <c r="M171" s="4">
-        <v>12.1</v>
+        <v>304</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="172">
@@ -9837,34 +10155,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F172" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G172" s="3">
         <v>45946</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K172" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L172" s="4">
-        <v>29.82</v>
+        <v>8.808</v>
       </c>
       <c r="M172" s="4">
-        <v>29.82</v>
+        <v>880.8</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="173">
@@ -9884,34 +10202,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F173" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G173" s="3">
         <v>45946</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>108</v>
+        <v>406</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="K173" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L173" s="4">
-        <v>669.9</v>
+        <v>31.68</v>
       </c>
       <c r="M173" s="4">
-        <v>669.9</v>
+        <v>158.4</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
@@ -9931,34 +10249,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F174" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G174" s="3">
         <v>45946</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K174" s="4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L174" s="4">
-        <v>13.9</v>
+        <v>7.987</v>
       </c>
       <c r="M174" s="4">
-        <v>55.6</v>
+        <v>798.7</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>28</v>
+        <v>403</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
@@ -9978,34 +10296,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F175" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G175" s="3">
         <v>45946</v>
       </c>
       <c r="H175" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="4">
+        <v>6</v>
+      </c>
+      <c r="L175" s="4">
+        <v>6.475</v>
+      </c>
+      <c r="M175" s="4">
+        <v>38.85</v>
+      </c>
+      <c r="N175" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="O175" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K175" s="4">
-        <v>2</v>
-      </c>
-      <c r="L175" s="4">
-        <v>55</v>
-      </c>
-      <c r="M175" s="4">
-        <v>110</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O175" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
@@ -10025,34 +10343,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F176" s="2">
-        <v>80033</v>
+        <v>80020</v>
       </c>
       <c r="G176" s="3">
         <v>45946</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>405</v>
+        <v>102</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="K176" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="L176" s="4">
-        <v>13.9</v>
+        <v>16</v>
       </c>
       <c r="M176" s="4">
-        <v>69.5</v>
+        <v>960</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="177">
@@ -10071,28 +10389,36 @@
       <c r="E177" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
+      <c r="F177" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G177" s="3">
+        <v>45946</v>
+      </c>
       <c r="H177" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K177" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L177" s="4">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M177" s="4">
-        <v>0</v>
-      </c>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="178">
       <c r="A178" s="2">
@@ -10110,28 +10436,36 @@
       <c r="E178" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="F178" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G178" s="3">
+        <v>45946</v>
+      </c>
       <c r="H178" s="1" t="s">
-        <v>238</v>
+        <v>413</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>239</v>
+        <v>414</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K178" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L178" s="4">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="M178" s="4">
-        <v>0</v>
-      </c>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
+        <v>29.82</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="179">
       <c r="A179" s="2">
@@ -10149,28 +10483,36 @@
       <c r="E179" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
+      <c r="F179" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G179" s="3">
+        <v>45946</v>
+      </c>
       <c r="H179" s="1" t="s">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="K179" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L179" s="4">
-        <v>0</v>
+        <v>669.9</v>
       </c>
       <c r="M179" s="4">
-        <v>0</v>
-      </c>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
+        <v>669.9</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="180">
       <c r="A180" s="2">
@@ -10188,28 +10530,36 @@
       <c r="E180" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="F180" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G180" s="3">
+        <v>45946</v>
+      </c>
       <c r="H180" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="K180" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L180" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M180" s="4">
-        <v>0</v>
-      </c>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="181">
       <c r="A181" s="2">
@@ -10227,28 +10577,36 @@
       <c r="E181" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
+      <c r="F181" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G181" s="3">
+        <v>45946</v>
+      </c>
       <c r="H181" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K181" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L181" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M181" s="4">
-        <v>0</v>
-      </c>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="182">
       <c r="A182" s="2">
@@ -10266,28 +10624,36 @@
       <c r="E182" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="F182" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G182" s="3">
+        <v>45946</v>
+      </c>
       <c r="H182" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K182" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L182" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M182" s="4">
-        <v>0</v>
-      </c>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="183">
       <c r="A183" s="2">
@@ -10308,16 +10674,16 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>413</v>
+        <v>288</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K183" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L183" s="4">
         <v>0</v>
@@ -10347,16 +10713,16 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>415</v>
+        <v>238</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K184" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L184" s="4">
         <v>0</v>
@@ -10386,16 +10752,16 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K185" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L185" s="4">
         <v>0</v>
@@ -10425,16 +10791,16 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K186" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L186" s="4">
         <v>0</v>
@@ -10464,16 +10830,16 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K187" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L187" s="4">
         <v>0</v>
@@ -10503,16 +10869,16 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K188" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L188" s="4">
         <v>0</v>
@@ -10542,16 +10908,16 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K189" s="4">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L189" s="4">
         <v>0</v>
@@ -10581,10 +10947,10 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>19</v>
@@ -10620,16 +10986,16 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="K191" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L191" s="4">
         <v>0</v>
@@ -10659,16 +11025,16 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K192" s="4">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L192" s="4">
         <v>0</v>
@@ -10698,16 +11064,16 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K193" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L193" s="4">
         <v>0</v>
@@ -10737,10 +11103,10 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>19</v>
@@ -10798,219 +11164,183 @@
     </row>
     <row ht="12.75" customHeight="1" r="196">
       <c r="A196" s="2">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D196" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E196" s="3">
-        <v>45944.4988090856</v>
-      </c>
-      <c r="F196" s="2">
-        <v>79990</v>
-      </c>
-      <c r="G196" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K196" s="4">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="L196" s="4">
-        <v>57.05</v>
+        <v>0</v>
       </c>
       <c r="M196" s="4">
-        <v>114.1</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O196" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="197">
       <c r="A197" s="2">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D197" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E197" s="3">
-        <v>45944.4988090856</v>
-      </c>
-      <c r="F197" s="2">
-        <v>79989</v>
-      </c>
-      <c r="G197" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K197" s="4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L197" s="4">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="M197" s="4">
-        <v>210</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O197" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="198">
       <c r="A198" s="2">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E198" s="3">
-        <v>45944.4988090856</v>
-      </c>
-      <c r="F198" s="2">
-        <v>79989</v>
-      </c>
-      <c r="G198" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K198" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L198" s="4">
-        <v>36.8</v>
+        <v>0</v>
       </c>
       <c r="M198" s="4">
-        <v>368</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O198" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="199">
       <c r="A199" s="2">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D199" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E199" s="3">
-        <v>45944.4988090856</v>
-      </c>
-      <c r="F199" s="2">
-        <v>79989</v>
-      </c>
-      <c r="G199" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>187</v>
+        <v>442</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>188</v>
+        <v>443</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K199" s="4">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="L199" s="4">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M199" s="4">
-        <v>270</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O199" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="200">
       <c r="A200" s="2">
-        <v>2504</v>
+        <v>2512</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>220</v>
+        <v>439</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D200" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E200" s="3">
-        <v>45944.4988090856</v>
-      </c>
-      <c r="F200" s="2">
-        <v>79990</v>
-      </c>
-      <c r="G200" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>191</v>
+        <v>444</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>192</v>
+        <v>445</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>19</v>
@@ -11019,21 +11349,17 @@
         <v>1</v>
       </c>
       <c r="L200" s="4">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="M200" s="4">
-        <v>390</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O200" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="201">
       <c r="A201" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>439</v>
@@ -11042,45 +11368,37 @@
         <v>16</v>
       </c>
       <c r="D201" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E201" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F201" s="2">
-        <v>79992</v>
-      </c>
-      <c r="G201" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K201" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L201" s="4">
-        <v>61.9</v>
+        <v>0</v>
       </c>
       <c r="M201" s="4">
-        <v>185.7</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O201" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="202">
       <c r="A202" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>439</v>
@@ -11089,45 +11407,37 @@
         <v>16</v>
       </c>
       <c r="D202" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E202" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F202" s="2">
-        <v>79992</v>
-      </c>
-      <c r="G202" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K202" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L202" s="4">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="M202" s="4">
-        <v>17.9</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O202" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="203">
       <c r="A203" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>439</v>
@@ -11136,45 +11446,37 @@
         <v>16</v>
       </c>
       <c r="D203" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E203" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F203" s="2">
-        <v>79994</v>
-      </c>
-      <c r="G203" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>195</v>
+        <v>448</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="K203" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L203" s="4">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="M203" s="4">
-        <v>305</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O203" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="204">
       <c r="A204" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>439</v>
@@ -11183,45 +11485,37 @@
         <v>16</v>
       </c>
       <c r="D204" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E204" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F204" s="2">
-        <v>79994</v>
-      </c>
-      <c r="G204" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K204" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L204" s="4">
-        <v>5.47</v>
+        <v>0</v>
       </c>
       <c r="M204" s="4">
-        <v>273.5</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O204" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="205">
       <c r="A205" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>439</v>
@@ -11230,45 +11524,37 @@
         <v>16</v>
       </c>
       <c r="D205" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E205" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F205" s="2">
-        <v>79995</v>
-      </c>
-      <c r="G205" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="K205" s="4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="L205" s="4">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="M205" s="4">
-        <v>166</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O205" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="206">
       <c r="A206" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>439</v>
@@ -11277,45 +11563,37 @@
         <v>16</v>
       </c>
       <c r="D206" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E206" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F206" s="2">
-        <v>79993</v>
-      </c>
-      <c r="G206" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>22</v>
+        <v>454</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K206" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L206" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M206" s="4">
-        <v>900</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O206" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="207">
       <c r="A207" s="2">
-        <v>2413</v>
+        <v>2512</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>439</v>
@@ -11324,398 +11602,366 @@
         <v>16</v>
       </c>
       <c r="D207" s="2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E207" s="3">
-        <v>45944.4999264236</v>
-      </c>
-      <c r="F207" s="2">
-        <v>79991</v>
-      </c>
-      <c r="G207" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>448</v>
+        <v>116</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>449</v>
+        <v>117</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K207" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L207" s="4">
-        <v>16.666</v>
+        <v>0</v>
       </c>
       <c r="M207" s="4">
-        <v>49.998</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O207" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="208">
       <c r="A208" s="2">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D208" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E208" s="3">
-        <v>45944.5044134375</v>
-      </c>
-      <c r="F208" s="2">
-        <v>79998</v>
-      </c>
-      <c r="G208" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K208" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L208" s="4">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="M208" s="4">
-        <v>860</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="O208" s="1" t="s">
-        <v>454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="209">
       <c r="A209" s="2">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D209" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E209" s="3">
-        <v>45944.5044134375</v>
-      </c>
-      <c r="F209" s="2">
-        <v>79997</v>
-      </c>
-      <c r="G209" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>23</v>
+        <v>459</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K209" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L209" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M209" s="4">
-        <v>180</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O209" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="210">
       <c r="A210" s="2">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D210" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E210" s="3">
-        <v>45944.5044134375</v>
-      </c>
-      <c r="F210" s="2">
-        <v>79997</v>
-      </c>
-      <c r="G210" s="3">
-        <v>45944</v>
-      </c>
+        <v>45940.7518165509</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K210" s="4">
         <v>1</v>
       </c>
       <c r="L210" s="4">
-        <v>24.04</v>
+        <v>0</v>
       </c>
       <c r="M210" s="4">
-        <v>24.04</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="211">
       <c r="A211" s="2">
-        <v>2511</v>
+        <v>2504</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D211" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E211" s="3">
-        <v>45944.5044134375</v>
+        <v>45944.4988090856</v>
       </c>
       <c r="F211" s="2">
-        <v>79997</v>
+        <v>79990</v>
       </c>
       <c r="G211" s="3">
         <v>45944</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K211" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L211" s="4">
-        <v>173.9</v>
+        <v>57.05</v>
       </c>
       <c r="M211" s="4">
-        <v>173.9</v>
+        <v>114.1</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="212">
       <c r="A212" s="2">
-        <v>2511</v>
+        <v>2504</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D212" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E212" s="3">
-        <v>45944.5044134375</v>
+        <v>45944.4988090856</v>
       </c>
       <c r="F212" s="2">
-        <v>79997</v>
+        <v>79989</v>
       </c>
       <c r="G212" s="3">
         <v>45944</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>459</v>
+        <v>38</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>460</v>
+        <v>39</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K212" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="L212" s="4">
-        <v>14.9</v>
+        <v>3.5</v>
       </c>
       <c r="M212" s="4">
-        <v>14.9</v>
+        <v>210</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="213">
       <c r="A213" s="2">
-        <v>2515</v>
+        <v>2504</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>461</v>
+        <v>220</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D213" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E213" s="3">
-        <v>45945.4349250579</v>
+        <v>45944.4988090856</v>
       </c>
       <c r="F213" s="2">
-        <v>80016</v>
+        <v>79989</v>
       </c>
       <c r="G213" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>462</v>
+        <v>40</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>463</v>
+        <v>41</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K213" s="4">
-        <v>67.5</v>
+        <v>10</v>
       </c>
       <c r="L213" s="4">
-        <v>139.9</v>
+        <v>36.8</v>
       </c>
       <c r="M213" s="4">
-        <v>9443.25</v>
+        <v>368</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>464</v>
+        <v>185</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>465</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="214">
       <c r="A214" s="2">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D214" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E214" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4988090856</v>
       </c>
       <c r="F214" s="2">
-        <v>80031</v>
+        <v>79989</v>
       </c>
       <c r="G214" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>310</v>
+        <v>187</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K214" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L214" s="4">
-        <v>65</v>
+        <v>1.35</v>
       </c>
       <c r="M214" s="4">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>466</v>
+        <v>185</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>467</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="215">
       <c r="A215" s="2">
-        <v>2507</v>
+        <v>2504</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D215" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E215" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4988090856</v>
       </c>
       <c r="F215" s="2">
-        <v>80031</v>
+        <v>79990</v>
       </c>
       <c r="G215" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>19</v>
@@ -11724,397 +11970,409 @@
         <v>1</v>
       </c>
       <c r="L215" s="4">
-        <v>21.02</v>
+        <v>390</v>
       </c>
       <c r="M215" s="4">
-        <v>21.02</v>
+        <v>390</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>466</v>
+        <v>171</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>467</v>
+        <v>172</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="216">
       <c r="A216" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D216" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E216" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4999264236</v>
       </c>
       <c r="F216" s="2">
-        <v>80031</v>
+        <v>79992</v>
       </c>
       <c r="G216" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>468</v>
+        <v>312</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>469</v>
+        <v>313</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K216" s="4">
         <v>3</v>
       </c>
       <c r="L216" s="4">
-        <v>39.46</v>
+        <v>61.9</v>
       </c>
       <c r="M216" s="4">
-        <v>118.38</v>
+        <v>185.7</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="217">
       <c r="A217" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D217" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E217" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4999264236</v>
       </c>
       <c r="F217" s="2">
-        <v>80031</v>
+        <v>79992</v>
       </c>
       <c r="G217" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K217" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L217" s="4">
-        <v>49.33</v>
+        <v>1.79</v>
       </c>
       <c r="M217" s="4">
-        <v>49.33</v>
+        <v>17.9</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>467</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="218">
       <c r="A218" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D218" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E218" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4999264236</v>
       </c>
       <c r="F218" s="2">
-        <v>80025</v>
+        <v>79994</v>
       </c>
       <c r="G218" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>472</v>
+        <v>195</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>473</v>
+        <v>196</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K218" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L218" s="4">
-        <v>38.8</v>
+        <v>305</v>
       </c>
       <c r="M218" s="4">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>172</v>
+        <v>468</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="219">
       <c r="A219" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D219" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E219" s="3">
-        <v>45945.5622940278</v>
+        <v>45944.4999264236</v>
       </c>
       <c r="F219" s="2">
-        <v>80025</v>
+        <v>79994</v>
       </c>
       <c r="G219" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K219" s="4">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L219" s="4">
-        <v>180</v>
+        <v>5.47</v>
       </c>
       <c r="M219" s="4">
-        <v>1620</v>
+        <v>273.5</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>171</v>
+        <v>467</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>172</v>
+        <v>468</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="220">
       <c r="A220" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D220" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E220" s="3">
-        <v>45945.5622940278</v>
-      </c>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F220" s="2">
+        <v>79995</v>
+      </c>
+      <c r="G220" s="3">
+        <v>45944</v>
+      </c>
       <c r="H220" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K220" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L220" s="4">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M220" s="4">
-        <v>0</v>
-      </c>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="221">
       <c r="A221" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E221" s="3">
-        <v>45945.5622940278</v>
-      </c>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F221" s="2">
+        <v>79993</v>
+      </c>
+      <c r="G221" s="3">
+        <v>45944</v>
+      </c>
       <c r="H221" s="1" t="s">
-        <v>478</v>
+        <v>22</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>479</v>
+        <v>23</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K221" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L221" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M221" s="4">
-        <v>0</v>
-      </c>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
+        <v>900</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="222">
       <c r="A222" s="2">
-        <v>2507</v>
+        <v>2413</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D222" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E222" s="3">
-        <v>45945.5622940278</v>
-      </c>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
+        <v>45944.4999264236</v>
+      </c>
+      <c r="F222" s="2">
+        <v>79991</v>
+      </c>
+      <c r="G222" s="3">
+        <v>45944</v>
+      </c>
       <c r="H222" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K222" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L222" s="4">
-        <v>0</v>
+        <v>16.666</v>
       </c>
       <c r="M222" s="4">
-        <v>0</v>
-      </c>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
+        <v>49.998</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="223">
       <c r="A223" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D223" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E223" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F223" s="2">
-        <v>80018</v>
-      </c>
-      <c r="G223" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K223" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L223" s="4">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="M223" s="4">
-        <v>40.5</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O223" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="224">
       <c r="A224" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D224" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E224" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F224" s="2">
-        <v>80018</v>
-      </c>
-      <c r="G224" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>19</v>
@@ -12123,376 +12381,316 @@
         <v>6</v>
       </c>
       <c r="L224" s="4">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="M224" s="4">
-        <v>101.4</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O224" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="225">
       <c r="A225" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D225" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E225" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F225" s="2">
-        <v>80018</v>
-      </c>
-      <c r="G225" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>468</v>
+        <v>223</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>469</v>
+        <v>224</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K225" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L225" s="4">
-        <v>22.9</v>
+        <v>0</v>
       </c>
       <c r="M225" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="226">
       <c r="A226" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D226" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E226" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F226" s="2">
-        <v>80018</v>
-      </c>
-      <c r="G226" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
       <c r="H226" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K226" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L226" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M226" s="4">
-        <v>40</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="227">
       <c r="A227" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D227" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E227" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F227" s="2">
-        <v>80017</v>
-      </c>
-      <c r="G227" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="K227" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L227" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M227" s="4">
-        <v>630</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O227" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="228">
       <c r="A228" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D228" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E228" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F228" s="2">
-        <v>80027</v>
-      </c>
-      <c r="G228" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K228" s="4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L228" s="4">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="M228" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O228" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="229">
       <c r="A229" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E229" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F229" s="2">
-        <v>80030</v>
-      </c>
-      <c r="G229" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
       <c r="H229" s="1" t="s">
-        <v>487</v>
+        <v>77</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K229" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L229" s="4">
-        <v>1207.85</v>
+        <v>0</v>
       </c>
       <c r="M229" s="4">
-        <v>1207.85</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="230">
       <c r="A230" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D230" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E230" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F230" s="2">
-        <v>80027</v>
-      </c>
-      <c r="G230" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>489</v>
+        <v>263</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>490</v>
+        <v>264</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K230" s="4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L230" s="4">
-        <v>504.9</v>
+        <v>0</v>
       </c>
       <c r="M230" s="4">
-        <v>1009.8</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="231">
       <c r="A231" s="2">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D231" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E231" s="3">
-        <v>45945.5639777315</v>
-      </c>
-      <c r="F231" s="2">
-        <v>80027</v>
-      </c>
-      <c r="G231" s="3">
-        <v>45946</v>
-      </c>
+        <v>45944.501445544</v>
+      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
       <c r="H231" s="1" t="s">
-        <v>107</v>
+        <v>479</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>108</v>
+        <v>480</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="K231" s="4">
         <v>1</v>
       </c>
       <c r="L231" s="4">
-        <v>669.9</v>
+        <v>0</v>
       </c>
       <c r="M231" s="4">
-        <v>669.9</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O231" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="232">
       <c r="A232" s="2">
-        <v>2510</v>
+        <v>2411</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D232" s="2">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E232" s="3">
-        <v>45946.4967544792</v>
+        <v>45944.501445544</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>41</v>
+        <v>482</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K232" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L232" s="4">
         <v>0</v>
@@ -12505,33 +12703,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="233">
       <c r="A233" s="2">
-        <v>2510</v>
+        <v>2411</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D233" s="2">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E233" s="3">
-        <v>45946.4967544792</v>
+        <v>45944.501445544</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>187</v>
+        <v>483</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K233" s="4">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L233" s="4">
         <v>0</v>
@@ -12544,33 +12742,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="234">
       <c r="A234" s="2">
-        <v>2510</v>
+        <v>2411</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D234" s="2">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E234" s="3">
-        <v>45946.4967544792</v>
+        <v>45944.501445544</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1" t="s">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K234" s="4">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="L234" s="4">
         <v>0</v>
@@ -12583,33 +12781,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="235">
       <c r="A235" s="2">
-        <v>2306</v>
+        <v>2411</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>491</v>
+        <v>128</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D235" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E235" s="3">
-        <v>45946.4975969444</v>
+        <v>45944.501445544</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>327</v>
+        <v>488</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K235" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L235" s="4">
         <v>0</v>
@@ -12619,6 +12817,3970 @@
       </c>
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="236">
+      <c r="A236" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="2">
+        <v>65</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45944.501445544</v>
+      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="4">
+        <v>2</v>
+      </c>
+      <c r="L236" s="4">
+        <v>0</v>
+      </c>
+      <c r="M236" s="4">
+        <v>0</v>
+      </c>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="237">
+      <c r="A237" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="2">
+        <v>65</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45944.501445544</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="4">
+        <v>2</v>
+      </c>
+      <c r="L237" s="4">
+        <v>0</v>
+      </c>
+      <c r="M237" s="4">
+        <v>0</v>
+      </c>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="238">
+      <c r="A238" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="2">
+        <v>6</v>
+      </c>
+      <c r="E238" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F238" s="2">
+        <v>79998</v>
+      </c>
+      <c r="G238" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1</v>
+      </c>
+      <c r="L238" s="4">
+        <v>860</v>
+      </c>
+      <c r="M238" s="4">
+        <v>860</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="239">
+      <c r="A239" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="2">
+        <v>6</v>
+      </c>
+      <c r="E239" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F239" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G239" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K239" s="4">
+        <v>2</v>
+      </c>
+      <c r="L239" s="4">
+        <v>90</v>
+      </c>
+      <c r="M239" s="4">
+        <v>180</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="240">
+      <c r="A240" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="2">
+        <v>6</v>
+      </c>
+      <c r="E240" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F240" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G240" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K240" s="4">
+        <v>1</v>
+      </c>
+      <c r="L240" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="M240" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="241">
+      <c r="A241" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="2">
+        <v>6</v>
+      </c>
+      <c r="E241" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F241" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G241" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1</v>
+      </c>
+      <c r="L241" s="4">
+        <v>173.9</v>
+      </c>
+      <c r="M241" s="4">
+        <v>173.9</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="242">
+      <c r="A242" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="2">
+        <v>6</v>
+      </c>
+      <c r="E242" s="3">
+        <v>45944.5044134375</v>
+      </c>
+      <c r="F242" s="2">
+        <v>79997</v>
+      </c>
+      <c r="G242" s="3">
+        <v>45944</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1</v>
+      </c>
+      <c r="L242" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="M242" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="243">
+      <c r="A243" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" s="2">
+        <v>80</v>
+      </c>
+      <c r="E243" s="3">
+        <v>45944.6661398843</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K243" s="4">
+        <v>2</v>
+      </c>
+      <c r="L243" s="4">
+        <v>0</v>
+      </c>
+      <c r="M243" s="4">
+        <v>0</v>
+      </c>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="244">
+      <c r="A244" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" s="2">
+        <v>80</v>
+      </c>
+      <c r="E244" s="3">
+        <v>45944.6661398843</v>
+      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="4">
+        <v>1</v>
+      </c>
+      <c r="L244" s="4">
+        <v>0</v>
+      </c>
+      <c r="M244" s="4">
+        <v>0</v>
+      </c>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="245">
+      <c r="A245" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" s="2">
+        <v>80</v>
+      </c>
+      <c r="E245" s="3">
+        <v>45944.6661398843</v>
+      </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K245" s="4">
+        <v>1</v>
+      </c>
+      <c r="L245" s="4">
+        <v>0</v>
+      </c>
+      <c r="M245" s="4">
+        <v>0</v>
+      </c>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="246">
+      <c r="A246" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1</v>
+      </c>
+      <c r="E246" s="3">
+        <v>45945.4349250579</v>
+      </c>
+      <c r="F246" s="2">
+        <v>80016</v>
+      </c>
+      <c r="G246" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K246" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="L246" s="4">
+        <v>139.9</v>
+      </c>
+      <c r="M246" s="4">
+        <v>9443.25</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="247">
+      <c r="A247" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" s="2">
+        <v>19</v>
+      </c>
+      <c r="E247" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F247" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G247" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K247" s="4">
+        <v>1</v>
+      </c>
+      <c r="L247" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="M247" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="248">
+      <c r="A248" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D248" s="2">
+        <v>19</v>
+      </c>
+      <c r="E248" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F248" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G248" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K248" s="4">
+        <v>1</v>
+      </c>
+      <c r="L248" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="M248" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="249">
+      <c r="A249" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D249" s="2">
+        <v>19</v>
+      </c>
+      <c r="E249" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F249" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G249" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K249" s="4">
+        <v>3</v>
+      </c>
+      <c r="L249" s="4">
+        <v>39.46</v>
+      </c>
+      <c r="M249" s="4">
+        <v>118.38</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="250">
+      <c r="A250" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="2">
+        <v>19</v>
+      </c>
+      <c r="E250" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F250" s="2">
+        <v>80031</v>
+      </c>
+      <c r="G250" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K250" s="4">
+        <v>1</v>
+      </c>
+      <c r="L250" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="M250" s="4">
+        <v>49.33</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="251">
+      <c r="A251" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D251" s="2">
+        <v>19</v>
+      </c>
+      <c r="E251" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F251" s="2">
+        <v>80025</v>
+      </c>
+      <c r="G251" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="4">
+        <v>5</v>
+      </c>
+      <c r="L251" s="4">
+        <v>38.8</v>
+      </c>
+      <c r="M251" s="4">
+        <v>194</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="252">
+      <c r="A252" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D252" s="2">
+        <v>19</v>
+      </c>
+      <c r="E252" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F252" s="2">
+        <v>80039</v>
+      </c>
+      <c r="G252" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" s="4">
+        <v>4</v>
+      </c>
+      <c r="L252" s="4">
+        <v>78.9</v>
+      </c>
+      <c r="M252" s="4">
+        <v>315.6</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="253">
+      <c r="A253" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" s="2">
+        <v>19</v>
+      </c>
+      <c r="E253" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F253" s="2">
+        <v>80039</v>
+      </c>
+      <c r="G253" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="4">
+        <v>6</v>
+      </c>
+      <c r="L253" s="4">
+        <v>19.9</v>
+      </c>
+      <c r="M253" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="254">
+      <c r="A254" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D254" s="2">
+        <v>19</v>
+      </c>
+      <c r="E254" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F254" s="2">
+        <v>80039</v>
+      </c>
+      <c r="G254" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K254" s="4">
+        <v>4</v>
+      </c>
+      <c r="L254" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="M254" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="255">
+      <c r="A255" s="2">
+        <v>2507</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D255" s="2">
+        <v>19</v>
+      </c>
+      <c r="E255" s="3">
+        <v>45945.5622940278</v>
+      </c>
+      <c r="F255" s="2">
+        <v>80025</v>
+      </c>
+      <c r="G255" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K255" s="4">
+        <v>9</v>
+      </c>
+      <c r="L255" s="4">
+        <v>180</v>
+      </c>
+      <c r="M255" s="4">
+        <v>1620</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="256">
+      <c r="A256" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="2">
+        <v>73</v>
+      </c>
+      <c r="E256" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F256" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G256" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="4">
+        <v>3</v>
+      </c>
+      <c r="L256" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="M256" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="257">
+      <c r="A257" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="2">
+        <v>73</v>
+      </c>
+      <c r="E257" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F257" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G257" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K257" s="4">
+        <v>6</v>
+      </c>
+      <c r="L257" s="4">
+        <v>16.9</v>
+      </c>
+      <c r="M257" s="4">
+        <v>101.4</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="258">
+      <c r="A258" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="2">
+        <v>73</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F258" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G258" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K258" s="4">
+        <v>1</v>
+      </c>
+      <c r="L258" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="M258" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="259">
+      <c r="A259" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="2">
+        <v>73</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F259" s="2">
+        <v>80018</v>
+      </c>
+      <c r="G259" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K259" s="4">
+        <v>4</v>
+      </c>
+      <c r="L259" s="4">
+        <v>10</v>
+      </c>
+      <c r="M259" s="4">
+        <v>40</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="260">
+      <c r="A260" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="2">
+        <v>73</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F260" s="2">
+        <v>80017</v>
+      </c>
+      <c r="G260" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K260" s="4">
+        <v>7</v>
+      </c>
+      <c r="L260" s="4">
+        <v>90</v>
+      </c>
+      <c r="M260" s="4">
+        <v>630</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="261">
+      <c r="A261" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="2">
+        <v>73</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F261" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G261" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K261" s="4">
+        <v>3</v>
+      </c>
+      <c r="L261" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="M261" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="262">
+      <c r="A262" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" s="2">
+        <v>73</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F262" s="2">
+        <v>80030</v>
+      </c>
+      <c r="G262" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="4">
+        <v>1</v>
+      </c>
+      <c r="L262" s="4">
+        <v>1207.85</v>
+      </c>
+      <c r="M262" s="4">
+        <v>1207.85</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="263">
+      <c r="A263" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="2">
+        <v>73</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F263" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="4">
+        <v>2</v>
+      </c>
+      <c r="L263" s="4">
+        <v>504.9</v>
+      </c>
+      <c r="M263" s="4">
+        <v>1009.8</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="264">
+      <c r="A264" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2">
+        <v>73</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45945.5639777315</v>
+      </c>
+      <c r="F264" s="2">
+        <v>80027</v>
+      </c>
+      <c r="G264" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K264" s="4">
+        <v>1</v>
+      </c>
+      <c r="L264" s="4">
+        <v>669.9</v>
+      </c>
+      <c r="M264" s="4">
+        <v>669.9</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="265">
+      <c r="A265" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D265" s="2">
+        <v>73</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45945.6602154398</v>
+      </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="266">
+      <c r="A266" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" s="2">
+        <v>13</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F266" s="2">
+        <v>80036</v>
+      </c>
+      <c r="G266" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K266" s="4">
+        <v>4</v>
+      </c>
+      <c r="L266" s="4">
+        <v>36.8</v>
+      </c>
+      <c r="M266" s="4">
+        <v>147.2</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="267">
+      <c r="A267" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D267" s="2">
+        <v>13</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F267" s="2">
+        <v>80036</v>
+      </c>
+      <c r="G267" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K267" s="4">
+        <v>100</v>
+      </c>
+      <c r="L267" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="M267" s="4">
+        <v>135</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="268">
+      <c r="A268" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" s="2">
+        <v>13</v>
+      </c>
+      <c r="E268" s="3">
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F268" s="2">
+        <v>80036</v>
+      </c>
+      <c r="G268" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="4">
+        <v>250</v>
+      </c>
+      <c r="L268" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="M268" s="4">
+        <v>497.5</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="269">
+      <c r="A269" s="2">
+        <v>2306</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2">
+        <v>29</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45946.4975969444</v>
+      </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="4">
+        <v>1</v>
+      </c>
+      <c r="L269" s="4">
+        <v>0</v>
+      </c>
+      <c r="M269" s="4">
+        <v>0</v>
+      </c>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="270">
+      <c r="A270" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" s="2">
+        <v>30</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K270" s="4">
+        <v>200</v>
+      </c>
+      <c r="L270" s="4">
+        <v>0</v>
+      </c>
+      <c r="M270" s="4">
+        <v>0</v>
+      </c>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="271">
+      <c r="A271" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D271" s="2">
+        <v>30</v>
+      </c>
+      <c r="E271" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K271" s="4">
+        <v>1</v>
+      </c>
+      <c r="L271" s="4">
+        <v>0</v>
+      </c>
+      <c r="M271" s="4">
+        <v>0</v>
+      </c>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="272">
+      <c r="A272" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="2">
+        <v>30</v>
+      </c>
+      <c r="E272" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K272" s="4">
+        <v>2</v>
+      </c>
+      <c r="L272" s="4">
+        <v>0</v>
+      </c>
+      <c r="M272" s="4">
+        <v>0</v>
+      </c>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="273">
+      <c r="A273" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D273" s="2">
+        <v>30</v>
+      </c>
+      <c r="E273" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K273" s="4">
+        <v>2</v>
+      </c>
+      <c r="L273" s="4">
+        <v>0</v>
+      </c>
+      <c r="M273" s="4">
+        <v>0</v>
+      </c>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="274">
+      <c r="A274" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D274" s="2">
+        <v>30</v>
+      </c>
+      <c r="E274" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K274" s="4">
+        <v>3</v>
+      </c>
+      <c r="L274" s="4">
+        <v>0</v>
+      </c>
+      <c r="M274" s="4">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="275">
+      <c r="A275" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D275" s="2">
+        <v>30</v>
+      </c>
+      <c r="E275" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K275" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L275" s="4">
+        <v>0</v>
+      </c>
+      <c r="M275" s="4">
+        <v>0</v>
+      </c>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="276">
+      <c r="A276" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D276" s="2">
+        <v>30</v>
+      </c>
+      <c r="E276" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K276" s="4">
+        <v>1</v>
+      </c>
+      <c r="L276" s="4">
+        <v>0</v>
+      </c>
+      <c r="M276" s="4">
+        <v>0</v>
+      </c>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="277">
+      <c r="A277" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="2">
+        <v>30</v>
+      </c>
+      <c r="E277" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K277" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L277" s="4">
+        <v>0</v>
+      </c>
+      <c r="M277" s="4">
+        <v>0</v>
+      </c>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="278">
+      <c r="A278" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="2">
+        <v>30</v>
+      </c>
+      <c r="E278" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K278" s="4">
+        <v>1</v>
+      </c>
+      <c r="L278" s="4">
+        <v>0</v>
+      </c>
+      <c r="M278" s="4">
+        <v>0</v>
+      </c>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="279">
+      <c r="A279" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D279" s="2">
+        <v>30</v>
+      </c>
+      <c r="E279" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K279" s="4">
+        <v>25</v>
+      </c>
+      <c r="L279" s="4">
+        <v>0</v>
+      </c>
+      <c r="M279" s="4">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="280">
+      <c r="A280" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D280" s="2">
+        <v>30</v>
+      </c>
+      <c r="E280" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K280" s="4">
+        <v>6</v>
+      </c>
+      <c r="L280" s="4">
+        <v>0</v>
+      </c>
+      <c r="M280" s="4">
+        <v>0</v>
+      </c>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="281">
+      <c r="A281" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D281" s="2">
+        <v>30</v>
+      </c>
+      <c r="E281" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K281" s="4">
+        <v>2</v>
+      </c>
+      <c r="L281" s="4">
+        <v>0</v>
+      </c>
+      <c r="M281" s="4">
+        <v>0</v>
+      </c>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="282">
+      <c r="A282" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D282" s="2">
+        <v>30</v>
+      </c>
+      <c r="E282" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K282" s="4">
+        <v>2</v>
+      </c>
+      <c r="L282" s="4">
+        <v>0</v>
+      </c>
+      <c r="M282" s="4">
+        <v>0</v>
+      </c>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="283">
+      <c r="A283" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D283" s="2">
+        <v>30</v>
+      </c>
+      <c r="E283" s="3">
+        <v>45946.498230162</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K283" s="4">
+        <v>3</v>
+      </c>
+      <c r="L283" s="4">
+        <v>0</v>
+      </c>
+      <c r="M283" s="4">
+        <v>0</v>
+      </c>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="284">
+      <c r="A284" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D284" s="2">
+        <v>74</v>
+      </c>
+      <c r="E284" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K284" s="4">
+        <v>2</v>
+      </c>
+      <c r="L284" s="4">
+        <v>0</v>
+      </c>
+      <c r="M284" s="4">
+        <v>0</v>
+      </c>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="285">
+      <c r="A285" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="2">
+        <v>74</v>
+      </c>
+      <c r="E285" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K285" s="4">
+        <v>3</v>
+      </c>
+      <c r="L285" s="4">
+        <v>0</v>
+      </c>
+      <c r="M285" s="4">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="286">
+      <c r="A286" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D286" s="2">
+        <v>74</v>
+      </c>
+      <c r="E286" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K286" s="4">
+        <v>10</v>
+      </c>
+      <c r="L286" s="4">
+        <v>0</v>
+      </c>
+      <c r="M286" s="4">
+        <v>0</v>
+      </c>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="287">
+      <c r="A287" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D287" s="2">
+        <v>74</v>
+      </c>
+      <c r="E287" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K287" s="4">
+        <v>25</v>
+      </c>
+      <c r="L287" s="4">
+        <v>0</v>
+      </c>
+      <c r="M287" s="4">
+        <v>0</v>
+      </c>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="288">
+      <c r="A288" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D288" s="2">
+        <v>74</v>
+      </c>
+      <c r="E288" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K288" s="4">
+        <v>10</v>
+      </c>
+      <c r="L288" s="4">
+        <v>0</v>
+      </c>
+      <c r="M288" s="4">
+        <v>0</v>
+      </c>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="289">
+      <c r="A289" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D289" s="2">
+        <v>74</v>
+      </c>
+      <c r="E289" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K289" s="4">
+        <v>6</v>
+      </c>
+      <c r="L289" s="4">
+        <v>0</v>
+      </c>
+      <c r="M289" s="4">
+        <v>0</v>
+      </c>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="290">
+      <c r="A290" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D290" s="2">
+        <v>74</v>
+      </c>
+      <c r="E290" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K290" s="4">
+        <v>10</v>
+      </c>
+      <c r="L290" s="4">
+        <v>0</v>
+      </c>
+      <c r="M290" s="4">
+        <v>0</v>
+      </c>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="291">
+      <c r="A291" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D291" s="2">
+        <v>74</v>
+      </c>
+      <c r="E291" s="3">
+        <v>45946.5009254398</v>
+      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K291" s="4">
+        <v>25</v>
+      </c>
+      <c r="L291" s="4">
+        <v>0</v>
+      </c>
+      <c r="M291" s="4">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="292">
+      <c r="A292" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D292" s="2">
+        <v>54</v>
+      </c>
+      <c r="E292" s="3">
+        <v>45946.6253773032</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K292" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="L292" s="4">
+        <v>0</v>
+      </c>
+      <c r="M292" s="4">
+        <v>0</v>
+      </c>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="293">
+      <c r="A293" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D293" s="2">
+        <v>54</v>
+      </c>
+      <c r="E293" s="3">
+        <v>45946.6253773032</v>
+      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K293" s="4">
+        <v>680.4</v>
+      </c>
+      <c r="L293" s="4">
+        <v>0</v>
+      </c>
+      <c r="M293" s="4">
+        <v>0</v>
+      </c>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="294">
+      <c r="A294" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D294" s="2">
+        <v>54</v>
+      </c>
+      <c r="E294" s="3">
+        <v>45946.6253773032</v>
+      </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K294" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="L294" s="4">
+        <v>0</v>
+      </c>
+      <c r="M294" s="4">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="295">
+      <c r="A295" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D295" s="2">
+        <v>54</v>
+      </c>
+      <c r="E295" s="3">
+        <v>45946.6253773032</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="4">
+        <v>288</v>
+      </c>
+      <c r="L295" s="4">
+        <v>0</v>
+      </c>
+      <c r="M295" s="4">
+        <v>0</v>
+      </c>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="296">
+      <c r="A296" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="2">
+        <v>49</v>
+      </c>
+      <c r="E296" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K296" s="4">
+        <v>2</v>
+      </c>
+      <c r="L296" s="4">
+        <v>0</v>
+      </c>
+      <c r="M296" s="4">
+        <v>0</v>
+      </c>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="297">
+      <c r="A297" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="2">
+        <v>49</v>
+      </c>
+      <c r="E297" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="4">
+        <v>15</v>
+      </c>
+      <c r="L297" s="4">
+        <v>0</v>
+      </c>
+      <c r="M297" s="4">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="298">
+      <c r="A298" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D298" s="2">
+        <v>49</v>
+      </c>
+      <c r="E298" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K298" s="4">
+        <v>2</v>
+      </c>
+      <c r="L298" s="4">
+        <v>0</v>
+      </c>
+      <c r="M298" s="4">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="299">
+      <c r="A299" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" s="2">
+        <v>49</v>
+      </c>
+      <c r="E299" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K299" s="4">
+        <v>5</v>
+      </c>
+      <c r="L299" s="4">
+        <v>0</v>
+      </c>
+      <c r="M299" s="4">
+        <v>0</v>
+      </c>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="300">
+      <c r="A300" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300" s="2">
+        <v>49</v>
+      </c>
+      <c r="E300" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" s="4">
+        <v>1</v>
+      </c>
+      <c r="L300" s="4">
+        <v>0</v>
+      </c>
+      <c r="M300" s="4">
+        <v>0</v>
+      </c>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="301">
+      <c r="A301" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="2">
+        <v>49</v>
+      </c>
+      <c r="E301" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="4">
+        <v>3</v>
+      </c>
+      <c r="L301" s="4">
+        <v>0</v>
+      </c>
+      <c r="M301" s="4">
+        <v>0</v>
+      </c>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="302">
+      <c r="A302" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="2">
+        <v>49</v>
+      </c>
+      <c r="E302" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K302" s="4">
+        <v>15</v>
+      </c>
+      <c r="L302" s="4">
+        <v>0</v>
+      </c>
+      <c r="M302" s="4">
+        <v>0</v>
+      </c>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="303">
+      <c r="A303" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="2">
+        <v>49</v>
+      </c>
+      <c r="E303" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K303" s="4">
+        <v>5</v>
+      </c>
+      <c r="L303" s="4">
+        <v>0</v>
+      </c>
+      <c r="M303" s="4">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="304">
+      <c r="A304" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="2">
+        <v>49</v>
+      </c>
+      <c r="E304" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" s="4">
+        <v>8</v>
+      </c>
+      <c r="L304" s="4">
+        <v>0</v>
+      </c>
+      <c r="M304" s="4">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="305">
+      <c r="A305" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="2">
+        <v>49</v>
+      </c>
+      <c r="E305" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K305" s="4">
+        <v>10</v>
+      </c>
+      <c r="L305" s="4">
+        <v>0</v>
+      </c>
+      <c r="M305" s="4">
+        <v>0</v>
+      </c>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="306">
+      <c r="A306" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="2">
+        <v>49</v>
+      </c>
+      <c r="E306" s="3">
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K306" s="4">
+        <v>10</v>
+      </c>
+      <c r="L306" s="4">
+        <v>0</v>
+      </c>
+      <c r="M306" s="4">
+        <v>0</v>
+      </c>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="307">
+      <c r="A307" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D307" s="2">
+        <v>2</v>
+      </c>
+      <c r="E307" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K307" s="4">
+        <v>200</v>
+      </c>
+      <c r="L307" s="4">
+        <v>0</v>
+      </c>
+      <c r="M307" s="4">
+        <v>0</v>
+      </c>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="308">
+      <c r="A308" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D308" s="2">
+        <v>2</v>
+      </c>
+      <c r="E308" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K308" s="4">
+        <v>50</v>
+      </c>
+      <c r="L308" s="4">
+        <v>0</v>
+      </c>
+      <c r="M308" s="4">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="309">
+      <c r="A309" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D309" s="2">
+        <v>2</v>
+      </c>
+      <c r="E309" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K309" s="4">
+        <v>1</v>
+      </c>
+      <c r="L309" s="4">
+        <v>0</v>
+      </c>
+      <c r="M309" s="4">
+        <v>0</v>
+      </c>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="310">
+      <c r="A310" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D310" s="2">
+        <v>2</v>
+      </c>
+      <c r="E310" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K310" s="4">
+        <v>2</v>
+      </c>
+      <c r="L310" s="4">
+        <v>0</v>
+      </c>
+      <c r="M310" s="4">
+        <v>0</v>
+      </c>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="311">
+      <c r="A311" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D311" s="2">
+        <v>2</v>
+      </c>
+      <c r="E311" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K311" s="4">
+        <v>3</v>
+      </c>
+      <c r="L311" s="4">
+        <v>0</v>
+      </c>
+      <c r="M311" s="4">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="312">
+      <c r="A312" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D312" s="2">
+        <v>2</v>
+      </c>
+      <c r="E312" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K312" s="4">
+        <v>3</v>
+      </c>
+      <c r="L312" s="4">
+        <v>0</v>
+      </c>
+      <c r="M312" s="4">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="313">
+      <c r="A313" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D313" s="2">
+        <v>2</v>
+      </c>
+      <c r="E313" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K313" s="4">
+        <v>5</v>
+      </c>
+      <c r="L313" s="4">
+        <v>0</v>
+      </c>
+      <c r="M313" s="4">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="314">
+      <c r="A314" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D314" s="2">
+        <v>2</v>
+      </c>
+      <c r="E314" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K314" s="4">
+        <v>50</v>
+      </c>
+      <c r="L314" s="4">
+        <v>0</v>
+      </c>
+      <c r="M314" s="4">
+        <v>0</v>
+      </c>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="315">
+      <c r="A315" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D315" s="2">
+        <v>2</v>
+      </c>
+      <c r="E315" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K315" s="4">
+        <v>30</v>
+      </c>
+      <c r="L315" s="4">
+        <v>0</v>
+      </c>
+      <c r="M315" s="4">
+        <v>0</v>
+      </c>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="316">
+      <c r="A316" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D316" s="2">
+        <v>2</v>
+      </c>
+      <c r="E316" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K316" s="4">
+        <v>20</v>
+      </c>
+      <c r="L316" s="4">
+        <v>0</v>
+      </c>
+      <c r="M316" s="4">
+        <v>0</v>
+      </c>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="317">
+      <c r="A317" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+      <c r="E317" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K317" s="4">
+        <v>2</v>
+      </c>
+      <c r="L317" s="4">
+        <v>0</v>
+      </c>
+      <c r="M317" s="4">
+        <v>0</v>
+      </c>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="318">
+      <c r="A318" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2</v>
+      </c>
+      <c r="E318" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="4">
+        <v>30</v>
+      </c>
+      <c r="L318" s="4">
+        <v>0</v>
+      </c>
+      <c r="M318" s="4">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="319">
+      <c r="A319" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D319" s="2">
+        <v>2</v>
+      </c>
+      <c r="E319" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K319" s="4">
+        <v>30</v>
+      </c>
+      <c r="L319" s="4">
+        <v>0</v>
+      </c>
+      <c r="M319" s="4">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="320">
+      <c r="A320" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D320" s="2">
+        <v>2</v>
+      </c>
+      <c r="E320" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="4">
+        <v>10</v>
+      </c>
+      <c r="L320" s="4">
+        <v>0</v>
+      </c>
+      <c r="M320" s="4">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="321">
+      <c r="A321" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2</v>
+      </c>
+      <c r="E321" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" s="4">
+        <v>5</v>
+      </c>
+      <c r="L321" s="4">
+        <v>0</v>
+      </c>
+      <c r="M321" s="4">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="322">
+      <c r="A322" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2</v>
+      </c>
+      <c r="E322" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K322" s="4">
+        <v>2</v>
+      </c>
+      <c r="L322" s="4">
+        <v>0</v>
+      </c>
+      <c r="M322" s="4">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="323">
+      <c r="A323" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2</v>
+      </c>
+      <c r="E323" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K323" s="4">
+        <v>2</v>
+      </c>
+      <c r="L323" s="4">
+        <v>0</v>
+      </c>
+      <c r="M323" s="4">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="324">
+      <c r="A324" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2</v>
+      </c>
+      <c r="E324" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K324" s="4">
+        <v>2</v>
+      </c>
+      <c r="L324" s="4">
+        <v>0</v>
+      </c>
+      <c r="M324" s="4">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="325">
+      <c r="A325" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2</v>
+      </c>
+      <c r="E325" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K325" s="4">
+        <v>30</v>
+      </c>
+      <c r="L325" s="4">
+        <v>0</v>
+      </c>
+      <c r="M325" s="4">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="326">
+      <c r="A326" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" s="2">
+        <v>2</v>
+      </c>
+      <c r="E326" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K326" s="4">
+        <v>2</v>
+      </c>
+      <c r="L326" s="4">
+        <v>0</v>
+      </c>
+      <c r="M326" s="4">
+        <v>0</v>
+      </c>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="327">
+      <c r="A327" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2</v>
+      </c>
+      <c r="E327" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="4">
+        <v>2</v>
+      </c>
+      <c r="L327" s="4">
+        <v>0</v>
+      </c>
+      <c r="M327" s="4">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="328">
+      <c r="A328" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2</v>
+      </c>
+      <c r="E328" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K328" s="4">
+        <v>9</v>
+      </c>
+      <c r="L328" s="4">
+        <v>0</v>
+      </c>
+      <c r="M328" s="4">
+        <v>0</v>
+      </c>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="329">
+      <c r="A329" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D329" s="2">
+        <v>2</v>
+      </c>
+      <c r="E329" s="3">
+        <v>45946.6938907986</v>
+      </c>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K329" s="4">
+        <v>20</v>
+      </c>
+      <c r="L329" s="4">
+        <v>0</v>
+      </c>
+      <c r="M329" s="4">
+        <v>0</v>
+      </c>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="330">
+      <c r="A330" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" s="2">
+        <v>42</v>
+      </c>
+      <c r="E330" s="3">
+        <v>45946.6980613657</v>
+      </c>
+      <c r="F330" s="2">
+        <v>80040</v>
+      </c>
+      <c r="G330" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K330" s="4">
+        <v>10</v>
+      </c>
+      <c r="L330" s="4">
+        <v>89</v>
+      </c>
+      <c r="M330" s="4">
+        <v>890</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O330" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="331">
+      <c r="A331" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="2">
+        <v>42</v>
+      </c>
+      <c r="E331" s="3">
+        <v>45946.6980613657</v>
+      </c>
+      <c r="F331" s="2">
+        <v>80041</v>
+      </c>
+      <c r="G331" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K331" s="4">
+        <v>30</v>
+      </c>
+      <c r="L331" s="4">
+        <v>23.43</v>
+      </c>
+      <c r="M331" s="4">
+        <v>702.9</v>
+      </c>
+      <c r="N331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O331" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1013,6 +1013,48 @@
     <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
   </si>
   <si>
+    <t>E.03.0101</t>
+  </si>
+  <si>
+    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF1</t>
+  </si>
+  <si>
+    <t>E.03.0022</t>
+  </si>
+  <si>
+    <t>LUVA DE NITRILON - GLADIADOR</t>
+  </si>
+  <si>
+    <t>E.03.0132</t>
+  </si>
+  <si>
+    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 16 DECIBÉIS</t>
+  </si>
+  <si>
+    <t>E.03.0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACETE MSA  MODELO  V-GARD  COM CANEIRA CATRACA BRANCO</t>
+  </si>
+  <si>
+    <t>E.03.0125</t>
+  </si>
+  <si>
+    <t>OCULOS DE SEGURANÇA DE SOBREPOR PARA USO COM OCULOS CORRETIVOS.</t>
+  </si>
+  <si>
+    <t>E.03.0047</t>
+  </si>
+  <si>
+    <t>LUVA PVC</t>
+  </si>
+  <si>
+    <t>E.03.0119</t>
+  </si>
+  <si>
+    <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
+  </si>
+  <si>
     <t>E.04.0500</t>
   </si>
   <si>
@@ -1277,48 +1319,6 @@
     <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
   </si>
   <si>
-    <t>E.03.0101</t>
-  </si>
-  <si>
-    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF1</t>
-  </si>
-  <si>
-    <t>E.03.0022</t>
-  </si>
-  <si>
-    <t>LUVA DE NITRILON - GLADIADOR</t>
-  </si>
-  <si>
-    <t>E.03.0132</t>
-  </si>
-  <si>
-    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 16 DECIBÉIS</t>
-  </si>
-  <si>
-    <t>E.03.0272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACETE MSA  MODELO  V-GARD  COM CANEIRA CATRACA BRANCO</t>
-  </si>
-  <si>
-    <t>E.03.0125</t>
-  </si>
-  <si>
-    <t>OCULOS DE SEGURANÇA DE SOBREPOR PARA USO COM OCULOS CORRETIVOS.</t>
-  </si>
-  <si>
-    <t>E.03.0047</t>
-  </si>
-  <si>
-    <t>LUVA PVC</t>
-  </si>
-  <si>
-    <t>E.03.0119</t>
-  </si>
-  <si>
-    <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
-  </si>
-  <si>
     <t>K.03.0301</t>
   </si>
   <si>
@@ -1640,6 +1640,12 @@
     <t>E.01.0009</t>
   </si>
   <si>
+    <t>00000000010221</t>
+  </si>
+  <si>
+    <t>DANILO ENTULHO</t>
+  </si>
+  <si>
     <t>E.03.0153</t>
   </si>
   <si>
@@ -1745,16 +1751,16 @@
     <t>IMPERMEABILIZANTE</t>
   </si>
   <si>
+    <t>S.08.0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
     <t>J.02.0027</t>
   </si>
   <si>
     <t>ARGAMASSA COLANTE PASTILHA PORCELANA - 20KG - COR</t>
-  </si>
-  <si>
-    <t>S.08.0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
   </si>
   <si>
     <t>C.04.0025</t>
@@ -8416,34 +8422,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F135" s="2">
-        <v>80032</v>
+        <v>80042</v>
       </c>
       <c r="G135" s="3">
         <v>45946</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K135" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L135" s="4">
-        <v>220</v>
+        <v>23.43</v>
       </c>
       <c r="M135" s="4">
-        <v>220</v>
+        <v>281.16</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="136">
@@ -8525,13 +8531,13 @@
         <v>240</v>
       </c>
       <c r="K137" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L137" s="4">
         <v>220</v>
       </c>
       <c r="M137" s="4">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>157</v>
@@ -8557,28 +8563,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F138" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G138" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K138" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L138" s="4">
-        <v>7.9</v>
+        <v>220</v>
       </c>
       <c r="M138" s="4">
-        <v>7.9</v>
+        <v>440</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>157</v>
@@ -8604,34 +8610,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F139" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G139" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K139" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L139" s="4">
-        <v>299</v>
+        <v>2.84</v>
       </c>
       <c r="M139" s="4">
-        <v>598</v>
+        <v>34.08</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="140">
@@ -8651,34 +8657,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F140" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G140" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K140" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L140" s="4">
-        <v>27</v>
+        <v>1.35</v>
       </c>
       <c r="M140" s="4">
-        <v>27</v>
+        <v>40.5</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="141">
@@ -8698,34 +8704,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F141" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G141" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K141" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L141" s="4">
-        <v>10.9</v>
+        <v>11.57</v>
       </c>
       <c r="M141" s="4">
-        <v>32.7</v>
+        <v>92.56</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="142">
@@ -8745,34 +8751,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F142" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G142" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K142" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L142" s="4">
-        <v>32.9</v>
+        <v>0.9</v>
       </c>
       <c r="M142" s="4">
-        <v>131.6</v>
+        <v>18</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="143">
@@ -8792,34 +8798,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F143" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G143" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K143" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L143" s="4">
-        <v>42</v>
+        <v>97.16</v>
       </c>
       <c r="M143" s="4">
-        <v>84</v>
+        <v>582.96</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="144">
@@ -8839,34 +8845,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F144" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G144" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K144" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L144" s="4">
-        <v>45</v>
+        <v>8.49</v>
       </c>
       <c r="M144" s="4">
-        <v>90</v>
+        <v>42.45</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="145">
@@ -8886,34 +8892,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F145" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G145" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K145" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L145" s="4">
-        <v>5.5</v>
+        <v>4.48</v>
       </c>
       <c r="M145" s="4">
-        <v>22</v>
+        <v>44.8</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="146">
@@ -8933,34 +8939,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F146" s="2">
-        <v>79988</v>
+        <v>80042</v>
       </c>
       <c r="G146" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K146" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L146" s="4">
-        <v>12.9</v>
+        <v>3.64</v>
       </c>
       <c r="M146" s="4">
-        <v>25.8</v>
+        <v>43.68</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="147">
@@ -8986,22 +8992,22 @@
         <v>45944</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K147" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L147" s="4">
-        <v>22</v>
+        <v>7.9</v>
       </c>
       <c r="M147" s="4">
-        <v>110</v>
+        <v>7.9</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>157</v>
@@ -9033,22 +9039,22 @@
         <v>45944</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K148" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L148" s="4">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="M148" s="4">
-        <v>150</v>
+        <v>598</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>157</v>
@@ -9080,10 +9086,10 @@
         <v>45944</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>19</v>
@@ -9092,10 +9098,10 @@
         <v>1</v>
       </c>
       <c r="L149" s="4">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M149" s="4">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>157</v>
@@ -9127,22 +9133,22 @@
         <v>45944</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K150" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L150" s="4">
-        <v>25.9</v>
+        <v>10.9</v>
       </c>
       <c r="M150" s="4">
-        <v>51.8</v>
+        <v>32.7</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>157</v>
@@ -9174,22 +9180,22 @@
         <v>45944</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K151" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L151" s="4">
-        <v>15.9</v>
+        <v>32.9</v>
       </c>
       <c r="M151" s="4">
-        <v>47.7</v>
+        <v>131.6</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>157</v>
@@ -9221,10 +9227,10 @@
         <v>45944</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>19</v>
@@ -9233,10 +9239,10 @@
         <v>2</v>
       </c>
       <c r="L152" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M152" s="4">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>157</v>
@@ -9268,22 +9274,22 @@
         <v>45944</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K153" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L153" s="4">
-        <v>10.9</v>
+        <v>45</v>
       </c>
       <c r="M153" s="4">
-        <v>10.9</v>
+        <v>90</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>157</v>
@@ -9315,22 +9321,22 @@
         <v>45944</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K154" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L154" s="4">
-        <v>3300</v>
+        <v>5.5</v>
       </c>
       <c r="M154" s="4">
-        <v>3300</v>
+        <v>22</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>157</v>
@@ -9362,22 +9368,22 @@
         <v>45944</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K155" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L155" s="4">
-        <v>15</v>
+        <v>12.9</v>
       </c>
       <c r="M155" s="4">
-        <v>45</v>
+        <v>25.8</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>157</v>
@@ -9409,22 +9415,22 @@
         <v>45944</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K156" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L156" s="4">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="M156" s="4">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>157</v>
@@ -9456,22 +9462,22 @@
         <v>45944</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K157" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L157" s="4">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M157" s="4">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>157</v>
@@ -9497,28 +9503,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F158" s="2">
-        <v>80032</v>
+        <v>79988</v>
       </c>
       <c r="G158" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K158" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L158" s="4">
-        <v>45.95</v>
+        <v>8</v>
       </c>
       <c r="M158" s="4">
-        <v>137.85</v>
+        <v>8</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>157</v>
@@ -9550,22 +9556,22 @@
         <v>45944</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K159" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L159" s="4">
-        <v>15.9</v>
+        <v>25.9</v>
       </c>
       <c r="M159" s="4">
-        <v>47.7</v>
+        <v>51.8</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>157</v>
@@ -9597,22 +9603,22 @@
         <v>45944</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K160" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L160" s="4">
-        <v>12.9</v>
+        <v>15.9</v>
       </c>
       <c r="M160" s="4">
-        <v>25.8</v>
+        <v>47.7</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>157</v>
@@ -9644,22 +9650,22 @@
         <v>45944</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K161" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L161" s="4">
-        <v>7.9</v>
+        <v>44</v>
       </c>
       <c r="M161" s="4">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>157</v>
@@ -9691,10 +9697,10 @@
         <v>45944</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>19</v>
@@ -9703,10 +9709,10 @@
         <v>1</v>
       </c>
       <c r="L162" s="4">
-        <v>7</v>
+        <v>10.9</v>
       </c>
       <c r="M162" s="4">
-        <v>7</v>
+        <v>10.9</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>157</v>
@@ -9738,10 +9744,10 @@
         <v>45944</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>19</v>
@@ -9750,10 +9756,10 @@
         <v>1</v>
       </c>
       <c r="L163" s="4">
-        <v>25.9</v>
+        <v>3300</v>
       </c>
       <c r="M163" s="4">
-        <v>25.9</v>
+        <v>3300</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>157</v>
@@ -9779,34 +9785,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F164" s="2">
-        <v>80037</v>
+        <v>79988</v>
       </c>
       <c r="G164" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K164" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L164" s="4">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M164" s="4">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
@@ -9826,34 +9832,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F165" s="2">
-        <v>80037</v>
+        <v>79988</v>
       </c>
       <c r="G165" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K165" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L165" s="4">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="M165" s="4">
-        <v>279</v>
+        <v>49</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
@@ -9879,10 +9885,10 @@
         <v>45944</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>19</v>
@@ -9891,10 +9897,10 @@
         <v>1</v>
       </c>
       <c r="L166" s="4">
-        <v>19.9</v>
+        <v>63</v>
       </c>
       <c r="M166" s="4">
-        <v>19.9</v>
+        <v>63</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>157</v>
@@ -9920,28 +9926,28 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F167" s="2">
-        <v>79988</v>
+        <v>80032</v>
       </c>
       <c r="G167" s="3">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K167" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L167" s="4">
-        <v>8</v>
+        <v>45.95</v>
       </c>
       <c r="M167" s="4">
-        <v>8</v>
+        <v>137.85</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>157</v>
@@ -9973,22 +9979,22 @@
         <v>45944</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K168" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L168" s="4">
-        <v>52.9</v>
+        <v>15.9</v>
       </c>
       <c r="M168" s="4">
-        <v>52.9</v>
+        <v>47.7</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>157</v>
@@ -10020,10 +10026,10 @@
         <v>45944</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>19</v>
@@ -10032,10 +10038,10 @@
         <v>2</v>
       </c>
       <c r="L169" s="4">
-        <v>275</v>
+        <v>12.9</v>
       </c>
       <c r="M169" s="4">
-        <v>550</v>
+        <v>25.8</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>157</v>
@@ -10061,34 +10067,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F170" s="2">
-        <v>80019</v>
+        <v>79988</v>
       </c>
       <c r="G170" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K170" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L170" s="4">
-        <v>390</v>
+        <v>7.9</v>
       </c>
       <c r="M170" s="4">
-        <v>15600</v>
+        <v>79</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>397</v>
+        <v>157</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>398</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
@@ -10108,34 +10114,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F171" s="2">
-        <v>79979</v>
+        <v>79988</v>
       </c>
       <c r="G171" s="3">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K171" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L171" s="4">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M171" s="4">
-        <v>304</v>
+        <v>7</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="172">
@@ -10155,34 +10161,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F172" s="2">
-        <v>80035</v>
+        <v>79988</v>
       </c>
       <c r="G172" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K172" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L172" s="4">
-        <v>8.808</v>
+        <v>25.9</v>
       </c>
       <c r="M172" s="4">
-        <v>880.8</v>
+        <v>25.9</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>403</v>
+        <v>157</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="173">
@@ -10202,34 +10208,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F173" s="2">
-        <v>80035</v>
+        <v>80037</v>
       </c>
       <c r="G173" s="3">
         <v>45946</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K173" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L173" s="4">
-        <v>31.68</v>
+        <v>120</v>
       </c>
       <c r="M173" s="4">
-        <v>158.4</v>
+        <v>120</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>404</v>
+        <v>50</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
@@ -10249,34 +10255,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F174" s="2">
-        <v>80035</v>
+        <v>80037</v>
       </c>
       <c r="G174" s="3">
         <v>45946</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K174" s="4">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="L174" s="4">
-        <v>7.987</v>
+        <v>93</v>
       </c>
       <c r="M174" s="4">
-        <v>798.7</v>
+        <v>279</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>403</v>
+        <v>49</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>404</v>
+        <v>50</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
@@ -10296,34 +10302,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F175" s="2">
-        <v>80035</v>
+        <v>79988</v>
       </c>
       <c r="G175" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K175" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L175" s="4">
-        <v>6.475</v>
+        <v>19.9</v>
       </c>
       <c r="M175" s="4">
-        <v>38.85</v>
+        <v>19.9</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>403</v>
+        <v>157</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>404</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
@@ -10343,34 +10349,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F176" s="2">
-        <v>80020</v>
+        <v>79988</v>
       </c>
       <c r="G176" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K176" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L176" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M176" s="4">
-        <v>960</v>
+        <v>8</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>411</v>
+        <v>157</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>412</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="177">
@@ -10390,34 +10396,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F177" s="2">
-        <v>80033</v>
+        <v>79988</v>
       </c>
       <c r="G177" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>278</v>
+        <v>405</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>279</v>
+        <v>406</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K177" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L177" s="4">
-        <v>2.42</v>
+        <v>52.9</v>
       </c>
       <c r="M177" s="4">
-        <v>12.1</v>
+        <v>52.9</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="178">
@@ -10437,34 +10443,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F178" s="2">
-        <v>80033</v>
+        <v>79988</v>
       </c>
       <c r="G178" s="3">
-        <v>45946</v>
+        <v>45944</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K178" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L178" s="4">
-        <v>29.82</v>
+        <v>275</v>
       </c>
       <c r="M178" s="4">
-        <v>29.82</v>
+        <v>550</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="179">
@@ -10484,34 +10490,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F179" s="2">
-        <v>80033</v>
+        <v>80019</v>
       </c>
       <c r="G179" s="3">
         <v>45946</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>107</v>
+        <v>409</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>108</v>
+        <v>410</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="K179" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L179" s="4">
-        <v>669.9</v>
+        <v>390</v>
       </c>
       <c r="M179" s="4">
-        <v>669.9</v>
+        <v>15600</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>28</v>
+        <v>411</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="180">
@@ -10531,34 +10537,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F180" s="2">
-        <v>80033</v>
+        <v>79979</v>
       </c>
       <c r="G180" s="3">
-        <v>45946</v>
+        <v>45943</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="K180" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L180" s="4">
-        <v>13.9</v>
+        <v>38</v>
       </c>
       <c r="M180" s="4">
-        <v>55.6</v>
+        <v>304</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="181">
@@ -10578,34 +10584,34 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F181" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G181" s="3">
         <v>45946</v>
       </c>
       <c r="H181" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K181" s="4">
+        <v>100</v>
+      </c>
+      <c r="L181" s="4">
+        <v>8.808</v>
+      </c>
+      <c r="M181" s="4">
+        <v>880.8</v>
+      </c>
+      <c r="N181" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="O181" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K181" s="4">
-        <v>2</v>
-      </c>
-      <c r="L181" s="4">
-        <v>55</v>
-      </c>
-      <c r="M181" s="4">
-        <v>110</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O181" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="182">
@@ -10625,7 +10631,7 @@
         <v>45940.7400723843</v>
       </c>
       <c r="F182" s="2">
-        <v>80033</v>
+        <v>80035</v>
       </c>
       <c r="G182" s="3">
         <v>45946</v>
@@ -10637,22 +10643,22 @@
         <v>420</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="K182" s="4">
         <v>5</v>
       </c>
       <c r="L182" s="4">
-        <v>13.9</v>
+        <v>31.68</v>
       </c>
       <c r="M182" s="4">
-        <v>69.5</v>
+        <v>158.4</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="183">
@@ -10671,28 +10677,36 @@
       <c r="E183" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="F183" s="2">
+        <v>80035</v>
+      </c>
+      <c r="G183" s="3">
+        <v>45946</v>
+      </c>
       <c r="H183" s="1" t="s">
-        <v>288</v>
+        <v>421</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K183" s="4">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="L183" s="4">
-        <v>0</v>
+        <v>7.987</v>
       </c>
       <c r="M183" s="4">
-        <v>0</v>
-      </c>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
+        <v>798.7</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="184">
       <c r="A184" s="2">
@@ -10710,28 +10724,36 @@
       <c r="E184" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="F184" s="2">
+        <v>80035</v>
+      </c>
+      <c r="G184" s="3">
+        <v>45946</v>
+      </c>
       <c r="H184" s="1" t="s">
-        <v>238</v>
+        <v>423</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>239</v>
+        <v>424</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K184" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L184" s="4">
-        <v>0</v>
+        <v>6.475</v>
       </c>
       <c r="M184" s="4">
-        <v>0</v>
-      </c>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
+        <v>38.85</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="185">
       <c r="A185" s="2">
@@ -10749,28 +10771,36 @@
       <c r="E185" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="F185" s="2">
+        <v>80020</v>
+      </c>
+      <c r="G185" s="3">
+        <v>45946</v>
+      </c>
       <c r="H185" s="1" t="s">
-        <v>421</v>
+        <v>102</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>422</v>
+        <v>103</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="K185" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L185" s="4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M185" s="4">
-        <v>0</v>
-      </c>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
+        <v>960</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="186">
       <c r="A186" s="2">
@@ -10788,28 +10818,36 @@
       <c r="E186" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="F186" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G186" s="3">
+        <v>45946</v>
+      </c>
       <c r="H186" s="1" t="s">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>424</v>
+        <v>279</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K186" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L186" s="4">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="M186" s="4">
-        <v>0</v>
-      </c>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="187">
       <c r="A187" s="2">
@@ -10827,28 +10865,36 @@
       <c r="E187" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G187" s="3">
+        <v>45946</v>
+      </c>
       <c r="H187" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K187" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L187" s="4">
-        <v>0</v>
+        <v>29.82</v>
       </c>
       <c r="M187" s="4">
-        <v>0</v>
-      </c>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
+        <v>29.82</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="188">
       <c r="A188" s="2">
@@ -10866,28 +10912,36 @@
       <c r="E188" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G188" s="3">
+        <v>45946</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>428</v>
+        <v>108</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="K188" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L188" s="4">
-        <v>0</v>
+        <v>669.9</v>
       </c>
       <c r="M188" s="4">
-        <v>0</v>
-      </c>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
+        <v>669.9</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="189">
       <c r="A189" s="2">
@@ -10905,28 +10959,36 @@
       <c r="E189" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="F189" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G189" s="3">
+        <v>45946</v>
+      </c>
       <c r="H189" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K189" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L189" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M189" s="4">
-        <v>0</v>
-      </c>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
+        <v>55.6</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="190">
       <c r="A190" s="2">
@@ -10944,28 +11006,36 @@
       <c r="E190" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="F190" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G190" s="3">
+        <v>45946</v>
+      </c>
       <c r="H190" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="K190" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L190" s="4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M190" s="4">
-        <v>0</v>
-      </c>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="191">
       <c r="A191" s="2">
@@ -10983,28 +11053,36 @@
       <c r="E191" s="3">
         <v>45940.7400723843</v>
       </c>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="F191" s="2">
+        <v>80033</v>
+      </c>
+      <c r="G191" s="3">
+        <v>45946</v>
+      </c>
       <c r="H191" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="K191" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L191" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M191" s="4">
-        <v>0</v>
-      </c>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="192">
       <c r="A192" s="2">
@@ -11025,16 +11103,16 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K192" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L192" s="4">
         <v>0</v>
@@ -14364,19 +14442,23 @@
       <c r="E270" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
+      <c r="F270" s="2">
+        <v>80044</v>
+      </c>
+      <c r="G270" s="3">
+        <v>45946</v>
+      </c>
       <c r="H270" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K270" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L270" s="4">
         <v>0</v>
@@ -14384,8 +14466,12 @@
       <c r="M270" s="4">
         <v>0</v>
       </c>
-      <c r="N270" s="1"/>
-      <c r="O270" s="1"/>
+      <c r="N270" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="271">
       <c r="A271" s="2">
@@ -14406,16 +14492,16 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1" t="s">
-        <v>542</v>
+        <v>308</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>543</v>
+        <v>309</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K271" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L271" s="4">
         <v>0</v>
@@ -14445,16 +14531,16 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>240</v>
       </c>
       <c r="K272" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L272" s="4">
         <v>0</v>
@@ -14484,10 +14570,10 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>240</v>
@@ -14523,16 +14609,16 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1" t="s">
-        <v>343</v>
+        <v>544</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>344</v>
+        <v>545</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K274" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L274" s="4">
         <v>0</v>
@@ -14562,16 +14648,16 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1" t="s">
-        <v>544</v>
+        <v>357</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>545</v>
+        <v>358</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>546</v>
+        <v>19</v>
       </c>
       <c r="K275" s="4">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="L275" s="4">
         <v>0</v>
@@ -14601,16 +14687,16 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1" t="s">
-        <v>395</v>
+        <v>546</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>396</v>
+        <v>547</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>19</v>
+        <v>548</v>
       </c>
       <c r="K276" s="4">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="L276" s="4">
         <v>0</v>
@@ -14640,10 +14726,10 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>37</v>
@@ -14679,10 +14765,10 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>19</v>
@@ -14718,10 +14804,10 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>48</v>
@@ -14757,10 +14843,10 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>179</v>
@@ -14796,10 +14882,10 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>179</v>
@@ -14835,10 +14921,10 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>19</v>
@@ -14874,10 +14960,10 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>19</v>
@@ -14952,10 +15038,10 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>19</v>
@@ -14991,10 +15077,10 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>37</v>
@@ -15030,10 +15116,10 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>48</v>
@@ -15069,10 +15155,10 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>19</v>
@@ -15108,10 +15194,10 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>19</v>
@@ -15147,10 +15233,10 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>19</v>
@@ -15186,10 +15272,10 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>19</v>
@@ -15225,10 +15311,10 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>215</v>
@@ -15264,10 +15350,10 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>215</v>
@@ -15303,10 +15389,10 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>19</v>
@@ -15342,10 +15428,10 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>19</v>
@@ -15378,28 +15464,36 @@
       <c r="E296" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F296" s="1"/>
-      <c r="G296" s="1"/>
+      <c r="F296" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G296" s="3">
+        <v>45946</v>
+      </c>
       <c r="H296" s="1" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K296" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L296" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M296" s="4">
-        <v>0</v>
-      </c>
-      <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="297">
       <c r="A297" s="2">
@@ -15417,28 +15511,36 @@
       <c r="E297" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
+      <c r="F297" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G297" s="3">
+        <v>45946</v>
+      </c>
       <c r="H297" s="1" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K297" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L297" s="4">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M297" s="4">
-        <v>0</v>
-      </c>
-      <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
+        <v>710</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="298">
       <c r="A298" s="2">
@@ -15456,28 +15558,36 @@
       <c r="E298" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
+      <c r="F298" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G298" s="3">
+        <v>45946</v>
+      </c>
       <c r="H298" s="1" t="s">
-        <v>310</v>
+        <v>579</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>311</v>
+        <v>580</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K298" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L298" s="4">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="M298" s="4">
-        <v>0</v>
-      </c>
-      <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
+        <v>2340</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="299">
       <c r="A299" s="2">
@@ -15498,16 +15608,16 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K299" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L299" s="4">
         <v>0</v>
@@ -15537,16 +15647,16 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1" t="s">
-        <v>519</v>
+        <v>129</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K300" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L300" s="4">
         <v>0</v>
@@ -15576,16 +15686,16 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K301" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L301" s="4">
         <v>0</v>
@@ -15615,16 +15725,16 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1" t="s">
-        <v>577</v>
+        <v>223</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>578</v>
+        <v>224</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K302" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L302" s="4">
         <v>0</v>
@@ -15654,16 +15764,16 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K303" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L303" s="4">
         <v>0</v>
@@ -15693,16 +15803,16 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K304" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L304" s="4">
         <v>0</v>
@@ -15732,16 +15842,16 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
-        <v>213</v>
+        <v>581</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>214</v>
+        <v>582</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="K305" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L305" s="4">
         <v>0</v>
@@ -15771,16 +15881,16 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1" t="s">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>580</v>
+        <v>524</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K306" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L306" s="4">
         <v>0</v>
@@ -15927,10 +16037,10 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>19</v>
@@ -16005,10 +16115,10 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>135</v>
@@ -16122,10 +16232,10 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1" t="s">
-        <v>421</v>
+        <v>333</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>422</v>
+        <v>334</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>179</v>
@@ -16161,10 +16271,10 @@
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1" t="s">
-        <v>425</v>
+        <v>337</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>426</v>
+        <v>338</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>19</v>
@@ -16200,10 +16310,10 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>328</v>
@@ -16239,10 +16349,10 @@
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>430</v>
+        <v>342</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>19</v>
@@ -16278,10 +16388,10 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>240</v>
@@ -16395,10 +16505,10 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>328</v>
@@ -16434,10 +16544,10 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>328</v>
@@ -16473,10 +16583,10 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>328</v>
@@ -16512,10 +16622,10 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>142</v>
@@ -16551,10 +16661,10 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>328</v>
@@ -16590,10 +16700,10 @@
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>19</v>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1640,57 +1640,75 @@
     <t>E.01.0009</t>
   </si>
   <si>
+    <t>E.06.0004</t>
+  </si>
+  <si>
+    <t>COMBUSTÍVEL DIESEL - LITRO</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>00000000010004</t>
+  </si>
+  <si>
+    <t>DUMASZAK</t>
+  </si>
+  <si>
     <t>00000000010221</t>
   </si>
   <si>
     <t>DANILO ENTULHO</t>
   </si>
   <si>
+    <t>J.05.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIMENTO   PORTLAND DE ALTA RESISTENCIA  INICIAL  CP V  ARI SACO COM 50KG</t>
+  </si>
+  <si>
+    <t>00000000010143</t>
+  </si>
+  <si>
+    <t>VOTORANTIM CIMENTO</t>
+  </si>
+  <si>
+    <t>K.01.0702</t>
+  </si>
+  <si>
+    <t>CAIXA PARA ATERRAMENTO INPS AVS 252X230</t>
+  </si>
+  <si>
+    <t>00000000010194</t>
+  </si>
+  <si>
+    <t>CORREA ELETRICOS</t>
+  </si>
+  <si>
+    <t>K.01.2602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO FLEXÍVEL  C5 HEPR / ST2    0,6/1KV 16MM</t>
+  </si>
+  <si>
+    <t>K.01.3072</t>
+  </si>
+  <si>
+    <t>TERMINAL PRE ISOLADO OLHAL DE 10MM</t>
+  </si>
+  <si>
+    <t>K.01.3073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL PRE ISOLADO OLHAL  16MM</t>
+  </si>
+  <si>
     <t>E.03.0153</t>
   </si>
   <si>
     <t>BOTA DE PVC - CANO LONGO</t>
   </si>
   <si>
-    <t>E.06.0004</t>
-  </si>
-  <si>
-    <t>COMBUSTÍVEL DIESEL - LITRO</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>J.05.0011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIMENTO   PORTLAND DE ALTA RESISTENCIA  INICIAL  CP V  ARI SACO COM 50KG</t>
-  </si>
-  <si>
-    <t>K.01.0702</t>
-  </si>
-  <si>
-    <t>CAIXA PARA ATERRAMENTO INPS AVS 252X230</t>
-  </si>
-  <si>
-    <t>K.01.2602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO FLEXÍVEL  C5 HEPR / ST2    0,6/1KV 16MM</t>
-  </si>
-  <si>
-    <t>K.01.3072</t>
-  </si>
-  <si>
-    <t>TERMINAL PRE ISOLADO OLHAL DE 10MM</t>
-  </si>
-  <si>
-    <t>K.01.3073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL PRE ISOLADO OLHAL  16MM</t>
-  </si>
-  <si>
     <t>K.08.4062</t>
   </si>
   <si>
@@ -1751,18 +1769,18 @@
     <t>IMPERMEABILIZANTE</t>
   </si>
   <si>
+    <t>J.02.0027</t>
+  </si>
+  <si>
+    <t>ARGAMASSA COLANTE PASTILHA PORCELANA - 20KG - COR</t>
+  </si>
+  <si>
     <t>S.08.0202</t>
   </si>
   <si>
     <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
   </si>
   <si>
-    <t>J.02.0027</t>
-  </si>
-  <si>
-    <t>ARGAMASSA COLANTE PASTILHA PORCELANA - 20KG - COR</t>
-  </si>
-  <si>
     <t>C.04.0025</t>
   </si>
   <si>
@@ -1815,6 +1833,21 @@
   </si>
   <si>
     <t>DIAGONAL PARA ANDAIME</t>
+  </si>
+  <si>
+    <t>GARANTIA DE OBRAS</t>
+  </si>
+  <si>
+    <t>F.02.0003</t>
+  </si>
+  <si>
+    <t>ANDAIME TUBULAR 1 X 1 -</t>
+  </si>
+  <si>
+    <t>F.05.0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPATA  AJUSTÁVEL P/ ANDAIME</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2146,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O331"/>
+  <dimension ref="A1:O334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -14443,34 +14476,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F270" s="2">
-        <v>80044</v>
+        <v>80045</v>
       </c>
       <c r="G270" s="3">
         <v>45946</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>19</v>
+        <v>544</v>
       </c>
       <c r="K270" s="4">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="L270" s="4">
-        <v>0</v>
+        <v>6.89</v>
       </c>
       <c r="M270" s="4">
-        <v>0</v>
+        <v>20670</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="271">
@@ -14489,28 +14522,36 @@
       <c r="E271" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
+      <c r="F271" s="2">
+        <v>80044</v>
+      </c>
+      <c r="G271" s="3">
+        <v>45946</v>
+      </c>
       <c r="H271" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K271" s="4">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="L271" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="M271" s="4">
-        <v>0</v>
-      </c>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
+        <v>14000</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="272">
       <c r="A272" s="2">
@@ -14528,28 +14569,36 @@
       <c r="E272" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
+      <c r="F272" s="2">
+        <v>80048</v>
+      </c>
+      <c r="G272" s="3">
+        <v>45946</v>
+      </c>
       <c r="H272" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="K272" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L272" s="4">
-        <v>0</v>
+        <v>37.16</v>
       </c>
       <c r="M272" s="4">
-        <v>0</v>
-      </c>
-      <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
+        <v>37160</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="273">
       <c r="A273" s="2">
@@ -14567,28 +14616,36 @@
       <c r="E273" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
+      <c r="F273" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G273" s="3">
+        <v>45947</v>
+      </c>
       <c r="H273" s="1" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K273" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L273" s="4">
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="M273" s="4">
-        <v>0</v>
-      </c>
-      <c r="N273" s="1"/>
-      <c r="O273" s="1"/>
+        <v>17.03</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="274">
       <c r="A274" s="2">
@@ -14606,28 +14663,36 @@
       <c r="E274" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
+      <c r="F274" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G274" s="3">
+        <v>45947</v>
+      </c>
       <c r="H274" s="1" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="K274" s="4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="L274" s="4">
-        <v>0</v>
+        <v>344.65</v>
       </c>
       <c r="M274" s="4">
-        <v>0</v>
-      </c>
-      <c r="N274" s="1"/>
-      <c r="O274" s="1"/>
+        <v>8616.25</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="275">
       <c r="A275" s="2">
@@ -14645,28 +14710,36 @@
       <c r="E275" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
+      <c r="F275" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G275" s="3">
+        <v>45947</v>
+      </c>
       <c r="H275" s="1" t="s">
-        <v>357</v>
+        <v>559</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>358</v>
+        <v>560</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="K275" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L275" s="4">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="M275" s="4">
-        <v>0</v>
-      </c>
-      <c r="N275" s="1"/>
-      <c r="O275" s="1"/>
+        <v>35.22</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="276">
       <c r="A276" s="2">
@@ -14684,28 +14757,36 @@
       <c r="E276" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
+      <c r="F276" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G276" s="3">
+        <v>45947</v>
+      </c>
       <c r="H276" s="1" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>548</v>
+        <v>179</v>
       </c>
       <c r="K276" s="4">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="L276" s="4">
-        <v>0</v>
+        <v>5.45</v>
       </c>
       <c r="M276" s="4">
-        <v>0</v>
-      </c>
-      <c r="N276" s="1"/>
-      <c r="O276" s="1"/>
+        <v>10.9</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="277">
       <c r="A277" s="2">
@@ -14726,16 +14807,16 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1" t="s">
-        <v>549</v>
+        <v>308</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>550</v>
+        <v>309</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K277" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="L277" s="4">
         <v>0</v>
@@ -14765,13 +14846,13 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K278" s="4">
         <v>1</v>
@@ -14804,16 +14885,16 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="K279" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L279" s="4">
         <v>0</v>
@@ -14843,16 +14924,16 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="K280" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L280" s="4">
         <v>0</v>
@@ -14882,16 +14963,16 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="K281" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L281" s="4">
         <v>0</v>
@@ -14921,10 +15002,10 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>19</v>
@@ -14960,10 +15041,10 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>19</v>
@@ -15077,10 +15158,10 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>37</v>
@@ -15116,10 +15197,10 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>48</v>
@@ -15155,10 +15236,10 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>19</v>
@@ -15194,10 +15275,10 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>19</v>
@@ -15233,10 +15314,10 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>19</v>
@@ -15272,10 +15353,10 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>19</v>
@@ -15311,10 +15392,10 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>215</v>
@@ -15350,10 +15431,10 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>215</v>
@@ -15389,10 +15470,10 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>19</v>
@@ -15428,10 +15509,10 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>19</v>
@@ -15465,34 +15546,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F296" s="2">
-        <v>80043</v>
+        <v>80047</v>
       </c>
       <c r="G296" s="3">
         <v>45946</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K296" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L296" s="4">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="M296" s="4">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="N296" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="O296" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="297">
@@ -15512,34 +15593,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F297" s="2">
-        <v>80043</v>
+        <v>80047</v>
       </c>
       <c r="G297" s="3">
         <v>45946</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K297" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L297" s="4">
-        <v>71</v>
+        <v>4.5</v>
       </c>
       <c r="M297" s="4">
-        <v>710</v>
+        <v>67.5</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="298">
@@ -15559,34 +15640,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F298" s="2">
-        <v>80043</v>
+        <v>80047</v>
       </c>
       <c r="G298" s="3">
         <v>45946</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>579</v>
+        <v>310</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>580</v>
+        <v>311</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K298" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L298" s="4">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="M298" s="4">
-        <v>2340</v>
+        <v>130</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="O298" s="1" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="299">
@@ -15605,28 +15686,36 @@
       <c r="E299" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F299" s="1"/>
-      <c r="G299" s="1"/>
+      <c r="F299" s="2">
+        <v>80047</v>
+      </c>
+      <c r="G299" s="3">
+        <v>45946</v>
+      </c>
       <c r="H299" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K299" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L299" s="4">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="M299" s="4">
-        <v>0</v>
-      </c>
-      <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
+        <v>84.5</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="300">
       <c r="A300" s="2">
@@ -15644,28 +15733,36 @@
       <c r="E300" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F300" s="1"/>
-      <c r="G300" s="1"/>
+      <c r="F300" s="2">
+        <v>80047</v>
+      </c>
+      <c r="G300" s="3">
+        <v>45946</v>
+      </c>
       <c r="H300" s="1" t="s">
-        <v>129</v>
+        <v>519</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K300" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L300" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M300" s="4">
-        <v>0</v>
-      </c>
-      <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="301">
       <c r="A301" s="2">
@@ -15683,28 +15780,36 @@
       <c r="E301" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F301" s="1"/>
-      <c r="G301" s="1"/>
+      <c r="F301" s="2">
+        <v>80047</v>
+      </c>
+      <c r="G301" s="3">
+        <v>45946</v>
+      </c>
       <c r="H301" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K301" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L301" s="4">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="M301" s="4">
-        <v>0</v>
-      </c>
-      <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
+        <v>74.7</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="302">
       <c r="A302" s="2">
@@ -15722,28 +15827,36 @@
       <c r="E302" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
+      <c r="F302" s="2">
+        <v>80046</v>
+      </c>
+      <c r="G302" s="3">
+        <v>45946</v>
+      </c>
       <c r="H302" s="1" t="s">
-        <v>223</v>
+        <v>585</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>224</v>
+        <v>586</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K302" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="L302" s="4">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M302" s="4">
-        <v>0</v>
-      </c>
-      <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
+        <v>1590</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="303">
       <c r="A303" s="2">
@@ -15761,28 +15874,36 @@
       <c r="E303" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F303" s="1"/>
-      <c r="G303" s="1"/>
+      <c r="F303" s="2">
+        <v>80049</v>
+      </c>
+      <c r="G303" s="3">
+        <v>45946</v>
+      </c>
       <c r="H303" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K303" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L303" s="4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M303" s="4">
-        <v>0</v>
-      </c>
-      <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="304">
       <c r="A304" s="2">
@@ -15800,28 +15921,36 @@
       <c r="E304" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
+      <c r="F304" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G304" s="3">
+        <v>45946</v>
+      </c>
       <c r="H304" s="1" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K304" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L304" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M304" s="4">
-        <v>0</v>
-      </c>
-      <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="305">
       <c r="A305" s="2">
@@ -15839,28 +15968,36 @@
       <c r="E305" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
+      <c r="F305" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G305" s="3">
+        <v>45946</v>
+      </c>
       <c r="H305" s="1" t="s">
-        <v>581</v>
+        <v>213</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>582</v>
+        <v>214</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="K305" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L305" s="4">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M305" s="4">
-        <v>0</v>
-      </c>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
+        <v>710</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="306">
       <c r="A306" s="2">
@@ -15878,28 +16015,36 @@
       <c r="E306" s="3">
         <v>45946.6916552431</v>
       </c>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
+      <c r="F306" s="2">
+        <v>80043</v>
+      </c>
+      <c r="G306" s="3">
+        <v>45946</v>
+      </c>
       <c r="H306" s="1" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K306" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L306" s="4">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="M306" s="4">
-        <v>0</v>
-      </c>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
+        <v>2340</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="307">
       <c r="A307" s="2">
@@ -16037,10 +16182,10 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>19</v>
@@ -16115,10 +16260,10 @@
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>135</v>
@@ -16310,10 +16455,10 @@
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>328</v>
@@ -16388,10 +16533,10 @@
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>240</v>
@@ -16505,10 +16650,10 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>328</v>
@@ -16544,10 +16689,10 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>328</v>
@@ -16583,10 +16728,10 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>328</v>
@@ -16622,10 +16767,10 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>142</v>
@@ -16661,10 +16806,10 @@
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>328</v>
@@ -16891,6 +17036,123 @@
       <c r="O331" s="1" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="332">
+      <c r="A332" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D332" s="2">
+        <v>386</v>
+      </c>
+      <c r="E332" s="3">
+        <v>45946.7492093634</v>
+      </c>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K332" s="4">
+        <v>3</v>
+      </c>
+      <c r="L332" s="4">
+        <v>0</v>
+      </c>
+      <c r="M332" s="4">
+        <v>0</v>
+      </c>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="333">
+      <c r="A333" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D333" s="2">
+        <v>386</v>
+      </c>
+      <c r="E333" s="3">
+        <v>45946.7492093634</v>
+      </c>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K333" s="4">
+        <v>3</v>
+      </c>
+      <c r="L333" s="4">
+        <v>0</v>
+      </c>
+      <c r="M333" s="4">
+        <v>0</v>
+      </c>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="334">
+      <c r="A334" s="2">
+        <v>9992</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D334" s="2">
+        <v>386</v>
+      </c>
+      <c r="E334" s="3">
+        <v>45946.7492093634</v>
+      </c>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K334" s="4">
+        <v>3</v>
+      </c>
+      <c r="L334" s="4">
+        <v>0</v>
+      </c>
+      <c r="M334" s="4">
+        <v>0</v>
+      </c>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1640,6 +1640,12 @@
     <t>E.01.0009</t>
   </si>
   <si>
+    <t>E.03.0153</t>
+  </si>
+  <si>
+    <t>BOTA DE PVC - CANO LONGO</t>
+  </si>
+  <si>
     <t>E.06.0004</t>
   </si>
   <si>
@@ -1703,10 +1709,10 @@
     <t xml:space="preserve">TERMINAL PRE ISOLADO OLHAL  16MM</t>
   </si>
   <si>
-    <t>E.03.0153</t>
-  </si>
-  <si>
-    <t>BOTA DE PVC - CANO LONGO</t>
+    <t>R.02.0062</t>
+  </si>
+  <si>
+    <t>ROLO DE ESPUMA - 9 CM COM CABO</t>
   </si>
   <si>
     <t>K.08.4062</t>
@@ -1715,12 +1721,6 @@
     <t xml:space="preserve"> DRIVER</t>
   </si>
   <si>
-    <t>R.02.0062</t>
-  </si>
-  <si>
-    <t>ROLO DE ESPUMA - 9 CM COM CABO</t>
-  </si>
-  <si>
     <t>J.02.0602</t>
   </si>
   <si>
@@ -1799,6 +1799,12 @@
     <t>PISO METÁLICO PARA ANDAIME</t>
   </si>
   <si>
+    <t>00000000009419</t>
+  </si>
+  <si>
+    <t>PERFETCY ANDAIMES</t>
+  </si>
+  <si>
     <t>E.03.0037</t>
   </si>
   <si>
@@ -1829,12 +1835,24 @@
     <t xml:space="preserve">MARTELETE ROMPEDOR 5KG COM  FERRAMENTAS ( PONTEIRO OU TALHADEIRA )</t>
   </si>
   <si>
+    <t>00000000008708</t>
+  </si>
+  <si>
+    <t>GADE</t>
+  </si>
+  <si>
     <t>F.05.0011</t>
   </si>
   <si>
     <t>DIAGONAL PARA ANDAIME</t>
   </si>
   <si>
+    <t>00000000006717</t>
+  </si>
+  <si>
+    <t>WW SOLUÇÃO</t>
+  </si>
+  <si>
     <t>GARANTIA DE OBRAS</t>
   </si>
   <si>
@@ -1848,6 +1866,60 @@
   </si>
   <si>
     <t xml:space="preserve">SAPATA  AJUSTÁVEL P/ ANDAIME</t>
+  </si>
+  <si>
+    <t>E.03.0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA DE LÁTEX   AMARELA   COM FORRO ESPESSURA: 0,60 MM</t>
+  </si>
+  <si>
+    <t>E.04.0720</t>
+  </si>
+  <si>
+    <t>BROXA RETANGULAR</t>
+  </si>
+  <si>
+    <t>J.02.0905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA ESPECIAL  SUPERFLEX AC III - PORTOKOLL 20KG BRANCA</t>
+  </si>
+  <si>
+    <t>M.05.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELHA METÁLICA TRAPEZOIDAL COM PINTURA  EM UMA FACE</t>
+  </si>
+  <si>
+    <t>R.02.0023</t>
+  </si>
+  <si>
+    <t>TINTA ACRILICA GALÃO DE 3,6L</t>
+  </si>
+  <si>
+    <t>U.02.0802</t>
+  </si>
+  <si>
+    <t>VÁLVULA PARA TANQUE</t>
+  </si>
+  <si>
+    <t>P2.03.0500</t>
+  </si>
+  <si>
+    <t>TAMPÃO EM ALUMINIO DUPLA VEDAÇÃO 60 X 60 CM</t>
+  </si>
+  <si>
+    <t>P3.02.0100</t>
+  </si>
+  <si>
+    <t>TAMPÃO DE FERRO FUNDIDO COM ARTICULÇÃO - 60 CM DIÂMETRO</t>
+  </si>
+  <si>
+    <t>E.01.0031</t>
+  </si>
+  <si>
+    <t>MATERIAL DE ED AR CONDICIONADO</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2218,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O334"/>
+  <dimension ref="A1:O354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -14254,30 +14326,50 @@
     </row>
     <row ht="12.75" customHeight="1" r="265">
       <c r="A265" s="2">
-        <v>2409</v>
+        <v>2510</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D265" s="2">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E265" s="3">
-        <v>45945.6602154398</v>
-      </c>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="I265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
-      <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
+        <v>45946.4967544792</v>
+      </c>
+      <c r="F265" s="2">
+        <v>80036</v>
+      </c>
+      <c r="G265" s="3">
+        <v>45946</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K265" s="4">
+        <v>4</v>
+      </c>
+      <c r="L265" s="4">
+        <v>36.8</v>
+      </c>
+      <c r="M265" s="4">
+        <v>147.2</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="266">
       <c r="A266" s="2">
@@ -14302,22 +14394,22 @@
         <v>45946</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K266" s="4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L266" s="4">
-        <v>36.8</v>
+        <v>1.35</v>
       </c>
       <c r="M266" s="4">
-        <v>147.2</v>
+        <v>135</v>
       </c>
       <c r="N266" s="1" t="s">
         <v>185</v>
@@ -14349,22 +14441,22 @@
         <v>45946</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K267" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="L267" s="4">
-        <v>1.35</v>
+        <v>1.99</v>
       </c>
       <c r="M267" s="4">
-        <v>135</v>
+        <v>497.5</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>185</v>
@@ -14375,89 +14467,89 @@
     </row>
     <row ht="12.75" customHeight="1" r="268">
       <c r="A268" s="2">
-        <v>2510</v>
+        <v>2306</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>182</v>
+        <v>540</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D268" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E268" s="3">
-        <v>45946.4967544792</v>
-      </c>
-      <c r="F268" s="2">
-        <v>80036</v>
-      </c>
-      <c r="G268" s="3">
-        <v>45946</v>
-      </c>
+        <v>45946.4975969444</v>
+      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
       <c r="H268" s="1" t="s">
-        <v>189</v>
+        <v>541</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>190</v>
+        <v>327</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K268" s="4">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L268" s="4">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="M268" s="4">
-        <v>497.5</v>
-      </c>
-      <c r="N268" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O268" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="269">
       <c r="A269" s="2">
-        <v>2306</v>
+        <v>2505</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>540</v>
+        <v>65</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D269" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E269" s="3">
-        <v>45946.4975969444</v>
-      </c>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
+        <v>45946.498230162</v>
+      </c>
+      <c r="F269" s="2">
+        <v>80059</v>
+      </c>
+      <c r="G269" s="3">
+        <v>45947</v>
+      </c>
       <c r="H269" s="1" t="s">
-        <v>541</v>
+        <v>308</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K269" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L269" s="4">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="M269" s="4">
-        <v>0</v>
-      </c>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
+        <v>598</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="270">
       <c r="A270" s="2">
@@ -14476,10 +14568,10 @@
         <v>45946.498230162</v>
       </c>
       <c r="F270" s="2">
-        <v>80045</v>
+        <v>80059</v>
       </c>
       <c r="G270" s="3">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>542</v>
@@ -14488,22 +14580,22 @@
         <v>543</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>544</v>
+        <v>240</v>
       </c>
       <c r="K270" s="4">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="L270" s="4">
-        <v>6.89</v>
+        <v>51.5</v>
       </c>
       <c r="M270" s="4">
-        <v>20670</v>
+        <v>51.5</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>545</v>
+        <v>253</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="271">
@@ -14523,34 +14615,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F271" s="2">
-        <v>80044</v>
+        <v>80059</v>
       </c>
       <c r="G271" s="3">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>409</v>
+        <v>542</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K271" s="4">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="L271" s="4">
-        <v>350</v>
+        <v>51.5</v>
       </c>
       <c r="M271" s="4">
-        <v>14000</v>
+        <v>103</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>547</v>
+        <v>253</v>
       </c>
       <c r="O271" s="1" t="s">
-        <v>548</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="272">
@@ -14570,34 +14662,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F272" s="2">
-        <v>80048</v>
+        <v>80059</v>
       </c>
       <c r="G272" s="3">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="K272" s="4">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="L272" s="4">
-        <v>37.16</v>
+        <v>51.5</v>
       </c>
       <c r="M272" s="4">
-        <v>37160</v>
+        <v>103</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>551</v>
+        <v>253</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>552</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="273">
@@ -14617,34 +14709,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F273" s="2">
-        <v>80056</v>
+        <v>80059</v>
       </c>
       <c r="G273" s="3">
         <v>45947</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>553</v>
+        <v>357</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>554</v>
+        <v>358</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K273" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L273" s="4">
-        <v>17.03</v>
+        <v>30.9</v>
       </c>
       <c r="M273" s="4">
-        <v>17.03</v>
+        <v>92.7</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>555</v>
+        <v>253</v>
       </c>
       <c r="O273" s="1" t="s">
-        <v>556</v>
+        <v>254</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="274">
@@ -14664,34 +14756,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F274" s="2">
-        <v>80056</v>
+        <v>80045</v>
       </c>
       <c r="G274" s="3">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>48</v>
+        <v>546</v>
       </c>
       <c r="K274" s="4">
-        <v>25</v>
+        <v>3000</v>
       </c>
       <c r="L274" s="4">
-        <v>344.65</v>
+        <v>6.89</v>
       </c>
       <c r="M274" s="4">
-        <v>8616.25</v>
+        <v>20670</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="275">
@@ -14711,34 +14803,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F275" s="2">
-        <v>80056</v>
+        <v>80044</v>
       </c>
       <c r="G275" s="3">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>559</v>
+        <v>409</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="K275" s="4">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L275" s="4">
-        <v>5.87</v>
+        <v>350</v>
       </c>
       <c r="M275" s="4">
-        <v>35.22</v>
+        <v>14000</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="276">
@@ -14758,34 +14850,34 @@
         <v>45946.498230162</v>
       </c>
       <c r="F276" s="2">
-        <v>80056</v>
+        <v>80048</v>
       </c>
       <c r="G276" s="3">
-        <v>45947</v>
+        <v>45946</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="K276" s="4">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="L276" s="4">
-        <v>5.45</v>
+        <v>37.16</v>
       </c>
       <c r="M276" s="4">
-        <v>10.9</v>
+        <v>37160</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="277">
@@ -14804,28 +14896,36 @@
       <c r="E277" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
+      <c r="F277" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G277" s="3">
+        <v>45947</v>
+      </c>
       <c r="H277" s="1" t="s">
-        <v>308</v>
+        <v>555</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>309</v>
+        <v>556</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K277" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L277" s="4">
-        <v>0</v>
+        <v>17.03</v>
       </c>
       <c r="M277" s="4">
-        <v>0</v>
-      </c>
-      <c r="N277" s="1"/>
-      <c r="O277" s="1"/>
+        <v>17.03</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="278">
       <c r="A278" s="2">
@@ -14843,28 +14943,36 @@
       <c r="E278" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
+      <c r="F278" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G278" s="3">
+        <v>45947</v>
+      </c>
       <c r="H278" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="K278" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L278" s="4">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="M278" s="4">
-        <v>0</v>
-      </c>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
+        <v>344.75</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="279">
       <c r="A279" s="2">
@@ -14882,28 +14990,36 @@
       <c r="E279" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="F279" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G279" s="3">
+        <v>45947</v>
+      </c>
       <c r="H279" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="K279" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L279" s="4">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="M279" s="4">
-        <v>0</v>
-      </c>
-      <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
+        <v>5.88</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="280">
       <c r="A280" s="2">
@@ -14921,8 +15037,12 @@
       <c r="E280" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
+      <c r="F280" s="2">
+        <v>80056</v>
+      </c>
+      <c r="G280" s="3">
+        <v>45947</v>
+      </c>
       <c r="H280" s="1" t="s">
         <v>563</v>
       </c>
@@ -14930,19 +15050,23 @@
         <v>564</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="K280" s="4">
         <v>2</v>
       </c>
       <c r="L280" s="4">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="M280" s="4">
-        <v>0</v>
-      </c>
-      <c r="N280" s="1"/>
-      <c r="O280" s="1"/>
+        <v>5.46</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="281">
       <c r="A281" s="2">
@@ -14960,13 +15084,17 @@
       <c r="E281" s="3">
         <v>45946.498230162</v>
       </c>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="F281" s="2">
+        <v>80059</v>
+      </c>
+      <c r="G281" s="3">
+        <v>45947</v>
+      </c>
       <c r="H281" s="1" t="s">
-        <v>357</v>
+        <v>565</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>358</v>
+        <v>566</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>19</v>
@@ -14975,13 +15103,17 @@
         <v>3</v>
       </c>
       <c r="L281" s="4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M281" s="4">
-        <v>0</v>
-      </c>
-      <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
+        <v>12.6</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="282">
       <c r="A282" s="2">
@@ -15002,10 +15134,10 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>19</v>
@@ -15024,33 +15156,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="283">
       <c r="A283" s="2">
-        <v>2505</v>
+        <v>2409</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D283" s="2">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E283" s="3">
-        <v>45946.498230162</v>
+        <v>45946.5009254398</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1" t="s">
-        <v>567</v>
+        <v>59</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>568</v>
+        <v>60</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K283" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L283" s="4">
         <v>0</v>
@@ -15080,16 +15212,16 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1" t="s">
-        <v>59</v>
+        <v>407</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>60</v>
+        <v>408</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K284" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L284" s="4">
         <v>0</v>
@@ -15119,16 +15251,16 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1" t="s">
-        <v>407</v>
+        <v>569</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>408</v>
+        <v>570</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K285" s="4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L285" s="4">
         <v>0</v>
@@ -15158,16 +15290,16 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K286" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L286" s="4">
         <v>0</v>
@@ -15197,16 +15329,16 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K287" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L287" s="4">
         <v>0</v>
@@ -15236,16 +15368,16 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K288" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L288" s="4">
         <v>0</v>
@@ -15275,16 +15407,16 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K289" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L289" s="4">
         <v>0</v>
@@ -15314,16 +15446,16 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K290" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L290" s="4">
         <v>0</v>
@@ -15336,33 +15468,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="291">
       <c r="A291" s="2">
-        <v>2409</v>
+        <v>9991</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D291" s="2">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E291" s="3">
-        <v>45946.5009254398</v>
+        <v>45946.6253773032</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K291" s="4">
-        <v>25</v>
+        <v>9.6</v>
       </c>
       <c r="L291" s="4">
         <v>0</v>
@@ -15401,7 +15533,7 @@
         <v>215</v>
       </c>
       <c r="K292" s="4">
-        <v>9.6</v>
+        <v>680.4</v>
       </c>
       <c r="L292" s="4">
         <v>0</v>
@@ -15431,16 +15563,16 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K293" s="4">
-        <v>680.4</v>
+        <v>7.2</v>
       </c>
       <c r="L293" s="4">
         <v>0</v>
@@ -15479,7 +15611,7 @@
         <v>19</v>
       </c>
       <c r="K294" s="4">
-        <v>7.2</v>
+        <v>288</v>
       </c>
       <c r="L294" s="4">
         <v>0</v>
@@ -15492,42 +15624,50 @@
     </row>
     <row ht="12.75" customHeight="1" r="295">
       <c r="A295" s="2">
-        <v>9991</v>
+        <v>2317</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D295" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E295" s="3">
-        <v>45946.6253773032</v>
-      </c>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
+        <v>45946.6916552431</v>
+      </c>
+      <c r="F295" s="2">
+        <v>80047</v>
+      </c>
+      <c r="G295" s="3">
+        <v>45946</v>
+      </c>
       <c r="H295" s="1" t="s">
-        <v>583</v>
+        <v>221</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>584</v>
+        <v>222</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K295" s="4">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="L295" s="4">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M295" s="4">
-        <v>0</v>
-      </c>
-      <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="296">
       <c r="A296" s="2">
@@ -15552,22 +15692,22 @@
         <v>45946</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K296" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L296" s="4">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="M296" s="4">
-        <v>27</v>
+        <v>67.5</v>
       </c>
       <c r="N296" s="1" t="s">
         <v>131</v>
@@ -15599,22 +15739,22 @@
         <v>45946</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="I297" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K297" s="4">
+        <v>2</v>
+      </c>
+      <c r="L297" s="4">
+        <v>65</v>
+      </c>
+      <c r="M297" s="4">
         <v>130</v>
-      </c>
-      <c r="J297" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K297" s="4">
-        <v>15</v>
-      </c>
-      <c r="L297" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M297" s="4">
-        <v>67.5</v>
       </c>
       <c r="N297" s="1" t="s">
         <v>131</v>
@@ -15646,22 +15786,22 @@
         <v>45946</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>310</v>
+        <v>223</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>311</v>
+        <v>224</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K298" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L298" s="4">
-        <v>65</v>
+        <v>16.9</v>
       </c>
       <c r="M298" s="4">
-        <v>130</v>
+        <v>84.5</v>
       </c>
       <c r="N298" s="1" t="s">
         <v>131</v>
@@ -15693,22 +15833,22 @@
         <v>45946</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>223</v>
+        <v>519</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>224</v>
+        <v>520</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K299" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L299" s="4">
-        <v>16.9</v>
+        <v>68</v>
       </c>
       <c r="M299" s="4">
-        <v>84.5</v>
+        <v>68</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>131</v>
@@ -15740,22 +15880,22 @@
         <v>45946</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>519</v>
+        <v>318</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>520</v>
+        <v>319</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K300" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L300" s="4">
-        <v>68</v>
+        <v>24.9</v>
       </c>
       <c r="M300" s="4">
-        <v>68</v>
+        <v>74.7</v>
       </c>
       <c r="N300" s="1" t="s">
         <v>131</v>
@@ -15781,34 +15921,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F301" s="2">
-        <v>80047</v>
+        <v>80046</v>
       </c>
       <c r="G301" s="3">
         <v>45946</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>318</v>
+        <v>585</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>319</v>
+        <v>586</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K301" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L301" s="4">
-        <v>24.9</v>
+        <v>106</v>
       </c>
       <c r="M301" s="4">
-        <v>74.7</v>
+        <v>1590</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="302">
@@ -15828,34 +15968,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F302" s="2">
-        <v>80046</v>
+        <v>80049</v>
       </c>
       <c r="G302" s="3">
         <v>45946</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>585</v>
+        <v>523</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>586</v>
+        <v>524</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K302" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L302" s="4">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="M302" s="4">
-        <v>1590</v>
+        <v>130</v>
       </c>
       <c r="N302" s="1" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="303">
@@ -15875,34 +16015,34 @@
         <v>45946.6916552431</v>
       </c>
       <c r="F303" s="2">
-        <v>80049</v>
+        <v>80043</v>
       </c>
       <c r="G303" s="3">
         <v>45946</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>523</v>
+        <v>282</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>524</v>
+        <v>283</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K303" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L303" s="4">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M303" s="4">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>417</v>
+        <v>24</v>
       </c>
       <c r="O303" s="1" t="s">
-        <v>418</v>
+        <v>25</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="304">
@@ -15928,22 +16068,22 @@
         <v>45946</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="K304" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L304" s="4">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="M304" s="4">
-        <v>64</v>
+        <v>710</v>
       </c>
       <c r="N304" s="1" t="s">
         <v>24</v>
@@ -15975,10 +16115,10 @@
         <v>45946</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>213</v>
+        <v>587</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>214</v>
+        <v>588</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>215</v>
@@ -15987,10 +16127,10 @@
         <v>10</v>
       </c>
       <c r="L305" s="4">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="M305" s="4">
-        <v>710</v>
+        <v>2340</v>
       </c>
       <c r="N305" s="1" t="s">
         <v>24</v>
@@ -16001,49 +16141,49 @@
     </row>
     <row ht="12.75" customHeight="1" r="306">
       <c r="A306" s="2">
-        <v>2317</v>
+        <v>2515</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D306" s="2">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E306" s="3">
-        <v>45946.6916552431</v>
+        <v>45946.6938907986</v>
       </c>
       <c r="F306" s="2">
-        <v>80043</v>
+        <v>80067</v>
       </c>
       <c r="G306" s="3">
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>587</v>
+        <v>440</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>588</v>
+        <v>441</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="K306" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="L306" s="4">
-        <v>234</v>
+        <v>2.2</v>
       </c>
       <c r="M306" s="4">
-        <v>2340</v>
+        <v>440</v>
       </c>
       <c r="N306" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="O306" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="307">
@@ -16062,28 +16202,36 @@
       <c r="E307" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
+      <c r="F307" s="2">
+        <v>80067</v>
+      </c>
+      <c r="G307" s="3">
+        <v>45947</v>
+      </c>
       <c r="H307" s="1" t="s">
-        <v>440</v>
+        <v>129</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>441</v>
+        <v>130</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K307" s="4">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L307" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M307" s="4">
-        <v>0</v>
-      </c>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="308">
       <c r="A308" s="2">
@@ -16101,28 +16249,36 @@
       <c r="E308" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F308" s="1"/>
-      <c r="G308" s="1"/>
+      <c r="F308" s="2">
+        <v>80065</v>
+      </c>
+      <c r="G308" s="3">
+        <v>45947</v>
+      </c>
       <c r="H308" s="1" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K308" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L308" s="4">
-        <v>0</v>
+        <v>65.6</v>
       </c>
       <c r="M308" s="4">
-        <v>0</v>
-      </c>
-      <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
+        <v>65.6</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="309">
       <c r="A309" s="2">
@@ -16140,28 +16296,36 @@
       <c r="E309" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F309" s="1"/>
-      <c r="G309" s="1"/>
+      <c r="F309" s="2">
+        <v>80065</v>
+      </c>
+      <c r="G309" s="3">
+        <v>45947</v>
+      </c>
       <c r="H309" s="1" t="s">
-        <v>310</v>
+        <v>589</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>311</v>
+        <v>590</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K309" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L309" s="4">
-        <v>0</v>
+        <v>147.9</v>
       </c>
       <c r="M309" s="4">
-        <v>0</v>
-      </c>
-      <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
+        <v>295.8</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="310">
       <c r="A310" s="2">
@@ -16179,28 +16343,36 @@
       <c r="E310" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F310" s="1"/>
-      <c r="G310" s="1"/>
+      <c r="F310" s="2">
+        <v>80067</v>
+      </c>
+      <c r="G310" s="3">
+        <v>45947</v>
+      </c>
       <c r="H310" s="1" t="s">
-        <v>589</v>
+        <v>195</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>590</v>
+        <v>196</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K310" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L310" s="4">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M310" s="4">
-        <v>0</v>
-      </c>
-      <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
+        <v>810</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="311">
       <c r="A311" s="2">
@@ -16218,13 +16390,17 @@
       <c r="E311" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F311" s="1"/>
-      <c r="G311" s="1"/>
+      <c r="F311" s="2">
+        <v>80067</v>
+      </c>
+      <c r="G311" s="3">
+        <v>45947</v>
+      </c>
       <c r="H311" s="1" t="s">
-        <v>195</v>
+        <v>591</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>196</v>
+        <v>592</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>135</v>
@@ -16233,13 +16409,17 @@
         <v>3</v>
       </c>
       <c r="L311" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M311" s="4">
-        <v>0</v>
-      </c>
-      <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
+        <v>540</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="312">
       <c r="A312" s="2">
@@ -16257,28 +16437,36 @@
       <c r="E312" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
+      <c r="F312" s="2">
+        <v>80067</v>
+      </c>
+      <c r="G312" s="3">
+        <v>45947</v>
+      </c>
       <c r="H312" s="1" t="s">
-        <v>591</v>
+        <v>22</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>592</v>
+        <v>23</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="K312" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L312" s="4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M312" s="4">
-        <v>0</v>
-      </c>
-      <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
+        <v>575</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="313">
       <c r="A313" s="2">
@@ -16296,28 +16484,36 @@
       <c r="E313" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
+      <c r="F313" s="2">
+        <v>80066</v>
+      </c>
+      <c r="G313" s="3">
+        <v>45947</v>
+      </c>
       <c r="H313" s="1" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K313" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L313" s="4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M313" s="4">
-        <v>0</v>
-      </c>
-      <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="314">
       <c r="A314" s="2">
@@ -16335,28 +16531,36 @@
       <c r="E314" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F314" s="1"/>
-      <c r="G314" s="1"/>
+      <c r="F314" s="2">
+        <v>80066</v>
+      </c>
+      <c r="G314" s="3">
+        <v>45947</v>
+      </c>
       <c r="H314" s="1" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>239</v>
+        <v>334</v>
       </c>
       <c r="J314" s="1" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="K314" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L314" s="4">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M314" s="4">
-        <v>0</v>
-      </c>
-      <c r="N314" s="1"/>
-      <c r="O314" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="315">
       <c r="A315" s="2">
@@ -16374,28 +16578,36 @@
       <c r="E315" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
+      <c r="F315" s="2">
+        <v>80066</v>
+      </c>
+      <c r="G315" s="3">
+        <v>45947</v>
+      </c>
       <c r="H315" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J315" s="1" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
       <c r="K315" s="4">
+        <v>20</v>
+      </c>
+      <c r="L315" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M315" s="4">
         <v>30</v>
       </c>
-      <c r="L315" s="4">
-        <v>0</v>
-      </c>
-      <c r="M315" s="4">
-        <v>0</v>
-      </c>
-      <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
+      <c r="N315" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="316">
       <c r="A316" s="2">
@@ -16413,28 +16625,36 @@
       <c r="E316" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
+      <c r="F316" s="2">
+        <v>80069</v>
+      </c>
+      <c r="G316" s="3">
+        <v>45947</v>
+      </c>
       <c r="H316" s="1" t="s">
-        <v>337</v>
+        <v>593</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>338</v>
+        <v>594</v>
       </c>
       <c r="J316" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="K316" s="4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L316" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M316" s="4">
-        <v>0</v>
-      </c>
-      <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="317">
       <c r="A317" s="2">
@@ -16452,28 +16672,36 @@
       <c r="E317" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
+      <c r="F317" s="2">
+        <v>80066</v>
+      </c>
+      <c r="G317" s="3">
+        <v>45947</v>
+      </c>
       <c r="H317" s="1" t="s">
-        <v>593</v>
+        <v>341</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>594</v>
+        <v>342</v>
       </c>
       <c r="J317" s="1" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="K317" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L317" s="4">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="M317" s="4">
-        <v>0</v>
-      </c>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
+        <v>747</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="318">
       <c r="A318" s="2">
@@ -16491,28 +16719,36 @@
       <c r="E318" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
+      <c r="F318" s="2">
+        <v>80066</v>
+      </c>
+      <c r="G318" s="3">
+        <v>45947</v>
+      </c>
       <c r="H318" s="1" t="s">
-        <v>341</v>
+        <v>597</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>342</v>
+        <v>598</v>
       </c>
       <c r="J318" s="1" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K318" s="4">
         <v>30</v>
       </c>
       <c r="L318" s="4">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="M318" s="4">
-        <v>0</v>
-      </c>
-      <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
+        <v>447</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="319">
       <c r="A319" s="2">
@@ -16530,28 +16766,36 @@
       <c r="E319" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F319" s="1"/>
-      <c r="G319" s="1"/>
+      <c r="F319" s="2">
+        <v>80072</v>
+      </c>
+      <c r="G319" s="3">
+        <v>45947</v>
+      </c>
       <c r="H319" s="1" t="s">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>596</v>
+        <v>56</v>
       </c>
       <c r="J319" s="1" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="K319" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L319" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M319" s="4">
-        <v>0</v>
-      </c>
-      <c r="N319" s="1"/>
-      <c r="O319" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="320">
       <c r="A320" s="2">
@@ -16569,28 +16813,36 @@
       <c r="E320" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F320" s="1"/>
-      <c r="G320" s="1"/>
+      <c r="F320" s="2">
+        <v>80072</v>
+      </c>
+      <c r="G320" s="3">
+        <v>45947</v>
+      </c>
       <c r="H320" s="1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K320" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L320" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M320" s="4">
-        <v>0</v>
-      </c>
-      <c r="N320" s="1"/>
-      <c r="O320" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O320" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="321">
       <c r="A321" s="2">
@@ -16608,28 +16860,36 @@
       <c r="E321" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F321" s="1"/>
-      <c r="G321" s="1"/>
+      <c r="F321" s="2">
+        <v>80069</v>
+      </c>
+      <c r="G321" s="3">
+        <v>45947</v>
+      </c>
       <c r="H321" s="1" t="s">
-        <v>263</v>
+        <v>599</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>264</v>
+        <v>600</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="K321" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L321" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M321" s="4">
-        <v>0</v>
-      </c>
-      <c r="N321" s="1"/>
-      <c r="O321" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="N321" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O321" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="322">
       <c r="A322" s="2">
@@ -16647,13 +16907,17 @@
       <c r="E322" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="F322" s="2">
+        <v>80069</v>
+      </c>
+      <c r="G322" s="3">
+        <v>45947</v>
+      </c>
       <c r="H322" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>328</v>
@@ -16662,13 +16926,17 @@
         <v>2</v>
       </c>
       <c r="L322" s="4">
-        <v>0</v>
+        <v>236.8</v>
       </c>
       <c r="M322" s="4">
-        <v>0</v>
-      </c>
-      <c r="N322" s="1"/>
-      <c r="O322" s="1"/>
+        <v>473.6</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O322" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="323">
       <c r="A323" s="2">
@@ -16686,13 +16954,17 @@
       <c r="E323" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F323" s="1"/>
-      <c r="G323" s="1"/>
+      <c r="F323" s="2">
+        <v>80069</v>
+      </c>
+      <c r="G323" s="3">
+        <v>45947</v>
+      </c>
       <c r="H323" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>328</v>
@@ -16701,13 +16973,17 @@
         <v>2</v>
       </c>
       <c r="L323" s="4">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="M323" s="4">
-        <v>0</v>
-      </c>
-      <c r="N323" s="1"/>
-      <c r="O323" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O323" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="324">
       <c r="A324" s="2">
@@ -16725,28 +17001,36 @@
       <c r="E324" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
+      <c r="F324" s="2">
+        <v>80068</v>
+      </c>
+      <c r="G324" s="3">
+        <v>45947</v>
+      </c>
       <c r="H324" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>328</v>
+        <v>142</v>
       </c>
       <c r="K324" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L324" s="4">
-        <v>0</v>
+        <v>16.333</v>
       </c>
       <c r="M324" s="4">
-        <v>0</v>
-      </c>
-      <c r="N324" s="1"/>
-      <c r="O324" s="1"/>
+        <v>489.99</v>
+      </c>
+      <c r="N324" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O324" s="1" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="325">
       <c r="A325" s="2">
@@ -16764,28 +17048,36 @@
       <c r="E325" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F325" s="1"/>
-      <c r="G325" s="1"/>
+      <c r="F325" s="2">
+        <v>80069</v>
+      </c>
+      <c r="G325" s="3">
+        <v>45947</v>
+      </c>
       <c r="H325" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="J325" s="1" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="K325" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L325" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M325" s="4">
-        <v>0</v>
-      </c>
-      <c r="N325" s="1"/>
-      <c r="O325" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="N325" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="O325" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="326">
       <c r="A326" s="2">
@@ -16803,28 +17095,36 @@
       <c r="E326" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
+      <c r="F326" s="2">
+        <v>80070</v>
+      </c>
+      <c r="G326" s="3">
+        <v>45947</v>
+      </c>
       <c r="H326" s="1" t="s">
-        <v>605</v>
+        <v>409</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>606</v>
+        <v>410</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="K326" s="4">
         <v>2</v>
       </c>
       <c r="L326" s="4">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="M326" s="4">
-        <v>0</v>
-      </c>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
+        <v>840</v>
+      </c>
+      <c r="N326" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O326" s="1" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="327">
       <c r="A327" s="2">
@@ -16842,28 +17142,36 @@
       <c r="E327" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
+      <c r="F327" s="2">
+        <v>80073</v>
+      </c>
+      <c r="G327" s="3">
+        <v>45947</v>
+      </c>
       <c r="H327" s="1" t="s">
-        <v>409</v>
+        <v>529</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>410</v>
+        <v>530</v>
       </c>
       <c r="J327" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="K327" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L327" s="4">
-        <v>0</v>
+        <v>143.33</v>
       </c>
       <c r="M327" s="4">
-        <v>0</v>
-      </c>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
+        <v>1289.97</v>
+      </c>
+      <c r="N327" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O327" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="328">
       <c r="A328" s="2">
@@ -16881,67 +17189,83 @@
       <c r="E328" s="3">
         <v>45946.6938907986</v>
       </c>
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
+      <c r="F328" s="2">
+        <v>80071</v>
+      </c>
+      <c r="G328" s="3">
+        <v>45947</v>
+      </c>
       <c r="H328" s="1" t="s">
-        <v>529</v>
+        <v>61</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>530</v>
+        <v>62</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K328" s="4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L328" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M328" s="4">
-        <v>0</v>
-      </c>
-      <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
+        <v>1700</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O328" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="329">
       <c r="A329" s="2">
-        <v>2515</v>
+        <v>2503</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D329" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E329" s="3">
-        <v>45946.6938907986</v>
-      </c>
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
+        <v>45946.6980613657</v>
+      </c>
+      <c r="F329" s="2">
+        <v>80040</v>
+      </c>
+      <c r="G329" s="3">
+        <v>45946</v>
+      </c>
       <c r="H329" s="1" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="K329" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L329" s="4">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M329" s="4">
-        <v>0</v>
-      </c>
-      <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
+        <v>890</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O329" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="330">
       <c r="A330" s="2">
@@ -16960,89 +17284,81 @@
         <v>45946.6980613657</v>
       </c>
       <c r="F330" s="2">
-        <v>80040</v>
+        <v>80041</v>
       </c>
       <c r="G330" s="3">
         <v>45946</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="K330" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L330" s="4">
-        <v>89</v>
+        <v>23.43</v>
       </c>
       <c r="M330" s="4">
-        <v>890</v>
+        <v>702.9</v>
       </c>
       <c r="N330" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O330" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="331">
       <c r="A331" s="2">
-        <v>2503</v>
+        <v>9992</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>300</v>
+        <v>613</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D331" s="2">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="E331" s="3">
-        <v>45946.6980613657</v>
-      </c>
-      <c r="F331" s="2">
-        <v>80041</v>
-      </c>
-      <c r="G331" s="3">
-        <v>45946</v>
-      </c>
+        <v>45946.7492093634</v>
+      </c>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
       <c r="H331" s="1" t="s">
-        <v>17</v>
+        <v>593</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="K331" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L331" s="4">
-        <v>23.43</v>
+        <v>0</v>
       </c>
       <c r="M331" s="4">
-        <v>702.9</v>
-      </c>
-      <c r="N331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O331" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="332">
       <c r="A332" s="2">
         <v>9992</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>54</v>
@@ -17056,10 +17372,10 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>328</v>
@@ -17081,7 +17397,7 @@
         <v>9992</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>54</v>
@@ -17095,10 +17411,10 @@
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>328</v>
@@ -17117,33 +17433,33 @@
     </row>
     <row ht="12.75" customHeight="1" r="334">
       <c r="A334" s="2">
-        <v>9992</v>
+        <v>2212</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>607</v>
+        <v>159</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D334" s="2">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="E334" s="3">
-        <v>45946.7492093634</v>
+        <v>45947.4456146296</v>
       </c>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1" t="s">
-        <v>610</v>
+        <v>310</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>611</v>
+        <v>311</v>
       </c>
       <c r="J334" s="1" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="K334" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L334" s="4">
         <v>0</v>
@@ -17153,6 +17469,786 @@
       </c>
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="335">
+      <c r="A335" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D335" s="2">
+        <v>249</v>
+      </c>
+      <c r="E335" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" s="4">
+        <v>30</v>
+      </c>
+      <c r="L335" s="4">
+        <v>0</v>
+      </c>
+      <c r="M335" s="4">
+        <v>0</v>
+      </c>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="336">
+      <c r="A336" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D336" s="2">
+        <v>249</v>
+      </c>
+      <c r="E336" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K336" s="4">
+        <v>10</v>
+      </c>
+      <c r="L336" s="4">
+        <v>0</v>
+      </c>
+      <c r="M336" s="4">
+        <v>0</v>
+      </c>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="337">
+      <c r="A337" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D337" s="2">
+        <v>249</v>
+      </c>
+      <c r="E337" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K337" s="4">
+        <v>50</v>
+      </c>
+      <c r="L337" s="4">
+        <v>0</v>
+      </c>
+      <c r="M337" s="4">
+        <v>0</v>
+      </c>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="338">
+      <c r="A338" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D338" s="2">
+        <v>249</v>
+      </c>
+      <c r="E338" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" s="4">
+        <v>10</v>
+      </c>
+      <c r="L338" s="4">
+        <v>0</v>
+      </c>
+      <c r="M338" s="4">
+        <v>0</v>
+      </c>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="339">
+      <c r="A339" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D339" s="2">
+        <v>249</v>
+      </c>
+      <c r="E339" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K339" s="4">
+        <v>30</v>
+      </c>
+      <c r="L339" s="4">
+        <v>0</v>
+      </c>
+      <c r="M339" s="4">
+        <v>0</v>
+      </c>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="340">
+      <c r="A340" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D340" s="2">
+        <v>249</v>
+      </c>
+      <c r="E340" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K340" s="4">
+        <v>3</v>
+      </c>
+      <c r="L340" s="4">
+        <v>0</v>
+      </c>
+      <c r="M340" s="4">
+        <v>0</v>
+      </c>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="341">
+      <c r="A341" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D341" s="2">
+        <v>249</v>
+      </c>
+      <c r="E341" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="4">
+        <v>50</v>
+      </c>
+      <c r="L341" s="4">
+        <v>0</v>
+      </c>
+      <c r="M341" s="4">
+        <v>0</v>
+      </c>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="342">
+      <c r="A342" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D342" s="2">
+        <v>249</v>
+      </c>
+      <c r="E342" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="4">
+        <v>20</v>
+      </c>
+      <c r="L342" s="4">
+        <v>0</v>
+      </c>
+      <c r="M342" s="4">
+        <v>0</v>
+      </c>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="343">
+      <c r="A343" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D343" s="2">
+        <v>249</v>
+      </c>
+      <c r="E343" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="4">
+        <v>3</v>
+      </c>
+      <c r="L343" s="4">
+        <v>0</v>
+      </c>
+      <c r="M343" s="4">
+        <v>0</v>
+      </c>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="344">
+      <c r="A344" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D344" s="2">
+        <v>249</v>
+      </c>
+      <c r="E344" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K344" s="4">
+        <v>50</v>
+      </c>
+      <c r="L344" s="4">
+        <v>0</v>
+      </c>
+      <c r="M344" s="4">
+        <v>0</v>
+      </c>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="345">
+      <c r="A345" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D345" s="2">
+        <v>249</v>
+      </c>
+      <c r="E345" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="4">
+        <v>40</v>
+      </c>
+      <c r="L345" s="4">
+        <v>0</v>
+      </c>
+      <c r="M345" s="4">
+        <v>0</v>
+      </c>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="346">
+      <c r="A346" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D346" s="2">
+        <v>249</v>
+      </c>
+      <c r="E346" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K346" s="4">
+        <v>200</v>
+      </c>
+      <c r="L346" s="4">
+        <v>0</v>
+      </c>
+      <c r="M346" s="4">
+        <v>0</v>
+      </c>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="347">
+      <c r="A347" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D347" s="2">
+        <v>249</v>
+      </c>
+      <c r="E347" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F347" s="1"/>
+      <c r="G347" s="1"/>
+      <c r="H347" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K347" s="4">
+        <v>48</v>
+      </c>
+      <c r="L347" s="4">
+        <v>0</v>
+      </c>
+      <c r="M347" s="4">
+        <v>0</v>
+      </c>
+      <c r="N347" s="1"/>
+      <c r="O347" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="348">
+      <c r="A348" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D348" s="2">
+        <v>249</v>
+      </c>
+      <c r="E348" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F348" s="1"/>
+      <c r="G348" s="1"/>
+      <c r="H348" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K348" s="4">
+        <v>30</v>
+      </c>
+      <c r="L348" s="4">
+        <v>0</v>
+      </c>
+      <c r="M348" s="4">
+        <v>0</v>
+      </c>
+      <c r="N348" s="1"/>
+      <c r="O348" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="349">
+      <c r="A349" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D349" s="2">
+        <v>249</v>
+      </c>
+      <c r="E349" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K349" s="4">
+        <v>1</v>
+      </c>
+      <c r="L349" s="4">
+        <v>0</v>
+      </c>
+      <c r="M349" s="4">
+        <v>0</v>
+      </c>
+      <c r="N349" s="1"/>
+      <c r="O349" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="350">
+      <c r="A350" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D350" s="2">
+        <v>249</v>
+      </c>
+      <c r="E350" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
+      <c r="H350" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K350" s="4">
+        <v>2</v>
+      </c>
+      <c r="L350" s="4">
+        <v>0</v>
+      </c>
+      <c r="M350" s="4">
+        <v>0</v>
+      </c>
+      <c r="N350" s="1"/>
+      <c r="O350" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="351">
+      <c r="A351" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D351" s="2">
+        <v>249</v>
+      </c>
+      <c r="E351" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K351" s="4">
+        <v>24</v>
+      </c>
+      <c r="L351" s="4">
+        <v>0</v>
+      </c>
+      <c r="M351" s="4">
+        <v>0</v>
+      </c>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="352">
+      <c r="A352" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D352" s="2">
+        <v>249</v>
+      </c>
+      <c r="E352" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F352" s="1"/>
+      <c r="G352" s="1"/>
+      <c r="H352" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K352" s="4">
+        <v>6</v>
+      </c>
+      <c r="L352" s="4">
+        <v>0</v>
+      </c>
+      <c r="M352" s="4">
+        <v>0</v>
+      </c>
+      <c r="N352" s="1"/>
+      <c r="O352" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="353">
+      <c r="A353" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D353" s="2">
+        <v>249</v>
+      </c>
+      <c r="E353" s="3">
+        <v>45947.4456146296</v>
+      </c>
+      <c r="F353" s="1"/>
+      <c r="G353" s="1"/>
+      <c r="H353" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K353" s="4">
+        <v>1</v>
+      </c>
+      <c r="L353" s="4">
+        <v>0</v>
+      </c>
+      <c r="M353" s="4">
+        <v>0</v>
+      </c>
+      <c r="N353" s="1"/>
+      <c r="O353" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="354">
+      <c r="A354" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D354" s="2">
+        <v>250</v>
+      </c>
+      <c r="E354" s="3">
+        <v>45947.5160844444</v>
+      </c>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
+      <c r="H354" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K354" s="4">
+        <v>1</v>
+      </c>
+      <c r="L354" s="4">
+        <v>0</v>
+      </c>
+      <c r="M354" s="4">
+        <v>0</v>
+      </c>
+      <c r="N354" s="1"/>
+      <c r="O354" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>EMPRD</t>
   </si>
@@ -242,6 +242,18 @@
     <t>DISCO DE CORTE PARA FERRO 4/12''</t>
   </si>
   <si>
+    <t>E.04.0749</t>
+  </si>
+  <si>
+    <t>PARAFUSADEIRA</t>
+  </si>
+  <si>
+    <t>00000000008882</t>
+  </si>
+  <si>
+    <t>GALPÃO DAS FERRAMENT</t>
+  </si>
+  <si>
     <t>S.10.0064</t>
   </si>
   <si>
@@ -260,39 +272,33 @@
     <t>TECNOBANHO</t>
   </si>
   <si>
+    <t>W.01.0047</t>
+  </si>
+  <si>
+    <t>PREGO DE AÇO COM CABEÇA 18 X 27</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
     <t>W.03.0052</t>
   </si>
   <si>
     <t>ESPUMA EXPANSIVA DE PU 500ML</t>
   </si>
   <si>
+    <t>P2.01.0024</t>
+  </si>
+  <si>
+    <t>BARRA CHATA DE AÇO INOX</t>
+  </si>
+  <si>
     <t>P3.02.172</t>
   </si>
   <si>
     <t xml:space="preserve">RALO HEMISFÉRICO ( ABACAXI  ) - 150MM -</t>
   </si>
   <si>
-    <t>E.04.0749</t>
-  </si>
-  <si>
-    <t>PARAFUSADEIRA</t>
-  </si>
-  <si>
-    <t>W.01.0047</t>
-  </si>
-  <si>
-    <t>PREGO DE AÇO COM CABEÇA 18 X 27</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>P2.01.0024</t>
-  </si>
-  <si>
-    <t>BARRA CHATA DE AÇO INOX</t>
-  </si>
-  <si>
     <t>1807 PARTICIPAÇÕES LTDA</t>
   </si>
   <si>
@@ -335,6 +341,12 @@
     <t>MODULO INTERRUPTOR PARALELO PARAFUSO REF: 663001- PIAL NEREYA</t>
   </si>
   <si>
+    <t>00000000008820</t>
+  </si>
+  <si>
+    <t>NOVA FASE</t>
+  </si>
+  <si>
     <t>K.08.1326</t>
   </si>
   <si>
@@ -476,12 +488,6 @@
     <t>NÍVEL A LASER</t>
   </si>
   <si>
-    <t>00000000008882</t>
-  </si>
-  <si>
-    <t>GALPÃO DAS FERRAMENT</t>
-  </si>
-  <si>
     <t>F.01.0014</t>
   </si>
   <si>
@@ -917,6 +923,60 @@
     <t>IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
   </si>
   <si>
+    <t>E.03.0038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA DE LÁTEX   AMARELA   COM FORRO ESPESSURA: 0,60 MM</t>
+  </si>
+  <si>
+    <t>E.04.0720</t>
+  </si>
+  <si>
+    <t>BROXA RETANGULAR</t>
+  </si>
+  <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PVC PARA OBRA</t>
+  </si>
+  <si>
+    <t>E.04.0646</t>
+  </si>
+  <si>
+    <t>LÂMINA DE SERRA P/ FERRO - STARRET</t>
+  </si>
+  <si>
+    <t>J.02.0905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA ESPECIAL  SUPERFLEX AC III - PORTOKOLL 20KG BRANCA</t>
+  </si>
+  <si>
+    <t>U.01.0262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA DE SOBREPOR DECA COZINHA  HIDE INOS  REF CC650 40 SUP INX</t>
+  </si>
+  <si>
+    <t>00000000007902</t>
+  </si>
+  <si>
+    <t>DECA RED</t>
+  </si>
+  <si>
+    <t>U.02.21014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIONAMENTO PARA MISTURADOR  DE MESA REDONDO CROMADO DECA YOU REF 4992 C104</t>
+  </si>
+  <si>
+    <t>W.07.0002</t>
+  </si>
+  <si>
+    <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - FLUIDO - SIKADUR 32 - 1 KG</t>
+  </si>
+  <si>
     <t>C.01.0001</t>
   </si>
   <si>
@@ -929,42 +989,12 @@
     <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
   </si>
   <si>
-    <t>E.03.0038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA DE LÁTEX   AMARELA   COM FORRO ESPESSURA: 0,60 MM</t>
-  </si>
-  <si>
-    <t>E.04.0720</t>
-  </si>
-  <si>
-    <t>BROXA RETANGULAR</t>
-  </si>
-  <si>
-    <t>E.04.0003</t>
-  </si>
-  <si>
-    <t>BALDE PVC PARA OBRA</t>
-  </si>
-  <si>
-    <t>E.04.0646</t>
-  </si>
-  <si>
-    <t>LÂMINA DE SERRA P/ FERRO - STARRET</t>
-  </si>
-  <si>
     <t>E.04.0777</t>
   </si>
   <si>
     <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
   </si>
   <si>
-    <t>J.02.0905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA ESPECIAL  SUPERFLEX AC III - PORTOKOLL 20KG BRANCA</t>
-  </si>
-  <si>
     <t>M.05.0100</t>
   </si>
   <si>
@@ -980,30 +1010,12 @@
     <t>GL</t>
   </si>
   <si>
-    <t>U.01.0262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBA DE SOBREPOR DECA COZINHA  HIDE INOS  REF CC650 40 SUP INX</t>
-  </si>
-  <si>
     <t>U.02.0802</t>
   </si>
   <si>
     <t>VÁLVULA PARA TANQUE</t>
   </si>
   <si>
-    <t>U.02.21014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACIONAMENTO PARA MISTURADOR  DE MESA REDONDO CROMADO DECA YOU REF 4992 C104</t>
-  </si>
-  <si>
-    <t>W.07.0002</t>
-  </si>
-  <si>
-    <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - FLUIDO - SIKADUR 32 - 1 KG</t>
-  </si>
-  <si>
     <t>P2.03.0500</t>
   </si>
   <si>
@@ -1038,6 +1050,84 @@
   </si>
   <si>
     <t>CIMENTO CP II - E-32 - 25 KG</t>
+  </si>
+  <si>
+    <t>E.03.0135</t>
+  </si>
+  <si>
+    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 17 DECIBÉIS</t>
+  </si>
+  <si>
+    <t>M.06.0002</t>
+  </si>
+  <si>
+    <t>CHAPA DE POLICARBONATO</t>
+  </si>
+  <si>
+    <t>O.01.0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 10"</t>
+  </si>
+  <si>
+    <t>O.01.0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE  3 X 3"</t>
+  </si>
+  <si>
+    <t>E.02.0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA CREPE  VERDE 48 MM X 50MM AUTOMOTIVA</t>
+  </si>
+  <si>
+    <t>E.03.0272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACETE MSA  MODELO  V-GARD  COM CANEIRA CATRACA BRANCO</t>
+  </si>
+  <si>
+    <t>E.03.0257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACETE MSA  MODELO  V-GARD  COM CANEIRA CATRACA CINZA</t>
+  </si>
+  <si>
+    <t>E.04.0405</t>
+  </si>
+  <si>
+    <t>ESTILETE AUTOMÁTICO EMBORRACHADO 8 LÂMINAS - 18MM</t>
+  </si>
+  <si>
+    <t>S.10.0062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU 40  FLEX ADESIVO DE POLIURETANO DE CURA RÁPIDA COR BRANCO  TUBO 310ML</t>
+  </si>
+  <si>
+    <t>J.02.0001</t>
+  </si>
+  <si>
+    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
+  </si>
+  <si>
+    <t>E.01.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPACTADOR DE SOLO  À PERCUSSÃO, GASOLINA</t>
+  </si>
+  <si>
+    <t>E.02.0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONA PLÁSTICA  TRANSPARENTE  - 4 X 50 M</t>
+  </si>
+  <si>
+    <t>W.03.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINCA PINO   PSA10 CAL 27 MAGANIZADO  VERMELHO  C-22</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -2366,10 +2456,10 @@
         <v>45944.501445544</v>
       </c>
       <c r="F22" s="2">
-        <v>80091</v>
+        <v>80097</v>
       </c>
       <c r="G22" s="3">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>76</v>
@@ -2381,19 +2471,19 @@
         <v>19</v>
       </c>
       <c r="K22" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>11.55</v>
+        <v>1798</v>
       </c>
       <c r="M22" s="4">
-        <v>231</v>
+        <v>1798</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="23">
@@ -2413,34 +2503,34 @@
         <v>45944.501445544</v>
       </c>
       <c r="F23" s="2">
-        <v>80092</v>
+        <v>80091</v>
       </c>
       <c r="G23" s="3">
         <v>45950</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L23" s="4">
-        <v>254.7</v>
+        <v>11.55</v>
       </c>
       <c r="M23" s="4">
-        <v>1018.8</v>
+        <v>231</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="24">
@@ -2460,7 +2550,7 @@
         <v>45944.501445544</v>
       </c>
       <c r="F24" s="2">
-        <v>80091</v>
+        <v>80092</v>
       </c>
       <c r="G24" s="3">
         <v>45950</v>
@@ -2475,19 +2565,19 @@
         <v>19</v>
       </c>
       <c r="K24" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L24" s="4">
-        <v>11.55</v>
+        <v>254.7</v>
       </c>
       <c r="M24" s="4">
-        <v>231</v>
+        <v>1018.8</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="25">
@@ -2507,34 +2597,34 @@
         <v>45944.501445544</v>
       </c>
       <c r="F25" s="2">
-        <v>80091</v>
+        <v>80097</v>
       </c>
       <c r="G25" s="3">
-        <v>45950</v>
+        <v>45951</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K25" s="4">
         <v>2</v>
       </c>
       <c r="L25" s="4">
-        <v>96.99</v>
+        <v>33</v>
       </c>
       <c r="M25" s="4">
-        <v>193.98</v>
+        <v>66</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="26">
@@ -2553,28 +2643,36 @@
       <c r="E26" s="3">
         <v>45944.501445544</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="2">
+        <v>80091</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45950</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="27">
       <c r="A27" s="2">
@@ -2592,28 +2690,36 @@
       <c r="E27" s="3">
         <v>45944.501445544</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="2">
+        <v>80097</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45951</v>
+      </c>
       <c r="H27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K27" s="4">
         <v>2</v>
       </c>
       <c r="L27" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="M27" s="4">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="28">
       <c r="A28" s="2">
@@ -2631,13 +2737,17 @@
       <c r="E28" s="3">
         <v>45944.501445544</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="2">
+        <v>80091</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45950</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
@@ -2646,20 +2756,24 @@
         <v>2</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
+        <v>96.99</v>
       </c>
       <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+        <v>193.98</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="29">
       <c r="A29" s="2">
         <v>2511</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
@@ -2677,10 +2791,10 @@
         <v>45944</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
@@ -2695,10 +2809,10 @@
         <v>860</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="30">
@@ -2706,7 +2820,7 @@
         <v>2511</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
@@ -2753,7 +2867,7 @@
         <v>2511</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
@@ -2771,10 +2885,10 @@
         <v>45944</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>19</v>
@@ -2800,7 +2914,7 @@
         <v>2511</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
@@ -2818,10 +2932,10 @@
         <v>45944</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>19</v>
@@ -2847,7 +2961,7 @@
         <v>2511</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
@@ -2865,10 +2979,10 @@
         <v>45944</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
@@ -2894,7 +3008,7 @@
         <v>2316</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>16</v>
@@ -2905,13 +3019,17 @@
       <c r="E34" s="3">
         <v>45944.6661398843</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="2">
+        <v>80098</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45951</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
@@ -2920,20 +3038,24 @@
         <v>2</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>39.13</v>
       </c>
       <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+        <v>78.26</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="35">
       <c r="A35" s="2">
         <v>2316</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
@@ -2944,13 +3066,17 @@
       <c r="E35" s="3">
         <v>45944.6661398843</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="2">
+        <v>80098</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45951</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>19</v>
@@ -2959,20 +3085,24 @@
         <v>1</v>
       </c>
       <c r="L35" s="4">
-        <v>0</v>
+        <v>66.44</v>
       </c>
       <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+        <v>66.44</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="36">
       <c r="A36" s="2">
         <v>2316</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>16</v>
@@ -2983,13 +3113,17 @@
       <c r="E36" s="3">
         <v>45944.6661398843</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="2">
+        <v>80098</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45951</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
@@ -2998,20 +3132,24 @@
         <v>1</v>
       </c>
       <c r="L36" s="4">
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="M36" s="4">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+        <v>7.48</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="37">
       <c r="A37" s="2">
         <v>2515</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>16</v>
@@ -3029,13 +3167,13 @@
         <v>45946</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K37" s="4">
         <v>67.5</v>
@@ -3047,10 +3185,10 @@
         <v>9443.25</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="38">
@@ -3058,7 +3196,7 @@
         <v>2507</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
@@ -3076,10 +3214,10 @@
         <v>45946</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>19</v>
@@ -3094,10 +3232,10 @@
         <v>65.5</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="39">
@@ -3105,7 +3243,7 @@
         <v>2507</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -3123,10 +3261,10 @@
         <v>45946</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
@@ -3141,10 +3279,10 @@
         <v>21.02</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="40">
@@ -3152,7 +3290,7 @@
         <v>2507</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
@@ -3170,13 +3308,13 @@
         <v>45946</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K40" s="4">
         <v>3</v>
@@ -3188,10 +3326,10 @@
         <v>118.38</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="41">
@@ -3199,7 +3337,7 @@
         <v>2507</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
@@ -3217,10 +3355,10 @@
         <v>45946</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
@@ -3235,10 +3373,10 @@
         <v>49.33</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="42">
@@ -3246,7 +3384,7 @@
         <v>2507</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -3264,10 +3402,10 @@
         <v>45946</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
@@ -3293,7 +3431,7 @@
         <v>2507</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>16</v>
@@ -3311,10 +3449,10 @@
         <v>45946</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>19</v>
@@ -3329,10 +3467,10 @@
         <v>315.6</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="44">
@@ -3340,7 +3478,7 @@
         <v>2507</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>16</v>
@@ -3358,10 +3496,10 @@
         <v>45946</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>19</v>
@@ -3376,10 +3514,10 @@
         <v>119.4</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="45">
@@ -3387,7 +3525,7 @@
         <v>2507</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
@@ -3405,10 +3543,10 @@
         <v>45946</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>19</v>
@@ -3423,10 +3561,10 @@
         <v>59.6</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="46">
@@ -3434,7 +3572,7 @@
         <v>2507</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
@@ -3452,13 +3590,13 @@
         <v>45946</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K46" s="4">
         <v>9</v>
@@ -3481,7 +3619,7 @@
         <v>2407</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>34</v>
@@ -3499,10 +3637,10 @@
         <v>45946</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>19</v>
@@ -3528,7 +3666,7 @@
         <v>2407</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>34</v>
@@ -3575,7 +3713,7 @@
         <v>2407</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>34</v>
@@ -3593,13 +3731,13 @@
         <v>45946</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K49" s="4">
         <v>1</v>
@@ -3622,7 +3760,7 @@
         <v>2407</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>34</v>
@@ -3640,10 +3778,10 @@
         <v>45946</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -3669,7 +3807,7 @@
         <v>2407</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>34</v>
@@ -3687,10 +3825,10 @@
         <v>45946</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>43</v>
@@ -3716,7 +3854,7 @@
         <v>2407</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>34</v>
@@ -3734,13 +3872,13 @@
         <v>45946</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K52" s="4">
         <v>3</v>
@@ -3752,10 +3890,10 @@
         <v>20.7</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="53">
@@ -3763,7 +3901,7 @@
         <v>2407</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
@@ -3781,10 +3919,10 @@
         <v>45946</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
@@ -3799,10 +3937,10 @@
         <v>1207.85</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="54">
@@ -3810,7 +3948,7 @@
         <v>2407</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
@@ -3828,10 +3966,10 @@
         <v>45946</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -3846,10 +3984,10 @@
         <v>1009.8</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="55">
@@ -3857,7 +3995,7 @@
         <v>2407</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>34</v>
@@ -3875,13 +4013,13 @@
         <v>45946</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K55" s="4">
         <v>1</v>
@@ -3893,10 +4031,10 @@
         <v>669.9</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="56">
@@ -3904,7 +4042,7 @@
         <v>2510</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>16</v>
@@ -3951,7 +4089,7 @@
         <v>2510</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
@@ -3998,7 +4136,7 @@
         <v>2510</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>16</v>
@@ -4016,10 +4154,10 @@
         <v>45946</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>19</v>
@@ -4045,7 +4183,7 @@
         <v>2306</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>34</v>
@@ -4059,10 +4197,10 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>19</v>
@@ -4084,7 +4222,7 @@
         <v>2505</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>24</v>
@@ -4102,10 +4240,10 @@
         <v>45947</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>19</v>
@@ -4120,10 +4258,10 @@
         <v>598</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="61">
@@ -4131,7 +4269,7 @@
         <v>2505</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>
@@ -4149,10 +4287,10 @@
         <v>45947</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>69</v>
@@ -4167,10 +4305,10 @@
         <v>51.5</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="62">
@@ -4178,7 +4316,7 @@
         <v>2505</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
@@ -4196,10 +4334,10 @@
         <v>45947</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>69</v>
@@ -4214,10 +4352,10 @@
         <v>103</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="63">
@@ -4225,7 +4363,7 @@
         <v>2505</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
@@ -4243,10 +4381,10 @@
         <v>45947</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>69</v>
@@ -4261,10 +4399,10 @@
         <v>103</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="64">
@@ -4272,7 +4410,7 @@
         <v>2505</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
@@ -4290,10 +4428,10 @@
         <v>45947</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>19</v>
@@ -4308,10 +4446,10 @@
         <v>92.7</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="65">
@@ -4319,7 +4457,7 @@
         <v>2505</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
@@ -4337,13 +4475,13 @@
         <v>45946</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K65" s="4">
         <v>3000</v>
@@ -4355,10 +4493,10 @@
         <v>20670</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="66">
@@ -4366,7 +4504,7 @@
         <v>2505</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
@@ -4384,10 +4522,10 @@
         <v>45946</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>19</v>
@@ -4402,10 +4540,10 @@
         <v>14000</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="67">
@@ -4413,7 +4551,7 @@
         <v>2505</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>24</v>
@@ -4431,10 +4569,10 @@
         <v>45946</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>24</v>
@@ -4449,10 +4587,10 @@
         <v>37160</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="68">
@@ -4460,7 +4598,7 @@
         <v>2505</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>24</v>
@@ -4478,10 +4616,10 @@
         <v>45947</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>19</v>
@@ -4496,10 +4634,10 @@
         <v>17.03</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="69">
@@ -4507,7 +4645,7 @@
         <v>2505</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>24</v>
@@ -4525,13 +4663,13 @@
         <v>45947</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K69" s="4">
         <v>25</v>
@@ -4543,10 +4681,10 @@
         <v>344.75</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="70">
@@ -4554,7 +4692,7 @@
         <v>2505</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>24</v>
@@ -4572,13 +4710,13 @@
         <v>45947</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K70" s="4">
         <v>6</v>
@@ -4590,10 +4728,10 @@
         <v>5.88</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="71">
@@ -4601,7 +4739,7 @@
         <v>2505</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>24</v>
@@ -4619,13 +4757,13 @@
         <v>45947</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="K71" s="4">
         <v>2</v>
@@ -4637,10 +4775,10 @@
         <v>5.46</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="72">
@@ -4648,7 +4786,7 @@
         <v>2505</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>24</v>
@@ -4666,10 +4804,10 @@
         <v>45947</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>19</v>
@@ -4684,10 +4822,10 @@
         <v>12.6</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="73">
@@ -4695,7 +4833,7 @@
         <v>2505</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>24</v>
@@ -4709,10 +4847,10 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>19</v>
@@ -4734,7 +4872,7 @@
         <v>2409</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>16</v>
@@ -4748,10 +4886,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>19</v>
@@ -4773,7 +4911,7 @@
         <v>2409</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>16</v>
@@ -4787,10 +4925,10 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>19</v>
@@ -4812,7 +4950,7 @@
         <v>2409</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>16</v>
@@ -4826,10 +4964,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>24</v>
@@ -4851,7 +4989,7 @@
         <v>2409</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -4865,13 +5003,13 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K77" s="4">
         <v>25</v>
@@ -4890,7 +5028,7 @@
         <v>2409</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>16</v>
@@ -4904,10 +5042,10 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>19</v>
@@ -4929,7 +5067,7 @@
         <v>2409</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>16</v>
@@ -4943,10 +5081,10 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>19</v>
@@ -4968,7 +5106,7 @@
         <v>2409</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
@@ -4982,10 +5120,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
@@ -5007,7 +5145,7 @@
         <v>2409</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>16</v>
@@ -5021,10 +5159,10 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>19</v>
@@ -5046,7 +5184,7 @@
         <v>2409</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>16</v>
@@ -5060,10 +5198,10 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
@@ -5085,7 +5223,7 @@
         <v>2409</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>16</v>
@@ -5099,10 +5237,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
@@ -5124,7 +5262,7 @@
         <v>9991</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>16</v>
@@ -5138,16 +5276,16 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K84" s="4">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="L84" s="4">
         <v>0</v>
@@ -5163,7 +5301,7 @@
         <v>9991</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>16</v>
@@ -5177,16 +5315,16 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K85" s="4">
-        <v>680.4</v>
+        <v>54</v>
       </c>
       <c r="L85" s="4">
         <v>0</v>
@@ -5202,7 +5340,7 @@
         <v>9991</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
@@ -5216,16 +5354,16 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K86" s="4">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="L86" s="4">
         <v>0</v>
@@ -5241,7 +5379,7 @@
         <v>9991</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -5255,16 +5393,16 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K87" s="4">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="L87" s="4">
         <v>0</v>
@@ -5280,7 +5418,7 @@
         <v>2317</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -5298,10 +5436,10 @@
         <v>45946</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>19</v>
@@ -5327,7 +5465,7 @@
         <v>2317</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5345,10 +5483,10 @@
         <v>45946</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>19</v>
@@ -5374,7 +5512,7 @@
         <v>2317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>34</v>
@@ -5392,10 +5530,10 @@
         <v>45946</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>19</v>
@@ -5421,7 +5559,7 @@
         <v>2317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>34</v>
@@ -5468,7 +5606,7 @@
         <v>2317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
@@ -5486,10 +5624,10 @@
         <v>45946</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>19</v>
@@ -5515,7 +5653,7 @@
         <v>2317</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
@@ -5533,10 +5671,10 @@
         <v>45946</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>19</v>
@@ -5562,7 +5700,7 @@
         <v>2317</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>34</v>
@@ -5580,10 +5718,10 @@
         <v>45946</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>24</v>
@@ -5598,10 +5736,10 @@
         <v>1590</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="95">
@@ -5609,7 +5747,7 @@
         <v>2317</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
@@ -5627,10 +5765,10 @@
         <v>45946</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>19</v>
@@ -5645,10 +5783,10 @@
         <v>167.12</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5656,7 +5794,7 @@
         <v>2317</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -5674,10 +5812,10 @@
         <v>45946</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -5703,7 +5841,7 @@
         <v>2317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
@@ -5721,13 +5859,13 @@
         <v>45946</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K97" s="4">
         <v>10</v>
@@ -5750,7 +5888,7 @@
         <v>2317</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -5768,13 +5906,13 @@
         <v>45946</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K98" s="4">
         <v>10</v>
@@ -5797,7 +5935,7 @@
         <v>2515</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -5815,10 +5953,10 @@
         <v>45947</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>19</v>
@@ -5833,10 +5971,10 @@
         <v>440</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -5844,7 +5982,7 @@
         <v>2515</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
@@ -5862,10 +6000,10 @@
         <v>45947</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>19</v>
@@ -5880,10 +6018,10 @@
         <v>225</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -5891,7 +6029,7 @@
         <v>2515</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
@@ -5909,10 +6047,10 @@
         <v>45947</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>19</v>
@@ -5927,10 +6065,10 @@
         <v>65.6</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="102">
@@ -5938,7 +6076,7 @@
         <v>2515</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -5956,10 +6094,10 @@
         <v>45947</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>19</v>
@@ -5974,10 +6112,10 @@
         <v>295.8</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="103">
@@ -5985,7 +6123,7 @@
         <v>2515</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>16</v>
@@ -6021,10 +6159,10 @@
         <v>810</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -6032,7 +6170,7 @@
         <v>2515</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
@@ -6050,10 +6188,10 @@
         <v>45947</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>43</v>
@@ -6068,10 +6206,10 @@
         <v>540</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
@@ -6079,7 +6217,7 @@
         <v>2515</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
@@ -6115,10 +6253,10 @@
         <v>575</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
@@ -6126,7 +6264,7 @@
         <v>2515</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
@@ -6162,10 +6300,10 @@
         <v>195</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
@@ -6173,7 +6311,7 @@
         <v>2515</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
@@ -6191,13 +6329,13 @@
         <v>45947</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K107" s="4">
         <v>30</v>
@@ -6209,10 +6347,10 @@
         <v>117</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
@@ -6220,7 +6358,7 @@
         <v>2515</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -6238,10 +6376,10 @@
         <v>45947</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
@@ -6256,10 +6394,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
@@ -6267,7 +6405,7 @@
         <v>2515</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
@@ -6285,13 +6423,13 @@
         <v>45947</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K109" s="4">
         <v>2</v>
@@ -6303,10 +6441,10 @@
         <v>600</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
@@ -6314,7 +6452,7 @@
         <v>2515</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
@@ -6332,10 +6470,10 @@
         <v>45947</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6350,10 +6488,10 @@
         <v>747</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
@@ -6361,7 +6499,7 @@
         <v>2515</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
@@ -6379,10 +6517,10 @@
         <v>45947</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>69</v>
@@ -6397,10 +6535,10 @@
         <v>447</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="112">
@@ -6408,7 +6546,7 @@
         <v>2515</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>16</v>
@@ -6426,10 +6564,10 @@
         <v>45947</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>19</v>
@@ -6444,10 +6582,10 @@
         <v>35</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
@@ -6455,7 +6593,7 @@
         <v>2515</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>16</v>
@@ -6491,10 +6629,10 @@
         <v>175</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
@@ -6502,7 +6640,7 @@
         <v>2515</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>16</v>
@@ -6520,13 +6658,13 @@
         <v>45947</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K114" s="4">
         <v>2</v>
@@ -6538,10 +6676,10 @@
         <v>600</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
@@ -6549,7 +6687,7 @@
         <v>2515</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>16</v>
@@ -6567,13 +6705,13 @@
         <v>45947</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K115" s="4">
         <v>2</v>
@@ -6585,10 +6723,10 @@
         <v>473.6</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
@@ -6596,7 +6734,7 @@
         <v>2515</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>16</v>
@@ -6614,13 +6752,13 @@
         <v>45947</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K116" s="4">
         <v>2</v>
@@ -6632,10 +6770,10 @@
         <v>296</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="117">
@@ -6643,7 +6781,7 @@
         <v>2515</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>16</v>
@@ -6661,13 +6799,13 @@
         <v>45947</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K117" s="4">
         <v>30</v>
@@ -6679,10 +6817,10 @@
         <v>489.99</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="118">
@@ -6690,7 +6828,7 @@
         <v>2515</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>16</v>
@@ -6708,13 +6846,13 @@
         <v>45947</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K118" s="4">
         <v>2</v>
@@ -6726,10 +6864,10 @@
         <v>80</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="119">
@@ -6737,7 +6875,7 @@
         <v>2515</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>16</v>
@@ -6755,10 +6893,10 @@
         <v>45947</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>19</v>
@@ -6773,10 +6911,10 @@
         <v>840</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
@@ -6784,7 +6922,7 @@
         <v>2515</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>16</v>
@@ -6802,13 +6940,13 @@
         <v>45947</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K120" s="4">
         <v>9</v>
@@ -6831,7 +6969,7 @@
         <v>2515</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>16</v>
@@ -6849,10 +6987,10 @@
         <v>45947</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>19</v>
@@ -6867,10 +7005,10 @@
         <v>1700</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="122">
@@ -6878,7 +7016,7 @@
         <v>2503</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
@@ -6896,10 +7034,10 @@
         <v>45946</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>43</v>
@@ -6908,10 +7046,10 @@
         <v>10</v>
       </c>
       <c r="L122" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M122" s="4">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>54</v>
@@ -6925,7 +7063,7 @@
         <v>2503</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>34</v>
@@ -6943,10 +7081,10 @@
         <v>45946</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>19</v>
@@ -6972,7 +7110,7 @@
         <v>9992</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -6990,13 +7128,13 @@
         <v>45950</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K124" s="4">
         <v>3</v>
@@ -7008,10 +7146,10 @@
         <v>810</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="125">
@@ -7019,7 +7157,7 @@
         <v>9992</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>16</v>
@@ -7037,13 +7175,13 @@
         <v>45950</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K125" s="4">
         <v>3</v>
@@ -7055,10 +7193,10 @@
         <v>810</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="126">
@@ -7066,7 +7204,7 @@
         <v>9992</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -7084,13 +7222,13 @@
         <v>45950</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K126" s="4">
         <v>3</v>
@@ -7102,10 +7240,10 @@
         <v>900</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="127">
@@ -7113,7 +7251,7 @@
         <v>2212</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -7124,35 +7262,43 @@
       <c r="E127" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="F127" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G127" s="3">
+        <v>45951</v>
+      </c>
       <c r="H127" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="K127" s="4">
-        <v>100000</v>
+        <v>30</v>
       </c>
       <c r="L127" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M127" s="4">
-        <v>0</v>
-      </c>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
+        <v>540</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="128">
       <c r="A128" s="2">
         <v>2212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7163,35 +7309,43 @@
       <c r="E128" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="F128" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G128" s="3">
+        <v>45951</v>
+      </c>
       <c r="H128" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K128" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L128" s="4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M128" s="4">
-        <v>0</v>
-      </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
+        <v>1150</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="129">
       <c r="A129" s="2">
         <v>2212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -7202,35 +7356,43 @@
       <c r="E129" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="F129" s="2">
+        <v>80114</v>
+      </c>
+      <c r="G129" s="3">
+        <v>45951</v>
+      </c>
       <c r="H129" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K129" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L129" s="4">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="M129" s="4">
-        <v>0</v>
-      </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
+        <v>445</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="130">
       <c r="A130" s="2">
         <v>2212</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -7241,13 +7403,17 @@
       <c r="E130" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="F130" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G130" s="3">
+        <v>45951</v>
+      </c>
       <c r="H130" s="1" t="s">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>19</v>
@@ -7256,20 +7422,24 @@
         <v>10</v>
       </c>
       <c r="L130" s="4">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M130" s="4">
-        <v>0</v>
-      </c>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="131">
       <c r="A131" s="2">
         <v>2212</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
@@ -7280,35 +7450,43 @@
       <c r="E131" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="F131" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G131" s="3">
+        <v>45951</v>
+      </c>
       <c r="H131" s="1" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K131" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L131" s="4">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="M131" s="4">
-        <v>0</v>
-      </c>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="132">
       <c r="A132" s="2">
         <v>2212</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>16</v>
@@ -7319,35 +7497,43 @@
       <c r="E132" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="F132" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G132" s="3">
+        <v>45951</v>
+      </c>
       <c r="H132" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K132" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L132" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M132" s="4">
-        <v>0</v>
-      </c>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="133">
       <c r="A133" s="2">
         <v>2212</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>16</v>
@@ -7358,35 +7544,43 @@
       <c r="E133" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="F133" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G133" s="3">
+        <v>45951</v>
+      </c>
       <c r="H133" s="1" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K133" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L133" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M133" s="4">
-        <v>0</v>
-      </c>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+        <v>1750</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="134">
       <c r="A134" s="2">
         <v>2212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>16</v>
@@ -7397,35 +7591,43 @@
       <c r="E134" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="F134" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G134" s="3">
+        <v>45951</v>
+      </c>
       <c r="H134" s="1" t="s">
-        <v>70</v>
+        <v>309</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K134" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L134" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M134" s="4">
-        <v>0</v>
-      </c>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="135">
       <c r="A135" s="2">
         <v>2212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>16</v>
@@ -7436,35 +7638,43 @@
       <c r="E135" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="F135" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G135" s="3">
+        <v>45951</v>
+      </c>
       <c r="H135" s="1" t="s">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K135" s="4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L135" s="4">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M135" s="4">
-        <v>0</v>
-      </c>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="136">
       <c r="A136" s="2">
         <v>2212</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -7475,35 +7685,43 @@
       <c r="E136" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="2">
+        <v>80105</v>
+      </c>
+      <c r="G136" s="3">
+        <v>45951</v>
+      </c>
       <c r="H136" s="1" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K136" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L136" s="4">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="M136" s="4">
-        <v>0</v>
-      </c>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
+        <v>2460</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="137">
       <c r="A137" s="2">
         <v>2212</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>16</v>
@@ -7514,35 +7732,43 @@
       <c r="E137" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="F137" s="2">
+        <v>80104</v>
+      </c>
+      <c r="G137" s="3">
+        <v>45951</v>
+      </c>
       <c r="H137" s="1" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>312</v>
+        <v>28</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K137" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="L137" s="4">
-        <v>0</v>
+        <v>36.8</v>
       </c>
       <c r="M137" s="4">
-        <v>0</v>
-      </c>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
+        <v>7360</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="138">
       <c r="A138" s="2">
         <v>2212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>16</v>
@@ -7553,35 +7779,43 @@
       <c r="E138" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="F138" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G138" s="3">
+        <v>45951</v>
+      </c>
       <c r="H138" s="1" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K138" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L138" s="4">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="M138" s="4">
-        <v>0</v>
-      </c>
-      <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
+        <v>176.7</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="139">
       <c r="A139" s="2">
         <v>2212</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>16</v>
@@ -7592,35 +7826,43 @@
       <c r="E139" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="F139" s="2">
+        <v>80106</v>
+      </c>
+      <c r="G139" s="3">
+        <v>45951</v>
+      </c>
       <c r="H139" s="1" t="s">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K139" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L139" s="4">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="M139" s="4">
-        <v>0</v>
-      </c>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
+        <v>8900</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="140">
       <c r="A140" s="2">
         <v>2212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
@@ -7631,35 +7873,43 @@
       <c r="E140" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="F140" s="2">
+        <v>80106</v>
+      </c>
+      <c r="G140" s="3">
+        <v>45951</v>
+      </c>
       <c r="H140" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1</v>
+      </c>
+      <c r="L140" s="4">
+        <v>2820.84</v>
+      </c>
+      <c r="M140" s="4">
+        <v>2820.84</v>
+      </c>
+      <c r="N140" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="O140" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="J140" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" s="4">
-        <v>40</v>
-      </c>
-      <c r="L140" s="4">
-        <v>0</v>
-      </c>
-      <c r="M140" s="4">
-        <v>0</v>
-      </c>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="141">
       <c r="A141" s="2">
         <v>2212</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>16</v>
@@ -7670,35 +7920,43 @@
       <c r="E141" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="F141" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G141" s="3">
+        <v>45951</v>
+      </c>
       <c r="H141" s="1" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>28</v>
+        <v>320</v>
       </c>
       <c r="J141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="4">
         <v>24</v>
       </c>
-      <c r="K141" s="4">
-        <v>200</v>
-      </c>
       <c r="L141" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M141" s="4">
-        <v>0</v>
-      </c>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
+        <v>2376</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="142">
       <c r="A142" s="2">
         <v>2212</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -7712,16 +7970,16 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="K142" s="4">
-        <v>48</v>
+        <v>100000</v>
       </c>
       <c r="L142" s="4">
         <v>0</v>
@@ -7737,7 +7995,7 @@
         <v>2212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>16</v>
@@ -7751,16 +8009,16 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K143" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L143" s="4">
         <v>0</v>
@@ -7776,7 +8034,7 @@
         <v>2212</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>16</v>
@@ -7790,16 +8048,16 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
       <c r="K144" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L144" s="4">
         <v>0</v>
@@ -7815,7 +8073,7 @@
         <v>2212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>16</v>
@@ -7829,16 +8087,16 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K145" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L145" s="4">
         <v>0</v>
@@ -7854,7 +8112,7 @@
         <v>2212</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -7868,16 +8126,16 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="K146" s="4">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="L146" s="4">
         <v>0</v>
@@ -7893,7 +8151,7 @@
         <v>2212</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>16</v>
@@ -7907,13 +8165,13 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>19</v>
+        <v>331</v>
       </c>
       <c r="K147" s="4">
         <v>1</v>
@@ -7932,7 +8190,7 @@
         <v>2212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -7946,16 +8204,16 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K148" s="4">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="L148" s="4">
         <v>0</v>
@@ -7971,7 +8229,7 @@
         <v>2212</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
@@ -7985,10 +8243,10 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>19</v>
@@ -8010,7 +8268,7 @@
         <v>2212</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -8024,10 +8282,10 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>19</v>
@@ -8049,7 +8307,7 @@
         <v>2212</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -8067,10 +8325,10 @@
         <v>45950</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>19</v>
@@ -8085,10 +8343,10 @@
         <v>3255.54</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="152">
@@ -8096,7 +8354,7 @@
         <v>9991</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>16</v>
@@ -8110,10 +8368,10 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>24</v>
@@ -8146,8 +8404,12 @@
       <c r="E153" s="3">
         <v>45951.4505248264</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="F153" s="2">
+        <v>80100</v>
+      </c>
+      <c r="G153" s="3">
+        <v>45951</v>
+      </c>
       <c r="H153" s="1" t="s">
         <v>22</v>
       </c>
@@ -8161,13 +8423,17 @@
         <v>200</v>
       </c>
       <c r="L153" s="4">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="M153" s="4">
-        <v>0</v>
-      </c>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
+        <v>1160</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="154">
       <c r="A154" s="2">
@@ -8185,13 +8451,17 @@
       <c r="E154" s="3">
         <v>45951.4505248264</v>
       </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="F154" s="2">
+        <v>80100</v>
+      </c>
+      <c r="G154" s="3">
+        <v>45951</v>
+      </c>
       <c r="H154" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>24</v>
@@ -8200,13 +8470,791 @@
         <v>50</v>
       </c>
       <c r="L154" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="M154" s="4">
+        <v>1995</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="155">
+      <c r="A155" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" s="2">
+        <v>7</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45951.6794816782</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1</v>
+      </c>
+      <c r="L155" s="4">
         <v>0</v>
       </c>
-      <c r="M154" s="4">
+      <c r="M155" s="4">
         <v>0</v>
       </c>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="156">
+      <c r="A156" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="2">
+        <v>7</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45951.6794816782</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K156" s="4">
+        <v>10</v>
+      </c>
+      <c r="L156" s="4">
+        <v>0</v>
+      </c>
+      <c r="M156" s="4">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="157">
+      <c r="A157" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" s="2">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45951.6794816782</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" s="4">
+        <v>25</v>
+      </c>
+      <c r="L157" s="4">
+        <v>0</v>
+      </c>
+      <c r="M157" s="4">
+        <v>0</v>
+      </c>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="158">
+      <c r="A158" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="2">
+        <v>7</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45951.6794816782</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K158" s="4">
+        <v>20</v>
+      </c>
+      <c r="L158" s="4">
+        <v>0</v>
+      </c>
+      <c r="M158" s="4">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="159">
+      <c r="A159" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="2">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3">
+        <v>45951.6794816782</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K159" s="4">
+        <v>54</v>
+      </c>
+      <c r="L159" s="4">
+        <v>0</v>
+      </c>
+      <c r="M159" s="4">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="160">
+      <c r="A160" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2">
+        <v>3</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F160" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G160" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" s="4">
+        <v>10</v>
+      </c>
+      <c r="L160" s="4">
+        <v>13.49</v>
+      </c>
+      <c r="M160" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="161">
+      <c r="A161" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F161" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G161" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1</v>
+      </c>
+      <c r="L161" s="4">
+        <v>270</v>
+      </c>
+      <c r="M161" s="4">
+        <v>270</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="162">
+      <c r="A162" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2">
+        <v>3</v>
+      </c>
+      <c r="E162" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F162" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G162" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="4">
+        <v>20</v>
+      </c>
+      <c r="L162" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="M162" s="4">
+        <v>350</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="163">
+      <c r="A163" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2">
+        <v>3</v>
+      </c>
+      <c r="E163" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F163" s="2">
+        <v>80109</v>
+      </c>
+      <c r="G163" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" s="4">
+        <v>4</v>
+      </c>
+      <c r="L163" s="4">
+        <v>119</v>
+      </c>
+      <c r="M163" s="4">
+        <v>476</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="164">
+      <c r="A164" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3</v>
+      </c>
+      <c r="E164" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F164" s="2">
+        <v>80109</v>
+      </c>
+      <c r="G164" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="4">
+        <v>2</v>
+      </c>
+      <c r="L164" s="4">
+        <v>119</v>
+      </c>
+      <c r="M164" s="4">
+        <v>238</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="165">
+      <c r="A165" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2">
+        <v>3</v>
+      </c>
+      <c r="E165" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F165" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G165" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1</v>
+      </c>
+      <c r="L165" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="M165" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="166">
+      <c r="A166" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="2">
+        <v>3</v>
+      </c>
+      <c r="E166" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F166" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G166" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K166" s="4">
+        <v>3</v>
+      </c>
+      <c r="L166" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="M166" s="4">
+        <v>51.9</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="167">
+      <c r="A167" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2">
+        <v>3</v>
+      </c>
+      <c r="E167" s="3">
+        <v>45951.6950447222</v>
+      </c>
+      <c r="F167" s="2">
+        <v>80111</v>
+      </c>
+      <c r="G167" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K167" s="4">
+        <v>20</v>
+      </c>
+      <c r="L167" s="4">
+        <v>15</v>
+      </c>
+      <c r="M167" s="4">
+        <v>300</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="168">
+      <c r="A168" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2">
+        <v>14</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45951.6966636343</v>
+      </c>
+      <c r="F168" s="2">
+        <v>80108</v>
+      </c>
+      <c r="G168" s="3">
+        <v>45951</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K168" s="4">
+        <v>10</v>
+      </c>
+      <c r="L168" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="M168" s="4">
+        <v>345</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="169">
+      <c r="A169" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" s="2">
+        <v>67</v>
+      </c>
+      <c r="E169" s="3">
+        <v>45951.7347736227</v>
+      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K169" s="4">
+        <v>1</v>
+      </c>
+      <c r="L169" s="4">
+        <v>0</v>
+      </c>
+      <c r="M169" s="4">
+        <v>0</v>
+      </c>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="170">
+      <c r="A170" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" s="2">
+        <v>67</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45951.7347736227</v>
+      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1</v>
+      </c>
+      <c r="L170" s="4">
+        <v>0</v>
+      </c>
+      <c r="M170" s="4">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="171">
+      <c r="A171" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="2">
+        <v>67</v>
+      </c>
+      <c r="E171" s="3">
+        <v>45951.7347736227</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K171" s="4">
+        <v>3</v>
+      </c>
+      <c r="L171" s="4">
+        <v>0</v>
+      </c>
+      <c r="M171" s="4">
+        <v>0</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="172">
+      <c r="A172" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" s="2">
+        <v>67</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45951.7347736227</v>
+      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K172" s="4">
+        <v>2</v>
+      </c>
+      <c r="L172" s="4">
+        <v>0</v>
+      </c>
+      <c r="M172" s="4">
+        <v>0</v>
+      </c>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>EMPRD</t>
   </si>
@@ -707,6 +707,12 @@
     <t>IMPERMEABILIZANTE MSET TOP</t>
   </si>
   <si>
+    <t>00000000008508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MASTERPOL</t>
+  </si>
+  <si>
     <t>13.01.0546</t>
   </si>
   <si>
@@ -1116,6 +1122,12 @@
   </si>
   <si>
     <t xml:space="preserve">COMPACTADOR DE SOLO  À PERCUSSÃO, GASOLINA</t>
+  </si>
+  <si>
+    <t>00000000007636</t>
+  </si>
+  <si>
+    <t>ABRIL LOC</t>
   </si>
   <si>
     <t>E.02.0041</t>
@@ -5273,8 +5285,12 @@
       <c r="E84" s="3">
         <v>45946.6253773032</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="2">
+        <v>80115</v>
+      </c>
+      <c r="G84" s="3">
+        <v>45952</v>
+      </c>
       <c r="H84" s="1" t="s">
         <v>229</v>
       </c>
@@ -5288,13 +5304,17 @@
         <v>1</v>
       </c>
       <c r="L84" s="4">
-        <v>0</v>
+        <v>317.68</v>
       </c>
       <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
+        <v>317.68</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
       <c r="A85" s="2">
@@ -5312,8 +5332,12 @@
       <c r="E85" s="3">
         <v>45946.6253773032</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="2">
+        <v>80115</v>
+      </c>
+      <c r="G85" s="3">
+        <v>45952</v>
+      </c>
       <c r="H85" s="1" t="s">
         <v>229</v>
       </c>
@@ -5327,13 +5351,17 @@
         <v>54</v>
       </c>
       <c r="L85" s="4">
-        <v>0</v>
+        <v>500.34592</v>
       </c>
       <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
+        <v>27018.67968</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
       <c r="A86" s="2">
@@ -5351,13 +5379,17 @@
       <c r="E86" s="3">
         <v>45946.6253773032</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="2">
+        <v>80115</v>
+      </c>
+      <c r="G86" s="3">
+        <v>45952</v>
+      </c>
       <c r="H86" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>19</v>
@@ -5366,13 +5398,17 @@
         <v>1</v>
       </c>
       <c r="L86" s="4">
-        <v>0</v>
+        <v>672.46</v>
       </c>
       <c r="M86" s="4">
-        <v>0</v>
-      </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
+        <v>672.46</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
       <c r="A87" s="2">
@@ -5390,13 +5426,17 @@
       <c r="E87" s="3">
         <v>45946.6253773032</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="2">
+        <v>80115</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45952</v>
+      </c>
       <c r="H87" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>19</v>
@@ -5405,20 +5445,24 @@
         <v>40</v>
       </c>
       <c r="L87" s="4">
-        <v>0</v>
+        <v>655.46</v>
       </c>
       <c r="M87" s="4">
-        <v>0</v>
-      </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
+        <v>26218.4</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
       <c r="A88" s="2">
         <v>2317</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -5465,7 +5509,7 @@
         <v>2317</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5483,10 +5527,10 @@
         <v>45946</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>19</v>
@@ -5512,7 +5556,7 @@
         <v>2317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>34</v>
@@ -5559,7 +5603,7 @@
         <v>2317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>34</v>
@@ -5606,7 +5650,7 @@
         <v>2317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
@@ -5653,7 +5697,7 @@
         <v>2317</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
@@ -5671,10 +5715,10 @@
         <v>45946</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>19</v>
@@ -5700,7 +5744,7 @@
         <v>2317</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>34</v>
@@ -5718,10 +5762,10 @@
         <v>45946</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>24</v>
@@ -5747,7 +5791,7 @@
         <v>2317</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
@@ -5783,10 +5827,10 @@
         <v>167.12</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5794,7 +5838,7 @@
         <v>2317</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -5812,10 +5856,10 @@
         <v>45946</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -5841,7 +5885,7 @@
         <v>2317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
@@ -5859,10 +5903,10 @@
         <v>45946</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>130</v>
@@ -5888,7 +5932,7 @@
         <v>2317</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -5906,10 +5950,10 @@
         <v>45946</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>130</v>
@@ -5953,10 +5997,10 @@
         <v>45947</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>19</v>
@@ -5971,10 +6015,10 @@
         <v>440</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -6000,10 +6044,10 @@
         <v>45947</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>19</v>
@@ -6018,10 +6062,10 @@
         <v>225</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -6094,10 +6138,10 @@
         <v>45947</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>19</v>
@@ -6159,10 +6203,10 @@
         <v>810</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -6188,10 +6232,10 @@
         <v>45947</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>43</v>
@@ -6206,10 +6250,10 @@
         <v>540</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
@@ -6253,10 +6297,10 @@
         <v>575</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
@@ -6300,10 +6344,10 @@
         <v>195</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
@@ -6329,10 +6373,10 @@
         <v>45947</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>200</v>
@@ -6347,10 +6391,10 @@
         <v>117</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
@@ -6376,10 +6420,10 @@
         <v>45947</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
@@ -6394,10 +6438,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
@@ -6423,13 +6467,13 @@
         <v>45947</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K109" s="4">
         <v>2</v>
@@ -6441,10 +6485,10 @@
         <v>600</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
@@ -6470,10 +6514,10 @@
         <v>45947</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6488,10 +6532,10 @@
         <v>747</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
@@ -6517,10 +6561,10 @@
         <v>45947</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>69</v>
@@ -6535,10 +6579,10 @@
         <v>447</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="112">
@@ -6564,10 +6608,10 @@
         <v>45947</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>19</v>
@@ -6582,10 +6626,10 @@
         <v>35</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
@@ -6629,10 +6673,10 @@
         <v>175</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
@@ -6658,13 +6702,13 @@
         <v>45947</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K114" s="4">
         <v>2</v>
@@ -6676,10 +6720,10 @@
         <v>600</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
@@ -6705,13 +6749,13 @@
         <v>45947</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K115" s="4">
         <v>2</v>
@@ -6723,10 +6767,10 @@
         <v>473.6</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
@@ -6752,13 +6796,13 @@
         <v>45947</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K116" s="4">
         <v>2</v>
@@ -6770,10 +6814,10 @@
         <v>296</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="117">
@@ -6799,13 +6843,13 @@
         <v>45947</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K117" s="4">
         <v>30</v>
@@ -6817,10 +6861,10 @@
         <v>489.99</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="118">
@@ -6846,13 +6890,13 @@
         <v>45947</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K118" s="4">
         <v>2</v>
@@ -6864,10 +6908,10 @@
         <v>80</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="119">
@@ -6911,10 +6955,10 @@
         <v>840</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
@@ -6987,10 +7031,10 @@
         <v>45947</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>19</v>
@@ -7005,10 +7049,10 @@
         <v>1700</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="122">
@@ -7016,7 +7060,7 @@
         <v>2503</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
@@ -7063,7 +7107,7 @@
         <v>2503</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>34</v>
@@ -7081,10 +7125,10 @@
         <v>45946</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>19</v>
@@ -7110,7 +7154,7 @@
         <v>9992</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -7128,13 +7172,13 @@
         <v>45950</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K124" s="4">
         <v>3</v>
@@ -7146,10 +7190,10 @@
         <v>810</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="125">
@@ -7157,7 +7201,7 @@
         <v>9992</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>16</v>
@@ -7175,13 +7219,13 @@
         <v>45950</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K125" s="4">
         <v>3</v>
@@ -7193,10 +7237,10 @@
         <v>810</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="126">
@@ -7204,7 +7248,7 @@
         <v>9992</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -7222,13 +7266,13 @@
         <v>45950</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K126" s="4">
         <v>3</v>
@@ -7240,10 +7284,10 @@
         <v>900</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="127">
@@ -7251,7 +7295,7 @@
         <v>2212</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -7269,10 +7313,10 @@
         <v>45951</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>19</v>
@@ -7287,10 +7331,10 @@
         <v>540</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="128">
@@ -7298,7 +7342,7 @@
         <v>2212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7334,10 +7378,10 @@
         <v>1150</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="129">
@@ -7345,7 +7389,7 @@
         <v>2212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -7363,10 +7407,10 @@
         <v>45951</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>69</v>
@@ -7381,10 +7425,10 @@
         <v>445</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="130">
@@ -7392,7 +7436,7 @@
         <v>2212</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -7410,10 +7454,10 @@
         <v>45951</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>19</v>
@@ -7428,10 +7472,10 @@
         <v>65</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="131">
@@ -7439,7 +7483,7 @@
         <v>2212</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
@@ -7475,10 +7519,10 @@
         <v>597</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="132">
@@ -7486,7 +7530,7 @@
         <v>2212</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>16</v>
@@ -7504,10 +7548,10 @@
         <v>45951</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>19</v>
@@ -7522,10 +7566,10 @@
         <v>24</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="133">
@@ -7533,7 +7577,7 @@
         <v>2212</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>16</v>
@@ -7569,10 +7613,10 @@
         <v>1750</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="134">
@@ -7580,7 +7624,7 @@
         <v>2212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>16</v>
@@ -7598,10 +7642,10 @@
         <v>45951</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>19</v>
@@ -7616,10 +7660,10 @@
         <v>300</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="135">
@@ -7627,7 +7671,7 @@
         <v>2212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>16</v>
@@ -7663,10 +7707,10 @@
         <v>325</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="136">
@@ -7674,7 +7718,7 @@
         <v>2212</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -7692,10 +7736,10 @@
         <v>45951</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>19</v>
@@ -7721,7 +7765,7 @@
         <v>2212</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>16</v>
@@ -7768,7 +7812,7 @@
         <v>2212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>16</v>
@@ -7786,10 +7830,10 @@
         <v>45951</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -7804,10 +7848,10 @@
         <v>176.7</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="139">
@@ -7815,7 +7859,7 @@
         <v>2212</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>16</v>
@@ -7833,10 +7877,10 @@
         <v>45951</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>19</v>
@@ -7851,10 +7895,10 @@
         <v>8900</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="140">
@@ -7862,7 +7906,7 @@
         <v>2212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
@@ -7880,10 +7924,10 @@
         <v>45951</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>19</v>
@@ -7898,10 +7942,10 @@
         <v>2820.84</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="141">
@@ -7909,7 +7953,7 @@
         <v>2212</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>16</v>
@@ -7927,10 +7971,10 @@
         <v>45951</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>19</v>
@@ -7945,10 +7989,10 @@
         <v>2376</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="142">
@@ -7956,7 +8000,7 @@
         <v>2212</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -7970,10 +8014,10 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>180</v>
@@ -7995,7 +8039,7 @@
         <v>2212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>16</v>
@@ -8034,7 +8078,7 @@
         <v>2212</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>16</v>
@@ -8048,10 +8092,10 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>43</v>
@@ -8073,7 +8117,7 @@
         <v>2212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>16</v>
@@ -8087,10 +8131,10 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>19</v>
@@ -8112,7 +8156,7 @@
         <v>2212</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -8126,10 +8170,10 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>118</v>
@@ -8151,7 +8195,7 @@
         <v>2212</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>16</v>
@@ -8165,13 +8209,13 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K147" s="4">
         <v>1</v>
@@ -8190,7 +8234,7 @@
         <v>2212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -8204,10 +8248,10 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>19</v>
@@ -8229,7 +8273,7 @@
         <v>2212</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
@@ -8243,10 +8287,10 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>19</v>
@@ -8268,7 +8312,7 @@
         <v>2212</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -8282,10 +8326,10 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>19</v>
@@ -8307,7 +8351,7 @@
         <v>2212</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -8325,10 +8369,10 @@
         <v>45950</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>19</v>
@@ -8343,10 +8387,10 @@
         <v>3255.54</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="152">
@@ -8368,10 +8412,10 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>24</v>
@@ -8458,10 +8502,10 @@
         <v>45951</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>24</v>
@@ -8501,10 +8545,10 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>19</v>
@@ -8540,10 +8584,10 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>200</v>
@@ -8579,10 +8623,10 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>19</v>
@@ -8618,10 +8662,10 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>197</v>
@@ -8657,10 +8701,10 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>197</v>
@@ -8718,10 +8762,10 @@
         <v>134.9</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="161">
@@ -8765,10 +8809,10 @@
         <v>270</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="162">
@@ -8794,10 +8838,10 @@
         <v>45951</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>19</v>
@@ -8812,10 +8856,10 @@
         <v>350</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="163">
@@ -8841,10 +8885,10 @@
         <v>45951</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>19</v>
@@ -8859,10 +8903,10 @@
         <v>476</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="164">
@@ -8888,10 +8932,10 @@
         <v>45951</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>19</v>
@@ -8906,10 +8950,10 @@
         <v>238</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
@@ -8953,10 +8997,10 @@
         <v>5.9</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
@@ -8982,10 +9026,10 @@
         <v>45951</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>19</v>
@@ -9000,10 +9044,10 @@
         <v>51.9</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="167">
@@ -9029,10 +9073,10 @@
         <v>45951</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>19</v>
@@ -9047,10 +9091,10 @@
         <v>300</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
@@ -9076,10 +9120,10 @@
         <v>45951</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>24</v>
@@ -9116,13 +9160,17 @@
       <c r="E169" s="3">
         <v>45951.7347736227</v>
       </c>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
+      <c r="F169" s="2">
+        <v>80116</v>
+      </c>
+      <c r="G169" s="3">
+        <v>45952</v>
+      </c>
       <c r="H169" s="1" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>19</v>
@@ -9131,13 +9179,17 @@
         <v>1</v>
       </c>
       <c r="L169" s="4">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="M169" s="4">
-        <v>0</v>
-      </c>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="170">
       <c r="A170" s="2">
@@ -9158,10 +9210,10 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>19</v>
@@ -9197,10 +9249,10 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>43</v>
@@ -9236,10 +9288,10 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>130</v>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>EMPRD</t>
   </si>
@@ -644,16 +644,22 @@
     <t xml:space="preserve">DISCO DE CORTE DIAMANTADO PARA PORCELANATO  CONTINUO ( 4 1/2'' )</t>
   </si>
   <si>
+    <t>00000000000315</t>
+  </si>
+  <si>
+    <t>CRUZADA</t>
+  </si>
+  <si>
     <t>F.01.0011</t>
   </si>
   <si>
     <t>ESCADA 6 DEGRAUS</t>
   </si>
   <si>
-    <t>J.02.0602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA QUALIMASSA USO EXTERNA  50KG</t>
+    <t>J.02.0001</t>
+  </si>
+  <si>
+    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
   </si>
   <si>
     <t>K.01.0270</t>
@@ -662,18 +668,30 @@
     <t>CABO FLEXÍVEL PP - 750 V - 3 X 1,5 MM²</t>
   </si>
   <si>
+    <t>S.10.0020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELANTE DE SILICONE 310 ML  - CURA NEUTRA</t>
+  </si>
+  <si>
+    <t>P1.02.1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESSI SOFFIONE LATERAL RETTANGOLO NIQUEL ESCOVADO  COD 32975</t>
+  </si>
+  <si>
+    <t>00000000008963</t>
+  </si>
+  <si>
+    <t>G 25</t>
+  </si>
+  <si>
     <t>O.01.0165</t>
   </si>
   <si>
     <t>CHAPA DE EUCATEX</t>
   </si>
   <si>
-    <t>S.10.0020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELANTE DE SILICONE 310 ML  - CURA NEUTRA</t>
-  </si>
-  <si>
     <t>U.02.0653</t>
   </si>
   <si>
@@ -692,12 +710,6 @@
     <t>DUCHA MANUAL COM DESVIADOR PARA CHUVEIRO DE PAREDE C30 NIQUEL ESCOVADO REF 90009342044</t>
   </si>
   <si>
-    <t>P1.02.1019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESSI SOFFIONE LATERAL RETTANGOLO NIQUEL ESCOVADO  COD 32975</t>
-  </si>
-  <si>
     <t>DÉBITO ADMINISTRAÇÃO (OBRAS)</t>
   </si>
   <si>
@@ -929,6 +941,30 @@
     <t>IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
   </si>
   <si>
+    <t>C.01.0001</t>
+  </si>
+  <si>
+    <t>AGUA CARRO PIPA</t>
+  </si>
+  <si>
+    <t>00000000007748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CARRO PIPA</t>
+  </si>
+  <si>
+    <t>E.02.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
+  </si>
+  <si>
+    <t>00000000009021</t>
+  </si>
+  <si>
+    <t>AKEMI REPRESENTANTE</t>
+  </si>
+  <si>
     <t>E.03.0038</t>
   </si>
   <si>
@@ -953,12 +989,39 @@
     <t>LÂMINA DE SERRA P/ FERRO - STARRET</t>
   </si>
   <si>
+    <t>E.04.0777</t>
+  </si>
+  <si>
+    <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
+  </si>
+  <si>
     <t>J.02.0905</t>
   </si>
   <si>
     <t xml:space="preserve">ARGAMASSA ESPECIAL  SUPERFLEX AC III - PORTOKOLL 20KG BRANCA</t>
   </si>
   <si>
+    <t>M.05.0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELHA METÁLICA TRAPEZOIDAL COM PINTURA  EM UMA FACE</t>
+  </si>
+  <si>
+    <t>R.02.0023</t>
+  </si>
+  <si>
+    <t>TINTA ACRILICA GALÃO DE 3,6L</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>00000000008674</t>
+  </si>
+  <si>
+    <t>REI DAS TINTAS</t>
+  </si>
+  <si>
     <t>U.01.0262</t>
   </si>
   <si>
@@ -983,37 +1046,22 @@
     <t>ADESIVO ESTRUTURAL A BASE DE RESINA EPÓXI - FLUIDO - SIKADUR 32 - 1 KG</t>
   </si>
   <si>
-    <t>C.01.0001</t>
-  </si>
-  <si>
-    <t>AGUA CARRO PIPA</t>
-  </si>
-  <si>
-    <t>E.02.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TK MANTA DE PROTEÇÃO  1,00 X 25,00M X 5MM ( TECNOKOLL )</t>
-  </si>
-  <si>
-    <t>E.04.0777</t>
-  </si>
-  <si>
-    <t>REGUA DE ALUMINIO 3 X 1 1/2''</t>
-  </si>
-  <si>
-    <t>M.05.0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELHA METÁLICA TRAPEZOIDAL COM PINTURA  EM UMA FACE</t>
-  </si>
-  <si>
-    <t>R.02.0023</t>
-  </si>
-  <si>
-    <t>TINTA ACRILICA GALÃO DE 3,6L</t>
-  </si>
-  <si>
-    <t>GL</t>
+    <t>P2.03.0500</t>
+  </si>
+  <si>
+    <t>TAMPÃO EM ALUMINIO DUPLA VEDAÇÃO 60 X 60 CM</t>
+  </si>
+  <si>
+    <t>00000000002470</t>
+  </si>
+  <si>
+    <t>SANTA EDWIGES</t>
+  </si>
+  <si>
+    <t>P3.02.0100</t>
+  </si>
+  <si>
+    <t>TAMPÃO DE FERRO FUNDIDO COM ARTICULÇÃO - 60 CM DIÂMETRO</t>
   </si>
   <si>
     <t>U.02.0802</t>
@@ -1022,18 +1070,6 @@
     <t>VÁLVULA PARA TANQUE</t>
   </si>
   <si>
-    <t>P2.03.0500</t>
-  </si>
-  <si>
-    <t>TAMPÃO EM ALUMINIO DUPLA VEDAÇÃO 60 X 60 CM</t>
-  </si>
-  <si>
-    <t>P3.02.0100</t>
-  </si>
-  <si>
-    <t>TAMPÃO DE FERRO FUNDIDO COM ARTICULÇÃO - 60 CM DIÂMETRO</t>
-  </si>
-  <si>
     <t>E.01.0031</t>
   </si>
   <si>
@@ -1052,12 +1088,36 @@
     <t>AREIA MEDIA</t>
   </si>
   <si>
+    <t>00000000000107</t>
+  </si>
+  <si>
+    <t>AQUALAR</t>
+  </si>
+  <si>
     <t>J.05.0002</t>
   </si>
   <si>
     <t>CIMENTO CP II - E-32 - 25 KG</t>
   </si>
   <si>
+    <t>O.01.0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 10"</t>
+  </si>
+  <si>
+    <t>00000000008356</t>
+  </si>
+  <si>
+    <t>PALMAPLASTIC</t>
+  </si>
+  <si>
+    <t>O.01.0091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE  3 X 3"</t>
+  </si>
+  <si>
     <t>E.03.0135</t>
   </si>
   <si>
@@ -1070,18 +1130,6 @@
     <t>CHAPA DE POLICARBONATO</t>
   </si>
   <si>
-    <t>O.01.0111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABUA DE PINUS  1" X 10"</t>
-  </si>
-  <si>
-    <t>O.01.0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTALETE  3 X 3"</t>
-  </si>
-  <si>
     <t>E.02.0016</t>
   </si>
   <si>
@@ -1112,12 +1160,6 @@
     <t xml:space="preserve">PU 40  FLEX ADESIVO DE POLIURETANO DE CURA RÁPIDA COR BRANCO  TUBO 310ML</t>
   </si>
   <si>
-    <t>J.02.0001</t>
-  </si>
-  <si>
-    <t>ARGAMASSA - QUALIMASSA MULT USO- 50 KG</t>
-  </si>
-  <si>
     <t>E.01.0114</t>
   </si>
   <si>
@@ -1140,6 +1182,159 @@
   </si>
   <si>
     <t xml:space="preserve">FINCA PINO   PSA10 CAL 27 MAGANIZADO  VERMELHO  C-22</t>
+  </si>
+  <si>
+    <t>E.03.0102</t>
+  </si>
+  <si>
+    <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF2</t>
+  </si>
+  <si>
+    <t>E.03.0175</t>
+  </si>
+  <si>
+    <t>TOUCA DE SOLDADOR EM BRIM ( C.A )</t>
+  </si>
+  <si>
+    <t>E.04.0582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA PLASTICA PARA ARGAMASSA DE PVC -  450L</t>
+  </si>
+  <si>
+    <t>E.04.0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCO DE ESPUMA  OU CAMURÇA</t>
+  </si>
+  <si>
+    <t>I.02.0106</t>
+  </si>
+  <si>
+    <t>BLOCO DE CONCRETO VEDAÇÃO 09 X 19 X 39</t>
+  </si>
+  <si>
+    <t>J.03.0003</t>
+  </si>
+  <si>
+    <t>AREIA GROSSA</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>J.06.0001</t>
+  </si>
+  <si>
+    <t>REJUNTE QUARTZOLIT</t>
+  </si>
+  <si>
+    <t>L.01.0054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIJOLO  CERÂMICA BAIANO 14 X 19 X 29</t>
+  </si>
+  <si>
+    <t>S.02.0006</t>
+  </si>
+  <si>
+    <t>ISOPOR CORTADO</t>
+  </si>
+  <si>
+    <t>S.04.0072</t>
+  </si>
+  <si>
+    <t>AGUARRÁS - GALÃO 5L</t>
+  </si>
+  <si>
+    <t>W.06.0055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR REDUCOLA  - CASCOLA</t>
+  </si>
+  <si>
+    <t>C.05.0306</t>
+  </si>
+  <si>
+    <t>PORTA CADEADO</t>
+  </si>
+  <si>
+    <t>E.01.0070</t>
+  </si>
+  <si>
+    <t>CADEADO 20 MM</t>
+  </si>
+  <si>
+    <t>E.02.0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONA TERREIRO PRETA  8 X 100M</t>
+  </si>
+  <si>
+    <t>E.03.0150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA  DE SEGURANÇA MSA  NOBUCK MARLUVAS CADARÇO</t>
+  </si>
+  <si>
+    <t>E.03.0002</t>
+  </si>
+  <si>
+    <t>LUVA DE PU</t>
+  </si>
+  <si>
+    <t>E.04.0153</t>
+  </si>
+  <si>
+    <t>RÉGUA DE NÍVEL E PRUMO - 48''</t>
+  </si>
+  <si>
+    <t>E.04.0247</t>
+  </si>
+  <si>
+    <t>LANTERNA</t>
+  </si>
+  <si>
+    <t>E.04.0167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESQUADRO PROFISSIONAL DE ALUMINIO SOLDADO 1,00  X  1,20M</t>
+  </si>
+  <si>
+    <t>K.07.0705</t>
+  </si>
+  <si>
+    <t>REFLETOR DE LED 200W A PROVA D'AGUA</t>
+  </si>
+  <si>
+    <t>W.01.0005</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
+  </si>
+  <si>
+    <t>W.01.0006</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 27</t>
+  </si>
+  <si>
+    <t>P1.02.0004</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA METAL 3 X 2 1/2"</t>
+  </si>
+  <si>
+    <t>K.01.0228</t>
+  </si>
+  <si>
+    <t>TOMADA LUMITEK</t>
+  </si>
+  <si>
+    <t>K.08.0560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMADA PARA INFORMATICA CONECTOR RJ 45  BORNES DE PRESSÃO BRANCA LUMITEK - P/MOVEIS  67 X 43MM</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1633,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O172"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1454,7 +1649,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="96.7142857142857" customWidth="1" style="1"/>
+    <col min="9" max="9" width="102.714285714286" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -4895,8 +5090,12 @@
       <c r="E74" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="2">
+        <v>80132</v>
+      </c>
+      <c r="G74" s="3">
+        <v>45952</v>
+      </c>
       <c r="H74" s="1" t="s">
         <v>208</v>
       </c>
@@ -4910,13 +5109,17 @@
         <v>2</v>
       </c>
       <c r="L74" s="4">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="M74" s="4">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="75">
       <c r="A75" s="2">
@@ -4934,13 +5137,17 @@
       <c r="E75" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="2">
+        <v>80132</v>
+      </c>
+      <c r="G75" s="3">
+        <v>45952</v>
+      </c>
       <c r="H75" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>19</v>
@@ -4949,13 +5156,17 @@
         <v>3</v>
       </c>
       <c r="L75" s="4">
-        <v>0</v>
+        <v>238.5</v>
       </c>
       <c r="M75" s="4">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+        <v>715.5</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="76">
       <c r="A76" s="2">
@@ -4973,13 +5184,17 @@
       <c r="E76" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="2">
+        <v>80127</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45952</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>24</v>
@@ -4988,13 +5203,17 @@
         <v>10</v>
       </c>
       <c r="L76" s="4">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="M76" s="4">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="77">
       <c r="A77" s="2">
@@ -5012,13 +5231,17 @@
       <c r="E77" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="2">
+        <v>80130</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45952</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>197</v>
@@ -5027,13 +5250,17 @@
         <v>25</v>
       </c>
       <c r="L77" s="4">
-        <v>0</v>
+        <v>8.91</v>
       </c>
       <c r="M77" s="4">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
+        <v>222.75</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="78">
       <c r="A78" s="2">
@@ -5051,28 +5278,36 @@
       <c r="E78" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="2">
+        <v>80132</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45952</v>
+      </c>
       <c r="H78" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="M78" s="4">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
+        <v>73.2</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="79">
       <c r="A79" s="2">
@@ -5090,28 +5325,36 @@
       <c r="E79" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="2">
+        <v>80128</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45952</v>
+      </c>
       <c r="H79" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K79" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>9260</v>
       </c>
       <c r="M79" s="4">
-        <v>0</v>
-      </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
+        <v>37040</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="80">
       <c r="A80" s="2">
@@ -5132,10 +5375,10 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>19</v>
@@ -5171,16 +5414,16 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K81" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L81" s="4">
         <v>0</v>
@@ -5210,16 +5453,16 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K82" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L82" s="4">
         <v>0</v>
@@ -5249,16 +5492,16 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K83" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L83" s="4">
         <v>0</v>
@@ -5274,7 +5517,7 @@
         <v>9991</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>16</v>
@@ -5292,10 +5535,10 @@
         <v>45952</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>130</v>
@@ -5310,10 +5553,10 @@
         <v>317.68</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
@@ -5321,7 +5564,7 @@
         <v>9991</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>16</v>
@@ -5339,10 +5582,10 @@
         <v>45952</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>130</v>
@@ -5357,10 +5600,10 @@
         <v>27018.67968</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
@@ -5368,7 +5611,7 @@
         <v>9991</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
@@ -5386,10 +5629,10 @@
         <v>45952</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>19</v>
@@ -5404,10 +5647,10 @@
         <v>672.46</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
@@ -5415,7 +5658,7 @@
         <v>9991</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -5433,10 +5676,10 @@
         <v>45952</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>19</v>
@@ -5451,10 +5694,10 @@
         <v>26218.4</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5462,7 +5705,7 @@
         <v>2317</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -5509,7 +5752,7 @@
         <v>2317</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5527,10 +5770,10 @@
         <v>45946</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>19</v>
@@ -5556,7 +5799,7 @@
         <v>2317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>34</v>
@@ -5603,7 +5846,7 @@
         <v>2317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>34</v>
@@ -5650,7 +5893,7 @@
         <v>2317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
@@ -5697,7 +5940,7 @@
         <v>2317</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
@@ -5715,10 +5958,10 @@
         <v>45946</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>19</v>
@@ -5744,7 +5987,7 @@
         <v>2317</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>34</v>
@@ -5762,10 +6005,10 @@
         <v>45946</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>24</v>
@@ -5791,7 +6034,7 @@
         <v>2317</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
@@ -5827,10 +6070,10 @@
         <v>167.12</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -5838,7 +6081,7 @@
         <v>2317</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -5856,10 +6099,10 @@
         <v>45946</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -5885,7 +6128,7 @@
         <v>2317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
@@ -5903,10 +6146,10 @@
         <v>45946</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>130</v>
@@ -5932,7 +6175,7 @@
         <v>2317</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -5950,10 +6193,10 @@
         <v>45946</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>130</v>
@@ -5997,10 +6240,10 @@
         <v>45947</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>19</v>
@@ -6015,10 +6258,10 @@
         <v>440</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -6044,10 +6287,10 @@
         <v>45947</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>19</v>
@@ -6062,10 +6305,10 @@
         <v>225</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -6138,10 +6381,10 @@
         <v>45947</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>19</v>
@@ -6203,10 +6446,10 @@
         <v>810</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -6232,10 +6475,10 @@
         <v>45947</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>43</v>
@@ -6250,10 +6493,10 @@
         <v>540</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
@@ -6297,10 +6540,10 @@
         <v>575</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
@@ -6344,10 +6587,10 @@
         <v>195</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
@@ -6373,10 +6616,10 @@
         <v>45947</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>200</v>
@@ -6391,10 +6634,10 @@
         <v>117</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
@@ -6420,10 +6663,10 @@
         <v>45947</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
@@ -6438,10 +6681,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
@@ -6467,13 +6710,13 @@
         <v>45947</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K109" s="4">
         <v>2</v>
@@ -6485,10 +6728,10 @@
         <v>600</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
@@ -6514,10 +6757,10 @@
         <v>45947</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6532,10 +6775,10 @@
         <v>747</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
@@ -6561,10 +6804,10 @@
         <v>45947</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>69</v>
@@ -6579,10 +6822,10 @@
         <v>447</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="112">
@@ -6608,10 +6851,10 @@
         <v>45947</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>19</v>
@@ -6626,10 +6869,10 @@
         <v>35</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
@@ -6673,10 +6916,10 @@
         <v>175</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
@@ -6702,13 +6945,13 @@
         <v>45947</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K114" s="4">
         <v>2</v>
@@ -6720,10 +6963,10 @@
         <v>600</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
@@ -6749,13 +6992,13 @@
         <v>45947</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K115" s="4">
         <v>2</v>
@@ -6767,10 +7010,10 @@
         <v>473.6</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
@@ -6796,13 +7039,13 @@
         <v>45947</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K116" s="4">
         <v>2</v>
@@ -6814,10 +7057,10 @@
         <v>296</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="117">
@@ -6843,13 +7086,13 @@
         <v>45947</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K117" s="4">
         <v>30</v>
@@ -6861,10 +7104,10 @@
         <v>489.99</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="118">
@@ -6890,13 +7133,13 @@
         <v>45947</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K118" s="4">
         <v>2</v>
@@ -6908,10 +7151,10 @@
         <v>80</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="119">
@@ -6955,10 +7198,10 @@
         <v>840</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
@@ -7031,10 +7274,10 @@
         <v>45947</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>19</v>
@@ -7049,10 +7292,10 @@
         <v>1700</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="122">
@@ -7060,7 +7303,7 @@
         <v>2503</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
@@ -7107,7 +7350,7 @@
         <v>2503</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>34</v>
@@ -7125,10 +7368,10 @@
         <v>45946</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>19</v>
@@ -7154,7 +7397,7 @@
         <v>9992</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -7172,13 +7415,13 @@
         <v>45950</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K124" s="4">
         <v>3</v>
@@ -7190,10 +7433,10 @@
         <v>810</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="125">
@@ -7201,7 +7444,7 @@
         <v>9992</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>16</v>
@@ -7219,13 +7462,13 @@
         <v>45950</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K125" s="4">
         <v>3</v>
@@ -7237,10 +7480,10 @@
         <v>810</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="126">
@@ -7248,7 +7491,7 @@
         <v>9992</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -7266,13 +7509,13 @@
         <v>45950</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K126" s="4">
         <v>3</v>
@@ -7284,10 +7527,10 @@
         <v>900</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="127">
@@ -7295,7 +7538,7 @@
         <v>2212</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -7307,34 +7550,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F127" s="2">
-        <v>80101</v>
+        <v>80118</v>
       </c>
       <c r="G127" s="3">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="K127" s="4">
-        <v>30</v>
+        <v>100000</v>
       </c>
       <c r="L127" s="4">
-        <v>18</v>
+        <v>0.0933</v>
       </c>
       <c r="M127" s="4">
-        <v>540</v>
+        <v>9330</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="128">
@@ -7342,7 +7585,7 @@
         <v>2212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7354,34 +7597,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F128" s="2">
-        <v>80101</v>
+        <v>80121</v>
       </c>
       <c r="G128" s="3">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K128" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L128" s="4">
-        <v>115</v>
+        <v>65.6</v>
       </c>
       <c r="M128" s="4">
-        <v>1150</v>
+        <v>131.2</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="129">
@@ -7389,7 +7632,7 @@
         <v>2212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -7401,34 +7644,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F129" s="2">
-        <v>80114</v>
+        <v>80101</v>
       </c>
       <c r="G129" s="3">
         <v>45951</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K129" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L129" s="4">
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="M129" s="4">
-        <v>445</v>
+        <v>540</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="130">
@@ -7436,7 +7679,7 @@
         <v>2212</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -7454,10 +7697,10 @@
         <v>45951</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>19</v>
@@ -7466,16 +7709,16 @@
         <v>10</v>
       </c>
       <c r="L130" s="4">
-        <v>6.5</v>
+        <v>115</v>
       </c>
       <c r="M130" s="4">
-        <v>65</v>
+        <v>1150</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="131">
@@ -7483,7 +7726,7 @@
         <v>2212</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
@@ -7495,34 +7738,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F131" s="2">
-        <v>80101</v>
+        <v>80123</v>
       </c>
       <c r="G131" s="3">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>70</v>
+        <v>313</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="K131" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L131" s="4">
-        <v>19.9</v>
+        <v>780</v>
       </c>
       <c r="M131" s="4">
-        <v>597</v>
+        <v>15600</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="132">
@@ -7530,7 +7773,7 @@
         <v>2212</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>16</v>
@@ -7542,34 +7785,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F132" s="2">
-        <v>80101</v>
+        <v>80114</v>
       </c>
       <c r="G132" s="3">
         <v>45951</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K132" s="4">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="L132" s="4">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="M132" s="4">
-        <v>24</v>
+        <v>445</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="133">
@@ -7577,7 +7820,7 @@
         <v>2212</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>16</v>
@@ -7595,28 +7838,28 @@
         <v>45951</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K133" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L133" s="4">
-        <v>35</v>
+        <v>6.5</v>
       </c>
       <c r="M133" s="4">
-        <v>1750</v>
+        <v>65</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="134">
@@ -7624,7 +7867,7 @@
         <v>2212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>16</v>
@@ -7642,28 +7885,28 @@
         <v>45951</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K134" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L134" s="4">
-        <v>15</v>
+        <v>19.9</v>
       </c>
       <c r="M134" s="4">
-        <v>300</v>
+        <v>597</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="135">
@@ -7671,7 +7914,7 @@
         <v>2212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>16</v>
@@ -7689,28 +7932,28 @@
         <v>45951</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K135" s="4">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L135" s="4">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M135" s="4">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="136">
@@ -7718,7 +7961,7 @@
         <v>2212</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -7730,34 +7973,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F136" s="2">
-        <v>80105</v>
+        <v>80101</v>
       </c>
       <c r="G136" s="3">
         <v>45951</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K136" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L136" s="4">
-        <v>61.5</v>
+        <v>35</v>
       </c>
       <c r="M136" s="4">
-        <v>2460</v>
+        <v>1750</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="137">
@@ -7765,7 +8008,7 @@
         <v>2212</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>16</v>
@@ -7777,34 +8020,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F137" s="2">
-        <v>80104</v>
+        <v>80101</v>
       </c>
       <c r="G137" s="3">
         <v>45951</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>27</v>
+        <v>323</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K137" s="4">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L137" s="4">
-        <v>36.8</v>
+        <v>15</v>
       </c>
       <c r="M137" s="4">
-        <v>7360</v>
+        <v>300</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="138">
@@ -7812,7 +8055,7 @@
         <v>2212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>16</v>
@@ -7824,34 +8067,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F138" s="2">
-        <v>80101</v>
+        <v>80120</v>
       </c>
       <c r="G138" s="3">
-        <v>45951</v>
+        <v>45952</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>245</v>
+        <v>326</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K138" s="4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="L138" s="4">
-        <v>5.89</v>
+        <v>480</v>
       </c>
       <c r="M138" s="4">
-        <v>176.7</v>
+        <v>1440</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="139">
@@ -7859,7 +8102,7 @@
         <v>2212</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>16</v>
@@ -7871,34 +8114,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F139" s="2">
-        <v>80106</v>
+        <v>80101</v>
       </c>
       <c r="G139" s="3">
         <v>45951</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K139" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L139" s="4">
-        <v>8900</v>
+        <v>6.5</v>
       </c>
       <c r="M139" s="4">
-        <v>8900</v>
+        <v>325</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="140">
@@ -7906,7 +8149,7 @@
         <v>2212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
@@ -7918,34 +8161,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F140" s="2">
-        <v>80106</v>
+        <v>80105</v>
       </c>
       <c r="G140" s="3">
         <v>45951</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K140" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L140" s="4">
-        <v>2820.84</v>
+        <v>61.5</v>
       </c>
       <c r="M140" s="4">
-        <v>2820.84</v>
+        <v>2460</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="141">
@@ -7953,7 +8196,7 @@
         <v>2212</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>16</v>
@@ -7965,34 +8208,34 @@
         <v>45947.4456146296</v>
       </c>
       <c r="F141" s="2">
-        <v>80101</v>
+        <v>80104</v>
       </c>
       <c r="G141" s="3">
         <v>45951</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K141" s="4">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="L141" s="4">
-        <v>99</v>
+        <v>36.8</v>
       </c>
       <c r="M141" s="4">
-        <v>2376</v>
+        <v>7360</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="142">
@@ -8000,7 +8243,7 @@
         <v>2212</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -8011,35 +8254,43 @@
       <c r="E142" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="F142" s="2">
+        <v>80120</v>
+      </c>
+      <c r="G142" s="3">
+        <v>45952</v>
+      </c>
       <c r="H142" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="K142" s="4">
-        <v>100000</v>
+        <v>48</v>
       </c>
       <c r="L142" s="4">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M142" s="4">
-        <v>0</v>
-      </c>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
+        <v>4608</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="143">
       <c r="A143" s="2">
         <v>2212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>16</v>
@@ -8050,35 +8301,43 @@
       <c r="E143" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="F143" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G143" s="3">
+        <v>45951</v>
+      </c>
       <c r="H143" s="1" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K143" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L143" s="4">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="M143" s="4">
-        <v>0</v>
-      </c>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
+        <v>176.7</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="144">
       <c r="A144" s="2">
         <v>2212</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>16</v>
@@ -8089,35 +8348,43 @@
       <c r="E144" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="F144" s="2">
+        <v>80119</v>
+      </c>
+      <c r="G144" s="3">
+        <v>45952</v>
+      </c>
       <c r="H144" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="K144" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L144" s="4">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="M144" s="4">
-        <v>0</v>
-      </c>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="145">
       <c r="A145" s="2">
         <v>2212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>16</v>
@@ -8128,35 +8395,43 @@
       <c r="E145" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="F145" s="2">
+        <v>80106</v>
+      </c>
+      <c r="G145" s="3">
+        <v>45951</v>
+      </c>
       <c r="H145" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K145" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L145" s="4">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="M145" s="4">
-        <v>0</v>
-      </c>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
+        <v>8900</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="146">
       <c r="A146" s="2">
         <v>2212</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -8167,35 +8442,43 @@
       <c r="E146" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="F146" s="2">
+        <v>80106</v>
+      </c>
+      <c r="G146" s="3">
+        <v>45951</v>
+      </c>
       <c r="H146" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="K146" s="4">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="L146" s="4">
-        <v>0</v>
+        <v>2820.84</v>
       </c>
       <c r="M146" s="4">
-        <v>0</v>
-      </c>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
+        <v>2820.84</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="147">
       <c r="A147" s="2">
         <v>2212</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>16</v>
@@ -8206,35 +8489,43 @@
       <c r="E147" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="F147" s="2">
+        <v>80101</v>
+      </c>
+      <c r="G147" s="3">
+        <v>45951</v>
+      </c>
       <c r="H147" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>333</v>
+        <v>19</v>
       </c>
       <c r="K147" s="4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L147" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M147" s="4">
-        <v>0</v>
-      </c>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
+        <v>2376</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="148">
       <c r="A148" s="2">
         <v>2212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -8245,35 +8536,43 @@
       <c r="E148" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="F148" s="2">
+        <v>80122</v>
+      </c>
+      <c r="G148" s="3">
+        <v>45952</v>
+      </c>
       <c r="H148" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K148" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L148" s="4">
-        <v>0</v>
+        <v>1099</v>
       </c>
       <c r="M148" s="4">
-        <v>0</v>
-      </c>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
+        <v>6594</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="149">
       <c r="A149" s="2">
         <v>2212</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
@@ -8284,35 +8583,43 @@
       <c r="E149" s="3">
         <v>45947.4456146296</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="2">
+        <v>80122</v>
+      </c>
+      <c r="G149" s="3">
+        <v>45952</v>
+      </c>
       <c r="H149" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K149" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L149" s="4">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="M149" s="4">
-        <v>0</v>
-      </c>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
+        <v>359</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="150">
       <c r="A150" s="2">
         <v>2212</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -8326,16 +8633,16 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K150" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" s="4">
         <v>0</v>
@@ -8351,7 +8658,7 @@
         <v>2212</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -8369,10 +8676,10 @@
         <v>45950</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>19</v>
@@ -8387,10 +8694,10 @@
         <v>3255.54</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="152">
@@ -8398,7 +8705,7 @@
         <v>9991</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>16</v>
@@ -8409,13 +8716,17 @@
       <c r="E152" s="3">
         <v>45947.7353479514</v>
       </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
+      <c r="F152" s="2">
+        <v>80135</v>
+      </c>
+      <c r="G152" s="3">
+        <v>45952</v>
+      </c>
       <c r="H152" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>24</v>
@@ -8424,13 +8735,17 @@
         <v>20</v>
       </c>
       <c r="L152" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M152" s="4">
-        <v>0</v>
-      </c>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
+        <v>2400</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="153">
       <c r="A153" s="2">
@@ -8502,10 +8817,10 @@
         <v>45951</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>24</v>
@@ -8542,28 +8857,36 @@
       <c r="E155" s="3">
         <v>45951.6794816782</v>
       </c>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
+      <c r="F155" s="2">
+        <v>80134</v>
+      </c>
+      <c r="G155" s="3">
+        <v>45952</v>
+      </c>
       <c r="H155" s="1" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="K155" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L155" s="4">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="M155" s="4">
-        <v>0</v>
-      </c>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="156">
       <c r="A156" s="2">
@@ -8581,28 +8904,36 @@
       <c r="E156" s="3">
         <v>45951.6794816782</v>
       </c>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="F156" s="2">
+        <v>80134</v>
+      </c>
+      <c r="G156" s="3">
+        <v>45952</v>
+      </c>
       <c r="H156" s="1" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K156" s="4">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L156" s="4">
-        <v>0</v>
+        <v>9.7</v>
       </c>
       <c r="M156" s="4">
-        <v>0</v>
-      </c>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
+        <v>523.8</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="157">
       <c r="A157" s="2">
@@ -8623,16 +8954,16 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K157" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L157" s="4">
         <v>0</v>
@@ -8662,16 +8993,16 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K158" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L158" s="4">
         <v>0</v>
@@ -8701,16 +9032,16 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="K159" s="4">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="L159" s="4">
         <v>0</v>
@@ -8762,10 +9093,10 @@
         <v>134.9</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="161">
@@ -8809,10 +9140,10 @@
         <v>270</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="162">
@@ -8838,10 +9169,10 @@
         <v>45951</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>19</v>
@@ -8856,10 +9187,10 @@
         <v>350</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="163">
@@ -8885,10 +9216,10 @@
         <v>45951</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>19</v>
@@ -8903,10 +9234,10 @@
         <v>476</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="164">
@@ -8932,10 +9263,10 @@
         <v>45951</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>19</v>
@@ -8950,10 +9281,10 @@
         <v>238</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
@@ -8997,10 +9328,10 @@
         <v>5.9</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
@@ -9026,10 +9357,10 @@
         <v>45951</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>19</v>
@@ -9044,10 +9375,10 @@
         <v>51.9</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="167">
@@ -9073,10 +9404,10 @@
         <v>45951</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>19</v>
@@ -9091,10 +9422,10 @@
         <v>300</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
@@ -9120,10 +9451,10 @@
         <v>45951</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>366</v>
+        <v>214</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>24</v>
@@ -9161,16 +9492,16 @@
         <v>45951.7347736227</v>
       </c>
       <c r="F169" s="2">
-        <v>80116</v>
+        <v>80117</v>
       </c>
       <c r="G169" s="3">
         <v>45952</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>368</v>
+        <v>146</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>369</v>
+        <v>147</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>19</v>
@@ -9179,16 +9510,16 @@
         <v>1</v>
       </c>
       <c r="L169" s="4">
-        <v>325</v>
+        <v>13.5</v>
       </c>
       <c r="M169" s="4">
-        <v>325</v>
+        <v>13.5</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>370</v>
+        <v>54</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>371</v>
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="170">
@@ -9207,13 +9538,17 @@
       <c r="E170" s="3">
         <v>45951.7347736227</v>
       </c>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
+      <c r="F170" s="2">
+        <v>80116</v>
+      </c>
+      <c r="G170" s="3">
+        <v>45952</v>
+      </c>
       <c r="H170" s="1" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>147</v>
+        <v>383</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>19</v>
@@ -9222,13 +9557,17 @@
         <v>1</v>
       </c>
       <c r="L170" s="4">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="M170" s="4">
-        <v>0</v>
-      </c>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
       <c r="A171" s="2">
@@ -9246,13 +9585,17 @@
       <c r="E171" s="3">
         <v>45951.7347736227</v>
       </c>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
+      <c r="F171" s="2">
+        <v>80117</v>
+      </c>
+      <c r="G171" s="3">
+        <v>45952</v>
+      </c>
       <c r="H171" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>43</v>
@@ -9261,13 +9604,17 @@
         <v>3</v>
       </c>
       <c r="L171" s="4">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="M171" s="4">
-        <v>0</v>
-      </c>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
+        <v>915</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="172">
       <c r="A172" s="2">
@@ -9285,13 +9632,17 @@
       <c r="E172" s="3">
         <v>45951.7347736227</v>
       </c>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
+      <c r="F172" s="2">
+        <v>80117</v>
+      </c>
+      <c r="G172" s="3">
+        <v>45952</v>
+      </c>
       <c r="H172" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>130</v>
@@ -9300,13 +9651,1577 @@
         <v>2</v>
       </c>
       <c r="L172" s="4">
+        <v>55</v>
+      </c>
+      <c r="M172" s="4">
+        <v>110</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="173">
+      <c r="A173" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="2">
+        <v>251</v>
+      </c>
+      <c r="E173" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="4">
+        <v>100</v>
+      </c>
+      <c r="L173" s="4">
         <v>0</v>
       </c>
-      <c r="M172" s="4">
+      <c r="M173" s="4">
         <v>0</v>
       </c>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="174">
+      <c r="A174" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="2">
+        <v>251</v>
+      </c>
+      <c r="E174" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="4">
+        <v>80</v>
+      </c>
+      <c r="L174" s="4">
+        <v>0</v>
+      </c>
+      <c r="M174" s="4">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="175">
+      <c r="A175" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2">
+        <v>251</v>
+      </c>
+      <c r="E175" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K175" s="4">
+        <v>20</v>
+      </c>
+      <c r="L175" s="4">
+        <v>0</v>
+      </c>
+      <c r="M175" s="4">
+        <v>0</v>
+      </c>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="176">
+      <c r="A176" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2">
+        <v>251</v>
+      </c>
+      <c r="E176" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" s="4">
+        <v>3</v>
+      </c>
+      <c r="L176" s="4">
+        <v>0</v>
+      </c>
+      <c r="M176" s="4">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="177">
+      <c r="A177" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2">
+        <v>251</v>
+      </c>
+      <c r="E177" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" s="4">
+        <v>10</v>
+      </c>
+      <c r="L177" s="4">
+        <v>0</v>
+      </c>
+      <c r="M177" s="4">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="178">
+      <c r="A178" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2">
+        <v>251</v>
+      </c>
+      <c r="E178" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K178" s="4">
+        <v>5</v>
+      </c>
+      <c r="L178" s="4">
+        <v>0</v>
+      </c>
+      <c r="M178" s="4">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="179">
+      <c r="A179" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="2">
+        <v>251</v>
+      </c>
+      <c r="E179" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="4">
+        <v>80</v>
+      </c>
+      <c r="L179" s="4">
+        <v>0</v>
+      </c>
+      <c r="M179" s="4">
+        <v>0</v>
+      </c>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="180">
+      <c r="A180" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2">
+        <v>251</v>
+      </c>
+      <c r="E180" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K180" s="4">
+        <v>10</v>
+      </c>
+      <c r="L180" s="4">
+        <v>0</v>
+      </c>
+      <c r="M180" s="4">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="181">
+      <c r="A181" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2">
+        <v>251</v>
+      </c>
+      <c r="E181" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="4">
+        <v>50</v>
+      </c>
+      <c r="L181" s="4">
+        <v>0</v>
+      </c>
+      <c r="M181" s="4">
+        <v>0</v>
+      </c>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="182">
+      <c r="A182" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="2">
+        <v>251</v>
+      </c>
+      <c r="E182" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="4">
+        <v>30</v>
+      </c>
+      <c r="L182" s="4">
+        <v>0</v>
+      </c>
+      <c r="M182" s="4">
+        <v>0</v>
+      </c>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="183">
+      <c r="A183" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2">
+        <v>251</v>
+      </c>
+      <c r="E183" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="4">
+        <v>1</v>
+      </c>
+      <c r="L183" s="4">
+        <v>0</v>
+      </c>
+      <c r="M183" s="4">
+        <v>0</v>
+      </c>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="184">
+      <c r="A184" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" s="2">
+        <v>251</v>
+      </c>
+      <c r="E184" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="4">
+        <v>10</v>
+      </c>
+      <c r="L184" s="4">
+        <v>0</v>
+      </c>
+      <c r="M184" s="4">
+        <v>0</v>
+      </c>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="185">
+      <c r="A185" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2">
+        <v>251</v>
+      </c>
+      <c r="E185" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="4">
+        <v>25</v>
+      </c>
+      <c r="L185" s="4">
+        <v>0</v>
+      </c>
+      <c r="M185" s="4">
+        <v>0</v>
+      </c>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="186">
+      <c r="A186" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="2">
+        <v>251</v>
+      </c>
+      <c r="E186" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="4">
+        <v>2</v>
+      </c>
+      <c r="L186" s="4">
+        <v>0</v>
+      </c>
+      <c r="M186" s="4">
+        <v>0</v>
+      </c>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="187">
+      <c r="A187" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" s="2">
+        <v>251</v>
+      </c>
+      <c r="E187" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" s="4">
+        <v>100</v>
+      </c>
+      <c r="L187" s="4">
+        <v>0</v>
+      </c>
+      <c r="M187" s="4">
+        <v>0</v>
+      </c>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="188">
+      <c r="A188" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="2">
+        <v>251</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K188" s="4">
+        <v>32</v>
+      </c>
+      <c r="L188" s="4">
+        <v>0</v>
+      </c>
+      <c r="M188" s="4">
+        <v>0</v>
+      </c>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="189">
+      <c r="A189" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" s="2">
+        <v>251</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K189" s="4">
+        <v>25</v>
+      </c>
+      <c r="L189" s="4">
+        <v>0</v>
+      </c>
+      <c r="M189" s="4">
+        <v>0</v>
+      </c>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="190">
+      <c r="A190" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" s="2">
+        <v>251</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="4">
+        <v>500</v>
+      </c>
+      <c r="L190" s="4">
+        <v>0</v>
+      </c>
+      <c r="M190" s="4">
+        <v>0</v>
+      </c>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="191">
+      <c r="A191" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" s="2">
+        <v>251</v>
+      </c>
+      <c r="E191" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="4">
+        <v>20</v>
+      </c>
+      <c r="L191" s="4">
+        <v>0</v>
+      </c>
+      <c r="M191" s="4">
+        <v>0</v>
+      </c>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="192">
+      <c r="A192" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="2">
+        <v>251</v>
+      </c>
+      <c r="E192" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="4">
+        <v>2</v>
+      </c>
+      <c r="L192" s="4">
+        <v>0</v>
+      </c>
+      <c r="M192" s="4">
+        <v>0</v>
+      </c>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="193">
+      <c r="A193" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="2">
+        <v>251</v>
+      </c>
+      <c r="E193" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K193" s="4">
+        <v>1</v>
+      </c>
+      <c r="L193" s="4">
+        <v>0</v>
+      </c>
+      <c r="M193" s="4">
+        <v>0</v>
+      </c>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="194">
+      <c r="A194" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="2">
+        <v>251</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45952.6464399306</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="4">
+        <v>4</v>
+      </c>
+      <c r="L194" s="4">
+        <v>0</v>
+      </c>
+      <c r="M194" s="4">
+        <v>0</v>
+      </c>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="195">
+      <c r="A195" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" s="2">
+        <v>31</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="4">
+        <v>3</v>
+      </c>
+      <c r="L195" s="4">
+        <v>0</v>
+      </c>
+      <c r="M195" s="4">
+        <v>0</v>
+      </c>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="196">
+      <c r="A196" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="2">
+        <v>31</v>
+      </c>
+      <c r="E196" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K196" s="4">
+        <v>3</v>
+      </c>
+      <c r="L196" s="4">
+        <v>0</v>
+      </c>
+      <c r="M196" s="4">
+        <v>0</v>
+      </c>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="197">
+      <c r="A197" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="2">
+        <v>31</v>
+      </c>
+      <c r="E197" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K197" s="4">
+        <v>1</v>
+      </c>
+      <c r="L197" s="4">
+        <v>0</v>
+      </c>
+      <c r="M197" s="4">
+        <v>0</v>
+      </c>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="198">
+      <c r="A198" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="2">
+        <v>31</v>
+      </c>
+      <c r="E198" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K198" s="4">
+        <v>1</v>
+      </c>
+      <c r="L198" s="4">
+        <v>0</v>
+      </c>
+      <c r="M198" s="4">
+        <v>0</v>
+      </c>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="199">
+      <c r="A199" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="2">
+        <v>31</v>
+      </c>
+      <c r="E199" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1</v>
+      </c>
+      <c r="L199" s="4">
+        <v>0</v>
+      </c>
+      <c r="M199" s="4">
+        <v>0</v>
+      </c>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="200">
+      <c r="A200" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" s="2">
+        <v>31</v>
+      </c>
+      <c r="E200" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="4">
+        <v>20</v>
+      </c>
+      <c r="L200" s="4">
+        <v>0</v>
+      </c>
+      <c r="M200" s="4">
+        <v>0</v>
+      </c>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="201">
+      <c r="A201" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="2">
+        <v>31</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="4">
+        <v>1</v>
+      </c>
+      <c r="L201" s="4">
+        <v>0</v>
+      </c>
+      <c r="M201" s="4">
+        <v>0</v>
+      </c>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="202">
+      <c r="A202" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" s="2">
+        <v>31</v>
+      </c>
+      <c r="E202" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1</v>
+      </c>
+      <c r="L202" s="4">
+        <v>0</v>
+      </c>
+      <c r="M202" s="4">
+        <v>0</v>
+      </c>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="203">
+      <c r="A203" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2">
+        <v>31</v>
+      </c>
+      <c r="E203" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="4">
+        <v>1</v>
+      </c>
+      <c r="L203" s="4">
+        <v>0</v>
+      </c>
+      <c r="M203" s="4">
+        <v>0</v>
+      </c>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="204">
+      <c r="A204" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" s="2">
+        <v>31</v>
+      </c>
+      <c r="E204" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K204" s="4">
+        <v>10</v>
+      </c>
+      <c r="L204" s="4">
+        <v>0</v>
+      </c>
+      <c r="M204" s="4">
+        <v>0</v>
+      </c>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="205">
+      <c r="A205" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" s="2">
+        <v>31</v>
+      </c>
+      <c r="E205" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K205" s="4">
+        <v>2</v>
+      </c>
+      <c r="L205" s="4">
+        <v>0</v>
+      </c>
+      <c r="M205" s="4">
+        <v>0</v>
+      </c>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="206">
+      <c r="A206" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" s="2">
+        <v>31</v>
+      </c>
+      <c r="E206" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K206" s="4">
+        <v>1</v>
+      </c>
+      <c r="L206" s="4">
+        <v>0</v>
+      </c>
+      <c r="M206" s="4">
+        <v>0</v>
+      </c>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="207">
+      <c r="A207" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" s="2">
+        <v>31</v>
+      </c>
+      <c r="E207" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K207" s="4">
+        <v>5</v>
+      </c>
+      <c r="L207" s="4">
+        <v>0</v>
+      </c>
+      <c r="M207" s="4">
+        <v>0</v>
+      </c>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="208">
+      <c r="A208" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" s="2">
+        <v>31</v>
+      </c>
+      <c r="E208" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K208" s="4">
+        <v>5</v>
+      </c>
+      <c r="L208" s="4">
+        <v>0</v>
+      </c>
+      <c r="M208" s="4">
+        <v>0</v>
+      </c>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="209">
+      <c r="A209" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="2">
+        <v>31</v>
+      </c>
+      <c r="E209" s="3">
+        <v>45952.6506388542</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" s="4">
+        <v>6</v>
+      </c>
+      <c r="L209" s="4">
+        <v>0</v>
+      </c>
+      <c r="M209" s="4">
+        <v>0</v>
+      </c>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="210">
+      <c r="A210" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="2">
+        <v>43</v>
+      </c>
+      <c r="E210" s="3">
+        <v>45952.6716491667</v>
+      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="4">
+        <v>19</v>
+      </c>
+      <c r="L210" s="4">
+        <v>0</v>
+      </c>
+      <c r="M210" s="4">
+        <v>0</v>
+      </c>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="211">
+      <c r="A211" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" s="2">
+        <v>43</v>
+      </c>
+      <c r="E211" s="3">
+        <v>45952.6716491667</v>
+      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" s="4">
+        <v>5</v>
+      </c>
+      <c r="L211" s="4">
+        <v>0</v>
+      </c>
+      <c r="M211" s="4">
+        <v>0</v>
+      </c>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="212">
+      <c r="A212" s="2">
+        <v>2503</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" s="2">
+        <v>43</v>
+      </c>
+      <c r="E212" s="3">
+        <v>45952.6716491667</v>
+      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" s="4">
+        <v>5</v>
+      </c>
+      <c r="L212" s="4">
+        <v>0</v>
+      </c>
+      <c r="M212" s="4">
+        <v>0</v>
+      </c>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t>EMPRD</t>
   </si>
@@ -674,6 +674,24 @@
     <t xml:space="preserve">SELANTE DE SILICONE 310 ML  - CURA NEUTRA</t>
   </si>
   <si>
+    <t>U.02.0653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PROLONGADOR METAL</t>
+  </si>
+  <si>
+    <t>00000000000059</t>
+  </si>
+  <si>
+    <t>BRAZ 66</t>
+  </si>
+  <si>
+    <t>U.02.1411</t>
+  </si>
+  <si>
+    <t>SALVA REGISTRO DOCOL DE 3/4''</t>
+  </si>
+  <si>
     <t>P1.02.1019</t>
   </si>
   <si>
@@ -692,18 +710,6 @@
     <t>CHAPA DE EUCATEX</t>
   </si>
   <si>
-    <t>U.02.0653</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PROLONGADOR METAL</t>
-  </si>
-  <si>
-    <t>U.02.1411</t>
-  </si>
-  <si>
-    <t>SALVA REGISTRO DOCOL DE 3/4''</t>
-  </si>
-  <si>
     <t>U.02.1407</t>
   </si>
   <si>
@@ -1100,6 +1106,18 @@
     <t>CIMENTO CP II - E-32 - 25 KG</t>
   </si>
   <si>
+    <t>E.03.0135</t>
+  </si>
+  <si>
+    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 17 DECIBÉIS</t>
+  </si>
+  <si>
+    <t>M.06.0002</t>
+  </si>
+  <si>
+    <t>CHAPA DE POLICARBONATO</t>
+  </si>
+  <si>
     <t>O.01.0111</t>
   </si>
   <si>
@@ -1118,18 +1136,6 @@
     <t xml:space="preserve">PONTALETE  3 X 3"</t>
   </si>
   <si>
-    <t>E.03.0135</t>
-  </si>
-  <si>
-    <t>PROTETOR AURICULAR DE SILICONE C/ CORDÃO 17 DECIBÉIS</t>
-  </si>
-  <si>
-    <t>M.06.0002</t>
-  </si>
-  <si>
-    <t>CHAPA DE POLICARBONATO</t>
-  </si>
-  <si>
     <t>E.02.0016</t>
   </si>
   <si>
@@ -1190,6 +1196,12 @@
     <t>MÁSCARA DESCARTÁVEL RESPIRADOR COM VÁLVULA CLASSE PFF2</t>
   </si>
   <si>
+    <t>00000000010013</t>
+  </si>
+  <si>
+    <t>SÃO CRISTOVÃO</t>
+  </si>
+  <si>
     <t>E.03.0175</t>
   </si>
   <si>
@@ -1223,6 +1235,12 @@
     <t>M3</t>
   </si>
   <si>
+    <t>00000000007877</t>
+  </si>
+  <si>
+    <t>MINERAÇÃO CALIFORNIA</t>
+  </si>
+  <si>
     <t>J.06.0001</t>
   </si>
   <si>
@@ -1241,6 +1259,12 @@
     <t>ISOPOR CORTADO</t>
   </si>
   <si>
+    <t>00000000001176</t>
+  </si>
+  <si>
+    <t>ISOALFA</t>
+  </si>
+  <si>
     <t>S.04.0072</t>
   </si>
   <si>
@@ -1271,6 +1295,12 @@
     <t xml:space="preserve">LONA TERREIRO PRETA  8 X 100M</t>
   </si>
   <si>
+    <t>00000000009984</t>
+  </si>
+  <si>
+    <t>LME MATERIAIS</t>
+  </si>
+  <si>
     <t>E.03.0150</t>
   </si>
   <si>
@@ -1307,6 +1337,12 @@
     <t>REFLETOR DE LED 200W A PROVA D'AGUA</t>
   </si>
   <si>
+    <t>00000000009973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA DA  AGUA</t>
+  </si>
+  <si>
     <t>W.01.0005</t>
   </si>
   <si>
@@ -1335,6 +1371,36 @@
   </si>
   <si>
     <t xml:space="preserve">TOMADA PARA INFORMATICA CONECTOR RJ 45  BORNES DE PRESSÃO BRANCA LUMITEK - P/MOVEIS  67 X 43MM</t>
+  </si>
+  <si>
+    <t>C.04.0156</t>
+  </si>
+  <si>
+    <t>CLORO 5 L</t>
+  </si>
+  <si>
+    <t>R.02.0115</t>
+  </si>
+  <si>
+    <t>TINTA SPRAY</t>
+  </si>
+  <si>
+    <t>C.04.0024</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 200 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>E.03.0151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA DE SEGURANÇA  EM COURO COM SOLADO EM PU VULCAFLEX</t>
+  </si>
+  <si>
+    <t>E.03.0119</t>
+  </si>
+  <si>
+    <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1699,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:O231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -4401,8 +4467,12 @@
       <c r="E59" s="3">
         <v>45946.4975969444</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="2">
+        <v>80172</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45953</v>
+      </c>
       <c r="H59" s="1" t="s">
         <v>167</v>
       </c>
@@ -4416,13 +4486,17 @@
         <v>1</v>
       </c>
       <c r="L59" s="4">
-        <v>0</v>
+        <v>2993</v>
       </c>
       <c r="M59" s="4">
-        <v>0</v>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+        <v>2993</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="60">
       <c r="A60" s="2">
@@ -5326,7 +5400,7 @@
         <v>45946.5009254398</v>
       </c>
       <c r="F79" s="2">
-        <v>80128</v>
+        <v>80143</v>
       </c>
       <c r="G79" s="3">
         <v>45952</v>
@@ -5341,13 +5415,13 @@
         <v>19</v>
       </c>
       <c r="K79" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L79" s="4">
-        <v>9260</v>
+        <v>16.41</v>
       </c>
       <c r="M79" s="4">
-        <v>37040</v>
+        <v>164.1</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>222</v>
@@ -5372,8 +5446,12 @@
       <c r="E80" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="2">
+        <v>80143</v>
+      </c>
+      <c r="G80" s="3">
+        <v>45952</v>
+      </c>
       <c r="H80" s="1" t="s">
         <v>224</v>
       </c>
@@ -5384,16 +5462,20 @@
         <v>19</v>
       </c>
       <c r="K80" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L80" s="4">
-        <v>0</v>
+        <v>41.82</v>
       </c>
       <c r="M80" s="4">
-        <v>0</v>
-      </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
+        <v>1045.5</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="81">
       <c r="A81" s="2">
@@ -5411,8 +5493,12 @@
       <c r="E81" s="3">
         <v>45946.5009254398</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="2">
+        <v>80128</v>
+      </c>
+      <c r="G81" s="3">
+        <v>45952</v>
+      </c>
       <c r="H81" s="1" t="s">
         <v>226</v>
       </c>
@@ -5423,16 +5509,20 @@
         <v>19</v>
       </c>
       <c r="K81" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L81" s="4">
-        <v>0</v>
+        <v>9260</v>
       </c>
       <c r="M81" s="4">
-        <v>0</v>
-      </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+        <v>37040</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="82">
       <c r="A82" s="2">
@@ -5453,16 +5543,16 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K82" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L82" s="4">
         <v>0</v>
@@ -5492,10 +5582,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>19</v>
@@ -5517,7 +5607,7 @@
         <v>9991</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>16</v>
@@ -5535,10 +5625,10 @@
         <v>45952</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>130</v>
@@ -5553,10 +5643,10 @@
         <v>317.68</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="85">
@@ -5564,7 +5654,7 @@
         <v>9991</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>16</v>
@@ -5582,10 +5672,10 @@
         <v>45952</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>130</v>
@@ -5600,10 +5690,10 @@
         <v>27018.67968</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="86">
@@ -5611,7 +5701,7 @@
         <v>9991</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>16</v>
@@ -5629,10 +5719,10 @@
         <v>45952</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>19</v>
@@ -5647,10 +5737,10 @@
         <v>672.46</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="87">
@@ -5658,7 +5748,7 @@
         <v>9991</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>16</v>
@@ -5676,10 +5766,10 @@
         <v>45952</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>19</v>
@@ -5694,10 +5784,10 @@
         <v>26218.4</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="88">
@@ -5705,7 +5795,7 @@
         <v>2317</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>34</v>
@@ -5752,7 +5842,7 @@
         <v>2317</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -5770,10 +5860,10 @@
         <v>45946</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>19</v>
@@ -5799,7 +5889,7 @@
         <v>2317</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>34</v>
@@ -5846,7 +5936,7 @@
         <v>2317</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>34</v>
@@ -5893,7 +5983,7 @@
         <v>2317</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>34</v>
@@ -5940,7 +6030,7 @@
         <v>2317</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>34</v>
@@ -5958,10 +6048,10 @@
         <v>45946</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>19</v>
@@ -5987,7 +6077,7 @@
         <v>2317</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>34</v>
@@ -6005,10 +6095,10 @@
         <v>45946</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>24</v>
@@ -6034,7 +6124,7 @@
         <v>2317</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>34</v>
@@ -6070,10 +6160,10 @@
         <v>167.12</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="96">
@@ -6081,7 +6171,7 @@
         <v>2317</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>34</v>
@@ -6099,10 +6189,10 @@
         <v>45946</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>19</v>
@@ -6128,7 +6218,7 @@
         <v>2317</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>34</v>
@@ -6146,10 +6236,10 @@
         <v>45946</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>130</v>
@@ -6175,7 +6265,7 @@
         <v>2317</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>34</v>
@@ -6193,10 +6283,10 @@
         <v>45946</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>130</v>
@@ -6240,10 +6330,10 @@
         <v>45947</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>19</v>
@@ -6258,10 +6348,10 @@
         <v>440</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="100">
@@ -6287,10 +6377,10 @@
         <v>45947</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>19</v>
@@ -6305,10 +6395,10 @@
         <v>225</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="101">
@@ -6381,10 +6471,10 @@
         <v>45947</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>19</v>
@@ -6446,10 +6536,10 @@
         <v>810</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="104">
@@ -6475,10 +6565,10 @@
         <v>45947</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>43</v>
@@ -6493,10 +6583,10 @@
         <v>540</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="105">
@@ -6540,10 +6630,10 @@
         <v>575</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="106">
@@ -6587,10 +6677,10 @@
         <v>195</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="107">
@@ -6616,10 +6706,10 @@
         <v>45947</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>200</v>
@@ -6634,10 +6724,10 @@
         <v>117</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="108">
@@ -6663,10 +6753,10 @@
         <v>45947</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>19</v>
@@ -6681,10 +6771,10 @@
         <v>30</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="109">
@@ -6710,13 +6800,13 @@
         <v>45947</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K109" s="4">
         <v>2</v>
@@ -6728,10 +6818,10 @@
         <v>600</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="110">
@@ -6757,10 +6847,10 @@
         <v>45947</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>19</v>
@@ -6775,10 +6865,10 @@
         <v>747</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="111">
@@ -6804,10 +6894,10 @@
         <v>45947</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>69</v>
@@ -6822,10 +6912,10 @@
         <v>447</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="112">
@@ -6851,10 +6941,10 @@
         <v>45947</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>19</v>
@@ -6869,10 +6959,10 @@
         <v>35</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="113">
@@ -6916,10 +7006,10 @@
         <v>175</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="114">
@@ -6945,13 +7035,13 @@
         <v>45947</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K114" s="4">
         <v>2</v>
@@ -6963,10 +7053,10 @@
         <v>600</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="115">
@@ -6992,13 +7082,13 @@
         <v>45947</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K115" s="4">
         <v>2</v>
@@ -7010,10 +7100,10 @@
         <v>473.6</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="116">
@@ -7039,13 +7129,13 @@
         <v>45947</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K116" s="4">
         <v>2</v>
@@ -7057,10 +7147,10 @@
         <v>296</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="117">
@@ -7086,13 +7176,13 @@
         <v>45947</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K117" s="4">
         <v>30</v>
@@ -7104,10 +7194,10 @@
         <v>489.99</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="118">
@@ -7133,13 +7223,13 @@
         <v>45947</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K118" s="4">
         <v>2</v>
@@ -7151,10 +7241,10 @@
         <v>80</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="119">
@@ -7198,10 +7288,10 @@
         <v>840</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="120">
@@ -7274,10 +7364,10 @@
         <v>45947</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>19</v>
@@ -7292,10 +7382,10 @@
         <v>1700</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="122">
@@ -7303,7 +7393,7 @@
         <v>2503</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>34</v>
@@ -7350,7 +7440,7 @@
         <v>2503</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>34</v>
@@ -7368,10 +7458,10 @@
         <v>45946</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>19</v>
@@ -7397,7 +7487,7 @@
         <v>9992</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>16</v>
@@ -7415,13 +7505,13 @@
         <v>45950</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K124" s="4">
         <v>3</v>
@@ -7433,10 +7523,10 @@
         <v>810</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="125">
@@ -7444,7 +7534,7 @@
         <v>9992</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>16</v>
@@ -7462,13 +7552,13 @@
         <v>45950</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K125" s="4">
         <v>3</v>
@@ -7480,10 +7570,10 @@
         <v>810</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="126">
@@ -7491,7 +7581,7 @@
         <v>9992</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>16</v>
@@ -7509,13 +7599,13 @@
         <v>45950</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K126" s="4">
         <v>3</v>
@@ -7527,10 +7617,10 @@
         <v>900</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="127">
@@ -7538,7 +7628,7 @@
         <v>2212</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>16</v>
@@ -7556,10 +7646,10 @@
         <v>45952</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>180</v>
@@ -7574,10 +7664,10 @@
         <v>9330</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="128">
@@ -7585,7 +7675,7 @@
         <v>2212</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7632,7 +7722,7 @@
         <v>2212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>16</v>
@@ -7650,10 +7740,10 @@
         <v>45951</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>19</v>
@@ -7668,10 +7758,10 @@
         <v>540</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="130">
@@ -7679,7 +7769,7 @@
         <v>2212</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>16</v>
@@ -7715,10 +7805,10 @@
         <v>1150</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="131">
@@ -7726,7 +7816,7 @@
         <v>2212</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>16</v>
@@ -7744,10 +7834,10 @@
         <v>45952</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>43</v>
@@ -7756,16 +7846,16 @@
         <v>20</v>
       </c>
       <c r="L131" s="4">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="M131" s="4">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="132">
@@ -7773,7 +7863,7 @@
         <v>2212</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>16</v>
@@ -7791,10 +7881,10 @@
         <v>45951</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>69</v>
@@ -7809,10 +7899,10 @@
         <v>445</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="133">
@@ -7820,7 +7910,7 @@
         <v>2212</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>16</v>
@@ -7838,10 +7928,10 @@
         <v>45951</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>19</v>
@@ -7856,10 +7946,10 @@
         <v>65</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="134">
@@ -7867,7 +7957,7 @@
         <v>2212</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>16</v>
@@ -7903,10 +7993,10 @@
         <v>597</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="135">
@@ -7914,7 +8004,7 @@
         <v>2212</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>16</v>
@@ -7932,10 +8022,10 @@
         <v>45951</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>19</v>
@@ -7950,10 +8040,10 @@
         <v>24</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="136">
@@ -7961,7 +8051,7 @@
         <v>2212</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>16</v>
@@ -7997,10 +8087,10 @@
         <v>1750</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="137">
@@ -8008,7 +8098,7 @@
         <v>2212</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>16</v>
@@ -8026,10 +8116,10 @@
         <v>45951</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>19</v>
@@ -8044,10 +8134,10 @@
         <v>300</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="138">
@@ -8055,7 +8145,7 @@
         <v>2212</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>16</v>
@@ -8073,10 +8163,10 @@
         <v>45952</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -8102,7 +8192,7 @@
         <v>2212</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>16</v>
@@ -8138,10 +8228,10 @@
         <v>325</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="140">
@@ -8149,7 +8239,7 @@
         <v>2212</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>16</v>
@@ -8167,10 +8257,10 @@
         <v>45951</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>19</v>
@@ -8196,7 +8286,7 @@
         <v>2212</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>16</v>
@@ -8243,7 +8333,7 @@
         <v>2212</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>16</v>
@@ -8261,10 +8351,10 @@
         <v>45952</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>118</v>
@@ -8290,7 +8380,7 @@
         <v>2212</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>16</v>
@@ -8308,10 +8398,10 @@
         <v>45951</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>19</v>
@@ -8326,10 +8416,10 @@
         <v>176.7</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="144">
@@ -8337,7 +8427,7 @@
         <v>2212</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>16</v>
@@ -8355,13 +8445,13 @@
         <v>45952</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
@@ -8373,10 +8463,10 @@
         <v>165</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="145">
@@ -8384,7 +8474,7 @@
         <v>2212</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>16</v>
@@ -8402,10 +8492,10 @@
         <v>45951</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>19</v>
@@ -8420,10 +8510,10 @@
         <v>8900</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="146">
@@ -8431,7 +8521,7 @@
         <v>2212</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -8449,10 +8539,10 @@
         <v>45951</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>19</v>
@@ -8467,10 +8557,10 @@
         <v>2820.84</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="147">
@@ -8478,7 +8568,7 @@
         <v>2212</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>16</v>
@@ -8496,10 +8586,10 @@
         <v>45951</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>19</v>
@@ -8514,10 +8604,10 @@
         <v>2376</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="148">
@@ -8525,7 +8615,7 @@
         <v>2212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -8543,10 +8633,10 @@
         <v>45952</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>19</v>
@@ -8561,10 +8651,10 @@
         <v>6594</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="149">
@@ -8572,7 +8662,7 @@
         <v>2212</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>16</v>
@@ -8590,10 +8680,10 @@
         <v>45952</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>19</v>
@@ -8608,10 +8698,10 @@
         <v>359</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="150">
@@ -8619,7 +8709,7 @@
         <v>2212</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>16</v>
@@ -8633,10 +8723,10 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>19</v>
@@ -8658,7 +8748,7 @@
         <v>2212</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>16</v>
@@ -8676,10 +8766,10 @@
         <v>45950</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>19</v>
@@ -8694,10 +8784,10 @@
         <v>3255.54</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="152">
@@ -8705,7 +8795,7 @@
         <v>9991</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>16</v>
@@ -8723,10 +8813,10 @@
         <v>45952</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>24</v>
@@ -8741,10 +8831,10 @@
         <v>2400</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="153">
@@ -8817,10 +8907,10 @@
         <v>45951</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>24</v>
@@ -8858,34 +8948,34 @@
         <v>45951.6794816782</v>
       </c>
       <c r="F155" s="2">
-        <v>80134</v>
+        <v>80176</v>
       </c>
       <c r="G155" s="3">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="K155" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L155" s="4">
-        <v>8.1</v>
+        <v>24.9</v>
       </c>
       <c r="M155" s="4">
-        <v>162</v>
+        <v>24.9</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>365</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="156">
@@ -8905,34 +8995,34 @@
         <v>45951.6794816782</v>
       </c>
       <c r="F156" s="2">
-        <v>80134</v>
+        <v>80176</v>
       </c>
       <c r="G156" s="3">
-        <v>45952</v>
+        <v>45953</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K156" s="4">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="L156" s="4">
-        <v>9.7</v>
+        <v>1.43</v>
       </c>
       <c r="M156" s="4">
-        <v>523.8</v>
+        <v>14.3</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>365</v>
+        <v>79</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="157">
@@ -8951,28 +9041,36 @@
       <c r="E157" s="3">
         <v>45951.6794816782</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="F157" s="2">
+        <v>80176</v>
+      </c>
+      <c r="G157" s="3">
+        <v>45953</v>
+      </c>
       <c r="H157" s="1" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K157" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L157" s="4">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="M157" s="4">
-        <v>0</v>
-      </c>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
+        <v>7110</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="158">
       <c r="A158" s="2">
@@ -8990,8 +9088,12 @@
       <c r="E158" s="3">
         <v>45951.6794816782</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="F158" s="2">
+        <v>80134</v>
+      </c>
+      <c r="G158" s="3">
+        <v>45952</v>
+      </c>
       <c r="H158" s="1" t="s">
         <v>368</v>
       </c>
@@ -8999,19 +9101,23 @@
         <v>369</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K158" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L158" s="4">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="M158" s="4">
-        <v>0</v>
-      </c>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="159">
       <c r="A159" s="2">
@@ -9029,28 +9135,36 @@
       <c r="E159" s="3">
         <v>45951.6794816782</v>
       </c>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="F159" s="2">
+        <v>80134</v>
+      </c>
+      <c r="G159" s="3">
+        <v>45952</v>
+      </c>
       <c r="H159" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K159" s="4">
+        <v>54</v>
+      </c>
+      <c r="L159" s="4">
+        <v>9.7</v>
+      </c>
+      <c r="M159" s="4">
+        <v>523.8</v>
+      </c>
+      <c r="N159" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="O159" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K159" s="4">
-        <v>25</v>
-      </c>
-      <c r="L159" s="4">
-        <v>0</v>
-      </c>
-      <c r="M159" s="4">
-        <v>0</v>
-      </c>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="160">
       <c r="A160" s="2">
@@ -9093,10 +9207,10 @@
         <v>134.9</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="161">
@@ -9140,10 +9254,10 @@
         <v>270</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="162">
@@ -9169,10 +9283,10 @@
         <v>45951</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>19</v>
@@ -9187,10 +9301,10 @@
         <v>350</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="163">
@@ -9216,10 +9330,10 @@
         <v>45951</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>19</v>
@@ -9234,10 +9348,10 @@
         <v>476</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="164">
@@ -9263,10 +9377,10 @@
         <v>45951</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>19</v>
@@ -9281,10 +9395,10 @@
         <v>238</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="165">
@@ -9328,10 +9442,10 @@
         <v>5.9</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="166">
@@ -9357,10 +9471,10 @@
         <v>45951</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>19</v>
@@ -9375,10 +9489,10 @@
         <v>51.9</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="167">
@@ -9404,10 +9518,10 @@
         <v>45951</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>19</v>
@@ -9422,10 +9536,10 @@
         <v>300</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="168">
@@ -9545,10 +9659,10 @@
         <v>45952</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>19</v>
@@ -9563,10 +9677,10 @@
         <v>325</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="171">
@@ -9592,10 +9706,10 @@
         <v>45952</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>43</v>
@@ -9639,10 +9753,10 @@
         <v>45952</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>130</v>
@@ -9668,7 +9782,7 @@
         <v>2212</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>16</v>
@@ -9679,13 +9793,17 @@
       <c r="E173" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
+      <c r="F173" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G173" s="3">
+        <v>45952</v>
+      </c>
       <c r="H173" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>19</v>
@@ -9694,20 +9812,24 @@
         <v>100</v>
       </c>
       <c r="L173" s="4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M173" s="4">
-        <v>0</v>
-      </c>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="174">
       <c r="A174" s="2">
         <v>2212</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>16</v>
@@ -9718,13 +9840,17 @@
       <c r="E174" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
+      <c r="F174" s="2">
+        <v>80148</v>
+      </c>
+      <c r="G174" s="3">
+        <v>45953</v>
+      </c>
       <c r="H174" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>19</v>
@@ -9733,20 +9859,24 @@
         <v>80</v>
       </c>
       <c r="L174" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M174" s="4">
-        <v>0</v>
-      </c>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
+        <v>360</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="175">
       <c r="A175" s="2">
         <v>2212</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>16</v>
@@ -9757,8 +9887,12 @@
       <c r="E175" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
+      <c r="F175" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G175" s="3">
+        <v>45952</v>
+      </c>
       <c r="H175" s="1" t="s">
         <v>61</v>
       </c>
@@ -9772,20 +9906,24 @@
         <v>20</v>
       </c>
       <c r="L175" s="4">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="M175" s="4">
-        <v>0</v>
-      </c>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
+        <v>269.8</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="176">
       <c r="A176" s="2">
         <v>2212</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>16</v>
@@ -9796,8 +9934,12 @@
       <c r="E176" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
+      <c r="F176" s="2">
+        <v>80148</v>
+      </c>
+      <c r="G176" s="3">
+        <v>45953</v>
+      </c>
       <c r="H176" s="1" t="s">
         <v>148</v>
       </c>
@@ -9811,20 +9953,24 @@
         <v>3</v>
       </c>
       <c r="L176" s="4">
-        <v>0</v>
+        <v>8.97</v>
       </c>
       <c r="M176" s="4">
-        <v>0</v>
-      </c>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
+        <v>26.91</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="177">
       <c r="A177" s="2">
         <v>2212</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>16</v>
@@ -9835,13 +9981,17 @@
       <c r="E177" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
+      <c r="F177" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G177" s="3">
+        <v>45952</v>
+      </c>
       <c r="H177" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>19</v>
@@ -9850,20 +10000,24 @@
         <v>10</v>
       </c>
       <c r="L177" s="4">
-        <v>0</v>
+        <v>13.95</v>
       </c>
       <c r="M177" s="4">
-        <v>0</v>
-      </c>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
+        <v>139.5</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="178">
       <c r="A178" s="2">
         <v>2212</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>16</v>
@@ -9874,8 +10028,12 @@
       <c r="E178" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
+      <c r="F178" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G178" s="3">
+        <v>45952</v>
+      </c>
       <c r="H178" s="1" t="s">
         <v>41</v>
       </c>
@@ -9889,20 +10047,24 @@
         <v>5</v>
       </c>
       <c r="L178" s="4">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M178" s="4">
-        <v>0</v>
-      </c>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
+        <v>1350</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="179">
       <c r="A179" s="2">
         <v>2212</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>16</v>
@@ -9913,13 +10075,17 @@
       <c r="E179" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
+      <c r="F179" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G179" s="3">
+        <v>45952</v>
+      </c>
       <c r="H179" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>19</v>
@@ -9928,20 +10094,24 @@
         <v>80</v>
       </c>
       <c r="L179" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M179" s="4">
-        <v>0</v>
-      </c>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
+        <v>1440</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="180">
       <c r="A180" s="2">
         <v>2212</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>16</v>
@@ -9952,8 +10122,12 @@
       <c r="E180" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
+      <c r="F180" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G180" s="3">
+        <v>45952</v>
+      </c>
       <c r="H180" s="1" t="s">
         <v>52</v>
       </c>
@@ -9967,20 +10141,24 @@
         <v>10</v>
       </c>
       <c r="L180" s="4">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M180" s="4">
-        <v>0</v>
-      </c>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
+        <v>1150</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="181">
       <c r="A181" s="2">
         <v>2212</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>16</v>
@@ -9991,13 +10169,17 @@
       <c r="E181" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
+      <c r="F181" s="2">
+        <v>80147</v>
+      </c>
+      <c r="G181" s="3">
+        <v>45953</v>
+      </c>
       <c r="H181" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>19</v>
@@ -10006,20 +10188,24 @@
         <v>50</v>
       </c>
       <c r="L181" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M181" s="4">
-        <v>0</v>
-      </c>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="182">
       <c r="A182" s="2">
         <v>2212</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>16</v>
@@ -10030,13 +10216,17 @@
       <c r="E182" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
+      <c r="F182" s="2">
+        <v>80147</v>
+      </c>
+      <c r="G182" s="3">
+        <v>45953</v>
+      </c>
       <c r="H182" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>19</v>
@@ -10045,20 +10235,24 @@
         <v>30</v>
       </c>
       <c r="L182" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M182" s="4">
-        <v>0</v>
-      </c>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
+        <v>300</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="183">
       <c r="A183" s="2">
         <v>2212</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>16</v>
@@ -10069,13 +10263,17 @@
       <c r="E183" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
+      <c r="F183" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G183" s="3">
+        <v>45952</v>
+      </c>
       <c r="H183" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>19</v>
@@ -10084,20 +10282,24 @@
         <v>1</v>
       </c>
       <c r="L183" s="4">
-        <v>0</v>
+        <v>413.67</v>
       </c>
       <c r="M183" s="4">
-        <v>0</v>
-      </c>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
+        <v>413.67</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="184">
       <c r="A184" s="2">
         <v>2212</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>16</v>
@@ -10108,13 +10310,17 @@
       <c r="E184" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
+      <c r="F184" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G184" s="3">
+        <v>45952</v>
+      </c>
       <c r="H184" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>19</v>
@@ -10123,20 +10329,24 @@
         <v>10</v>
       </c>
       <c r="L184" s="4">
-        <v>0</v>
+        <v>17.3</v>
       </c>
       <c r="M184" s="4">
-        <v>0</v>
-      </c>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="185">
       <c r="A185" s="2">
         <v>2212</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>16</v>
@@ -10147,13 +10357,17 @@
       <c r="E185" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
+      <c r="F185" s="2">
+        <v>80169</v>
+      </c>
+      <c r="G185" s="3">
+        <v>45953</v>
+      </c>
       <c r="H185" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>19</v>
@@ -10162,20 +10376,24 @@
         <v>25</v>
       </c>
       <c r="L185" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M185" s="4">
-        <v>0</v>
-      </c>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="186">
       <c r="A186" s="2">
         <v>2212</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>16</v>
@@ -10186,8 +10404,12 @@
       <c r="E186" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="F186" s="2">
+        <v>80144</v>
+      </c>
+      <c r="G186" s="3">
+        <v>45952</v>
+      </c>
       <c r="H186" s="1" t="s">
         <v>158</v>
       </c>
@@ -10201,20 +10423,24 @@
         <v>2</v>
       </c>
       <c r="L186" s="4">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="M186" s="4">
-        <v>0</v>
-      </c>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="187">
       <c r="A187" s="2">
         <v>2212</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>16</v>
@@ -10225,13 +10451,17 @@
       <c r="E187" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="2">
+        <v>80168</v>
+      </c>
+      <c r="G187" s="3">
+        <v>45953</v>
+      </c>
       <c r="H187" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>19</v>
@@ -10240,20 +10470,24 @@
         <v>100</v>
       </c>
       <c r="L187" s="4">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M187" s="4">
-        <v>0</v>
-      </c>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
+        <v>430</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="188">
       <c r="A188" s="2">
         <v>2212</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>16</v>
@@ -10264,35 +10498,43 @@
       <c r="E188" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="2">
+        <v>80146</v>
+      </c>
+      <c r="G188" s="3">
+        <v>45952</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K188" s="4">
         <v>32</v>
       </c>
       <c r="L188" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M188" s="4">
-        <v>0</v>
-      </c>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
+        <v>4800</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="189">
       <c r="A189" s="2">
         <v>2212</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>16</v>
@@ -10303,13 +10545,17 @@
       <c r="E189" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
+      <c r="F189" s="2">
+        <v>80168</v>
+      </c>
+      <c r="G189" s="3">
+        <v>45953</v>
+      </c>
       <c r="H189" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>88</v>
@@ -10318,20 +10564,24 @@
         <v>25</v>
       </c>
       <c r="L189" s="4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M189" s="4">
-        <v>0</v>
-      </c>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
+        <v>975</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="190">
       <c r="A190" s="2">
         <v>2212</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>16</v>
@@ -10342,13 +10592,17 @@
       <c r="E190" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
+      <c r="F190" s="2">
+        <v>80168</v>
+      </c>
+      <c r="G190" s="3">
+        <v>45953</v>
+      </c>
       <c r="H190" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>19</v>
@@ -10357,20 +10611,24 @@
         <v>500</v>
       </c>
       <c r="L190" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M190" s="4">
-        <v>0</v>
-      </c>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
+        <v>3000</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="191">
       <c r="A191" s="2">
         <v>2212</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>16</v>
@@ -10381,13 +10639,17 @@
       <c r="E191" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
+      <c r="F191" s="2">
+        <v>80145</v>
+      </c>
+      <c r="G191" s="3">
+        <v>45952</v>
+      </c>
       <c r="H191" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>19</v>
@@ -10396,20 +10658,24 @@
         <v>20</v>
       </c>
       <c r="L191" s="4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M191" s="4">
-        <v>0</v>
-      </c>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="192">
       <c r="A192" s="2">
         <v>2212</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>16</v>
@@ -10420,13 +10686,17 @@
       <c r="E192" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
+      <c r="F192" s="2">
+        <v>80168</v>
+      </c>
+      <c r="G192" s="3">
+        <v>45953</v>
+      </c>
       <c r="H192" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>19</v>
@@ -10435,20 +10705,24 @@
         <v>2</v>
       </c>
       <c r="L192" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M192" s="4">
-        <v>0</v>
-      </c>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="193">
       <c r="A193" s="2">
         <v>2212</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>16</v>
@@ -10459,13 +10733,17 @@
       <c r="E193" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="F193" s="2">
+        <v>80168</v>
+      </c>
+      <c r="G193" s="3">
+        <v>45953</v>
+      </c>
       <c r="H193" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>180</v>
@@ -10474,20 +10752,24 @@
         <v>1</v>
       </c>
       <c r="L193" s="4">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M193" s="4">
-        <v>0</v>
-      </c>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="194">
       <c r="A194" s="2">
         <v>2212</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>16</v>
@@ -10498,13 +10780,17 @@
       <c r="E194" s="3">
         <v>45952.6464399306</v>
       </c>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="F194" s="2">
+        <v>80170</v>
+      </c>
+      <c r="G194" s="3">
+        <v>45953</v>
+      </c>
       <c r="H194" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>19</v>
@@ -10513,13 +10799,17 @@
         <v>4</v>
       </c>
       <c r="L194" s="4">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="M194" s="4">
-        <v>0</v>
-      </c>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
+        <v>3960</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="195">
       <c r="A195" s="2">
@@ -10537,13 +10827,17 @@
       <c r="E195" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="F195" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G195" s="3">
+        <v>45953</v>
+      </c>
       <c r="H195" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>19</v>
@@ -10552,13 +10846,17 @@
         <v>3</v>
       </c>
       <c r="L195" s="4">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M195" s="4">
-        <v>0</v>
-      </c>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
+        <v>14.7</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="196">
       <c r="A196" s="2">
@@ -10576,13 +10874,17 @@
       <c r="E196" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="F196" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G196" s="3">
+        <v>45953</v>
+      </c>
       <c r="H196" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>19</v>
@@ -10591,13 +10893,17 @@
         <v>3</v>
       </c>
       <c r="L196" s="4">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="M196" s="4">
-        <v>0</v>
-      </c>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
+        <v>38.7</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="197">
       <c r="A197" s="2">
@@ -10615,8 +10921,12 @@
       <c r="E197" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="F197" s="2">
+        <v>80179</v>
+      </c>
+      <c r="G197" s="3">
+        <v>45953</v>
+      </c>
       <c r="H197" s="1" t="s">
         <v>41</v>
       </c>
@@ -10630,13 +10940,17 @@
         <v>1</v>
       </c>
       <c r="L197" s="4">
-        <v>0</v>
+        <v>799.9</v>
       </c>
       <c r="M197" s="4">
-        <v>0</v>
-      </c>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+        <v>799.9</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="198">
       <c r="A198" s="2">
@@ -10654,13 +10968,17 @@
       <c r="E198" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
+      <c r="F198" s="2">
+        <v>80163</v>
+      </c>
+      <c r="G198" s="3">
+        <v>45953</v>
+      </c>
       <c r="H198" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>43</v>
@@ -10669,13 +10987,17 @@
         <v>1</v>
       </c>
       <c r="L198" s="4">
-        <v>0</v>
+        <v>2386.59</v>
       </c>
       <c r="M198" s="4">
-        <v>0</v>
-      </c>
-      <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
+        <v>2386.59</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="199">
       <c r="A199" s="2">
@@ -10693,13 +11015,17 @@
       <c r="E199" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
+      <c r="F199" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G199" s="3">
+        <v>45953</v>
+      </c>
       <c r="H199" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>69</v>
@@ -10708,13 +11034,17 @@
         <v>1</v>
       </c>
       <c r="L199" s="4">
-        <v>0</v>
+        <v>159.9</v>
       </c>
       <c r="M199" s="4">
-        <v>0</v>
-      </c>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
+        <v>159.9</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="200">
       <c r="A200" s="2">
@@ -10732,13 +11062,17 @@
       <c r="E200" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+      <c r="F200" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G200" s="3">
+        <v>45953</v>
+      </c>
       <c r="H200" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>19</v>
@@ -10747,13 +11081,17 @@
         <v>20</v>
       </c>
       <c r="L200" s="4">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M200" s="4">
-        <v>0</v>
-      </c>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="201">
       <c r="A201" s="2">
@@ -10771,13 +11109,17 @@
       <c r="E201" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
+      <c r="F201" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G201" s="3">
+        <v>45953</v>
+      </c>
       <c r="H201" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>19</v>
@@ -10786,13 +11128,17 @@
         <v>1</v>
       </c>
       <c r="L201" s="4">
-        <v>0</v>
+        <v>149.9</v>
       </c>
       <c r="M201" s="4">
-        <v>0</v>
-      </c>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
+        <v>149.9</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="202">
       <c r="A202" s="2">
@@ -10810,13 +11156,17 @@
       <c r="E202" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
+      <c r="F202" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G202" s="3">
+        <v>45953</v>
+      </c>
       <c r="H202" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>19</v>
@@ -10825,13 +11175,17 @@
         <v>1</v>
       </c>
       <c r="L202" s="4">
-        <v>0</v>
+        <v>99.9</v>
       </c>
       <c r="M202" s="4">
-        <v>0</v>
-      </c>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
+        <v>99.9</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="203">
       <c r="A203" s="2">
@@ -10849,13 +11203,17 @@
       <c r="E203" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
+      <c r="F203" s="2">
+        <v>80163</v>
+      </c>
+      <c r="G203" s="3">
+        <v>45953</v>
+      </c>
       <c r="H203" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>19</v>
@@ -10864,13 +11222,17 @@
         <v>1</v>
       </c>
       <c r="L203" s="4">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="M203" s="4">
-        <v>0</v>
-      </c>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="204">
       <c r="A204" s="2">
@@ -10888,8 +11250,12 @@
       <c r="E204" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
+      <c r="F204" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G204" s="3">
+        <v>45953</v>
+      </c>
       <c r="H204" s="1" t="s">
         <v>74</v>
       </c>
@@ -10903,13 +11269,17 @@
         <v>10</v>
       </c>
       <c r="L204" s="4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="M204" s="4">
-        <v>0</v>
-      </c>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="205">
       <c r="A205" s="2">
@@ -10927,13 +11297,17 @@
       <c r="E205" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
+      <c r="F205" s="2">
+        <v>80167</v>
+      </c>
+      <c r="G205" s="3">
+        <v>45953</v>
+      </c>
       <c r="H205" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>19</v>
@@ -10942,13 +11316,17 @@
         <v>2</v>
       </c>
       <c r="L205" s="4">
-        <v>0</v>
+        <v>166.5</v>
       </c>
       <c r="M205" s="4">
-        <v>0</v>
-      </c>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="206">
       <c r="A206" s="2">
@@ -10966,13 +11344,17 @@
       <c r="E206" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
+      <c r="F206" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G206" s="3">
+        <v>45953</v>
+      </c>
       <c r="H206" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>19</v>
@@ -10981,13 +11363,17 @@
         <v>1</v>
       </c>
       <c r="L206" s="4">
-        <v>0</v>
+        <v>89.9</v>
       </c>
       <c r="M206" s="4">
-        <v>0</v>
-      </c>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
+        <v>89.9</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="207">
       <c r="A207" s="2">
@@ -11005,13 +11391,17 @@
       <c r="E207" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
+      <c r="F207" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G207" s="3">
+        <v>45953</v>
+      </c>
       <c r="H207" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>88</v>
@@ -11020,13 +11410,17 @@
         <v>5</v>
       </c>
       <c r="L207" s="4">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="M207" s="4">
-        <v>0</v>
-      </c>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="208">
       <c r="A208" s="2">
@@ -11044,13 +11438,17 @@
       <c r="E208" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
+      <c r="F208" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G208" s="3">
+        <v>45953</v>
+      </c>
       <c r="H208" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>88</v>
@@ -11059,13 +11457,17 @@
         <v>5</v>
       </c>
       <c r="L208" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M208" s="4">
-        <v>0</v>
-      </c>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="209">
       <c r="A209" s="2">
@@ -11083,13 +11485,17 @@
       <c r="E209" s="3">
         <v>45952.6506388542</v>
       </c>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
+      <c r="F209" s="2">
+        <v>80157</v>
+      </c>
+      <c r="G209" s="3">
+        <v>45953</v>
+      </c>
       <c r="H209" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>19</v>
@@ -11098,20 +11504,24 @@
         <v>6</v>
       </c>
       <c r="L209" s="4">
-        <v>0</v>
+        <v>2.9666</v>
       </c>
       <c r="M209" s="4">
-        <v>0</v>
-      </c>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
+        <v>17.7996</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="210">
       <c r="A210" s="2">
         <v>2503</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>34</v>
@@ -11122,35 +11532,43 @@
       <c r="E210" s="3">
         <v>45952.6716491667</v>
       </c>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
+      <c r="F210" s="2">
+        <v>80177</v>
+      </c>
+      <c r="G210" s="3">
+        <v>45953</v>
+      </c>
       <c r="H210" s="1" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K210" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L210" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M210" s="4">
-        <v>0</v>
-      </c>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="211">
       <c r="A211" s="2">
         <v>2503</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>34</v>
@@ -11164,16 +11582,16 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K211" s="4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L211" s="4">
         <v>0</v>
@@ -11189,7 +11607,7 @@
         <v>2503</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>34</v>
@@ -11203,10 +11621,10 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>19</v>
@@ -11222,6 +11640,899 @@
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="213">
+      <c r="A213" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="2">
+        <v>27</v>
+      </c>
+      <c r="E213" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F213" s="2">
+        <v>80150</v>
+      </c>
+      <c r="G213" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1</v>
+      </c>
+      <c r="L213" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="M213" s="4">
+        <v>9.06</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="214">
+      <c r="A214" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="2">
+        <v>27</v>
+      </c>
+      <c r="E214" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F214" s="2">
+        <v>80151</v>
+      </c>
+      <c r="G214" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" s="4">
+        <v>20</v>
+      </c>
+      <c r="L214" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M214" s="4">
+        <v>90</v>
+      </c>
+      <c r="N214" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="215">
+      <c r="A215" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="2">
+        <v>27</v>
+      </c>
+      <c r="E215" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F215" s="2">
+        <v>80151</v>
+      </c>
+      <c r="G215" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1</v>
+      </c>
+      <c r="L215" s="4">
+        <v>22.24</v>
+      </c>
+      <c r="M215" s="4">
+        <v>22.24</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="216">
+      <c r="A216" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D216" s="2">
+        <v>27</v>
+      </c>
+      <c r="E216" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F216" s="2">
+        <v>80150</v>
+      </c>
+      <c r="G216" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1</v>
+      </c>
+      <c r="L216" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="M216" s="4">
+        <v>9.19</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="217">
+      <c r="A217" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="2">
+        <v>27</v>
+      </c>
+      <c r="E217" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F217" s="2">
+        <v>80152</v>
+      </c>
+      <c r="G217" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K217" s="4">
+        <v>15</v>
+      </c>
+      <c r="L217" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M217" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="218">
+      <c r="A218" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="2">
+        <v>27</v>
+      </c>
+      <c r="E218" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F218" s="2">
+        <v>80150</v>
+      </c>
+      <c r="G218" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K218" s="4">
+        <v>5</v>
+      </c>
+      <c r="L218" s="4">
+        <v>2.75</v>
+      </c>
+      <c r="M218" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="219">
+      <c r="A219" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" s="2">
+        <v>27</v>
+      </c>
+      <c r="E219" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F219" s="2">
+        <v>80149</v>
+      </c>
+      <c r="G219" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K219" s="4">
+        <v>50</v>
+      </c>
+      <c r="L219" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="M219" s="4">
+        <v>1725</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="220">
+      <c r="A220" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="2">
+        <v>27</v>
+      </c>
+      <c r="E220" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F220" s="2">
+        <v>80150</v>
+      </c>
+      <c r="G220" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K220" s="4">
+        <v>5</v>
+      </c>
+      <c r="L220" s="4">
+        <v>15.21</v>
+      </c>
+      <c r="M220" s="4">
+        <v>76.05</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="221">
+      <c r="A221" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="2">
+        <v>27</v>
+      </c>
+      <c r="E221" s="3">
+        <v>45952.7598576505</v>
+      </c>
+      <c r="F221" s="2">
+        <v>80150</v>
+      </c>
+      <c r="G221" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="4">
+        <v>5</v>
+      </c>
+      <c r="L221" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="M221" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="222">
+      <c r="A222" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D222" s="2">
+        <v>75</v>
+      </c>
+      <c r="E222" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F222" s="2">
+        <v>80155</v>
+      </c>
+      <c r="G222" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K222" s="4">
+        <v>3</v>
+      </c>
+      <c r="L222" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="M222" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="223">
+      <c r="A223" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" s="2">
+        <v>75</v>
+      </c>
+      <c r="E223" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F223" s="2">
+        <v>80156</v>
+      </c>
+      <c r="G223" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K223" s="4">
+        <v>1</v>
+      </c>
+      <c r="L223" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="M223" s="4">
+        <v>21.02</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="224">
+      <c r="A224" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="2">
+        <v>75</v>
+      </c>
+      <c r="E224" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F224" s="2">
+        <v>80156</v>
+      </c>
+      <c r="G224" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K224" s="4">
+        <v>1</v>
+      </c>
+      <c r="L224" s="4">
+        <v>58.93</v>
+      </c>
+      <c r="M224" s="4">
+        <v>58.93</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="225">
+      <c r="A225" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="2">
+        <v>75</v>
+      </c>
+      <c r="E225" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F225" s="2">
+        <v>80156</v>
+      </c>
+      <c r="G225" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K225" s="4">
+        <v>1</v>
+      </c>
+      <c r="L225" s="4">
+        <v>73.69</v>
+      </c>
+      <c r="M225" s="4">
+        <v>73.69</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="226">
+      <c r="A226" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" s="2">
+        <v>75</v>
+      </c>
+      <c r="E226" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F226" s="2">
+        <v>80155</v>
+      </c>
+      <c r="G226" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="4">
+        <v>5</v>
+      </c>
+      <c r="L226" s="4">
+        <v>115</v>
+      </c>
+      <c r="M226" s="4">
+        <v>575</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="227">
+      <c r="A227" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D227" s="2">
+        <v>75</v>
+      </c>
+      <c r="E227" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F227" s="2">
+        <v>80153</v>
+      </c>
+      <c r="G227" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K227" s="4">
+        <v>1</v>
+      </c>
+      <c r="L227" s="4">
+        <v>85</v>
+      </c>
+      <c r="M227" s="4">
+        <v>85</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="228">
+      <c r="A228" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D228" s="2">
+        <v>75</v>
+      </c>
+      <c r="E228" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F228" s="2">
+        <v>80153</v>
+      </c>
+      <c r="G228" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K228" s="4">
+        <v>5</v>
+      </c>
+      <c r="L228" s="4">
+        <v>85</v>
+      </c>
+      <c r="M228" s="4">
+        <v>425</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="229">
+      <c r="A229" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" s="2">
+        <v>75</v>
+      </c>
+      <c r="E229" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F229" s="2">
+        <v>80153</v>
+      </c>
+      <c r="G229" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K229" s="4">
+        <v>6</v>
+      </c>
+      <c r="L229" s="4">
+        <v>4.9</v>
+      </c>
+      <c r="M229" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="230">
+      <c r="A230" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="2">
+        <v>75</v>
+      </c>
+      <c r="E230" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F230" s="2">
+        <v>80153</v>
+      </c>
+      <c r="G230" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K230" s="4">
+        <v>6</v>
+      </c>
+      <c r="L230" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M230" s="4">
+        <v>27</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="231">
+      <c r="A231" s="2">
+        <v>2409</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D231" s="2">
+        <v>75</v>
+      </c>
+      <c r="E231" s="3">
+        <v>45953.4014098843</v>
+      </c>
+      <c r="F231" s="2">
+        <v>80155</v>
+      </c>
+      <c r="G231" s="3">
+        <v>45953</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="4">
+        <v>6</v>
+      </c>
+      <c r="L231" s="4">
+        <v>15.84</v>
+      </c>
+      <c r="M231" s="4">
+        <v>95.04</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -6107,10 +6107,10 @@
         <v>15</v>
       </c>
       <c r="L94" s="4">
-        <v>106</v>
+        <v>147.72</v>
       </c>
       <c r="M94" s="4">
-        <v>1590</v>
+        <v>2215.8</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>154</v>
@@ -11676,10 +11676,10 @@
         <v>1</v>
       </c>
       <c r="L213" s="4">
-        <v>9.06</v>
+        <v>12.5</v>
       </c>
       <c r="M213" s="4">
-        <v>9.06</v>
+        <v>12.5</v>
       </c>
       <c r="N213" s="1" t="s">
         <v>258</v>
@@ -11817,10 +11817,10 @@
         <v>1</v>
       </c>
       <c r="L216" s="4">
-        <v>9.19</v>
+        <v>10.6</v>
       </c>
       <c r="M216" s="4">
-        <v>9.19</v>
+        <v>10.6</v>
       </c>
       <c r="N216" s="1" t="s">
         <v>258</v>
@@ -11911,10 +11911,10 @@
         <v>5</v>
       </c>
       <c r="L218" s="4">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M218" s="4">
-        <v>13.75</v>
+        <v>17.5</v>
       </c>
       <c r="N218" s="1" t="s">
         <v>258</v>
@@ -12052,10 +12052,10 @@
         <v>5</v>
       </c>
       <c r="L221" s="4">
-        <v>17.5</v>
+        <v>19.42</v>
       </c>
       <c r="M221" s="4">
-        <v>87.5</v>
+        <v>97.1</v>
       </c>
       <c r="N221" s="1" t="s">
         <v>258</v>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1367,6 +1367,12 @@
     <t>TOMADA LUMITEK</t>
   </si>
   <si>
+    <t>00000000008626</t>
+  </si>
+  <si>
+    <t>INOVA MATERIAIS</t>
+  </si>
+  <si>
     <t>K.08.0560</t>
   </si>
   <si>
@@ -1401,6 +1407,369 @@
   </si>
   <si>
     <t>ÓCULOS DE SEGURANÇA INCOLOR AGUIA</t>
+  </si>
+  <si>
+    <t>RAFAEL CURSINO DE MOURA LEVY</t>
+  </si>
+  <si>
+    <t>F.05.0004</t>
+  </si>
+  <si>
+    <t>LOCAÇÃO DE EQUIPAMNETO</t>
+  </si>
+  <si>
+    <t>00000000000464</t>
+  </si>
+  <si>
+    <t>TIMBRAZ</t>
+  </si>
+  <si>
+    <t>KAENA PARTICIPAÇÕES LTDA - II</t>
+  </si>
+  <si>
+    <t>E.02.0211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILME DE POLIETILENO  ADESIVADO SEM COLA REMOVIVEL  PROTEÇÃO DE CAIXILHO  PROCAIXILHO 200MM/100M =20M² PROMAFLEX</t>
+  </si>
+  <si>
+    <t>00000000006868</t>
+  </si>
+  <si>
+    <t>PROMAFLEX FILME PVC</t>
+  </si>
+  <si>
+    <t>N.12.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACHO  NA COR CINZA COM LOGO NAS CORES  OSBORNE MEDINDO 1,00 X 0,50</t>
+  </si>
+  <si>
+    <t>00000000009808</t>
+  </si>
+  <si>
+    <t>CAPLIMP</t>
+  </si>
+  <si>
+    <t>O.01.0116</t>
+  </si>
+  <si>
+    <t>CHAPA PLASTIFICADO 14 MM - 2,20 X 1,10 M</t>
+  </si>
+  <si>
+    <t>E.03.0522</t>
+  </si>
+  <si>
+    <t>ESCADA PARA ANDAIME TUBULAR</t>
+  </si>
+  <si>
+    <t>K.08.7610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE TOMADA BR 2P+T 20A 250V 1M GR  REF S70203194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.7670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE  4X2 PARA 3 MOD BR ORION REF S71010324 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE SAIDA DE FIO  1M GR ORION  S70866894 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE TOMDA RJ 45  UPT CAT 6 IM ORION  S70540194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8022</t>
+  </si>
+  <si>
+    <t>MODULO TOMADA RJ 11 1M ORION S70549194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8013</t>
+  </si>
+  <si>
+    <t>MODULO DE TOMADA SCHNEIDER 2P + T 10AA 250V 1M GRAFITE COD PRM 04723</t>
+  </si>
+  <si>
+    <t>K.08.8023</t>
+  </si>
+  <si>
+    <t>MODULO CAMPINHA CIGARRA 127V 1M GR ORION S70878394 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA  4X2 1 POSTO  AXIS GREY ORION S730101224 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE TOMAD BR 2P + T 20A 250V PB VERMELHO ORION  S70203194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8025</t>
+  </si>
+  <si>
+    <t>PLACA 4X2 2 POSTOS AXIS GREY ORION S730121224 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE INTERRPTOR SIMPLES 10 A 250 V 1M GR  ORION S70110194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA 4X2 3 POSTOS AXIS GREY ORION S730103224  SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE INTERRUPTOR PARALELO  10 A  250V 1 M  ORION S70110394 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA  4 X 2 CEGA AIX GREY ORION S730100224 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO DE INTERRUPTOR INTERMEDIARIO 10 A 250V 1M ORION S70110594  SCHNEIDER</t>
+  </si>
+  <si>
+    <t>K.08.8019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODULO VARIADOR  ELETRONICOO PARA VENTILADOR  127V 1M  ORION S70712194 SCHNEIDER</t>
+  </si>
+  <si>
+    <t>W.03.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO LISO  CABEÇA 7,6MM X 45 MM COMPRIMENTO DE HASTE</t>
+  </si>
+  <si>
+    <t>D.01.0011</t>
+  </si>
+  <si>
+    <t>PLACA DE ARQUITETURA</t>
+  </si>
+  <si>
+    <t>E.01.0073</t>
+  </si>
+  <si>
+    <t>CADEADO 35 MM</t>
+  </si>
+  <si>
+    <t>E.02.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORDA DE 100% POLIAMIDA DE SEGURANÇA COM MARCA D'ÁGUA  1/2''</t>
+  </si>
+  <si>
+    <t>E.03.0310</t>
+  </si>
+  <si>
+    <t>TRAVA QUEDAS P/ CORDA DE 1/2''</t>
+  </si>
+  <si>
+    <t>E.03.0480</t>
+  </si>
+  <si>
+    <t>MOSQUETÃO TIPO OVAL -ABERTURA 18MM CARGA DE RUPTURA 20KN-</t>
+  </si>
+  <si>
+    <t>E.03.0296</t>
+  </si>
+  <si>
+    <t>TALABARTE EM "Y" COM ABSORVEDOR</t>
+  </si>
+  <si>
+    <t>E.03.0297</t>
+  </si>
+  <si>
+    <t>CINTO DE SEGURANÇA TIPO PARAQUEDISTA COM AJUSTE ABDOMINAL</t>
+  </si>
+  <si>
+    <t>E.03.0138</t>
+  </si>
+  <si>
+    <t>PROTETOR DE CORDA</t>
+  </si>
+  <si>
+    <t>E.04.0378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA SDS PLUS WIDIA DE ENCAIXE -  8MM X 110MM</t>
+  </si>
+  <si>
+    <t>F.01.0001</t>
+  </si>
+  <si>
+    <t>RÁDIO DE COMUNICAÇÃO - MÊS</t>
+  </si>
+  <si>
+    <t>K.01.0025</t>
+  </si>
+  <si>
+    <t>FITA ISOLANTE - 19 MM X 20 M</t>
+  </si>
+  <si>
+    <t>K.01.0266</t>
+  </si>
+  <si>
+    <t>CABO FLEXÍVEL PP - 750 V - 2 X 2,5 MM²</t>
+  </si>
+  <si>
+    <t>K.07.0114</t>
+  </si>
+  <si>
+    <t>LÂMPADA DE LED</t>
+  </si>
+  <si>
+    <t>K.01.1200</t>
+  </si>
+  <si>
+    <t>BOCAL DE LOUÇA E.27</t>
+  </si>
+  <si>
+    <t>K.01.1533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROLONGADOR PROFISSIONAL PADRÃO BRASILEIRO REFORÇADO  20A  2 P   ( FEMEA ) REF 6158 75</t>
+  </si>
+  <si>
+    <t>W.01.0007</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 18 X 30</t>
+  </si>
+  <si>
+    <t>W.02.0001</t>
+  </si>
+  <si>
+    <t>BUCHA FIX. NYLON S-8</t>
+  </si>
+  <si>
+    <t>W.02.0101</t>
+  </si>
+  <si>
+    <t>PARAFUSO PHILLIPS</t>
+  </si>
+  <si>
+    <t>P1.02.0008</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA</t>
+  </si>
+  <si>
+    <t>ROBERTO KLABIN MARTINS XAVIER</t>
+  </si>
+  <si>
+    <t>E.01.0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ARGAMASSADEIRA  MISTURADOR DE ARGAMASSA</t>
+  </si>
+  <si>
+    <t>E.03.0521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARDA CORPO  PARA ANDAIME TUBULAR</t>
+  </si>
+  <si>
+    <t>E.O4.1239</t>
+  </si>
+  <si>
+    <t>PAINEL PARA ANDAIME 1,0 X 1,0M ENCAIXE TUBULAR</t>
+  </si>
+  <si>
+    <t>J.02.2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTOMASSA  MASSA PRONTO MULTIUSO SC  5OK</t>
+  </si>
+  <si>
+    <t>O.01.0082</t>
+  </si>
+  <si>
+    <t>CHAPA DE MADEIRITE OSB</t>
+  </si>
+  <si>
+    <t>W.03.0015</t>
+  </si>
+  <si>
+    <t>ESPUMA EXPANSIVA DE PU- LATA - 300 ML</t>
+  </si>
+  <si>
+    <t>P2.01.0022</t>
+  </si>
+  <si>
+    <t>CANTONEIRA DE ALUMINIO</t>
+  </si>
+  <si>
+    <t>E.02.0114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINTOR DE INCÊNDIO ABC  4 KG</t>
+  </si>
+  <si>
+    <t>E.04.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA PROFISSIONAL DE AÇO  8 M X 26 MM</t>
+  </si>
+  <si>
+    <t>E.04.0163</t>
+  </si>
+  <si>
+    <t>ESQUADRO PROFISSIONAL - 12''</t>
+  </si>
+  <si>
+    <t>E.04.1170</t>
+  </si>
+  <si>
+    <t>LÁPIS PARA CARPINTEIRO IRWIN</t>
+  </si>
+  <si>
+    <t>J.02.0813</t>
+  </si>
+  <si>
+    <t>ARGAMASSA ACIII</t>
+  </si>
+  <si>
+    <t>K.06.0458</t>
+  </si>
+  <si>
+    <t>PARAFUSO</t>
+  </si>
+  <si>
+    <t>R.02.0016</t>
+  </si>
+  <si>
+    <t>MASSA CORRIDA PVA 18L</t>
+  </si>
+  <si>
+    <t>W.06.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO ESTRUTURAL BASE EPÓXI MÉDIA FLUIDEZ  COMPOUND ADESIVO  1KG   ( A+B)</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +2068,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O231"/>
+  <dimension ref="A1:O328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -1715,7 +2084,7 @@
     <col min="6" max="6" width="8.57142857142857" customWidth="1" style="1"/>
     <col min="7" max="7" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="8" max="8" width="13.2857142857143" customWidth="1" style="1"/>
-    <col min="9" max="9" width="102.714285714286" customWidth="1" style="1"/>
+    <col min="9" max="9" width="121.428571428571" customWidth="1" style="1"/>
     <col min="10" max="10" width="17.4285714285714" customWidth="1" style="1"/>
     <col min="11" max="11" width="10.1428571428571" customWidth="1" style="1"/>
     <col min="12" max="12" width="17.5714285714286" customWidth="1" style="1"/>
@@ -6154,10 +6523,10 @@
         <v>5</v>
       </c>
       <c r="L95" s="4">
-        <v>33.424</v>
+        <v>43.008</v>
       </c>
       <c r="M95" s="4">
-        <v>167.12</v>
+        <v>215.04</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>248</v>
@@ -11533,34 +11902,34 @@
         <v>45952.6716491667</v>
       </c>
       <c r="F210" s="2">
-        <v>80177</v>
+        <v>80218</v>
       </c>
       <c r="G210" s="3">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K210" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L210" s="4">
-        <v>13.9</v>
+        <v>15.75</v>
       </c>
       <c r="M210" s="4">
-        <v>69.5</v>
+        <v>315</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>50</v>
+        <v>451</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>51</v>
+        <v>452</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="211">
@@ -11579,28 +11948,36 @@
       <c r="E211" s="3">
         <v>45952.6716491667</v>
       </c>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
+      <c r="F211" s="2">
+        <v>80218</v>
+      </c>
+      <c r="G211" s="3">
+        <v>45954</v>
+      </c>
       <c r="H211" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K211" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L211" s="4">
-        <v>0</v>
+        <v>37.49</v>
       </c>
       <c r="M211" s="4">
-        <v>0</v>
-      </c>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
+        <v>187.45</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="212">
       <c r="A212" s="2">
@@ -11618,13 +11995,17 @@
       <c r="E212" s="3">
         <v>45952.6716491667</v>
       </c>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
+      <c r="F212" s="2">
+        <v>80177</v>
+      </c>
+      <c r="G212" s="3">
+        <v>45953</v>
+      </c>
       <c r="H212" s="1" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>19</v>
@@ -11633,13 +12014,17 @@
         <v>5</v>
       </c>
       <c r="L212" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M212" s="4">
-        <v>0</v>
-      </c>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="213">
       <c r="A213" s="2">
@@ -11805,10 +12190,10 @@
         <v>45953</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>335</v>
@@ -11993,10 +12378,10 @@
         <v>45953</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>19</v>
@@ -12228,10 +12613,10 @@
         <v>45953</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>19</v>
@@ -12322,10 +12707,10 @@
         <v>45953</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>69</v>
@@ -12369,10 +12754,10 @@
         <v>45953</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>69</v>
@@ -12463,10 +12848,10 @@
         <v>45953</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>19</v>
@@ -12533,6 +12918,3861 @@
       <c r="O231" s="1" t="s">
         <v>259</v>
       </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="232">
+      <c r="A232" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="2">
+        <v>9</v>
+      </c>
+      <c r="E232" s="3">
+        <v>45954.4399937153</v>
+      </c>
+      <c r="F232" s="2">
+        <v>80192</v>
+      </c>
+      <c r="G232" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K232" s="4">
+        <v>2</v>
+      </c>
+      <c r="L232" s="4">
+        <v>4136</v>
+      </c>
+      <c r="M232" s="4">
+        <v>8272</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="233">
+      <c r="A233" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2</v>
+      </c>
+      <c r="E233" s="3">
+        <v>45954.5022759259</v>
+      </c>
+      <c r="F233" s="2">
+        <v>80212</v>
+      </c>
+      <c r="G233" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K233" s="4">
+        <v>2</v>
+      </c>
+      <c r="L233" s="4">
+        <v>120</v>
+      </c>
+      <c r="M233" s="4">
+        <v>240</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="234">
+      <c r="A234" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D234" s="2">
+        <v>2</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45954.5022759259</v>
+      </c>
+      <c r="F234" s="2">
+        <v>80211</v>
+      </c>
+      <c r="G234" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K234" s="4">
+        <v>2</v>
+      </c>
+      <c r="L234" s="4">
+        <v>207.5</v>
+      </c>
+      <c r="M234" s="4">
+        <v>415</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="235">
+      <c r="A235" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45954.5022759259</v>
+      </c>
+      <c r="F235" s="2">
+        <v>80213</v>
+      </c>
+      <c r="G235" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="4">
+        <v>4</v>
+      </c>
+      <c r="L235" s="4">
+        <v>12.72</v>
+      </c>
+      <c r="M235" s="4">
+        <v>50.88</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="236">
+      <c r="A236" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45954.5022759259</v>
+      </c>
+      <c r="F236" s="2">
+        <v>80213</v>
+      </c>
+      <c r="G236" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K236" s="4">
+        <v>4</v>
+      </c>
+      <c r="L236" s="4">
+        <v>12.72</v>
+      </c>
+      <c r="M236" s="4">
+        <v>50.88</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="237">
+      <c r="A237" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D237" s="2">
+        <v>2</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45954.5022759259</v>
+      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K237" s="4">
+        <v>3</v>
+      </c>
+      <c r="L237" s="4">
+        <v>0</v>
+      </c>
+      <c r="M237" s="4">
+        <v>0</v>
+      </c>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="238">
+      <c r="A238" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="2">
+        <v>4</v>
+      </c>
+      <c r="E238" s="3">
+        <v>45954.5035436227</v>
+      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1</v>
+      </c>
+      <c r="L238" s="4">
+        <v>0</v>
+      </c>
+      <c r="M238" s="4">
+        <v>0</v>
+      </c>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="239">
+      <c r="A239" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="2">
+        <v>4</v>
+      </c>
+      <c r="E239" s="3">
+        <v>45954.5035436227</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K239" s="4">
+        <v>1</v>
+      </c>
+      <c r="L239" s="4">
+        <v>0</v>
+      </c>
+      <c r="M239" s="4">
+        <v>0</v>
+      </c>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="240">
+      <c r="A240" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="2">
+        <v>4</v>
+      </c>
+      <c r="E240" s="3">
+        <v>45954.5035436227</v>
+      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K240" s="4">
+        <v>1</v>
+      </c>
+      <c r="L240" s="4">
+        <v>0</v>
+      </c>
+      <c r="M240" s="4">
+        <v>0</v>
+      </c>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="241">
+      <c r="A241" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="2">
+        <v>4</v>
+      </c>
+      <c r="E241" s="3">
+        <v>45954.5035436227</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1</v>
+      </c>
+      <c r="L241" s="4">
+        <v>0</v>
+      </c>
+      <c r="M241" s="4">
+        <v>0</v>
+      </c>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="242">
+      <c r="A242" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="2">
+        <v>4</v>
+      </c>
+      <c r="E242" s="3">
+        <v>45954.5035436227</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K242" s="4">
+        <v>1</v>
+      </c>
+      <c r="L242" s="4">
+        <v>0</v>
+      </c>
+      <c r="M242" s="4">
+        <v>0</v>
+      </c>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="243">
+      <c r="A243" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D243" s="2">
+        <v>50</v>
+      </c>
+      <c r="E243" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K243" s="4">
+        <v>11</v>
+      </c>
+      <c r="L243" s="4">
+        <v>0</v>
+      </c>
+      <c r="M243" s="4">
+        <v>0</v>
+      </c>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="244">
+      <c r="A244" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D244" s="2">
+        <v>50</v>
+      </c>
+      <c r="E244" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K244" s="4">
+        <v>124</v>
+      </c>
+      <c r="L244" s="4">
+        <v>0</v>
+      </c>
+      <c r="M244" s="4">
+        <v>0</v>
+      </c>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="245">
+      <c r="A245" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D245" s="2">
+        <v>50</v>
+      </c>
+      <c r="E245" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K245" s="4">
+        <v>2</v>
+      </c>
+      <c r="L245" s="4">
+        <v>0</v>
+      </c>
+      <c r="M245" s="4">
+        <v>0</v>
+      </c>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="246">
+      <c r="A246" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D246" s="2">
+        <v>50</v>
+      </c>
+      <c r="E246" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="4">
+        <v>4</v>
+      </c>
+      <c r="L246" s="4">
+        <v>0</v>
+      </c>
+      <c r="M246" s="4">
+        <v>0</v>
+      </c>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="247">
+      <c r="A247" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D247" s="2">
+        <v>50</v>
+      </c>
+      <c r="E247" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K247" s="4">
+        <v>1</v>
+      </c>
+      <c r="L247" s="4">
+        <v>0</v>
+      </c>
+      <c r="M247" s="4">
+        <v>0</v>
+      </c>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="248">
+      <c r="A248" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D248" s="2">
+        <v>50</v>
+      </c>
+      <c r="E248" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K248" s="4">
+        <v>66</v>
+      </c>
+      <c r="L248" s="4">
+        <v>0</v>
+      </c>
+      <c r="M248" s="4">
+        <v>0</v>
+      </c>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="249">
+      <c r="A249" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D249" s="2">
+        <v>50</v>
+      </c>
+      <c r="E249" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="4">
+        <v>1</v>
+      </c>
+      <c r="L249" s="4">
+        <v>0</v>
+      </c>
+      <c r="M249" s="4">
+        <v>0</v>
+      </c>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="250">
+      <c r="A250" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D250" s="2">
+        <v>50</v>
+      </c>
+      <c r="E250" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K250" s="4">
+        <v>49</v>
+      </c>
+      <c r="L250" s="4">
+        <v>0</v>
+      </c>
+      <c r="M250" s="4">
+        <v>0</v>
+      </c>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="251">
+      <c r="A251" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D251" s="2">
+        <v>50</v>
+      </c>
+      <c r="E251" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K251" s="4">
+        <v>13</v>
+      </c>
+      <c r="L251" s="4">
+        <v>0</v>
+      </c>
+      <c r="M251" s="4">
+        <v>0</v>
+      </c>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="252">
+      <c r="A252" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D252" s="2">
+        <v>50</v>
+      </c>
+      <c r="E252" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K252" s="4">
+        <v>21</v>
+      </c>
+      <c r="L252" s="4">
+        <v>0</v>
+      </c>
+      <c r="M252" s="4">
+        <v>0</v>
+      </c>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="253">
+      <c r="A253" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="2">
+        <v>50</v>
+      </c>
+      <c r="E253" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="4">
+        <v>31</v>
+      </c>
+      <c r="L253" s="4">
+        <v>0</v>
+      </c>
+      <c r="M253" s="4">
+        <v>0</v>
+      </c>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="254">
+      <c r="A254" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D254" s="2">
+        <v>50</v>
+      </c>
+      <c r="E254" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K254" s="4">
+        <v>23</v>
+      </c>
+      <c r="L254" s="4">
+        <v>0</v>
+      </c>
+      <c r="M254" s="4">
+        <v>0</v>
+      </c>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="255">
+      <c r="A255" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D255" s="2">
+        <v>50</v>
+      </c>
+      <c r="E255" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K255" s="4">
+        <v>37</v>
+      </c>
+      <c r="L255" s="4">
+        <v>0</v>
+      </c>
+      <c r="M255" s="4">
+        <v>0</v>
+      </c>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="256">
+      <c r="A256" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D256" s="2">
+        <v>50</v>
+      </c>
+      <c r="E256" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K256" s="4">
+        <v>6</v>
+      </c>
+      <c r="L256" s="4">
+        <v>0</v>
+      </c>
+      <c r="M256" s="4">
+        <v>0</v>
+      </c>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="257">
+      <c r="A257" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D257" s="2">
+        <v>50</v>
+      </c>
+      <c r="E257" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K257" s="4">
+        <v>4</v>
+      </c>
+      <c r="L257" s="4">
+        <v>0</v>
+      </c>
+      <c r="M257" s="4">
+        <v>0</v>
+      </c>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="258">
+      <c r="A258" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D258" s="2">
+        <v>50</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K258" s="4">
+        <v>1</v>
+      </c>
+      <c r="L258" s="4">
+        <v>0</v>
+      </c>
+      <c r="M258" s="4">
+        <v>0</v>
+      </c>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="259">
+      <c r="A259" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D259" s="2">
+        <v>50</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45954.5050131481</v>
+      </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K259" s="4">
+        <v>3</v>
+      </c>
+      <c r="L259" s="4">
+        <v>0</v>
+      </c>
+      <c r="M259" s="4">
+        <v>0</v>
+      </c>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="260">
+      <c r="A260" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D260" s="2">
+        <v>37</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45954.5089154167</v>
+      </c>
+      <c r="F260" s="2">
+        <v>80214</v>
+      </c>
+      <c r="G260" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K260" s="4">
+        <v>2</v>
+      </c>
+      <c r="L260" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="M260" s="4">
+        <v>27</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="261">
+      <c r="A261" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" s="2">
+        <v>37</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45954.5089154167</v>
+      </c>
+      <c r="F261" s="2">
+        <v>80214</v>
+      </c>
+      <c r="G261" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K261" s="4">
+        <v>20</v>
+      </c>
+      <c r="L261" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M261" s="4">
+        <v>90</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="262">
+      <c r="A262" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" s="2">
+        <v>37</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45954.5089154167</v>
+      </c>
+      <c r="F262" s="2">
+        <v>80214</v>
+      </c>
+      <c r="G262" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K262" s="4">
+        <v>6</v>
+      </c>
+      <c r="L262" s="4">
+        <v>16.9</v>
+      </c>
+      <c r="M262" s="4">
+        <v>101.4</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="263">
+      <c r="A263" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D263" s="2">
+        <v>37</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45954.5089154167</v>
+      </c>
+      <c r="F263" s="2">
+        <v>80214</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45954</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K263" s="4">
+        <v>3</v>
+      </c>
+      <c r="L263" s="4">
+        <v>68</v>
+      </c>
+      <c r="M263" s="4">
+        <v>204</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="264">
+      <c r="A264" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2">
+        <v>10</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K264" s="4">
+        <v>2</v>
+      </c>
+      <c r="L264" s="4">
+        <v>0</v>
+      </c>
+      <c r="M264" s="4">
+        <v>0</v>
+      </c>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="265">
+      <c r="A265" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" s="2">
+        <v>10</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K265" s="4">
+        <v>2</v>
+      </c>
+      <c r="L265" s="4">
+        <v>0</v>
+      </c>
+      <c r="M265" s="4">
+        <v>0</v>
+      </c>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="266">
+      <c r="A266" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="2">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K266" s="4">
+        <v>2</v>
+      </c>
+      <c r="L266" s="4">
+        <v>0</v>
+      </c>
+      <c r="M266" s="4">
+        <v>0</v>
+      </c>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="267">
+      <c r="A267" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="2">
+        <v>10</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K267" s="4">
+        <v>6</v>
+      </c>
+      <c r="L267" s="4">
+        <v>0</v>
+      </c>
+      <c r="M267" s="4">
+        <v>0</v>
+      </c>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="268">
+      <c r="A268" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="2">
+        <v>10</v>
+      </c>
+      <c r="E268" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="4">
+        <v>1</v>
+      </c>
+      <c r="L268" s="4">
+        <v>0</v>
+      </c>
+      <c r="M268" s="4">
+        <v>0</v>
+      </c>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="269">
+      <c r="A269" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K269" s="4">
+        <v>6</v>
+      </c>
+      <c r="L269" s="4">
+        <v>0</v>
+      </c>
+      <c r="M269" s="4">
+        <v>0</v>
+      </c>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="270">
+      <c r="A270" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D270" s="2">
+        <v>10</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K270" s="4">
+        <v>200</v>
+      </c>
+      <c r="L270" s="4">
+        <v>0</v>
+      </c>
+      <c r="M270" s="4">
+        <v>0</v>
+      </c>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="271">
+      <c r="A271" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="2">
+        <v>10</v>
+      </c>
+      <c r="E271" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K271" s="4">
+        <v>2</v>
+      </c>
+      <c r="L271" s="4">
+        <v>0</v>
+      </c>
+      <c r="M271" s="4">
+        <v>0</v>
+      </c>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="272">
+      <c r="A272" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" s="2">
+        <v>10</v>
+      </c>
+      <c r="E272" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K272" s="4">
+        <v>4</v>
+      </c>
+      <c r="L272" s="4">
+        <v>0</v>
+      </c>
+      <c r="M272" s="4">
+        <v>0</v>
+      </c>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="273">
+      <c r="A273" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="2">
+        <v>10</v>
+      </c>
+      <c r="E273" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K273" s="4">
+        <v>10</v>
+      </c>
+      <c r="L273" s="4">
+        <v>0</v>
+      </c>
+      <c r="M273" s="4">
+        <v>0</v>
+      </c>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="274">
+      <c r="A274" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274" s="2">
+        <v>10</v>
+      </c>
+      <c r="E274" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K274" s="4">
+        <v>10</v>
+      </c>
+      <c r="L274" s="4">
+        <v>0</v>
+      </c>
+      <c r="M274" s="4">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="275">
+      <c r="A275" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D275" s="2">
+        <v>10</v>
+      </c>
+      <c r="E275" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K275" s="4">
+        <v>10</v>
+      </c>
+      <c r="L275" s="4">
+        <v>0</v>
+      </c>
+      <c r="M275" s="4">
+        <v>0</v>
+      </c>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="276">
+      <c r="A276" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="2">
+        <v>10</v>
+      </c>
+      <c r="E276" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K276" s="4">
+        <v>2</v>
+      </c>
+      <c r="L276" s="4">
+        <v>0</v>
+      </c>
+      <c r="M276" s="4">
+        <v>0</v>
+      </c>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="277">
+      <c r="A277" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="2">
+        <v>10</v>
+      </c>
+      <c r="E277" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K277" s="4">
+        <v>2</v>
+      </c>
+      <c r="L277" s="4">
+        <v>0</v>
+      </c>
+      <c r="M277" s="4">
+        <v>0</v>
+      </c>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="278">
+      <c r="A278" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" s="2">
+        <v>10</v>
+      </c>
+      <c r="E278" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K278" s="4">
+        <v>2</v>
+      </c>
+      <c r="L278" s="4">
+        <v>0</v>
+      </c>
+      <c r="M278" s="4">
+        <v>0</v>
+      </c>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="279">
+      <c r="A279" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="2">
+        <v>10</v>
+      </c>
+      <c r="E279" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K279" s="4">
+        <v>10</v>
+      </c>
+      <c r="L279" s="4">
+        <v>0</v>
+      </c>
+      <c r="M279" s="4">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="280">
+      <c r="A280" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="2">
+        <v>10</v>
+      </c>
+      <c r="E280" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K280" s="4">
+        <v>2</v>
+      </c>
+      <c r="L280" s="4">
+        <v>0</v>
+      </c>
+      <c r="M280" s="4">
+        <v>0</v>
+      </c>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="281">
+      <c r="A281" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="2">
+        <v>10</v>
+      </c>
+      <c r="E281" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K281" s="4">
+        <v>1</v>
+      </c>
+      <c r="L281" s="4">
+        <v>0</v>
+      </c>
+      <c r="M281" s="4">
+        <v>0</v>
+      </c>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="282">
+      <c r="A282" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="2">
+        <v>10</v>
+      </c>
+      <c r="E282" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K282" s="4">
+        <v>3</v>
+      </c>
+      <c r="L282" s="4">
+        <v>0</v>
+      </c>
+      <c r="M282" s="4">
+        <v>0</v>
+      </c>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="283">
+      <c r="A283" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="2">
+        <v>10</v>
+      </c>
+      <c r="E283" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K283" s="4">
+        <v>100</v>
+      </c>
+      <c r="L283" s="4">
+        <v>0</v>
+      </c>
+      <c r="M283" s="4">
+        <v>0</v>
+      </c>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="284">
+      <c r="A284" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="2">
+        <v>10</v>
+      </c>
+      <c r="E284" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K284" s="4">
+        <v>40</v>
+      </c>
+      <c r="L284" s="4">
+        <v>0</v>
+      </c>
+      <c r="M284" s="4">
+        <v>0</v>
+      </c>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="285">
+      <c r="A285" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" s="2">
+        <v>10</v>
+      </c>
+      <c r="E285" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K285" s="4">
+        <v>20</v>
+      </c>
+      <c r="L285" s="4">
+        <v>0</v>
+      </c>
+      <c r="M285" s="4">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="286">
+      <c r="A286" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="2">
+        <v>10</v>
+      </c>
+      <c r="E286" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K286" s="4">
+        <v>10</v>
+      </c>
+      <c r="L286" s="4">
+        <v>0</v>
+      </c>
+      <c r="M286" s="4">
+        <v>0</v>
+      </c>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="287">
+      <c r="A287" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="2">
+        <v>10</v>
+      </c>
+      <c r="E287" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K287" s="4">
+        <v>10</v>
+      </c>
+      <c r="L287" s="4">
+        <v>0</v>
+      </c>
+      <c r="M287" s="4">
+        <v>0</v>
+      </c>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="288">
+      <c r="A288" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D288" s="2">
+        <v>10</v>
+      </c>
+      <c r="E288" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K288" s="4">
+        <v>3</v>
+      </c>
+      <c r="L288" s="4">
+        <v>0</v>
+      </c>
+      <c r="M288" s="4">
+        <v>0</v>
+      </c>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="289">
+      <c r="A289" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="2">
+        <v>10</v>
+      </c>
+      <c r="E289" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K289" s="4">
+        <v>2</v>
+      </c>
+      <c r="L289" s="4">
+        <v>0</v>
+      </c>
+      <c r="M289" s="4">
+        <v>0</v>
+      </c>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="290">
+      <c r="A290" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D290" s="2">
+        <v>10</v>
+      </c>
+      <c r="E290" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K290" s="4">
+        <v>100</v>
+      </c>
+      <c r="L290" s="4">
+        <v>0</v>
+      </c>
+      <c r="M290" s="4">
+        <v>0</v>
+      </c>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="291">
+      <c r="A291" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="2">
+        <v>10</v>
+      </c>
+      <c r="E291" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K291" s="4">
+        <v>100</v>
+      </c>
+      <c r="L291" s="4">
+        <v>0</v>
+      </c>
+      <c r="M291" s="4">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="292">
+      <c r="A292" s="2">
+        <v>2509</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="2">
+        <v>10</v>
+      </c>
+      <c r="E292" s="3">
+        <v>45954.5099055324</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K292" s="4">
+        <v>6</v>
+      </c>
+      <c r="L292" s="4">
+        <v>0</v>
+      </c>
+      <c r="M292" s="4">
+        <v>0</v>
+      </c>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="293">
+      <c r="A293" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D293" s="2">
+        <v>4</v>
+      </c>
+      <c r="E293" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K293" s="4">
+        <v>4</v>
+      </c>
+      <c r="L293" s="4">
+        <v>0</v>
+      </c>
+      <c r="M293" s="4">
+        <v>0</v>
+      </c>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="294">
+      <c r="A294" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" s="2">
+        <v>4</v>
+      </c>
+      <c r="E294" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K294" s="4">
+        <v>1</v>
+      </c>
+      <c r="L294" s="4">
+        <v>0</v>
+      </c>
+      <c r="M294" s="4">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="295">
+      <c r="A295" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" s="2">
+        <v>4</v>
+      </c>
+      <c r="E295" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K295" s="4">
+        <v>10</v>
+      </c>
+      <c r="L295" s="4">
+        <v>0</v>
+      </c>
+      <c r="M295" s="4">
+        <v>0</v>
+      </c>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="296">
+      <c r="A296" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D296" s="2">
+        <v>4</v>
+      </c>
+      <c r="E296" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K296" s="4">
+        <v>5</v>
+      </c>
+      <c r="L296" s="4">
+        <v>0</v>
+      </c>
+      <c r="M296" s="4">
+        <v>0</v>
+      </c>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="297">
+      <c r="A297" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D297" s="2">
+        <v>4</v>
+      </c>
+      <c r="E297" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K297" s="4">
+        <v>4</v>
+      </c>
+      <c r="L297" s="4">
+        <v>0</v>
+      </c>
+      <c r="M297" s="4">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="298">
+      <c r="A298" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D298" s="2">
+        <v>4</v>
+      </c>
+      <c r="E298" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K298" s="4">
+        <v>2</v>
+      </c>
+      <c r="L298" s="4">
+        <v>0</v>
+      </c>
+      <c r="M298" s="4">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="299">
+      <c r="A299" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D299" s="2">
+        <v>4</v>
+      </c>
+      <c r="E299" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K299" s="4">
+        <v>8</v>
+      </c>
+      <c r="L299" s="4">
+        <v>0</v>
+      </c>
+      <c r="M299" s="4">
+        <v>0</v>
+      </c>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="300">
+      <c r="A300" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D300" s="2">
+        <v>4</v>
+      </c>
+      <c r="E300" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" s="4">
+        <v>8</v>
+      </c>
+      <c r="L300" s="4">
+        <v>0</v>
+      </c>
+      <c r="M300" s="4">
+        <v>0</v>
+      </c>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="301">
+      <c r="A301" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D301" s="2">
+        <v>4</v>
+      </c>
+      <c r="E301" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K301" s="4">
+        <v>8</v>
+      </c>
+      <c r="L301" s="4">
+        <v>0</v>
+      </c>
+      <c r="M301" s="4">
+        <v>0</v>
+      </c>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="302">
+      <c r="A302" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D302" s="2">
+        <v>4</v>
+      </c>
+      <c r="E302" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K302" s="4">
+        <v>2</v>
+      </c>
+      <c r="L302" s="4">
+        <v>0</v>
+      </c>
+      <c r="M302" s="4">
+        <v>0</v>
+      </c>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="303">
+      <c r="A303" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D303" s="2">
+        <v>4</v>
+      </c>
+      <c r="E303" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K303" s="4">
+        <v>200</v>
+      </c>
+      <c r="L303" s="4">
+        <v>0</v>
+      </c>
+      <c r="M303" s="4">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="304">
+      <c r="A304" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D304" s="2">
+        <v>4</v>
+      </c>
+      <c r="E304" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K304" s="4">
+        <v>20</v>
+      </c>
+      <c r="L304" s="4">
+        <v>0</v>
+      </c>
+      <c r="M304" s="4">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="305">
+      <c r="A305" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D305" s="2">
+        <v>4</v>
+      </c>
+      <c r="E305" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K305" s="4">
+        <v>100</v>
+      </c>
+      <c r="L305" s="4">
+        <v>0</v>
+      </c>
+      <c r="M305" s="4">
+        <v>0</v>
+      </c>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="306">
+      <c r="A306" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D306" s="2">
+        <v>4</v>
+      </c>
+      <c r="E306" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K306" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L306" s="4">
+        <v>0</v>
+      </c>
+      <c r="M306" s="4">
+        <v>0</v>
+      </c>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="307">
+      <c r="A307" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D307" s="2">
+        <v>4</v>
+      </c>
+      <c r="E307" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K307" s="4">
+        <v>3</v>
+      </c>
+      <c r="L307" s="4">
+        <v>0</v>
+      </c>
+      <c r="M307" s="4">
+        <v>0</v>
+      </c>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="308">
+      <c r="A308" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D308" s="2">
+        <v>4</v>
+      </c>
+      <c r="E308" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K308" s="4">
+        <v>12</v>
+      </c>
+      <c r="L308" s="4">
+        <v>0</v>
+      </c>
+      <c r="M308" s="4">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="309">
+      <c r="A309" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D309" s="2">
+        <v>4</v>
+      </c>
+      <c r="E309" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K309" s="4">
+        <v>15</v>
+      </c>
+      <c r="L309" s="4">
+        <v>0</v>
+      </c>
+      <c r="M309" s="4">
+        <v>0</v>
+      </c>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="310">
+      <c r="A310" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D310" s="2">
+        <v>4</v>
+      </c>
+      <c r="E310" s="3">
+        <v>45954.6997030671</v>
+      </c>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K310" s="4">
+        <v>60</v>
+      </c>
+      <c r="L310" s="4">
+        <v>0</v>
+      </c>
+      <c r="M310" s="4">
+        <v>0</v>
+      </c>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="311">
+      <c r="A311" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D311" s="2">
+        <v>74</v>
+      </c>
+      <c r="E311" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K311" s="4">
+        <v>6</v>
+      </c>
+      <c r="L311" s="4">
+        <v>0</v>
+      </c>
+      <c r="M311" s="4">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="312">
+      <c r="A312" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D312" s="2">
+        <v>74</v>
+      </c>
+      <c r="E312" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K312" s="4">
+        <v>2</v>
+      </c>
+      <c r="L312" s="4">
+        <v>0</v>
+      </c>
+      <c r="M312" s="4">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="313">
+      <c r="A313" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D313" s="2">
+        <v>74</v>
+      </c>
+      <c r="E313" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K313" s="4">
+        <v>30</v>
+      </c>
+      <c r="L313" s="4">
+        <v>0</v>
+      </c>
+      <c r="M313" s="4">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="314">
+      <c r="A314" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D314" s="2">
+        <v>74</v>
+      </c>
+      <c r="E314" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K314" s="4">
+        <v>60</v>
+      </c>
+      <c r="L314" s="4">
+        <v>0</v>
+      </c>
+      <c r="M314" s="4">
+        <v>0</v>
+      </c>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="315">
+      <c r="A315" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D315" s="2">
+        <v>74</v>
+      </c>
+      <c r="E315" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K315" s="4">
+        <v>2</v>
+      </c>
+      <c r="L315" s="4">
+        <v>0</v>
+      </c>
+      <c r="M315" s="4">
+        <v>0</v>
+      </c>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="316">
+      <c r="A316" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D316" s="2">
+        <v>74</v>
+      </c>
+      <c r="E316" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K316" s="4">
+        <v>5</v>
+      </c>
+      <c r="L316" s="4">
+        <v>0</v>
+      </c>
+      <c r="M316" s="4">
+        <v>0</v>
+      </c>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="317">
+      <c r="A317" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D317" s="2">
+        <v>74</v>
+      </c>
+      <c r="E317" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" s="4">
+        <v>40</v>
+      </c>
+      <c r="L317" s="4">
+        <v>0</v>
+      </c>
+      <c r="M317" s="4">
+        <v>0</v>
+      </c>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="318">
+      <c r="A318" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D318" s="2">
+        <v>74</v>
+      </c>
+      <c r="E318" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" s="4">
+        <v>10</v>
+      </c>
+      <c r="L318" s="4">
+        <v>0</v>
+      </c>
+      <c r="M318" s="4">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="319">
+      <c r="A319" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D319" s="2">
+        <v>74</v>
+      </c>
+      <c r="E319" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="4">
+        <v>2</v>
+      </c>
+      <c r="L319" s="4">
+        <v>0</v>
+      </c>
+      <c r="M319" s="4">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="320">
+      <c r="A320" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D320" s="2">
+        <v>74</v>
+      </c>
+      <c r="E320" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="4">
+        <v>2</v>
+      </c>
+      <c r="L320" s="4">
+        <v>0</v>
+      </c>
+      <c r="M320" s="4">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="321">
+      <c r="A321" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D321" s="2">
+        <v>74</v>
+      </c>
+      <c r="E321" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" s="4">
+        <v>1</v>
+      </c>
+      <c r="L321" s="4">
+        <v>0</v>
+      </c>
+      <c r="M321" s="4">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="322">
+      <c r="A322" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D322" s="2">
+        <v>74</v>
+      </c>
+      <c r="E322" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" s="4">
+        <v>2</v>
+      </c>
+      <c r="L322" s="4">
+        <v>0</v>
+      </c>
+      <c r="M322" s="4">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="323">
+      <c r="A323" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D323" s="2">
+        <v>74</v>
+      </c>
+      <c r="E323" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="4">
+        <v>6</v>
+      </c>
+      <c r="L323" s="4">
+        <v>0</v>
+      </c>
+      <c r="M323" s="4">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="324">
+      <c r="A324" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D324" s="2">
+        <v>74</v>
+      </c>
+      <c r="E324" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K324" s="4">
+        <v>5</v>
+      </c>
+      <c r="L324" s="4">
+        <v>0</v>
+      </c>
+      <c r="M324" s="4">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="325">
+      <c r="A325" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D325" s="2">
+        <v>74</v>
+      </c>
+      <c r="E325" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L325" s="4">
+        <v>0</v>
+      </c>
+      <c r="M325" s="4">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="326">
+      <c r="A326" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D326" s="2">
+        <v>74</v>
+      </c>
+      <c r="E326" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K326" s="4">
+        <v>3</v>
+      </c>
+      <c r="L326" s="4">
+        <v>0</v>
+      </c>
+      <c r="M326" s="4">
+        <v>0</v>
+      </c>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="327">
+      <c r="A327" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D327" s="2">
+        <v>74</v>
+      </c>
+      <c r="E327" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="4">
+        <v>6</v>
+      </c>
+      <c r="L327" s="4">
+        <v>0</v>
+      </c>
+      <c r="M327" s="4">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="328">
+      <c r="A328" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D328" s="2">
+        <v>74</v>
+      </c>
+      <c r="E328" s="3">
+        <v>45954.7298785532</v>
+      </c>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" s="4">
+        <v>3</v>
+      </c>
+      <c r="L328" s="4">
+        <v>0</v>
+      </c>
+      <c r="M328" s="4">
+        <v>0</v>
+      </c>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1121,6 +1121,12 @@
     <t>FITA CREPE - 48 MM X 50 M PAPEL</t>
   </si>
   <si>
+    <t>E.02.0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA  TAPUME PROTEÇAO DA ÁREA DE TRABALHO( LARANJA  E BRANCA ) 1,20 X 50M )</t>
+  </si>
+  <si>
     <t>E.03.0254</t>
   </si>
   <si>
@@ -1205,12 +1211,6 @@
     <t>COPLÁS</t>
   </si>
   <si>
-    <t>E.02.0072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA  TAPUME PROTEÇAO DA ÁREA DE TRABALHO( LARANJA  E BRANCA ) 1,20 X 50M )</t>
-  </si>
-  <si>
     <t>M.08.0305</t>
   </si>
   <si>
@@ -1286,6 +1286,18 @@
     <t>LAVADORA DE ALTA PRESSÃO</t>
   </si>
   <si>
+    <t>00000000009021</t>
+  </si>
+  <si>
+    <t>AKEMI REPRESENTANTE</t>
+  </si>
+  <si>
+    <t>00000000000315</t>
+  </si>
+  <si>
+    <t>CRUZADA</t>
+  </si>
+  <si>
     <t>E.04.0525</t>
   </si>
   <si>
@@ -1322,6 +1334,12 @@
     <t xml:space="preserve">TOMADA DE PISO 2P + T  PADRÃO 20A - 250V ~  TRANSMOBIL</t>
   </si>
   <si>
+    <t>00000000000587</t>
+  </si>
+  <si>
+    <t>PC 2000</t>
+  </si>
+  <si>
     <t>P2.03.0501</t>
   </si>
   <si>
@@ -1337,18 +1355,18 @@
     <t>KATIA FERREIRA DE BARROS</t>
   </si>
   <si>
+    <t>E.04.0810</t>
+  </si>
+  <si>
+    <t>MANDRIL PARA FURADEIRA</t>
+  </si>
+  <si>
     <t>E.04.0720</t>
   </si>
   <si>
     <t>BROXA RETANGULAR</t>
   </si>
   <si>
-    <t>E.04.0810</t>
-  </si>
-  <si>
-    <t>MANDRIL PARA FURADEIRA</t>
-  </si>
-  <si>
     <t>E.04.0820</t>
   </si>
   <si>
@@ -1391,6 +1409,12 @@
     <t>PONTALETE DE CEDRINHO - 3 X 3" - 1ª IND</t>
   </si>
   <si>
+    <t>00000000009484</t>
+  </si>
+  <si>
+    <t>KALUTA</t>
+  </si>
+  <si>
     <t>O.01.0008</t>
   </si>
   <si>
@@ -1403,18 +1427,24 @@
     <t>TINTA ACRILICA LATA DE 18L</t>
   </si>
   <si>
+    <t>00000000008674</t>
+  </si>
+  <si>
+    <t>REI DAS TINTAS</t>
+  </si>
+  <si>
+    <t>S.08.0202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
+  </si>
+  <si>
     <t>S.10.0558</t>
   </si>
   <si>
     <t>ADITIVO</t>
   </si>
   <si>
-    <t>S.08.0202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPLUS 5000  IMPER. BI-COMPONENTE(A+B)  - EMB. 18KG</t>
-  </si>
-  <si>
     <t>DÉBITO ADMINISTRAÇÃO (OBRAS)</t>
   </si>
   <si>
@@ -1433,6 +1463,12 @@
     <t>M2</t>
   </si>
   <si>
+    <t>00000000001195</t>
+  </si>
+  <si>
+    <t>GEOMAKS</t>
+  </si>
+  <si>
     <t>13.02.0013</t>
   </si>
   <si>
@@ -1443,6 +1479,282 @@
   </si>
   <si>
     <t xml:space="preserve">FITA ISOLANTE  LÍQUIDA BISNAGA DE 50G</t>
+  </si>
+  <si>
+    <t>C.04.0205</t>
+  </si>
+  <si>
+    <t>SABONETE LIQUIDO 5 L</t>
+  </si>
+  <si>
+    <t>C.04.0026</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 20 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>C.05.0260</t>
+  </si>
+  <si>
+    <t>LIXEIRA DE PLÁSTICO 20 LTS</t>
+  </si>
+  <si>
+    <t>C.05.0264</t>
+  </si>
+  <si>
+    <t>LIXEIRA -</t>
+  </si>
+  <si>
+    <t>E.02.0015</t>
+  </si>
+  <si>
+    <t>FITA ZEBRADA - 7 CM X 200 M</t>
+  </si>
+  <si>
+    <t>E.03.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÓCULOS DE SEGURANÇA FUMÊ  AGUIA</t>
+  </si>
+  <si>
+    <t>E.03.0162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA ERGÔNOMICA ABDOMINAL  PROTETOR LOMBAR</t>
+  </si>
+  <si>
+    <t>E.03.0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA DE CHUVA TREVISA COM FORRO MANGA COMPRIDA  G</t>
+  </si>
+  <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PVC PARA OBRA</t>
+  </si>
+  <si>
+    <t>E.04.0705</t>
+  </si>
+  <si>
+    <t>CÂMARA DE AR P/CARRINHO DE MÃO</t>
+  </si>
+  <si>
+    <t>E.04.0715</t>
+  </si>
+  <si>
+    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
+  </si>
+  <si>
+    <t>E.04.0606</t>
+  </si>
+  <si>
+    <t>BOMBA PARA ENCHER PNEU DE CARRINHO DE MAO</t>
+  </si>
+  <si>
+    <t>E.06.0007</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE WD40</t>
+  </si>
+  <si>
+    <t>M.09.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAME RECOZIDO FIO  Nº 12</t>
+  </si>
+  <si>
+    <t>U.03.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPENSER  PARA SABONETE</t>
+  </si>
+  <si>
+    <t>U.02.7201</t>
+  </si>
+  <si>
+    <t>DISPENSADOR DE PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>W.01.0003</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 15 X 15</t>
+  </si>
+  <si>
+    <t>C.04.0011</t>
+  </si>
+  <si>
+    <t>PANO DE CHÃO PEQUENO</t>
+  </si>
+  <si>
+    <t>C.05.0212</t>
+  </si>
+  <si>
+    <t>MESA SECRETÁRIA COM GAVETEIRO - 0,74 M X 1,20 M X 0,60 M</t>
+  </si>
+  <si>
+    <t>E.02.0004</t>
+  </si>
+  <si>
+    <t>CORDA DE NYLON TORCIDA - 14MM</t>
+  </si>
+  <si>
+    <t>E.02.0026</t>
+  </si>
+  <si>
+    <t>LONA PLASTICA</t>
+  </si>
+  <si>
+    <t>E.04.0600</t>
+  </si>
+  <si>
+    <t>CARRINHO DE MÃO REFORÇADO PNEU CÂMARA TRAMONTINA</t>
+  </si>
+  <si>
+    <t>E.04.0760</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR (TRAÇADOR) - 7 1/4''</t>
+  </si>
+  <si>
+    <t>E.04.0780</t>
+  </si>
+  <si>
+    <t>LINHA DE NAYLON PARA PEDREIRO 100M</t>
+  </si>
+  <si>
+    <t>E.04.0113</t>
+  </si>
+  <si>
+    <t>COLHER DE PEDREIRO - 8''</t>
+  </si>
+  <si>
+    <t>E.04.0654</t>
+  </si>
+  <si>
+    <t>SERRA MÁRMORE</t>
+  </si>
+  <si>
+    <t>E.04.0126</t>
+  </si>
+  <si>
+    <t>NÍVEL DE ALUMÍNIO - 10''</t>
+  </si>
+  <si>
+    <t>E.04.0176</t>
+  </si>
+  <si>
+    <t>TRENA PROFISSIONAL DE AÇO 5 M</t>
+  </si>
+  <si>
+    <t>E.04.0177</t>
+  </si>
+  <si>
+    <t>TRIPÉ PARA NIVEL A LASER</t>
+  </si>
+  <si>
+    <t>E.04.0738</t>
+  </si>
+  <si>
+    <t>MARTELETE PERFURADOR</t>
+  </si>
+  <si>
+    <t>H.11.0123</t>
+  </si>
+  <si>
+    <t>TELA ELETRO SOLDADA PARA AMARRAÇÃO DE ALVENARIA 10,5 X 50,0 CM</t>
+  </si>
+  <si>
+    <t>L.01.0050</t>
+  </si>
+  <si>
+    <t>TIJOLO CERAMICO BAIANO 09 X 19 X 19</t>
+  </si>
+  <si>
+    <t>L.01.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIJOLO CERAMICO  BAIANO 09 X 19 X 29</t>
+  </si>
+  <si>
+    <t>M.09.0023</t>
+  </si>
+  <si>
+    <t>ARAME RECOZIDO FIO DUPLO TRANÇADO NØ 18</t>
+  </si>
+  <si>
+    <t>O.01.0107</t>
+  </si>
+  <si>
+    <t>PONTALETE DE CEDRINHO - 6 X 6 CM - 1ª IND</t>
+  </si>
+  <si>
+    <t>W.01.0011</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/CABEÇA 18 X 27</t>
+  </si>
+  <si>
+    <t>C.04.0046</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PÊLO ANIMAL 30 CM</t>
+  </si>
+  <si>
+    <t>E.04.0905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO DE DESBASTE  AÇO/METAL 41/2''</t>
+  </si>
+  <si>
+    <t>F.04.0040</t>
+  </si>
+  <si>
+    <t>MOTOR VIBRADOR - MÊS</t>
+  </si>
+  <si>
+    <t>F.04.0089</t>
+  </si>
+  <si>
+    <t>MANGOTE DO VIBRADOR 25 MM</t>
+  </si>
+  <si>
+    <t>J.01.0016</t>
+  </si>
+  <si>
+    <t>PEDRA BRITADA Nº 1 - SACO GRANDE 20 KG</t>
+  </si>
+  <si>
+    <t>J.09.0001</t>
+  </si>
+  <si>
+    <t>ARGILA EXPANDIDA REF.3222=32 A 22MM ( 1 M³ = 20 SACOS ) ( 1 SC = 50 L )</t>
+  </si>
+  <si>
+    <t>L.01.0035</t>
+  </si>
+  <si>
+    <t>TIJOLO DE BARRO</t>
+  </si>
+  <si>
+    <t>R.02.0181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINCHA  2"</t>
+  </si>
+  <si>
+    <t>P2.01.0023</t>
+  </si>
+  <si>
+    <t>BARRA CHATA DE ALUMINIO</t>
+  </si>
+  <si>
+    <t>P2.01.0024</t>
+  </si>
+  <si>
+    <t>BARRA CHATA DE AÇO INOX</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +2053,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O249"/>
+  <dimension ref="A1:O335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -2645,13 +2957,13 @@
         <v>27</v>
       </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" s="4">
         <v>325</v>
       </c>
       <c r="M19" s="4">
-        <v>325</v>
+        <v>975</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>75</v>
@@ -10234,22 +10546,22 @@
         <v>45959</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K181" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L181" s="4">
-        <v>16.9</v>
+        <v>95</v>
       </c>
       <c r="M181" s="4">
-        <v>169</v>
+        <v>475</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>136</v>
@@ -10281,22 +10593,22 @@
         <v>45959</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>369</v>
+        <v>51</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>370</v>
+        <v>52</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K182" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L182" s="4">
-        <v>24.9</v>
+        <v>16.9</v>
       </c>
       <c r="M182" s="4">
-        <v>124.5</v>
+        <v>169</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>136</v>
@@ -10337,13 +10649,13 @@
         <v>27</v>
       </c>
       <c r="K183" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L183" s="4">
-        <v>7.9</v>
+        <v>24.9</v>
       </c>
       <c r="M183" s="4">
-        <v>79</v>
+        <v>124.5</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>136</v>
@@ -10381,16 +10693,16 @@
         <v>374</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K184" s="4">
         <v>10</v>
       </c>
       <c r="L184" s="4">
-        <v>12.9</v>
+        <v>7.9</v>
       </c>
       <c r="M184" s="4">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>136</v>
@@ -10428,16 +10740,16 @@
         <v>376</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K185" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L185" s="4">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="M185" s="4">
-        <v>69.5</v>
+        <v>129</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>136</v>
@@ -10475,16 +10787,16 @@
         <v>378</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K186" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L186" s="4">
-        <v>2.9</v>
+        <v>13.9</v>
       </c>
       <c r="M186" s="4">
-        <v>145</v>
+        <v>69.5</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>136</v>
@@ -10522,16 +10834,16 @@
         <v>380</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K187" s="4">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="L187" s="4">
-        <v>69.9</v>
+        <v>2.9</v>
       </c>
       <c r="M187" s="4">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>136</v>
@@ -10572,13 +10884,13 @@
         <v>27</v>
       </c>
       <c r="K188" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L188" s="4">
-        <v>329.9</v>
+        <v>69.9</v>
       </c>
       <c r="M188" s="4">
-        <v>329.9</v>
+        <v>139.8</v>
       </c>
       <c r="N188" s="1" t="s">
         <v>136</v>
@@ -10604,7 +10916,7 @@
         <v>45957.7455821412</v>
       </c>
       <c r="F189" s="2">
-        <v>80278</v>
+        <v>80279</v>
       </c>
       <c r="G189" s="3">
         <v>45959</v>
@@ -10616,22 +10928,22 @@
         <v>384</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K189" s="4">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L189" s="4">
-        <v>6.6666</v>
+        <v>329.9</v>
       </c>
       <c r="M189" s="4">
-        <v>399.996</v>
+        <v>329.9</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>385</v>
+        <v>136</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>386</v>
+        <v>137</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="190">
@@ -10657,10 +10969,10 @@
         <v>45959</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>37</v>
@@ -10669,16 +10981,16 @@
         <v>60</v>
       </c>
       <c r="L190" s="4">
-        <v>9.6</v>
+        <v>6.6666</v>
       </c>
       <c r="M190" s="4">
-        <v>576</v>
+        <v>399.996</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="191">
@@ -10716,16 +11028,16 @@
         <v>60</v>
       </c>
       <c r="L191" s="4">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="M191" s="4">
-        <v>840</v>
+        <v>576</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="192">
@@ -10763,16 +11075,16 @@
         <v>60</v>
       </c>
       <c r="L192" s="4">
-        <v>2.3333</v>
+        <v>14</v>
       </c>
       <c r="M192" s="4">
-        <v>139.998</v>
+        <v>840</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="193">
@@ -10792,7 +11104,7 @@
         <v>45957.7455821412</v>
       </c>
       <c r="F193" s="2">
-        <v>80282</v>
+        <v>80278</v>
       </c>
       <c r="G193" s="3">
         <v>45959</v>
@@ -10804,22 +11116,22 @@
         <v>394</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K193" s="4">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="L193" s="4">
-        <v>0.28622</v>
+        <v>2.3333</v>
       </c>
       <c r="M193" s="4">
-        <v>572.44</v>
+        <v>139.998</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="194">
@@ -10838,28 +11150,36 @@
       <c r="E194" s="3">
         <v>45957.7455821412</v>
       </c>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="F194" s="2">
+        <v>80282</v>
+      </c>
+      <c r="G194" s="3">
+        <v>45959</v>
+      </c>
       <c r="H194" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L194" s="4">
+        <v>0.28622</v>
+      </c>
+      <c r="M194" s="4">
+        <v>572.44</v>
+      </c>
+      <c r="N194" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I194" s="1" t="s">
+      <c r="O194" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J194" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K194" s="4">
-        <v>5</v>
-      </c>
-      <c r="L194" s="4">
-        <v>0</v>
-      </c>
-      <c r="M194" s="4">
-        <v>0</v>
-      </c>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="195">
       <c r="A195" s="2">
@@ -11706,34 +12026,34 @@
         <v>45959.6494834838</v>
       </c>
       <c r="F215" s="2">
-        <v>80281</v>
+        <v>80286</v>
       </c>
       <c r="G215" s="3">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="H215" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K215" s="4">
+        <v>10</v>
+      </c>
+      <c r="L215" s="4">
+        <v>772.5</v>
+      </c>
+      <c r="M215" s="4">
+        <v>7725</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="O215" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K215" s="4">
-        <v>2</v>
-      </c>
-      <c r="L215" s="4">
-        <v>58.42</v>
-      </c>
-      <c r="M215" s="4">
-        <v>116.84</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="216">
@@ -11752,28 +12072,36 @@
       <c r="E216" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
+      <c r="F216" s="2">
+        <v>80285</v>
+      </c>
+      <c r="G216" s="3">
+        <v>45960</v>
+      </c>
       <c r="H216" s="1" t="s">
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>341</v>
+        <v>196</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="K216" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L216" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M216" s="4">
-        <v>0</v>
-      </c>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="217">
       <c r="A217" s="2">
@@ -11791,8 +12119,12 @@
       <c r="E217" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
+      <c r="F217" s="2">
+        <v>80285</v>
+      </c>
+      <c r="G217" s="3">
+        <v>45960</v>
+      </c>
       <c r="H217" s="1" t="s">
         <v>195</v>
       </c>
@@ -11806,13 +12138,17 @@
         <v>6</v>
       </c>
       <c r="L217" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M217" s="4">
-        <v>0</v>
-      </c>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="218">
       <c r="A218" s="2">
@@ -11830,8 +12166,12 @@
       <c r="E218" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
+      <c r="F218" s="2">
+        <v>80285</v>
+      </c>
+      <c r="G218" s="3">
+        <v>45960</v>
+      </c>
       <c r="H218" s="1" t="s">
         <v>195</v>
       </c>
@@ -11845,13 +12185,17 @@
         <v>6</v>
       </c>
       <c r="L218" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M218" s="4">
-        <v>0</v>
-      </c>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
+        <v>510</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="219">
       <c r="A219" s="2">
@@ -11869,8 +12213,12 @@
       <c r="E219" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
+      <c r="F219" s="2">
+        <v>80285</v>
+      </c>
+      <c r="G219" s="3">
+        <v>45960</v>
+      </c>
       <c r="H219" s="1" t="s">
         <v>195</v>
       </c>
@@ -11881,16 +12229,20 @@
         <v>146</v>
       </c>
       <c r="K219" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L219" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="M219" s="4">
-        <v>0</v>
-      </c>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="220">
       <c r="A220" s="2">
@@ -11908,28 +12260,36 @@
       <c r="E220" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
+      <c r="F220" s="2">
+        <v>80292</v>
+      </c>
+      <c r="G220" s="3">
+        <v>45960</v>
+      </c>
       <c r="H220" s="1" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="K220" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L220" s="4">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="M220" s="4">
-        <v>0</v>
-      </c>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="N220" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="221">
       <c r="A221" s="2">
@@ -11947,28 +12307,36 @@
       <c r="E221" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
+      <c r="F221" s="2">
+        <v>80281</v>
+      </c>
+      <c r="G221" s="3">
+        <v>45959</v>
+      </c>
       <c r="H221" s="1" t="s">
-        <v>59</v>
+        <v>428</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>60</v>
+        <v>429</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K221" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L221" s="4">
-        <v>0</v>
+        <v>58.42</v>
       </c>
       <c r="M221" s="4">
-        <v>0</v>
-      </c>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
+        <v>116.84</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="222">
       <c r="A222" s="2">
@@ -11986,13 +12354,17 @@
       <c r="E222" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
+      <c r="F222" s="2">
+        <v>80292</v>
+      </c>
+      <c r="G222" s="3">
+        <v>45960</v>
+      </c>
       <c r="H222" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>27</v>
@@ -12001,13 +12373,17 @@
         <v>10</v>
       </c>
       <c r="L222" s="4">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M222" s="4">
-        <v>0</v>
-      </c>
-      <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="223">
       <c r="A223" s="2">
@@ -12025,13 +12401,17 @@
       <c r="E223" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
+      <c r="F223" s="2">
+        <v>80292</v>
+      </c>
+      <c r="G223" s="3">
+        <v>45960</v>
+      </c>
       <c r="H223" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>27</v>
@@ -12040,13 +12420,17 @@
         <v>10</v>
       </c>
       <c r="L223" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M223" s="4">
-        <v>0</v>
-      </c>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="224">
       <c r="A224" s="2">
@@ -12064,13 +12448,17 @@
       <c r="E224" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
+      <c r="F224" s="2">
+        <v>80292</v>
+      </c>
+      <c r="G224" s="3">
+        <v>45960</v>
+      </c>
       <c r="H224" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>27</v>
@@ -12079,13 +12467,17 @@
         <v>4</v>
       </c>
       <c r="L224" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M224" s="4">
-        <v>0</v>
-      </c>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="N224" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="225">
       <c r="A225" s="2">
@@ -12103,13 +12495,17 @@
       <c r="E225" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
+      <c r="F225" s="2">
+        <v>80284</v>
+      </c>
+      <c r="G225" s="3">
+        <v>45960</v>
+      </c>
       <c r="H225" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>27</v>
@@ -12118,13 +12514,17 @@
         <v>40</v>
       </c>
       <c r="L225" s="4">
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="M225" s="4">
-        <v>0</v>
-      </c>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
+        <v>2460</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="226">
       <c r="A226" s="2">
@@ -12142,13 +12542,17 @@
       <c r="E226" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
+      <c r="F226" s="2">
+        <v>80288</v>
+      </c>
+      <c r="G226" s="3">
+        <v>45960</v>
+      </c>
       <c r="H226" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>27</v>
@@ -12157,13 +12561,17 @@
         <v>3</v>
       </c>
       <c r="L226" s="4">
-        <v>0</v>
+        <v>12.9</v>
       </c>
       <c r="M226" s="4">
-        <v>0</v>
-      </c>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
+        <v>38.7</v>
+      </c>
+      <c r="N226" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="227">
       <c r="A227" s="2">
@@ -12181,8 +12589,12 @@
       <c r="E227" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
+      <c r="F227" s="2">
+        <v>80287</v>
+      </c>
+      <c r="G227" s="3">
+        <v>45960</v>
+      </c>
       <c r="H227" s="1" t="s">
         <v>129</v>
       </c>
@@ -12196,13 +12608,17 @@
         <v>3</v>
       </c>
       <c r="L227" s="4">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="M227" s="4">
-        <v>0</v>
-      </c>
-      <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
+        <v>3270</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="228">
       <c r="A228" s="2">
@@ -12220,13 +12636,17 @@
       <c r="E228" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
+      <c r="F228" s="2">
+        <v>80287</v>
+      </c>
+      <c r="G228" s="3">
+        <v>45960</v>
+      </c>
       <c r="H228" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>27</v>
@@ -12235,13 +12655,17 @@
         <v>1</v>
       </c>
       <c r="L228" s="4">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="M228" s="4">
-        <v>0</v>
-      </c>
-      <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
+        <v>790</v>
+      </c>
+      <c r="N228" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="229">
       <c r="A229" s="2">
@@ -12259,13 +12683,17 @@
       <c r="E229" s="3">
         <v>45959.6494834838</v>
       </c>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
+      <c r="F229" s="2">
+        <v>80287</v>
+      </c>
+      <c r="G229" s="3">
+        <v>45960</v>
+      </c>
       <c r="H229" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>27</v>
@@ -12274,20 +12702,24 @@
         <v>1</v>
       </c>
       <c r="L229" s="4">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="M229" s="4">
-        <v>0</v>
-      </c>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
+        <v>549</v>
+      </c>
+      <c r="N229" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="230">
       <c r="A230" s="2">
         <v>2506</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>43</v>
@@ -12299,34 +12731,34 @@
         <v>45959.6525650116</v>
       </c>
       <c r="F230" s="2">
-        <v>80280</v>
+        <v>80293</v>
       </c>
       <c r="G230" s="3">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K230" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L230" s="4">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="M230" s="4">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="231">
@@ -12334,7 +12766,7 @@
         <v>2506</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>43</v>
@@ -12352,22 +12784,22 @@
         <v>45959</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K231" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L231" s="4">
-        <v>57.54</v>
+        <v>6</v>
       </c>
       <c r="M231" s="4">
-        <v>172.62</v>
+        <v>36</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>46</v>
@@ -12381,7 +12813,7 @@
         <v>2506</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>43</v>
@@ -12392,13 +12824,17 @@
       <c r="E232" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
+      <c r="F232" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G232" s="3">
+        <v>45960</v>
+      </c>
       <c r="H232" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>27</v>
@@ -12407,20 +12843,24 @@
         <v>1</v>
       </c>
       <c r="L232" s="4">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M232" s="4">
-        <v>0</v>
-      </c>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="233">
       <c r="A233" s="2">
         <v>2506</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>43</v>
@@ -12431,35 +12871,43 @@
       <c r="E233" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
+      <c r="F233" s="2">
+        <v>80280</v>
+      </c>
+      <c r="G233" s="3">
+        <v>45959</v>
+      </c>
       <c r="H233" s="1" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K233" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L233" s="4">
-        <v>0</v>
+        <v>57.54</v>
       </c>
       <c r="M233" s="4">
-        <v>0</v>
-      </c>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
+        <v>172.62</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="234">
       <c r="A234" s="2">
         <v>2506</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>43</v>
@@ -12470,13 +12918,17 @@
       <c r="E234" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
+      <c r="F234" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G234" s="3">
+        <v>45960</v>
+      </c>
       <c r="H234" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>27</v>
@@ -12485,20 +12937,24 @@
         <v>3</v>
       </c>
       <c r="L234" s="4">
-        <v>0</v>
+        <v>49.9</v>
       </c>
       <c r="M234" s="4">
-        <v>0</v>
-      </c>
-      <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
+        <v>149.7</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="235">
       <c r="A235" s="2">
         <v>2506</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>43</v>
@@ -12509,13 +12965,17 @@
       <c r="E235" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
+      <c r="F235" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G235" s="3">
+        <v>45960</v>
+      </c>
       <c r="H235" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>27</v>
@@ -12524,20 +12984,24 @@
         <v>6</v>
       </c>
       <c r="L235" s="4">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="M235" s="4">
-        <v>0</v>
-      </c>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
+        <v>774</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="236">
       <c r="A236" s="2">
         <v>2506</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>43</v>
@@ -12548,13 +13012,17 @@
       <c r="E236" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
+      <c r="F236" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G236" s="3">
+        <v>45960</v>
+      </c>
       <c r="H236" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>27</v>
@@ -12563,20 +13031,24 @@
         <v>3</v>
       </c>
       <c r="L236" s="4">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="M236" s="4">
-        <v>0</v>
-      </c>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
+        <v>179.7</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="237">
       <c r="A237" s="2">
         <v>2506</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>43</v>
@@ -12587,13 +13059,17 @@
       <c r="E237" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
+      <c r="F237" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G237" s="3">
+        <v>45960</v>
+      </c>
       <c r="H237" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>27</v>
@@ -12602,20 +13078,24 @@
         <v>3</v>
       </c>
       <c r="L237" s="4">
-        <v>0</v>
+        <v>24.9</v>
       </c>
       <c r="M237" s="4">
-        <v>0</v>
-      </c>
-      <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
+        <v>74.7</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="238">
       <c r="A238" s="2">
         <v>2506</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>43</v>
@@ -12626,13 +13106,17 @@
       <c r="E238" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
+      <c r="F238" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G238" s="3">
+        <v>45960</v>
+      </c>
       <c r="H238" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>27</v>
@@ -12641,20 +13125,24 @@
         <v>6</v>
       </c>
       <c r="L238" s="4">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="M238" s="4">
-        <v>0</v>
-      </c>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
+        <v>1014</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="239">
       <c r="A239" s="2">
         <v>2506</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>43</v>
@@ -12665,8 +13153,12 @@
       <c r="E239" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
+      <c r="F239" s="2">
+        <v>80293</v>
+      </c>
+      <c r="G239" s="3">
+        <v>45960</v>
+      </c>
       <c r="H239" s="1" t="s">
         <v>288</v>
       </c>
@@ -12680,20 +13172,24 @@
         <v>3</v>
       </c>
       <c r="L239" s="4">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="M239" s="4">
-        <v>0</v>
-      </c>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
+        <v>104.7</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="240">
       <c r="A240" s="2">
         <v>2506</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>43</v>
@@ -12704,13 +13200,17 @@
       <c r="E240" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
+      <c r="F240" s="2">
+        <v>80289</v>
+      </c>
+      <c r="G240" s="3">
+        <v>45960</v>
+      </c>
       <c r="H240" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>37</v>
@@ -12719,20 +13219,24 @@
         <v>60</v>
       </c>
       <c r="L240" s="4">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="M240" s="4">
-        <v>0</v>
-      </c>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
+        <v>864</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="241">
       <c r="A241" s="2">
         <v>2506</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>43</v>
@@ -12743,13 +13247,17 @@
       <c r="E241" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
+      <c r="F241" s="2">
+        <v>80289</v>
+      </c>
+      <c r="G241" s="3">
+        <v>45960</v>
+      </c>
       <c r="H241" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>37</v>
@@ -12758,20 +13266,24 @@
         <v>60</v>
       </c>
       <c r="L241" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M241" s="4">
-        <v>0</v>
-      </c>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
+        <v>1800</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="242">
       <c r="A242" s="2">
         <v>2506</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>43</v>
@@ -12782,13 +13294,17 @@
       <c r="E242" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
+      <c r="F242" s="2">
+        <v>80290</v>
+      </c>
+      <c r="G242" s="3">
+        <v>45960</v>
+      </c>
       <c r="H242" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>362</v>
@@ -12797,20 +13313,24 @@
         <v>1</v>
       </c>
       <c r="L242" s="4">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="M242" s="4">
-        <v>0</v>
-      </c>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
+        <v>530</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="243">
       <c r="A243" s="2">
         <v>2506</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>43</v>
@@ -12821,35 +13341,43 @@
       <c r="E243" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
+      <c r="F243" s="2">
+        <v>80291</v>
+      </c>
+      <c r="G243" s="3">
+        <v>45960</v>
+      </c>
       <c r="H243" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K243" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L243" s="4">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="M243" s="4">
-        <v>0</v>
-      </c>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
+        <v>1488</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="244">
       <c r="A244" s="2">
         <v>2506</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>43</v>
@@ -12860,35 +13388,43 @@
       <c r="E244" s="3">
         <v>45959.6525650116</v>
       </c>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
+      <c r="F244" s="2">
+        <v>80291</v>
+      </c>
+      <c r="G244" s="3">
+        <v>45960</v>
+      </c>
       <c r="H244" s="1" t="s">
-        <v>465</v>
+        <v>163</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="K244" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L244" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M244" s="4">
-        <v>0</v>
-      </c>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="245">
       <c r="A245" s="2">
         <v>2506</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>43</v>
@@ -12902,16 +13438,16 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1" t="s">
-        <v>163</v>
+        <v>475</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="K245" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L245" s="4">
         <v>0</v>
@@ -12927,7 +13463,7 @@
         <v>9991</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>43</v>
@@ -12938,13 +13474,17 @@
       <c r="E246" s="3">
         <v>45959.7202576736</v>
       </c>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
+      <c r="F246" s="2">
+        <v>80283</v>
+      </c>
+      <c r="G246" s="3">
+        <v>45960</v>
+      </c>
       <c r="H246" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>19</v>
@@ -12953,20 +13493,24 @@
         <v>1000</v>
       </c>
       <c r="L246" s="4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M246" s="4">
-        <v>0</v>
-      </c>
-      <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
+        <v>3500</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="247">
       <c r="A247" s="2">
         <v>9991</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>43</v>
@@ -12977,35 +13521,43 @@
       <c r="E247" s="3">
         <v>45959.7202576736</v>
       </c>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
+      <c r="F247" s="2">
+        <v>80296</v>
+      </c>
+      <c r="G247" s="3">
+        <v>45960</v>
+      </c>
       <c r="H247" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="K247" s="4">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="L247" s="4">
-        <v>0</v>
+        <v>8.45</v>
       </c>
       <c r="M247" s="4">
-        <v>0</v>
-      </c>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
+        <v>1943.5</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="248">
       <c r="A248" s="2">
         <v>9991</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>43</v>
@@ -13016,13 +13568,17 @@
       <c r="E248" s="3">
         <v>45959.7202576736</v>
       </c>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
+      <c r="F248" s="2">
+        <v>80295</v>
+      </c>
+      <c r="G248" s="3">
+        <v>45960</v>
+      </c>
       <c r="H248" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>117</v>
@@ -13031,20 +13587,24 @@
         <v>12</v>
       </c>
       <c r="L248" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M248" s="4">
-        <v>0</v>
-      </c>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
+        <v>1188</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="249">
       <c r="A249" s="2">
         <v>9991</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>43</v>
@@ -13058,10 +13618,10 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>27</v>
@@ -13077,6 +13637,3360 @@
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="250">
+      <c r="A250" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D250" s="2">
+        <v>3</v>
+      </c>
+      <c r="E250" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K250" s="4">
+        <v>6</v>
+      </c>
+      <c r="L250" s="4">
+        <v>0</v>
+      </c>
+      <c r="M250" s="4">
+        <v>0</v>
+      </c>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="251">
+      <c r="A251" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="2">
+        <v>3</v>
+      </c>
+      <c r="E251" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K251" s="4">
+        <v>6</v>
+      </c>
+      <c r="L251" s="4">
+        <v>0</v>
+      </c>
+      <c r="M251" s="4">
+        <v>0</v>
+      </c>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="252">
+      <c r="A252" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D252" s="2">
+        <v>3</v>
+      </c>
+      <c r="E252" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K252" s="4">
+        <v>6</v>
+      </c>
+      <c r="L252" s="4">
+        <v>0</v>
+      </c>
+      <c r="M252" s="4">
+        <v>0</v>
+      </c>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="253">
+      <c r="A253" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D253" s="2">
+        <v>3</v>
+      </c>
+      <c r="E253" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K253" s="4">
+        <v>3</v>
+      </c>
+      <c r="L253" s="4">
+        <v>0</v>
+      </c>
+      <c r="M253" s="4">
+        <v>0</v>
+      </c>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="254">
+      <c r="A254" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D254" s="2">
+        <v>3</v>
+      </c>
+      <c r="E254" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K254" s="4">
+        <v>3</v>
+      </c>
+      <c r="L254" s="4">
+        <v>0</v>
+      </c>
+      <c r="M254" s="4">
+        <v>0</v>
+      </c>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="255">
+      <c r="A255" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D255" s="2">
+        <v>3</v>
+      </c>
+      <c r="E255" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" s="4">
+        <v>4</v>
+      </c>
+      <c r="L255" s="4">
+        <v>0</v>
+      </c>
+      <c r="M255" s="4">
+        <v>0</v>
+      </c>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="256">
+      <c r="A256" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D256" s="2">
+        <v>3</v>
+      </c>
+      <c r="E256" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" s="4">
+        <v>2</v>
+      </c>
+      <c r="L256" s="4">
+        <v>0</v>
+      </c>
+      <c r="M256" s="4">
+        <v>0</v>
+      </c>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="257">
+      <c r="A257" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="2">
+        <v>3</v>
+      </c>
+      <c r="E257" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K257" s="4">
+        <v>1</v>
+      </c>
+      <c r="L257" s="4">
+        <v>0</v>
+      </c>
+      <c r="M257" s="4">
+        <v>0</v>
+      </c>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="258">
+      <c r="A258" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="2">
+        <v>3</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K258" s="4">
+        <v>2</v>
+      </c>
+      <c r="L258" s="4">
+        <v>0</v>
+      </c>
+      <c r="M258" s="4">
+        <v>0</v>
+      </c>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="259">
+      <c r="A259" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="2">
+        <v>3</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K259" s="4">
+        <v>2</v>
+      </c>
+      <c r="L259" s="4">
+        <v>0</v>
+      </c>
+      <c r="M259" s="4">
+        <v>0</v>
+      </c>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="260">
+      <c r="A260" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="2">
+        <v>3</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K260" s="4">
+        <v>1</v>
+      </c>
+      <c r="L260" s="4">
+        <v>0</v>
+      </c>
+      <c r="M260" s="4">
+        <v>0</v>
+      </c>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="261">
+      <c r="A261" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="2">
+        <v>3</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K261" s="4">
+        <v>1</v>
+      </c>
+      <c r="L261" s="4">
+        <v>0</v>
+      </c>
+      <c r="M261" s="4">
+        <v>0</v>
+      </c>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="262">
+      <c r="A262" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D262" s="2">
+        <v>3</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K262" s="4">
+        <v>30</v>
+      </c>
+      <c r="L262" s="4">
+        <v>0</v>
+      </c>
+      <c r="M262" s="4">
+        <v>0</v>
+      </c>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="263">
+      <c r="A263" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="2">
+        <v>3</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K263" s="4">
+        <v>1</v>
+      </c>
+      <c r="L263" s="4">
+        <v>0</v>
+      </c>
+      <c r="M263" s="4">
+        <v>0</v>
+      </c>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="264">
+      <c r="A264" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2">
+        <v>3</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K264" s="4">
+        <v>50</v>
+      </c>
+      <c r="L264" s="4">
+        <v>0</v>
+      </c>
+      <c r="M264" s="4">
+        <v>0</v>
+      </c>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="265">
+      <c r="A265" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D265" s="2">
+        <v>3</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K265" s="4">
+        <v>1</v>
+      </c>
+      <c r="L265" s="4">
+        <v>0</v>
+      </c>
+      <c r="M265" s="4">
+        <v>0</v>
+      </c>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="266">
+      <c r="A266" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D266" s="2">
+        <v>3</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K266" s="4">
+        <v>4</v>
+      </c>
+      <c r="L266" s="4">
+        <v>0</v>
+      </c>
+      <c r="M266" s="4">
+        <v>0</v>
+      </c>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="267">
+      <c r="A267" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D267" s="2">
+        <v>3</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K267" s="4">
+        <v>5</v>
+      </c>
+      <c r="L267" s="4">
+        <v>0</v>
+      </c>
+      <c r="M267" s="4">
+        <v>0</v>
+      </c>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="268">
+      <c r="A268" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" s="2">
+        <v>3</v>
+      </c>
+      <c r="E268" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K268" s="4">
+        <v>5</v>
+      </c>
+      <c r="L268" s="4">
+        <v>0</v>
+      </c>
+      <c r="M268" s="4">
+        <v>0</v>
+      </c>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="269">
+      <c r="A269" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2">
+        <v>3</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K269" s="4">
+        <v>10</v>
+      </c>
+      <c r="L269" s="4">
+        <v>0</v>
+      </c>
+      <c r="M269" s="4">
+        <v>0</v>
+      </c>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="270">
+      <c r="A270" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D270" s="2">
+        <v>3</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K270" s="4">
+        <v>8</v>
+      </c>
+      <c r="L270" s="4">
+        <v>0</v>
+      </c>
+      <c r="M270" s="4">
+        <v>0</v>
+      </c>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="271">
+      <c r="A271" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D271" s="2">
+        <v>3</v>
+      </c>
+      <c r="E271" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K271" s="4">
+        <v>3</v>
+      </c>
+      <c r="L271" s="4">
+        <v>0</v>
+      </c>
+      <c r="M271" s="4">
+        <v>0</v>
+      </c>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="272">
+      <c r="A272" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" s="2">
+        <v>3</v>
+      </c>
+      <c r="E272" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K272" s="4">
+        <v>6</v>
+      </c>
+      <c r="L272" s="4">
+        <v>0</v>
+      </c>
+      <c r="M272" s="4">
+        <v>0</v>
+      </c>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="273">
+      <c r="A273" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273" s="2">
+        <v>3</v>
+      </c>
+      <c r="E273" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K273" s="4">
+        <v>4</v>
+      </c>
+      <c r="L273" s="4">
+        <v>0</v>
+      </c>
+      <c r="M273" s="4">
+        <v>0</v>
+      </c>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="274">
+      <c r="A274" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274" s="2">
+        <v>3</v>
+      </c>
+      <c r="E274" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" s="4">
+        <v>3</v>
+      </c>
+      <c r="L274" s="4">
+        <v>0</v>
+      </c>
+      <c r="M274" s="4">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="275">
+      <c r="A275" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D275" s="2">
+        <v>3</v>
+      </c>
+      <c r="E275" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K275" s="4">
+        <v>1</v>
+      </c>
+      <c r="L275" s="4">
+        <v>0</v>
+      </c>
+      <c r="M275" s="4">
+        <v>0</v>
+      </c>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="276">
+      <c r="A276" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="2">
+        <v>3</v>
+      </c>
+      <c r="E276" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K276" s="4">
+        <v>2</v>
+      </c>
+      <c r="L276" s="4">
+        <v>0</v>
+      </c>
+      <c r="M276" s="4">
+        <v>0</v>
+      </c>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="277">
+      <c r="A277" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="2">
+        <v>3</v>
+      </c>
+      <c r="E277" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K277" s="4">
+        <v>30</v>
+      </c>
+      <c r="L277" s="4">
+        <v>0</v>
+      </c>
+      <c r="M277" s="4">
+        <v>0</v>
+      </c>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="278">
+      <c r="A278" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" s="2">
+        <v>3</v>
+      </c>
+      <c r="E278" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K278" s="4">
+        <v>2</v>
+      </c>
+      <c r="L278" s="4">
+        <v>0</v>
+      </c>
+      <c r="M278" s="4">
+        <v>0</v>
+      </c>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="279">
+      <c r="A279" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="2">
+        <v>3</v>
+      </c>
+      <c r="E279" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K279" s="4">
+        <v>1</v>
+      </c>
+      <c r="L279" s="4">
+        <v>0</v>
+      </c>
+      <c r="M279" s="4">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="280">
+      <c r="A280" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="2">
+        <v>3</v>
+      </c>
+      <c r="E280" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K280" s="4">
+        <v>1</v>
+      </c>
+      <c r="L280" s="4">
+        <v>0</v>
+      </c>
+      <c r="M280" s="4">
+        <v>0</v>
+      </c>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="281">
+      <c r="A281" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="2">
+        <v>3</v>
+      </c>
+      <c r="E281" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K281" s="4">
+        <v>3</v>
+      </c>
+      <c r="L281" s="4">
+        <v>0</v>
+      </c>
+      <c r="M281" s="4">
+        <v>0</v>
+      </c>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="282">
+      <c r="A282" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="2">
+        <v>3</v>
+      </c>
+      <c r="E282" s="3">
+        <v>45960.3977244792</v>
+      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K282" s="4">
+        <v>3</v>
+      </c>
+      <c r="L282" s="4">
+        <v>0</v>
+      </c>
+      <c r="M282" s="4">
+        <v>0</v>
+      </c>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="283">
+      <c r="A283" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="2">
+        <v>8</v>
+      </c>
+      <c r="E283" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K283" s="4">
+        <v>1</v>
+      </c>
+      <c r="L283" s="4">
+        <v>0</v>
+      </c>
+      <c r="M283" s="4">
+        <v>0</v>
+      </c>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="284">
+      <c r="A284" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="2">
+        <v>8</v>
+      </c>
+      <c r="E284" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K284" s="4">
+        <v>10</v>
+      </c>
+      <c r="L284" s="4">
+        <v>0</v>
+      </c>
+      <c r="M284" s="4">
+        <v>0</v>
+      </c>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="285">
+      <c r="A285" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" s="2">
+        <v>8</v>
+      </c>
+      <c r="E285" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K285" s="4">
+        <v>10</v>
+      </c>
+      <c r="L285" s="4">
+        <v>0</v>
+      </c>
+      <c r="M285" s="4">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="286">
+      <c r="A286" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="2">
+        <v>8</v>
+      </c>
+      <c r="E286" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K286" s="4">
+        <v>1</v>
+      </c>
+      <c r="L286" s="4">
+        <v>0</v>
+      </c>
+      <c r="M286" s="4">
+        <v>0</v>
+      </c>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="287">
+      <c r="A287" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="2">
+        <v>8</v>
+      </c>
+      <c r="E287" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" s="4">
+        <v>20</v>
+      </c>
+      <c r="L287" s="4">
+        <v>0</v>
+      </c>
+      <c r="M287" s="4">
+        <v>0</v>
+      </c>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="288">
+      <c r="A288" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D288" s="2">
+        <v>8</v>
+      </c>
+      <c r="E288" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K288" s="4">
+        <v>15</v>
+      </c>
+      <c r="L288" s="4">
+        <v>0</v>
+      </c>
+      <c r="M288" s="4">
+        <v>0</v>
+      </c>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="289">
+      <c r="A289" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="2">
+        <v>8</v>
+      </c>
+      <c r="E289" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K289" s="4">
+        <v>1</v>
+      </c>
+      <c r="L289" s="4">
+        <v>0</v>
+      </c>
+      <c r="M289" s="4">
+        <v>0</v>
+      </c>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="290">
+      <c r="A290" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D290" s="2">
+        <v>8</v>
+      </c>
+      <c r="E290" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K290" s="4">
+        <v>2</v>
+      </c>
+      <c r="L290" s="4">
+        <v>0</v>
+      </c>
+      <c r="M290" s="4">
+        <v>0</v>
+      </c>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="291">
+      <c r="A291" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D291" s="2">
+        <v>8</v>
+      </c>
+      <c r="E291" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="4">
+        <v>1</v>
+      </c>
+      <c r="L291" s="4">
+        <v>0</v>
+      </c>
+      <c r="M291" s="4">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="292">
+      <c r="A292" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" s="2">
+        <v>8</v>
+      </c>
+      <c r="E292" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K292" s="4">
+        <v>2</v>
+      </c>
+      <c r="L292" s="4">
+        <v>0</v>
+      </c>
+      <c r="M292" s="4">
+        <v>0</v>
+      </c>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="293">
+      <c r="A293" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D293" s="2">
+        <v>8</v>
+      </c>
+      <c r="E293" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K293" s="4">
+        <v>2</v>
+      </c>
+      <c r="L293" s="4">
+        <v>0</v>
+      </c>
+      <c r="M293" s="4">
+        <v>0</v>
+      </c>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="294">
+      <c r="A294" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D294" s="2">
+        <v>8</v>
+      </c>
+      <c r="E294" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" s="4">
+        <v>1</v>
+      </c>
+      <c r="L294" s="4">
+        <v>0</v>
+      </c>
+      <c r="M294" s="4">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="295">
+      <c r="A295" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D295" s="2">
+        <v>8</v>
+      </c>
+      <c r="E295" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" s="4">
+        <v>1</v>
+      </c>
+      <c r="L295" s="4">
+        <v>0</v>
+      </c>
+      <c r="M295" s="4">
+        <v>0</v>
+      </c>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="296">
+      <c r="A296" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" s="2">
+        <v>8</v>
+      </c>
+      <c r="E296" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K296" s="4">
+        <v>1</v>
+      </c>
+      <c r="L296" s="4">
+        <v>0</v>
+      </c>
+      <c r="M296" s="4">
+        <v>0</v>
+      </c>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="297">
+      <c r="A297" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="2">
+        <v>8</v>
+      </c>
+      <c r="E297" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K297" s="4">
+        <v>1</v>
+      </c>
+      <c r="L297" s="4">
+        <v>0</v>
+      </c>
+      <c r="M297" s="4">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="298">
+      <c r="A298" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D298" s="2">
+        <v>8</v>
+      </c>
+      <c r="E298" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K298" s="4">
+        <v>1</v>
+      </c>
+      <c r="L298" s="4">
+        <v>0</v>
+      </c>
+      <c r="M298" s="4">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="299">
+      <c r="A299" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" s="2">
+        <v>8</v>
+      </c>
+      <c r="E299" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K299" s="4">
+        <v>1</v>
+      </c>
+      <c r="L299" s="4">
+        <v>0</v>
+      </c>
+      <c r="M299" s="4">
+        <v>0</v>
+      </c>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="300">
+      <c r="A300" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300" s="2">
+        <v>8</v>
+      </c>
+      <c r="E300" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" s="4">
+        <v>100</v>
+      </c>
+      <c r="L300" s="4">
+        <v>0</v>
+      </c>
+      <c r="M300" s="4">
+        <v>0</v>
+      </c>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="301">
+      <c r="A301" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="2">
+        <v>8</v>
+      </c>
+      <c r="E301" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" s="4">
+        <v>20</v>
+      </c>
+      <c r="L301" s="4">
+        <v>0</v>
+      </c>
+      <c r="M301" s="4">
+        <v>0</v>
+      </c>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="302">
+      <c r="A302" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="2">
+        <v>8</v>
+      </c>
+      <c r="E302" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K302" s="4">
+        <v>50</v>
+      </c>
+      <c r="L302" s="4">
+        <v>0</v>
+      </c>
+      <c r="M302" s="4">
+        <v>0</v>
+      </c>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="303">
+      <c r="A303" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="2">
+        <v>8</v>
+      </c>
+      <c r="E303" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F303" s="1"/>
+      <c r="G303" s="1"/>
+      <c r="H303" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K303" s="4">
+        <v>100</v>
+      </c>
+      <c r="L303" s="4">
+        <v>0</v>
+      </c>
+      <c r="M303" s="4">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="304">
+      <c r="A304" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="2">
+        <v>8</v>
+      </c>
+      <c r="E304" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K304" s="4">
+        <v>420</v>
+      </c>
+      <c r="L304" s="4">
+        <v>0</v>
+      </c>
+      <c r="M304" s="4">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="305">
+      <c r="A305" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="2">
+        <v>8</v>
+      </c>
+      <c r="E305" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K305" s="4">
+        <v>1</v>
+      </c>
+      <c r="L305" s="4">
+        <v>0</v>
+      </c>
+      <c r="M305" s="4">
+        <v>0</v>
+      </c>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="306">
+      <c r="A306" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="2">
+        <v>8</v>
+      </c>
+      <c r="E306" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K306" s="4">
+        <v>15</v>
+      </c>
+      <c r="L306" s="4">
+        <v>0</v>
+      </c>
+      <c r="M306" s="4">
+        <v>0</v>
+      </c>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="307">
+      <c r="A307" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="2">
+        <v>8</v>
+      </c>
+      <c r="E307" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K307" s="4">
+        <v>15</v>
+      </c>
+      <c r="L307" s="4">
+        <v>0</v>
+      </c>
+      <c r="M307" s="4">
+        <v>0</v>
+      </c>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="308">
+      <c r="A308" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="2">
+        <v>8</v>
+      </c>
+      <c r="E308" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K308" s="4">
+        <v>5</v>
+      </c>
+      <c r="L308" s="4">
+        <v>0</v>
+      </c>
+      <c r="M308" s="4">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="309">
+      <c r="A309" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="2">
+        <v>8</v>
+      </c>
+      <c r="E309" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K309" s="4">
+        <v>5</v>
+      </c>
+      <c r="L309" s="4">
+        <v>0</v>
+      </c>
+      <c r="M309" s="4">
+        <v>0</v>
+      </c>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="310">
+      <c r="A310" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="2">
+        <v>8</v>
+      </c>
+      <c r="E310" s="3">
+        <v>45960.4038195023</v>
+      </c>
+      <c r="F310" s="1"/>
+      <c r="G310" s="1"/>
+      <c r="H310" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K310" s="4">
+        <v>3</v>
+      </c>
+      <c r="L310" s="4">
+        <v>0</v>
+      </c>
+      <c r="M310" s="4">
+        <v>0</v>
+      </c>
+      <c r="N310" s="1"/>
+      <c r="O310" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="311">
+      <c r="A311" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D311" s="2">
+        <v>51</v>
+      </c>
+      <c r="E311" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F311" s="1"/>
+      <c r="G311" s="1"/>
+      <c r="H311" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K311" s="4">
+        <v>20</v>
+      </c>
+      <c r="L311" s="4">
+        <v>0</v>
+      </c>
+      <c r="M311" s="4">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1"/>
+      <c r="O311" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="312">
+      <c r="A312" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D312" s="2">
+        <v>51</v>
+      </c>
+      <c r="E312" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F312" s="1"/>
+      <c r="G312" s="1"/>
+      <c r="H312" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K312" s="4">
+        <v>5</v>
+      </c>
+      <c r="L312" s="4">
+        <v>0</v>
+      </c>
+      <c r="M312" s="4">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1"/>
+      <c r="O312" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="313">
+      <c r="A313" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D313" s="2">
+        <v>51</v>
+      </c>
+      <c r="E313" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F313" s="1"/>
+      <c r="G313" s="1"/>
+      <c r="H313" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K313" s="4">
+        <v>5</v>
+      </c>
+      <c r="L313" s="4">
+        <v>0</v>
+      </c>
+      <c r="M313" s="4">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1"/>
+      <c r="O313" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="314">
+      <c r="A314" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D314" s="2">
+        <v>51</v>
+      </c>
+      <c r="E314" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K314" s="4">
+        <v>5</v>
+      </c>
+      <c r="L314" s="4">
+        <v>0</v>
+      </c>
+      <c r="M314" s="4">
+        <v>0</v>
+      </c>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="315">
+      <c r="A315" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D315" s="2">
+        <v>51</v>
+      </c>
+      <c r="E315" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K315" s="4">
+        <v>2</v>
+      </c>
+      <c r="L315" s="4">
+        <v>0</v>
+      </c>
+      <c r="M315" s="4">
+        <v>0</v>
+      </c>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="316">
+      <c r="A316" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D316" s="2">
+        <v>51</v>
+      </c>
+      <c r="E316" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F316" s="1"/>
+      <c r="G316" s="1"/>
+      <c r="H316" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K316" s="4">
+        <v>2</v>
+      </c>
+      <c r="L316" s="4">
+        <v>0</v>
+      </c>
+      <c r="M316" s="4">
+        <v>0</v>
+      </c>
+      <c r="N316" s="1"/>
+      <c r="O316" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="317">
+      <c r="A317" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="2">
+        <v>51</v>
+      </c>
+      <c r="E317" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F317" s="1"/>
+      <c r="G317" s="1"/>
+      <c r="H317" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K317" s="4">
+        <v>6</v>
+      </c>
+      <c r="L317" s="4">
+        <v>0</v>
+      </c>
+      <c r="M317" s="4">
+        <v>0</v>
+      </c>
+      <c r="N317" s="1"/>
+      <c r="O317" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="318">
+      <c r="A318" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D318" s="2">
+        <v>51</v>
+      </c>
+      <c r="E318" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
+      <c r="H318" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K318" s="4">
+        <v>20</v>
+      </c>
+      <c r="L318" s="4">
+        <v>0</v>
+      </c>
+      <c r="M318" s="4">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1"/>
+      <c r="O318" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="319">
+      <c r="A319" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D319" s="2">
+        <v>51</v>
+      </c>
+      <c r="E319" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F319" s="1"/>
+      <c r="G319" s="1"/>
+      <c r="H319" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K319" s="4">
+        <v>20</v>
+      </c>
+      <c r="L319" s="4">
+        <v>0</v>
+      </c>
+      <c r="M319" s="4">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1"/>
+      <c r="O319" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="320">
+      <c r="A320" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D320" s="2">
+        <v>51</v>
+      </c>
+      <c r="E320" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+      <c r="H320" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K320" s="4">
+        <v>10</v>
+      </c>
+      <c r="L320" s="4">
+        <v>0</v>
+      </c>
+      <c r="M320" s="4">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1"/>
+      <c r="O320" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="321">
+      <c r="A321" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="2">
+        <v>51</v>
+      </c>
+      <c r="E321" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F321" s="1"/>
+      <c r="G321" s="1"/>
+      <c r="H321" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K321" s="4">
+        <v>10</v>
+      </c>
+      <c r="L321" s="4">
+        <v>0</v>
+      </c>
+      <c r="M321" s="4">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1"/>
+      <c r="O321" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="322">
+      <c r="A322" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D322" s="2">
+        <v>51</v>
+      </c>
+      <c r="E322" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F322" s="1"/>
+      <c r="G322" s="1"/>
+      <c r="H322" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K322" s="4">
+        <v>2</v>
+      </c>
+      <c r="L322" s="4">
+        <v>0</v>
+      </c>
+      <c r="M322" s="4">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1"/>
+      <c r="O322" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="323">
+      <c r="A323" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D323" s="2">
+        <v>51</v>
+      </c>
+      <c r="E323" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F323" s="1"/>
+      <c r="G323" s="1"/>
+      <c r="H323" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K323" s="4">
+        <v>1</v>
+      </c>
+      <c r="L323" s="4">
+        <v>0</v>
+      </c>
+      <c r="M323" s="4">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1"/>
+      <c r="O323" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="324">
+      <c r="A324" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D324" s="2">
+        <v>51</v>
+      </c>
+      <c r="E324" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K324" s="4">
+        <v>1</v>
+      </c>
+      <c r="L324" s="4">
+        <v>0</v>
+      </c>
+      <c r="M324" s="4">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="325">
+      <c r="A325" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" s="2">
+        <v>51</v>
+      </c>
+      <c r="E325" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F325" s="1"/>
+      <c r="G325" s="1"/>
+      <c r="H325" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="4">
+        <v>200</v>
+      </c>
+      <c r="L325" s="4">
+        <v>0</v>
+      </c>
+      <c r="M325" s="4">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1"/>
+      <c r="O325" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="326">
+      <c r="A326" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" s="2">
+        <v>51</v>
+      </c>
+      <c r="E326" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F326" s="1"/>
+      <c r="G326" s="1"/>
+      <c r="H326" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" s="4">
+        <v>300</v>
+      </c>
+      <c r="L326" s="4">
+        <v>0</v>
+      </c>
+      <c r="M326" s="4">
+        <v>0</v>
+      </c>
+      <c r="N326" s="1"/>
+      <c r="O326" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="327">
+      <c r="A327" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" s="2">
+        <v>51</v>
+      </c>
+      <c r="E327" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F327" s="1"/>
+      <c r="G327" s="1"/>
+      <c r="H327" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="4">
+        <v>100</v>
+      </c>
+      <c r="L327" s="4">
+        <v>0</v>
+      </c>
+      <c r="M327" s="4">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1"/>
+      <c r="O327" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="328">
+      <c r="A328" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D328" s="2">
+        <v>51</v>
+      </c>
+      <c r="E328" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F328" s="1"/>
+      <c r="G328" s="1"/>
+      <c r="H328" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" s="4">
+        <v>20</v>
+      </c>
+      <c r="L328" s="4">
+        <v>0</v>
+      </c>
+      <c r="M328" s="4">
+        <v>0</v>
+      </c>
+      <c r="N328" s="1"/>
+      <c r="O328" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="329">
+      <c r="A329" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D329" s="2">
+        <v>51</v>
+      </c>
+      <c r="E329" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F329" s="1"/>
+      <c r="G329" s="1"/>
+      <c r="H329" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K329" s="4">
+        <v>500</v>
+      </c>
+      <c r="L329" s="4">
+        <v>0</v>
+      </c>
+      <c r="M329" s="4">
+        <v>0</v>
+      </c>
+      <c r="N329" s="1"/>
+      <c r="O329" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="330">
+      <c r="A330" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" s="2">
+        <v>51</v>
+      </c>
+      <c r="E330" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F330" s="1"/>
+      <c r="G330" s="1"/>
+      <c r="H330" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K330" s="4">
+        <v>15</v>
+      </c>
+      <c r="L330" s="4">
+        <v>0</v>
+      </c>
+      <c r="M330" s="4">
+        <v>0</v>
+      </c>
+      <c r="N330" s="1"/>
+      <c r="O330" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="331">
+      <c r="A331" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="2">
+        <v>51</v>
+      </c>
+      <c r="E331" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F331" s="1"/>
+      <c r="G331" s="1"/>
+      <c r="H331" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K331" s="4">
+        <v>5</v>
+      </c>
+      <c r="L331" s="4">
+        <v>0</v>
+      </c>
+      <c r="M331" s="4">
+        <v>0</v>
+      </c>
+      <c r="N331" s="1"/>
+      <c r="O331" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="332">
+      <c r="A332" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="2">
+        <v>51</v>
+      </c>
+      <c r="E332" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F332" s="1"/>
+      <c r="G332" s="1"/>
+      <c r="H332" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K332" s="4">
+        <v>5</v>
+      </c>
+      <c r="L332" s="4">
+        <v>0</v>
+      </c>
+      <c r="M332" s="4">
+        <v>0</v>
+      </c>
+      <c r="N332" s="1"/>
+      <c r="O332" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="333">
+      <c r="A333" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="2">
+        <v>51</v>
+      </c>
+      <c r="E333" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K333" s="4">
+        <v>21</v>
+      </c>
+      <c r="L333" s="4">
+        <v>0</v>
+      </c>
+      <c r="M333" s="4">
+        <v>0</v>
+      </c>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="334">
+      <c r="A334" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334" s="2">
+        <v>51</v>
+      </c>
+      <c r="E334" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K334" s="4">
+        <v>18</v>
+      </c>
+      <c r="L334" s="4">
+        <v>0</v>
+      </c>
+      <c r="M334" s="4">
+        <v>0</v>
+      </c>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="335">
+      <c r="A335" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="2">
+        <v>51</v>
+      </c>
+      <c r="E335" s="3">
+        <v>45960.6337726505</v>
+      </c>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K335" s="4">
+        <v>30</v>
+      </c>
+      <c r="L335" s="4">
+        <v>0</v>
+      </c>
+      <c r="M335" s="4">
+        <v>0</v>
+      </c>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1499,36 +1499,54 @@
     <t>LIXEIRA DE PLÁSTICO 20 LTS</t>
   </si>
   <si>
+    <t>E.02.0015</t>
+  </si>
+  <si>
+    <t>FITA ZEBRADA - 7 CM X 200 M</t>
+  </si>
+  <si>
+    <t>00000000008862</t>
+  </si>
+  <si>
+    <t>GUAIRA REAL</t>
+  </si>
+  <si>
+    <t>E.03.0121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÓCULOS DE SEGURANÇA FUMÊ  AGUIA</t>
+  </si>
+  <si>
+    <t>E.03.0162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTA ERGÔNOMICA ABDOMINAL  PROTETOR LOMBAR</t>
+  </si>
+  <si>
+    <t>E.03.0253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA DE CHUVA TREVISA COM FORRO MANGA COMPRIDA  G</t>
+  </si>
+  <si>
+    <t>U.03.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPENSER  PARA SABONETE</t>
+  </si>
+  <si>
+    <t>U.02.7201</t>
+  </si>
+  <si>
+    <t>DISPENSADOR DE PAPEL TOALHA</t>
+  </si>
+  <si>
     <t>C.05.0264</t>
   </si>
   <si>
     <t>LIXEIRA -</t>
   </si>
   <si>
-    <t>E.02.0015</t>
-  </si>
-  <si>
-    <t>FITA ZEBRADA - 7 CM X 200 M</t>
-  </si>
-  <si>
-    <t>E.03.0121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÓCULOS DE SEGURANÇA FUMÊ  AGUIA</t>
-  </si>
-  <si>
-    <t>E.03.0162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTA ERGÔNOMICA ABDOMINAL  PROTETOR LOMBAR</t>
-  </si>
-  <si>
-    <t>E.03.0253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA DE CHUVA TREVISA COM FORRO MANGA COMPRIDA  G</t>
-  </si>
-  <si>
     <t>E.04.0003</t>
   </si>
   <si>
@@ -1565,36 +1583,24 @@
     <t xml:space="preserve">ARAME RECOZIDO FIO  Nº 12</t>
   </si>
   <si>
-    <t>U.03.0500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPENSER  PARA SABONETE</t>
-  </si>
-  <si>
-    <t>U.02.7201</t>
-  </si>
-  <si>
-    <t>DISPENSADOR DE PAPEL TOALHA</t>
-  </si>
-  <si>
     <t>W.01.0003</t>
   </si>
   <si>
     <t>PREGO COMUM C/ CABEÇA 15 X 15</t>
   </si>
   <si>
+    <t>C.05.0212</t>
+  </si>
+  <si>
+    <t>MESA SECRETÁRIA COM GAVETEIRO - 0,74 M X 1,20 M X 0,60 M</t>
+  </si>
+  <si>
     <t>C.04.0011</t>
   </si>
   <si>
     <t>PANO DE CHÃO PEQUENO</t>
   </si>
   <si>
-    <t>C.05.0212</t>
-  </si>
-  <si>
-    <t>MESA SECRETÁRIA COM GAVETEIRO - 0,74 M X 1,20 M X 0,60 M</t>
-  </si>
-  <si>
     <t>E.02.0004</t>
   </si>
   <si>
@@ -1755,6 +1761,57 @@
   </si>
   <si>
     <t>BARRA CHATA DE AÇO INOX</t>
+  </si>
+  <si>
+    <t>FELIPE HESS BORGES (SANTA BRANCA)</t>
+  </si>
+  <si>
+    <t>E.04.0072</t>
+  </si>
+  <si>
+    <t>MARTELO DE UNHA PROFISSIONAL - 29 MM</t>
+  </si>
+  <si>
+    <t>E.04.0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUMO METÁLICO PARA PEDREIRO  DE CENTRO- Nº5 - 900 G</t>
+  </si>
+  <si>
+    <t>H.11.0031</t>
+  </si>
+  <si>
+    <t>AÇO CA50 5,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>H.11.0014</t>
+  </si>
+  <si>
+    <t>AÇO CA25 10,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>H.11.0035</t>
+  </si>
+  <si>
+    <t>AÇO CA50 12,5 MM - VARA</t>
+  </si>
+  <si>
+    <t>H.11.0036</t>
+  </si>
+  <si>
+    <t>AÇO CA50 16,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>M.09.0022</t>
+  </si>
+  <si>
+    <t>ARAME RECOZIDO NØ 18</t>
+  </si>
+  <si>
+    <t>W.01.0044</t>
+  </si>
+  <si>
+    <t>PREGO DE AÇO COM CABEÇA 17 X 21</t>
   </si>
 </sst>
 </file>
@@ -2053,7 +2110,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O335"/>
+  <dimension ref="A1:O346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -13654,8 +13711,12 @@
       <c r="E250" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
+      <c r="F250" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G250" s="3">
+        <v>45960</v>
+      </c>
       <c r="H250" s="1" t="s">
         <v>44</v>
       </c>
@@ -13669,13 +13730,17 @@
         <v>6</v>
       </c>
       <c r="L250" s="4">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="M250" s="4">
-        <v>0</v>
-      </c>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
+        <v>101.4</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="251">
       <c r="A251" s="2">
@@ -13693,8 +13758,12 @@
       <c r="E251" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
+      <c r="F251" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G251" s="3">
+        <v>45960</v>
+      </c>
       <c r="H251" s="1" t="s">
         <v>408</v>
       </c>
@@ -13708,13 +13777,17 @@
         <v>6</v>
       </c>
       <c r="L251" s="4">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="M251" s="4">
-        <v>0</v>
-      </c>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
+        <v>119.4</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="252">
       <c r="A252" s="2">
@@ -13732,8 +13805,12 @@
       <c r="E252" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
+      <c r="F252" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G252" s="3">
+        <v>45960</v>
+      </c>
       <c r="H252" s="1" t="s">
         <v>177</v>
       </c>
@@ -13747,13 +13824,17 @@
         <v>6</v>
       </c>
       <c r="L252" s="4">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="M252" s="4">
-        <v>0</v>
-      </c>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
+        <v>137.4</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="253">
       <c r="A253" s="2">
@@ -13771,8 +13852,12 @@
       <c r="E253" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+      <c r="F253" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G253" s="3">
+        <v>45960</v>
+      </c>
       <c r="H253" s="1" t="s">
         <v>193</v>
       </c>
@@ -13786,13 +13871,17 @@
         <v>3</v>
       </c>
       <c r="L253" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M253" s="4">
-        <v>0</v>
-      </c>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="254">
       <c r="A254" s="2">
@@ -13810,8 +13899,12 @@
       <c r="E254" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
+      <c r="F254" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G254" s="3">
+        <v>45960</v>
+      </c>
       <c r="H254" s="1" t="s">
         <v>489</v>
       </c>
@@ -13825,13 +13918,17 @@
         <v>3</v>
       </c>
       <c r="L254" s="4">
-        <v>0</v>
+        <v>27.9</v>
       </c>
       <c r="M254" s="4">
-        <v>0</v>
-      </c>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
+        <v>83.7</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="255">
       <c r="A255" s="2">
@@ -13849,8 +13946,12 @@
       <c r="E255" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
+      <c r="F255" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G255" s="3">
+        <v>45960</v>
+      </c>
       <c r="H255" s="1" t="s">
         <v>88</v>
       </c>
@@ -13864,13 +13965,17 @@
         <v>4</v>
       </c>
       <c r="L255" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M255" s="4">
-        <v>0</v>
-      </c>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="256">
       <c r="A256" s="2">
@@ -13888,8 +13993,12 @@
       <c r="E256" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
+      <c r="F256" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G256" s="3">
+        <v>45960</v>
+      </c>
       <c r="H256" s="1" t="s">
         <v>491</v>
       </c>
@@ -13903,13 +14012,17 @@
         <v>2</v>
       </c>
       <c r="L256" s="4">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="M256" s="4">
-        <v>0</v>
-      </c>
-      <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="257">
       <c r="A257" s="2">
@@ -13927,8 +14040,12 @@
       <c r="E257" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
+      <c r="F257" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G257" s="3">
+        <v>45960</v>
+      </c>
       <c r="H257" s="1" t="s">
         <v>493</v>
       </c>
@@ -13942,13 +14059,17 @@
         <v>1</v>
       </c>
       <c r="L257" s="4">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="M257" s="4">
-        <v>0</v>
-      </c>
-      <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
+        <v>59.9</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="258">
       <c r="A258" s="2">
@@ -13966,8 +14087,12 @@
       <c r="E258" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
+      <c r="F258" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G258" s="3">
+        <v>45960</v>
+      </c>
       <c r="H258" s="1" t="s">
         <v>495</v>
       </c>
@@ -13981,13 +14106,17 @@
         <v>2</v>
       </c>
       <c r="L258" s="4">
-        <v>0</v>
+        <v>14.43</v>
       </c>
       <c r="M258" s="4">
-        <v>0</v>
-      </c>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
+        <v>28.86</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="259">
       <c r="A259" s="2">
@@ -14005,28 +14134,36 @@
       <c r="E259" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
+      <c r="F259" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G259" s="3">
+        <v>45960</v>
+      </c>
       <c r="H259" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K259" s="4">
+        <v>30</v>
+      </c>
+      <c r="L259" s="4">
+        <v>4.69</v>
+      </c>
+      <c r="M259" s="4">
+        <v>140.7</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="O259" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J259" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K259" s="4">
-        <v>2</v>
-      </c>
-      <c r="L259" s="4">
-        <v>0</v>
-      </c>
-      <c r="M259" s="4">
-        <v>0</v>
-      </c>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
     </row>
     <row ht="12.75" customHeight="1" r="260">
       <c r="A260" s="2">
@@ -14044,28 +14181,36 @@
       <c r="E260" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
+      <c r="F260" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G260" s="3">
+        <v>45960</v>
+      </c>
       <c r="H260" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K260" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L260" s="4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M260" s="4">
-        <v>0</v>
-      </c>
-      <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
+        <v>50.5</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="261">
       <c r="A261" s="2">
@@ -14083,28 +14228,36 @@
       <c r="E261" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
+      <c r="F261" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G261" s="3">
+        <v>45960</v>
+      </c>
       <c r="H261" s="1" t="s">
-        <v>144</v>
+        <v>501</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>145</v>
+        <v>502</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K261" s="4">
         <v>1</v>
       </c>
       <c r="L261" s="4">
-        <v>0</v>
+        <v>30.24</v>
       </c>
       <c r="M261" s="4">
-        <v>0</v>
-      </c>
-      <c r="N261" s="1"/>
-      <c r="O261" s="1"/>
+        <v>30.24</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="262">
       <c r="A262" s="2">
@@ -14122,28 +14275,36 @@
       <c r="E262" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
+      <c r="F262" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G262" s="3">
+        <v>45960</v>
+      </c>
       <c r="H262" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K262" s="4">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L262" s="4">
-        <v>0</v>
+        <v>30.24</v>
       </c>
       <c r="M262" s="4">
-        <v>0</v>
-      </c>
-      <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
+        <v>120.96</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="263">
       <c r="A263" s="2">
@@ -14161,28 +14322,36 @@
       <c r="E263" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
+      <c r="F263" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45960</v>
+      </c>
       <c r="H263" s="1" t="s">
-        <v>195</v>
+        <v>503</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>196</v>
+        <v>504</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K263" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L263" s="4">
-        <v>0</v>
+        <v>18.07</v>
       </c>
       <c r="M263" s="4">
-        <v>0</v>
-      </c>
-      <c r="N263" s="1"/>
-      <c r="O263" s="1"/>
+        <v>90.35</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="264">
       <c r="A264" s="2">
@@ -14200,28 +14369,36 @@
       <c r="E264" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
+      <c r="F264" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G264" s="3">
+        <v>45960</v>
+      </c>
       <c r="H264" s="1" t="s">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>95</v>
+        <v>372</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K264" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L264" s="4">
-        <v>0</v>
+        <v>19.42</v>
       </c>
       <c r="M264" s="4">
-        <v>0</v>
-      </c>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
+        <v>97.1</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="265">
       <c r="A265" s="2">
@@ -14239,28 +14416,36 @@
       <c r="E265" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
+      <c r="F265" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G265" s="3">
+        <v>45960</v>
+      </c>
       <c r="H265" s="1" t="s">
-        <v>501</v>
+        <v>197</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K265" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L265" s="4">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M265" s="4">
-        <v>0</v>
-      </c>
-      <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
+        <v>34.8</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="266">
       <c r="A266" s="2">
@@ -14278,28 +14463,36 @@
       <c r="E266" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F266" s="1"/>
-      <c r="G266" s="1"/>
+      <c r="F266" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G266" s="3">
+        <v>45960</v>
+      </c>
       <c r="H266" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K266" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L266" s="4">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="M266" s="4">
-        <v>0</v>
-      </c>
-      <c r="N266" s="1"/>
-      <c r="O266" s="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="267">
       <c r="A267" s="2">
@@ -14317,28 +14510,36 @@
       <c r="E267" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
+      <c r="F267" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G267" s="3">
+        <v>45960</v>
+      </c>
       <c r="H267" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K267" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L267" s="4">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="M267" s="4">
-        <v>0</v>
-      </c>
-      <c r="N267" s="1"/>
-      <c r="O267" s="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="268">
       <c r="A268" s="2">
@@ -14359,16 +14560,16 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1" t="s">
-        <v>371</v>
+        <v>509</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>372</v>
+        <v>510</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K268" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L268" s="4">
         <v>0</v>
@@ -14398,16 +14599,16 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K269" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L269" s="4">
         <v>0</v>
@@ -14437,16 +14638,16 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="K270" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L270" s="4">
         <v>0</v>
@@ -14476,16 +14677,16 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1" t="s">
-        <v>505</v>
+        <v>195</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K271" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L271" s="4">
         <v>0</v>
@@ -14515,16 +14716,16 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="K272" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L272" s="4">
         <v>0</v>
@@ -14554,16 +14755,16 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K273" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L273" s="4">
         <v>0</v>
@@ -14593,16 +14794,16 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1" t="s">
-        <v>509</v>
+        <v>62</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K274" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L274" s="4">
         <v>0</v>
@@ -14632,16 +14833,16 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K275" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L275" s="4">
         <v>0</v>
@@ -14671,16 +14872,16 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K276" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L276" s="4">
         <v>0</v>
@@ -14710,16 +14911,16 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1" t="s">
-        <v>352</v>
+        <v>517</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>353</v>
+        <v>518</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K277" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L277" s="4">
         <v>0</v>
@@ -14749,13 +14950,13 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="K278" s="4">
         <v>2</v>
@@ -14788,16 +14989,16 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1" t="s">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>518</v>
+        <v>353</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K279" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L279" s="4">
         <v>0</v>
@@ -14827,16 +15028,16 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="K280" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L280" s="4">
         <v>0</v>
@@ -14866,10 +15067,10 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>117</v>
@@ -14941,13 +15142,17 @@
       <c r="E283" s="3">
         <v>45960.4038195023</v>
       </c>
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
+      <c r="F283" s="2">
+        <v>80307</v>
+      </c>
+      <c r="G283" s="3">
+        <v>45960</v>
+      </c>
       <c r="H283" s="1" t="s">
-        <v>71</v>
+        <v>525</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>27</v>
@@ -14956,13 +15161,17 @@
         <v>1</v>
       </c>
       <c r="L283" s="4">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="M283" s="4">
-        <v>0</v>
-      </c>
-      <c r="N283" s="1"/>
-      <c r="O283" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="284">
       <c r="A284" s="2">
@@ -14983,16 +15192,16 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1" t="s">
-        <v>523</v>
+        <v>71</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>524</v>
+        <v>72</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K284" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L284" s="4">
         <v>0</v>
@@ -15022,10 +15231,10 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1" t="s">
-        <v>410</v>
+        <v>527</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>27</v>
@@ -15061,16 +15270,16 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K286" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L286" s="4">
         <v>0</v>
@@ -15139,10 +15348,10 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>37</v>
@@ -15178,10 +15387,10 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>27</v>
@@ -15217,10 +15426,10 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>27</v>
@@ -15256,10 +15465,10 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>27</v>
@@ -15295,10 +15504,10 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>27</v>
@@ -15334,10 +15543,10 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>27</v>
@@ -15373,10 +15582,10 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>27</v>
@@ -15412,10 +15621,10 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>27</v>
@@ -15451,10 +15660,10 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>27</v>
@@ -15490,10 +15699,10 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>27</v>
@@ -15529,10 +15738,10 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>27</v>
@@ -15568,10 +15777,10 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>61</v>
@@ -15724,10 +15933,10 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>27</v>
@@ -15763,10 +15972,10 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>27</v>
@@ -15802,10 +16011,10 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>117</v>
@@ -15880,10 +16089,10 @@
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>37</v>
@@ -15997,10 +16206,10 @@
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>117</v>
@@ -16192,10 +16401,10 @@
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>27</v>
@@ -16465,10 +16674,10 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>27</v>
@@ -16504,10 +16713,10 @@
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>204</v>
@@ -16543,10 +16752,10 @@
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>204</v>
@@ -16582,10 +16791,10 @@
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>19</v>
@@ -16699,10 +16908,10 @@
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>19</v>
@@ -16738,10 +16947,10 @@
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>27</v>
@@ -16777,10 +16986,10 @@
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>117</v>
@@ -16816,10 +17025,10 @@
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>27</v>
@@ -16933,10 +17142,10 @@
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J334" s="1" t="s">
         <v>37</v>
@@ -16972,10 +17181,10 @@
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="J335" s="1" t="s">
         <v>27</v>
@@ -16991,6 +17200,435 @@
       </c>
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="336">
+      <c r="A336" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" s="2">
+        <v>1</v>
+      </c>
+      <c r="E336" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K336" s="4">
+        <v>2</v>
+      </c>
+      <c r="L336" s="4">
+        <v>0</v>
+      </c>
+      <c r="M336" s="4">
+        <v>0</v>
+      </c>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="337">
+      <c r="A337" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="2">
+        <v>1</v>
+      </c>
+      <c r="E337" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K337" s="4">
+        <v>1</v>
+      </c>
+      <c r="L337" s="4">
+        <v>0</v>
+      </c>
+      <c r="M337" s="4">
+        <v>0</v>
+      </c>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="338">
+      <c r="A338" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="2">
+        <v>1</v>
+      </c>
+      <c r="E338" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F338" s="1"/>
+      <c r="G338" s="1"/>
+      <c r="H338" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K338" s="4">
+        <v>58</v>
+      </c>
+      <c r="L338" s="4">
+        <v>0</v>
+      </c>
+      <c r="M338" s="4">
+        <v>0</v>
+      </c>
+      <c r="N338" s="1"/>
+      <c r="O338" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="339">
+      <c r="A339" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D339" s="2">
+        <v>1</v>
+      </c>
+      <c r="E339" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K339" s="4">
+        <v>145</v>
+      </c>
+      <c r="L339" s="4">
+        <v>0</v>
+      </c>
+      <c r="M339" s="4">
+        <v>0</v>
+      </c>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="340">
+      <c r="A340" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D340" s="2">
+        <v>1</v>
+      </c>
+      <c r="E340" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K340" s="4">
+        <v>95</v>
+      </c>
+      <c r="L340" s="4">
+        <v>0</v>
+      </c>
+      <c r="M340" s="4">
+        <v>0</v>
+      </c>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="341">
+      <c r="A341" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="2">
+        <v>1</v>
+      </c>
+      <c r="E341" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K341" s="4">
+        <v>35</v>
+      </c>
+      <c r="L341" s="4">
+        <v>0</v>
+      </c>
+      <c r="M341" s="4">
+        <v>0</v>
+      </c>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="342">
+      <c r="A342" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D342" s="2">
+        <v>1</v>
+      </c>
+      <c r="E342" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F342" s="1"/>
+      <c r="G342" s="1"/>
+      <c r="H342" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K342" s="4">
+        <v>14</v>
+      </c>
+      <c r="L342" s="4">
+        <v>0</v>
+      </c>
+      <c r="M342" s="4">
+        <v>0</v>
+      </c>
+      <c r="N342" s="1"/>
+      <c r="O342" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="343">
+      <c r="A343" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D343" s="2">
+        <v>1</v>
+      </c>
+      <c r="E343" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F343" s="1"/>
+      <c r="G343" s="1"/>
+      <c r="H343" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K343" s="4">
+        <v>40</v>
+      </c>
+      <c r="L343" s="4">
+        <v>0</v>
+      </c>
+      <c r="M343" s="4">
+        <v>0</v>
+      </c>
+      <c r="N343" s="1"/>
+      <c r="O343" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="344">
+      <c r="A344" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D344" s="2">
+        <v>1</v>
+      </c>
+      <c r="E344" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F344" s="1"/>
+      <c r="G344" s="1"/>
+      <c r="H344" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K344" s="4">
+        <v>40</v>
+      </c>
+      <c r="L344" s="4">
+        <v>0</v>
+      </c>
+      <c r="M344" s="4">
+        <v>0</v>
+      </c>
+      <c r="N344" s="1"/>
+      <c r="O344" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="345">
+      <c r="A345" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D345" s="2">
+        <v>1</v>
+      </c>
+      <c r="E345" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F345" s="1"/>
+      <c r="G345" s="1"/>
+      <c r="H345" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K345" s="4">
+        <v>5</v>
+      </c>
+      <c r="L345" s="4">
+        <v>0</v>
+      </c>
+      <c r="M345" s="4">
+        <v>0</v>
+      </c>
+      <c r="N345" s="1"/>
+      <c r="O345" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="346">
+      <c r="A346" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D346" s="2">
+        <v>1</v>
+      </c>
+      <c r="E346" s="3">
+        <v>45961.4140993634</v>
+      </c>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K346" s="4">
+        <v>40</v>
+      </c>
+      <c r="L346" s="4">
+        <v>0</v>
+      </c>
+      <c r="M346" s="4">
+        <v>0</v>
+      </c>
+      <c r="N346" s="1"/>
+      <c r="O346" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -1499,6 +1499,12 @@
     <t>LIXEIRA DE PLÁSTICO 20 LTS</t>
   </si>
   <si>
+    <t>C.05.0264</t>
+  </si>
+  <si>
+    <t>LIXEIRA -</t>
+  </si>
+  <si>
     <t>E.02.0015</t>
   </si>
   <si>
@@ -1529,6 +1535,42 @@
     <t xml:space="preserve">CAPA DE CHUVA TREVISA COM FORRO MANGA COMPRIDA  G</t>
   </si>
   <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PVC PARA OBRA</t>
+  </si>
+  <si>
+    <t>E.04.0705</t>
+  </si>
+  <si>
+    <t>CÂMARA DE AR P/CARRINHO DE MÃO</t>
+  </si>
+  <si>
+    <t>E.04.0715</t>
+  </si>
+  <si>
+    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
+  </si>
+  <si>
+    <t>E.04.0606</t>
+  </si>
+  <si>
+    <t>BOMBA PARA ENCHER PNEU DE CARRINHO DE MAO</t>
+  </si>
+  <si>
+    <t>E.06.0007</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE WD40</t>
+  </si>
+  <si>
+    <t>M.09.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAME RECOZIDO FIO  Nº 12</t>
+  </si>
+  <si>
     <t>U.03.0500</t>
   </si>
   <si>
@@ -1541,64 +1583,22 @@
     <t>DISPENSADOR DE PAPEL TOALHA</t>
   </si>
   <si>
-    <t>C.05.0264</t>
-  </si>
-  <si>
-    <t>LIXEIRA -</t>
-  </si>
-  <si>
-    <t>E.04.0003</t>
-  </si>
-  <si>
-    <t>BALDE PVC PARA OBRA</t>
-  </si>
-  <si>
-    <t>E.04.0705</t>
-  </si>
-  <si>
-    <t>CÂMARA DE AR P/CARRINHO DE MÃO</t>
-  </si>
-  <si>
-    <t>E.04.0715</t>
-  </si>
-  <si>
-    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
-  </si>
-  <si>
-    <t>E.04.0606</t>
-  </si>
-  <si>
-    <t>BOMBA PARA ENCHER PNEU DE CARRINHO DE MAO</t>
-  </si>
-  <si>
-    <t>E.06.0007</t>
-  </si>
-  <si>
-    <t>OLEO LUBRIFICANTE WD40</t>
-  </si>
-  <si>
-    <t>M.09.0024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAME RECOZIDO FIO  Nº 12</t>
-  </si>
-  <si>
     <t>W.01.0003</t>
   </si>
   <si>
     <t>PREGO COMUM C/ CABEÇA 15 X 15</t>
   </si>
   <si>
+    <t>C.04.0011</t>
+  </si>
+  <si>
+    <t>PANO DE CHÃO PEQUENO</t>
+  </si>
+  <si>
     <t>C.05.0212</t>
   </si>
   <si>
     <t>MESA SECRETÁRIA COM GAVETEIRO - 0,74 M X 1,20 M X 0,60 M</t>
-  </si>
-  <si>
-    <t>C.04.0011</t>
-  </si>
-  <si>
-    <t>PANO DE CHÃO PEQUENO</t>
   </si>
   <si>
     <t>E.02.0004</t>
@@ -14088,10 +14088,10 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F258" s="2">
-        <v>80306</v>
+        <v>80334</v>
       </c>
       <c r="G258" s="3">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>495</v>
@@ -14106,16 +14106,16 @@
         <v>2</v>
       </c>
       <c r="L258" s="4">
-        <v>14.43</v>
+        <v>591.95</v>
       </c>
       <c r="M258" s="4">
-        <v>28.86</v>
+        <v>1183.9</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>498</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="259">
@@ -14141,28 +14141,28 @@
         <v>45960</v>
       </c>
       <c r="H259" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K259" s="4">
+        <v>2</v>
+      </c>
+      <c r="L259" s="4">
+        <v>14.43</v>
+      </c>
+      <c r="M259" s="4">
+        <v>28.86</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I259" s="1" t="s">
+      <c r="O259" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K259" s="4">
-        <v>30</v>
-      </c>
-      <c r="L259" s="4">
-        <v>4.69</v>
-      </c>
-      <c r="M259" s="4">
-        <v>140.7</v>
-      </c>
-      <c r="N259" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="O259" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="260">
@@ -14182,34 +14182,34 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F260" s="2">
-        <v>80306</v>
+        <v>80334</v>
       </c>
       <c r="G260" s="3">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K260" s="4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="L260" s="4">
-        <v>1.01</v>
+        <v>190</v>
       </c>
       <c r="M260" s="4">
-        <v>50.5</v>
+        <v>190</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>498</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="261">
@@ -14229,34 +14229,34 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F261" s="2">
-        <v>80306</v>
+        <v>80334</v>
       </c>
       <c r="G261" s="3">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>501</v>
+        <v>144</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>502</v>
+        <v>145</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K261" s="4">
         <v>1</v>
       </c>
       <c r="L261" s="4">
-        <v>30.24</v>
+        <v>190</v>
       </c>
       <c r="M261" s="4">
-        <v>30.24</v>
+        <v>190</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>498</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="262">
@@ -14288,22 +14288,22 @@
         <v>502</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K262" s="4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L262" s="4">
-        <v>30.24</v>
+        <v>4.69</v>
       </c>
       <c r="M262" s="4">
-        <v>120.96</v>
+        <v>140.7</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="263">
@@ -14323,34 +14323,34 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F263" s="2">
-        <v>80306</v>
+        <v>80334</v>
       </c>
       <c r="G263" s="3">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>503</v>
+        <v>195</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>504</v>
+        <v>196</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="K263" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L263" s="4">
-        <v>18.07</v>
+        <v>75</v>
       </c>
       <c r="M263" s="4">
-        <v>90.35</v>
+        <v>75</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>498</v>
+        <v>29</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="264">
@@ -14376,28 +14376,28 @@
         <v>45960</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>371</v>
+        <v>94</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>372</v>
+        <v>95</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K264" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L264" s="4">
-        <v>19.42</v>
+        <v>1.01</v>
       </c>
       <c r="M264" s="4">
-        <v>97.1</v>
+        <v>50.5</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="265">
@@ -14423,28 +14423,28 @@
         <v>45960</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>197</v>
+        <v>503</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>198</v>
+        <v>504</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K265" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L265" s="4">
-        <v>3.48</v>
+        <v>30.24</v>
       </c>
       <c r="M265" s="4">
-        <v>34.8</v>
+        <v>30.24</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="266">
@@ -14464,34 +14464,34 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F266" s="2">
-        <v>80304</v>
+        <v>80306</v>
       </c>
       <c r="G266" s="3">
         <v>45960</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K266" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L266" s="4">
-        <v>47.5</v>
+        <v>30.24</v>
       </c>
       <c r="M266" s="4">
-        <v>47.5</v>
+        <v>120.96</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="267">
@@ -14511,34 +14511,34 @@
         <v>45960.3977244792</v>
       </c>
       <c r="F267" s="2">
-        <v>80304</v>
+        <v>80306</v>
       </c>
       <c r="G267" s="3">
         <v>45960</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K267" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L267" s="4">
-        <v>47.5</v>
+        <v>18.07</v>
       </c>
       <c r="M267" s="4">
-        <v>47.5</v>
+        <v>90.35</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
       <c r="O267" s="1" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="268">
@@ -14557,28 +14557,36 @@
       <c r="E268" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
+      <c r="F268" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G268" s="3">
+        <v>45960</v>
+      </c>
       <c r="H268" s="1" t="s">
-        <v>509</v>
+        <v>371</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>510</v>
+        <v>372</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K268" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L268" s="4">
-        <v>0</v>
+        <v>19.42</v>
       </c>
       <c r="M268" s="4">
-        <v>0</v>
-      </c>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
+        <v>97.1</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="269">
       <c r="A269" s="2">
@@ -14596,28 +14604,36 @@
       <c r="E269" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
+      <c r="F269" s="2">
+        <v>80306</v>
+      </c>
+      <c r="G269" s="3">
+        <v>45960</v>
+      </c>
       <c r="H269" s="1" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K269" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L269" s="4">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="M269" s="4">
-        <v>0</v>
-      </c>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
+        <v>34.8</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="270">
       <c r="A270" s="2">
@@ -14635,28 +14651,36 @@
       <c r="E270" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
+      <c r="F270" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G270" s="3">
+        <v>45961</v>
+      </c>
       <c r="H270" s="1" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="K270" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L270" s="4">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M270" s="4">
-        <v>0</v>
-      </c>
-      <c r="N270" s="1"/>
-      <c r="O270" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="271">
       <c r="A271" s="2">
@@ -14674,28 +14698,36 @@
       <c r="E271" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
+      <c r="F271" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G271" s="3">
+        <v>45961</v>
+      </c>
       <c r="H271" s="1" t="s">
-        <v>195</v>
+        <v>507</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>196</v>
+        <v>508</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="K271" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L271" s="4">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="M271" s="4">
-        <v>0</v>
-      </c>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="272">
       <c r="A272" s="2">
@@ -14713,28 +14745,36 @@
       <c r="E272" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
+      <c r="F272" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G272" s="3">
+        <v>45961</v>
+      </c>
       <c r="H272" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K272" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L272" s="4">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="M272" s="4">
-        <v>0</v>
-      </c>
-      <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="273">
       <c r="A273" s="2">
@@ -14752,28 +14792,36 @@
       <c r="E273" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F273" s="1"/>
-      <c r="G273" s="1"/>
+      <c r="F273" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G273" s="3">
+        <v>45961</v>
+      </c>
       <c r="H273" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K273" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L273" s="4">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="M273" s="4">
-        <v>0</v>
-      </c>
-      <c r="N273" s="1"/>
-      <c r="O273" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="274">
       <c r="A274" s="2">
@@ -14791,28 +14839,36 @@
       <c r="E274" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
+      <c r="F274" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G274" s="3">
+        <v>45961</v>
+      </c>
       <c r="H274" s="1" t="s">
-        <v>62</v>
+        <v>511</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>63</v>
+        <v>512</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K274" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L274" s="4">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="M274" s="4">
-        <v>0</v>
-      </c>
-      <c r="N274" s="1"/>
-      <c r="O274" s="1"/>
+        <v>193.5</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="275">
       <c r="A275" s="2">
@@ -14830,8 +14886,12 @@
       <c r="E275" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
+      <c r="F275" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G275" s="3">
+        <v>45961</v>
+      </c>
       <c r="H275" s="1" t="s">
         <v>513</v>
       </c>
@@ -14842,16 +14902,20 @@
         <v>27</v>
       </c>
       <c r="K275" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L275" s="4">
-        <v>0</v>
+        <v>33.67</v>
       </c>
       <c r="M275" s="4">
-        <v>0</v>
-      </c>
-      <c r="N275" s="1"/>
-      <c r="O275" s="1"/>
+        <v>33.67</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="276">
       <c r="A276" s="2">
@@ -14869,8 +14933,12 @@
       <c r="E276" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
+      <c r="F276" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G276" s="3">
+        <v>45961</v>
+      </c>
       <c r="H276" s="1" t="s">
         <v>515</v>
       </c>
@@ -14881,16 +14949,20 @@
         <v>27</v>
       </c>
       <c r="K276" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L276" s="4">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="M276" s="4">
-        <v>0</v>
-      </c>
-      <c r="N276" s="1"/>
-      <c r="O276" s="1"/>
+        <v>119.8</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="277">
       <c r="A277" s="2">
@@ -14908,28 +14980,36 @@
       <c r="E277" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F277" s="1"/>
-      <c r="G277" s="1"/>
+      <c r="F277" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G277" s="3">
+        <v>45961</v>
+      </c>
       <c r="H277" s="1" t="s">
-        <v>517</v>
+        <v>352</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>518</v>
+        <v>353</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K277" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L277" s="4">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M277" s="4">
-        <v>0</v>
-      </c>
-      <c r="N277" s="1"/>
-      <c r="O277" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="278">
       <c r="A278" s="2">
@@ -14947,28 +15027,36 @@
       <c r="E278" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
+      <c r="F278" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G278" s="3">
+        <v>45961</v>
+      </c>
       <c r="H278" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="K278" s="4">
         <v>2</v>
       </c>
       <c r="L278" s="4">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="M278" s="4">
-        <v>0</v>
-      </c>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="279">
       <c r="A279" s="2">
@@ -14986,28 +15074,36 @@
       <c r="E279" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
+      <c r="F279" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G279" s="3">
+        <v>45960</v>
+      </c>
       <c r="H279" s="1" t="s">
-        <v>352</v>
+        <v>519</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>353</v>
+        <v>520</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K279" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L279" s="4">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="M279" s="4">
-        <v>0</v>
-      </c>
-      <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="280">
       <c r="A280" s="2">
@@ -15025,8 +15121,12 @@
       <c r="E280" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F280" s="1"/>
-      <c r="G280" s="1"/>
+      <c r="F280" s="2">
+        <v>80304</v>
+      </c>
+      <c r="G280" s="3">
+        <v>45960</v>
+      </c>
       <c r="H280" s="1" t="s">
         <v>521</v>
       </c>
@@ -15034,19 +15134,23 @@
         <v>522</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="K280" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L280" s="4">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="M280" s="4">
-        <v>0</v>
-      </c>
-      <c r="N280" s="1"/>
-      <c r="O280" s="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="281">
       <c r="A281" s="2">
@@ -15064,8 +15168,12 @@
       <c r="E281" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
+      <c r="F281" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G281" s="3">
+        <v>45961</v>
+      </c>
       <c r="H281" s="1" t="s">
         <v>523</v>
       </c>
@@ -15079,13 +15187,17 @@
         <v>3</v>
       </c>
       <c r="L281" s="4">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="M281" s="4">
-        <v>0</v>
-      </c>
-      <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
+        <v>56.1</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="282">
       <c r="A282" s="2">
@@ -15103,8 +15215,12 @@
       <c r="E282" s="3">
         <v>45960.3977244792</v>
       </c>
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
+      <c r="F282" s="2">
+        <v>80334</v>
+      </c>
+      <c r="G282" s="3">
+        <v>45961</v>
+      </c>
       <c r="H282" s="1" t="s">
         <v>163</v>
       </c>
@@ -15118,13 +15234,17 @@
         <v>3</v>
       </c>
       <c r="L282" s="4">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="M282" s="4">
-        <v>0</v>
-      </c>
-      <c r="N282" s="1"/>
-      <c r="O282" s="1"/>
+        <v>50.7</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="283">
       <c r="A283" s="2">
@@ -15143,16 +15263,16 @@
         <v>45960.4038195023</v>
       </c>
       <c r="F283" s="2">
-        <v>80307</v>
+        <v>80337</v>
       </c>
       <c r="G283" s="3">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>525</v>
+        <v>71</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>526</v>
+        <v>72</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>27</v>
@@ -15161,16 +15281,16 @@
         <v>1</v>
       </c>
       <c r="L283" s="4">
-        <v>490</v>
+        <v>13.5</v>
       </c>
       <c r="M283" s="4">
-        <v>490</v>
+        <v>13.5</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>497</v>
+        <v>266</v>
       </c>
       <c r="O283" s="1" t="s">
-        <v>498</v>
+        <v>267</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="284">
@@ -15189,28 +15309,36 @@
       <c r="E284" s="3">
         <v>45960.4038195023</v>
       </c>
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
+      <c r="F284" s="2">
+        <v>80337</v>
+      </c>
+      <c r="G284" s="3">
+        <v>45961</v>
+      </c>
       <c r="H284" s="1" t="s">
-        <v>71</v>
+        <v>525</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K284" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L284" s="4">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M284" s="4">
-        <v>0</v>
-      </c>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="285">
       <c r="A285" s="2">
@@ -15228,13 +15356,17 @@
       <c r="E285" s="3">
         <v>45960.4038195023</v>
       </c>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
+      <c r="F285" s="2">
+        <v>80337</v>
+      </c>
+      <c r="G285" s="3">
+        <v>45961</v>
+      </c>
       <c r="H285" s="1" t="s">
-        <v>527</v>
+        <v>410</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>528</v>
+        <v>411</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>27</v>
@@ -15243,13 +15375,17 @@
         <v>10</v>
       </c>
       <c r="L285" s="4">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="M285" s="4">
-        <v>0</v>
-      </c>
-      <c r="N285" s="1"/>
-      <c r="O285" s="1"/>
+        <v>17.9</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="286">
       <c r="A286" s="2">
@@ -15267,28 +15403,36 @@
       <c r="E286" s="3">
         <v>45960.4038195023</v>
       </c>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
+      <c r="F286" s="2">
+        <v>80307</v>
+      </c>
+      <c r="G286" s="3">
+        <v>45960</v>
+      </c>
       <c r="H286" s="1" t="s">
-        <v>410</v>
+        <v>527</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K286" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L286" s="4">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="M286" s="4">
-        <v>0</v>
-      </c>
-      <c r="N286" s="1"/>
-      <c r="O286" s="1"/>
+        <v>490</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="287">
       <c r="A287" s="2">
@@ -15306,28 +15450,36 @@
       <c r="E287" s="3">
         <v>45960.4038195023</v>
       </c>
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
+      <c r="F287" s="2">
+        <v>80336</v>
+      </c>
+      <c r="G287" s="3">
+        <v>45961</v>
+      </c>
       <c r="H287" s="1" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K287" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L287" s="4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M287" s="4">
-        <v>0</v>
-      </c>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="288">
       <c r="A288" s="2">
@@ -15348,16 +15500,16 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1" t="s">
-        <v>529</v>
+        <v>90</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>530</v>
+        <v>91</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K288" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L288" s="4">
         <v>0</v>
@@ -15387,16 +15539,16 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K289" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L289" s="4">
         <v>0</v>
@@ -15426,16 +15578,16 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K290" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L290" s="4">
         <v>0</v>
@@ -15465,16 +15617,16 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K291" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L291" s="4">
         <v>0</v>
@@ -15504,16 +15656,16 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K292" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L292" s="4">
         <v>0</v>
@@ -15543,10 +15695,10 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>27</v>
@@ -15582,16 +15734,16 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K294" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L294" s="4">
         <v>0</v>
@@ -15621,10 +15773,10 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>27</v>
@@ -15660,10 +15812,10 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>27</v>
@@ -15699,10 +15851,10 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>27</v>
@@ -15738,10 +15890,10 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>27</v>
@@ -15777,13 +15929,13 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="K299" s="4">
         <v>1</v>
@@ -15816,16 +15968,16 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1" t="s">
-        <v>17</v>
+        <v>551</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>18</v>
+        <v>552</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="K300" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L300" s="4">
         <v>0</v>
@@ -15855,16 +16007,16 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>324</v>
+        <v>18</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K301" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L301" s="4">
         <v>0</v>
@@ -15894,16 +16046,16 @@
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K302" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L302" s="4">
         <v>0</v>
@@ -15933,16 +16085,16 @@
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1" t="s">
-        <v>553</v>
+        <v>298</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>554</v>
+        <v>299</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K303" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L303" s="4">
         <v>0</v>
@@ -15972,16 +16124,16 @@
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K304" s="4">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="L304" s="4">
         <v>0</v>
@@ -16011,16 +16163,16 @@
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="K305" s="4">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="L305" s="4">
         <v>0</v>
@@ -16050,16 +16202,16 @@
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1" t="s">
-        <v>35</v>
+        <v>557</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>36</v>
+        <v>558</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="K306" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L306" s="4">
         <v>0</v>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1247,6 +1247,36 @@
     <t>1807 PARTICIPAÇÕES LTDA</t>
   </si>
   <si>
+    <t>E.04.0775</t>
+  </si>
+  <si>
+    <t>REGUA DE ALUMINIO 3 X 1'' C/ 3 M</t>
+  </si>
+  <si>
+    <t>00000000008068</t>
+  </si>
+  <si>
+    <t>FAIXA AZUL MATERIAIS</t>
+  </si>
+  <si>
+    <t>K.02.0997</t>
+  </si>
+  <si>
+    <t>LAVATÓRIO DE PVC</t>
+  </si>
+  <si>
+    <t>K.02.0999</t>
+  </si>
+  <si>
+    <t>TORNEIRA DE PVC</t>
+  </si>
+  <si>
+    <t>U.02.0706</t>
+  </si>
+  <si>
+    <t>SIFÃO PARA LAVATÓRIO EM PVC</t>
+  </si>
+  <si>
     <t>E.01.0121</t>
   </si>
   <si>
@@ -1259,30 +1289,6 @@
     <t xml:space="preserve">CARRINHO DE TRANSPORTE A BATERIA 18 V X 2 LXT ( 36V ) DCU 601 Z  SEM BATERIA E SEM CARREGADOR MAQUITA</t>
   </si>
   <si>
-    <t>E.04.0775</t>
-  </si>
-  <si>
-    <t>REGUA DE ALUMINIO 3 X 1'' C/ 3 M</t>
-  </si>
-  <si>
-    <t>K.02.0997</t>
-  </si>
-  <si>
-    <t>LAVATÓRIO DE PVC</t>
-  </si>
-  <si>
-    <t>K.02.0999</t>
-  </si>
-  <si>
-    <t>TORNEIRA DE PVC</t>
-  </si>
-  <si>
-    <t>U.02.0706</t>
-  </si>
-  <si>
-    <t>SIFÃO PARA LAVATÓRIO EM PVC</t>
-  </si>
-  <si>
     <t>KAENA PARTICIPAÇÕES LTDA</t>
   </si>
   <si>
@@ -1407,6 +1413,108 @@
   </si>
   <si>
     <t>EMULSÃO ASFALTICA ECOL 2 VIAPOL PINTURA IMPERMEABILIZANTE</t>
+  </si>
+  <si>
+    <t>W.03.0016</t>
+  </si>
+  <si>
+    <t>CHUMBADOR MECÂNICO CB 1/4"</t>
+  </si>
+  <si>
+    <t>E.04.0362</t>
+  </si>
+  <si>
+    <t>BROCA CHATA PARA MADEIRA - DIAM: 3/8'' - COMP: 150 MM</t>
+  </si>
+  <si>
+    <t>E.04.0715</t>
+  </si>
+  <si>
+    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
+  </si>
+  <si>
+    <t>E.04.0307</t>
+  </si>
+  <si>
+    <t>BROCA DE AÇO RÁPIDO - DIAM: 10 MM - COMP: 130 MM</t>
+  </si>
+  <si>
+    <t>E.04.0718</t>
+  </si>
+  <si>
+    <t>DISCO DE CORTE PARA FERRO 4/12''</t>
+  </si>
+  <si>
+    <t>O.01.0180</t>
+  </si>
+  <si>
+    <t>MADEIRA DE LEI</t>
+  </si>
+  <si>
+    <t>FERNANDO VASCONCELLOS</t>
+  </si>
+  <si>
+    <t>C.04.0023</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 100 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>O.01.0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE  PINUS 1'' X 2''</t>
+  </si>
+  <si>
+    <t>00000000008387</t>
+  </si>
+  <si>
+    <t>VEDAZ</t>
+  </si>
+  <si>
+    <t>O.01.0082</t>
+  </si>
+  <si>
+    <t>CHAPA DE MADEIRITE OSB</t>
+  </si>
+  <si>
+    <t>W.01.0005</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
+  </si>
+  <si>
+    <t>SUN MORITZ ADMINISTRADORA</t>
+  </si>
+  <si>
+    <t>C.04.0022</t>
+  </si>
+  <si>
+    <t>SACO PLÁSTICO P/ LIXO - 60 L C/ 100 UN REFORÇADO</t>
+  </si>
+  <si>
+    <t>00000000009713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P&amp;G  PEDRO</t>
+  </si>
+  <si>
+    <t>E.02.0051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA DE PAPELÃO   50  X 50  X  5,0MM</t>
+  </si>
+  <si>
+    <t>R.02.0057</t>
+  </si>
+  <si>
+    <t>TEXTURA DE BROMATO</t>
+  </si>
+  <si>
+    <t>10.06.0016</t>
+  </si>
+  <si>
+    <t>ARGAMASSA PRE-FABR PARA CHAPISCO</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1813,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O232"/>
+  <dimension ref="A1:O263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -10309,34 +10417,34 @@
         <v>45968.4124811458</v>
       </c>
       <c r="F184" s="2">
-        <v>80493</v>
+        <v>80538</v>
       </c>
       <c r="G184" s="3">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>195</v>
+        <v>340</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K184" s="4">
         <v>10</v>
       </c>
       <c r="L184" s="4">
-        <v>33.99</v>
+        <v>15</v>
       </c>
       <c r="M184" s="4">
-        <v>339.9</v>
+        <v>150</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="185">
@@ -10356,34 +10464,34 @@
         <v>45968.4124811458</v>
       </c>
       <c r="F185" s="2">
-        <v>80492</v>
+        <v>80538</v>
       </c>
       <c r="G185" s="3">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K185" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L185" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M185" s="4">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="186">
@@ -10402,13 +10510,17 @@
       <c r="E186" s="3">
         <v>45968.4124811458</v>
       </c>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
+      <c r="F186" s="2">
+        <v>80538</v>
+      </c>
+      <c r="G186" s="3">
+        <v>45971</v>
+      </c>
       <c r="H186" s="1" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>31</v>
@@ -10417,13 +10529,17 @@
         <v>10</v>
       </c>
       <c r="L186" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M186" s="4">
-        <v>0</v>
-      </c>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="187">
       <c r="A187" s="2">
@@ -10441,28 +10557,36 @@
       <c r="E187" s="3">
         <v>45968.4124811458</v>
       </c>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
+      <c r="F187" s="2">
+        <v>80493</v>
+      </c>
+      <c r="G187" s="3">
+        <v>45968</v>
+      </c>
       <c r="H187" s="1" t="s">
-        <v>406</v>
+        <v>194</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>407</v>
+        <v>195</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K187" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L187" s="4">
-        <v>0</v>
+        <v>33.99</v>
       </c>
       <c r="M187" s="4">
-        <v>0</v>
-      </c>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
+        <v>339.9</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="188">
       <c r="A188" s="2">
@@ -10480,28 +10604,36 @@
       <c r="E188" s="3">
         <v>45968.4124811458</v>
       </c>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
+      <c r="F188" s="2">
+        <v>80492</v>
+      </c>
+      <c r="G188" s="3">
+        <v>45968</v>
+      </c>
       <c r="H188" s="1" t="s">
-        <v>408</v>
+        <v>61</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K188" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L188" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="M188" s="4">
-        <v>0</v>
-      </c>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
+        <v>594</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="189">
       <c r="A189" s="2">
@@ -10614,34 +10746,34 @@
         <v>45968.4136449653</v>
       </c>
       <c r="F191" s="2">
-        <v>80528</v>
+        <v>80537</v>
       </c>
       <c r="G191" s="3">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K191" s="4">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L191" s="4">
-        <v>5.8</v>
+        <v>82.84</v>
       </c>
       <c r="M191" s="4">
-        <v>1160</v>
+        <v>248.52</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>273</v>
+        <v>413</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>274</v>
+        <v>414</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="192">
@@ -10667,22 +10799,22 @@
         <v>45968</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K192" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L192" s="4">
-        <v>37.95</v>
+        <v>5.8</v>
       </c>
       <c r="M192" s="4">
-        <v>1897.5</v>
+        <v>1160</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>273</v>
@@ -10707,28 +10839,36 @@
       <c r="E193" s="3">
         <v>45968.4136449653</v>
       </c>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
+      <c r="F193" s="2">
+        <v>80528</v>
+      </c>
+      <c r="G193" s="3">
+        <v>45968</v>
+      </c>
       <c r="H193" s="1" t="s">
-        <v>411</v>
+        <v>198</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>412</v>
+        <v>199</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K193" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L193" s="4">
-        <v>0</v>
+        <v>37.95</v>
       </c>
       <c r="M193" s="4">
-        <v>0</v>
-      </c>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
+        <v>1897.5</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="194">
       <c r="A194" s="2">
@@ -10746,13 +10886,17 @@
       <c r="E194" s="3">
         <v>45968.4136449653</v>
       </c>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
+      <c r="F194" s="2">
+        <v>80537</v>
+      </c>
+      <c r="G194" s="3">
+        <v>45971</v>
+      </c>
       <c r="H194" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>31</v>
@@ -10761,13 +10905,17 @@
         <v>1</v>
       </c>
       <c r="L194" s="4">
-        <v>0</v>
+        <v>66.46</v>
       </c>
       <c r="M194" s="4">
-        <v>0</v>
-      </c>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
+        <v>66.46</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="195">
       <c r="A195" s="2">
@@ -10785,28 +10933,36 @@
       <c r="E195" s="3">
         <v>45968.4136449653</v>
       </c>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
+      <c r="F195" s="2">
+        <v>80537</v>
+      </c>
+      <c r="G195" s="3">
+        <v>45971</v>
+      </c>
       <c r="H195" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K195" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195" s="4">
-        <v>0</v>
+        <v>38.12</v>
       </c>
       <c r="M195" s="4">
-        <v>0</v>
-      </c>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
+        <v>38.12</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="196">
       <c r="A196" s="2">
@@ -10824,28 +10980,36 @@
       <c r="E196" s="3">
         <v>45968.4136449653</v>
       </c>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
+      <c r="F196" s="2">
+        <v>80535</v>
+      </c>
+      <c r="G196" s="3">
+        <v>45971</v>
+      </c>
       <c r="H196" s="1" t="s">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>418</v>
+        <v>205</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K196" s="4">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="L196" s="4">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="M196" s="4">
-        <v>0</v>
-      </c>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
+        <v>416</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="197">
       <c r="A197" s="2">
@@ -10863,8 +11027,12 @@
       <c r="E197" s="3">
         <v>45968.4136449653</v>
       </c>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
+      <c r="F197" s="2">
+        <v>80537</v>
+      </c>
+      <c r="G197" s="3">
+        <v>45971</v>
+      </c>
       <c r="H197" s="1" t="s">
         <v>419</v>
       </c>
@@ -10878,13 +11046,17 @@
         <v>1</v>
       </c>
       <c r="L197" s="4">
-        <v>0</v>
+        <v>14.22</v>
       </c>
       <c r="M197" s="4">
-        <v>0</v>
-      </c>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
+        <v>14.22</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="198">
       <c r="A198" s="2">
@@ -10905,16 +11077,16 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>205</v>
+        <v>422</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K198" s="4">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L198" s="4">
         <v>0</v>
@@ -10944,10 +11116,10 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>31</v>
@@ -10969,7 +11141,7 @@
         <v>2503</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>266</v>
@@ -11005,10 +11177,10 @@
         <v>180</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="201">
@@ -11016,7 +11188,7 @@
         <v>2503</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>266</v>
@@ -11052,10 +11224,10 @@
         <v>61.5</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="202">
@@ -11063,7 +11235,7 @@
         <v>2503</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>266</v>
@@ -11081,10 +11253,10 @@
         <v>45968</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>31</v>
@@ -11099,10 +11271,10 @@
         <v>21</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="203">
@@ -11110,7 +11282,7 @@
         <v>2503</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>266</v>
@@ -11146,10 +11318,10 @@
         <v>169</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="204">
@@ -11157,7 +11329,7 @@
         <v>2503</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>266</v>
@@ -11175,10 +11347,10 @@
         <v>45968</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>31</v>
@@ -11193,10 +11365,10 @@
         <v>199</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="205">
@@ -11204,7 +11376,7 @@
         <v>2503</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>266</v>
@@ -11222,10 +11394,10 @@
         <v>45968</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>31</v>
@@ -11240,10 +11412,10 @@
         <v>17.9</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="206">
@@ -11251,7 +11423,7 @@
         <v>2503</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>266</v>
@@ -11269,10 +11441,10 @@
         <v>45968</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>31</v>
@@ -11287,10 +11459,10 @@
         <v>175.2</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="207">
@@ -11298,7 +11470,7 @@
         <v>2503</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>266</v>
@@ -11345,7 +11517,7 @@
         <v>2503</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>266</v>
@@ -11392,7 +11564,7 @@
         <v>2503</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>266</v>
@@ -11410,10 +11582,10 @@
         <v>45968</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>305</v>
@@ -11428,10 +11600,10 @@
         <v>88</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="210">
@@ -11439,7 +11611,7 @@
         <v>2512</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>266</v>
@@ -11475,10 +11647,10 @@
         <v>40.5</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="211">
@@ -11486,7 +11658,7 @@
         <v>2512</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>266</v>
@@ -11522,10 +11694,10 @@
         <v>64.5</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="212">
@@ -11533,7 +11705,7 @@
         <v>2512</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>266</v>
@@ -11551,10 +11723,10 @@
         <v>45968</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>31</v>
@@ -11569,10 +11741,10 @@
         <v>75</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="213">
@@ -11580,7 +11752,7 @@
         <v>2512</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>266</v>
@@ -11598,10 +11770,10 @@
         <v>45968</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>98</v>
@@ -11616,10 +11788,10 @@
         <v>44.7</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="214">
@@ -11627,7 +11799,7 @@
         <v>2512</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>266</v>
@@ -11645,10 +11817,10 @@
         <v>45968</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>31</v>
@@ -11663,10 +11835,10 @@
         <v>74.7</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="215">
@@ -11674,7 +11846,7 @@
         <v>2512</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>266</v>
@@ -11710,10 +11882,10 @@
         <v>702.9</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="216">
@@ -11721,7 +11893,7 @@
         <v>2512</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>266</v>
@@ -11757,10 +11929,10 @@
         <v>56.8</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="217">
@@ -11768,7 +11940,7 @@
         <v>2512</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>266</v>
@@ -11786,10 +11958,10 @@
         <v>45968</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>228</v>
@@ -11815,7 +11987,7 @@
         <v>2512</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>266</v>
@@ -11833,10 +12005,10 @@
         <v>45968</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>31</v>
@@ -11851,10 +12023,10 @@
         <v>201.15</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="219">
@@ -11862,7 +12034,7 @@
         <v>2512</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>266</v>
@@ -11898,10 +12070,10 @@
         <v>54.6</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="220">
@@ -11909,7 +12081,7 @@
         <v>2512</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>266</v>
@@ -11945,10 +12117,10 @@
         <v>19.4</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O220" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="221">
@@ -11956,7 +12128,7 @@
         <v>2512</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>266</v>
@@ -11974,10 +12146,10 @@
         <v>45968</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>31</v>
@@ -12003,7 +12175,7 @@
         <v>2512</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>266</v>
@@ -12021,10 +12193,10 @@
         <v>45968</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>31</v>
@@ -12050,7 +12222,7 @@
         <v>2512</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>266</v>
@@ -12086,10 +12258,10 @@
         <v>44.16</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="224">
@@ -12097,7 +12269,7 @@
         <v>2512</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>266</v>
@@ -12115,10 +12287,10 @@
         <v>45968</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>31</v>
@@ -12144,7 +12316,7 @@
         <v>2512</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>266</v>
@@ -12191,7 +12363,7 @@
         <v>2512</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>266</v>
@@ -12238,7 +12410,7 @@
         <v>2512</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>266</v>
@@ -12256,10 +12428,10 @@
         <v>45971</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>98</v>
@@ -12285,7 +12457,7 @@
         <v>2512</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>266</v>
@@ -12303,10 +12475,10 @@
         <v>45971</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>31</v>
@@ -12332,7 +12504,7 @@
         <v>2512</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>266</v>
@@ -12350,10 +12522,10 @@
         <v>45971</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>31</v>
@@ -12379,7 +12551,7 @@
         <v>2512</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>266</v>
@@ -12393,10 +12565,10 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>31</v>
@@ -12479,10 +12651,10 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>31</v>
@@ -12498,6 +12670,1371 @@
       </c>
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="233">
+      <c r="A233" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D233" s="2">
+        <v>30</v>
+      </c>
+      <c r="E233" s="3">
+        <v>45971.606444375</v>
+      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="234">
+      <c r="A234" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="2">
+        <v>31</v>
+      </c>
+      <c r="E234" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F234" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G234" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K234" s="4">
+        <v>60</v>
+      </c>
+      <c r="L234" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="M234" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="235">
+      <c r="A235" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="2">
+        <v>31</v>
+      </c>
+      <c r="E235" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F235" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G235" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K235" s="4">
+        <v>60</v>
+      </c>
+      <c r="L235" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="M235" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="236">
+      <c r="A236" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D236" s="2">
+        <v>31</v>
+      </c>
+      <c r="E236" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F236" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G236" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K236" s="4">
+        <v>30</v>
+      </c>
+      <c r="L236" s="4">
+        <v>4.86</v>
+      </c>
+      <c r="M236" s="4">
+        <v>145.8</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="237">
+      <c r="A237" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="2">
+        <v>31</v>
+      </c>
+      <c r="E237" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F237" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G237" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K237" s="4">
+        <v>10</v>
+      </c>
+      <c r="L237" s="4">
+        <v>8.8</v>
+      </c>
+      <c r="M237" s="4">
+        <v>88</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="238">
+      <c r="A238" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="2">
+        <v>31</v>
+      </c>
+      <c r="E238" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F238" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G238" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K238" s="4">
+        <v>9</v>
+      </c>
+      <c r="L238" s="4">
+        <v>44</v>
+      </c>
+      <c r="M238" s="4">
+        <v>396</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="239">
+      <c r="A239" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="2">
+        <v>31</v>
+      </c>
+      <c r="E239" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K239" s="4">
+        <v>2</v>
+      </c>
+      <c r="L239" s="4">
+        <v>0</v>
+      </c>
+      <c r="M239" s="4">
+        <v>0</v>
+      </c>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="240">
+      <c r="A240" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="2">
+        <v>31</v>
+      </c>
+      <c r="E240" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K240" s="4">
+        <v>2</v>
+      </c>
+      <c r="L240" s="4">
+        <v>0</v>
+      </c>
+      <c r="M240" s="4">
+        <v>0</v>
+      </c>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="241">
+      <c r="A241" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="2">
+        <v>31</v>
+      </c>
+      <c r="E241" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K241" s="4">
+        <v>2</v>
+      </c>
+      <c r="L241" s="4">
+        <v>0</v>
+      </c>
+      <c r="M241" s="4">
+        <v>0</v>
+      </c>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="242">
+      <c r="A242" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D242" s="2">
+        <v>31</v>
+      </c>
+      <c r="E242" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K242" s="4">
+        <v>5</v>
+      </c>
+      <c r="L242" s="4">
+        <v>0</v>
+      </c>
+      <c r="M242" s="4">
+        <v>0</v>
+      </c>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="243">
+      <c r="A243" s="2">
+        <v>2504</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243" s="2">
+        <v>31</v>
+      </c>
+      <c r="E243" s="3">
+        <v>45971.6165838773</v>
+      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K243" s="4">
+        <v>4</v>
+      </c>
+      <c r="L243" s="4">
+        <v>0</v>
+      </c>
+      <c r="M243" s="4">
+        <v>0</v>
+      </c>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="244">
+      <c r="A244" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D244" s="2">
+        <v>38</v>
+      </c>
+      <c r="E244" s="3">
+        <v>45971.6238174537</v>
+      </c>
+      <c r="F244" s="2">
+        <v>80542</v>
+      </c>
+      <c r="G244" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K244" s="4">
+        <v>2</v>
+      </c>
+      <c r="L244" s="4">
+        <v>305</v>
+      </c>
+      <c r="M244" s="4">
+        <v>610</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="245">
+      <c r="A245" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D245" s="2">
+        <v>38</v>
+      </c>
+      <c r="E245" s="3">
+        <v>45971.6238174537</v>
+      </c>
+      <c r="F245" s="2">
+        <v>80543</v>
+      </c>
+      <c r="G245" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K245" s="4">
+        <v>30</v>
+      </c>
+      <c r="L245" s="4">
+        <v>23.43</v>
+      </c>
+      <c r="M245" s="4">
+        <v>702.9</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="246">
+      <c r="A246" s="2">
+        <v>2413</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D246" s="2">
+        <v>38</v>
+      </c>
+      <c r="E246" s="3">
+        <v>45971.6238174537</v>
+      </c>
+      <c r="F246" s="2">
+        <v>80542</v>
+      </c>
+      <c r="G246" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K246" s="4">
+        <v>10</v>
+      </c>
+      <c r="L246" s="4">
+        <v>90</v>
+      </c>
+      <c r="M246" s="4">
+        <v>900</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="247">
+      <c r="A247" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D247" s="2">
+        <v>53</v>
+      </c>
+      <c r="E247" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F247" s="2">
+        <v>80546</v>
+      </c>
+      <c r="G247" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K247" s="4">
+        <v>20</v>
+      </c>
+      <c r="L247" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M247" s="4">
+        <v>90</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="248">
+      <c r="A248" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D248" s="2">
+        <v>53</v>
+      </c>
+      <c r="E248" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F248" s="2">
+        <v>80546</v>
+      </c>
+      <c r="G248" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K248" s="4">
+        <v>1</v>
+      </c>
+      <c r="L248" s="4">
+        <v>68</v>
+      </c>
+      <c r="M248" s="4">
+        <v>68</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="249">
+      <c r="A249" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D249" s="2">
+        <v>53</v>
+      </c>
+      <c r="E249" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F249" s="2">
+        <v>80546</v>
+      </c>
+      <c r="G249" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K249" s="4">
+        <v>10</v>
+      </c>
+      <c r="L249" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="M249" s="4">
+        <v>17.9</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="250">
+      <c r="A250" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D250" s="2">
+        <v>53</v>
+      </c>
+      <c r="E250" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F250" s="2">
+        <v>80544</v>
+      </c>
+      <c r="G250" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K250" s="4">
+        <v>40</v>
+      </c>
+      <c r="L250" s="4">
+        <v>10</v>
+      </c>
+      <c r="M250" s="4">
+        <v>400</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="251">
+      <c r="A251" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D251" s="2">
+        <v>53</v>
+      </c>
+      <c r="E251" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F251" s="2">
+        <v>80544</v>
+      </c>
+      <c r="G251" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K251" s="4">
+        <v>250</v>
+      </c>
+      <c r="L251" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="M251" s="4">
+        <v>447.5</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="252">
+      <c r="A252" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D252" s="2">
+        <v>53</v>
+      </c>
+      <c r="E252" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F252" s="2">
+        <v>80550</v>
+      </c>
+      <c r="G252" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K252" s="4">
+        <v>1</v>
+      </c>
+      <c r="L252" s="4">
+        <v>270</v>
+      </c>
+      <c r="M252" s="4">
+        <v>270</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="253">
+      <c r="A253" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D253" s="2">
+        <v>53</v>
+      </c>
+      <c r="E253" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K253" s="4">
+        <v>1</v>
+      </c>
+      <c r="L253" s="4">
+        <v>0</v>
+      </c>
+      <c r="M253" s="4">
+        <v>0</v>
+      </c>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="254">
+      <c r="A254" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D254" s="2">
+        <v>53</v>
+      </c>
+      <c r="E254" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K254" s="4">
+        <v>20</v>
+      </c>
+      <c r="L254" s="4">
+        <v>0</v>
+      </c>
+      <c r="M254" s="4">
+        <v>0</v>
+      </c>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="255">
+      <c r="A255" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D255" s="2">
+        <v>53</v>
+      </c>
+      <c r="E255" s="3">
+        <v>45971.6246519676</v>
+      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K255" s="4">
+        <v>10</v>
+      </c>
+      <c r="L255" s="4">
+        <v>0</v>
+      </c>
+      <c r="M255" s="4">
+        <v>0</v>
+      </c>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="256">
+      <c r="A256" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D256" s="2">
+        <v>75</v>
+      </c>
+      <c r="E256" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F256" s="2">
+        <v>80549</v>
+      </c>
+      <c r="G256" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K256" s="4">
+        <v>2</v>
+      </c>
+      <c r="L256" s="4">
+        <v>68</v>
+      </c>
+      <c r="M256" s="4">
+        <v>136</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="257">
+      <c r="A257" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D257" s="2">
+        <v>75</v>
+      </c>
+      <c r="E257" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F257" s="2">
+        <v>80549</v>
+      </c>
+      <c r="G257" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K257" s="4">
+        <v>2</v>
+      </c>
+      <c r="L257" s="4">
+        <v>68</v>
+      </c>
+      <c r="M257" s="4">
+        <v>136</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="258">
+      <c r="A258" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D258" s="2">
+        <v>75</v>
+      </c>
+      <c r="E258" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F258" s="2">
+        <v>80549</v>
+      </c>
+      <c r="G258" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K258" s="4">
+        <v>2</v>
+      </c>
+      <c r="L258" s="4">
+        <v>68</v>
+      </c>
+      <c r="M258" s="4">
+        <v>136</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="259">
+      <c r="A259" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D259" s="2">
+        <v>75</v>
+      </c>
+      <c r="E259" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F259" s="2">
+        <v>80548</v>
+      </c>
+      <c r="G259" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K259" s="4">
+        <v>2</v>
+      </c>
+      <c r="L259" s="4">
+        <v>305</v>
+      </c>
+      <c r="M259" s="4">
+        <v>610</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="260">
+      <c r="A260" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D260" s="2">
+        <v>75</v>
+      </c>
+      <c r="E260" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F260" s="2">
+        <v>80547</v>
+      </c>
+      <c r="G260" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K260" s="4">
+        <v>10</v>
+      </c>
+      <c r="L260" s="4">
+        <v>89</v>
+      </c>
+      <c r="M260" s="4">
+        <v>890</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="261">
+      <c r="A261" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D261" s="2">
+        <v>75</v>
+      </c>
+      <c r="E261" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F261" s="2">
+        <v>80548</v>
+      </c>
+      <c r="G261" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K261" s="4">
+        <v>50</v>
+      </c>
+      <c r="L261" s="4">
+        <v>5.47</v>
+      </c>
+      <c r="M261" s="4">
+        <v>273.5</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="262">
+      <c r="A262" s="2">
+        <v>2407</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D262" s="2">
+        <v>75</v>
+      </c>
+      <c r="E262" s="3">
+        <v>45971.6264179745</v>
+      </c>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K262" s="4">
+        <v>1</v>
+      </c>
+      <c r="L262" s="4">
+        <v>0</v>
+      </c>
+      <c r="M262" s="4">
+        <v>0</v>
+      </c>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="263">
+      <c r="A263" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D263" s="2">
+        <v>58</v>
+      </c>
+      <c r="E263" s="3">
+        <v>45971.6851278241</v>
+      </c>
+      <c r="F263" s="2">
+        <v>80545</v>
+      </c>
+      <c r="G263" s="3">
+        <v>45971</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K263" s="4">
+        <v>40</v>
+      </c>
+      <c r="L263" s="4">
+        <v>50.1</v>
+      </c>
+      <c r="M263" s="4">
+        <v>2004</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78740157480315" right="0.78740157480315" top="0.78740157480315" bottom="0.78740157480315" header="0.393700787401575" footer="0.393700787401575"/>

--- a/AcompReq.xlsx
+++ b/AcompReq.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>EMPRD</t>
   </si>
@@ -1415,42 +1415,42 @@
     <t>EMULSÃO ASFALTICA ECOL 2 VIAPOL PINTURA IMPERMEABILIZANTE</t>
   </si>
   <si>
+    <t>E.04.0362</t>
+  </si>
+  <si>
+    <t>BROCA CHATA PARA MADEIRA - DIAM: 3/8'' - COMP: 150 MM</t>
+  </si>
+  <si>
+    <t>E.04.0715</t>
+  </si>
+  <si>
+    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
+  </si>
+  <si>
+    <t>E.04.0307</t>
+  </si>
+  <si>
+    <t>BROCA DE AÇO RÁPIDO - DIAM: 10 MM - COMP: 130 MM</t>
+  </si>
+  <si>
+    <t>E.04.0718</t>
+  </si>
+  <si>
+    <t>DISCO DE CORTE PARA FERRO 4/12''</t>
+  </si>
+  <si>
+    <t>O.01.0180</t>
+  </si>
+  <si>
+    <t>MADEIRA DE LEI</t>
+  </si>
+  <si>
     <t>W.03.0016</t>
   </si>
   <si>
     <t>CHUMBADOR MECÂNICO CB 1/4"</t>
   </si>
   <si>
-    <t>E.04.0362</t>
-  </si>
-  <si>
-    <t>BROCA CHATA PARA MADEIRA - DIAM: 3/8'' - COMP: 150 MM</t>
-  </si>
-  <si>
-    <t>E.04.0715</t>
-  </si>
-  <si>
-    <t>DISCO DE SERRA CIRCULAR WÍDEA - 71/4'' X 1,8 X 200 MM X 36 D</t>
-  </si>
-  <si>
-    <t>E.04.0307</t>
-  </si>
-  <si>
-    <t>BROCA DE AÇO RÁPIDO - DIAM: 10 MM - COMP: 130 MM</t>
-  </si>
-  <si>
-    <t>E.04.0718</t>
-  </si>
-  <si>
-    <t>DISCO DE CORTE PARA FERRO 4/12''</t>
-  </si>
-  <si>
-    <t>O.01.0180</t>
-  </si>
-  <si>
-    <t>MADEIRA DE LEI</t>
-  </si>
-  <si>
     <t>FERNANDO VASCONCELLOS</t>
   </si>
   <si>
@@ -1472,18 +1472,18 @@
     <t>VEDAZ</t>
   </si>
   <si>
+    <t>W.01.0005</t>
+  </si>
+  <si>
+    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
+  </si>
+  <si>
     <t>O.01.0082</t>
   </si>
   <si>
     <t>CHAPA DE MADEIRITE OSB</t>
   </si>
   <si>
-    <t>W.01.0005</t>
-  </si>
-  <si>
-    <t>PREGO COMUM C/ CABEÇA 17 X 21</t>
-  </si>
-  <si>
     <t>SUN MORITZ ADMINISTRADORA</t>
   </si>
   <si>
@@ -1511,10 +1511,460 @@
     <t>TEXTURA DE BROMATO</t>
   </si>
   <si>
+    <t>00000000008146</t>
+  </si>
+  <si>
+    <t>TINTAS MC LTDA</t>
+  </si>
+  <si>
     <t>10.06.0016</t>
   </si>
   <si>
     <t>ARGAMASSA PRE-FABR PARA CHAPISCO</t>
+  </si>
+  <si>
+    <t>E.03.0523</t>
+  </si>
+  <si>
+    <t>PISO METÁLICO PARA ANDAIME</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>00000000007792</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CIVIL MAQ</t>
+  </si>
+  <si>
+    <t>E.04.0240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEMPENADEIRA DENTADA  DE AÇO - 28 X 13 CM</t>
+  </si>
+  <si>
+    <t>E.04.0080</t>
+  </si>
+  <si>
+    <t>MACHADINHA DE UNHA 450GR</t>
+  </si>
+  <si>
+    <t>E.04.0261</t>
+  </si>
+  <si>
+    <t>DESEMPENADEIRA DE PVC - 30 X 17 CM</t>
+  </si>
+  <si>
+    <t>F.02.0003</t>
+  </si>
+  <si>
+    <t>ANDAIME TUBULAR 1 X 1 -</t>
+  </si>
+  <si>
+    <t>F.05.0011</t>
+  </si>
+  <si>
+    <t>DIAGONAL PARA ANDAIME</t>
+  </si>
+  <si>
+    <t>F.05.0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPATA  FIXA P/ ANDAIME</t>
+  </si>
+  <si>
+    <t>S.04.0080</t>
+  </si>
+  <si>
+    <t>DISSOLVENTE CFR1 500ML - HILTI -LIMPEZA DO DISPENSADOR DE ESPUMA PU</t>
+  </si>
+  <si>
+    <t>00000000001480</t>
+  </si>
+  <si>
+    <t>HILTI</t>
+  </si>
+  <si>
+    <t>W.03.0026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO LISO  CABEÇA 7,6MM X 45 MM COMPRIMENTO DE HASTE</t>
+  </si>
+  <si>
+    <t>00000000007677</t>
+  </si>
+  <si>
+    <t>CANTO METAL</t>
+  </si>
+  <si>
+    <t>E.02.0110</t>
+  </si>
+  <si>
+    <t>EXTINTOR DE INCÊNDIO - AP 10 L</t>
+  </si>
+  <si>
+    <t>00000000001312</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>E.02.0120</t>
+  </si>
+  <si>
+    <t>RECARGA - EXTINTOR</t>
+  </si>
+  <si>
+    <t>E.02.0096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA  DE SEGURANÇA COM LOGO  E MASCOTE DA OSBORNE  MED. 0.80  ALTURA  X  0,60 LARGURA</t>
+  </si>
+  <si>
+    <t>00000000002701</t>
+  </si>
+  <si>
+    <t>FAST BUREAU</t>
+  </si>
+  <si>
+    <t>E.04.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA PROFISSIONAL DE AÇO  8 M X 26 MM</t>
+  </si>
+  <si>
+    <t>E.04.0095</t>
+  </si>
+  <si>
+    <t>MARRETA OITAVADA - 500 G</t>
+  </si>
+  <si>
+    <t>N.12.0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACHO  NA COR CINZA COM LOGO NAS CORES  OSBORNE MEDINDO 1,00 X 0,50</t>
+  </si>
+  <si>
+    <t>00000000009808</t>
+  </si>
+  <si>
+    <t>CAPLIMP</t>
+  </si>
+  <si>
+    <t>00000000009973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASA DA  AGUA</t>
+  </si>
+  <si>
+    <t>E.04.0585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA PLASTICA PARA ARGAMASSA DE   PVC 350L</t>
+  </si>
+  <si>
+    <t>00000000010254</t>
+  </si>
+  <si>
+    <t>IW8 INDUSTRIA</t>
+  </si>
+  <si>
+    <t>K.01.1481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   10 A  2 P + T  ( MACHO )</t>
+  </si>
+  <si>
+    <t>K.02.1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO PVC SOLDÁVEL DE 25MM  ( MARRON ) C/ 6M</t>
+  </si>
+  <si>
+    <t>R.02.0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLO DE LÃ DE CARNEIRO - 09  CM - COMPLETO</t>
+  </si>
+  <si>
+    <t>R.02.0064</t>
+  </si>
+  <si>
+    <t>ROLO DE ESPUMA DE 5 CM - COM CABO</t>
+  </si>
+  <si>
+    <t>Z.01.0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTANCIADOR CADEIRINHA FERRO  ATÉ 12,5MM   COBRIMENTO  15 E 25 MM</t>
+  </si>
+  <si>
+    <t>00000000001930</t>
+  </si>
+  <si>
+    <t>COPLÁS</t>
+  </si>
+  <si>
+    <t>Z.01.0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPAÇADOR '' CENTOPÉIA ''  CT 30 - 30 MM</t>
+  </si>
+  <si>
+    <t>I.01.0068</t>
+  </si>
+  <si>
+    <t>ANEL DE CONCRETO DE DIÂMETRO DE 120 CM X 50 CM X 5 CM</t>
+  </si>
+  <si>
+    <t>J.01.0016</t>
+  </si>
+  <si>
+    <t>PEDRA BRITADA Nº 1 - SACO GRANDE 20 KG</t>
+  </si>
+  <si>
+    <t>FELIPE HESS BORGES</t>
+  </si>
+  <si>
+    <t>E.04.0600</t>
+  </si>
+  <si>
+    <t>CARRINHO DE MÃO REFORÇADO PNEU CÂMARA TRAMONTINA</t>
+  </si>
+  <si>
+    <t>00000000010253</t>
+  </si>
+  <si>
+    <t>DEPOSITO BRASIL</t>
+  </si>
+  <si>
+    <t>E.04.0770</t>
+  </si>
+  <si>
+    <t>PÁ DE BICO</t>
+  </si>
+  <si>
+    <t>E.04.0192</t>
+  </si>
+  <si>
+    <t>TORQUÊS DE ARMADOR - 12''</t>
+  </si>
+  <si>
+    <t>00000000008696</t>
+  </si>
+  <si>
+    <t>UDIAÇO</t>
+  </si>
+  <si>
+    <t>H.11.0036</t>
+  </si>
+  <si>
+    <t>AÇO CA50 16,0 MM - VARA</t>
+  </si>
+  <si>
+    <t>O.01.0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 8"</t>
+  </si>
+  <si>
+    <t>Z.01.0023</t>
+  </si>
+  <si>
+    <t>ESPAÇADOR CIRCULAR MOD ETE 25-30 - 25 MM COBRIMENTO 30,0 MM</t>
+  </si>
+  <si>
+    <t>MILH</t>
+  </si>
+  <si>
+    <t>J.03.0001</t>
+  </si>
+  <si>
+    <t>AREIA MÉDIA</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>O.01.0118</t>
+  </si>
+  <si>
+    <t>C.05.0306</t>
+  </si>
+  <si>
+    <t>PORTA CADEADO</t>
+  </si>
+  <si>
+    <t>E.01.0074</t>
+  </si>
+  <si>
+    <t>CADEADO 45 MM</t>
+  </si>
+  <si>
+    <t>K.01.1532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROLONGADOR PROFISSIONAL PADRÃO BRASILEIRO REFORÇADO  20A  2 P + T  ( FEMEA ) REF 6158 77</t>
+  </si>
+  <si>
+    <t>K.01.1483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG RESIDENCIAIS PADRÃO BRASILEIRO   20 A  2 P + T  ( MACHO )</t>
+  </si>
+  <si>
+    <t>O.01.0109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA DE PINUS  1" X 3"</t>
+  </si>
+  <si>
+    <t>E.04.0003</t>
+  </si>
+  <si>
+    <t>BALDE PVC PARA OBRA</t>
+  </si>
+  <si>
+    <t>J.02.0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA -  MULTIMASSA USO GERAL  SC  20KG QUARTZOLIT</t>
+  </si>
+  <si>
+    <t>MARCO AURÉLIO SIMÃO FREIRE</t>
+  </si>
+  <si>
+    <t>J.06.0011</t>
+  </si>
+  <si>
+    <t>REJUNTE ACRILICO</t>
+  </si>
+  <si>
+    <t>13.01.0521</t>
+  </si>
+  <si>
+    <t>VIAPLUS 1000 VIAPOL</t>
+  </si>
+  <si>
+    <t>00000000007398</t>
+  </si>
+  <si>
+    <t>IMPERNORTE</t>
+  </si>
+  <si>
+    <t>05.10.0272</t>
+  </si>
+  <si>
+    <t>REGUA C/ NIVEL E PRUMO C/ 1,20 M</t>
+  </si>
+  <si>
+    <t>C.04.0040</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIAÇAVA Nº 1 CHAPA</t>
+  </si>
+  <si>
+    <t>C.04.0041</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PÊLO ANIMAL 40 CM</t>
+  </si>
+  <si>
+    <t>E.03.0045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA DE LATEX NATURAL CORRUGADA  SS 1009</t>
+  </si>
+  <si>
+    <t>E.06.0007</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE WD40</t>
+  </si>
+  <si>
+    <t>K.01.0025</t>
+  </si>
+  <si>
+    <t>FITA ISOLANTE - 19 MM X 20 M</t>
+  </si>
+  <si>
+    <t>00000000008820</t>
+  </si>
+  <si>
+    <t>NOVA FASE</t>
+  </si>
+  <si>
+    <t>R.02.0180</t>
+  </si>
+  <si>
+    <t>TRINCHA 1"</t>
+  </si>
+  <si>
+    <t>E.01.0010</t>
+  </si>
+  <si>
+    <t>MANUTENÇÃO DE EQUIPAMENTOS (MÊS)</t>
+  </si>
+  <si>
+    <t>E.04.0129</t>
+  </si>
+  <si>
+    <t>NÍVEL DE ALUMÍNIO - 16''</t>
+  </si>
+  <si>
+    <t>E.04.1235</t>
+  </si>
+  <si>
+    <t>PISTOLA DE APLICAÇÃO (310ML )</t>
+  </si>
+  <si>
+    <t>H.11.0109</t>
+  </si>
+  <si>
+    <t>TELA SOLDADA AÇO CA60 - Q92 - 2,45 X 6,00 M</t>
+  </si>
+  <si>
+    <t>R.02.0148</t>
+  </si>
+  <si>
+    <t>LIXA DE DISCO FLAP 115 X 22MM</t>
+  </si>
+  <si>
+    <t>P2.02.0020</t>
+  </si>
+  <si>
+    <t>PORTA ALUMÍNIO 01</t>
+  </si>
+  <si>
+    <t>E.02.0027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONA TERREIRO PRETA  8 X 100M</t>
+  </si>
+  <si>
+    <t>J.02.0500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA COLANTE TIPO AC III,  VOTOMASSA 254B  PREMIUM BRANCA  20KG</t>
+  </si>
+  <si>
+    <t>K.01.0228</t>
+  </si>
+  <si>
+    <t>TOMADA LUMITEK</t>
+  </si>
+  <si>
+    <t>K.08.0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIADOR DE LUMINOSIDADE  DIGITAL MODULAR NAPIE  DIMMER 100W  127V</t>
+  </si>
+  <si>
+    <t>K.08.0177</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SUPORTE DE 3 MÓDULOS SLN4703M</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +2263,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O263"/>
+  <dimension ref="A1:O397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A1"/>
@@ -6558,10 +7008,10 @@
         <v>12</v>
       </c>
       <c r="L101" s="4">
-        <v>63.5</v>
+        <v>65.5</v>
       </c>
       <c r="M101" s="4">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>32</v>
@@ -12715,34 +13165,34 @@
         <v>45971.6165838773</v>
       </c>
       <c r="F234" s="2">
-        <v>80551</v>
+        <v>80555</v>
       </c>
       <c r="G234" s="3">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K234" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="L234" s="4">
-        <v>0.26</v>
+        <v>69</v>
       </c>
       <c r="M234" s="4">
-        <v>15.6</v>
+        <v>138</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="235">
@@ -12762,34 +13212,34 @@
         <v>45971.6165838773</v>
       </c>
       <c r="F235" s="2">
-        <v>80551</v>
+        <v>80555</v>
       </c>
       <c r="G235" s="3">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>107</v>
+        <v>470</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K235" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="L235" s="4">
-        <v>0.16</v>
+        <v>129</v>
       </c>
       <c r="M235" s="4">
-        <v>9.6</v>
+        <v>258</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="236">
@@ -12809,34 +13259,34 @@
         <v>45971.6165838773</v>
       </c>
       <c r="F236" s="2">
-        <v>80551</v>
+        <v>80555</v>
       </c>
       <c r="G236" s="3">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K236" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L236" s="4">
-        <v>4.86</v>
+        <v>189</v>
       </c>
       <c r="M236" s="4">
-        <v>145.8</v>
+        <v>378</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="237">
@@ -12856,34 +13306,34 @@
         <v>45971.6165838773</v>
       </c>
       <c r="F237" s="2">
-        <v>80551</v>
+        <v>80555</v>
       </c>
       <c r="G237" s="3">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>112</v>
+        <v>473</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>113</v>
+        <v>474</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K237" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L237" s="4">
-        <v>8.8</v>
+        <v>4</v>
       </c>
       <c r="M237" s="4">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="238">
@@ -12909,22 +13359,22 @@
         <v>45971</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K238" s="4">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="L238" s="4">
-        <v>44</v>
+        <v>0.26</v>
       </c>
       <c r="M238" s="4">
-        <v>396</v>
+        <v>15.6</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>45</v>
@@ -12949,28 +13399,36 @@
       <c r="E239" s="3">
         <v>45971.6165838773</v>
       </c>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
+      <c r="F239" s="2">
+        <v>80557</v>
+      </c>
+      <c r="G239" s="3">
+        <v>45972</v>
+      </c>
       <c r="H239" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K239" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L239" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M239" s="4">
-        <v>0</v>
-      </c>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
+        <v>720</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="240">
       <c r="A240" s="2">
@@ -12988,28 +13446,36 @@
       <c r="E240" s="3">
         <v>45971.6165838773</v>
       </c>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
+      <c r="F240" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G240" s="3">
+        <v>45971</v>
+      </c>
       <c r="H240" s="1" t="s">
-        <v>471</v>
+        <v>106</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>472</v>
+        <v>107</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="K240" s="4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="L240" s="4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="M240" s="4">
-        <v>0</v>
-      </c>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="241">
       <c r="A241" s="2">
@@ -13027,28 +13493,36 @@
       <c r="E241" s="3">
         <v>45971.6165838773</v>
       </c>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
+      <c r="F241" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G241" s="3">
+        <v>45971</v>
+      </c>
       <c r="H241" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K241" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L241" s="4">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="M241" s="4">
-        <v>0</v>
-      </c>
-      <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
+        <v>145.8</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="242">
       <c r="A242" s="2">
@@ -13066,28 +13540,36 @@
       <c r="E242" s="3">
         <v>45971.6165838773</v>
       </c>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
+      <c r="F242" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G242" s="3">
+        <v>45971</v>
+      </c>
       <c r="H242" s="1" t="s">
-        <v>475</v>
+        <v>112</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>476</v>
+        <v>113</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K242" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L242" s="4">
-        <v>0</v>
+        <v>8.8</v>
       </c>
       <c r="M242" s="4">
-        <v>0</v>
-      </c>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="243">
       <c r="A243" s="2">
@@ -13105,28 +13587,36 @@
       <c r="E243" s="3">
         <v>45971.6165838773</v>
       </c>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
+      <c r="F243" s="2">
+        <v>80551</v>
+      </c>
+      <c r="G243" s="3">
+        <v>45971</v>
+      </c>
       <c r="H243" s="1" t="s">
-        <v>477</v>
+        <v>127</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>478</v>
+        <v>128</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K243" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L243" s="4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M243" s="4">
-        <v>0</v>
-      </c>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="244">
       <c r="A244" s="2">
@@ -13427,34 +13917,34 @@
         <v>45971.6246519676</v>
       </c>
       <c r="F250" s="2">
-        <v>80544</v>
+        <v>80559</v>
       </c>
       <c r="G250" s="3">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K250" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="L250" s="4">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="M250" s="4">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="251">
@@ -13480,22 +13970,22 @@
         <v>45971</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>482</v>
+        <v>86</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>483</v>
+        <v>87</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K251" s="4">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="L251" s="4">
-        <v>1.79</v>
+        <v>10</v>
       </c>
       <c r="M251" s="4">
-        <v>447.5</v>
+        <v>400</v>
       </c>
       <c r="N251" s="1" t="s">
         <v>290</v>
@@ -13521,34 +14011,34 @@
         <v>45971.6246519676</v>
       </c>
       <c r="F252" s="2">
-        <v>80550</v>
+        <v>80544</v>
       </c>
       <c r="G252" s="3">
         <v>45971</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>51</v>
+        <v>482</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K252" s="4">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="L252" s="4">
-        <v>270</v>
+        <v>1.79</v>
       </c>
       <c r="M252" s="4">
-        <v>270</v>
+        <v>447.5</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>484</v>
+        <v>290</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>485</v>
+        <v>291</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" r="253">
@@ -13567,13 +14057,17 @@
       <c r="E253" s="3">
         <v>45971.6246519676</v>
       </c>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
+      <c r="F253" s="2">
+        <v>80550</v>
+      </c>
+      <c r="G253" s="3">
+        <v>45971</v>
+      </c>
       <c r="H253" s="1" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>31</v>
@@ -13582,13 +14076,17 @@
         <v>1</v>
       </c>
       <c r="L253" s="4">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="M253" s="4">
-        <v>0</v>
-      </c>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="254">
       <c r="A254" s="2">
@@ -13606,8 +14104,12 @@
       <c r="E254" s="3">
         <v>45971.6246519676</v>
       </c>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
+      <c r="F254" s="2">
+        <v>80559</v>
+      </c>
+      <c r="G254" s="3">
+        <v>45972</v>
+      </c>
       <c r="H254" s="1" t="s">
         <v>486</v>
       </c>
@@ -13615,19 +14117,23 @@
         <v>487</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="K254" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L254" s="4">
-        <v>0</v>
+        <v>17.9</v>
       </c>
       <c r="M254" s="4">
-        <v>0</v>
-      </c>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="255">
       <c r="A255" s="2">
@@ -13654,10 +14160,10 @@
         <v>489</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="K255" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L255" s="4">
         <v>0</v>
@@ -13966,8 +14472,12 @@
       <c r="E262" s="3">
         <v>45971.6264179745</v>
       </c>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
+      <c r="F262" s="2">
+        <v>80560</v>
+      </c>
+      <c r="G262" s="3">
+        <v>45972</v>
+      </c>
       <c r="H262" s="1" t="s">
         <v>497</v>
       </c>
@@ -13978,16 +14488,20 @@
         <v>255</v>
       </c>
       <c r="K262" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L262" s="4">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="M262" s="4">
-        <v>0</v>
-      </c>
-      <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
+        <v>516</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row ht="12.75" customHeight="1" r="263">
       <c r="A263" s="2">
@@ -14012,10 +14526,10 @@
         <v>45971</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>212</v>
@@ -14035,6 +14549,6160 @@
       <c r="O263" s="1" t="s">
         <v>179</v>
       </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="264">
+      <c r="A264" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264" s="2">
+        <v>10</v>
+      </c>
+      <c r="E264" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F264" s="2">
+        <v>80608</v>
+      </c>
+      <c r="G264" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K264" s="4">
+        <v>2</v>
+      </c>
+      <c r="L264" s="4">
+        <v>200</v>
+      </c>
+      <c r="M264" s="4">
+        <v>400</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="265">
+      <c r="A265" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D265" s="2">
+        <v>10</v>
+      </c>
+      <c r="E265" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F265" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G265" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K265" s="4">
+        <v>1</v>
+      </c>
+      <c r="L265" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="M265" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="266">
+      <c r="A266" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D266" s="2">
+        <v>10</v>
+      </c>
+      <c r="E266" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F266" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G266" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K266" s="4">
+        <v>1</v>
+      </c>
+      <c r="L266" s="4">
+        <v>35</v>
+      </c>
+      <c r="M266" s="4">
+        <v>35</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="267">
+      <c r="A267" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D267" s="2">
+        <v>10</v>
+      </c>
+      <c r="E267" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F267" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G267" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K267" s="4">
+        <v>2</v>
+      </c>
+      <c r="L267" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="M267" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="268">
+      <c r="A268" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D268" s="2">
+        <v>10</v>
+      </c>
+      <c r="E268" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F268" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G268" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K268" s="4">
+        <v>10</v>
+      </c>
+      <c r="L268" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="M268" s="4">
+        <v>359</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="269">
+      <c r="A269" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D269" s="2">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F269" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G269" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K269" s="4">
+        <v>10</v>
+      </c>
+      <c r="L269" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="M269" s="4">
+        <v>75</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="270">
+      <c r="A270" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D270" s="2">
+        <v>10</v>
+      </c>
+      <c r="E270" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F270" s="2">
+        <v>80608</v>
+      </c>
+      <c r="G270" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K270" s="4">
+        <v>2</v>
+      </c>
+      <c r="L270" s="4">
+        <v>80</v>
+      </c>
+      <c r="M270" s="4">
+        <v>160</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="271">
+      <c r="A271" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D271" s="2">
+        <v>10</v>
+      </c>
+      <c r="E271" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F271" s="2">
+        <v>80608</v>
+      </c>
+      <c r="G271" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K271" s="4">
+        <v>2</v>
+      </c>
+      <c r="L271" s="4">
+        <v>1</v>
+      </c>
+      <c r="M271" s="4">
+        <v>2</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="272">
+      <c r="A272" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D272" s="2">
+        <v>10</v>
+      </c>
+      <c r="E272" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F272" s="2">
+        <v>80608</v>
+      </c>
+      <c r="G272" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K272" s="4">
+        <v>2</v>
+      </c>
+      <c r="L272" s="4">
+        <v>80</v>
+      </c>
+      <c r="M272" s="4">
+        <v>160</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="273">
+      <c r="A273" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D273" s="2">
+        <v>10</v>
+      </c>
+      <c r="E273" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F273" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G273" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K273" s="4">
+        <v>5</v>
+      </c>
+      <c r="L273" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="M273" s="4">
+        <v>149.5</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="274">
+      <c r="A274" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D274" s="2">
+        <v>10</v>
+      </c>
+      <c r="E274" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F274" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G274" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K274" s="4">
+        <v>5</v>
+      </c>
+      <c r="L274" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M274" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="275">
+      <c r="A275" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D275" s="2">
+        <v>10</v>
+      </c>
+      <c r="E275" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F275" s="2">
+        <v>80612</v>
+      </c>
+      <c r="G275" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K275" s="4">
+        <v>1</v>
+      </c>
+      <c r="L275" s="4">
+        <v>340</v>
+      </c>
+      <c r="M275" s="4">
+        <v>340</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="276">
+      <c r="A276" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D276" s="2">
+        <v>10</v>
+      </c>
+      <c r="E276" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F276" s="2">
+        <v>80610</v>
+      </c>
+      <c r="G276" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K276" s="4">
+        <v>1</v>
+      </c>
+      <c r="L276" s="4">
+        <v>30</v>
+      </c>
+      <c r="M276" s="4">
+        <v>30</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="277">
+      <c r="A277" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D277" s="2">
+        <v>10</v>
+      </c>
+      <c r="E277" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F277" s="2">
+        <v>80611</v>
+      </c>
+      <c r="G277" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K277" s="4">
+        <v>20</v>
+      </c>
+      <c r="L277" s="4">
+        <v>95.78</v>
+      </c>
+      <c r="M277" s="4">
+        <v>1915.6</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="278">
+      <c r="A278" s="2">
+        <v>2511</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D278" s="2">
+        <v>10</v>
+      </c>
+      <c r="E278" s="3">
+        <v>45972.5853556366</v>
+      </c>
+      <c r="F278" s="2">
+        <v>80609</v>
+      </c>
+      <c r="G278" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K278" s="4">
+        <v>45</v>
+      </c>
+      <c r="L278" s="4">
+        <v>33.81</v>
+      </c>
+      <c r="M278" s="4">
+        <v>1521.45</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="279">
+      <c r="A279" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="2">
+        <v>16</v>
+      </c>
+      <c r="E279" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F279" s="2">
+        <v>80565</v>
+      </c>
+      <c r="G279" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K279" s="4">
+        <v>1</v>
+      </c>
+      <c r="L279" s="4">
+        <v>190</v>
+      </c>
+      <c r="M279" s="4">
+        <v>190</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="280">
+      <c r="A280" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="2">
+        <v>16</v>
+      </c>
+      <c r="E280" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F280" s="2">
+        <v>80566</v>
+      </c>
+      <c r="G280" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K280" s="4">
+        <v>2</v>
+      </c>
+      <c r="L280" s="4">
+        <v>1</v>
+      </c>
+      <c r="M280" s="4">
+        <v>2</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="281">
+      <c r="A281" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="2">
+        <v>16</v>
+      </c>
+      <c r="E281" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F281" s="2">
+        <v>80562</v>
+      </c>
+      <c r="G281" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281" s="4">
+        <v>1</v>
+      </c>
+      <c r="L281" s="4">
+        <v>180</v>
+      </c>
+      <c r="M281" s="4">
+        <v>180</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="282">
+      <c r="A282" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" s="2">
+        <v>16</v>
+      </c>
+      <c r="E282" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F282" s="2">
+        <v>80567</v>
+      </c>
+      <c r="G282" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K282" s="4">
+        <v>1</v>
+      </c>
+      <c r="L282" s="4">
+        <v>57.54</v>
+      </c>
+      <c r="M282" s="4">
+        <v>57.54</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="283">
+      <c r="A283" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" s="2">
+        <v>16</v>
+      </c>
+      <c r="E283" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F283" s="2">
+        <v>80567</v>
+      </c>
+      <c r="G283" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K283" s="4">
+        <v>5</v>
+      </c>
+      <c r="L283" s="4">
+        <v>17.82</v>
+      </c>
+      <c r="M283" s="4">
+        <v>89.1</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="284">
+      <c r="A284" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="2">
+        <v>16</v>
+      </c>
+      <c r="E284" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F284" s="2">
+        <v>80567</v>
+      </c>
+      <c r="G284" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K284" s="4">
+        <v>2</v>
+      </c>
+      <c r="L284" s="4">
+        <v>30.47</v>
+      </c>
+      <c r="M284" s="4">
+        <v>60.94</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="285">
+      <c r="A285" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" s="2">
+        <v>16</v>
+      </c>
+      <c r="E285" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F285" s="2">
+        <v>80567</v>
+      </c>
+      <c r="G285" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K285" s="4">
+        <v>10</v>
+      </c>
+      <c r="L285" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="M285" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="286">
+      <c r="A286" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D286" s="2">
+        <v>16</v>
+      </c>
+      <c r="E286" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F286" s="2">
+        <v>80561</v>
+      </c>
+      <c r="G286" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K286" s="4">
+        <v>200</v>
+      </c>
+      <c r="L286" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="M286" s="4">
+        <v>700</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="287">
+      <c r="A287" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="2">
+        <v>16</v>
+      </c>
+      <c r="E287" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F287" s="2">
+        <v>80561</v>
+      </c>
+      <c r="G287" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K287" s="4">
+        <v>25</v>
+      </c>
+      <c r="L287" s="4">
+        <v>36.8</v>
+      </c>
+      <c r="M287" s="4">
+        <v>920</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="288">
+      <c r="A288" s="2">
+        <v>2510</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D288" s="2">
+        <v>16</v>
+      </c>
+      <c r="E288" s="3">
+        <v>45972.588391713</v>
+      </c>
+      <c r="F288" s="2">
+        <v>80564</v>
+      </c>
+      <c r="G288" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K288" s="4">
+        <v>2</v>
+      </c>
+      <c r="L288" s="4">
+        <v>220</v>
+      </c>
+      <c r="M288" s="4">
+        <v>440</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="289">
+      <c r="A289" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D289" s="2">
+        <v>35</v>
+      </c>
+      <c r="E289" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F289" s="2">
+        <v>80579</v>
+      </c>
+      <c r="G289" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K289" s="4">
+        <v>5</v>
+      </c>
+      <c r="L289" s="4">
+        <v>42</v>
+      </c>
+      <c r="M289" s="4">
+        <v>210</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="290">
+      <c r="A290" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D290" s="2">
+        <v>35</v>
+      </c>
+      <c r="E290" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F290" s="2">
+        <v>80618</v>
+      </c>
+      <c r="G290" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K290" s="4">
+        <v>3</v>
+      </c>
+      <c r="L290" s="4">
+        <v>293.08</v>
+      </c>
+      <c r="M290" s="4">
+        <v>879.24</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="291">
+      <c r="A291" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D291" s="2">
+        <v>35</v>
+      </c>
+      <c r="E291" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F291" s="2">
+        <v>80579</v>
+      </c>
+      <c r="G291" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K291" s="4">
+        <v>200</v>
+      </c>
+      <c r="L291" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="M291" s="4">
+        <v>1408</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="292">
+      <c r="A292" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D292" s="2">
+        <v>35</v>
+      </c>
+      <c r="E292" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F292" s="2">
+        <v>80579</v>
+      </c>
+      <c r="G292" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K292" s="4">
+        <v>5</v>
+      </c>
+      <c r="L292" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="M292" s="4">
+        <v>21</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="293">
+      <c r="A293" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" s="2">
+        <v>35</v>
+      </c>
+      <c r="E293" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F293" s="2">
+        <v>80579</v>
+      </c>
+      <c r="G293" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K293" s="4">
+        <v>2</v>
+      </c>
+      <c r="L293" s="4">
+        <v>25</v>
+      </c>
+      <c r="M293" s="4">
+        <v>50</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="294">
+      <c r="A294" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D294" s="2">
+        <v>35</v>
+      </c>
+      <c r="E294" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F294" s="2">
+        <v>80576</v>
+      </c>
+      <c r="G294" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" s="4">
+        <v>90</v>
+      </c>
+      <c r="L294" s="4">
+        <v>3.33333</v>
+      </c>
+      <c r="M294" s="4">
+        <v>299.9997</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="295">
+      <c r="A295" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D295" s="2">
+        <v>35</v>
+      </c>
+      <c r="E295" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F295" s="2">
+        <v>80576</v>
+      </c>
+      <c r="G295" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" s="4">
+        <v>60</v>
+      </c>
+      <c r="L295" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="M295" s="4">
+        <v>576</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="296">
+      <c r="A296" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D296" s="2">
+        <v>35</v>
+      </c>
+      <c r="E296" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F296" s="2">
+        <v>80576</v>
+      </c>
+      <c r="G296" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K296" s="4">
+        <v>90</v>
+      </c>
+      <c r="L296" s="4">
+        <v>14</v>
+      </c>
+      <c r="M296" s="4">
+        <v>1260</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="297">
+      <c r="A297" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D297" s="2">
+        <v>35</v>
+      </c>
+      <c r="E297" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F297" s="2">
+        <v>80577</v>
+      </c>
+      <c r="G297" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K297" s="4">
+        <v>3</v>
+      </c>
+      <c r="L297" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="M297" s="4">
+        <v>29.19</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="298">
+      <c r="A298" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D298" s="2">
+        <v>35</v>
+      </c>
+      <c r="E298" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F298" s="2">
+        <v>80577</v>
+      </c>
+      <c r="G298" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K298" s="4">
+        <v>1</v>
+      </c>
+      <c r="L298" s="4">
+        <v>990</v>
+      </c>
+      <c r="M298" s="4">
+        <v>990</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="299">
+      <c r="A299" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D299" s="2">
+        <v>35</v>
+      </c>
+      <c r="E299" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F299" s="2">
+        <v>80577</v>
+      </c>
+      <c r="G299" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K299" s="4">
+        <v>5</v>
+      </c>
+      <c r="L299" s="4">
+        <v>15.77</v>
+      </c>
+      <c r="M299" s="4">
+        <v>78.85</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="300">
+      <c r="A300" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D300" s="2">
+        <v>35</v>
+      </c>
+      <c r="E300" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F300" s="2">
+        <v>80577</v>
+      </c>
+      <c r="G300" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K300" s="4">
+        <v>5</v>
+      </c>
+      <c r="L300" s="4">
+        <v>4.77</v>
+      </c>
+      <c r="M300" s="4">
+        <v>23.85</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="301">
+      <c r="A301" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D301" s="2">
+        <v>35</v>
+      </c>
+      <c r="E301" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F301" s="2">
+        <v>80575</v>
+      </c>
+      <c r="G301" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K301" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L301" s="4">
+        <v>0.21588</v>
+      </c>
+      <c r="M301" s="4">
+        <v>431.76</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="302">
+      <c r="A302" s="2">
+        <v>2505</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D302" s="2">
+        <v>35</v>
+      </c>
+      <c r="E302" s="3">
+        <v>45972.5904607292</v>
+      </c>
+      <c r="F302" s="2">
+        <v>80575</v>
+      </c>
+      <c r="G302" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K302" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L302" s="4">
+        <v>0.704645</v>
+      </c>
+      <c r="M302" s="4">
+        <v>1409.29</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="303">
+      <c r="A303" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D303" s="2">
+        <v>70</v>
+      </c>
+      <c r="E303" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F303" s="2">
+        <v>80570</v>
+      </c>
+      <c r="G303" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K303" s="4">
+        <v>50</v>
+      </c>
+      <c r="L303" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M303" s="4">
+        <v>225</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="304">
+      <c r="A304" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D304" s="2">
+        <v>70</v>
+      </c>
+      <c r="E304" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F304" s="2">
+        <v>80570</v>
+      </c>
+      <c r="G304" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K304" s="4">
+        <v>1</v>
+      </c>
+      <c r="L304" s="4">
+        <v>68</v>
+      </c>
+      <c r="M304" s="4">
+        <v>68</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="305">
+      <c r="A305" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D305" s="2">
+        <v>70</v>
+      </c>
+      <c r="E305" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F305" s="2">
+        <v>80569</v>
+      </c>
+      <c r="G305" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K305" s="4">
+        <v>20</v>
+      </c>
+      <c r="L305" s="4">
+        <v>23.43</v>
+      </c>
+      <c r="M305" s="4">
+        <v>468.6</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="306">
+      <c r="A306" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D306" s="2">
+        <v>70</v>
+      </c>
+      <c r="E306" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F306" s="2">
+        <v>80571</v>
+      </c>
+      <c r="G306" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K306" s="4">
+        <v>2</v>
+      </c>
+      <c r="L306" s="4">
+        <v>291</v>
+      </c>
+      <c r="M306" s="4">
+        <v>582</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="307">
+      <c r="A307" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D307" s="2">
+        <v>70</v>
+      </c>
+      <c r="E307" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F307" s="2">
+        <v>80568</v>
+      </c>
+      <c r="G307" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K307" s="4">
+        <v>20</v>
+      </c>
+      <c r="L307" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M307" s="4">
+        <v>116</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="308">
+      <c r="A308" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D308" s="2">
+        <v>70</v>
+      </c>
+      <c r="E308" s="3">
+        <v>45972.593426956</v>
+      </c>
+      <c r="F308" s="2">
+        <v>80568</v>
+      </c>
+      <c r="G308" s="3">
+        <v>45972</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K308" s="4">
+        <v>250</v>
+      </c>
+      <c r="L308" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M308" s="4">
+        <v>1450</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="309">
+      <c r="A309" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D309" s="2">
+        <v>2</v>
+      </c>
+      <c r="E309" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F309" s="2">
+        <v>80578</v>
+      </c>
+      <c r="G309" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K309" s="4">
+        <v>2</v>
+      </c>
+      <c r="L309" s="4">
+        <v>275</v>
+      </c>
+      <c r="M309" s="4">
+        <v>550</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="310">
+      <c r="A310" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D310" s="2">
+        <v>2</v>
+      </c>
+      <c r="E310" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F310" s="2">
+        <v>80578</v>
+      </c>
+      <c r="G310" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K310" s="4">
+        <v>2</v>
+      </c>
+      <c r="L310" s="4">
+        <v>45</v>
+      </c>
+      <c r="M310" s="4">
+        <v>90</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="311">
+      <c r="A311" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D311" s="2">
+        <v>2</v>
+      </c>
+      <c r="E311" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F311" s="2">
+        <v>80578</v>
+      </c>
+      <c r="G311" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K311" s="4">
+        <v>3</v>
+      </c>
+      <c r="L311" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="M311" s="4">
+        <v>20.4</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="312">
+      <c r="A312" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D312" s="2">
+        <v>2</v>
+      </c>
+      <c r="E312" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F312" s="2">
+        <v>80578</v>
+      </c>
+      <c r="G312" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K312" s="4">
+        <v>3</v>
+      </c>
+      <c r="L312" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="M312" s="4">
+        <v>127.5</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="313">
+      <c r="A313" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D313" s="2">
+        <v>2</v>
+      </c>
+      <c r="E313" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F313" s="2">
+        <v>80578</v>
+      </c>
+      <c r="G313" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K313" s="4">
+        <v>2</v>
+      </c>
+      <c r="L313" s="4">
+        <v>55</v>
+      </c>
+      <c r="M313" s="4">
+        <v>110</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="314">
+      <c r="A314" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D314" s="2">
+        <v>2</v>
+      </c>
+      <c r="E314" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F314" s="2">
+        <v>80574</v>
+      </c>
+      <c r="G314" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K314" s="4">
+        <v>160</v>
+      </c>
+      <c r="L314" s="4">
+        <v>27.792</v>
+      </c>
+      <c r="M314" s="4">
+        <v>4446.72</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="315">
+      <c r="A315" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D315" s="2">
+        <v>2</v>
+      </c>
+      <c r="E315" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F315" s="2">
+        <v>80574</v>
+      </c>
+      <c r="G315" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K315" s="4">
+        <v>80</v>
+      </c>
+      <c r="L315" s="4">
+        <v>66.12</v>
+      </c>
+      <c r="M315" s="4">
+        <v>5289.6</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="316">
+      <c r="A316" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D316" s="2">
+        <v>2</v>
+      </c>
+      <c r="E316" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F316" s="2">
+        <v>80574</v>
+      </c>
+      <c r="G316" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K316" s="4">
+        <v>28</v>
+      </c>
+      <c r="L316" s="4">
+        <v>101.82857</v>
+      </c>
+      <c r="M316" s="4">
+        <v>2851.19996</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="317">
+      <c r="A317" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2</v>
+      </c>
+      <c r="E317" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F317" s="2">
+        <v>80574</v>
+      </c>
+      <c r="G317" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K317" s="4">
+        <v>40</v>
+      </c>
+      <c r="L317" s="4">
+        <v>12</v>
+      </c>
+      <c r="M317" s="4">
+        <v>480</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="318">
+      <c r="A318" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2</v>
+      </c>
+      <c r="E318" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F318" s="2">
+        <v>80592</v>
+      </c>
+      <c r="G318" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K318" s="4">
+        <v>150</v>
+      </c>
+      <c r="L318" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="M318" s="4">
+        <v>511.5</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="319">
+      <c r="A319" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D319" s="2">
+        <v>2</v>
+      </c>
+      <c r="E319" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F319" s="2">
+        <v>80592</v>
+      </c>
+      <c r="G319" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K319" s="4">
+        <v>60</v>
+      </c>
+      <c r="L319" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="M319" s="4">
+        <v>414</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="320">
+      <c r="A320" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D320" s="2">
+        <v>2</v>
+      </c>
+      <c r="E320" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F320" s="2">
+        <v>80592</v>
+      </c>
+      <c r="G320" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K320" s="4">
+        <v>300</v>
+      </c>
+      <c r="L320" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="M320" s="4">
+        <v>3270</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O320" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="321">
+      <c r="A321" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2</v>
+      </c>
+      <c r="E321" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F321" s="2">
+        <v>80592</v>
+      </c>
+      <c r="G321" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K321" s="4">
+        <v>180</v>
+      </c>
+      <c r="L321" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="M321" s="4">
+        <v>2682</v>
+      </c>
+      <c r="N321" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O321" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="322">
+      <c r="A322" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2</v>
+      </c>
+      <c r="E322" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F322" s="2">
+        <v>80592</v>
+      </c>
+      <c r="G322" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K322" s="4">
+        <v>30</v>
+      </c>
+      <c r="L322" s="4">
+        <v>143</v>
+      </c>
+      <c r="M322" s="4">
+        <v>4290</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O322" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="323">
+      <c r="A323" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2</v>
+      </c>
+      <c r="E323" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F323" s="2">
+        <v>80580</v>
+      </c>
+      <c r="G323" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K323" s="4">
+        <v>1500</v>
+      </c>
+      <c r="L323" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="M323" s="4">
+        <v>675</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O323" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="324">
+      <c r="A324" s="2">
+        <v>2514</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2</v>
+      </c>
+      <c r="E324" s="3">
+        <v>45972.823864456</v>
+      </c>
+      <c r="F324" s="1"/>
+      <c r="G324" s="1"/>
+      <c r="H324" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="K324" s="4">
+        <v>10</v>
+      </c>
+      <c r="L324" s="4">
+        <v>0</v>
+      </c>
+      <c r="M324" s="4">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1"/>
+      <c r="O324" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="325">
+      <c r="A325" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D325" s="2">
+        <v>54</v>
+      </c>
+      <c r="E325" s="3">
+        <v>45972.826716088</v>
+      </c>
+      <c r="F325" s="2">
+        <v>80599</v>
+      </c>
+      <c r="G325" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K325" s="4">
+        <v>20</v>
+      </c>
+      <c r="L325" s="4">
+        <v>160</v>
+      </c>
+      <c r="M325" s="4">
+        <v>3200</v>
+      </c>
+      <c r="N325" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O325" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="326">
+      <c r="A326" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D326" s="2">
+        <v>5</v>
+      </c>
+      <c r="E326" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F326" s="2">
+        <v>80605</v>
+      </c>
+      <c r="G326" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K326" s="4">
+        <v>4</v>
+      </c>
+      <c r="L326" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="M326" s="4">
+        <v>46</v>
+      </c>
+      <c r="N326" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O326" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="327">
+      <c r="A327" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D327" s="2">
+        <v>5</v>
+      </c>
+      <c r="E327" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F327" s="2">
+        <v>80605</v>
+      </c>
+      <c r="G327" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K327" s="4">
+        <v>4</v>
+      </c>
+      <c r="L327" s="4">
+        <v>55</v>
+      </c>
+      <c r="M327" s="4">
+        <v>220</v>
+      </c>
+      <c r="N327" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O327" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="328">
+      <c r="A328" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D328" s="2">
+        <v>5</v>
+      </c>
+      <c r="E328" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F328" s="2">
+        <v>80605</v>
+      </c>
+      <c r="G328" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K328" s="4">
+        <v>3</v>
+      </c>
+      <c r="L328" s="4">
+        <v>49</v>
+      </c>
+      <c r="M328" s="4">
+        <v>147</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O328" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="329">
+      <c r="A329" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D329" s="2">
+        <v>5</v>
+      </c>
+      <c r="E329" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F329" s="2">
+        <v>80605</v>
+      </c>
+      <c r="G329" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K329" s="4">
+        <v>10</v>
+      </c>
+      <c r="L329" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="M329" s="4">
+        <v>65</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O329" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="330">
+      <c r="A330" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D330" s="2">
+        <v>5</v>
+      </c>
+      <c r="E330" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F330" s="2">
+        <v>80605</v>
+      </c>
+      <c r="G330" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K330" s="4">
+        <v>10</v>
+      </c>
+      <c r="L330" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="M330" s="4">
+        <v>65</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O330" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="331">
+      <c r="A331" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D331" s="2">
+        <v>5</v>
+      </c>
+      <c r="E331" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F331" s="2">
+        <v>80601</v>
+      </c>
+      <c r="G331" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K331" s="4">
+        <v>21</v>
+      </c>
+      <c r="L331" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="M331" s="4">
+        <v>107.52</v>
+      </c>
+      <c r="N331" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O331" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="332">
+      <c r="A332" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D332" s="2">
+        <v>5</v>
+      </c>
+      <c r="E332" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F332" s="2">
+        <v>80601</v>
+      </c>
+      <c r="G332" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K332" s="4">
+        <v>21</v>
+      </c>
+      <c r="L332" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="M332" s="4">
+        <v>312.9</v>
+      </c>
+      <c r="N332" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O332" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="333">
+      <c r="A333" s="2">
+        <v>2513</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D333" s="2">
+        <v>5</v>
+      </c>
+      <c r="E333" s="3">
+        <v>45972.8272179514</v>
+      </c>
+      <c r="F333" s="2">
+        <v>80601</v>
+      </c>
+      <c r="G333" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K333" s="4">
+        <v>21</v>
+      </c>
+      <c r="L333" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="M333" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="N333" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O333" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="334">
+      <c r="A334" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334" s="2">
+        <v>6</v>
+      </c>
+      <c r="E334" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F334" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G334" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K334" s="4">
+        <v>20</v>
+      </c>
+      <c r="L334" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M334" s="4">
+        <v>90</v>
+      </c>
+      <c r="N334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O334" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="335">
+      <c r="A335" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="2">
+        <v>6</v>
+      </c>
+      <c r="E335" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F335" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G335" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K335" s="4">
+        <v>1</v>
+      </c>
+      <c r="L335" s="4">
+        <v>144.46</v>
+      </c>
+      <c r="M335" s="4">
+        <v>144.46</v>
+      </c>
+      <c r="N335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O335" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="336">
+      <c r="A336" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" s="2">
+        <v>6</v>
+      </c>
+      <c r="E336" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F336" s="2">
+        <v>80595</v>
+      </c>
+      <c r="G336" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K336" s="4">
+        <v>3</v>
+      </c>
+      <c r="L336" s="4">
+        <v>34.28</v>
+      </c>
+      <c r="M336" s="4">
+        <v>102.84</v>
+      </c>
+      <c r="N336" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O336" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="337">
+      <c r="A337" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="2">
+        <v>6</v>
+      </c>
+      <c r="E337" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F337" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G337" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K337" s="4">
+        <v>2</v>
+      </c>
+      <c r="L337" s="4">
+        <v>270</v>
+      </c>
+      <c r="M337" s="4">
+        <v>540</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O337" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="338">
+      <c r="A338" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="2">
+        <v>6</v>
+      </c>
+      <c r="E338" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F338" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G338" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K338" s="4">
+        <v>3</v>
+      </c>
+      <c r="L338" s="4">
+        <v>90</v>
+      </c>
+      <c r="M338" s="4">
+        <v>270</v>
+      </c>
+      <c r="N338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O338" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="339">
+      <c r="A339" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D339" s="2">
+        <v>6</v>
+      </c>
+      <c r="E339" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F339" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G339" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K339" s="4">
+        <v>3</v>
+      </c>
+      <c r="L339" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="M339" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="N339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O339" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="340">
+      <c r="A340" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D340" s="2">
+        <v>6</v>
+      </c>
+      <c r="E340" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F340" s="2">
+        <v>80596</v>
+      </c>
+      <c r="G340" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K340" s="4">
+        <v>5</v>
+      </c>
+      <c r="L340" s="4">
+        <v>4.62</v>
+      </c>
+      <c r="M340" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="N340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O340" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="341">
+      <c r="A341" s="2">
+        <v>2515</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="2">
+        <v>6</v>
+      </c>
+      <c r="E341" s="3">
+        <v>45973.4771019097</v>
+      </c>
+      <c r="F341" s="1"/>
+      <c r="G341" s="1"/>
+      <c r="H341" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K341" s="4">
+        <v>10</v>
+      </c>
+      <c r="L341" s="4">
+        <v>0</v>
+      </c>
+      <c r="M341" s="4">
+        <v>0</v>
+      </c>
+      <c r="N341" s="1"/>
+      <c r="O341" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="342">
+      <c r="A342" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D342" s="2">
+        <v>81</v>
+      </c>
+      <c r="E342" s="3">
+        <v>45973.4787109606</v>
+      </c>
+      <c r="F342" s="2">
+        <v>80594</v>
+      </c>
+      <c r="G342" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K342" s="4">
+        <v>10</v>
+      </c>
+      <c r="L342" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="M342" s="4">
+        <v>65</v>
+      </c>
+      <c r="N342" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O342" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="343">
+      <c r="A343" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D343" s="2">
+        <v>81</v>
+      </c>
+      <c r="E343" s="3">
+        <v>45973.4787109606</v>
+      </c>
+      <c r="F343" s="2">
+        <v>80594</v>
+      </c>
+      <c r="G343" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K343" s="4">
+        <v>20</v>
+      </c>
+      <c r="L343" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="M343" s="4">
+        <v>692</v>
+      </c>
+      <c r="N343" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O343" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="344">
+      <c r="A344" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D344" s="2">
+        <v>81</v>
+      </c>
+      <c r="E344" s="3">
+        <v>45973.4787109606</v>
+      </c>
+      <c r="F344" s="2">
+        <v>80593</v>
+      </c>
+      <c r="G344" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="K344" s="4">
+        <v>10</v>
+      </c>
+      <c r="L344" s="4">
+        <v>90</v>
+      </c>
+      <c r="M344" s="4">
+        <v>900</v>
+      </c>
+      <c r="N344" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O344" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="345">
+      <c r="A345" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D345" s="2">
+        <v>81</v>
+      </c>
+      <c r="E345" s="3">
+        <v>45973.4787109606</v>
+      </c>
+      <c r="F345" s="2">
+        <v>80593</v>
+      </c>
+      <c r="G345" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K345" s="4">
+        <v>1</v>
+      </c>
+      <c r="L345" s="4">
+        <v>689</v>
+      </c>
+      <c r="M345" s="4">
+        <v>689</v>
+      </c>
+      <c r="N345" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O345" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="346">
+      <c r="A346" s="2">
+        <v>2316</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D346" s="2">
+        <v>81</v>
+      </c>
+      <c r="E346" s="3">
+        <v>45973.4787109606</v>
+      </c>
+      <c r="F346" s="2">
+        <v>80593</v>
+      </c>
+      <c r="G346" s="3">
+        <v>45973</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K346" s="4">
+        <v>9</v>
+      </c>
+      <c r="L346" s="4">
+        <v>310</v>
+      </c>
+      <c r="M346" s="4">
+        <v>2790</v>
+      </c>
+      <c r="N346" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O346" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="347">
+      <c r="A347" s="2">
+        <v>2411</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D347" s="2">
+        <v>71</v>
+      </c>
+      <c r="E347" s="3">
+        <v>45974.3832261111</v>
+      </c>
+      <c r="F347" s="2">
+        <v>80623</v>
+      </c>
+      <c r="G347" s="3">
+        <v>45974</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K347" s="4">
+        <v>12</v>
+      </c>
+      <c r="L347" s="4">
+        <v>87</v>
+      </c>
+      <c r="M347" s="4">
+        <v>1044</v>
+      </c>
+      <c r="N347" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O347" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="348">
+      <c r="A348" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D348" s="2">
+        <v>6</v>
+      </c>
+      <c r="E348" s="3">
+        <v>45974.3838414236</v>
+      </c>
+      <c r="F348" s="2">
+        <v>80624</v>
+      </c>
+      <c r="G348" s="3">
+        <v>45974</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K348" s="4">
+        <v>30</v>
+      </c>
+      <c r="L348" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M348" s="4">
+        <v>135</v>
+      </c>
+      <c r="N348" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O348" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="349">
+      <c r="A349" s="2">
+        <v>2512</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D349" s="2">
+        <v>6</v>
+      </c>
+      <c r="E349" s="3">
+        <v>45974.3838414236</v>
+      </c>
+      <c r="F349" s="2">
+        <v>80627</v>
+      </c>
+      <c r="G349" s="3">
+        <v>45974</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K349" s="4">
+        <v>75</v>
+      </c>
+      <c r="L349" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="M349" s="4">
+        <v>384</v>
+      </c>
+      <c r="N349" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O349" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="350">
+      <c r="A350" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D350" s="2">
+        <v>59</v>
+      </c>
+      <c r="E350" s="3">
+        <v>45974.4622988079</v>
+      </c>
+      <c r="F350" s="2">
+        <v>80668</v>
+      </c>
+      <c r="G350" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K350" s="4">
+        <v>13</v>
+      </c>
+      <c r="L350" s="4">
+        <v>56</v>
+      </c>
+      <c r="M350" s="4">
+        <v>728</v>
+      </c>
+      <c r="N350" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O350" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="351">
+      <c r="A351" s="2">
+        <v>9991</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D351" s="2">
+        <v>59</v>
+      </c>
+      <c r="E351" s="3">
+        <v>45974.4622988079</v>
+      </c>
+      <c r="F351" s="1"/>
+      <c r="G351" s="1"/>
+      <c r="H351" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K351" s="4">
+        <v>3</v>
+      </c>
+      <c r="L351" s="4">
+        <v>0</v>
+      </c>
+      <c r="M351" s="4">
+        <v>0</v>
+      </c>
+      <c r="N351" s="1"/>
+      <c r="O351" s="1"/>
+    </row>
+    <row ht="12.75" customHeight="1" r="352">
+      <c r="A352" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D352" s="2">
+        <v>258</v>
+      </c>
+      <c r="E352" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F352" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G352" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K352" s="4">
+        <v>500</v>
+      </c>
+      <c r="L352" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="M352" s="4">
+        <v>1100</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O352" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="353">
+      <c r="A353" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" s="2">
+        <v>258</v>
+      </c>
+      <c r="E353" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F353" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G353" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K353" s="4">
+        <v>100</v>
+      </c>
+      <c r="L353" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M353" s="4">
+        <v>450</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O353" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="354">
+      <c r="A354" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D354" s="2">
+        <v>258</v>
+      </c>
+      <c r="E354" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F354" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G354" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K354" s="4">
+        <v>20</v>
+      </c>
+      <c r="L354" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="M354" s="4">
+        <v>310</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O354" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="355">
+      <c r="A355" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D355" s="2">
+        <v>258</v>
+      </c>
+      <c r="E355" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F355" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G355" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K355" s="4">
+        <v>10</v>
+      </c>
+      <c r="L355" s="4">
+        <v>45</v>
+      </c>
+      <c r="M355" s="4">
+        <v>450</v>
+      </c>
+      <c r="N355" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O355" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="356">
+      <c r="A356" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D356" s="2">
+        <v>258</v>
+      </c>
+      <c r="E356" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F356" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G356" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K356" s="4">
+        <v>30</v>
+      </c>
+      <c r="L356" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="M356" s="4">
+        <v>435</v>
+      </c>
+      <c r="N356" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O356" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="357">
+      <c r="A357" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="2">
+        <v>258</v>
+      </c>
+      <c r="E357" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F357" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G357" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K357" s="4">
+        <v>7</v>
+      </c>
+      <c r="L357" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="M357" s="4">
+        <v>74.2</v>
+      </c>
+      <c r="N357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O357" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="358">
+      <c r="A358" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D358" s="2">
+        <v>258</v>
+      </c>
+      <c r="E358" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F358" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G358" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K358" s="4">
+        <v>4</v>
+      </c>
+      <c r="L358" s="4">
+        <v>270</v>
+      </c>
+      <c r="M358" s="4">
+        <v>1080</v>
+      </c>
+      <c r="N358" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O358" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="359">
+      <c r="A359" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D359" s="2">
+        <v>258</v>
+      </c>
+      <c r="E359" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F359" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G359" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K359" s="4">
+        <v>10</v>
+      </c>
+      <c r="L359" s="4">
+        <v>90</v>
+      </c>
+      <c r="M359" s="4">
+        <v>900</v>
+      </c>
+      <c r="N359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O359" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="360">
+      <c r="A360" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D360" s="2">
+        <v>258</v>
+      </c>
+      <c r="E360" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F360" s="2">
+        <v>80669</v>
+      </c>
+      <c r="G360" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K360" s="4">
+        <v>15</v>
+      </c>
+      <c r="L360" s="4">
+        <v>797.5</v>
+      </c>
+      <c r="M360" s="4">
+        <v>11962.5</v>
+      </c>
+      <c r="N360" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O360" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="361">
+      <c r="A361" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D361" s="2">
+        <v>258</v>
+      </c>
+      <c r="E361" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F361" s="2">
+        <v>80658</v>
+      </c>
+      <c r="G361" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K361" s="4">
+        <v>30</v>
+      </c>
+      <c r="L361" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M361" s="4">
+        <v>117</v>
+      </c>
+      <c r="N361" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O361" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="362">
+      <c r="A362" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="2">
+        <v>258</v>
+      </c>
+      <c r="E362" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F362" s="2">
+        <v>80658</v>
+      </c>
+      <c r="G362" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K362" s="4">
+        <v>30</v>
+      </c>
+      <c r="L362" s="4">
+        <v>2</v>
+      </c>
+      <c r="M362" s="4">
+        <v>60</v>
+      </c>
+      <c r="N362" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O362" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="363">
+      <c r="A363" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" s="2">
+        <v>258</v>
+      </c>
+      <c r="E363" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F363" s="2">
+        <v>80658</v>
+      </c>
+      <c r="G363" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K363" s="4">
+        <v>15</v>
+      </c>
+      <c r="L363" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="M363" s="4">
+        <v>208.5</v>
+      </c>
+      <c r="N363" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O363" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="364">
+      <c r="A364" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D364" s="2">
+        <v>258</v>
+      </c>
+      <c r="E364" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F364" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G364" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K364" s="4">
+        <v>50</v>
+      </c>
+      <c r="L364" s="4">
+        <v>12.97</v>
+      </c>
+      <c r="M364" s="4">
+        <v>648.5</v>
+      </c>
+      <c r="N364" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O364" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1" r="365">
+      <c r="A365" s="2">
+        <v>2212</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="2">
+        <v>258</v>
+      </c>
+      <c r="E365" s="3">
+        <v>45975.3898233565</v>
+      </c>
+      <c r="F365" s="2">
+        <v>80657</v>
+      </c>
+      <c r="G365" s="3">
+        <v>45975</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>474</v>
+      </c>
